--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E012E465-8AF9-4544-AEFD-FF5BCF1748D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C16E090-C0AB-4049-89A7-FECEC2FBECCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="243">
   <si>
     <t>A</t>
   </si>
@@ -83,30 +83,12 @@
     <t>Belora Abadi Husny</t>
   </si>
   <si>
-    <t>Miguel Angel Velazquez</t>
-  </si>
-  <si>
-    <t>2020-02-23 08:29:59</t>
-  </si>
-  <si>
-    <t>2020-02-23 08:07:03</t>
-  </si>
-  <si>
     <t>Manual</t>
   </si>
   <si>
     <t>Lamudi</t>
   </si>
   <si>
-    <t xml:space="preserve">Paloma Villamil </t>
-  </si>
-  <si>
-    <t>Palomavillamilrios@gmail.com</t>
-  </si>
-  <si>
-    <t>be_rnie@yahoo.com</t>
-  </si>
-  <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
@@ -155,369 +137,631 @@
     <t xml:space="preserve">Manual </t>
   </si>
   <si>
-    <t xml:space="preserve">Lamudi </t>
-  </si>
-  <si>
     <t>DATOS FALSOS, NO LE INTERESA, BAJO PRESUPUESTO, NO APTOS PARA NUESTROS DESARROLLOS</t>
   </si>
   <si>
-    <t>2020-02-29 15:33:07</t>
-  </si>
-  <si>
-    <t>2020-02-29 09:37:44</t>
-  </si>
-  <si>
-    <t>2020-02-28 18:19:29</t>
-  </si>
-  <si>
-    <t>2020-02-28 18:17:18</t>
-  </si>
-  <si>
-    <t>2020-02-28 16:57:44</t>
-  </si>
-  <si>
-    <t>2020-02-28 15:56:09</t>
-  </si>
-  <si>
-    <t>2020-02-28 15:54:34</t>
-  </si>
-  <si>
-    <t>2020-02-28 15:53:53</t>
-  </si>
-  <si>
-    <t>2020-02-28 15:52:50</t>
-  </si>
-  <si>
-    <t>2020-02-28 15:52:11</t>
-  </si>
-  <si>
-    <t>2020-02-28 12:13:49</t>
-  </si>
-  <si>
-    <t>2020-02-28 09:00:50</t>
-  </si>
-  <si>
-    <t>2020-02-28 08:04:12</t>
-  </si>
-  <si>
-    <t>2020-02-27 22:01:16</t>
-  </si>
-  <si>
-    <t>2020-02-27 14:02:34</t>
-  </si>
-  <si>
-    <t>2020-02-27 13:39:47</t>
-  </si>
-  <si>
-    <t>2020-02-27 10:47:24</t>
-  </si>
-  <si>
-    <t>2020-02-27 10:27:04</t>
-  </si>
-  <si>
-    <t>2020-02-26 20:55:21</t>
-  </si>
-  <si>
-    <t>2020-02-26 13:02:40</t>
-  </si>
-  <si>
-    <t>2020-02-26 12:52:08</t>
-  </si>
-  <si>
-    <t>2020-02-26 12:46:47</t>
-  </si>
-  <si>
-    <t>2020-02-26 12:27:34</t>
-  </si>
-  <si>
-    <t>2020-02-26 11:23:30</t>
-  </si>
-  <si>
-    <t>2020-02-25 15:48:01</t>
-  </si>
-  <si>
-    <t>2020-02-24 14:42:17</t>
-  </si>
-  <si>
-    <t>2020-02-23 16:37:48</t>
-  </si>
-  <si>
-    <t>2020-02-23 12:38:27</t>
-  </si>
-  <si>
-    <t>2020-02-23 10:18:48</t>
-  </si>
-  <si>
-    <t>2020-02-23 10:17:14</t>
-  </si>
-  <si>
-    <t>2020-02-23 10:04:21</t>
-  </si>
-  <si>
     <t>Laura Ortega</t>
   </si>
   <si>
     <t>Messenger</t>
   </si>
   <si>
-    <t>Carlos Canto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christina Bonelli </t>
-  </si>
-  <si>
-    <t>Giovanna Valenzuela</t>
-  </si>
-  <si>
-    <t>Karla Olmos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Nava </t>
-  </si>
-  <si>
-    <t>Alicia Juarez Vega</t>
-  </si>
-  <si>
-    <t>Maria Sotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mrs Sara </t>
-  </si>
-  <si>
-    <t>Noemi Enriquez Fuentes</t>
-  </si>
-  <si>
-    <t>Neto Martinez</t>
-  </si>
-  <si>
-    <t>Alvaro Quezada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Suarezy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marisol Toledo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josh Martz </t>
-  </si>
-  <si>
-    <t>Bernardo Serrano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristina Cano Martinez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirelle Dávila Gutiérrez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabiola Calderón Herrera </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libi Ayala </t>
-  </si>
-  <si>
-    <t>NORI BEATRIZ RODRIGUEZ SANCHEZ</t>
-  </si>
-  <si>
-    <t>Francisco Escobosa</t>
-  </si>
-  <si>
-    <t>Rafael Yanes</t>
-  </si>
-  <si>
-    <t>Alaciel Morales</t>
-  </si>
-  <si>
-    <t>Salomon Adici</t>
-  </si>
-  <si>
-    <t>ADRIAN SILVA</t>
-  </si>
-  <si>
-    <t>Rocio De la fuente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Ignacio Alle Carrera </t>
-  </si>
-  <si>
-    <t>Jairo Rodríquez</t>
-  </si>
-  <si>
-    <t>GABRIELA SETIEN</t>
-  </si>
-  <si>
-    <t>GEORGINA RUVALCABA</t>
-  </si>
-  <si>
-    <t>DIEGO CAICEDO</t>
-  </si>
-  <si>
-    <t>Bernie RC</t>
-  </si>
-  <si>
-    <t>(55) 6302-6803</t>
-  </si>
-  <si>
-    <t>(55) 1452-4150</t>
-  </si>
-  <si>
-    <t>19009047.tex@gmail.com</t>
-  </si>
-  <si>
-    <t>Christibonelli@gmail.com</t>
-  </si>
-  <si>
-    <t>giovb18@hotmail.com</t>
-  </si>
-  <si>
-    <t>kolmosg@gmail.com</t>
-  </si>
-  <si>
-    <t>Montsegine@yahoo.com</t>
-  </si>
-  <si>
-    <t>alison0606@hotmail.com</t>
-  </si>
-  <si>
-    <t>mariasotes@gmail.com</t>
-  </si>
-  <si>
-    <t>se62554@gmail.com</t>
-  </si>
-  <si>
-    <t>noemi_ef28@hotmail.com</t>
-  </si>
-  <si>
-    <t>servintprof.1@gmail.com</t>
-  </si>
-  <si>
-    <t>medium35@hotmail.com</t>
-  </si>
-  <si>
-    <t>Mcabrera@lmasesores.mx</t>
-  </si>
-  <si>
-    <t>marisol.toledo@outlook.com</t>
-  </si>
-  <si>
-    <t>joshdavidmartz@gmail.com</t>
-  </si>
-  <si>
-    <t>b.serrano89@hotmail.com</t>
-  </si>
-  <si>
-    <t>criscano07@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>mirelledavila925@gmail.com</t>
-  </si>
-  <si>
-    <t>domina9112@gmail.com</t>
-  </si>
-  <si>
-    <t>libi.ayala@gmail.com</t>
-  </si>
-  <si>
-    <t>beatriznoris@hotmail.com</t>
-  </si>
-  <si>
-    <t>escobosapancho@gmail.com</t>
-  </si>
-  <si>
-    <t>ryanes@experto.com.mx</t>
-  </si>
-  <si>
-    <t>alacielmc@yahoo.com</t>
-  </si>
-  <si>
-    <t>atlixco14@hotmail.com</t>
-  </si>
-  <si>
-    <t>adsila.96s@gmail.com</t>
-  </si>
-  <si>
-    <t>dannielcaba@outloock.es</t>
-  </si>
-  <si>
-    <t>cocoalle@hotmail.com</t>
-  </si>
-  <si>
-    <t>jairomrg@gmail.com</t>
-  </si>
-  <si>
-    <t>gabrielasetien@hotmail.com</t>
-  </si>
-  <si>
-    <t>gruvalcabao@hotmail.com</t>
-  </si>
-  <si>
-    <t>dcaicedog@hotmail.com</t>
-  </si>
-  <si>
-    <t>Buzon de voz, envío correo.</t>
-  </si>
-  <si>
-    <t>Buzon de  voz, envío correo.</t>
-  </si>
-  <si>
-    <t>Me contesta su esposa Mayra Cabrera que le envíe cotización del precio base y Brochure para darle información a su esposo.</t>
-  </si>
-  <si>
-    <t>Buzon de voz, envío correo</t>
-  </si>
-  <si>
-    <t>No viable, ofrece servicios de decoración.</t>
-  </si>
-  <si>
-    <t>Quiere rentar algo de 25,000 mil a 30,000mil pesos en polanco</t>
-  </si>
-  <si>
-    <t>Telefono de casa me contesto eva y me colgo</t>
-  </si>
-  <si>
-    <t>BUSCA TERRENOS</t>
-  </si>
-  <si>
-    <t>Visita el desarrollo con su jefe. Ellos trabajan en el edificio de la esquina por Homoero. Van a revisar las opciones 502E y 404A. Doy seguimeinto</t>
-  </si>
-  <si>
-    <t>Cliente de Laura Ortega, intersado en el PH1A</t>
-  </si>
-  <si>
-    <t>Cliente de Laura Ortega, Visita el desarrollo y se lleva varias cotizaciones</t>
-  </si>
-  <si>
-    <t>Me pide información a su correo para su análisis, envío correo.</t>
-  </si>
-  <si>
-    <t>Visita el desarrollo el 23 de febrero. Se lleva cotización del GHC y 701D. No me dió mucha información solo dijo que estaba empezando a buscar opciones. Doy seguimiento</t>
-  </si>
-  <si>
-    <t>Solo le interesa para rentar.</t>
-  </si>
-  <si>
-    <t>El número tel. no existe, envio correo</t>
-  </si>
-  <si>
-    <t>Nos contacta por whapp. Quiere info de lo mas grande. Envié PHA3, GHC y 701D
-Doy seguimiento</t>
-  </si>
-  <si>
-    <t>Nos contacta por whapp y pide info de 3 rec. Le envié 502E y 301B
-Esta fuera de la ciudad pero a su regreso programa visita</t>
-  </si>
-  <si>
-    <t>Visita el desarrollo el 22 de feb ya tarde, se le dio info del 501B GHC 501F y 503E. Hablé con el para que pueda visitar el desarrollo el domingo. Doy seguimiento</t>
-  </si>
-  <si>
-    <t>envie correo con informacion general</t>
-  </si>
-  <si>
-    <t>No contetsa envío correo con información general.</t>
-  </si>
-  <si>
-    <t>23 - 29 de Febrero del 2020</t>
+    <t>2020-03-08 12:45:52</t>
+  </si>
+  <si>
+    <t>2020-03-08 12:28:06</t>
+  </si>
+  <si>
+    <t>2020-03-08 08:17:07</t>
+  </si>
+  <si>
+    <t>2020-03-08 07:56:07</t>
+  </si>
+  <si>
+    <t>2020-03-07 19:12:29</t>
+  </si>
+  <si>
+    <t>2020-03-07 09:15:51</t>
+  </si>
+  <si>
+    <t>2020-03-06 21:43:57</t>
+  </si>
+  <si>
+    <t>2020-03-06 15:50:32</t>
+  </si>
+  <si>
+    <t>2020-03-06 15:39:41</t>
+  </si>
+  <si>
+    <t>2020-03-06 13:03:28</t>
+  </si>
+  <si>
+    <t>2020-03-06 12:00:33</t>
+  </si>
+  <si>
+    <t>2020-03-06 09:05:12</t>
+  </si>
+  <si>
+    <t>2020-03-06 01:02:31</t>
+  </si>
+  <si>
+    <t>2020-03-05 16:03:39</t>
+  </si>
+  <si>
+    <t>2020-03-05 15:42:16</t>
+  </si>
+  <si>
+    <t>2020-03-05 14:45:48</t>
+  </si>
+  <si>
+    <t>2020-03-05 14:37:14</t>
+  </si>
+  <si>
+    <t>2020-03-05 13:46:20</t>
+  </si>
+  <si>
+    <t>2020-03-05 11:59:24</t>
+  </si>
+  <si>
+    <t>2020-03-05 11:36:52</t>
+  </si>
+  <si>
+    <t>2020-03-05 10:34:19</t>
+  </si>
+  <si>
+    <t>2020-03-05 08:12:33</t>
+  </si>
+  <si>
+    <t>2020-03-04 22:25:54</t>
+  </si>
+  <si>
+    <t>2020-03-04 17:09:42</t>
+  </si>
+  <si>
+    <t>2020-03-04 16:29:55</t>
+  </si>
+  <si>
+    <t>2020-03-04 13:11:29</t>
+  </si>
+  <si>
+    <t>2020-03-04 10:19:48</t>
+  </si>
+  <si>
+    <t>2020-03-04 03:47:37</t>
+  </si>
+  <si>
+    <t>2020-03-03 20:02:28</t>
+  </si>
+  <si>
+    <t>2020-03-03 18:44:11</t>
+  </si>
+  <si>
+    <t>2020-03-03 18:27:11</t>
+  </si>
+  <si>
+    <t>2020-03-03 18:27:09</t>
+  </si>
+  <si>
+    <t>2020-03-03 11:59:03</t>
+  </si>
+  <si>
+    <t>2020-03-03 11:48:30</t>
+  </si>
+  <si>
+    <t>2020-03-03 11:46:33</t>
+  </si>
+  <si>
+    <t>2020-03-03 11:46:32</t>
+  </si>
+  <si>
+    <t>2020-03-03 11:46:31</t>
+  </si>
+  <si>
+    <t>2020-03-03 11:44:48</t>
+  </si>
+  <si>
+    <t>2020-03-03 11:44:07</t>
+  </si>
+  <si>
+    <t>2020-03-03 10:36:49</t>
+  </si>
+  <si>
+    <t>2020-03-02 23:32:20</t>
+  </si>
+  <si>
+    <t>2020-03-02 23:32:11</t>
+  </si>
+  <si>
+    <t>2020-03-02 23:29:36</t>
+  </si>
+  <si>
+    <t>2020-03-02 23:29:26</t>
+  </si>
+  <si>
+    <t>2020-03-02 23:29:18</t>
+  </si>
+  <si>
+    <t>2020-03-02 23:28:59</t>
+  </si>
+  <si>
+    <t>2020-03-02 23:28:44</t>
+  </si>
+  <si>
+    <t>2020-03-02 23:27:38</t>
+  </si>
+  <si>
+    <t>2020-03-02 23:27:28</t>
+  </si>
+  <si>
+    <t>2020-03-02 23:23:35</t>
+  </si>
+  <si>
+    <t>2020-03-02 17:47:45</t>
+  </si>
+  <si>
+    <t>2020-03-02 17:38:43</t>
+  </si>
+  <si>
+    <t>2020-03-02 16:29:52</t>
+  </si>
+  <si>
+    <t>2020-03-02 16:29:13</t>
+  </si>
+  <si>
+    <t>2020-03-02 16:24:33</t>
+  </si>
+  <si>
+    <t>2020-03-02 16:23:29</t>
+  </si>
+  <si>
+    <t>2020-03-02 14:04:10</t>
+  </si>
+  <si>
+    <t>2020-03-02 14:01:27</t>
+  </si>
+  <si>
+    <t>2020-03-02 14:00:47</t>
+  </si>
+  <si>
+    <t>2020-03-02 13:59:41</t>
+  </si>
+  <si>
+    <t>2020-03-02 13:58:55</t>
+  </si>
+  <si>
+    <t>2020-03-02 07:54:31</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Llamada</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>Inmuebles24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estefanía Martínez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanessa Acosta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoloxochitl Aquino </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Miguel Beltran Becerra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Yepez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Luis Ibarra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lfonso </t>
+  </si>
+  <si>
+    <t>LUIS CHAIDEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Carlos Castaneda Sanchez </t>
+  </si>
+  <si>
+    <t>Leticia Torres Esperón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lisbeth Pérez Ramos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Víctor morales lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marisela </t>
+  </si>
+  <si>
+    <t>Alejandro Yampolcky</t>
+  </si>
+  <si>
+    <t>Rafael Bracho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thanya Trujillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lizbeth Garcia </t>
+  </si>
+  <si>
+    <t>Jordi Vilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaen flores silva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apolonia Nestozo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel A Guajardo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepe Mercado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seiko ishiko </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Era Norma Martínez Medina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar Azul </t>
+  </si>
+  <si>
+    <t>IRIS VALDES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Fayad Licona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Job Monobe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">arturo canchola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayan Galicia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Valero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharitty Mata </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Vega </t>
+  </si>
+  <si>
+    <t>David n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Flores Albarran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Díaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola castro calderon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">María delix lagunas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariadna Jalife Gomez </t>
+  </si>
+  <si>
+    <t>Brenda Bustamante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gutierrez Rodrigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna Calderone </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo Chavez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanna González </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Rey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela Jg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elda Arias Velázquez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel Erick Nava Pérez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beka Yeye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Espinosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celeste Baeza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angeles Quintana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfredo Adams Flores </t>
+  </si>
+  <si>
+    <t>Juan Alfonso Austin</t>
+  </si>
+  <si>
+    <t>Mar De González</t>
+  </si>
+  <si>
+    <t>Lilian Cardiel</t>
+  </si>
+  <si>
+    <t>Adri Caramelo Hernandez</t>
+  </si>
+  <si>
+    <t>Ana Xolo</t>
+  </si>
+  <si>
+    <t>Mario Galicia</t>
+  </si>
+  <si>
+    <t>Blanca Gómez</t>
+  </si>
+  <si>
+    <t>Viridiana Garcia</t>
+  </si>
+  <si>
+    <t>Maria Dejesus Rangel</t>
+  </si>
+  <si>
+    <t>Wireless Caller n/a</t>
+  </si>
+  <si>
+    <t>estefaniamartinez128@gmail.com</t>
+  </si>
+  <si>
+    <t>vane.acosta@icloud.com</t>
+  </si>
+  <si>
+    <t>zoloxochitl@gmail.com</t>
+  </si>
+  <si>
+    <t>Lic.robertobeltranbecerra@gmail.com</t>
+  </si>
+  <si>
+    <t>jorge.yepez.vel@gmail.com</t>
+  </si>
+  <si>
+    <t>a2482jl@gmail.com</t>
+  </si>
+  <si>
+    <t>ablancas92-95@hotmail.com</t>
+  </si>
+  <si>
+    <t>luisluismx88@gmail.com</t>
+  </si>
+  <si>
+    <t>karl_kz@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>ltorres@delegado.mx</t>
+  </si>
+  <si>
+    <t>lizbethperez02@icloud.com</t>
+  </si>
+  <si>
+    <t>chakalitoxxx1@gmail.com</t>
+  </si>
+  <si>
+    <t>infinito0610@gmail.com</t>
+  </si>
+  <si>
+    <t>aleymp@hotmail.com</t>
+  </si>
+  <si>
+    <t>brachito@gmail.com</t>
+  </si>
+  <si>
+    <t>thanya_bsb17@hotmail.com</t>
+  </si>
+  <si>
+    <t>lizbethgarcia19@gmail.com</t>
+  </si>
+  <si>
+    <t>jordi@juama.com</t>
+  </si>
+  <si>
+    <t>jaeenflores@hotmail.com</t>
+  </si>
+  <si>
+    <t>Poly_0723@hotmail.com</t>
+  </si>
+  <si>
+    <t>mreyes1243@gmail.com</t>
+  </si>
+  <si>
+    <t>jmz_31@hotmail.com</t>
+  </si>
+  <si>
+    <t>seikoidhiko@gmail.com</t>
+  </si>
+  <si>
+    <t>momismartinez88@gmail.com</t>
+  </si>
+  <si>
+    <t>zulm2009@hotmail.com</t>
+  </si>
+  <si>
+    <t>irisgvaldes@hotmail.com</t>
+  </si>
+  <si>
+    <t>carlosfayad@gmail.com</t>
+  </si>
+  <si>
+    <t>danesacono@gmail.com</t>
+  </si>
+  <si>
+    <t>gordogestor@yahoo.com</t>
+  </si>
+  <si>
+    <t>dayangalicia_2@hotmail.com</t>
+  </si>
+  <si>
+    <t>valero_jasso94@hotmail.com</t>
+  </si>
+  <si>
+    <t>sharitty_0593@hotmail.com</t>
+  </si>
+  <si>
+    <t>alan_vega93@hotmail.com</t>
+  </si>
+  <si>
+    <t>dgmocke760@gmail.com</t>
+  </si>
+  <si>
+    <t>jpfalbarran@gmail.com</t>
+  </si>
+  <si>
+    <t>diazclaudia71@prodigy.net.mx</t>
+  </si>
+  <si>
+    <t>paolaysarah05@gmail.com</t>
+  </si>
+  <si>
+    <t>maridelixlagunas@gmail.com</t>
+  </si>
+  <si>
+    <t>adrianapatricia40@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>brenda.bustamante@jaguar-ep.com</t>
+  </si>
+  <si>
+    <t>skylines_rt@hotmail.com</t>
+  </si>
+  <si>
+    <t>annc2003@hotmail.com</t>
+  </si>
+  <si>
+    <t>hugochavez0106@gmail.com</t>
+  </si>
+  <si>
+    <t>rockstar_ge@hotmail.com</t>
+  </si>
+  <si>
+    <t>primera1969yess@hotmail.com</t>
+  </si>
+  <si>
+    <t>danielajg@hotmail.com</t>
+  </si>
+  <si>
+    <t>eldabertha@hotmail.com</t>
+  </si>
+  <si>
+    <t>mezzi1234510@gmail.com</t>
+  </si>
+  <si>
+    <t>beka_yeye@hotmail.com</t>
+  </si>
+  <si>
+    <t>ferbull94@hotmail.com</t>
+  </si>
+  <si>
+    <t>idania080718@gmail.com</t>
+  </si>
+  <si>
+    <t>pqcz54@hotmail.com</t>
+  </si>
+  <si>
+    <t>alfredoadamsf@hotmail.com</t>
+  </si>
+  <si>
+    <t>ponchiquiu@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>marlene.montealegre@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>alcardf@hotmail.com</t>
+  </si>
+  <si>
+    <t>calabacita_116@hotmail.com</t>
+  </si>
+  <si>
+    <t>rini_serena_darien@hotmail.com</t>
+  </si>
+  <si>
+    <t>marito_barrera@hotmail.com</t>
+  </si>
+  <si>
+    <t>bygomezuaau@gmail.com</t>
+  </si>
+  <si>
+    <t>cviridian14@hotmail.com</t>
+  </si>
+  <si>
+    <t>marichuy_cril@hotmail.com</t>
+  </si>
+  <si>
+    <t>525554604269@phonecall.com</t>
+  </si>
+  <si>
+    <t>Contacta por whapp de la oficina. Busca RENTA avisar cuando tengamos algo de 2 o 3 recámaras. Doy seguimento</t>
+  </si>
+  <si>
+    <t>Envié correo con información general</t>
+  </si>
+  <si>
+    <t>Es broker de Delego inmobiliaria, visitó el desarrollo para conocerlo y poder ofrecerlo a su cliente. Estaremos en contacto</t>
+  </si>
+  <si>
+    <t>Envié correo con info general</t>
+  </si>
+  <si>
+    <t>Envie correo con información general</t>
+  </si>
+  <si>
+    <t>Envié correo con informacion general</t>
+  </si>
+  <si>
+    <t>Vive en la zona y busca info para su hermana que vive en GDL y es posible que se venga a vivir a la CD
+Le mando info de torre B y torre D</t>
+  </si>
+  <si>
+    <t>Envié correo con info general. Le interesa un depto de 2 o 3 rec.
+envié 404A y 502E
+Ofrecí NAPOLES también.</t>
+  </si>
+  <si>
+    <t>Envie correo con info general</t>
+  </si>
+  <si>
+    <t>cliente anterior</t>
+  </si>
+  <si>
+    <t>Envié correo con información general  y se regresa el correo, Doy seguimiento por telefono</t>
+  </si>
+  <si>
+    <t>Busca renta de un depto de 60 m2. No es viable para el comprar uno de 170 m2, no tiene el presupuesto</t>
+  </si>
+  <si>
+    <t>01 - 08 de Marzo del 2020</t>
   </si>
 </sst>
 </file>
@@ -527,7 +771,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -578,19 +822,25 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Avenir Book"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF404040"/>
       <name val="Avenir Book"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +857,12 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -674,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -714,9 +970,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -770,12 +1023,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -851,13 +1105,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>12758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1195,21 +1449,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L235"/>
+  <dimension ref="A4:L263"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="132.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
@@ -1244,7 +1498,7 @@
     </row>
     <row r="15" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="8"/>
@@ -1253,7 +1507,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>161</v>
+        <v>242</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1268,8 +1522,8 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="2:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="B18" s="36" t="s">
-        <v>29</v>
+      <c r="B18" s="35" t="s">
+        <v>23</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="12"/>
@@ -1284,98 +1538,102 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="35">
-        <v>33</v>
-      </c>
-      <c r="E20" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F20" s="35">
+      <c r="B20" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="34">
+        <v>63</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="34">
         <v>0</v>
       </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="33"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="E21" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="35">
-        <v>5</v>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="E21" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="34">
+        <v>1</v>
       </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="E22" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="35">
-        <v>14</v>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="E22" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="34">
+        <v>61</v>
       </c>
       <c r="G22" s="12"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="E23" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="35">
-        <v>14</v>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="E23" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="34">
+        <v>1</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="32"/>
       <c r="G24" s="12"/>
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B25" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="35">
-        <v>6</v>
-      </c>
-      <c r="E25" s="34" t="s">
+      <c r="B25" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="34">
+        <v>24</v>
+      </c>
+      <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="35">
-        <v>11</v>
-      </c>
-      <c r="G25" s="12"/>
-      <c r="H25" s="9"/>
+      <c r="F25" s="34">
+        <v>12</v>
+      </c>
+      <c r="G25" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="40">
+        <v>2</v>
+      </c>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B26" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="35">
-        <v>8</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="F26" s="35">
+      <c r="B26" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="34">
+        <v>38</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="34">
         <v>1</v>
       </c>
       <c r="G26" s="12"/>
@@ -1383,59 +1641,73 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="35">
-        <v>14</v>
-      </c>
-      <c r="E27" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="35">
-        <v>15</v>
+      <c r="B27" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="34">
+        <v>0</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="34">
+        <v>7</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="35">
-        <v>5</v>
-      </c>
-      <c r="E28" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="35">
-        <v>6</v>
+      <c r="B28" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="34">
+        <v>1</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="34">
+        <v>15</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="33"/>
+      <c r="B29" s="31"/>
+      <c r="E29" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="34">
+        <v>23</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="F30" s="5"/>
+      <c r="B30" s="31"/>
+      <c r="E30" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="40">
+        <v>2</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="2:9" ht="20" x14ac:dyDescent="0.25">
-      <c r="B31" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="5"/>
+      <c r="B31" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="40">
+        <v>1</v>
+      </c>
       <c r="G31" s="12"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
@@ -1458,7 +1730,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>9</v>
@@ -1473,553 +1745,537 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="G34" s="41">
-        <v>5587812080</v>
-      </c>
-      <c r="H34" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="I34" s="39"/>
+      <c r="B34" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="37"/>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="38" t="s">
+      <c r="C35" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="41">
-        <v>5514462719</v>
-      </c>
-      <c r="H35" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="I35" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>3</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C36" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E36" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G36" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="H36" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="I36" s="39"/>
+      <c r="F36" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="37">
+        <v>553899876</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="I36" s="37"/>
       <c r="J36" s="12"/>
     </row>
-    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="G37" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="H37" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="I37" s="39"/>
+      <c r="B37" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" s="37">
+        <v>3311457282</v>
+      </c>
+      <c r="H37" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="I37" s="37"/>
       <c r="J37" s="12"/>
     </row>
-    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="41">
-        <v>2222121150</v>
-      </c>
-      <c r="H38" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="I38" s="39" t="s">
-        <v>141</v>
-      </c>
+      <c r="B38" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="37">
+        <v>8078956610</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="I38" s="37"/>
       <c r="J38" s="12"/>
     </row>
-    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>6</v>
       </c>
-      <c r="B39" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="41">
-        <v>5554199423</v>
-      </c>
-      <c r="H39" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" s="39" t="s">
-        <v>141</v>
+      <c r="B39" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="37">
+        <v>6761145028</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="I39" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="J39" s="12"/>
     </row>
-    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>7</v>
       </c>
-      <c r="B40" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F40" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="41">
-        <v>5525641385</v>
-      </c>
-      <c r="H40" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="I40" s="39" t="s">
-        <v>141</v>
+      <c r="B40" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="G41" s="41">
-        <v>447023365910</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="I41" s="39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+      <c r="F41" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="37">
+        <v>6651108355</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9</v>
       </c>
-      <c r="B42" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="G42" s="41">
-        <v>5570135838</v>
-      </c>
-      <c r="H42" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="I42" s="39" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.25">
+      <c r="B42" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="37">
+        <v>5544603750</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="B43" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="G43" s="41">
-        <v>5518272639</v>
-      </c>
-      <c r="H43" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="I43" s="39" t="s">
-        <v>141</v>
+      <c r="F43" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G43" s="37">
+        <v>5510108754</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>11</v>
       </c>
-      <c r="B44" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F44" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="41">
-        <v>5538048728</v>
-      </c>
-      <c r="H44" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" s="39" t="s">
-        <v>142</v>
+      <c r="B44" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="G44" s="37">
+        <v>5617195733</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C45" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="G45" s="41">
-        <v>5591113724</v>
-      </c>
-      <c r="H45" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>143</v>
+      <c r="B45" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="37">
+        <v>5564715915</v>
+      </c>
+      <c r="H45" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>13</v>
       </c>
-      <c r="B46" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="G46" s="41">
-        <v>5525622975</v>
-      </c>
-      <c r="H46" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="I46" s="39" t="s">
-        <v>144</v>
+      <c r="B46" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="I46" s="37" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>14</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E47" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="G47" s="41">
-        <v>8115385208</v>
-      </c>
-      <c r="H47" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="I47" s="39" t="s">
-        <v>145</v>
-      </c>
+      <c r="F47" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G47" s="37">
+        <v>5559894201</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="I47" s="37"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="B48" s="38" t="s">
+      <c r="B48" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="41">
-        <v>5537223111</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="I48" s="39" t="s">
-        <v>146</v>
-      </c>
+      <c r="C48" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="37">
+        <v>5518495489</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="I48" s="37"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="G49" s="41"/>
-      <c r="H49" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="I49" s="39" t="s">
-        <v>14</v>
-      </c>
+      <c r="C49" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="G49" s="37">
+        <v>5582099151</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="I49" s="37"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>17</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E50" s="38" t="s">
+      <c r="C50" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="F50" s="38" t="s">
-        <v>92</v>
-      </c>
-      <c r="G50" s="41">
-        <v>5574361466</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="I50" s="39" t="s">
-        <v>147</v>
+      <c r="F50" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" s="37">
+        <v>18312522007</v>
+      </c>
+      <c r="H50" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="I50" s="37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>18</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="38" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" s="41">
-        <v>8442043421</v>
-      </c>
-      <c r="H51" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="I51" s="39" t="s">
-        <v>148</v>
+      <c r="C51" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="G51" s="37">
+        <v>5585318248</v>
+      </c>
+      <c r="H51" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51" s="37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>19</v>
       </c>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="38" t="s">
-        <v>94</v>
-      </c>
-      <c r="G52" s="41">
-        <v>9818212020</v>
-      </c>
-      <c r="H52" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="I52" s="39" t="s">
+      <c r="C52" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="37">
+        <v>4493845838</v>
+      </c>
+      <c r="H52" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="I52" s="37" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2027,87 +2283,87 @@
       <c r="A53" s="1">
         <v>20</v>
       </c>
-      <c r="B53" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="G53" s="41">
-        <v>5527063774</v>
-      </c>
-      <c r="H53" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>149</v>
+      <c r="B53" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="G53" s="37">
+        <v>9211023445</v>
+      </c>
+      <c r="H53" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="I53" s="37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>21</v>
       </c>
-      <c r="B54" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="G54" s="41">
-        <v>5585801636</v>
-      </c>
-      <c r="H54" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="I54" s="39" t="s">
-        <v>150</v>
+      <c r="B54" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="G54" s="37">
+        <v>7029540886</v>
+      </c>
+      <c r="H54" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="I54" s="37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>22</v>
       </c>
-      <c r="B55" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="41">
-        <v>5518877619</v>
-      </c>
-      <c r="H55" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="I55" s="39" t="s">
-        <v>151</v>
+      <c r="B55" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="G55" s="37">
+        <v>5534714162</v>
+      </c>
+      <c r="H55" s="37" t="s">
+        <v>188</v>
+      </c>
+      <c r="I55" s="37" t="s">
+        <v>14</v>
       </c>
       <c r="J55" s="12"/>
     </row>
@@ -2115,772 +2371,1281 @@
       <c r="A56" s="1">
         <v>23</v>
       </c>
-      <c r="B56" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" s="41">
-        <v>5541852312</v>
-      </c>
-      <c r="H56" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I56" s="39" t="s">
-        <v>152</v>
+      <c r="B56" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G56" s="37">
+        <v>5552483224</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="I56" s="37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>24</v>
       </c>
-      <c r="B57" s="38" t="s">
+      <c r="B57" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="G57" s="41">
-        <v>5551058508</v>
-      </c>
-      <c r="H57" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="I57" s="39" t="s">
-        <v>153</v>
+      <c r="C57" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" s="37">
+        <v>5572185071</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" s="37" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>25</v>
       </c>
-      <c r="B58" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="G58" s="41"/>
-      <c r="H58" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="I58" s="39" t="s">
-        <v>14</v>
+      <c r="B58" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="G58" s="37">
+        <v>7445028320</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>26</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="G59" s="41">
-        <v>5555069613</v>
-      </c>
-      <c r="H59" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="I59" s="39" t="s">
-        <v>154</v>
+      <c r="F59" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="G59" s="37">
+        <v>5543544126</v>
+      </c>
+      <c r="H59" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="I59" s="37" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>27</v>
       </c>
-      <c r="B60" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C60" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="G60" s="41">
-        <v>2711063040</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="I60" s="39" t="s">
-        <v>155</v>
+      <c r="B60" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="I60" s="37" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>28</v>
       </c>
-      <c r="B61" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="G61" s="41">
-        <v>5532611545</v>
-      </c>
-      <c r="H61" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="I61" s="39" t="s">
-        <v>14</v>
+      <c r="B61" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="G61" s="37">
+        <v>6151043723</v>
+      </c>
+      <c r="H61" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="I61" s="37" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>29</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C62" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="G62" s="42">
-        <v>5521295770</v>
-      </c>
-      <c r="H62" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="I62" s="39" t="s">
-        <v>156</v>
+      <c r="C62" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="37">
+        <v>36</v>
+      </c>
+      <c r="H62" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="I62" s="37" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>30</v>
       </c>
-      <c r="B63" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="41">
-        <v>5539623367</v>
-      </c>
-      <c r="H63" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="I63" s="39" t="s">
-        <v>157</v>
+      <c r="B63" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G63" s="37">
+        <v>525583965472</v>
+      </c>
+      <c r="H63" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="I63" s="37" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>31</v>
       </c>
-      <c r="B64" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="G64" s="41">
-        <v>5546409840</v>
-      </c>
-      <c r="H64" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="I64" s="39" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" s="37">
+        <v>525535278634</v>
+      </c>
+      <c r="H64" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="I64" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>32</v>
       </c>
-      <c r="B65" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="38" t="s">
+      <c r="B65" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G65" s="41">
-        <v>5544686180</v>
-      </c>
-      <c r="H65" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I65" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="G65" s="37">
+        <v>525610815173</v>
+      </c>
+      <c r="H65" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="I65" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>33</v>
       </c>
-      <c r="B66" s="38" t="s">
+      <c r="B66" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="G66" s="37">
+        <v>525580333633</v>
+      </c>
+      <c r="H66" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="I66" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>34</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="37">
+        <v>526566387264</v>
+      </c>
+      <c r="H67" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="I67" s="37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>35</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" s="37">
+        <v>7335837557</v>
+      </c>
+      <c r="H68" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="I68" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>36</v>
+      </c>
+      <c r="B69" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="37">
+        <v>5539778247</v>
+      </c>
+      <c r="H69" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="I69" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>37</v>
+      </c>
+      <c r="B70" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F70" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="G70" s="37">
+        <v>6643722317</v>
+      </c>
+      <c r="H70" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="I70" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>38</v>
+      </c>
+      <c r="B71" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F71" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="G71" s="37">
+        <v>5582034826</v>
+      </c>
+      <c r="H71" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="I71" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>39</v>
+      </c>
+      <c r="B72" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G72" s="37">
+        <v>7225189486</v>
+      </c>
+      <c r="H72" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I72" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>40</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E73" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C66" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="G66" s="41">
-        <v>9382551122</v>
-      </c>
-      <c r="H66" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I66" s="39" t="s">
+      <c r="F73" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G73" s="37">
+        <v>5543565056</v>
+      </c>
+      <c r="H73" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I73" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>41</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F74" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="G74" s="37">
+        <v>525549455398</v>
+      </c>
+      <c r="H74" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I74" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>42</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G75" s="37">
+        <v>393928596781</v>
+      </c>
+      <c r="H75" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="I75" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>43</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="G76" s="37">
+        <v>525532326588</v>
+      </c>
+      <c r="H76" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="I76" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>44</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="G77" s="37">
+        <v>525520679422</v>
+      </c>
+      <c r="H77" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I77" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45</v>
+      </c>
+      <c r="B78" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="G78" s="37">
+        <v>525523107924</v>
+      </c>
+      <c r="H78" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="I78" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>46</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="G79" s="37">
+        <v>52015545887033</v>
+      </c>
+      <c r="H79" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="I79" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>47</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="G80" s="37">
+        <v>52015550689421</v>
+      </c>
+      <c r="H80" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="I80" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>48</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F81" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" s="37">
+        <v>525548456420</v>
+      </c>
+      <c r="H81" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I81" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>49</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E82" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="G82" s="37">
+        <v>525578877238</v>
+      </c>
+      <c r="H82" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="I82" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>50</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="G83" s="37">
+        <v>52015549409936</v>
+      </c>
+      <c r="H83" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I83" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>51</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F84" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="G84" s="37">
+        <v>525574162304</v>
+      </c>
+      <c r="H84" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="I84" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>52</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F85" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="G85" s="37">
+        <v>5525918787</v>
+      </c>
+      <c r="H85" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="I85" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>53</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F86" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="G86" s="37">
+        <v>5569654539</v>
+      </c>
+      <c r="H86" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="I86" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>54</v>
+      </c>
+      <c r="B87" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="G87" s="37">
+        <v>5519881384</v>
+      </c>
+      <c r="H87" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="I87" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>55</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E88" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="G88" s="37">
+        <v>5569663647</v>
+      </c>
+      <c r="H88" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="I88" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>56</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C89" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E89" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G89" s="37">
+        <v>5580399766</v>
+      </c>
+      <c r="H89" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="I89" s="37" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>57</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C90" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E90" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="37" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="19"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="22"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="19"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="21"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="22"/>
-    </row>
-    <row r="69" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="21"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="22"/>
-    </row>
-    <row r="70" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="21"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="22"/>
-    </row>
-    <row r="71" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="19"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="21"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="22"/>
-    </row>
-    <row r="72" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="23" t="s">
+      <c r="G90" s="37">
+        <v>5558503981</v>
+      </c>
+      <c r="H90" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="I90" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>58</v>
+      </c>
+      <c r="B91" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="G91" s="37">
+        <v>5500990000</v>
+      </c>
+      <c r="H91" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="I91" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>59</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C92" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="G92" s="37">
+        <v>7441029794</v>
+      </c>
+      <c r="H92" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="I92" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>60</v>
+      </c>
+      <c r="B93" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F93" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="G93" s="37">
+        <v>5574069119</v>
+      </c>
+      <c r="H93" s="37" t="s">
+        <v>226</v>
+      </c>
+      <c r="I93" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>61</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="G94" s="37">
+        <v>5529729411</v>
+      </c>
+      <c r="H94" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="I94" s="37" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>62</v>
+      </c>
+      <c r="B95" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C95" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="G95" s="37">
+        <v>4448432305</v>
+      </c>
+      <c r="H95" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="I95" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>63</v>
+      </c>
+      <c r="B96" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96" s="37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G96" s="37">
+        <v>525554604269</v>
+      </c>
+      <c r="H96" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="I96" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="19"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="20"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="18"/>
+      <c r="C98" s="19"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="20"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="21"/>
+    </row>
+    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="18"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="21"/>
+    </row>
+    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C100" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D72" s="25"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="29"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="22"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="23" t="s">
+      <c r="D100" s="24"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="26"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="28"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="21"/>
+    </row>
+    <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="29"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="22"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C74" s="24" t="s">
+      <c r="C101" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101" s="24"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="26"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="21"/>
+    </row>
+    <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="25"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="29"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="22"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="23" t="s">
+      <c r="D102" s="24"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="26"/>
+      <c r="G102" s="27"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="21"/>
+    </row>
+    <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C75" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D75" s="25"/>
-      <c r="E75" s="26"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-    </row>
-    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-    </row>
-    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-    </row>
-    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-    </row>
-    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-    </row>
-    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-    </row>
-    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-    </row>
-    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-    </row>
-    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-    </row>
-    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-    </row>
-    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-    </row>
-    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-    </row>
-    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-    </row>
-    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="6"/>
-      <c r="I93" s="6"/>
-      <c r="J93" s="6"/>
-      <c r="K93" s="6"/>
-      <c r="L93" s="6"/>
-    </row>
-    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="6"/>
-      <c r="I94" s="6"/>
-      <c r="J94" s="6"/>
-      <c r="K94" s="6"/>
-      <c r="L94" s="6"/>
-    </row>
-    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-    </row>
-    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-    </row>
-    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-    </row>
-    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-    </row>
-    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-    </row>
-    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-    </row>
-    <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="6"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="6"/>
-      <c r="I101" s="6"/>
-      <c r="J101" s="6"/>
-      <c r="K101" s="6"/>
-      <c r="L101" s="6"/>
-    </row>
-    <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="6"/>
-      <c r="I102" s="6"/>
-      <c r="J102" s="6"/>
-      <c r="K102" s="6"/>
-      <c r="L102" s="6"/>
-    </row>
-    <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="6"/>
+      <c r="C103" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="24"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="30"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -2947,7 +3712,9 @@
       <c r="L108" s="6"/>
     </row>
     <row r="109" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
+      <c r="B109" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -2971,14 +3738,15 @@
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="5"/>
-      <c r="G111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
     </row>
@@ -4470,6 +5238,342 @@
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
     </row>
+    <row r="236" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+    </row>
+    <row r="237" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+    </row>
+    <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+    </row>
+    <row r="239" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+    </row>
+    <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+    </row>
+    <row r="241" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+    </row>
+    <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="6"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+    </row>
+    <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="6"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+    </row>
+    <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="6"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+    </row>
+    <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="6"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+    </row>
+    <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="6"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+    </row>
+    <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="6"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+    </row>
+    <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="6"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+    </row>
+    <row r="249" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+    </row>
+    <row r="250" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="6"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+    </row>
+    <row r="251" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="6"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+    </row>
+    <row r="252" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B252" s="6"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="6"/>
+      <c r="E252" s="6"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="6"/>
+      <c r="I252" s="6"/>
+      <c r="J252" s="6"/>
+      <c r="K252" s="6"/>
+      <c r="L252" s="6"/>
+    </row>
+    <row r="253" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="6"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="6"/>
+      <c r="E253" s="6"/>
+      <c r="F253" s="5"/>
+      <c r="G253" s="6"/>
+      <c r="I253" s="6"/>
+      <c r="J253" s="6"/>
+      <c r="K253" s="6"/>
+      <c r="L253" s="6"/>
+    </row>
+    <row r="254" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="6"/>
+      <c r="C254" s="6"/>
+      <c r="D254" s="6"/>
+      <c r="E254" s="6"/>
+      <c r="F254" s="5"/>
+      <c r="G254" s="6"/>
+      <c r="I254" s="6"/>
+      <c r="J254" s="6"/>
+      <c r="K254" s="6"/>
+      <c r="L254" s="6"/>
+    </row>
+    <row r="255" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="6"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="6"/>
+      <c r="E255" s="6"/>
+      <c r="F255" s="5"/>
+      <c r="G255" s="6"/>
+      <c r="I255" s="6"/>
+      <c r="J255" s="6"/>
+      <c r="K255" s="6"/>
+      <c r="L255" s="6"/>
+    </row>
+    <row r="256" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="6"/>
+      <c r="C256" s="6"/>
+      <c r="D256" s="6"/>
+      <c r="E256" s="6"/>
+      <c r="F256" s="5"/>
+      <c r="G256" s="6"/>
+      <c r="I256" s="6"/>
+      <c r="J256" s="6"/>
+      <c r="K256" s="6"/>
+      <c r="L256" s="6"/>
+    </row>
+    <row r="257" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="6"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="6"/>
+      <c r="E257" s="6"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="6"/>
+      <c r="I257" s="6"/>
+      <c r="J257" s="6"/>
+      <c r="K257" s="6"/>
+      <c r="L257" s="6"/>
+    </row>
+    <row r="258" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="6"/>
+      <c r="C258" s="6"/>
+      <c r="D258" s="6"/>
+      <c r="E258" s="6"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="6"/>
+      <c r="I258" s="6"/>
+      <c r="J258" s="6"/>
+      <c r="K258" s="6"/>
+      <c r="L258" s="6"/>
+    </row>
+    <row r="259" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B259" s="6"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="6"/>
+      <c r="E259" s="6"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="6"/>
+    </row>
+    <row r="260" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B260" s="6"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="6"/>
+      <c r="F260" s="5"/>
+      <c r="G260" s="6"/>
+      <c r="I260" s="6"/>
+      <c r="J260" s="6"/>
+      <c r="K260" s="6"/>
+      <c r="L260" s="6"/>
+    </row>
+    <row r="261" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="6"/>
+      <c r="C261" s="6"/>
+      <c r="D261" s="6"/>
+      <c r="E261" s="6"/>
+      <c r="F261" s="5"/>
+      <c r="G261" s="6"/>
+      <c r="I261" s="6"/>
+      <c r="J261" s="6"/>
+      <c r="K261" s="6"/>
+      <c r="L261" s="6"/>
+    </row>
+    <row r="262" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="6"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="6"/>
+      <c r="F262" s="5"/>
+      <c r="G262" s="6"/>
+      <c r="I262" s="6"/>
+      <c r="J262" s="6"/>
+      <c r="K262" s="6"/>
+      <c r="L262" s="6"/>
+    </row>
+    <row r="263" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="6"/>
+      <c r="C263" s="6"/>
+      <c r="D263" s="6"/>
+      <c r="E263" s="6"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="6"/>
+      <c r="I263" s="6"/>
+      <c r="J263" s="6"/>
+      <c r="K263" s="6"/>
+      <c r="L263" s="6"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C16E090-C0AB-4049-89A7-FECEC2FBECCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EA49A0-0B6A-3943-B47D-E5AD0C1AC51B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25480" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
   <si>
     <t>A</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>Lamudi</t>
-  </si>
-  <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
@@ -143,625 +140,298 @@
     <t>Laura Ortega</t>
   </si>
   <si>
-    <t>Messenger</t>
-  </si>
-  <si>
-    <t>2020-03-08 12:45:52</t>
-  </si>
-  <si>
-    <t>2020-03-08 12:28:06</t>
-  </si>
-  <si>
-    <t>2020-03-08 08:17:07</t>
-  </si>
-  <si>
-    <t>2020-03-08 07:56:07</t>
-  </si>
-  <si>
-    <t>2020-03-07 19:12:29</t>
-  </si>
-  <si>
-    <t>2020-03-07 09:15:51</t>
-  </si>
-  <si>
-    <t>2020-03-06 21:43:57</t>
-  </si>
-  <si>
-    <t>2020-03-06 15:50:32</t>
-  </si>
-  <si>
-    <t>2020-03-06 15:39:41</t>
-  </si>
-  <si>
-    <t>2020-03-06 13:03:28</t>
-  </si>
-  <si>
-    <t>2020-03-06 12:00:33</t>
-  </si>
-  <si>
-    <t>2020-03-06 09:05:12</t>
-  </si>
-  <si>
-    <t>2020-03-06 01:02:31</t>
-  </si>
-  <si>
-    <t>2020-03-05 16:03:39</t>
-  </si>
-  <si>
-    <t>2020-03-05 15:42:16</t>
-  </si>
-  <si>
-    <t>2020-03-05 14:45:48</t>
-  </si>
-  <si>
-    <t>2020-03-05 14:37:14</t>
-  </si>
-  <si>
-    <t>2020-03-05 13:46:20</t>
-  </si>
-  <si>
-    <t>2020-03-05 11:59:24</t>
-  </si>
-  <si>
-    <t>2020-03-05 11:36:52</t>
-  </si>
-  <si>
-    <t>2020-03-05 10:34:19</t>
-  </si>
-  <si>
-    <t>2020-03-05 08:12:33</t>
-  </si>
-  <si>
-    <t>2020-03-04 22:25:54</t>
-  </si>
-  <si>
-    <t>2020-03-04 17:09:42</t>
-  </si>
-  <si>
-    <t>2020-03-04 16:29:55</t>
-  </si>
-  <si>
-    <t>2020-03-04 13:11:29</t>
-  </si>
-  <si>
-    <t>2020-03-04 10:19:48</t>
-  </si>
-  <si>
-    <t>2020-03-04 03:47:37</t>
-  </si>
-  <si>
-    <t>2020-03-03 20:02:28</t>
-  </si>
-  <si>
-    <t>2020-03-03 18:44:11</t>
-  </si>
-  <si>
-    <t>2020-03-03 18:27:11</t>
-  </si>
-  <si>
-    <t>2020-03-03 18:27:09</t>
-  </si>
-  <si>
-    <t>2020-03-03 11:59:03</t>
-  </si>
-  <si>
-    <t>2020-03-03 11:48:30</t>
-  </si>
-  <si>
-    <t>2020-03-03 11:46:33</t>
-  </si>
-  <si>
-    <t>2020-03-03 11:46:32</t>
-  </si>
-  <si>
-    <t>2020-03-03 11:46:31</t>
-  </si>
-  <si>
-    <t>2020-03-03 11:44:48</t>
-  </si>
-  <si>
-    <t>2020-03-03 11:44:07</t>
-  </si>
-  <si>
-    <t>2020-03-03 10:36:49</t>
-  </si>
-  <si>
-    <t>2020-03-02 23:32:20</t>
-  </si>
-  <si>
-    <t>2020-03-02 23:32:11</t>
-  </si>
-  <si>
-    <t>2020-03-02 23:29:36</t>
-  </si>
-  <si>
-    <t>2020-03-02 23:29:26</t>
-  </si>
-  <si>
-    <t>2020-03-02 23:29:18</t>
-  </si>
-  <si>
-    <t>2020-03-02 23:28:59</t>
-  </si>
-  <si>
-    <t>2020-03-02 23:28:44</t>
-  </si>
-  <si>
-    <t>2020-03-02 23:27:38</t>
-  </si>
-  <si>
-    <t>2020-03-02 23:27:28</t>
-  </si>
-  <si>
-    <t>2020-03-02 23:23:35</t>
-  </si>
-  <si>
-    <t>2020-03-02 17:47:45</t>
-  </si>
-  <si>
-    <t>2020-03-02 17:38:43</t>
-  </si>
-  <si>
-    <t>2020-03-02 16:29:52</t>
-  </si>
-  <si>
-    <t>2020-03-02 16:29:13</t>
-  </si>
-  <si>
-    <t>2020-03-02 16:24:33</t>
-  </si>
-  <si>
-    <t>2020-03-02 16:23:29</t>
-  </si>
-  <si>
-    <t>2020-03-02 14:04:10</t>
-  </si>
-  <si>
-    <t>2020-03-02 14:01:27</t>
-  </si>
-  <si>
-    <t>2020-03-02 14:00:47</t>
-  </si>
-  <si>
-    <t>2020-03-02 13:59:41</t>
-  </si>
-  <si>
-    <t>2020-03-02 13:58:55</t>
-  </si>
-  <si>
-    <t>2020-03-02 07:54:31</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
-    <t>Llamada</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>Inmuebles24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estefanía Martínez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanessa Acosta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoloxochitl Aquino </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberto Miguel Beltran Becerra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Yepez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Luis Ibarra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lfonso </t>
-  </si>
-  <si>
-    <t>LUIS CHAIDEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Carlos Castaneda Sanchez </t>
-  </si>
-  <si>
-    <t>Leticia Torres Esperón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lisbeth Pérez Ramos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Víctor morales lopez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marisela </t>
-  </si>
-  <si>
-    <t>Alejandro Yampolcky</t>
-  </si>
-  <si>
-    <t>Rafael Bracho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thanya Trujillo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lizbeth Garcia </t>
-  </si>
-  <si>
-    <t>Jordi Vilar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jaen flores silva </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apolonia Nestozo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel A Guajardo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pepe Mercado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seiko ishiko </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Era Norma Martínez Medina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mar Azul </t>
-  </si>
-  <si>
-    <t>IRIS VALDES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Fayad Licona </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Job Monobe </t>
-  </si>
-  <si>
-    <t xml:space="preserve">arturo canchola </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dayan Galicia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Valero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sharitty Mata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Vega </t>
-  </si>
-  <si>
-    <t>David n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Flores Albarran </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Díaz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paola castro calderon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">María delix lagunas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariadna Jalife Gomez </t>
-  </si>
-  <si>
-    <t>Brenda Bustamante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gutierrez Rodrigo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna Calderone </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hugo Chavez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giovanna González </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Rey </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniela Jg </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elda Arias Velázquez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angel Erick Nava Pérez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beka Yeye </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando Espinosa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Celeste Baeza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angeles Quintana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfredo Adams Flores </t>
-  </si>
-  <si>
-    <t>Juan Alfonso Austin</t>
-  </si>
-  <si>
-    <t>Mar De González</t>
-  </si>
-  <si>
-    <t>Lilian Cardiel</t>
-  </si>
-  <si>
-    <t>Adri Caramelo Hernandez</t>
-  </si>
-  <si>
-    <t>Ana Xolo</t>
-  </si>
-  <si>
-    <t>Mario Galicia</t>
-  </si>
-  <si>
-    <t>Blanca Gómez</t>
-  </si>
-  <si>
-    <t>Viridiana Garcia</t>
-  </si>
-  <si>
-    <t>Maria Dejesus Rangel</t>
-  </si>
-  <si>
-    <t>Wireless Caller n/a</t>
-  </si>
-  <si>
-    <t>estefaniamartinez128@gmail.com</t>
-  </si>
-  <si>
-    <t>vane.acosta@icloud.com</t>
-  </si>
-  <si>
-    <t>zoloxochitl@gmail.com</t>
-  </si>
-  <si>
-    <t>Lic.robertobeltranbecerra@gmail.com</t>
-  </si>
-  <si>
-    <t>jorge.yepez.vel@gmail.com</t>
-  </si>
-  <si>
-    <t>a2482jl@gmail.com</t>
-  </si>
-  <si>
-    <t>ablancas92-95@hotmail.com</t>
-  </si>
-  <si>
-    <t>luisluismx88@gmail.com</t>
-  </si>
-  <si>
-    <t>karl_kz@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>ltorres@delegado.mx</t>
-  </si>
-  <si>
-    <t>lizbethperez02@icloud.com</t>
-  </si>
-  <si>
-    <t>chakalitoxxx1@gmail.com</t>
-  </si>
-  <si>
-    <t>infinito0610@gmail.com</t>
-  </si>
-  <si>
-    <t>aleymp@hotmail.com</t>
-  </si>
-  <si>
-    <t>brachito@gmail.com</t>
-  </si>
-  <si>
-    <t>thanya_bsb17@hotmail.com</t>
-  </si>
-  <si>
-    <t>lizbethgarcia19@gmail.com</t>
-  </si>
-  <si>
-    <t>jordi@juama.com</t>
-  </si>
-  <si>
-    <t>jaeenflores@hotmail.com</t>
-  </si>
-  <si>
-    <t>Poly_0723@hotmail.com</t>
-  </si>
-  <si>
-    <t>mreyes1243@gmail.com</t>
-  </si>
-  <si>
-    <t>jmz_31@hotmail.com</t>
-  </si>
-  <si>
-    <t>seikoidhiko@gmail.com</t>
-  </si>
-  <si>
-    <t>momismartinez88@gmail.com</t>
-  </si>
-  <si>
-    <t>zulm2009@hotmail.com</t>
-  </si>
-  <si>
-    <t>irisgvaldes@hotmail.com</t>
-  </si>
-  <si>
-    <t>carlosfayad@gmail.com</t>
-  </si>
-  <si>
-    <t>danesacono@gmail.com</t>
-  </si>
-  <si>
-    <t>gordogestor@yahoo.com</t>
-  </si>
-  <si>
-    <t>dayangalicia_2@hotmail.com</t>
-  </si>
-  <si>
-    <t>valero_jasso94@hotmail.com</t>
-  </si>
-  <si>
-    <t>sharitty_0593@hotmail.com</t>
-  </si>
-  <si>
-    <t>alan_vega93@hotmail.com</t>
-  </si>
-  <si>
-    <t>dgmocke760@gmail.com</t>
-  </si>
-  <si>
-    <t>jpfalbarran@gmail.com</t>
-  </si>
-  <si>
-    <t>diazclaudia71@prodigy.net.mx</t>
-  </si>
-  <si>
-    <t>paolaysarah05@gmail.com</t>
-  </si>
-  <si>
-    <t>maridelixlagunas@gmail.com</t>
-  </si>
-  <si>
-    <t>adrianapatricia40@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>brenda.bustamante@jaguar-ep.com</t>
-  </si>
-  <si>
-    <t>skylines_rt@hotmail.com</t>
-  </si>
-  <si>
-    <t>annc2003@hotmail.com</t>
-  </si>
-  <si>
-    <t>hugochavez0106@gmail.com</t>
-  </si>
-  <si>
-    <t>rockstar_ge@hotmail.com</t>
-  </si>
-  <si>
-    <t>primera1969yess@hotmail.com</t>
-  </si>
-  <si>
-    <t>danielajg@hotmail.com</t>
-  </si>
-  <si>
-    <t>eldabertha@hotmail.com</t>
-  </si>
-  <si>
-    <t>mezzi1234510@gmail.com</t>
-  </si>
-  <si>
-    <t>beka_yeye@hotmail.com</t>
-  </si>
-  <si>
-    <t>ferbull94@hotmail.com</t>
-  </si>
-  <si>
-    <t>idania080718@gmail.com</t>
-  </si>
-  <si>
-    <t>pqcz54@hotmail.com</t>
-  </si>
-  <si>
-    <t>alfredoadamsf@hotmail.com</t>
-  </si>
-  <si>
-    <t>ponchiquiu@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>marlene.montealegre@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>alcardf@hotmail.com</t>
-  </si>
-  <si>
-    <t>calabacita_116@hotmail.com</t>
-  </si>
-  <si>
-    <t>rini_serena_darien@hotmail.com</t>
-  </si>
-  <si>
-    <t>marito_barrera@hotmail.com</t>
-  </si>
-  <si>
-    <t>bygomezuaau@gmail.com</t>
-  </si>
-  <si>
-    <t>cviridian14@hotmail.com</t>
-  </si>
-  <si>
-    <t>marichuy_cril@hotmail.com</t>
-  </si>
-  <si>
-    <t>525554604269@phonecall.com</t>
-  </si>
-  <si>
-    <t>Contacta por whapp de la oficina. Busca RENTA avisar cuando tengamos algo de 2 o 3 recámaras. Doy seguimento</t>
-  </si>
-  <si>
     <t>Envié correo con información general</t>
   </si>
   <si>
-    <t>Es broker de Delego inmobiliaria, visitó el desarrollo para conocerlo y poder ofrecerlo a su cliente. Estaremos en contacto</t>
-  </si>
-  <si>
     <t>Envié correo con info general</t>
   </si>
   <si>
-    <t>Envie correo con información general</t>
-  </si>
-  <si>
-    <t>Envié correo con informacion general</t>
-  </si>
-  <si>
-    <t>Vive en la zona y busca info para su hermana que vive en GDL y es posible que se venga a vivir a la CD
-Le mando info de torre B y torre D</t>
-  </si>
-  <si>
-    <t>Envié correo con info general. Le interesa un depto de 2 o 3 rec.
-envié 404A y 502E
-Ofrecí NAPOLES también.</t>
-  </si>
-  <si>
     <t>Envie correo con info general</t>
   </si>
   <si>
-    <t>cliente anterior</t>
-  </si>
-  <si>
-    <t>Envié correo con información general  y se regresa el correo, Doy seguimiento por telefono</t>
-  </si>
-  <si>
-    <t>Busca renta de un depto de 60 m2. No es viable para el comprar uno de 170 m2, no tiene el presupuesto</t>
-  </si>
-  <si>
-    <t>01 - 08 de Marzo del 2020</t>
+    <t>Miguel Angel Velazquez</t>
+  </si>
+  <si>
+    <t>2020-03-15 15:53:47</t>
+  </si>
+  <si>
+    <t>2020-03-15 15:24:00</t>
+  </si>
+  <si>
+    <t>2020-03-15 10:17:06</t>
+  </si>
+  <si>
+    <t>2020-03-15 01:14:44</t>
+  </si>
+  <si>
+    <t>2020-03-14 21:44:38</t>
+  </si>
+  <si>
+    <t>2020-03-14 19:08:14</t>
+  </si>
+  <si>
+    <t>2020-03-14 18:13:58</t>
+  </si>
+  <si>
+    <t>2020-03-14 13:57:05</t>
+  </si>
+  <si>
+    <t>2020-03-14 13:09:57</t>
+  </si>
+  <si>
+    <t>2020-03-14 12:16:37</t>
+  </si>
+  <si>
+    <t>2020-03-14 11:20:43</t>
+  </si>
+  <si>
+    <t>2020-03-14 06:29:37</t>
+  </si>
+  <si>
+    <t>2020-03-13 22:07:29</t>
+  </si>
+  <si>
+    <t>2020-03-12 23:28:04</t>
+  </si>
+  <si>
+    <t>2020-03-12 18:00:21</t>
+  </si>
+  <si>
+    <t>2020-03-12 16:31:22</t>
+  </si>
+  <si>
+    <t>2020-03-12 12:48:02</t>
+  </si>
+  <si>
+    <t>2020-03-12 12:21:57</t>
+  </si>
+  <si>
+    <t>2020-03-12 12:21:54</t>
+  </si>
+  <si>
+    <t>2020-03-12 12:21:50</t>
+  </si>
+  <si>
+    <t>2020-03-12 12:21:49</t>
+  </si>
+  <si>
+    <t>2020-03-12 12:20:53</t>
+  </si>
+  <si>
+    <t>2020-03-12 12:20:47</t>
+  </si>
+  <si>
+    <t>2020-03-09 17:13:45</t>
+  </si>
+  <si>
+    <t>2020-03-09 15:11:22</t>
+  </si>
+  <si>
+    <t>2020-03-09 14:04:45</t>
+  </si>
+  <si>
+    <t>2020-03-09 12:10:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viviana cifuentes </t>
+  </si>
+  <si>
+    <t>Roberto Calderon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armando Mata . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrés Contreras </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margarita Amador Rodriguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTURO GUZMAN CHIMEO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Talavera </t>
+  </si>
+  <si>
+    <t>ANA PAULA SCHARRERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daiana Sonin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerardo Acosta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina Suarez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ninoska Alejandra Pérez Rodríguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hilda Sanchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josué </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marisela  Lopez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mary Lú Jiménez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melissa Rosales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria fernanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar del toro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulo Suárez Aguilar </t>
+  </si>
+  <si>
+    <t>Vicente Candela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucia bautista ramirez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana González </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Damian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Thomas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bernardo Silva (Terra Residencial) </t>
+  </si>
+  <si>
+    <t>vianci77@hotmail.com</t>
+  </si>
+  <si>
+    <t>jrcg200@gmail.com</t>
+  </si>
+  <si>
+    <t>diaseguro@outlook.com</t>
+  </si>
+  <si>
+    <t>andres_contreras_suarez@hotmail.com</t>
+  </si>
+  <si>
+    <t>Amadorfurlani@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>saintseya_@hotmail.com</t>
+  </si>
+  <si>
+    <t>aguzmanc1215@hotmail.com</t>
+  </si>
+  <si>
+    <t>andii_tb92@hotmail.com</t>
+  </si>
+  <si>
+    <t>anapalula.scharrerg@gmail.com</t>
+  </si>
+  <si>
+    <t>dai.sonin@gmail.com</t>
+  </si>
+  <si>
+    <t>gerardo.acosta@me.com</t>
+  </si>
+  <si>
+    <t>Crisum@hotmail.com</t>
+  </si>
+  <si>
+    <t>franciaprni@gmail.com</t>
+  </si>
+  <si>
+    <t>Morahila@hotmail.com</t>
+  </si>
+  <si>
+    <t>titodorantes7@gmail.com</t>
+  </si>
+  <si>
+    <t>lopezmarisela8036@gmail.com</t>
+  </si>
+  <si>
+    <t>marilu_jimenez_diaz_58@hotmail.com</t>
+  </si>
+  <si>
+    <t>melissarosales.rmpharma@gmail.com</t>
+  </si>
+  <si>
+    <t>mariferkaram@gmail.com</t>
+  </si>
+  <si>
+    <t>Iluicamina@icloud.com</t>
+  </si>
+  <si>
+    <t>paulinasuarezaguilar@gmail.com</t>
+  </si>
+  <si>
+    <t>vicente.candela@skytex.com.mx</t>
+  </si>
+  <si>
+    <t>Lucia0701@gmail.com</t>
+  </si>
+  <si>
+    <t>dian_glez3@hotmail.com</t>
+  </si>
+  <si>
+    <t>jd548509@gmail.com</t>
+  </si>
+  <si>
+    <t>thoru66@yahoo.co.uk</t>
+  </si>
+  <si>
+    <t>bernardosilvadelamiyar@hotmail.com</t>
+  </si>
+  <si>
+    <t>Busca Renta</t>
+  </si>
+  <si>
+    <t>Envie correo con info general, se lleva cotización del GHC</t>
+  </si>
+  <si>
+    <t>Envie información general</t>
+  </si>
+  <si>
+    <t>Nos contacta por WHAPP quiere info de 2 rec. Envié 404A</t>
+  </si>
+  <si>
+    <t>Envié información general</t>
+  </si>
+  <si>
+    <t>No deja teléfono envio correo</t>
+  </si>
+  <si>
+    <t>Envie correo con informacióon general</t>
+  </si>
+  <si>
+    <t>No deja num. teléfonico, envío correo.</t>
+  </si>
+  <si>
+    <t>Que el no pidio informes de los departamentos.</t>
+  </si>
+  <si>
+    <t>No deja número teléfonico, enviaré  correo con información del mas economico.</t>
+  </si>
+  <si>
+    <t>No proporciona teléfono, envío correo con la información.</t>
+  </si>
+  <si>
+    <t>09 - 15 de Marzo del 2020</t>
   </si>
 </sst>
 </file>
@@ -930,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1026,10 +696,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1105,14 +779,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>12758</xdr:rowOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>12757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1449,10 +1123,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L263"/>
+  <dimension ref="A4:L229"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1138,7 @@
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.1640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="132.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="189" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
     <col min="13" max="16384" width="14.5" style="1"/>
@@ -1496,18 +1170,18 @@
       <c r="G14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:10" ht="23" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="2:10" ht="23" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1523,7 +1197,7 @@
     </row>
     <row r="18" spans="2:9" ht="20" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="12"/>
@@ -1539,13 +1213,13 @@
     </row>
     <row r="20" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="34">
+        <v>27</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>24</v>
-      </c>
-      <c r="C20" s="34">
-        <v>63</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>25</v>
       </c>
       <c r="F20" s="34">
         <v>0</v>
@@ -1558,7 +1232,7 @@
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="E21" s="33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="34">
         <v>1</v>
@@ -1571,10 +1245,10 @@
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
       <c r="E22" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="34">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1584,7 +1258,7 @@
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
       <c r="E23" s="33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="34">
         <v>1</v>
@@ -1604,37 +1278,33 @@
     </row>
     <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>12</v>
-      </c>
-      <c r="G25" s="39" t="s">
-        <v>101</v>
-      </c>
-      <c r="H25" s="40">
-        <v>2</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F26" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1642,16 +1312,16 @@
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F27" s="34">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1659,55 +1329,39 @@
     </row>
     <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="34">
-        <v>1</v>
-      </c>
-      <c r="E28" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="34">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
     </row>
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
-      <c r="E29" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="34">
-        <v>23</v>
-      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
     </row>
     <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
-      <c r="E30" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="40">
-        <v>2</v>
-      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
       <c r="G30" s="12"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="2:9" ht="20" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="40">
-        <v>1</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="42"/>
       <c r="G31" s="12"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
@@ -1730,7 +1384,7 @@
         <v>8</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F33" s="13" t="s">
         <v>9</v>
@@ -1750,62 +1404,69 @@
         <v>1</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="37" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="37"/>
+        <v>69</v>
+      </c>
+      <c r="G34" s="37">
+        <v>5554554669</v>
+      </c>
       <c r="H34" s="37" t="s">
-        <v>167</v>
-      </c>
-      <c r="I34" s="37"/>
+        <v>96</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>123</v>
+      </c>
       <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="37" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D35" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="37" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F35" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G35" s="37"/>
+        <v>90</v>
+      </c>
+      <c r="G35" s="37">
+        <v>9212394699</v>
+      </c>
       <c r="H35" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="I35" s="37"/>
-      <c r="J35" s="12"/>
+        <v>117</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C36" s="37" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D36" s="38" t="s">
         <v>3</v>
@@ -1814,26 +1475,27 @@
         <v>13</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G36" s="37">
-        <v>553899876</v>
+        <v>6241095150</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="I36" s="37"/>
-      <c r="J36" s="12"/>
+        <v>114</v>
+      </c>
+      <c r="I36" s="37" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D37" s="38" t="s">
         <v>3</v>
@@ -1842,54 +1504,56 @@
         <v>13</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="G37" s="37">
-        <v>3311457282</v>
+        <v>5565979896</v>
       </c>
       <c r="H37" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="I37" s="37"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="I37" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D38" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="37" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="G38" s="37">
-        <v>8078956610</v>
+        <v>5559973099</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="I38" s="37"/>
-      <c r="J38" s="12"/>
-    </row>
-    <row r="39" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="I38" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="37" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D39" s="38" t="s">
         <v>3</v>
@@ -1898,195 +1562,193 @@
         <v>13</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="G39" s="37">
-        <v>6761145028</v>
+        <v>4772522089</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="I39" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="12"/>
-    </row>
-    <row r="40" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D40" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="37" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="37"/>
+        <v>72</v>
+      </c>
+      <c r="G40" s="37">
+        <v>5554184705</v>
+      </c>
       <c r="H40" s="37" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="12"/>
-    </row>
-    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B41" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D41" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="37" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="G41" s="37">
-        <v>6651108355</v>
+        <v>5566988390</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="I41" s="37" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D42" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="37" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="G42" s="37">
-        <v>5544603750</v>
+        <v>5524942905</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="I42" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B43" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D43" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="37" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F43" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="37">
+        <v>8116004461</v>
+      </c>
+      <c r="H43" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="37">
-        <v>5510108754</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>176</v>
-      </c>
       <c r="I43" s="37" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D44" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="37" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F44" s="37" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="G44" s="37">
-        <v>5617195733</v>
+        <v>5585498401</v>
       </c>
       <c r="H44" s="37" t="s">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="I44" s="37" t="s">
-        <v>233</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B45" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D45" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="37" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="37">
-        <v>5564715915</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G45" s="37"/>
       <c r="H45" s="37" t="s">
-        <v>178</v>
+        <v>107</v>
       </c>
       <c r="I45" s="37" t="s">
-        <v>231</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B46" s="37" t="s">
         <v>15</v>
@@ -2098,156 +1760,165 @@
         <v>3</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="G46" s="37"/>
+        <v>77</v>
+      </c>
+      <c r="G46" s="37">
+        <v>5491164689346</v>
+      </c>
       <c r="H46" s="37" t="s">
-        <v>179</v>
+        <v>104</v>
       </c>
       <c r="I46" s="37" t="s">
-        <v>234</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D47" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="G47" s="37">
-        <v>5559894201</v>
+        <v>5527242756</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="I47" s="37"/>
+        <v>102</v>
+      </c>
+      <c r="I47" s="37" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
+        <v>21</v>
+      </c>
+      <c r="B48" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="37" t="s">
-        <v>16</v>
-      </c>
       <c r="C48" s="37" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D48" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
       <c r="G48" s="37">
-        <v>5518495489</v>
+        <v>5579105800</v>
       </c>
       <c r="H48" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="I48" s="37"/>
+        <v>101</v>
+      </c>
+      <c r="I48" s="37" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="37" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F49" s="37" t="s">
-        <v>119</v>
+        <v>73</v>
       </c>
       <c r="G49" s="37">
-        <v>5582099151</v>
+        <v>55667788</v>
       </c>
       <c r="H49" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="I49" s="37"/>
-    </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="I49" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D50" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="37" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="G50" s="37">
-        <v>18312522007</v>
+        <v>5580252695</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>183</v>
+        <v>98</v>
       </c>
       <c r="I50" s="37" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="37" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D51" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E51" s="37" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F51" s="37" t="s">
-        <v>121</v>
+        <v>68</v>
       </c>
       <c r="G51" s="37">
-        <v>5585318248</v>
+        <v>50766740934</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>184</v>
+        <v>95</v>
       </c>
       <c r="I51" s="37" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2255,33 +1926,33 @@
         <v>19</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="37" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D52" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="37" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F52" s="37" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="G52" s="37">
-        <v>4493845838</v>
+        <v>5530199206</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B53" s="37" t="s">
         <v>16</v>
@@ -2293,16 +1964,14 @@
         <v>3</v>
       </c>
       <c r="E53" s="37" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G53" s="37">
-        <v>9211023445</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G53" s="37"/>
       <c r="H53" s="37" t="s">
-        <v>186</v>
+        <v>111</v>
       </c>
       <c r="I53" s="37" t="s">
         <v>14</v>
@@ -2310,28 +1979,28 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B54" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D54" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="37" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="G54" s="37">
-        <v>7029540886</v>
+        <v>4431354753</v>
       </c>
       <c r="H54" s="37" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="I54" s="37" t="s">
         <v>14</v>
@@ -2339,58 +2008,55 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B55" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D55" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
       <c r="G55" s="37">
-        <v>5534714162</v>
+        <v>6642858712</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="I55" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B56" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D56" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="37" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G56" s="37">
-        <v>5552483224</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G56" s="37"/>
       <c r="H56" s="37" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="I56" s="37" t="s">
         <v>14</v>
@@ -2398,89 +2064,85 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C57" s="37" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D57" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="37" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="F57" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="G57" s="37">
-        <v>5572185071</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G57" s="37"/>
       <c r="H57" s="37" t="s">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="I57" s="37" t="s">
-        <v>235</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C58" s="37" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D58" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="37" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="G58" s="37">
-        <v>7445028320</v>
+        <v>5555555555</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="I58" s="37" t="s">
-        <v>234</v>
+        <v>131</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C59" s="37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D59" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="37" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F59" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I59" s="37" t="s">
         <v>129</v>
-      </c>
-      <c r="G59" s="37">
-        <v>5543544126</v>
-      </c>
-      <c r="H59" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="I59" s="37" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2488,1164 +2150,553 @@
         <v>27</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C60" s="37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D60" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="37">
+        <v>6649040928</v>
+      </c>
+      <c r="H60" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="I60" s="37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+    </row>
+    <row r="63" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="19"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="21"/>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="18"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="20"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="21"/>
+    </row>
+    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="18"/>
+      <c r="C65" s="19"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="20"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="21"/>
+    </row>
+    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="24"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="21"/>
+    </row>
+    <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="I60" s="37" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>28</v>
-      </c>
-      <c r="B61" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D61" s="38" t="s">
+      <c r="C67" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" s="24"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="21"/>
+    </row>
+    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="G61" s="37">
-        <v>6151043723</v>
-      </c>
-      <c r="H61" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="I61" s="37" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>29</v>
-      </c>
-      <c r="B62" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D62" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="G62" s="37">
-        <v>36</v>
-      </c>
-      <c r="H62" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="I62" s="37" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>30</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D63" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" s="37">
-        <v>525583965472</v>
-      </c>
-      <c r="H63" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="I63" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>31</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F64" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="G64" s="37">
-        <v>525535278634</v>
-      </c>
-      <c r="H64" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="I64" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="C68" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="24"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="21"/>
+    </row>
+    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="24"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B65" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D65" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F65" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G65" s="37">
-        <v>525610815173</v>
-      </c>
-      <c r="H65" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="I65" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>33</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="G66" s="37">
-        <v>525580333633</v>
-      </c>
-      <c r="H66" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="I66" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>34</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F67" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="G67" s="37">
-        <v>526566387264</v>
-      </c>
-      <c r="H67" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="I67" s="37" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>35</v>
-      </c>
-      <c r="B68" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D68" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="G68" s="37">
-        <v>7335837557</v>
-      </c>
-      <c r="H68" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="I68" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>36</v>
-      </c>
-      <c r="B69" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="G69" s="37">
-        <v>5539778247</v>
-      </c>
-      <c r="H69" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="I69" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>37</v>
-      </c>
-      <c r="B70" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="D70" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F70" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="G70" s="37">
-        <v>6643722317</v>
-      </c>
-      <c r="H70" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="I70" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>38</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D71" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="G71" s="37">
-        <v>5582034826</v>
-      </c>
-      <c r="H71" s="37" t="s">
-        <v>204</v>
-      </c>
-      <c r="I71" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>39</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D72" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F72" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="G72" s="37">
-        <v>7225189486</v>
-      </c>
-      <c r="H72" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>40</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="G73" s="37">
-        <v>5543565056</v>
-      </c>
-      <c r="H73" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="I73" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>41</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="G74" s="37">
-        <v>525549455398</v>
-      </c>
-      <c r="H74" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="I74" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>42</v>
-      </c>
-      <c r="B75" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="G75" s="37">
-        <v>393928596781</v>
-      </c>
-      <c r="H75" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="I75" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>43</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F76" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="G76" s="37">
-        <v>525532326588</v>
-      </c>
-      <c r="H76" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="I76" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>44</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="D77" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E77" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="G77" s="37">
-        <v>525520679422</v>
-      </c>
-      <c r="H77" s="37" t="s">
-        <v>210</v>
-      </c>
-      <c r="I77" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>45</v>
-      </c>
-      <c r="B78" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="D78" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E78" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="G78" s="37">
-        <v>525523107924</v>
-      </c>
-      <c r="H78" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="I78" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>46</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="G79" s="37">
-        <v>52015545887033</v>
-      </c>
-      <c r="H79" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="I79" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>47</v>
-      </c>
-      <c r="B80" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F80" s="37" t="s">
-        <v>150</v>
-      </c>
-      <c r="G80" s="37">
-        <v>52015550689421</v>
-      </c>
-      <c r="H80" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="I80" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>48</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="D81" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F81" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="G81" s="37">
-        <v>525548456420</v>
-      </c>
-      <c r="H81" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="I81" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>49</v>
-      </c>
-      <c r="B82" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="D82" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E82" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F82" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G82" s="37">
-        <v>525578877238</v>
-      </c>
-      <c r="H82" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="I82" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>50</v>
-      </c>
-      <c r="B83" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D83" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="G83" s="37">
-        <v>52015549409936</v>
-      </c>
-      <c r="H83" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="I83" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>51</v>
-      </c>
-      <c r="B84" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D84" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E84" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F84" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="G84" s="37">
-        <v>525574162304</v>
-      </c>
-      <c r="H84" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="I84" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>52</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E85" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F85" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="G85" s="37">
-        <v>5525918787</v>
-      </c>
-      <c r="H85" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="I85" s="37" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>53</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="D86" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E86" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F86" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="G86" s="37">
-        <v>5569654539</v>
-      </c>
-      <c r="H86" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="I86" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>54</v>
-      </c>
-      <c r="B87" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="D87" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E87" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G87" s="37">
-        <v>5519881384</v>
-      </c>
-      <c r="H87" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="I87" s="37" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>55</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C88" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D88" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E88" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="G88" s="37">
-        <v>5569663647</v>
-      </c>
-      <c r="H88" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="I88" s="37" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>56</v>
-      </c>
-      <c r="B89" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="D89" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="G89" s="37">
-        <v>5580399766</v>
-      </c>
-      <c r="H89" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="I89" s="37" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>57</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C90" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="D90" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F90" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="G90" s="37">
-        <v>5558503981</v>
-      </c>
-      <c r="H90" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="I90" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>58</v>
-      </c>
-      <c r="B91" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D91" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="G91" s="37">
-        <v>5500990000</v>
-      </c>
-      <c r="H91" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="I91" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>59</v>
-      </c>
-      <c r="B92" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C92" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="D92" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="G92" s="37">
-        <v>7441029794</v>
-      </c>
-      <c r="H92" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="I92" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>60</v>
-      </c>
-      <c r="B93" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="D93" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="G93" s="37">
-        <v>5574069119</v>
-      </c>
-      <c r="H93" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="I93" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>61</v>
-      </c>
-      <c r="B94" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C94" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="37" t="s">
-        <v>164</v>
-      </c>
-      <c r="G94" s="37">
-        <v>5529729411</v>
-      </c>
-      <c r="H94" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="I94" s="37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>62</v>
-      </c>
-      <c r="B95" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="D95" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="G95" s="37">
-        <v>4448432305</v>
-      </c>
-      <c r="H95" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="I95" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>63</v>
-      </c>
-      <c r="B96" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C96" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F96" s="37" t="s">
-        <v>166</v>
-      </c>
-      <c r="G96" s="37">
-        <v>525554604269</v>
-      </c>
-      <c r="H96" s="37" t="s">
-        <v>229</v>
-      </c>
-      <c r="I96" s="37" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C97" s="19"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="18"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="20"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="21"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+    </row>
+    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+    </row>
+    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+    </row>
+    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+    </row>
+    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+    </row>
+    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+    </row>
+    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+    </row>
+    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+    </row>
+    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="6"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+    </row>
+    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+    </row>
+    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+    </row>
+    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+    </row>
+    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="6"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
     </row>
     <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="18"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="20"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="21"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
     </row>
     <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="18"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="20"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="21"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
     </row>
     <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C100" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="24"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="26"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="21"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="6"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
     </row>
     <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D101" s="24"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="26"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="21"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
     </row>
     <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="21"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
     </row>
     <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D103" s="24"/>
-      <c r="E103" s="25"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="30"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="6"/>
       <c r="I103" s="6"/>
       <c r="J103" s="6"/>
       <c r="K103" s="6"/>
@@ -3712,9 +2763,7 @@
       <c r="L108" s="6"/>
     </row>
     <row r="109" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="6" t="s">
-        <v>33</v>
-      </c>
+      <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="6"/>
@@ -3738,15 +2787,14 @@
       <c r="L110" s="6"/>
     </row>
     <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
     </row>
@@ -5166,415 +4214,10 @@
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
     </row>
-    <row r="230" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="6"/>
-      <c r="I230" s="6"/>
-      <c r="J230" s="6"/>
-      <c r="K230" s="6"/>
-      <c r="L230" s="6"/>
-    </row>
-    <row r="231" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="6"/>
-      <c r="I231" s="6"/>
-      <c r="J231" s="6"/>
-      <c r="K231" s="6"/>
-      <c r="L231" s="6"/>
-    </row>
-    <row r="232" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="6"/>
-      <c r="I232" s="6"/>
-      <c r="J232" s="6"/>
-      <c r="K232" s="6"/>
-      <c r="L232" s="6"/>
-    </row>
-    <row r="233" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-      <c r="E233" s="6"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="6"/>
-      <c r="I233" s="6"/>
-      <c r="J233" s="6"/>
-      <c r="K233" s="6"/>
-      <c r="L233" s="6"/>
-    </row>
-    <row r="234" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="6"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="6"/>
-      <c r="I234" s="6"/>
-      <c r="J234" s="6"/>
-      <c r="K234" s="6"/>
-      <c r="L234" s="6"/>
-    </row>
-    <row r="235" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="6"/>
-      <c r="I235" s="6"/>
-      <c r="J235" s="6"/>
-      <c r="K235" s="6"/>
-      <c r="L235" s="6"/>
-    </row>
-    <row r="236" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="6"/>
-      <c r="I236" s="6"/>
-      <c r="J236" s="6"/>
-      <c r="K236" s="6"/>
-      <c r="L236" s="6"/>
-    </row>
-    <row r="237" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="6"/>
-      <c r="I237" s="6"/>
-      <c r="J237" s="6"/>
-      <c r="K237" s="6"/>
-      <c r="L237" s="6"/>
-    </row>
-    <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="6"/>
-      <c r="I238" s="6"/>
-      <c r="J238" s="6"/>
-      <c r="K238" s="6"/>
-      <c r="L238" s="6"/>
-    </row>
-    <row r="239" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="6"/>
-      <c r="I239" s="6"/>
-      <c r="J239" s="6"/>
-      <c r="K239" s="6"/>
-      <c r="L239" s="6"/>
-    </row>
-    <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="6"/>
-      <c r="I240" s="6"/>
-      <c r="J240" s="6"/>
-      <c r="K240" s="6"/>
-      <c r="L240" s="6"/>
-    </row>
-    <row r="241" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="6"/>
-      <c r="I241" s="6"/>
-      <c r="J241" s="6"/>
-      <c r="K241" s="6"/>
-      <c r="L241" s="6"/>
-    </row>
-    <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="6"/>
-      <c r="I242" s="6"/>
-      <c r="J242" s="6"/>
-      <c r="K242" s="6"/>
-      <c r="L242" s="6"/>
-    </row>
-    <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="6"/>
-      <c r="I243" s="6"/>
-      <c r="J243" s="6"/>
-      <c r="K243" s="6"/>
-      <c r="L243" s="6"/>
-    </row>
-    <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="6"/>
-      <c r="I244" s="6"/>
-      <c r="J244" s="6"/>
-      <c r="K244" s="6"/>
-      <c r="L244" s="6"/>
-    </row>
-    <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="6"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="6"/>
-      <c r="I245" s="6"/>
-      <c r="J245" s="6"/>
-      <c r="K245" s="6"/>
-      <c r="L245" s="6"/>
-    </row>
-    <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="6"/>
-      <c r="I246" s="6"/>
-      <c r="J246" s="6"/>
-      <c r="K246" s="6"/>
-      <c r="L246" s="6"/>
-    </row>
-    <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="6"/>
-      <c r="I247" s="6"/>
-      <c r="J247" s="6"/>
-      <c r="K247" s="6"/>
-      <c r="L247" s="6"/>
-    </row>
-    <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="6"/>
-      <c r="I248" s="6"/>
-      <c r="J248" s="6"/>
-      <c r="K248" s="6"/>
-      <c r="L248" s="6"/>
-    </row>
-    <row r="249" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="6"/>
-      <c r="I249" s="6"/>
-      <c r="J249" s="6"/>
-      <c r="K249" s="6"/>
-      <c r="L249" s="6"/>
-    </row>
-    <row r="250" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="6"/>
-      <c r="I250" s="6"/>
-      <c r="J250" s="6"/>
-      <c r="K250" s="6"/>
-      <c r="L250" s="6"/>
-    </row>
-    <row r="251" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="6"/>
-      <c r="I251" s="6"/>
-      <c r="J251" s="6"/>
-      <c r="K251" s="6"/>
-      <c r="L251" s="6"/>
-    </row>
-    <row r="252" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
-      <c r="D252" s="6"/>
-      <c r="E252" s="6"/>
-      <c r="F252" s="5"/>
-      <c r="G252" s="6"/>
-      <c r="I252" s="6"/>
-      <c r="J252" s="6"/>
-      <c r="K252" s="6"/>
-      <c r="L252" s="6"/>
-    </row>
-    <row r="253" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
-      <c r="D253" s="6"/>
-      <c r="E253" s="6"/>
-      <c r="F253" s="5"/>
-      <c r="G253" s="6"/>
-      <c r="I253" s="6"/>
-      <c r="J253" s="6"/>
-      <c r="K253" s="6"/>
-      <c r="L253" s="6"/>
-    </row>
-    <row r="254" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
-      <c r="D254" s="6"/>
-      <c r="E254" s="6"/>
-      <c r="F254" s="5"/>
-      <c r="G254" s="6"/>
-      <c r="I254" s="6"/>
-      <c r="J254" s="6"/>
-      <c r="K254" s="6"/>
-      <c r="L254" s="6"/>
-    </row>
-    <row r="255" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
-      <c r="D255" s="6"/>
-      <c r="E255" s="6"/>
-      <c r="F255" s="5"/>
-      <c r="G255" s="6"/>
-      <c r="I255" s="6"/>
-      <c r="J255" s="6"/>
-      <c r="K255" s="6"/>
-      <c r="L255" s="6"/>
-    </row>
-    <row r="256" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
-      <c r="D256" s="6"/>
-      <c r="E256" s="6"/>
-      <c r="F256" s="5"/>
-      <c r="G256" s="6"/>
-      <c r="I256" s="6"/>
-      <c r="J256" s="6"/>
-      <c r="K256" s="6"/>
-      <c r="L256" s="6"/>
-    </row>
-    <row r="257" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
-      <c r="D257" s="6"/>
-      <c r="E257" s="6"/>
-      <c r="F257" s="5"/>
-      <c r="G257" s="6"/>
-      <c r="I257" s="6"/>
-      <c r="J257" s="6"/>
-      <c r="K257" s="6"/>
-      <c r="L257" s="6"/>
-    </row>
-    <row r="258" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="6"/>
-      <c r="C258" s="6"/>
-      <c r="D258" s="6"/>
-      <c r="E258" s="6"/>
-      <c r="F258" s="5"/>
-      <c r="G258" s="6"/>
-      <c r="I258" s="6"/>
-      <c r="J258" s="6"/>
-      <c r="K258" s="6"/>
-      <c r="L258" s="6"/>
-    </row>
-    <row r="259" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
-      <c r="D259" s="6"/>
-      <c r="E259" s="6"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="6"/>
-      <c r="I259" s="6"/>
-      <c r="J259" s="6"/>
-      <c r="K259" s="6"/>
-      <c r="L259" s="6"/>
-    </row>
-    <row r="260" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
-      <c r="D260" s="6"/>
-      <c r="E260" s="6"/>
-      <c r="F260" s="5"/>
-      <c r="G260" s="6"/>
-      <c r="I260" s="6"/>
-      <c r="J260" s="6"/>
-      <c r="K260" s="6"/>
-      <c r="L260" s="6"/>
-    </row>
-    <row r="261" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
-      <c r="D261" s="6"/>
-      <c r="E261" s="6"/>
-      <c r="F261" s="5"/>
-      <c r="G261" s="6"/>
-      <c r="I261" s="6"/>
-      <c r="J261" s="6"/>
-      <c r="K261" s="6"/>
-      <c r="L261" s="6"/>
-    </row>
-    <row r="262" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
-      <c r="D262" s="6"/>
-      <c r="E262" s="6"/>
-      <c r="F262" s="5"/>
-      <c r="G262" s="6"/>
-      <c r="I262" s="6"/>
-      <c r="J262" s="6"/>
-      <c r="K262" s="6"/>
-      <c r="L262" s="6"/>
-    </row>
-    <row r="263" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="6"/>
-      <c r="C263" s="6"/>
-      <c r="D263" s="6"/>
-      <c r="E263" s="6"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="6"/>
-      <c r="I263" s="6"/>
-      <c r="J263" s="6"/>
-      <c r="K263" s="6"/>
-      <c r="L263" s="6"/>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I60">
+    <sortCondition ref="D34"/>
+  </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>

--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravenue\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EA49A0-0B6A-3943-B47D-E5AD0C1AC51B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{754DBA85-EC4C-44D5-9204-5D08D1E1D655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25480" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="174">
   <si>
     <t>A</t>
   </si>
@@ -122,9 +120,6 @@
     <t xml:space="preserve">Balora A. </t>
   </si>
   <si>
-    <t xml:space="preserve">Miguel Angel V. </t>
-  </si>
-  <si>
     <t>Detalle</t>
   </si>
   <si>
@@ -137,301 +132,424 @@
     <t>DATOS FALSOS, NO LE INTERESA, BAJO PRESUPUESTO, NO APTOS PARA NUESTROS DESARROLLOS</t>
   </si>
   <si>
-    <t>Laura Ortega</t>
-  </si>
-  <si>
     <t>Google</t>
   </si>
   <si>
     <t>Envié correo con información general</t>
   </si>
   <si>
-    <t>Envié correo con info general</t>
-  </si>
-  <si>
-    <t>Envie correo con info general</t>
-  </si>
-  <si>
-    <t>Miguel Angel Velazquez</t>
-  </si>
-  <si>
-    <t>2020-03-15 15:53:47</t>
-  </si>
-  <si>
-    <t>2020-03-15 15:24:00</t>
-  </si>
-  <si>
-    <t>2020-03-15 10:17:06</t>
-  </si>
-  <si>
-    <t>2020-03-15 01:14:44</t>
-  </si>
-  <si>
-    <t>2020-03-14 21:44:38</t>
-  </si>
-  <si>
-    <t>2020-03-14 19:08:14</t>
-  </si>
-  <si>
-    <t>2020-03-14 18:13:58</t>
-  </si>
-  <si>
-    <t>2020-03-14 13:57:05</t>
-  </si>
-  <si>
-    <t>2020-03-14 13:09:57</t>
-  </si>
-  <si>
-    <t>2020-03-14 12:16:37</t>
-  </si>
-  <si>
-    <t>2020-03-14 11:20:43</t>
-  </si>
-  <si>
-    <t>2020-03-14 06:29:37</t>
-  </si>
-  <si>
-    <t>2020-03-13 22:07:29</t>
-  </si>
-  <si>
-    <t>2020-03-12 23:28:04</t>
-  </si>
-  <si>
-    <t>2020-03-12 18:00:21</t>
-  </si>
-  <si>
-    <t>2020-03-12 16:31:22</t>
-  </si>
-  <si>
-    <t>2020-03-12 12:48:02</t>
-  </si>
-  <si>
-    <t>2020-03-12 12:21:57</t>
-  </si>
-  <si>
-    <t>2020-03-12 12:21:54</t>
-  </si>
-  <si>
-    <t>2020-03-12 12:21:50</t>
-  </si>
-  <si>
-    <t>2020-03-12 12:21:49</t>
-  </si>
-  <si>
-    <t>2020-03-12 12:20:53</t>
-  </si>
-  <si>
-    <t>2020-03-12 12:20:47</t>
-  </si>
-  <si>
-    <t>2020-03-09 17:13:45</t>
-  </si>
-  <si>
-    <t>2020-03-09 15:11:22</t>
-  </si>
-  <si>
-    <t>2020-03-09 14:04:45</t>
-  </si>
-  <si>
-    <t>2020-03-09 12:10:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viviana cifuentes </t>
-  </si>
-  <si>
-    <t>Roberto Calderon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armando Mata . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrés Contreras </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Margarita Amador Rodriguez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTURO GUZMAN CHIMEO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Talavera </t>
-  </si>
-  <si>
-    <t>ANA PAULA SCHARRERG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daiana Sonin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerardo Acosta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristina Suarez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ninoska Alejandra Pérez Rodríguez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hilda Sanchez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josué </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marisela  Lopez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mary Lú Jiménez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melissa Rosales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria fernanda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar del toro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulo Suárez Aguilar </t>
-  </si>
-  <si>
-    <t>Vicente Candela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucia bautista ramirez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diana González </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Damian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Thomas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernardo Silva (Terra Residencial) </t>
-  </si>
-  <si>
-    <t>vianci77@hotmail.com</t>
-  </si>
-  <si>
-    <t>jrcg200@gmail.com</t>
-  </si>
-  <si>
-    <t>diaseguro@outlook.com</t>
-  </si>
-  <si>
-    <t>andres_contreras_suarez@hotmail.com</t>
-  </si>
-  <si>
-    <t>Amadorfurlani@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>saintseya_@hotmail.com</t>
-  </si>
-  <si>
-    <t>aguzmanc1215@hotmail.com</t>
-  </si>
-  <si>
-    <t>andii_tb92@hotmail.com</t>
-  </si>
-  <si>
-    <t>anapalula.scharrerg@gmail.com</t>
-  </si>
-  <si>
-    <t>dai.sonin@gmail.com</t>
-  </si>
-  <si>
-    <t>gerardo.acosta@me.com</t>
-  </si>
-  <si>
-    <t>Crisum@hotmail.com</t>
-  </si>
-  <si>
-    <t>franciaprni@gmail.com</t>
-  </si>
-  <si>
-    <t>Morahila@hotmail.com</t>
-  </si>
-  <si>
-    <t>titodorantes7@gmail.com</t>
-  </si>
-  <si>
-    <t>lopezmarisela8036@gmail.com</t>
-  </si>
-  <si>
-    <t>marilu_jimenez_diaz_58@hotmail.com</t>
-  </si>
-  <si>
-    <t>melissarosales.rmpharma@gmail.com</t>
-  </si>
-  <si>
-    <t>mariferkaram@gmail.com</t>
-  </si>
-  <si>
-    <t>Iluicamina@icloud.com</t>
-  </si>
-  <si>
-    <t>paulinasuarezaguilar@gmail.com</t>
-  </si>
-  <si>
-    <t>vicente.candela@skytex.com.mx</t>
-  </si>
-  <si>
-    <t>Lucia0701@gmail.com</t>
-  </si>
-  <si>
-    <t>dian_glez3@hotmail.com</t>
-  </si>
-  <si>
-    <t>jd548509@gmail.com</t>
-  </si>
-  <si>
-    <t>thoru66@yahoo.co.uk</t>
-  </si>
-  <si>
-    <t>bernardosilvadelamiyar@hotmail.com</t>
-  </si>
-  <si>
-    <t>Busca Renta</t>
-  </si>
-  <si>
-    <t>Envie correo con info general, se lleva cotización del GHC</t>
-  </si>
-  <si>
-    <t>Envie información general</t>
-  </si>
-  <si>
-    <t>Nos contacta por WHAPP quiere info de 2 rec. Envié 404A</t>
-  </si>
-  <si>
     <t>Envié información general</t>
   </si>
   <si>
-    <t>No deja teléfono envio correo</t>
-  </si>
-  <si>
-    <t>Envie correo con informacióon general</t>
-  </si>
-  <si>
-    <t>No deja num. teléfonico, envío correo.</t>
-  </si>
-  <si>
-    <t>Que el no pidio informes de los departamentos.</t>
-  </si>
-  <si>
-    <t>No deja número teléfonico, enviaré  correo con información del mas economico.</t>
-  </si>
-  <si>
-    <t>No proporciona teléfono, envío correo con la información.</t>
-  </si>
-  <si>
-    <t>09 - 15 de Marzo del 2020</t>
+    <t>2020-03-22 16:08:59</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:54:47</t>
+  </si>
+  <si>
+    <t>2020-03-22 15:39:22</t>
+  </si>
+  <si>
+    <t>2020-03-22 14:30:18</t>
+  </si>
+  <si>
+    <t>2020-03-20 14:15:49</t>
+  </si>
+  <si>
+    <t>2020-03-20 11:31:12</t>
+  </si>
+  <si>
+    <t>2020-03-20 11:28:27</t>
+  </si>
+  <si>
+    <t>2020-03-20 11:00:22</t>
+  </si>
+  <si>
+    <t>2020-03-20 07:30:22</t>
+  </si>
+  <si>
+    <t>2020-03-20 00:42:13</t>
+  </si>
+  <si>
+    <t>2020-03-20 00:24:11</t>
+  </si>
+  <si>
+    <t>2020-03-19 21:54:10</t>
+  </si>
+  <si>
+    <t>2020-03-19 21:31:30</t>
+  </si>
+  <si>
+    <t>2020-03-19 16:18:39</t>
+  </si>
+  <si>
+    <t>2020-03-19 16:16:00</t>
+  </si>
+  <si>
+    <t>2020-03-19 15:53:21</t>
+  </si>
+  <si>
+    <t>2020-03-19 15:23:59</t>
+  </si>
+  <si>
+    <t>2020-03-19 13:26:36</t>
+  </si>
+  <si>
+    <t>2020-03-19 10:08:16</t>
+  </si>
+  <si>
+    <t>2020-03-19 07:03:16</t>
+  </si>
+  <si>
+    <t>2020-03-18 23:14:43</t>
+  </si>
+  <si>
+    <t>2020-03-18 19:13:34</t>
+  </si>
+  <si>
+    <t>2020-03-18 17:10:25</t>
+  </si>
+  <si>
+    <t>2020-03-18 14:00:20</t>
+  </si>
+  <si>
+    <t>2020-03-18 12:27:25</t>
+  </si>
+  <si>
+    <t>2020-03-18 12:24:26</t>
+  </si>
+  <si>
+    <t>2020-03-17 23:18:15</t>
+  </si>
+  <si>
+    <t>2020-03-17 19:43:05</t>
+  </si>
+  <si>
+    <t>2020-03-17 19:39:14</t>
+  </si>
+  <si>
+    <t>2020-03-17 19:00:06</t>
+  </si>
+  <si>
+    <t>2020-03-17 18:07:53</t>
+  </si>
+  <si>
+    <t>2020-03-17 14:16:11</t>
+  </si>
+  <si>
+    <t>2020-03-17 11:59:19</t>
+  </si>
+  <si>
+    <t>2020-03-17 11:54:28</t>
+  </si>
+  <si>
+    <t>2020-03-17 06:24:06</t>
+  </si>
+  <si>
+    <t>2020-03-17 05:54:32</t>
+  </si>
+  <si>
+    <t>2020-03-17 01:50:27</t>
+  </si>
+  <si>
+    <t>2020-03-16 20:18:26</t>
+  </si>
+  <si>
+    <t>2020-03-16 12:19:29</t>
+  </si>
+  <si>
+    <t>Lamudi</t>
+  </si>
+  <si>
+    <t>Llamada</t>
+  </si>
+  <si>
+    <t>Karla Silva</t>
+  </si>
+  <si>
+    <t>Yobani Gonzalez</t>
+  </si>
+  <si>
+    <t>Kevin Buenrostro</t>
+  </si>
+  <si>
+    <t>Beto Plaza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ammi Monserrat - SEGURIDAD Y LIMPIEZA </t>
+  </si>
+  <si>
+    <t>Isabel Barreda</t>
+  </si>
+  <si>
+    <t>Tori Castillo</t>
+  </si>
+  <si>
+    <t>Wireless Caller n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina Cervantes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinthya TD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susana Lopez cisneros </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shifra Abud </t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Eugenia Arce Salgado </t>
+  </si>
+  <si>
+    <t>Abel González</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lulu Mejorada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Escobar </t>
+  </si>
+  <si>
+    <t>EDOARDO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>Cuauhtemoc MX n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rosa isela esquivel nava </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astrid Avendaño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ximena Treviño Barroso </t>
+  </si>
+  <si>
+    <t>Marcia Salas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAMILO MOSQUERA </t>
+  </si>
+  <si>
+    <t>Daniela Barba</t>
+  </si>
+  <si>
+    <t>Jaime Metta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lalito Marin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgina RENTERIA Campos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Julian Perez Perez </t>
+  </si>
+  <si>
+    <t>Arturo Robles</t>
+  </si>
+  <si>
+    <t>Leticia Alfie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonio Dominguez Zambrano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lily Elizabeth Sanchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verónica Hernández Bautista </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gustavo Silva </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mulata Marichal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillermo Diaz del Leon Ochoa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocy Bustamante </t>
+  </si>
+  <si>
+    <t>karly.lore@gmail.com</t>
+  </si>
+  <si>
+    <t>yaneruz@gmail.com</t>
+  </si>
+  <si>
+    <t>link_darkange@hotmail.com</t>
+  </si>
+  <si>
+    <t>beto.83sp@hotmail.com</t>
+  </si>
+  <si>
+    <t>ventas@conperpa.com</t>
+  </si>
+  <si>
+    <t>izab@prodigy.net.mx</t>
+  </si>
+  <si>
+    <t>tori.xanat.ch@gmail.com</t>
+  </si>
+  <si>
+    <t>+528442180627@phonecall.com</t>
+  </si>
+  <si>
+    <t>Carolina.cervantes.s@gmail.com</t>
+  </si>
+  <si>
+    <t>cin.td01@gmail.com</t>
+  </si>
+  <si>
+    <t>chuchette30@gmail.com</t>
+  </si>
+  <si>
+    <t>Shif_dab@hotmail.com</t>
+  </si>
+  <si>
+    <t>arcesalgadome@gmail.com</t>
+  </si>
+  <si>
+    <t>agk.0827@gmail.com</t>
+  </si>
+  <si>
+    <t>melourdes900@gmail.com</t>
+  </si>
+  <si>
+    <t>+528712183021@phonecall.com</t>
+  </si>
+  <si>
+    <t>rescobar@grupopunto.net</t>
+  </si>
+  <si>
+    <t>edoardos11@hotmail.com</t>
+  </si>
+  <si>
+    <t>+525557820083@phonecall.com</t>
+  </si>
+  <si>
+    <t>ahlezhy.nzvz100@gmail.com</t>
+  </si>
+  <si>
+    <t>aymjxs02@gmail.com</t>
+  </si>
+  <si>
+    <t>Xim_tre@hotmail.com</t>
+  </si>
+  <si>
+    <t>mssalav@hotmail.com</t>
+  </si>
+  <si>
+    <t>camilomaside@hotmail.com</t>
+  </si>
+  <si>
+    <t>daneilabarba1963@gmail.com</t>
+  </si>
+  <si>
+    <t>jaimemetta@gmail.com</t>
+  </si>
+  <si>
+    <t>Jonathangm24@hotmail.com</t>
+  </si>
+  <si>
+    <t>lalomarin.em@gmail.com</t>
+  </si>
+  <si>
+    <t>rana030686@gmail.com</t>
+  </si>
+  <si>
+    <t>ricajupe@gmail.com</t>
+  </si>
+  <si>
+    <t>arth.roble@gmail.com</t>
+  </si>
+  <si>
+    <t>5525690568@phonecall.com</t>
+  </si>
+  <si>
+    <t>adoza57@gmail.com</t>
+  </si>
+  <si>
+    <t>Lily_esamchez@hoymail.com</t>
+  </si>
+  <si>
+    <t>vawo.3022@hotmail.com</t>
+  </si>
+  <si>
+    <t>gsilvah@dp.skandia.com.mx</t>
+  </si>
+  <si>
+    <t>mbalia.marichal.i@gmail.com</t>
+  </si>
+  <si>
+    <t>guako@hotmail.com</t>
+  </si>
+  <si>
+    <t>rocy_bus@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>manda directo a buzon, envie info general</t>
+  </si>
+  <si>
+    <t>marco mal y no esta interesado</t>
+  </si>
+  <si>
+    <t>Enviñe correo con información general</t>
+  </si>
+  <si>
+    <t>no contesta envie info general</t>
+  </si>
+  <si>
+    <t>POR AHORA NO LE INTERESA</t>
+  </si>
+  <si>
+    <t>Envie correo con información general</t>
+  </si>
+  <si>
+    <t>llamada ricardo escobar, busca algo para renta o venta vive en Torreon</t>
+  </si>
+  <si>
+    <t>Visita el desarrollo y por el Covi 19 le enviaré informacion y programo cita</t>
+  </si>
+  <si>
+    <t>Visita el Desarrollo hoy pero no pudo verlo por COVID, le envié información del 404A y 502 E</t>
+  </si>
+  <si>
+    <t>Le marqué pero dijo que no pidió informes y no está interesado</t>
+  </si>
+  <si>
+    <t>VISITO EL DESARROLLO MANDE COTIZACIONES DE VARIOS DEPARTAMENTOS Y PH</t>
+  </si>
+  <si>
+    <t>RECOMENDADA DE JUAN CARLOS SANZ MANDE INFO DEL 502E</t>
+  </si>
+  <si>
+    <t>VISITÓ EL SHOWROOM, VENDE PISOS Y PAPEL TAPIZ</t>
+  </si>
+  <si>
+    <t>NO QUIERE COMPRAR, ENTRO PARA HACER UNA TAREA</t>
+  </si>
+  <si>
+    <t>Llamada para informes, busca 3 recámaras, le envié cotización del 504A, 501B y 401E, Progama visita para el sabado 21</t>
+  </si>
+  <si>
+    <t>Visita el desarrollo pero no tiene tiempo, va a reagendar su visita. Se lleva mi tarjeta</t>
+  </si>
+  <si>
+    <t>Envié correo pero no es correcto. Le marco para dar seguimiento</t>
+  </si>
+  <si>
+    <t>envié correo con información general</t>
+  </si>
+  <si>
+    <t>16 - 22 de Marzo del 2020</t>
   </si>
 </sst>
 </file>
@@ -441,7 +559,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -692,7 +810,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,6 +823,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -779,13 +897,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>12757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1123,28 +1241,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L229"/>
+  <dimension ref="A4:L240"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34:D60"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1"/>
-    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1"/>
+    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="189" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="94.5" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.5" style="1"/>
+    <col min="10" max="10" width="94.42578125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="15" customHeight="1">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1155,22 +1273,22 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="14.25">
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="14.25">
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:10" ht="16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="14.25">
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" ht="23.1" customHeight="1">
       <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
@@ -1179,23 +1297,23 @@
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" ht="23.1" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="15.75">
       <c r="B17" s="11"/>
       <c r="F17" s="5"/>
       <c r="G17" s="12"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="18">
       <c r="B18" s="35" t="s">
         <v>22</v>
       </c>
@@ -1204,19 +1322,19 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="15.75">
       <c r="B19" s="13"/>
       <c r="F19" s="5"/>
       <c r="G19" s="12"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9">
       <c r="B20" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="34">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>24</v>
@@ -1228,7 +1346,7 @@
       <c r="H20" s="31"/>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9">
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="E21" s="33" t="s">
@@ -1241,33 +1359,33 @@
       <c r="H21" s="31"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9">
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
       <c r="E22" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="34">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="15.75">
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
       <c r="E23" s="33" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="15.75">
       <c r="B24" s="31"/>
       <c r="C24" s="32"/>
       <c r="E24" s="31"/>
@@ -1276,104 +1394,104 @@
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="15.75">
       <c r="B25" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>8</v>
-      </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="42"/>
+        <v>13</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="15.75">
       <c r="B26" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" s="34">
-        <v>4</v>
-      </c>
+    <row r="27" spans="2:9" ht="15.75">
+      <c r="B27" s="31"/>
+      <c r="C27" s="32"/>
       <c r="E27" s="33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F27" s="34">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B28" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="34">
-        <v>0</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
+    <row r="28" spans="2:9" ht="15.75">
+      <c r="B28" s="31"/>
+      <c r="C28" s="32"/>
+      <c r="E28" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="34">
+        <v>5</v>
+      </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="15.75">
       <c r="B29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="34">
+        <v>3</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="15.75">
       <c r="B30" s="31"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="12"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="2:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="18">
       <c r="B31" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
+        <v>30</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="41"/>
       <c r="G31" s="12"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="2:9" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="15.75">
       <c r="B32" s="11"/>
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75">
       <c r="B33" s="13" t="s">
         <v>6</v>
       </c>
@@ -1399,1034 +1517,1245 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75">
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G34" s="42">
+        <v>5554639298</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="1:10" ht="15.75">
+      <c r="A35" s="1">
+        <v>2</v>
+      </c>
+      <c r="B35" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="37" t="s">
+      <c r="C35" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="42">
+        <v>555555555555</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="42">
+        <v>3333694495</v>
+      </c>
+      <c r="H36" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I36" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75">
+      <c r="A37" s="1">
+        <v>4</v>
+      </c>
+      <c r="B37" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="42">
+        <v>5531408505</v>
+      </c>
+      <c r="H37" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" s="42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A38" s="1">
+        <v>5</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="42">
+        <v>2411732120</v>
+      </c>
+      <c r="H38" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A39" s="1">
+        <v>6</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="G39" s="42">
+        <v>5514734999</v>
+      </c>
+      <c r="H39" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="I39" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A40" s="1">
+        <v>7</v>
+      </c>
+      <c r="B40" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="42">
+        <v>2291610682</v>
+      </c>
+      <c r="H40" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="I40" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A41" s="1">
+        <v>8</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="G41" s="42">
+        <v>5586789606</v>
+      </c>
+      <c r="H41" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="I41" s="42" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A42" s="1">
+        <v>9</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="G42" s="42">
+        <v>9981256199</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="I42" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A43" s="1">
+        <v>10</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G43" s="42">
+        <v>5546389193</v>
+      </c>
+      <c r="H43" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="I43" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1">
+      <c r="A44" s="1">
+        <v>11</v>
+      </c>
+      <c r="B44" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G44" s="42">
+        <v>5567069956</v>
+      </c>
+      <c r="H44" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="I44" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A45" s="1">
+        <v>12</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G45" s="42">
+        <v>8712183021</v>
+      </c>
+      <c r="H45" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A46" s="1">
+        <v>13</v>
+      </c>
+      <c r="B46" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" s="42">
+        <v>5548205948</v>
+      </c>
+      <c r="H46" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A47" s="1">
+        <v>14</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="42">
+        <v>5618261724</v>
+      </c>
+      <c r="H47" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A48" s="1">
+        <v>15</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42" t="s">
+        <v>150</v>
+      </c>
+      <c r="I48" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A49" s="1">
+        <v>16</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F49" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G49" s="42">
+        <v>5525403676</v>
+      </c>
+      <c r="H49" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="I49" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A50" s="1">
         <v>17</v>
       </c>
-      <c r="F34" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="G34" s="37">
-        <v>5554554669</v>
-      </c>
-      <c r="H34" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="I34" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>5</v>
-      </c>
-      <c r="B35" s="37" t="s">
+      <c r="B50" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="38" t="s">
+      <c r="C50" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D50" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="37">
-        <v>9212394699</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>8</v>
-      </c>
-      <c r="B36" s="37" t="s">
+      <c r="E50" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F50" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G50" s="42">
+        <v>7775665107</v>
+      </c>
+      <c r="H50" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I50" s="42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A51" s="1">
+        <v>18</v>
+      </c>
+      <c r="B51" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="38" t="s">
+      <c r="C51" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="G36" s="37">
-        <v>6241095150</v>
-      </c>
-      <c r="H36" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="I36" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>14</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="G37" s="37">
-        <v>5565979896</v>
-      </c>
-      <c r="H37" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="I37" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>16</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>79</v>
-      </c>
-      <c r="G38" s="37">
-        <v>5559973099</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="I38" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>17</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E39" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="G39" s="37">
-        <v>4772522089</v>
-      </c>
-      <c r="H39" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="I39" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>23</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G40" s="37">
-        <v>5554184705</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>25</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="37">
-        <v>5566988390</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>7</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="37" t="s">
+      <c r="E51" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F51" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G51" s="42">
+        <v>5540055042</v>
+      </c>
+      <c r="H51" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="I51" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="37">
-        <v>5524942905</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>9</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="37">
-        <v>8116004461</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>10</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" s="37">
-        <v>5585498401</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>15</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>18</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="37">
-        <v>5491164689346</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="I46" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>20</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="G47" s="37">
-        <v>5527242756</v>
-      </c>
-      <c r="H47" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="I47" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>21</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="37">
-        <v>5579105800</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="I48" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>22</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" s="37">
-        <v>55667788</v>
-      </c>
-      <c r="H49" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="I49" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>24</v>
-      </c>
-      <c r="B50" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="37">
-        <v>5580252695</v>
-      </c>
-      <c r="H50" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="I50" s="37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>26</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F51" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" s="37">
-        <v>50766740934</v>
-      </c>
-      <c r="H51" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="I51" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>19</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="38" t="s">
+      <c r="C52" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D52" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="E52" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="37">
-        <v>5530199206</v>
-      </c>
-      <c r="H52" s="37" t="s">
+      <c r="F52" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="42">
+        <v>5554010717</v>
+      </c>
+      <c r="H52" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="I52" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A53" s="1">
+        <v>20</v>
+      </c>
+      <c r="B53" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" s="42">
+        <v>5532228528</v>
+      </c>
+      <c r="H53" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="I53" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A54" s="1">
+        <v>21</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" s="42">
+        <v>5579219180</v>
+      </c>
+      <c r="H54" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="I54" s="42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A55" s="1">
+        <v>22</v>
+      </c>
+      <c r="B55" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" s="42">
+        <v>5525690568</v>
+      </c>
+      <c r="H55" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="I55" s="42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A56" s="1">
+        <v>23</v>
+      </c>
+      <c r="B56" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="42">
+        <v>5529760742</v>
+      </c>
+      <c r="H56" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="I56" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A57" s="1">
+        <v>24</v>
+      </c>
+      <c r="B57" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="G57" s="42">
+        <v>7773502586</v>
+      </c>
+      <c r="H57" s="42" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A58" s="1">
+        <v>25</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G58" s="42">
+        <v>5519382038</v>
+      </c>
+      <c r="H58" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="I58" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A59" s="1">
+        <v>26</v>
+      </c>
+      <c r="B59" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="I52" s="37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>11</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" s="37" t="s">
+      <c r="G59" s="42">
+        <v>5521086599</v>
+      </c>
+      <c r="H59" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="I59" s="42" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>12</v>
-      </c>
-      <c r="B54" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F54" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="G54" s="37">
-        <v>4431354753</v>
-      </c>
-      <c r="H54" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="I54" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>13</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55" s="37">
-        <v>6642858712</v>
-      </c>
-      <c r="H55" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="I55" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>6</v>
-      </c>
-      <c r="B56" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="I56" s="37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>2</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F57" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="I57" s="37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>3</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C58" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="G58" s="37">
-        <v>5555555555</v>
-      </c>
-      <c r="H58" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="I58" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>4</v>
-      </c>
-      <c r="B59" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F59" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="I59" s="37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15" customHeight="1">
       <c r="A60" s="1">
         <v>27</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60" s="42" t="s">
+        <v>105</v>
+      </c>
+      <c r="G60" s="42">
+        <v>3316995720</v>
+      </c>
+      <c r="H60" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="I60" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1">
+      <c r="A61" s="1">
+        <v>28</v>
+      </c>
+      <c r="B61" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="42">
+        <v>5539660238</v>
+      </c>
+      <c r="H61" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="I61" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1">
+      <c r="A62" s="1">
+        <v>29</v>
+      </c>
+      <c r="B62" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C60" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="38" t="s">
+      <c r="D62" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G62" s="42">
+        <v>5527151878</v>
+      </c>
+      <c r="H62" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="I62" s="42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1">
+      <c r="A63" s="1">
+        <v>30</v>
+      </c>
+      <c r="B63" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="G63" s="42">
+        <v>5555010071</v>
+      </c>
+      <c r="H63" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1">
+      <c r="A64" s="1">
+        <v>31</v>
+      </c>
+      <c r="B64" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E64" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G64" s="42">
+        <v>5533312182</v>
+      </c>
+      <c r="H64" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" customHeight="1">
+      <c r="A65" s="1">
+        <v>32</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F65" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="42">
+        <v>525557820083</v>
+      </c>
+      <c r="H65" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1">
+      <c r="A66" s="1">
+        <v>33</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F60" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="G60" s="37">
-        <v>6649040928</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="I60" s="37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="39"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="39"/>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="39"/>
-      <c r="C62" s="39"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="39"/>
-    </row>
-    <row r="63" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="36" t="s">
+      <c r="F66" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="42">
+        <v>9331197888</v>
+      </c>
+      <c r="H66" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I66" s="42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1">
+      <c r="A67" s="1">
+        <v>34</v>
+      </c>
+      <c r="B67" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" s="42">
+        <v>5555074056</v>
+      </c>
+      <c r="H67" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="I67" s="42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1">
+      <c r="A68" s="1">
+        <v>35</v>
+      </c>
+      <c r="B68" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="G68" s="42">
+        <v>9611291224</v>
+      </c>
+      <c r="H68" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="I68" s="42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1">
+      <c r="A69" s="1">
+        <v>36</v>
+      </c>
+      <c r="B69" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F69" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="42">
+        <v>5520711704</v>
+      </c>
+      <c r="H69" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="I69" s="42" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1">
+      <c r="A70" s="1">
+        <v>37</v>
+      </c>
+      <c r="B70" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G70" s="42">
+        <v>528442180627</v>
+      </c>
+      <c r="H70" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="I70" s="42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1">
+      <c r="A71" s="1">
+        <v>38</v>
+      </c>
+      <c r="B71" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D71" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F71" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G71" s="42">
+        <v>528712183021</v>
+      </c>
+      <c r="H71" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="I71" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1">
+      <c r="A72" s="1">
+        <v>39</v>
+      </c>
+      <c r="B72" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G72" s="42">
+        <v>5551052020</v>
+      </c>
+      <c r="H72" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="I72" s="42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15" customHeight="1">
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+    </row>
+    <row r="74" spans="1:12" ht="24" customHeight="1">
+      <c r="B74" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="19"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="21"/>
-    </row>
-    <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="18"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="21"/>
-    </row>
-    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="21"/>
-    </row>
-    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="22" t="s">
+      <c r="C74" s="19"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B77" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="23" t="s">
+      <c r="C77" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D66" s="24"/>
-      <c r="E66" s="25"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="21"/>
-    </row>
-    <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="22" t="s">
+      <c r="D77" s="24"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B78" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C78" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="24"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="21"/>
-    </row>
-    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="22" t="s">
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B79" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="23" t="s">
+      <c r="C79" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D68" s="24"/>
-      <c r="E68" s="25"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="21"/>
-    </row>
-    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="22" t="s">
+      <c r="D79" s="24"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
+      <c r="B80" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C69" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D69" s="24"/>
-      <c r="E69" s="25"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="29"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-    </row>
-    <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-    </row>
-    <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-    </row>
-    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-    </row>
-    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-    </row>
-    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-    </row>
-    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-    </row>
-    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-    </row>
-    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-    </row>
-    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-    </row>
-    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="6"/>
+      <c r="C80" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="30"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
     </row>
-    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12" ht="15.75" customHeight="1">
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
@@ -2438,7 +2767,7 @@
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
     </row>
-    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12" ht="15.75" customHeight="1">
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
@@ -2450,7 +2779,7 @@
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
     </row>
-    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12" ht="15.75" customHeight="1">
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2462,7 +2791,7 @@
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
     </row>
-    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12" ht="15.75" customHeight="1">
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
@@ -2474,7 +2803,7 @@
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
     </row>
-    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12" ht="15.75" customHeight="1">
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -2486,8 +2815,10 @@
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
     </row>
-    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
+    <row r="86" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B86" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
@@ -2498,7 +2829,7 @@
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
     </row>
-    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12" ht="15.75" customHeight="1">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2510,19 +2841,20 @@
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
     </row>
-    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+    <row r="88" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
     </row>
-    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" ht="15.75" customHeight="1">
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2534,7 +2866,7 @@
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
     </row>
-    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12" ht="15.75" customHeight="1">
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -2546,7 +2878,7 @@
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
     </row>
-    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12" ht="15.75" customHeight="1">
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
@@ -2558,7 +2890,7 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12" ht="15.75" customHeight="1">
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2570,7 +2902,7 @@
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
     </row>
-    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12" ht="15.75" customHeight="1">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2582,7 +2914,7 @@
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
     </row>
-    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12" ht="15.75" customHeight="1">
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
@@ -2594,7 +2926,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
     </row>
-    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12" ht="15.75" customHeight="1">
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -2606,7 +2938,7 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
     </row>
-    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" ht="15.75" customHeight="1">
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
@@ -2618,7 +2950,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
     </row>
-    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="15.75" customHeight="1">
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2630,7 +2962,7 @@
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
     </row>
-    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12" ht="15.75" customHeight="1">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -2642,7 +2974,7 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
     </row>
-    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12" ht="15.75" customHeight="1">
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
@@ -2654,7 +2986,7 @@
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
     </row>
-    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12" ht="15.75" customHeight="1">
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -2666,7 +2998,7 @@
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
     </row>
-    <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" ht="15.75" customHeight="1">
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -2678,7 +3010,7 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
     </row>
-    <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" ht="15.75" customHeight="1">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -2690,7 +3022,7 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
     </row>
-    <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12" ht="15.75" customHeight="1">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -2702,7 +3034,7 @@
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
     </row>
-    <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12" ht="15.75" customHeight="1">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -2714,7 +3046,7 @@
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
     </row>
-    <row r="105" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12" ht="15.75" customHeight="1">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -2726,7 +3058,7 @@
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
     </row>
-    <row r="106" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12" ht="15.75" customHeight="1">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -2738,7 +3070,7 @@
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
     </row>
-    <row r="107" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12" ht="15.75" customHeight="1">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2750,7 +3082,7 @@
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
     </row>
-    <row r="108" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12" ht="15.75" customHeight="1">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -2762,7 +3094,7 @@
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
     </row>
-    <row r="109" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" ht="15.75" customHeight="1">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -2774,7 +3106,7 @@
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
     </row>
-    <row r="110" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="15.75" customHeight="1">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -2786,7 +3118,7 @@
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
     </row>
-    <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" ht="15.75" customHeight="1">
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2798,7 +3130,7 @@
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
     </row>
-    <row r="112" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" ht="15.75" customHeight="1">
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -2810,7 +3142,7 @@
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
     </row>
-    <row r="113" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="15.75" customHeight="1">
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -2822,7 +3154,7 @@
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
     </row>
-    <row r="114" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" ht="15.75" customHeight="1">
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -2834,7 +3166,7 @@
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
     </row>
-    <row r="115" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" ht="15.75" customHeight="1">
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -2846,7 +3178,7 @@
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
     </row>
-    <row r="116" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" ht="15.75" customHeight="1">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -2858,7 +3190,7 @@
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" ht="15.75" customHeight="1">
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -2870,7 +3202,7 @@
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" ht="15.75" customHeight="1">
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -2882,7 +3214,7 @@
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
     </row>
-    <row r="119" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" ht="15.75" customHeight="1">
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -2894,7 +3226,7 @@
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
     </row>
-    <row r="120" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12" ht="15.75" customHeight="1">
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -2906,7 +3238,7 @@
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
     </row>
-    <row r="121" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12" ht="15.75" customHeight="1">
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -2918,7 +3250,7 @@
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12" ht="15.75" customHeight="1">
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -2930,7 +3262,7 @@
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12" ht="15.75" customHeight="1">
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -2942,7 +3274,7 @@
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12" ht="15.75" customHeight="1">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -2954,7 +3286,7 @@
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12" ht="15.75" customHeight="1">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -2966,7 +3298,7 @@
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
     </row>
-    <row r="126" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12" ht="15.75" customHeight="1">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -2978,7 +3310,7 @@
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
     </row>
-    <row r="127" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" ht="15.75" customHeight="1">
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -2990,7 +3322,7 @@
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
     </row>
-    <row r="128" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" ht="15.75" customHeight="1">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3002,7 +3334,7 @@
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
     </row>
-    <row r="129" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12" ht="15.75" customHeight="1">
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3014,7 +3346,7 @@
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
     </row>
-    <row r="130" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12" ht="15.75" customHeight="1">
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -3026,7 +3358,7 @@
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
     </row>
-    <row r="131" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12" ht="15.75" customHeight="1">
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3038,7 +3370,7 @@
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
     </row>
-    <row r="132" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12" ht="15.75" customHeight="1">
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3050,7 +3382,7 @@
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
     </row>
-    <row r="133" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12" ht="15.75" customHeight="1">
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3062,7 +3394,7 @@
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
     </row>
-    <row r="134" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12" ht="15.75" customHeight="1">
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3074,7 +3406,7 @@
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
     </row>
-    <row r="135" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12" ht="15.75" customHeight="1">
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3086,7 +3418,7 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
     </row>
-    <row r="136" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12" ht="15.75" customHeight="1">
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -3098,7 +3430,7 @@
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
     </row>
-    <row r="137" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" ht="15.75" customHeight="1">
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -3110,7 +3442,7 @@
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
     </row>
-    <row r="138" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" ht="15.75" customHeight="1">
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -3122,7 +3454,7 @@
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
     </row>
-    <row r="139" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12" ht="15.75" customHeight="1">
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3134,7 +3466,7 @@
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
     </row>
-    <row r="140" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12" ht="15.75" customHeight="1">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -3146,7 +3478,7 @@
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
     </row>
-    <row r="141" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12" ht="15.75" customHeight="1">
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -3158,7 +3490,7 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
     </row>
-    <row r="142" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12" ht="15.75" customHeight="1">
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -3170,7 +3502,7 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
     </row>
-    <row r="143" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12" ht="15.75" customHeight="1">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3182,7 +3514,7 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
     </row>
-    <row r="144" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12" ht="15.75" customHeight="1">
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -3194,7 +3526,7 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
     </row>
-    <row r="145" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" ht="15.75" customHeight="1">
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3206,7 +3538,7 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
     </row>
-    <row r="146" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" ht="15.75" customHeight="1">
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -3218,7 +3550,7 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
     </row>
-    <row r="147" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12" ht="15.75" customHeight="1">
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -3230,7 +3562,7 @@
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
     </row>
-    <row r="148" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" ht="15.75" customHeight="1">
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -3242,7 +3574,7 @@
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
     </row>
-    <row r="149" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" ht="15.75" customHeight="1">
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -3254,7 +3586,7 @@
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
     </row>
-    <row r="150" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12" ht="15.75" customHeight="1">
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -3266,7 +3598,7 @@
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
     </row>
-    <row r="151" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12" ht="15.75" customHeight="1">
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -3278,7 +3610,7 @@
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
     </row>
-    <row r="152" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12" ht="15.75" customHeight="1">
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -3290,7 +3622,7 @@
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
     </row>
-    <row r="153" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12" ht="15.75" customHeight="1">
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3302,7 +3634,7 @@
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
     </row>
-    <row r="154" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12" ht="15.75" customHeight="1">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -3314,7 +3646,7 @@
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
     </row>
-    <row r="155" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12" ht="15.75" customHeight="1">
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3326,7 +3658,7 @@
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
     </row>
-    <row r="156" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" ht="15.75" customHeight="1">
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -3338,7 +3670,7 @@
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
     </row>
-    <row r="157" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" ht="15.75" customHeight="1">
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -3350,7 +3682,7 @@
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
     </row>
-    <row r="158" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" ht="15.75" customHeight="1">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -3362,7 +3694,7 @@
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
     </row>
-    <row r="159" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" ht="15.75" customHeight="1">
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -3374,7 +3706,7 @@
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
     </row>
-    <row r="160" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" ht="15.75" customHeight="1">
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -3386,7 +3718,7 @@
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
     </row>
-    <row r="161" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12" ht="15.75" customHeight="1">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -3398,7 +3730,7 @@
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
     </row>
-    <row r="162" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12" ht="15.75" customHeight="1">
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -3410,7 +3742,7 @@
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
     </row>
-    <row r="163" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12" ht="15.75" customHeight="1">
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -3422,7 +3754,7 @@
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
     </row>
-    <row r="164" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12" ht="15.75" customHeight="1">
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -3434,7 +3766,7 @@
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
     </row>
-    <row r="165" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12" ht="15.75" customHeight="1">
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -3446,7 +3778,7 @@
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
     </row>
-    <row r="166" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12" ht="15.75" customHeight="1">
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -3458,7 +3790,7 @@
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
     </row>
-    <row r="167" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" ht="15.75" customHeight="1">
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -3470,7 +3802,7 @@
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
     </row>
-    <row r="168" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" ht="15.75" customHeight="1">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -3482,7 +3814,7 @@
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
     </row>
-    <row r="169" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" ht="15.75" customHeight="1">
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -3494,7 +3826,7 @@
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
     </row>
-    <row r="170" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" ht="15.75" customHeight="1">
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -3506,7 +3838,7 @@
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
     </row>
-    <row r="171" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" ht="15.75" customHeight="1">
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -3518,7 +3850,7 @@
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
     </row>
-    <row r="172" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" ht="15.75" customHeight="1">
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -3530,7 +3862,7 @@
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
     </row>
-    <row r="173" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" ht="15.75" customHeight="1">
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -3542,7 +3874,7 @@
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
     </row>
-    <row r="174" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" ht="15.75" customHeight="1">
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -3554,7 +3886,7 @@
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
     </row>
-    <row r="175" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" ht="15.75" customHeight="1">
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -3566,7 +3898,7 @@
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
     </row>
-    <row r="176" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" ht="15.75" customHeight="1">
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -3578,7 +3910,7 @@
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
     </row>
-    <row r="177" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:12" ht="15.75" customHeight="1">
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -3590,7 +3922,7 @@
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
     </row>
-    <row r="178" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:12" ht="15.75" customHeight="1">
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -3602,7 +3934,7 @@
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
     </row>
-    <row r="179" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:12" ht="15.75" customHeight="1">
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -3614,7 +3946,7 @@
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
     </row>
-    <row r="180" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:12" ht="15.75" customHeight="1">
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -3626,7 +3958,7 @@
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
     </row>
-    <row r="181" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:12" ht="15.75" customHeight="1">
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -3638,7 +3970,7 @@
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
     </row>
-    <row r="182" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:12" ht="15.75" customHeight="1">
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -3650,7 +3982,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
     </row>
-    <row r="183" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:12" ht="15.75" customHeight="1">
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -3662,7 +3994,7 @@
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
     </row>
-    <row r="184" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:12" ht="15.75" customHeight="1">
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -3674,7 +4006,7 @@
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
     </row>
-    <row r="185" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:12" ht="15.75" customHeight="1">
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -3686,7 +4018,7 @@
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
     </row>
-    <row r="186" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:12" ht="15.75" customHeight="1">
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -3698,7 +4030,7 @@
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
     </row>
-    <row r="187" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:12" ht="15.75" customHeight="1">
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -3710,7 +4042,7 @@
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
     </row>
-    <row r="188" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:12" ht="15.75" customHeight="1">
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -3722,7 +4054,7 @@
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
     </row>
-    <row r="189" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:12" ht="15.75" customHeight="1">
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -3734,7 +4066,7 @@
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
     </row>
-    <row r="190" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:12" ht="15.75" customHeight="1">
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -3746,7 +4078,7 @@
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
     </row>
-    <row r="191" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:12" ht="15.75" customHeight="1">
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -3758,7 +4090,7 @@
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
     </row>
-    <row r="192" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:12" ht="15.75" customHeight="1">
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -3770,7 +4102,7 @@
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
     </row>
-    <row r="193" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:12" ht="15.75" customHeight="1">
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
@@ -3782,7 +4114,7 @@
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
     </row>
-    <row r="194" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:12" ht="15.75" customHeight="1">
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -3794,7 +4126,7 @@
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
     </row>
-    <row r="195" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:12" ht="15.75" customHeight="1">
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -3806,7 +4138,7 @@
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
     </row>
-    <row r="196" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:12" ht="15.75" customHeight="1">
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -3818,7 +4150,7 @@
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
     </row>
-    <row r="197" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:12" ht="15.75" customHeight="1">
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -3830,7 +4162,7 @@
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
     </row>
-    <row r="198" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:12" ht="15.75" customHeight="1">
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -3842,7 +4174,7 @@
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
     </row>
-    <row r="199" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:12" ht="15.75" customHeight="1">
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -3854,7 +4186,7 @@
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
     </row>
-    <row r="200" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:12" ht="15.75" customHeight="1">
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -3866,7 +4198,7 @@
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
     </row>
-    <row r="201" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:12" ht="15.75" customHeight="1">
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -3878,7 +4210,7 @@
       <c r="K201" s="6"/>
       <c r="L201" s="6"/>
     </row>
-    <row r="202" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:12" ht="15.75" customHeight="1">
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -3890,7 +4222,7 @@
       <c r="K202" s="6"/>
       <c r="L202" s="6"/>
     </row>
-    <row r="203" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:12" ht="15.75" customHeight="1">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -3902,7 +4234,7 @@
       <c r="K203" s="6"/>
       <c r="L203" s="6"/>
     </row>
-    <row r="204" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:12" ht="15.75" customHeight="1">
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -3914,7 +4246,7 @@
       <c r="K204" s="6"/>
       <c r="L204" s="6"/>
     </row>
-    <row r="205" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:12" ht="15.75" customHeight="1">
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -3926,7 +4258,7 @@
       <c r="K205" s="6"/>
       <c r="L205" s="6"/>
     </row>
-    <row r="206" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:12" ht="15.75" customHeight="1">
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -3938,7 +4270,7 @@
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
     </row>
-    <row r="207" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:12" ht="15.75" customHeight="1">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -3950,7 +4282,7 @@
       <c r="K207" s="6"/>
       <c r="L207" s="6"/>
     </row>
-    <row r="208" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:12" ht="15.75" customHeight="1">
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -3962,7 +4294,7 @@
       <c r="K208" s="6"/>
       <c r="L208" s="6"/>
     </row>
-    <row r="209" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12" ht="15.75" customHeight="1">
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -3974,7 +4306,7 @@
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
     </row>
-    <row r="210" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12" ht="15.75" customHeight="1">
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -3986,7 +4318,7 @@
       <c r="K210" s="6"/>
       <c r="L210" s="6"/>
     </row>
-    <row r="211" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12" ht="15.75" customHeight="1">
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -3998,7 +4330,7 @@
       <c r="K211" s="6"/>
       <c r="L211" s="6"/>
     </row>
-    <row r="212" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12" ht="15.75" customHeight="1">
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
@@ -4010,7 +4342,7 @@
       <c r="K212" s="6"/>
       <c r="L212" s="6"/>
     </row>
-    <row r="213" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12" ht="15.75" customHeight="1">
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -4022,7 +4354,7 @@
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
     </row>
-    <row r="214" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12" ht="15.75" customHeight="1">
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -4034,7 +4366,7 @@
       <c r="K214" s="6"/>
       <c r="L214" s="6"/>
     </row>
-    <row r="215" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12" ht="15.75" customHeight="1">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -4046,7 +4378,7 @@
       <c r="K215" s="6"/>
       <c r="L215" s="6"/>
     </row>
-    <row r="216" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12" ht="15.75" customHeight="1">
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -4058,7 +4390,7 @@
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
     </row>
-    <row r="217" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" ht="15.75" customHeight="1">
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -4070,7 +4402,7 @@
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
     </row>
-    <row r="218" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12" ht="15.75" customHeight="1">
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -4082,7 +4414,7 @@
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
     </row>
-    <row r="219" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12" ht="15.75" customHeight="1">
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -4094,7 +4426,7 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
     </row>
-    <row r="220" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12" ht="15.75" customHeight="1">
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -4106,7 +4438,7 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
     </row>
-    <row r="221" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12" ht="15.75" customHeight="1">
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -4118,7 +4450,7 @@
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
     </row>
-    <row r="222" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12" ht="15.75" customHeight="1">
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -4130,7 +4462,7 @@
       <c r="K222" s="6"/>
       <c r="L222" s="6"/>
     </row>
-    <row r="223" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12" ht="15.75" customHeight="1">
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -4142,7 +4474,7 @@
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
     </row>
-    <row r="224" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12" ht="15.75" customHeight="1">
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -4154,7 +4486,7 @@
       <c r="K224" s="6"/>
       <c r="L224" s="6"/>
     </row>
-    <row r="225" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12" ht="15.75" customHeight="1">
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -4166,7 +4498,7 @@
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
     </row>
-    <row r="226" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12" ht="15.75" customHeight="1">
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -4178,7 +4510,7 @@
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
     </row>
-    <row r="227" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12" ht="15.75" customHeight="1">
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -4190,7 +4522,7 @@
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
     </row>
-    <row r="228" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12" ht="15.75" customHeight="1">
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -4202,7 +4534,7 @@
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
     </row>
-    <row r="229" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12" ht="15.75" customHeight="1">
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -4214,9 +4546,141 @@
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
     </row>
+    <row r="230" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="6"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+    </row>
+    <row r="231" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="6"/>
+      <c r="I231" s="6"/>
+      <c r="J231" s="6"/>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+    </row>
+    <row r="232" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="6"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+    </row>
+    <row r="233" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="6"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+    </row>
+    <row r="234" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="6"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+    </row>
+    <row r="235" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+    </row>
+    <row r="236" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+    </row>
+    <row r="237" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+    </row>
+    <row r="238" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+    </row>
+    <row r="239" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+    </row>
+    <row r="240" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I60">
-    <sortCondition ref="D34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A72">
+    <sortCondition ref="A34"/>
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravenue\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{754DBA85-EC4C-44D5-9204-5D08D1E1D655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{197C47EB-98EC-4DEC-AC1F-95C0A83A4168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="182">
   <si>
     <t>A</t>
   </si>
@@ -138,418 +138,442 @@
     <t>Envié correo con información general</t>
   </si>
   <si>
-    <t>Envié información general</t>
-  </si>
-  <si>
-    <t>2020-03-22 16:08:59</t>
-  </si>
-  <si>
-    <t>2020-03-22 15:54:47</t>
-  </si>
-  <si>
-    <t>2020-03-22 15:39:22</t>
-  </si>
-  <si>
-    <t>2020-03-22 14:30:18</t>
-  </si>
-  <si>
-    <t>2020-03-20 14:15:49</t>
-  </si>
-  <si>
-    <t>2020-03-20 11:31:12</t>
-  </si>
-  <si>
-    <t>2020-03-20 11:28:27</t>
-  </si>
-  <si>
-    <t>2020-03-20 11:00:22</t>
-  </si>
-  <si>
-    <t>2020-03-20 07:30:22</t>
-  </si>
-  <si>
-    <t>2020-03-20 00:42:13</t>
-  </si>
-  <si>
-    <t>2020-03-20 00:24:11</t>
-  </si>
-  <si>
-    <t>2020-03-19 21:54:10</t>
-  </si>
-  <si>
-    <t>2020-03-19 21:31:30</t>
-  </si>
-  <si>
-    <t>2020-03-19 16:18:39</t>
-  </si>
-  <si>
-    <t>2020-03-19 16:16:00</t>
-  </si>
-  <si>
-    <t>2020-03-19 15:53:21</t>
-  </si>
-  <si>
-    <t>2020-03-19 15:23:59</t>
-  </si>
-  <si>
-    <t>2020-03-19 13:26:36</t>
-  </si>
-  <si>
-    <t>2020-03-19 10:08:16</t>
-  </si>
-  <si>
-    <t>2020-03-19 07:03:16</t>
-  </si>
-  <si>
-    <t>2020-03-18 23:14:43</t>
-  </si>
-  <si>
-    <t>2020-03-18 19:13:34</t>
-  </si>
-  <si>
-    <t>2020-03-18 17:10:25</t>
-  </si>
-  <si>
-    <t>2020-03-18 14:00:20</t>
-  </si>
-  <si>
-    <t>2020-03-18 12:27:25</t>
-  </si>
-  <si>
-    <t>2020-03-18 12:24:26</t>
-  </si>
-  <si>
-    <t>2020-03-17 23:18:15</t>
-  </si>
-  <si>
-    <t>2020-03-17 19:43:05</t>
-  </si>
-  <si>
-    <t>2020-03-17 19:39:14</t>
-  </si>
-  <si>
-    <t>2020-03-17 19:00:06</t>
-  </si>
-  <si>
-    <t>2020-03-17 18:07:53</t>
-  </si>
-  <si>
-    <t>2020-03-17 14:16:11</t>
-  </si>
-  <si>
-    <t>2020-03-17 11:59:19</t>
-  </si>
-  <si>
-    <t>2020-03-17 11:54:28</t>
-  </si>
-  <si>
-    <t>2020-03-17 06:24:06</t>
-  </si>
-  <si>
-    <t>2020-03-17 05:54:32</t>
-  </si>
-  <si>
-    <t>2020-03-17 01:50:27</t>
-  </si>
-  <si>
-    <t>2020-03-16 20:18:26</t>
-  </si>
-  <si>
-    <t>2020-03-16 12:19:29</t>
-  </si>
-  <si>
     <t>Lamudi</t>
   </si>
   <si>
     <t>Llamada</t>
   </si>
   <si>
-    <t>Karla Silva</t>
-  </si>
-  <si>
-    <t>Yobani Gonzalez</t>
-  </si>
-  <si>
-    <t>Kevin Buenrostro</t>
-  </si>
-  <si>
-    <t>Beto Plaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ammi Monserrat - SEGURIDAD Y LIMPIEZA </t>
-  </si>
-  <si>
-    <t>Isabel Barreda</t>
-  </si>
-  <si>
-    <t>Tori Castillo</t>
-  </si>
-  <si>
-    <t>Wireless Caller n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolina Cervantes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cinthya TD </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susana Lopez cisneros </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shifra Abud </t>
-  </si>
-  <si>
-    <t xml:space="preserve">María Eugenia Arce Salgado </t>
-  </si>
-  <si>
-    <t>Abel González</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lulu Mejorada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Escobar </t>
-  </si>
-  <si>
-    <t>EDOARDO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>Cuauhtemoc MX n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rosa isela esquivel nava </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astrid Avendaño </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ximena Treviño Barroso </t>
-  </si>
-  <si>
-    <t>Marcia Salas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CAMILO MOSQUERA </t>
-  </si>
-  <si>
-    <t>Daniela Barba</t>
-  </si>
-  <si>
-    <t>Jaime Metta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lalito Marin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgina RENTERIA Campos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Julian Perez Perez </t>
-  </si>
-  <si>
-    <t>Arturo Robles</t>
-  </si>
-  <si>
-    <t>Leticia Alfie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonio Dominguez Zambrano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lily Elizabeth Sanchez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verónica Hernández Bautista </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gustavo Silva </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mulata Marichal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillermo Diaz del Leon Ochoa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rocy Bustamante </t>
-  </si>
-  <si>
-    <t>karly.lore@gmail.com</t>
-  </si>
-  <si>
-    <t>yaneruz@gmail.com</t>
-  </si>
-  <si>
-    <t>link_darkange@hotmail.com</t>
-  </si>
-  <si>
-    <t>beto.83sp@hotmail.com</t>
-  </si>
-  <si>
-    <t>ventas@conperpa.com</t>
-  </si>
-  <si>
-    <t>izab@prodigy.net.mx</t>
-  </si>
-  <si>
-    <t>tori.xanat.ch@gmail.com</t>
-  </si>
-  <si>
-    <t>+528442180627@phonecall.com</t>
-  </si>
-  <si>
-    <t>Carolina.cervantes.s@gmail.com</t>
-  </si>
-  <si>
-    <t>cin.td01@gmail.com</t>
-  </si>
-  <si>
-    <t>chuchette30@gmail.com</t>
-  </si>
-  <si>
-    <t>Shif_dab@hotmail.com</t>
-  </si>
-  <si>
-    <t>arcesalgadome@gmail.com</t>
-  </si>
-  <si>
-    <t>agk.0827@gmail.com</t>
-  </si>
-  <si>
-    <t>melourdes900@gmail.com</t>
-  </si>
-  <si>
-    <t>+528712183021@phonecall.com</t>
-  </si>
-  <si>
-    <t>rescobar@grupopunto.net</t>
-  </si>
-  <si>
-    <t>edoardos11@hotmail.com</t>
-  </si>
-  <si>
-    <t>+525557820083@phonecall.com</t>
-  </si>
-  <si>
-    <t>ahlezhy.nzvz100@gmail.com</t>
-  </si>
-  <si>
-    <t>aymjxs02@gmail.com</t>
-  </si>
-  <si>
-    <t>Xim_tre@hotmail.com</t>
-  </si>
-  <si>
-    <t>mssalav@hotmail.com</t>
-  </si>
-  <si>
-    <t>camilomaside@hotmail.com</t>
-  </si>
-  <si>
-    <t>daneilabarba1963@gmail.com</t>
-  </si>
-  <si>
-    <t>jaimemetta@gmail.com</t>
-  </si>
-  <si>
-    <t>Jonathangm24@hotmail.com</t>
-  </si>
-  <si>
-    <t>lalomarin.em@gmail.com</t>
-  </si>
-  <si>
-    <t>rana030686@gmail.com</t>
-  </si>
-  <si>
-    <t>ricajupe@gmail.com</t>
-  </si>
-  <si>
-    <t>arth.roble@gmail.com</t>
-  </si>
-  <si>
-    <t>5525690568@phonecall.com</t>
-  </si>
-  <si>
-    <t>adoza57@gmail.com</t>
-  </si>
-  <si>
-    <t>Lily_esamchez@hoymail.com</t>
-  </si>
-  <si>
-    <t>vawo.3022@hotmail.com</t>
-  </si>
-  <si>
-    <t>gsilvah@dp.skandia.com.mx</t>
-  </si>
-  <si>
-    <t>mbalia.marichal.i@gmail.com</t>
-  </si>
-  <si>
-    <t>guako@hotmail.com</t>
-  </si>
-  <si>
-    <t>rocy_bus@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>manda directo a buzon, envie info general</t>
-  </si>
-  <si>
-    <t>marco mal y no esta interesado</t>
-  </si>
-  <si>
-    <t>Enviñe correo con información general</t>
-  </si>
-  <si>
-    <t>no contesta envie info general</t>
-  </si>
-  <si>
-    <t>POR AHORA NO LE INTERESA</t>
-  </si>
-  <si>
-    <t>Envie correo con información general</t>
-  </si>
-  <si>
-    <t>llamada ricardo escobar, busca algo para renta o venta vive en Torreon</t>
-  </si>
-  <si>
-    <t>Visita el desarrollo y por el Covi 19 le enviaré informacion y programo cita</t>
-  </si>
-  <si>
-    <t>Visita el Desarrollo hoy pero no pudo verlo por COVID, le envié información del 404A y 502 E</t>
-  </si>
-  <si>
-    <t>Le marqué pero dijo que no pidió informes y no está interesado</t>
-  </si>
-  <si>
-    <t>VISITO EL DESARROLLO MANDE COTIZACIONES DE VARIOS DEPARTAMENTOS Y PH</t>
-  </si>
-  <si>
-    <t>RECOMENDADA DE JUAN CARLOS SANZ MANDE INFO DEL 502E</t>
-  </si>
-  <si>
-    <t>VISITÓ EL SHOWROOM, VENDE PISOS Y PAPEL TAPIZ</t>
-  </si>
-  <si>
-    <t>NO QUIERE COMPRAR, ENTRO PARA HACER UNA TAREA</t>
-  </si>
-  <si>
-    <t>Llamada para informes, busca 3 recámaras, le envié cotización del 504A, 501B y 401E, Progama visita para el sabado 21</t>
-  </si>
-  <si>
-    <t>Visita el desarrollo pero no tiene tiempo, va a reagendar su visita. Se lleva mi tarjeta</t>
-  </si>
-  <si>
-    <t>Envié correo pero no es correcto. Le marco para dar seguimiento</t>
-  </si>
-  <si>
-    <t>envié correo con información general</t>
-  </si>
-  <si>
-    <t>16 - 22 de Marzo del 2020</t>
+    <t>2020-03-29 10:36:46</t>
+  </si>
+  <si>
+    <t>2020-03-29 10:35:32</t>
+  </si>
+  <si>
+    <t>2020-03-29 09:31:37</t>
+  </si>
+  <si>
+    <t>2020-03-29 08:04:36</t>
+  </si>
+  <si>
+    <t>2020-03-29 03:34:16</t>
+  </si>
+  <si>
+    <t>2020-03-29 00:32:51</t>
+  </si>
+  <si>
+    <t>2020-03-29 00:19:03</t>
+  </si>
+  <si>
+    <t>2020-03-28 18:42:50</t>
+  </si>
+  <si>
+    <t>2020-03-28 17:34:22</t>
+  </si>
+  <si>
+    <t>2020-03-28 13:19:39</t>
+  </si>
+  <si>
+    <t>2020-03-28 12:39:59</t>
+  </si>
+  <si>
+    <t>2020-03-28 12:28:10</t>
+  </si>
+  <si>
+    <t>2020-03-28 10:27:54</t>
+  </si>
+  <si>
+    <t>2020-03-28 06:39:50</t>
+  </si>
+  <si>
+    <t>2020-03-28 02:30:31</t>
+  </si>
+  <si>
+    <t>2020-03-27 19:11:23</t>
+  </si>
+  <si>
+    <t>2020-03-27 18:20:12</t>
+  </si>
+  <si>
+    <t>2020-03-27 13:23:12</t>
+  </si>
+  <si>
+    <t>2020-03-27 12:03:33</t>
+  </si>
+  <si>
+    <t>2020-03-27 04:10:03</t>
+  </si>
+  <si>
+    <t>2020-03-26 22:35:37</t>
+  </si>
+  <si>
+    <t>2020-03-26 19:32:10</t>
+  </si>
+  <si>
+    <t>2020-03-26 18:27:23</t>
+  </si>
+  <si>
+    <t>2020-03-26 17:55:49</t>
+  </si>
+  <si>
+    <t>2020-03-26 16:26:48</t>
+  </si>
+  <si>
+    <t>2020-03-26 15:18:25</t>
+  </si>
+  <si>
+    <t>2020-03-26 10:50:42</t>
+  </si>
+  <si>
+    <t>2020-03-26 09:10:05</t>
+  </si>
+  <si>
+    <t>2020-03-26 05:04:19</t>
+  </si>
+  <si>
+    <t>2020-03-26 00:15:10</t>
+  </si>
+  <si>
+    <t>2020-03-26 00:14:23</t>
+  </si>
+  <si>
+    <t>2020-03-25 14:25:37</t>
+  </si>
+  <si>
+    <t>2020-03-25 08:27:37</t>
+  </si>
+  <si>
+    <t>2020-03-25 00:47:13</t>
+  </si>
+  <si>
+    <t>2020-03-24 23:49:16</t>
+  </si>
+  <si>
+    <t>2020-03-24 21:07:29</t>
+  </si>
+  <si>
+    <t>2020-03-24 21:02:44</t>
+  </si>
+  <si>
+    <t>2020-03-24 20:08:28</t>
+  </si>
+  <si>
+    <t>2020-03-24 18:51:43</t>
+  </si>
+  <si>
+    <t>2020-03-24 12:13:56</t>
+  </si>
+  <si>
+    <t>2020-03-24 11:34:01</t>
+  </si>
+  <si>
+    <t>2020-03-23 14:45:37</t>
+  </si>
+  <si>
+    <t>2020-03-23 11:12:46</t>
+  </si>
+  <si>
+    <t>Daniel Allende Ramirez</t>
+  </si>
+  <si>
+    <t>Silvia Flores Flores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emanuel Schattner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerardo Sordo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Alzas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dalia VG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gina Castañeda Pimentel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alma Rosa Merlos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caro Mendivil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo </t>
+  </si>
+  <si>
+    <t>Javier Perez de Burgos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel pelcastre crisanto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dora gutierrez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Manuel Serratos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susana Martínez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesar carranza </t>
+  </si>
+  <si>
+    <t>Ivana Nusset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sergio Kvitko </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hillary Natacha Loaiza Solano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juanito </t>
+  </si>
+  <si>
+    <t>Alejandra Claro</t>
+  </si>
+  <si>
+    <t>Maggie Maggie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos sanchez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Sahuaya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carlos ulises lópez sevilla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARLOS REGALADO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian Mompala </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Pablo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melannie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Garcia soto </t>
+  </si>
+  <si>
+    <t>Cecilia García</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy Avila </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Arsenio Ucan Ku </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fernando onofre </t>
+  </si>
+  <si>
+    <t>Elizabeth Marquez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario am antara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro Díaz Román </t>
+  </si>
+  <si>
+    <t>Eduardo Valdes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josue Arturo Rodríguez Pérez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Durán aguilar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel zaga </t>
+  </si>
+  <si>
+    <t>(55) 8413-2209</t>
+  </si>
+  <si>
+    <t>0016465190141</t>
+  </si>
+  <si>
+    <t>(55) 1808-4653</t>
+  </si>
+  <si>
+    <t>allenderamirezdaniel@gmail.com</t>
+  </si>
+  <si>
+    <t>aguilasolitariafox@hotmail.com</t>
+  </si>
+  <si>
+    <t>emanuelblai@hotmail.com</t>
+  </si>
+  <si>
+    <t>htg@jju.com</t>
+  </si>
+  <si>
+    <t>gsordo005@gmail.com</t>
+  </si>
+  <si>
+    <t>daliavg@hotmail.com</t>
+  </si>
+  <si>
+    <t>melgina_21@hotmail.com</t>
+  </si>
+  <si>
+    <t>ar_merlos@hotmail.com</t>
+  </si>
+  <si>
+    <t>mendivilanacarolina@gmail.com</t>
+  </si>
+  <si>
+    <t>ricardo.gonzalez.quiroz@gmail.com</t>
+  </si>
+  <si>
+    <t>perezdeburgos7@gmail.com</t>
+  </si>
+  <si>
+    <t>dsnzogsmer@hotma.com</t>
+  </si>
+  <si>
+    <t>doraa.gutierrrz@gmail.com</t>
+  </si>
+  <si>
+    <t>jserratos@monex.com.mx</t>
+  </si>
+  <si>
+    <t>Susanamnarvaez21@gmail.com</t>
+  </si>
+  <si>
+    <t>cesarcarranza@mac.com</t>
+  </si>
+  <si>
+    <t>ivanantuaned5786@gmail.com</t>
+  </si>
+  <si>
+    <t>chemoral87@hotmail.com</t>
+  </si>
+  <si>
+    <t>hilloaiza28@gmail.com</t>
+  </si>
+  <si>
+    <t>jsksjs@xiididkd.com</t>
+  </si>
+  <si>
+    <t>alex-ortega1@hotmail.com</t>
+  </si>
+  <si>
+    <t>chefmaggie.hosteleria@gmail.com</t>
+  </si>
+  <si>
+    <t>casam@vestas.com</t>
+  </si>
+  <si>
+    <t>Csahuaya@hotmail.com</t>
+  </si>
+  <si>
+    <t>carlosevilla_9@hotmail.com</t>
+  </si>
+  <si>
+    <t>entresocios@outlook.com</t>
+  </si>
+  <si>
+    <t>importa?@hotmail.com</t>
+  </si>
+  <si>
+    <t>melannie552@hotmail.com</t>
+  </si>
+  <si>
+    <t>alexsotoscott@gmail.com</t>
+  </si>
+  <si>
+    <t>cecimaynez7@gmail.com</t>
+  </si>
+  <si>
+    <t>terra.avila20@hotmail.com</t>
+  </si>
+  <si>
+    <t>mario.ucan@itsmotul.edu.mx</t>
+  </si>
+  <si>
+    <t>bazancarlos879@gmail.com</t>
+  </si>
+  <si>
+    <t>sandra.cardenas@hitsbook.com</t>
+  </si>
+  <si>
+    <t>elimar@diesinmobiliaria.com</t>
+  </si>
+  <si>
+    <t>pedrodr22@hotmailm.com</t>
+  </si>
+  <si>
+    <t>evaldesgtz@gmail.com</t>
+  </si>
+  <si>
+    <t>josarp1@hotmail.com</t>
+  </si>
+  <si>
+    <t>juandurandolor@hotmail.com</t>
+  </si>
+  <si>
+    <t>zaga10_10@hotmail.com</t>
+  </si>
+  <si>
+    <t>Envié correo con info general</t>
+  </si>
+  <si>
+    <t>Envie correo con info general</t>
+  </si>
+  <si>
+    <t>Quiere información de 172 m2 nos contactó por whapp de la of y le envié información</t>
+  </si>
+  <si>
+    <t>Quiere rentar algo por 9 meses</t>
+  </si>
+  <si>
+    <t>Correo no viable</t>
+  </si>
+  <si>
+    <t>Envié whapp como lo solicitó, solo que no le llegan. Envié correo con info general y para confirmar el whapp</t>
+  </si>
+  <si>
+    <t>Envié correo con infor general</t>
+  </si>
+  <si>
+    <t>Quiere un departamento en renta para su sobrina</t>
+  </si>
+  <si>
+    <t>23 - 29 de Marzo del 2020</t>
+  </si>
+  <si>
+    <t>Llego x whast app, quiere algo de 172m</t>
+  </si>
+  <si>
+    <t>Solo deja numero de telefono, no contesta la llamada, sigo insistiendo y envié whapp</t>
+  </si>
+  <si>
+    <t>Datos falsos</t>
+  </si>
+  <si>
+    <t>Es un test</t>
+  </si>
+  <si>
+    <t>eva.ciao@gmail.com</t>
+  </si>
+  <si>
+    <t>carlos.cortes88@gmail.com</t>
+  </si>
+  <si>
+    <t>1@grupolefarma.com.mx</t>
   </si>
 </sst>
 </file>
@@ -559,7 +583,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -626,6 +650,12 @@
       <color rgb="FF404040"/>
       <name val="Avenir Book"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -715,10 +745,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -823,9 +854,12 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -897,14 +931,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>12757</xdr:rowOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>12758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1241,10 +1275,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L240"/>
+  <dimension ref="A4:L251"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1299,7 +1333,7 @@
     </row>
     <row r="16" spans="2:10" ht="23.1" customHeight="1">
       <c r="B16" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1334,7 +1368,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="34">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>24</v>
@@ -1353,7 +1387,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
@@ -1366,7 +1400,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="34">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1379,7 +1413,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="34">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1399,13 +1433,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
@@ -1416,7 +1450,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>32</v>
@@ -1435,7 +1469,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="34">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1445,10 +1479,10 @@
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="E28" s="33" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F28" s="34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
@@ -1457,10 +1491,10 @@
     <row r="29" spans="2:9" ht="15.75">
       <c r="B29" s="31"/>
       <c r="E29" s="33" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="F29" s="34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
@@ -1517,265 +1551,265 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75">
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="43" t="s">
         <v>59</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G34" s="42">
-        <v>5554639298</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>165</v>
+      <c r="F34" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="G34" s="43">
+        <v>5617861683</v>
+      </c>
+      <c r="H34" s="43" t="s">
+        <v>146</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>168</v>
       </c>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10" ht="15.75">
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>45</v>
+      <c r="B35" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="42">
-        <v>555555555555</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75">
+      <c r="E35" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="43">
+        <v>5536199354</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>47</v>
+      <c r="C36" s="43" t="s">
+        <v>41</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E36" s="42" t="s">
+      <c r="E36" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36" s="42">
-        <v>3333694495</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="I36" s="42" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75">
+      <c r="F36" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" s="43">
+        <v>55444334</v>
+      </c>
+      <c r="H36" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>49</v>
+      <c r="C37" s="43" t="s">
+        <v>42</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="42" t="s">
+      <c r="E37" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="42">
-        <v>5531408505</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="I37" s="42" t="s">
-        <v>160</v>
+      <c r="F37" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="43">
+        <v>5515910498</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
       <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="42" t="s">
-        <v>51</v>
+      <c r="C38" s="43" t="s">
+        <v>44</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="42" t="s">
+      <c r="E38" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G38" s="42">
-        <v>2411732120</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>35</v>
+      <c r="F38" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G38" s="43">
+        <v>5591948105</v>
+      </c>
+      <c r="H38" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="A39" s="1">
         <v>6</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="42" t="s">
-        <v>69</v>
+      <c r="C39" s="43" t="s">
+        <v>45</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="42" t="s">
+      <c r="E39" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="42">
-        <v>5514734999</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>35</v>
+      <c r="F39" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="43">
+        <v>7861007819</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
       <c r="A40" s="1">
         <v>7</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>70</v>
+      <c r="C40" s="43" t="s">
+        <v>47</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="42">
-        <v>2291610682</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="I40" s="42" t="s">
-        <v>35</v>
+      <c r="F40" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G40" s="43">
+        <v>3316968446</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
       <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="42" t="s">
-        <v>73</v>
+      <c r="C41" s="43" t="s">
+        <v>53</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="G41" s="42">
-        <v>5586789606</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="I41" s="42" t="s">
-        <v>172</v>
+      <c r="F41" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="43">
+        <v>5573582216</v>
+      </c>
+      <c r="H41" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
       <c r="A42" s="1">
         <v>9</v>
       </c>
-      <c r="B42" s="42" t="s">
+      <c r="B42" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="42" t="s">
-        <v>74</v>
+      <c r="C42" s="43" t="s">
+        <v>62</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="G42" s="42">
-        <v>9981256199</v>
-      </c>
-      <c r="H42" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="I42" s="42" t="s">
+      <c r="F42" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="G42" s="43">
+        <v>5549466167</v>
+      </c>
+      <c r="H42" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="I42" s="43" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1783,201 +1817,203 @@
       <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="42" t="s">
-        <v>75</v>
+      <c r="C43" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="G43" s="42">
-        <v>5546389193</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="I43" s="42" t="s">
-        <v>35</v>
+      <c r="F43" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="G43" s="43">
+        <v>9911003697</v>
+      </c>
+      <c r="H43" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1">
       <c r="A44" s="1">
         <v>11</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>41</v>
+      <c r="B44" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>43</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G44" s="42">
-        <v>5567069956</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="I44" s="42" t="s">
-        <v>35</v>
+      <c r="E44" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="43">
+        <v>5566108874</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>179</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
       <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>53</v>
+      <c r="B45" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>46</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G45" s="42">
-        <v>8712183021</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>162</v>
+      <c r="E45" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="43">
+        <v>3333990660</v>
+      </c>
+      <c r="H45" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
       <c r="A46" s="1">
         <v>13</v>
       </c>
-      <c r="B46" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>56</v>
+      <c r="B46" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" s="42">
-        <v>5548205948</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="I46" s="42" t="s">
-        <v>35</v>
+      <c r="E46" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="43">
+        <v>6241714466</v>
+      </c>
+      <c r="H46" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="A47" s="1">
         <v>14</v>
       </c>
-      <c r="B47" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>57</v>
+      <c r="B47" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="43" t="s">
+        <v>56</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F47" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="42">
-        <v>5618261724</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="I47" s="42" t="s">
-        <v>36</v>
+      <c r="E47" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="43">
+        <v>8120221172</v>
+      </c>
+      <c r="H47" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="I47" s="43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="B48" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>71</v>
+      <c r="B48" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>65</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42" t="s">
-        <v>150</v>
-      </c>
-      <c r="I48" s="42" t="s">
-        <v>35</v>
+      <c r="E48" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="43">
+        <v>5515027485</v>
+      </c>
+      <c r="H48" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
       <c r="A49" s="1">
         <v>16</v>
       </c>
-      <c r="B49" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>37</v>
+      <c r="B49" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="42">
-        <v>5525403676</v>
-      </c>
-      <c r="H49" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="I49" s="42" t="s">
-        <v>36</v>
+      <c r="E49" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="43">
+        <v>5580375992</v>
+      </c>
+      <c r="H49" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I49" s="43" t="s">
+        <v>14</v>
       </c>
       <c r="J49" s="12"/>
     </row>
@@ -1985,260 +2021,260 @@
       <c r="A50" s="1">
         <v>17</v>
       </c>
-      <c r="B50" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>39</v>
+      <c r="B50" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>72</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F50" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G50" s="42">
-        <v>7775665107</v>
-      </c>
-      <c r="H50" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="I50" s="42" t="s">
-        <v>36</v>
+      <c r="E50" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" s="43">
+        <v>4421390135</v>
+      </c>
+      <c r="H50" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="I50" s="43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
       <c r="A51" s="1">
         <v>18</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C51" s="42" t="s">
-        <v>43</v>
+      <c r="C51" s="43" t="s">
+        <v>51</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F51" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51" s="42">
-        <v>5540055042</v>
-      </c>
-      <c r="H51" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I51" s="42" t="s">
-        <v>36</v>
+      <c r="E51" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I51" s="43" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="1">
         <v>19</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C52" s="42" t="s">
-        <v>50</v>
+      <c r="C52" s="43" t="s">
+        <v>57</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F52" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="G52" s="42">
-        <v>5554010717</v>
-      </c>
-      <c r="H52" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="I52" s="42" t="s">
-        <v>35</v>
+      <c r="E52" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" s="43">
+        <v>50686420112</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="I52" s="43" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="1">
         <v>20</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C53" s="42" t="s">
-        <v>54</v>
+      <c r="C53" s="43" t="s">
+        <v>64</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G53" s="42">
-        <v>5532228528</v>
-      </c>
-      <c r="H53" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="I53" s="42" t="s">
-        <v>163</v>
+      <c r="E53" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="43">
+        <v>5543581515</v>
+      </c>
+      <c r="H53" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="1">
         <v>21</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="42" t="s">
-        <v>67</v>
+      <c r="C54" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="G54" s="42">
-        <v>5579219180</v>
-      </c>
-      <c r="H54" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="I54" s="42" t="s">
-        <v>169</v>
+      <c r="E54" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="G54" s="43">
+        <v>5559890606</v>
+      </c>
+      <c r="H54" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="I54" s="43" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="1">
         <v>22</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="42" t="s">
-        <v>68</v>
+      <c r="C55" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="G55" s="42">
-        <v>5525690568</v>
-      </c>
-      <c r="H55" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="I55" s="42" t="s">
-        <v>170</v>
+      <c r="E55" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" s="43">
+        <v>5579179631</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="I55" s="43" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="1">
         <v>23</v>
       </c>
-      <c r="B56" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="42" t="s">
-        <v>58</v>
+      <c r="B56" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>78</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="G56" s="42">
-        <v>5529760742</v>
-      </c>
-      <c r="H56" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="I56" s="42" t="s">
-        <v>14</v>
+      <c r="E56" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="G56" s="43">
+        <v>5561666028</v>
+      </c>
+      <c r="H56" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="I56" s="43" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="1">
         <v>24</v>
       </c>
-      <c r="B57" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>64</v>
+      <c r="B57" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="G57" s="42">
-        <v>7773502586</v>
-      </c>
-      <c r="H57" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="I57" s="42" t="s">
-        <v>14</v>
+      <c r="E57" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="G57" s="43">
+        <v>7348839584</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="1">
         <v>25</v>
       </c>
-      <c r="B58" s="42" t="s">
+      <c r="B58" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="42" t="s">
-        <v>60</v>
+      <c r="C58" s="43" t="s">
+        <v>40</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="42" t="s">
+      <c r="E58" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F58" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="G58" s="42">
-        <v>5519382038</v>
-      </c>
-      <c r="H58" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="I58" s="42" t="s">
+      <c r="F58" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G58" s="43">
+        <v>5581087734</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I58" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2246,28 +2282,28 @@
       <c r="A59" s="1">
         <v>26</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="42" t="s">
-        <v>63</v>
+      <c r="C59" s="43" t="s">
+        <v>48</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="42" t="s">
+      <c r="E59" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F59" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="G59" s="42">
-        <v>5521086599</v>
-      </c>
-      <c r="H59" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="I59" s="42" t="s">
+      <c r="F59" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G59" s="43">
+        <v>5545109332</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="I59" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2275,28 +2311,28 @@
       <c r="A60" s="1">
         <v>27</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="42" t="s">
-        <v>65</v>
+      <c r="C60" s="43" t="s">
+        <v>50</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="42" t="s">
+      <c r="E60" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F60" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="G60" s="42">
-        <v>3316995720</v>
-      </c>
-      <c r="H60" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="I60" s="42" t="s">
+      <c r="F60" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="G60" s="43">
+        <v>5526648123</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="I60" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2304,28 +2340,28 @@
       <c r="A61" s="1">
         <v>28</v>
       </c>
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="42" t="s">
-        <v>38</v>
+      <c r="C61" s="43" t="s">
+        <v>54</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F61" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="42">
-        <v>5539660238</v>
-      </c>
-      <c r="H61" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="I61" s="42" t="s">
+      <c r="E61" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G61" s="43">
+        <v>5522718390</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="I61" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2333,28 +2369,28 @@
       <c r="A62" s="1">
         <v>29</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="42" t="s">
-        <v>40</v>
+      <c r="C62" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E62" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G62" s="42">
-        <v>5527151878</v>
-      </c>
-      <c r="H62" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="I62" s="42" t="s">
+      <c r="E62" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" s="43">
+        <v>56990156188</v>
+      </c>
+      <c r="H62" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="I62" s="43" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2362,529 +2398,576 @@
       <c r="A63" s="1">
         <v>30</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="42" t="s">
-        <v>61</v>
+      <c r="C63" s="43" t="s">
+        <v>63</v>
       </c>
       <c r="D63" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G63" s="42">
-        <v>5555010071</v>
-      </c>
-      <c r="H63" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="I63" s="42" t="s">
-        <v>166</v>
+      <c r="E63" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="G63" s="43">
+        <v>5538429310</v>
+      </c>
+      <c r="H63" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1">
       <c r="A64" s="1">
         <v>31</v>
       </c>
-      <c r="B64" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="42" t="s">
-        <v>72</v>
+      <c r="B64" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>67</v>
       </c>
       <c r="D64" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F64" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="G64" s="42">
-        <v>5533312182</v>
-      </c>
-      <c r="H64" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="I64" s="42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1">
+      <c r="F64" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="G64" s="43">
+        <v>5540831452</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1">
       <c r="A65" s="1">
         <v>32</v>
       </c>
-      <c r="B65" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" s="42" t="s">
-        <v>55</v>
+      <c r="B65" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>68</v>
       </c>
       <c r="D65" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F65" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="G65" s="42">
-        <v>525557820083</v>
-      </c>
-      <c r="H65" s="42" t="s">
-        <v>134</v>
-      </c>
-      <c r="I65" s="42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="G65" s="43">
+        <v>5537299592</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1">
       <c r="A66" s="1">
         <v>33</v>
       </c>
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C66" s="42" t="s">
-        <v>46</v>
+      <c r="C66" s="43" t="s">
+        <v>79</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" s="42">
-        <v>9331197888</v>
-      </c>
-      <c r="H66" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="I66" s="42" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="G66" s="43">
+        <v>5511224476</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="I66" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1">
       <c r="A67" s="1">
         <v>34</v>
       </c>
-      <c r="B67" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="42" t="s">
-        <v>48</v>
+      <c r="B67" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>39</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="G67" s="42">
-        <v>5555074056</v>
-      </c>
-      <c r="H67" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" s="43">
+        <v>5537364484</v>
+      </c>
+      <c r="H67" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="I67" s="42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1">
+      <c r="I67" s="43" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1">
       <c r="A68" s="1">
         <v>35</v>
       </c>
-      <c r="B68" s="42" t="s">
+      <c r="B68" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="42" t="s">
-        <v>66</v>
+      <c r="C68" s="43" t="s">
+        <v>38</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="42" t="s">
-        <v>34</v>
-      </c>
-      <c r="F68" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="G68" s="42">
-        <v>9611291224</v>
-      </c>
-      <c r="H68" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="I68" s="42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G68" s="43">
+        <v>5522412774</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="I68" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1">
       <c r="A69" s="1">
         <v>36</v>
       </c>
-      <c r="B69" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>42</v>
+      <c r="B69" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>49</v>
       </c>
       <c r="D69" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="F69" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" s="42">
-        <v>5520711704</v>
-      </c>
-      <c r="H69" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="I69" s="42" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G69" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="H69" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="I69" s="43" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1">
       <c r="A70" s="1">
         <v>37</v>
       </c>
-      <c r="B70" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>44</v>
+      <c r="B70" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>69</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F70" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G70" s="42">
-        <v>528442180627</v>
-      </c>
-      <c r="H70" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="I70" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="E70" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70" s="43">
+        <v>5512381985</v>
+      </c>
+      <c r="H70" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="I70" s="43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1">
       <c r="A71" s="1">
         <v>38</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C71" s="42" t="s">
-        <v>52</v>
+      <c r="C71" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F71" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" s="42">
-        <v>528712183021</v>
-      </c>
-      <c r="H71" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="I71" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="E71" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G71" s="43">
+        <v>5554136410</v>
+      </c>
+      <c r="H71" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="I71" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1">
       <c r="A72" s="1">
         <v>39</v>
       </c>
-      <c r="B72" s="42" t="s">
+      <c r="B72" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C72" s="42" t="s">
-        <v>62</v>
+      <c r="C72" s="43" t="s">
+        <v>77</v>
       </c>
       <c r="D72" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="G72" s="43">
+        <v>8444426001</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="I72" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1">
+      <c r="A73" s="1">
+        <v>40</v>
+      </c>
+      <c r="B73" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="42" t="s">
+      <c r="E73" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="G73" s="43">
+        <v>5527304046</v>
+      </c>
+      <c r="H73" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="I73" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1">
+      <c r="A74" s="1">
+        <v>41</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E74" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G74" s="43"/>
+      <c r="H74" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="I74" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1">
+      <c r="A75" s="1">
+        <v>42</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="G72" s="42">
-        <v>5551052020</v>
-      </c>
-      <c r="H72" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="I72" s="42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1">
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-    </row>
-    <row r="74" spans="1:12" ht="24" customHeight="1">
-      <c r="B74" s="36" t="s">
+      <c r="F75" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G75" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="I75" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1">
+      <c r="A76" s="1">
+        <v>43</v>
+      </c>
+      <c r="B76" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="D76" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43">
+        <v>626803255</v>
+      </c>
+      <c r="H76" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="I76" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1">
+      <c r="B77" s="42"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="42"/>
+      <c r="F77" s="42"/>
+      <c r="G77" s="42"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="42"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1">
+      <c r="B78" s="42"/>
+      <c r="C78" s="42"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="42"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="42"/>
+      <c r="H78" s="42"/>
+      <c r="I78" s="42"/>
+    </row>
+    <row r="79" spans="1:9" ht="15" customHeight="1">
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="42"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="42"/>
+      <c r="H79" s="42"/>
+      <c r="I79" s="42"/>
+    </row>
+    <row r="80" spans="1:9" ht="15" customHeight="1">
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
+      <c r="I80" s="42"/>
+    </row>
+    <row r="81" spans="2:12" ht="15" customHeight="1">
+      <c r="B81" s="42"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="42"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="42"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+    </row>
+    <row r="82" spans="2:12" ht="15" customHeight="1">
+      <c r="B82" s="42"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="42"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="42"/>
+      <c r="H82" s="42"/>
+      <c r="I82" s="42"/>
+    </row>
+    <row r="83" spans="2:12" ht="15" customHeight="1">
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="42"/>
+      <c r="H83" s="42"/>
+      <c r="I83" s="42"/>
+    </row>
+    <row r="84" spans="2:12" ht="15" customHeight="1">
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="38"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="38"/>
+    </row>
+    <row r="85" spans="2:12" ht="24" customHeight="1">
+      <c r="B85" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="21"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="21"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="21"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B77" s="22" t="s">
+      <c r="C85" s="19"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="20"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="21"/>
+    </row>
+    <row r="86" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B86" s="18"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="20"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B87" s="18"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="20"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B88" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C77" s="23" t="s">
+      <c r="C88" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="21"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B78" s="22" t="s">
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="26"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="28"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B89" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="23" t="s">
+      <c r="C89" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="21"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B79" s="22" t="s">
+      <c r="D89" s="24"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="26"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="21"/>
+    </row>
+    <row r="90" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B90" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C90" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="21"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1">
-      <c r="B80" s="22" t="s">
+      <c r="D90" s="24"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="26"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B91" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C91" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-    </row>
-    <row r="81" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-    </row>
-    <row r="82" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-    </row>
-    <row r="83" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="5"/>
-      <c r="G83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-    </row>
-    <row r="84" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="5"/>
-      <c r="G84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-    </row>
-    <row r="85" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-    </row>
-    <row r="86" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B86" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-    </row>
-    <row r="87" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-    </row>
-    <row r="88" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-    </row>
-    <row r="89" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-    </row>
-    <row r="90" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-    </row>
-    <row r="91" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="6"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="30"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
@@ -2951,7 +3034,9 @@
       <c r="L96" s="6"/>
     </row>
     <row r="97" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B97" s="6"/>
+      <c r="B97" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -2975,14 +3060,15 @@
       <c r="L98" s="6"/>
     </row>
     <row r="99" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="3"/>
+      <c r="J99" s="3"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
     </row>
@@ -4678,13 +4764,150 @@
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
     </row>
+    <row r="241" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+    </row>
+    <row r="242" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B242" s="6"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="6"/>
+      <c r="E242" s="6"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="6"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="6"/>
+      <c r="K242" s="6"/>
+      <c r="L242" s="6"/>
+    </row>
+    <row r="243" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B243" s="6"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="6"/>
+      <c r="E243" s="6"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="6"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="6"/>
+      <c r="K243" s="6"/>
+      <c r="L243" s="6"/>
+    </row>
+    <row r="244" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B244" s="6"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="6"/>
+      <c r="E244" s="6"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="6"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="6"/>
+      <c r="K244" s="6"/>
+      <c r="L244" s="6"/>
+    </row>
+    <row r="245" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B245" s="6"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="6"/>
+      <c r="E245" s="6"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="6"/>
+      <c r="I245" s="6"/>
+      <c r="J245" s="6"/>
+      <c r="K245" s="6"/>
+      <c r="L245" s="6"/>
+    </row>
+    <row r="246" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B246" s="6"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="6"/>
+      <c r="E246" s="6"/>
+      <c r="F246" s="5"/>
+      <c r="G246" s="6"/>
+      <c r="I246" s="6"/>
+      <c r="J246" s="6"/>
+      <c r="K246" s="6"/>
+      <c r="L246" s="6"/>
+    </row>
+    <row r="247" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B247" s="6"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="6"/>
+      <c r="E247" s="6"/>
+      <c r="F247" s="5"/>
+      <c r="G247" s="6"/>
+      <c r="I247" s="6"/>
+      <c r="J247" s="6"/>
+      <c r="K247" s="6"/>
+      <c r="L247" s="6"/>
+    </row>
+    <row r="248" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B248" s="6"/>
+      <c r="C248" s="6"/>
+      <c r="D248" s="6"/>
+      <c r="E248" s="6"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="6"/>
+      <c r="I248" s="6"/>
+      <c r="J248" s="6"/>
+      <c r="K248" s="6"/>
+      <c r="L248" s="6"/>
+    </row>
+    <row r="249" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B249" s="6"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="6"/>
+      <c r="E249" s="6"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="6"/>
+      <c r="I249" s="6"/>
+      <c r="J249" s="6"/>
+      <c r="K249" s="6"/>
+      <c r="L249" s="6"/>
+    </row>
+    <row r="250" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B250" s="6"/>
+      <c r="C250" s="6"/>
+      <c r="D250" s="6"/>
+      <c r="E250" s="6"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="6"/>
+      <c r="I250" s="6"/>
+      <c r="J250" s="6"/>
+      <c r="K250" s="6"/>
+      <c r="L250" s="6"/>
+    </row>
+    <row r="251" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B251" s="6"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="6"/>
+      <c r="E251" s="6"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="6"/>
+      <c r="I251" s="6"/>
+      <c r="J251" s="6"/>
+      <c r="K251" s="6"/>
+      <c r="L251" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A72">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A76">
     <sortCondition ref="A34"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="H44" r:id="rId1" xr:uid="{E7509115-D8C2-47FC-A2AD-38E788BFC4D4}"/>
+    <hyperlink ref="H53" r:id="rId2" xr:uid="{FBE5A778-2CFF-4277-983D-C76C2BF310E6}"/>
+    <hyperlink ref="H54" r:id="rId3" xr:uid="{B70F2EB5-A4E6-4B02-A905-02D0EEC578D0}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravenue\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{197C47EB-98EC-4DEC-AC1F-95C0A83A4168}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4359C4-3ABD-CD4C-ADE1-CD25D6644598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29040" yWindow="460" windowWidth="31580" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="167">
   <si>
     <t>A</t>
   </si>
@@ -135,445 +137,401 @@
     <t>Google</t>
   </si>
   <si>
-    <t>Envié correo con información general</t>
-  </si>
-  <si>
     <t>Lamudi</t>
   </si>
   <si>
     <t>Llamada</t>
   </si>
   <si>
-    <t>2020-03-29 10:36:46</t>
-  </si>
-  <si>
-    <t>2020-03-29 10:35:32</t>
-  </si>
-  <si>
-    <t>2020-03-29 09:31:37</t>
-  </si>
-  <si>
-    <t>2020-03-29 08:04:36</t>
-  </si>
-  <si>
-    <t>2020-03-29 03:34:16</t>
-  </si>
-  <si>
-    <t>2020-03-29 00:32:51</t>
-  </si>
-  <si>
-    <t>2020-03-29 00:19:03</t>
-  </si>
-  <si>
-    <t>2020-03-28 18:42:50</t>
-  </si>
-  <si>
-    <t>2020-03-28 17:34:22</t>
-  </si>
-  <si>
-    <t>2020-03-28 13:19:39</t>
-  </si>
-  <si>
-    <t>2020-03-28 12:39:59</t>
-  </si>
-  <si>
-    <t>2020-03-28 12:28:10</t>
-  </si>
-  <si>
-    <t>2020-03-28 10:27:54</t>
-  </si>
-  <si>
-    <t>2020-03-28 06:39:50</t>
-  </si>
-  <si>
-    <t>2020-03-28 02:30:31</t>
-  </si>
-  <si>
-    <t>2020-03-27 19:11:23</t>
-  </si>
-  <si>
-    <t>2020-03-27 18:20:12</t>
-  </si>
-  <si>
-    <t>2020-03-27 13:23:12</t>
-  </si>
-  <si>
-    <t>2020-03-27 12:03:33</t>
-  </si>
-  <si>
-    <t>2020-03-27 04:10:03</t>
-  </si>
-  <si>
-    <t>2020-03-26 22:35:37</t>
-  </si>
-  <si>
-    <t>2020-03-26 19:32:10</t>
-  </si>
-  <si>
-    <t>2020-03-26 18:27:23</t>
-  </si>
-  <si>
-    <t>2020-03-26 17:55:49</t>
-  </si>
-  <si>
-    <t>2020-03-26 16:26:48</t>
-  </si>
-  <si>
-    <t>2020-03-26 15:18:25</t>
-  </si>
-  <si>
-    <t>2020-03-26 10:50:42</t>
-  </si>
-  <si>
-    <t>2020-03-26 09:10:05</t>
-  </si>
-  <si>
-    <t>2020-03-26 05:04:19</t>
-  </si>
-  <si>
-    <t>2020-03-26 00:15:10</t>
-  </si>
-  <si>
-    <t>2020-03-26 00:14:23</t>
-  </si>
-  <si>
-    <t>2020-03-25 14:25:37</t>
-  </si>
-  <si>
-    <t>2020-03-25 08:27:37</t>
-  </si>
-  <si>
-    <t>2020-03-25 00:47:13</t>
-  </si>
-  <si>
-    <t>2020-03-24 23:49:16</t>
-  </si>
-  <si>
-    <t>2020-03-24 21:07:29</t>
-  </si>
-  <si>
-    <t>2020-03-24 21:02:44</t>
-  </si>
-  <si>
-    <t>2020-03-24 20:08:28</t>
-  </si>
-  <si>
-    <t>2020-03-24 18:51:43</t>
-  </si>
-  <si>
-    <t>2020-03-24 12:13:56</t>
-  </si>
-  <si>
-    <t>2020-03-24 11:34:01</t>
-  </si>
-  <si>
-    <t>2020-03-23 14:45:37</t>
-  </si>
-  <si>
-    <t>2020-03-23 11:12:46</t>
-  </si>
-  <si>
-    <t>Daniel Allende Ramirez</t>
-  </si>
-  <si>
-    <t>Silvia Flores Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emanuel Schattner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PF </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerardo Sordo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva Alzas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dalia VG </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gina Castañeda Pimentel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alma Rosa Merlos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caro Mendivil </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo </t>
-  </si>
-  <si>
-    <t>Javier Perez de Burgos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel pelcastre crisanto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dora gutierrez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Manuel Serratos </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Susana Martínez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesar carranza </t>
-  </si>
-  <si>
-    <t>Ivana Nusset</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio Kvitko </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hillary Natacha Loaiza Solano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juanito </t>
-  </si>
-  <si>
-    <t>Alejandra Claro</t>
-  </si>
-  <si>
-    <t>Maggie Maggie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos sanchez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Sahuaya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">carlos ulises lópez sevilla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CARLOS REGALADO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian Mompala </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Pablo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melannie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Garcia soto </t>
-  </si>
-  <si>
-    <t>Cecilia García</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucy Avila </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario Arsenio Ucan Ku </t>
-  </si>
-  <si>
-    <t xml:space="preserve">fernando onofre </t>
-  </si>
-  <si>
-    <t>Elizabeth Marquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario am antara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pedro Díaz Román </t>
-  </si>
-  <si>
-    <t>Eduardo Valdes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josue Arturo Rodríguez Pérez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Durán aguilar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Israel zaga </t>
-  </si>
-  <si>
-    <t>(55) 8413-2209</t>
-  </si>
-  <si>
-    <t>0016465190141</t>
-  </si>
-  <si>
-    <t>(55) 1808-4653</t>
-  </si>
-  <si>
-    <t>allenderamirezdaniel@gmail.com</t>
-  </si>
-  <si>
-    <t>aguilasolitariafox@hotmail.com</t>
-  </si>
-  <si>
-    <t>emanuelblai@hotmail.com</t>
-  </si>
-  <si>
-    <t>htg@jju.com</t>
-  </si>
-  <si>
-    <t>gsordo005@gmail.com</t>
-  </si>
-  <si>
-    <t>daliavg@hotmail.com</t>
-  </si>
-  <si>
-    <t>melgina_21@hotmail.com</t>
-  </si>
-  <si>
-    <t>ar_merlos@hotmail.com</t>
-  </si>
-  <si>
-    <t>mendivilanacarolina@gmail.com</t>
-  </si>
-  <si>
-    <t>ricardo.gonzalez.quiroz@gmail.com</t>
-  </si>
-  <si>
-    <t>perezdeburgos7@gmail.com</t>
-  </si>
-  <si>
-    <t>dsnzogsmer@hotma.com</t>
-  </si>
-  <si>
-    <t>doraa.gutierrrz@gmail.com</t>
-  </si>
-  <si>
-    <t>jserratos@monex.com.mx</t>
-  </si>
-  <si>
-    <t>Susanamnarvaez21@gmail.com</t>
-  </si>
-  <si>
-    <t>cesarcarranza@mac.com</t>
-  </si>
-  <si>
-    <t>ivanantuaned5786@gmail.com</t>
-  </si>
-  <si>
-    <t>chemoral87@hotmail.com</t>
-  </si>
-  <si>
-    <t>hilloaiza28@gmail.com</t>
-  </si>
-  <si>
-    <t>jsksjs@xiididkd.com</t>
-  </si>
-  <si>
-    <t>alex-ortega1@hotmail.com</t>
-  </si>
-  <si>
-    <t>chefmaggie.hosteleria@gmail.com</t>
-  </si>
-  <si>
-    <t>casam@vestas.com</t>
-  </si>
-  <si>
-    <t>Csahuaya@hotmail.com</t>
-  </si>
-  <si>
-    <t>carlosevilla_9@hotmail.com</t>
-  </si>
-  <si>
-    <t>entresocios@outlook.com</t>
-  </si>
-  <si>
-    <t>importa?@hotmail.com</t>
-  </si>
-  <si>
-    <t>melannie552@hotmail.com</t>
-  </si>
-  <si>
-    <t>alexsotoscott@gmail.com</t>
-  </si>
-  <si>
-    <t>cecimaynez7@gmail.com</t>
-  </si>
-  <si>
-    <t>terra.avila20@hotmail.com</t>
-  </si>
-  <si>
-    <t>mario.ucan@itsmotul.edu.mx</t>
-  </si>
-  <si>
-    <t>bazancarlos879@gmail.com</t>
-  </si>
-  <si>
-    <t>sandra.cardenas@hitsbook.com</t>
-  </si>
-  <si>
-    <t>elimar@diesinmobiliaria.com</t>
-  </si>
-  <si>
-    <t>pedrodr22@hotmailm.com</t>
-  </si>
-  <si>
-    <t>evaldesgtz@gmail.com</t>
-  </si>
-  <si>
-    <t>josarp1@hotmail.com</t>
-  </si>
-  <si>
-    <t>juandurandolor@hotmail.com</t>
-  </si>
-  <si>
-    <t>zaga10_10@hotmail.com</t>
-  </si>
-  <si>
     <t>Envié correo con info general</t>
   </si>
   <si>
     <t>Envie correo con info general</t>
   </si>
   <si>
-    <t>Quiere información de 172 m2 nos contactó por whapp de la of y le envié información</t>
-  </si>
-  <si>
-    <t>Quiere rentar algo por 9 meses</t>
-  </si>
-  <si>
-    <t>Correo no viable</t>
-  </si>
-  <si>
-    <t>Envié whapp como lo solicitó, solo que no le llegan. Envié correo con info general y para confirmar el whapp</t>
-  </si>
-  <si>
-    <t>Envié correo con infor general</t>
-  </si>
-  <si>
-    <t>Quiere un departamento en renta para su sobrina</t>
-  </si>
-  <si>
-    <t>23 - 29 de Marzo del 2020</t>
-  </si>
-  <si>
-    <t>Llego x whast app, quiere algo de 172m</t>
-  </si>
-  <si>
-    <t>Solo deja numero de telefono, no contesta la llamada, sigo insistiendo y envié whapp</t>
-  </si>
-  <si>
-    <t>Datos falsos</t>
-  </si>
-  <si>
-    <t>Es un test</t>
-  </si>
-  <si>
-    <t>eva.ciao@gmail.com</t>
-  </si>
-  <si>
-    <t>carlos.cortes88@gmail.com</t>
-  </si>
-  <si>
-    <t>1@grupolefarma.com.mx</t>
+    <t>2020-04-05 15:00:45</t>
+  </si>
+  <si>
+    <t>2020-04-05 12:34:01</t>
+  </si>
+  <si>
+    <t>2020-04-05 09:06:46</t>
+  </si>
+  <si>
+    <t>2020-04-05 08:42:00</t>
+  </si>
+  <si>
+    <t>2020-04-04 23:55:41</t>
+  </si>
+  <si>
+    <t>2020-04-04 23:50:43</t>
+  </si>
+  <si>
+    <t>2020-04-04 23:49:31</t>
+  </si>
+  <si>
+    <t>2020-04-04 18:25:46</t>
+  </si>
+  <si>
+    <t>2020-04-04 16:48:12</t>
+  </si>
+  <si>
+    <t>2020-04-04 16:35:40</t>
+  </si>
+  <si>
+    <t>2020-04-04 11:28:35</t>
+  </si>
+  <si>
+    <t>2020-04-04 10:38:46</t>
+  </si>
+  <si>
+    <t>2020-04-04 00:00:56</t>
+  </si>
+  <si>
+    <t>2020-04-03 23:15:35</t>
+  </si>
+  <si>
+    <t>2020-04-03 21:43:50</t>
+  </si>
+  <si>
+    <t>2020-04-03 19:56:27</t>
+  </si>
+  <si>
+    <t>2020-04-03 19:03:48</t>
+  </si>
+  <si>
+    <t>2020-04-03 18:26:48</t>
+  </si>
+  <si>
+    <t>2020-04-03 18:00:46</t>
+  </si>
+  <si>
+    <t>2020-04-03 14:03:51</t>
+  </si>
+  <si>
+    <t>2020-04-03 00:59:55</t>
+  </si>
+  <si>
+    <t>2020-04-03 00:11:49</t>
+  </si>
+  <si>
+    <t>2020-04-02 19:07:05</t>
+  </si>
+  <si>
+    <t>2020-04-01 20:58:50</t>
+  </si>
+  <si>
+    <t>2020-03-31 18:24:19</t>
+  </si>
+  <si>
+    <t>2020-03-31 18:24:08</t>
+  </si>
+  <si>
+    <t>2020-03-31 18:23:54</t>
+  </si>
+  <si>
+    <t>2020-03-31 13:55:36</t>
+  </si>
+  <si>
+    <t>2020-03-31 10:54:08</t>
+  </si>
+  <si>
+    <t>2020-03-31 09:37:33</t>
+  </si>
+  <si>
+    <t>2020-03-31 02:29:51</t>
+  </si>
+  <si>
+    <t>2020-03-31 01:05:11</t>
+  </si>
+  <si>
+    <t>2020-03-30 22:46:06</t>
+  </si>
+  <si>
+    <t>2020-03-30 22:34:39</t>
+  </si>
+  <si>
+    <t>2020-03-30 21:43:55</t>
+  </si>
+  <si>
+    <t>2020-03-30 21:36:03</t>
+  </si>
+  <si>
+    <t>2020-03-30 18:06:10</t>
+  </si>
+  <si>
+    <t>2020-03-30 15:26:18</t>
+  </si>
+  <si>
+    <t>2020-03-30 12:50:14</t>
+  </si>
+  <si>
+    <t>2020-03-30 00:09:52</t>
+  </si>
+  <si>
+    <t>José Varón</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delfina Bedoya </t>
+  </si>
+  <si>
+    <t xml:space="preserve">John Viault </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angelina Araujo </t>
+  </si>
+  <si>
+    <t>Luis Castañeda</t>
+  </si>
+  <si>
+    <t>Miguel Vega</t>
+  </si>
+  <si>
+    <t>Yael Reymar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lewis L Ludwig </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kevin Alberto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">juan Mendieta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Alvarez H. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betzy Asucena Hernández Carpinteyro </t>
+  </si>
+  <si>
+    <t>Manuel Sánchez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomás Tamez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhovanny Cortez Becerra </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elaine Bracho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angel Fuentes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Ge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan Lopez Villalva </t>
+  </si>
+  <si>
+    <t>International n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebeca Cerrillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viri Sanchez </t>
+  </si>
+  <si>
+    <t>Ingrid Lozano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marisol Rodríguez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Streiia Vizarraga Thomas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur Oiuiooiu </t>
+  </si>
+  <si>
+    <t>Alejandro Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angélica Espinoza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan Manjarrez Meneses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan de Dios Ramires Zuñiga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martha Lizeth Noriega </t>
+  </si>
+  <si>
+    <t>Daniela Velazco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Mendez Rios </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz Gutierrez Vasconez </t>
+  </si>
+  <si>
+    <t>Alvaro Huerta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biba De la Luz </t>
+  </si>
+  <si>
+    <t>Jimena Carranza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arturo canchola arias </t>
+  </si>
+  <si>
+    <t>jvaron28@yahoo.com</t>
+  </si>
+  <si>
+    <t>delfinabedoya@gmail.com</t>
+  </si>
+  <si>
+    <t>jbviault@yahoo.com</t>
+  </si>
+  <si>
+    <t>araujoangelina2@gmail.com</t>
+  </si>
+  <si>
+    <t>castanedaluis418@gmail.com</t>
+  </si>
+  <si>
+    <t>vega.ink.owl@gmail.com</t>
+  </si>
+  <si>
+    <t>jorge.yael.reymar@hotmail.com</t>
+  </si>
+  <si>
+    <t>sanchezluismario240@gmail.com</t>
+  </si>
+  <si>
+    <t>kh5393525@gmail.com</t>
+  </si>
+  <si>
+    <t>cucoh@gmail.com</t>
+  </si>
+  <si>
+    <t>eduardoah0@gmail.com</t>
+  </si>
+  <si>
+    <t>carpinteyrobetzy@icloud.com</t>
+  </si>
+  <si>
+    <t>chamsanchezvazquez@gmail.com</t>
+  </si>
+  <si>
+    <t>tomas.tamez77@gmail.com</t>
+  </si>
+  <si>
+    <t>zebraventas@hotmail.com</t>
+  </si>
+  <si>
+    <t>sifrina_britney@hotmail.es</t>
+  </si>
+  <si>
+    <t>am9183746@gmail.com</t>
+  </si>
+  <si>
+    <t>carlosgonzalesespinosa9@gmail.com</t>
+  </si>
+  <si>
+    <t>jonh25_25@hotmail.com</t>
+  </si>
+  <si>
+    <t>+525614141930@phonecall.com</t>
+  </si>
+  <si>
+    <t>rebeca021104@gmail.com</t>
+  </si>
+  <si>
+    <t>caiman19@gmail.com</t>
+  </si>
+  <si>
+    <t>viris-14@hotmail.com</t>
+  </si>
+  <si>
+    <t>lozano.vib@gmail.com</t>
+  </si>
+  <si>
+    <t>marisol@challengeteambuilding.com</t>
+  </si>
+  <si>
+    <t>estrella_0076@hotmail.com</t>
+  </si>
+  <si>
+    <t>nurfs@hotmail.com</t>
+  </si>
+  <si>
+    <t>alexcolo0217@gmail.com</t>
+  </si>
+  <si>
+    <t>angelicaespinoza3105@gmail.com</t>
+  </si>
+  <si>
+    <t>oakland36thav@gmail.com</t>
+  </si>
+  <si>
+    <t>ivanrmanjarrez@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>jdrz@gmail.com</t>
+  </si>
+  <si>
+    <t>lizethnoriega@yahoo.com</t>
+  </si>
+  <si>
+    <t>laxmyvelasco@icloud.com</t>
+  </si>
+  <si>
+    <t>acabadosrmr@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>becoke-10@hotmail.com</t>
+  </si>
+  <si>
+    <t>5591972865@phonecall.com</t>
+  </si>
+  <si>
+    <t>lau@itmerida.edu.mx</t>
+  </si>
+  <si>
+    <t>5611773553@phonecall.com</t>
+  </si>
+  <si>
+    <t>cascarabiasarturo@yahoo.com</t>
+  </si>
+  <si>
+    <t>BUSCA RENTAR 6 meses</t>
+  </si>
+  <si>
+    <t>Marqué al numero pero sale buzon, envío whapp</t>
+  </si>
+  <si>
+    <t>ME COLGO EL TEL, LE MANDE INFO POR MAIL</t>
+  </si>
+  <si>
+    <t>Nos contacta por whapp 
+Busca Renta, enviaré info en cuanto salgan los de renta</t>
+  </si>
+  <si>
+    <t>Llego por Whats app le envíe correo de nápoles y Polanco lo va a revisar con su esposo</t>
+  </si>
+  <si>
+    <t>Envie opciones 404A y 502E</t>
+  </si>
+  <si>
+    <t>En espera de su correo para enviar info de ambos desarrollos</t>
+  </si>
+  <si>
+    <t>30 de Marzo - 05 de Abril del 2020</t>
   </si>
 </sst>
 </file>
@@ -583,7 +541,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -650,12 +608,6 @@
       <color rgb="FF404040"/>
       <name val="Avenir Book"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="5">
@@ -745,11 +697,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,10 +807,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -931,13 +880,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>12758</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1275,28 +1224,28 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L251"/>
+  <dimension ref="A4:L248"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="1"/>
-    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" style="1"/>
+    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="189" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="94.42578125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="14.42578125" style="1"/>
+    <col min="10" max="10" width="94.5" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" ht="15" customHeight="1">
+    <row r="4" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1307,22 +1256,22 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
-    <row r="12" spans="2:10" ht="14.25">
+    <row r="12" spans="2:10" ht="16" x14ac:dyDescent="0.25">
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="14.25">
+    <row r="13" spans="2:10" ht="16" x14ac:dyDescent="0.25">
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="2:10" ht="14.25">
+    <row r="14" spans="2:10" ht="16" x14ac:dyDescent="0.25">
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="2:10" ht="23.1" customHeight="1">
+    <row r="15" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
         <v>18</v>
       </c>
@@ -1331,23 +1280,23 @@
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="2:10" ht="23.1" customHeight="1">
+    <row r="16" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="2:9" ht="15.75">
+    <row r="17" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="F17" s="5"/>
       <c r="G17" s="12"/>
       <c r="H17" s="9"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="2:9" ht="18">
+    <row r="18" spans="2:9" ht="20" x14ac:dyDescent="0.25">
       <c r="B18" s="35" t="s">
         <v>22</v>
       </c>
@@ -1356,19 +1305,19 @@
       <c r="H18" s="9"/>
       <c r="I18" s="10"/>
     </row>
-    <row r="19" spans="2:9" ht="15.75">
+    <row r="19" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="F19" s="5"/>
       <c r="G19" s="12"/>
       <c r="H19" s="9"/>
       <c r="I19" s="10"/>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="34">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>24</v>
@@ -1380,33 +1329,33 @@
       <c r="H20" s="31"/>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
       <c r="E21" s="33" t="s">
         <v>25</v>
       </c>
       <c r="F21" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
       <c r="E22" s="33" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="34">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" spans="2:9" ht="15.75">
+    <row r="23" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
       <c r="E23" s="33" t="s">
@@ -1419,7 +1368,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="2:9" ht="15.75">
+    <row r="24" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B24" s="31"/>
       <c r="C24" s="32"/>
       <c r="E24" s="31"/>
@@ -1428,79 +1377,79 @@
       <c r="H24" s="9"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="2:9" ht="15.75">
+    <row r="25" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B25" s="33" t="s">
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="2:9" ht="15.75">
+    <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B26" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="34">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
-    <row r="27" spans="2:9" ht="15.75">
+    <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
       <c r="E27" s="33" t="s">
         <v>34</v>
       </c>
       <c r="F27" s="34">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
     </row>
-    <row r="28" spans="2:9" ht="15.75">
+    <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="31"/>
       <c r="C28" s="32"/>
       <c r="E28" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="34">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="2:9" ht="15.75">
+    <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="E29" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F29" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
       <c r="I29" s="10"/>
     </row>
-    <row r="30" spans="2:9" ht="15.75">
+    <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" s="31"/>
       <c r="E30" s="40"/>
       <c r="F30" s="41"/>
@@ -1508,7 +1457,7 @@
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
     </row>
-    <row r="31" spans="2:9" ht="18">
+    <row r="31" spans="2:9" ht="20" x14ac:dyDescent="0.25">
       <c r="B31" s="35" t="s">
         <v>30</v>
       </c>
@@ -1518,14 +1467,14 @@
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="2:9" ht="15.75">
+    <row r="32" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B32" s="11"/>
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="9"/>
       <c r="I32" s="10"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75">
+    <row r="33" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
         <v>6</v>
       </c>
@@ -1551,74 +1500,74 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="43" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G34" s="43">
-        <v>5617861683</v>
+        <v>5591972865</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="J34" s="12"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="G35" s="43">
-        <v>5536199354</v>
+        <v>5522429829</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>3</v>
@@ -1627,24 +1576,24 @@
         <v>13</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="G36" s="43">
-        <v>55444334</v>
+        <v>5512997321</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>4</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="43" t="s">
         <v>42</v>
@@ -1656,27 +1605,27 @@
         <v>13</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G37" s="43">
-        <v>5515910498</v>
+        <v>5563010817</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>3</v>
@@ -1685,27 +1634,27 @@
         <v>13</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G38" s="43">
-        <v>5591948105</v>
+        <v>7751294519</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>3</v>
@@ -1714,27 +1663,27 @@
         <v>13</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="G39" s="43">
-        <v>7861007819</v>
+        <v>3481074983</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>3</v>
@@ -1743,48 +1692,48 @@
         <v>13</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G40" s="43">
-        <v>3316968446</v>
+        <v>9999001429</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B41" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="G41" s="43">
-        <v>5573582216</v>
+        <v>7863169569</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>9</v>
       </c>
@@ -1792,269 +1741,265 @@
         <v>15</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G42" s="43">
-        <v>5549466167</v>
+        <v>6311877256</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="I42" s="43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B43" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="G43" s="43">
-        <v>9911003697</v>
+        <v>5518007689</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G44" s="43">
-        <v>5566108874</v>
-      </c>
-      <c r="H44" s="44" t="s">
-        <v>179</v>
+        <v>5521286062</v>
+      </c>
+      <c r="H44" s="43" t="s">
+        <v>130</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="G45" s="43">
-        <v>3333990660</v>
+        <v>7293668855</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G46" s="43">
-        <v>6241714466</v>
+        <v>6421942872</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B47" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="43">
-        <v>8120221172</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G47" s="43"/>
       <c r="H47" s="43" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="I47" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" customHeight="1">
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="43">
-        <v>5515027485</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G48" s="43"/>
       <c r="H48" s="43" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="I48" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1">
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B49" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G49" s="43">
-        <v>5580375992</v>
+        <v>3327991878</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="I49" s="43" t="s">
         <v>14</v>
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1">
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B50" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E50" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G50" s="43">
-        <v>4421390135</v>
+        <v>3511221107</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="I50" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1">
+    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>3</v>
@@ -2063,340 +2008,340 @@
         <v>34</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G51" s="43" t="s">
-        <v>124</v>
+        <v>111</v>
+      </c>
+      <c r="G51" s="43">
+        <v>6861235546</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="I51" s="43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B52" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="G52" s="43">
-        <v>50686420112</v>
+        <v>9511464901</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="I52" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B53" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="G53" s="43">
-        <v>5543581515</v>
-      </c>
-      <c r="H53" s="44" t="s">
-        <v>180</v>
+        <v>525585809931</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>133</v>
       </c>
       <c r="I53" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B54" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G54" s="43">
-        <v>5559890606</v>
-      </c>
-      <c r="H54" s="44" t="s">
-        <v>181</v>
+        <v>525611909600</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>135</v>
       </c>
       <c r="I54" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="G55" s="43">
-        <v>5579179631</v>
+        <v>525548076782</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="I55" s="43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B56" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="G56" s="43">
-        <v>5561666028</v>
+        <v>525565587986</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="I56" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B57" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G57" s="43">
-        <v>7348839584</v>
+        <v>525523202683</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="I57" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B58" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F58" s="43" t="s">
         <v>83</v>
       </c>
       <c r="G58" s="43">
-        <v>5581087734</v>
+        <v>5519283617</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I58" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B59" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G59" s="43">
-        <v>5545109332</v>
+        <v>5568883552</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I59" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1">
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B60" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G60" s="43">
-        <v>5526648123</v>
+        <v>527331565123</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="I60" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1">
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B61" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G61" s="43">
-        <v>5522718390</v>
+        <v>15616160919</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I61" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1">
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B62" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G62" s="43">
-        <v>56990156188</v>
+        <v>5514790136</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="I62" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1">
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B63" s="43" t="s">
         <v>16</v>
@@ -2408,114 +2353,114 @@
         <v>3</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G63" s="43">
-        <v>5538429310</v>
+        <v>52015550353486</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B64" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C64" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D64" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E64" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G64" s="43">
-        <v>5540831452</v>
+        <v>520445537972980</v>
       </c>
       <c r="H64" s="43" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I64" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1">
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D65" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G65" s="43">
-        <v>5537299592</v>
+        <v>525573118843</v>
       </c>
       <c r="H65" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I65" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1">
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B66" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D66" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="43" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G66" s="43">
-        <v>5511224476</v>
+        <v>5611773553</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="I66" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C67" s="43" t="s">
         <v>39</v>
@@ -2524,59 +2469,59 @@
         <v>3</v>
       </c>
       <c r="E67" s="43" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F67" s="43" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G67" s="43">
-        <v>5537364484</v>
+        <v>5552163309</v>
       </c>
       <c r="H67" s="43" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="I67" s="43" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C68" s="43" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D68" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E68" s="43" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="F68" s="43" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G68" s="43">
-        <v>5522412774</v>
+        <v>6863361045</v>
       </c>
       <c r="H68" s="43" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I68" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1">
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B69" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C69" s="43" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D69" s="37" t="s">
         <v>3</v>
@@ -2585,108 +2530,108 @@
         <v>17</v>
       </c>
       <c r="F69" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G69" s="43" t="s">
-        <v>123</v>
+        <v>112</v>
+      </c>
+      <c r="G69" s="43">
+        <v>5548704422</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="B70" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="43" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D70" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E70" s="43" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F70" s="43" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G70" s="43">
-        <v>5512381985</v>
+        <v>573017303895</v>
       </c>
       <c r="H70" s="43" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="I70" s="43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B71" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C71" s="43" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E71" s="43" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F71" s="43" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G71" s="43">
-        <v>5554136410</v>
+        <v>520445511921350</v>
       </c>
       <c r="H71" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="I71" s="43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>20</v>
+      </c>
+      <c r="B72" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D72" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="43">
+        <v>525614141930</v>
+      </c>
+      <c r="H72" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="I72" s="43" t="s">
         <v>160</v>
       </c>
-      <c r="I71" s="43" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1">
-      <c r="A72" s="1">
-        <v>39</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="G72" s="43">
-        <v>8444426001</v>
-      </c>
-      <c r="H72" s="43" t="s">
-        <v>162</v>
-      </c>
-      <c r="I72" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1">
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B73" s="43" t="s">
         <v>15</v>
@@ -2698,105 +2643,52 @@
         <v>5</v>
       </c>
       <c r="E73" s="43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F73" s="43" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G73" s="43">
-        <v>5527304046</v>
+        <v>4428648323</v>
       </c>
       <c r="H73" s="43" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I73" s="43" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1">
-      <c r="A74" s="1">
-        <v>41</v>
-      </c>
-      <c r="B74" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E74" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F74" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="I74" s="43" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1">
-      <c r="A75" s="1">
-        <v>42</v>
-      </c>
-      <c r="B75" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E75" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="G75" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="H75" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="I75" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1">
-      <c r="A76" s="1">
-        <v>43</v>
-      </c>
-      <c r="B76" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D76" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F76" s="43"/>
-      <c r="G76" s="43">
-        <v>626803255</v>
-      </c>
-      <c r="H76" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="I76" s="43" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="42"/>
+      <c r="F75" s="42"/>
+      <c r="G75" s="42"/>
+      <c r="H75" s="42"/>
+      <c r="I75" s="42"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="42"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="42"/>
+      <c r="G76" s="42"/>
+      <c r="H76" s="42"/>
+      <c r="I76" s="42"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="42"/>
       <c r="C77" s="42"/>
       <c r="D77" s="39"/>
@@ -2806,7 +2698,7 @@
       <c r="H77" s="42"/>
       <c r="I77" s="42"/>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="42"/>
       <c r="C78" s="42"/>
       <c r="D78" s="39"/>
@@ -2816,7 +2708,7 @@
       <c r="H78" s="42"/>
       <c r="I78" s="42"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="42"/>
       <c r="C79" s="42"/>
       <c r="D79" s="39"/>
@@ -2826,7 +2718,7 @@
       <c r="H79" s="42"/>
       <c r="I79" s="42"/>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="42"/>
       <c r="C80" s="42"/>
       <c r="D80" s="39"/>
@@ -2836,144 +2728,150 @@
       <c r="H80" s="42"/>
       <c r="I80" s="42"/>
     </row>
-    <row r="81" spans="2:12" ht="15" customHeight="1">
-      <c r="B81" s="42"/>
-      <c r="C81" s="42"/>
+    <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
       <c r="D81" s="39"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="42"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-    </row>
-    <row r="82" spans="2:12" ht="15" customHeight="1">
-      <c r="B82" s="42"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-    </row>
-    <row r="83" spans="2:12" ht="15" customHeight="1">
-      <c r="B83" s="42"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42"/>
-      <c r="G83" s="42"/>
-      <c r="H83" s="42"/>
-      <c r="I83" s="42"/>
-    </row>
-    <row r="84" spans="2:12" ht="15" customHeight="1">
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-    </row>
-    <row r="85" spans="2:12" ht="24" customHeight="1">
-      <c r="B85" s="36" t="s">
+      <c r="E81" s="38"/>
+      <c r="F81" s="38"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="38"/>
+    </row>
+    <row r="82" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="18"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="20"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="20"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="21"/>
+    </row>
+    <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="20"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="21"/>
+    </row>
+    <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="18"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="20"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="21"/>
+    </row>
+    <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="24"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="26"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="28"/>
       <c r="I85" s="12"/>
       <c r="J85" s="21"/>
     </row>
-    <row r="86" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B86" s="18"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="20"/>
+    <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" s="24"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="28"/>
       <c r="I86" s="12"/>
       <c r="J86" s="21"/>
     </row>
-    <row r="87" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B87" s="18"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="20"/>
+    <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="24"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="26"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="28"/>
       <c r="I87" s="12"/>
       <c r="J87" s="21"/>
     </row>
-    <row r="88" spans="2:12" ht="15.75" customHeight="1">
+    <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="22" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D88" s="24"/>
       <c r="E88" s="25"/>
-      <c r="F88" s="26"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="21"/>
-    </row>
-    <row r="89" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B89" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D89" s="24"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="27"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="21"/>
-    </row>
-    <row r="90" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B90" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D90" s="24"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="26"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="21"/>
-    </row>
-    <row r="91" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B91" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D91" s="24"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="30"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+    </row>
+    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+    </row>
+    <row r="90" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+    </row>
+    <row r="91" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
     </row>
-    <row r="92" spans="2:12" ht="15.75" customHeight="1">
+    <row r="92" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
@@ -2985,7 +2883,7 @@
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
     </row>
-    <row r="93" spans="2:12" ht="15.75" customHeight="1">
+    <row r="93" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
@@ -2997,8 +2895,10 @@
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
     </row>
-    <row r="94" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B94" s="6"/>
+    <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -3009,7 +2909,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
     </row>
-    <row r="95" spans="2:12" ht="15.75" customHeight="1">
+    <row r="95" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
@@ -3021,22 +2921,21 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
     </row>
-    <row r="96" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
+    <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3"/>
+      <c r="F96" s="3"/>
+      <c r="G96" s="3"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
     </row>
-    <row r="97" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B97" s="6" t="s">
-        <v>31</v>
-      </c>
+    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="6"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
@@ -3047,7 +2946,7 @@
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
     </row>
-    <row r="98" spans="2:12" ht="15.75" customHeight="1">
+    <row r="98" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
@@ -3059,20 +2958,19 @@
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
     </row>
-    <row r="99" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
+    <row r="99" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="6"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
     </row>
-    <row r="100" spans="2:12" ht="15.75" customHeight="1">
+    <row r="100" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
@@ -3084,7 +2982,7 @@
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
     </row>
-    <row r="101" spans="2:12" ht="15.75" customHeight="1">
+    <row r="101" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
@@ -3096,7 +2994,7 @@
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
     </row>
-    <row r="102" spans="2:12" ht="15.75" customHeight="1">
+    <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
@@ -3108,7 +3006,7 @@
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
     </row>
-    <row r="103" spans="2:12" ht="15.75" customHeight="1">
+    <row r="103" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
@@ -3120,7 +3018,7 @@
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
     </row>
-    <row r="104" spans="2:12" ht="15.75" customHeight="1">
+    <row r="104" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
@@ -3132,7 +3030,7 @@
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
     </row>
-    <row r="105" spans="2:12" ht="15.75" customHeight="1">
+    <row r="105" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
@@ -3144,7 +3042,7 @@
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
     </row>
-    <row r="106" spans="2:12" ht="15.75" customHeight="1">
+    <row r="106" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
@@ -3156,7 +3054,7 @@
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
     </row>
-    <row r="107" spans="2:12" ht="15.75" customHeight="1">
+    <row r="107" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -3168,7 +3066,7 @@
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
     </row>
-    <row r="108" spans="2:12" ht="15.75" customHeight="1">
+    <row r="108" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
@@ -3180,7 +3078,7 @@
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
     </row>
-    <row r="109" spans="2:12" ht="15.75" customHeight="1">
+    <row r="109" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
@@ -3192,7 +3090,7 @@
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
     </row>
-    <row r="110" spans="2:12" ht="15.75" customHeight="1">
+    <row r="110" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -3204,7 +3102,7 @@
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
     </row>
-    <row r="111" spans="2:12" ht="15.75" customHeight="1">
+    <row r="111" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -3216,7 +3114,7 @@
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
     </row>
-    <row r="112" spans="2:12" ht="15.75" customHeight="1">
+    <row r="112" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
@@ -3228,7 +3126,7 @@
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
     </row>
-    <row r="113" spans="2:12" ht="15.75" customHeight="1">
+    <row r="113" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
@@ -3240,7 +3138,7 @@
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
     </row>
-    <row r="114" spans="2:12" ht="15.75" customHeight="1">
+    <row r="114" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
@@ -3252,7 +3150,7 @@
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
     </row>
-    <row r="115" spans="2:12" ht="15.75" customHeight="1">
+    <row r="115" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
@@ -3264,7 +3162,7 @@
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
     </row>
-    <row r="116" spans="2:12" ht="15.75" customHeight="1">
+    <row r="116" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -3276,7 +3174,7 @@
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
     </row>
-    <row r="117" spans="2:12" ht="15.75" customHeight="1">
+    <row r="117" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
@@ -3288,7 +3186,7 @@
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
     </row>
-    <row r="118" spans="2:12" ht="15.75" customHeight="1">
+    <row r="118" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
@@ -3300,7 +3198,7 @@
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
     </row>
-    <row r="119" spans="2:12" ht="15.75" customHeight="1">
+    <row r="119" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
@@ -3312,7 +3210,7 @@
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
     </row>
-    <row r="120" spans="2:12" ht="15.75" customHeight="1">
+    <row r="120" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
@@ -3324,7 +3222,7 @@
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
     </row>
-    <row r="121" spans="2:12" ht="15.75" customHeight="1">
+    <row r="121" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
@@ -3336,7 +3234,7 @@
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
     </row>
-    <row r="122" spans="2:12" ht="15.75" customHeight="1">
+    <row r="122" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
@@ -3348,7 +3246,7 @@
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
     </row>
-    <row r="123" spans="2:12" ht="15.75" customHeight="1">
+    <row r="123" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
@@ -3360,7 +3258,7 @@
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
     </row>
-    <row r="124" spans="2:12" ht="15.75" customHeight="1">
+    <row r="124" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
@@ -3372,7 +3270,7 @@
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
     </row>
-    <row r="125" spans="2:12" ht="15.75" customHeight="1">
+    <row r="125" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3384,7 +3282,7 @@
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
     </row>
-    <row r="126" spans="2:12" ht="15.75" customHeight="1">
+    <row r="126" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
@@ -3396,7 +3294,7 @@
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
     </row>
-    <row r="127" spans="2:12" ht="15.75" customHeight="1">
+    <row r="127" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
@@ -3408,7 +3306,7 @@
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
     </row>
-    <row r="128" spans="2:12" ht="15.75" customHeight="1">
+    <row r="128" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
@@ -3420,7 +3318,7 @@
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
     </row>
-    <row r="129" spans="2:12" ht="15.75" customHeight="1">
+    <row r="129" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
@@ -3432,7 +3330,7 @@
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
     </row>
-    <row r="130" spans="2:12" ht="15.75" customHeight="1">
+    <row r="130" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
@@ -3444,7 +3342,7 @@
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
     </row>
-    <row r="131" spans="2:12" ht="15.75" customHeight="1">
+    <row r="131" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
@@ -3456,7 +3354,7 @@
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
     </row>
-    <row r="132" spans="2:12" ht="15.75" customHeight="1">
+    <row r="132" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
@@ -3468,7 +3366,7 @@
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
     </row>
-    <row r="133" spans="2:12" ht="15.75" customHeight="1">
+    <row r="133" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
@@ -3480,7 +3378,7 @@
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
     </row>
-    <row r="134" spans="2:12" ht="15.75" customHeight="1">
+    <row r="134" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3492,7 +3390,7 @@
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
     </row>
-    <row r="135" spans="2:12" ht="15.75" customHeight="1">
+    <row r="135" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
@@ -3504,7 +3402,7 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
     </row>
-    <row r="136" spans="2:12" ht="15.75" customHeight="1">
+    <row r="136" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
@@ -3516,7 +3414,7 @@
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
     </row>
-    <row r="137" spans="2:12" ht="15.75" customHeight="1">
+    <row r="137" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
@@ -3528,7 +3426,7 @@
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
     </row>
-    <row r="138" spans="2:12" ht="15.75" customHeight="1">
+    <row r="138" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
@@ -3540,7 +3438,7 @@
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
     </row>
-    <row r="139" spans="2:12" ht="15.75" customHeight="1">
+    <row r="139" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3552,7 +3450,7 @@
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
     </row>
-    <row r="140" spans="2:12" ht="15.75" customHeight="1">
+    <row r="140" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
@@ -3564,7 +3462,7 @@
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
     </row>
-    <row r="141" spans="2:12" ht="15.75" customHeight="1">
+    <row r="141" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
@@ -3576,7 +3474,7 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
     </row>
-    <row r="142" spans="2:12" ht="15.75" customHeight="1">
+    <row r="142" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
@@ -3588,7 +3486,7 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
     </row>
-    <row r="143" spans="2:12" ht="15.75" customHeight="1">
+    <row r="143" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3600,7 +3498,7 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
     </row>
-    <row r="144" spans="2:12" ht="15.75" customHeight="1">
+    <row r="144" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
@@ -3612,7 +3510,7 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
     </row>
-    <row r="145" spans="2:12" ht="15.75" customHeight="1">
+    <row r="145" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
@@ -3624,7 +3522,7 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
     </row>
-    <row r="146" spans="2:12" ht="15.75" customHeight="1">
+    <row r="146" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
@@ -3636,7 +3534,7 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
     </row>
-    <row r="147" spans="2:12" ht="15.75" customHeight="1">
+    <row r="147" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
@@ -3648,7 +3546,7 @@
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
     </row>
-    <row r="148" spans="2:12" ht="15.75" customHeight="1">
+    <row r="148" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
@@ -3660,7 +3558,7 @@
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
     </row>
-    <row r="149" spans="2:12" ht="15.75" customHeight="1">
+    <row r="149" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
@@ -3672,7 +3570,7 @@
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
     </row>
-    <row r="150" spans="2:12" ht="15.75" customHeight="1">
+    <row r="150" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
@@ -3684,7 +3582,7 @@
       <c r="K150" s="6"/>
       <c r="L150" s="6"/>
     </row>
-    <row r="151" spans="2:12" ht="15.75" customHeight="1">
+    <row r="151" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -3696,7 +3594,7 @@
       <c r="K151" s="6"/>
       <c r="L151" s="6"/>
     </row>
-    <row r="152" spans="2:12" ht="15.75" customHeight="1">
+    <row r="152" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
@@ -3708,7 +3606,7 @@
       <c r="K152" s="6"/>
       <c r="L152" s="6"/>
     </row>
-    <row r="153" spans="2:12" ht="15.75" customHeight="1">
+    <row r="153" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
@@ -3720,7 +3618,7 @@
       <c r="K153" s="6"/>
       <c r="L153" s="6"/>
     </row>
-    <row r="154" spans="2:12" ht="15.75" customHeight="1">
+    <row r="154" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
@@ -3732,7 +3630,7 @@
       <c r="K154" s="6"/>
       <c r="L154" s="6"/>
     </row>
-    <row r="155" spans="2:12" ht="15.75" customHeight="1">
+    <row r="155" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
@@ -3744,7 +3642,7 @@
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
     </row>
-    <row r="156" spans="2:12" ht="15.75" customHeight="1">
+    <row r="156" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
@@ -3756,7 +3654,7 @@
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
     </row>
-    <row r="157" spans="2:12" ht="15.75" customHeight="1">
+    <row r="157" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
@@ -3768,7 +3666,7 @@
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
     </row>
-    <row r="158" spans="2:12" ht="15.75" customHeight="1">
+    <row r="158" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
@@ -3780,7 +3678,7 @@
       <c r="K158" s="6"/>
       <c r="L158" s="6"/>
     </row>
-    <row r="159" spans="2:12" ht="15.75" customHeight="1">
+    <row r="159" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
@@ -3792,7 +3690,7 @@
       <c r="K159" s="6"/>
       <c r="L159" s="6"/>
     </row>
-    <row r="160" spans="2:12" ht="15.75" customHeight="1">
+    <row r="160" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
@@ -3804,7 +3702,7 @@
       <c r="K160" s="6"/>
       <c r="L160" s="6"/>
     </row>
-    <row r="161" spans="2:12" ht="15.75" customHeight="1">
+    <row r="161" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
@@ -3816,7 +3714,7 @@
       <c r="K161" s="6"/>
       <c r="L161" s="6"/>
     </row>
-    <row r="162" spans="2:12" ht="15.75" customHeight="1">
+    <row r="162" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -3828,7 +3726,7 @@
       <c r="K162" s="6"/>
       <c r="L162" s="6"/>
     </row>
-    <row r="163" spans="2:12" ht="15.75" customHeight="1">
+    <row r="163" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
@@ -3840,7 +3738,7 @@
       <c r="K163" s="6"/>
       <c r="L163" s="6"/>
     </row>
-    <row r="164" spans="2:12" ht="15.75" customHeight="1">
+    <row r="164" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
@@ -3852,7 +3750,7 @@
       <c r="K164" s="6"/>
       <c r="L164" s="6"/>
     </row>
-    <row r="165" spans="2:12" ht="15.75" customHeight="1">
+    <row r="165" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
@@ -3864,7 +3762,7 @@
       <c r="K165" s="6"/>
       <c r="L165" s="6"/>
     </row>
-    <row r="166" spans="2:12" ht="15.75" customHeight="1">
+    <row r="166" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
@@ -3876,7 +3774,7 @@
       <c r="K166" s="6"/>
       <c r="L166" s="6"/>
     </row>
-    <row r="167" spans="2:12" ht="15.75" customHeight="1">
+    <row r="167" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
@@ -3888,7 +3786,7 @@
       <c r="K167" s="6"/>
       <c r="L167" s="6"/>
     </row>
-    <row r="168" spans="2:12" ht="15.75" customHeight="1">
+    <row r="168" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
@@ -3900,7 +3798,7 @@
       <c r="K168" s="6"/>
       <c r="L168" s="6"/>
     </row>
-    <row r="169" spans="2:12" ht="15.75" customHeight="1">
+    <row r="169" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
@@ -3912,7 +3810,7 @@
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
     </row>
-    <row r="170" spans="2:12" ht="15.75" customHeight="1">
+    <row r="170" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
@@ -3924,7 +3822,7 @@
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
     </row>
-    <row r="171" spans="2:12" ht="15.75" customHeight="1">
+    <row r="171" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
@@ -3936,7 +3834,7 @@
       <c r="K171" s="6"/>
       <c r="L171" s="6"/>
     </row>
-    <row r="172" spans="2:12" ht="15.75" customHeight="1">
+    <row r="172" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
@@ -3948,7 +3846,7 @@
       <c r="K172" s="6"/>
       <c r="L172" s="6"/>
     </row>
-    <row r="173" spans="2:12" ht="15.75" customHeight="1">
+    <row r="173" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
@@ -3960,7 +3858,7 @@
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
     </row>
-    <row r="174" spans="2:12" ht="15.75" customHeight="1">
+    <row r="174" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -3972,7 +3870,7 @@
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
     </row>
-    <row r="175" spans="2:12" ht="15.75" customHeight="1">
+    <row r="175" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
@@ -3984,7 +3882,7 @@
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
     </row>
-    <row r="176" spans="2:12" ht="15.75" customHeight="1">
+    <row r="176" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
@@ -3996,7 +3894,7 @@
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
     </row>
-    <row r="177" spans="2:12" ht="15.75" customHeight="1">
+    <row r="177" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
@@ -4008,7 +3906,7 @@
       <c r="K177" s="6"/>
       <c r="L177" s="6"/>
     </row>
-    <row r="178" spans="2:12" ht="15.75" customHeight="1">
+    <row r="178" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
@@ -4020,7 +3918,7 @@
       <c r="K178" s="6"/>
       <c r="L178" s="6"/>
     </row>
-    <row r="179" spans="2:12" ht="15.75" customHeight="1">
+    <row r="179" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
@@ -4032,7 +3930,7 @@
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
     </row>
-    <row r="180" spans="2:12" ht="15.75" customHeight="1">
+    <row r="180" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
@@ -4044,7 +3942,7 @@
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
     </row>
-    <row r="181" spans="2:12" ht="15.75" customHeight="1">
+    <row r="181" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
@@ -4056,7 +3954,7 @@
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
     </row>
-    <row r="182" spans="2:12" ht="15.75" customHeight="1">
+    <row r="182" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
@@ -4068,7 +3966,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
     </row>
-    <row r="183" spans="2:12" ht="15.75" customHeight="1">
+    <row r="183" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
@@ -4080,7 +3978,7 @@
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
     </row>
-    <row r="184" spans="2:12" ht="15.75" customHeight="1">
+    <row r="184" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
@@ -4092,7 +3990,7 @@
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
     </row>
-    <row r="185" spans="2:12" ht="15.75" customHeight="1">
+    <row r="185" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
@@ -4104,7 +4002,7 @@
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
     </row>
-    <row r="186" spans="2:12" ht="15.75" customHeight="1">
+    <row r="186" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -4116,7 +4014,7 @@
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
     </row>
-    <row r="187" spans="2:12" ht="15.75" customHeight="1">
+    <row r="187" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
@@ -4128,7 +4026,7 @@
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
     </row>
-    <row r="188" spans="2:12" ht="15.75" customHeight="1">
+    <row r="188" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
@@ -4140,7 +4038,7 @@
       <c r="K188" s="6"/>
       <c r="L188" s="6"/>
     </row>
-    <row r="189" spans="2:12" ht="15.75" customHeight="1">
+    <row r="189" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
@@ -4152,7 +4050,7 @@
       <c r="K189" s="6"/>
       <c r="L189" s="6"/>
     </row>
-    <row r="190" spans="2:12" ht="15.75" customHeight="1">
+    <row r="190" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
@@ -4164,7 +4062,7 @@
       <c r="K190" s="6"/>
       <c r="L190" s="6"/>
     </row>
-    <row r="191" spans="2:12" ht="15.75" customHeight="1">
+    <row r="191" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
@@ -4176,7 +4074,7 @@
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
     </row>
-    <row r="192" spans="2:12" ht="15.75" customHeight="1">
+    <row r="192" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
@@ -4188,7 +4086,7 @@
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
     </row>
-    <row r="193" spans="2:12" ht="15.75" customHeight="1">
+    <row r="193" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
@@ -4200,7 +4098,7 @@
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
     </row>
-    <row r="194" spans="2:12" ht="15.75" customHeight="1">
+    <row r="194" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
@@ -4212,7 +4110,7 @@
       <c r="K194" s="6"/>
       <c r="L194" s="6"/>
     </row>
-    <row r="195" spans="2:12" ht="15.75" customHeight="1">
+    <row r="195" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
@@ -4224,7 +4122,7 @@
       <c r="K195" s="6"/>
       <c r="L195" s="6"/>
     </row>
-    <row r="196" spans="2:12" ht="15.75" customHeight="1">
+    <row r="196" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
@@ -4236,7 +4134,7 @@
       <c r="K196" s="6"/>
       <c r="L196" s="6"/>
     </row>
-    <row r="197" spans="2:12" ht="15.75" customHeight="1">
+    <row r="197" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
@@ -4248,7 +4146,7 @@
       <c r="K197" s="6"/>
       <c r="L197" s="6"/>
     </row>
-    <row r="198" spans="2:12" ht="15.75" customHeight="1">
+    <row r="198" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
@@ -4260,7 +4158,7 @@
       <c r="K198" s="6"/>
       <c r="L198" s="6"/>
     </row>
-    <row r="199" spans="2:12" ht="15.75" customHeight="1">
+    <row r="199" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
@@ -4272,7 +4170,7 @@
       <c r="K199" s="6"/>
       <c r="L199" s="6"/>
     </row>
-    <row r="200" spans="2:12" ht="15.75" customHeight="1">
+    <row r="200" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
@@ -4284,7 +4182,7 @@
       <c r="K200" s="6"/>
       <c r="L200" s="6"/>
     </row>
-    <row r="201" spans="2:12" ht="15.75" customHeight="1">
+    <row r="201" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
       <c r="D201" s="6"/>
@@ -4296,7 +4194,7 @@
       <c r="K201" s="6"/>
       <c r="L201" s="6"/>
     </row>
-    <row r="202" spans="2:12" ht="15.75" customHeight="1">
+    <row r="202" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -4308,7 +4206,7 @@
       <c r="K202" s="6"/>
       <c r="L202" s="6"/>
     </row>
-    <row r="203" spans="2:12" ht="15.75" customHeight="1">
+    <row r="203" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
       <c r="D203" s="6"/>
@@ -4320,7 +4218,7 @@
       <c r="K203" s="6"/>
       <c r="L203" s="6"/>
     </row>
-    <row r="204" spans="2:12" ht="15.75" customHeight="1">
+    <row r="204" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
       <c r="D204" s="6"/>
@@ -4332,7 +4230,7 @@
       <c r="K204" s="6"/>
       <c r="L204" s="6"/>
     </row>
-    <row r="205" spans="2:12" ht="15.75" customHeight="1">
+    <row r="205" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
       <c r="D205" s="6"/>
@@ -4344,7 +4242,7 @@
       <c r="K205" s="6"/>
       <c r="L205" s="6"/>
     </row>
-    <row r="206" spans="2:12" ht="15.75" customHeight="1">
+    <row r="206" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
       <c r="D206" s="6"/>
@@ -4356,7 +4254,7 @@
       <c r="K206" s="6"/>
       <c r="L206" s="6"/>
     </row>
-    <row r="207" spans="2:12" ht="15.75" customHeight="1">
+    <row r="207" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
       <c r="D207" s="6"/>
@@ -4368,7 +4266,7 @@
       <c r="K207" s="6"/>
       <c r="L207" s="6"/>
     </row>
-    <row r="208" spans="2:12" ht="15.75" customHeight="1">
+    <row r="208" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
@@ -4380,7 +4278,7 @@
       <c r="K208" s="6"/>
       <c r="L208" s="6"/>
     </row>
-    <row r="209" spans="2:12" ht="15.75" customHeight="1">
+    <row r="209" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
       <c r="D209" s="6"/>
@@ -4392,7 +4290,7 @@
       <c r="K209" s="6"/>
       <c r="L209" s="6"/>
     </row>
-    <row r="210" spans="2:12" ht="15.75" customHeight="1">
+    <row r="210" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
       <c r="D210" s="6"/>
@@ -4404,7 +4302,7 @@
       <c r="K210" s="6"/>
       <c r="L210" s="6"/>
     </row>
-    <row r="211" spans="2:12" ht="15.75" customHeight="1">
+    <row r="211" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
       <c r="D211" s="6"/>
@@ -4416,7 +4314,7 @@
       <c r="K211" s="6"/>
       <c r="L211" s="6"/>
     </row>
-    <row r="212" spans="2:12" ht="15.75" customHeight="1">
+    <row r="212" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
       <c r="D212" s="6"/>
@@ -4428,7 +4326,7 @@
       <c r="K212" s="6"/>
       <c r="L212" s="6"/>
     </row>
-    <row r="213" spans="2:12" ht="15.75" customHeight="1">
+    <row r="213" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
       <c r="D213" s="6"/>
@@ -4440,7 +4338,7 @@
       <c r="K213" s="6"/>
       <c r="L213" s="6"/>
     </row>
-    <row r="214" spans="2:12" ht="15.75" customHeight="1">
+    <row r="214" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
       <c r="D214" s="6"/>
@@ -4452,7 +4350,7 @@
       <c r="K214" s="6"/>
       <c r="L214" s="6"/>
     </row>
-    <row r="215" spans="2:12" ht="15.75" customHeight="1">
+    <row r="215" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
       <c r="D215" s="6"/>
@@ -4464,7 +4362,7 @@
       <c r="K215" s="6"/>
       <c r="L215" s="6"/>
     </row>
-    <row r="216" spans="2:12" ht="15.75" customHeight="1">
+    <row r="216" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
       <c r="D216" s="6"/>
@@ -4476,7 +4374,7 @@
       <c r="K216" s="6"/>
       <c r="L216" s="6"/>
     </row>
-    <row r="217" spans="2:12" ht="15.75" customHeight="1">
+    <row r="217" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
       <c r="D217" s="6"/>
@@ -4488,7 +4386,7 @@
       <c r="K217" s="6"/>
       <c r="L217" s="6"/>
     </row>
-    <row r="218" spans="2:12" ht="15.75" customHeight="1">
+    <row r="218" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
       <c r="D218" s="6"/>
@@ -4500,7 +4398,7 @@
       <c r="K218" s="6"/>
       <c r="L218" s="6"/>
     </row>
-    <row r="219" spans="2:12" ht="15.75" customHeight="1">
+    <row r="219" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
       <c r="D219" s="6"/>
@@ -4512,7 +4410,7 @@
       <c r="K219" s="6"/>
       <c r="L219" s="6"/>
     </row>
-    <row r="220" spans="2:12" ht="15.75" customHeight="1">
+    <row r="220" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
       <c r="D220" s="6"/>
@@ -4524,7 +4422,7 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
     </row>
-    <row r="221" spans="2:12" ht="15.75" customHeight="1">
+    <row r="221" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
       <c r="D221" s="6"/>
@@ -4536,7 +4434,7 @@
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
     </row>
-    <row r="222" spans="2:12" ht="15.75" customHeight="1">
+    <row r="222" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
       <c r="D222" s="6"/>
@@ -4548,7 +4446,7 @@
       <c r="K222" s="6"/>
       <c r="L222" s="6"/>
     </row>
-    <row r="223" spans="2:12" ht="15.75" customHeight="1">
+    <row r="223" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
       <c r="D223" s="6"/>
@@ -4560,7 +4458,7 @@
       <c r="K223" s="6"/>
       <c r="L223" s="6"/>
     </row>
-    <row r="224" spans="2:12" ht="15.75" customHeight="1">
+    <row r="224" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
       <c r="D224" s="6"/>
@@ -4572,7 +4470,7 @@
       <c r="K224" s="6"/>
       <c r="L224" s="6"/>
     </row>
-    <row r="225" spans="2:12" ht="15.75" customHeight="1">
+    <row r="225" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
       <c r="D225" s="6"/>
@@ -4584,7 +4482,7 @@
       <c r="K225" s="6"/>
       <c r="L225" s="6"/>
     </row>
-    <row r="226" spans="2:12" ht="15.75" customHeight="1">
+    <row r="226" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
       <c r="D226" s="6"/>
@@ -4596,7 +4494,7 @@
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
     </row>
-    <row r="227" spans="2:12" ht="15.75" customHeight="1">
+    <row r="227" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
       <c r="D227" s="6"/>
@@ -4608,7 +4506,7 @@
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
     </row>
-    <row r="228" spans="2:12" ht="15.75" customHeight="1">
+    <row r="228" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
       <c r="D228" s="6"/>
@@ -4620,7 +4518,7 @@
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
     </row>
-    <row r="229" spans="2:12" ht="15.75" customHeight="1">
+    <row r="229" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
       <c r="D229" s="6"/>
@@ -4632,7 +4530,7 @@
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
     </row>
-    <row r="230" spans="2:12" ht="15.75" customHeight="1">
+    <row r="230" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
       <c r="D230" s="6"/>
@@ -4644,7 +4542,7 @@
       <c r="K230" s="6"/>
       <c r="L230" s="6"/>
     </row>
-    <row r="231" spans="2:12" ht="15.75" customHeight="1">
+    <row r="231" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
       <c r="D231" s="6"/>
@@ -4656,7 +4554,7 @@
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
     </row>
-    <row r="232" spans="2:12" ht="15.75" customHeight="1">
+    <row r="232" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
       <c r="D232" s="6"/>
@@ -4668,7 +4566,7 @@
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
     </row>
-    <row r="233" spans="2:12" ht="15.75" customHeight="1">
+    <row r="233" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
       <c r="D233" s="6"/>
@@ -4680,7 +4578,7 @@
       <c r="K233" s="6"/>
       <c r="L233" s="6"/>
     </row>
-    <row r="234" spans="2:12" ht="15.75" customHeight="1">
+    <row r="234" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
       <c r="D234" s="6"/>
@@ -4692,7 +4590,7 @@
       <c r="K234" s="6"/>
       <c r="L234" s="6"/>
     </row>
-    <row r="235" spans="2:12" ht="15.75" customHeight="1">
+    <row r="235" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
       <c r="D235" s="6"/>
@@ -4704,7 +4602,7 @@
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
     </row>
-    <row r="236" spans="2:12" ht="15.75" customHeight="1">
+    <row r="236" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
       <c r="D236" s="6"/>
@@ -4716,7 +4614,7 @@
       <c r="K236" s="6"/>
       <c r="L236" s="6"/>
     </row>
-    <row r="237" spans="2:12" ht="15.75" customHeight="1">
+    <row r="237" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
       <c r="D237" s="6"/>
@@ -4728,7 +4626,7 @@
       <c r="K237" s="6"/>
       <c r="L237" s="6"/>
     </row>
-    <row r="238" spans="2:12" ht="15.75" customHeight="1">
+    <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -4740,7 +4638,7 @@
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
     </row>
-    <row r="239" spans="2:12" ht="15.75" customHeight="1">
+    <row r="239" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -4752,7 +4650,7 @@
       <c r="K239" s="6"/>
       <c r="L239" s="6"/>
     </row>
-    <row r="240" spans="2:12" ht="15.75" customHeight="1">
+    <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
       <c r="D240" s="6"/>
@@ -4764,7 +4662,7 @@
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
     </row>
-    <row r="241" spans="2:12" ht="15.75" customHeight="1">
+    <row r="241" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
       <c r="D241" s="6"/>
@@ -4776,7 +4674,7 @@
       <c r="K241" s="6"/>
       <c r="L241" s="6"/>
     </row>
-    <row r="242" spans="2:12" ht="15.75" customHeight="1">
+    <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
       <c r="D242" s="6"/>
@@ -4788,7 +4686,7 @@
       <c r="K242" s="6"/>
       <c r="L242" s="6"/>
     </row>
-    <row r="243" spans="2:12" ht="15.75" customHeight="1">
+    <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
       <c r="D243" s="6"/>
@@ -4800,7 +4698,7 @@
       <c r="K243" s="6"/>
       <c r="L243" s="6"/>
     </row>
-    <row r="244" spans="2:12" ht="15.75" customHeight="1">
+    <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
       <c r="D244" s="6"/>
@@ -4812,7 +4710,7 @@
       <c r="K244" s="6"/>
       <c r="L244" s="6"/>
     </row>
-    <row r="245" spans="2:12" ht="15.75" customHeight="1">
+    <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
       <c r="D245" s="6"/>
@@ -4824,7 +4722,7 @@
       <c r="K245" s="6"/>
       <c r="L245" s="6"/>
     </row>
-    <row r="246" spans="2:12" ht="15.75" customHeight="1">
+    <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
@@ -4836,7 +4734,7 @@
       <c r="K246" s="6"/>
       <c r="L246" s="6"/>
     </row>
-    <row r="247" spans="2:12" ht="15.75" customHeight="1">
+    <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
       <c r="D247" s="6"/>
@@ -4848,7 +4746,7 @@
       <c r="K247" s="6"/>
       <c r="L247" s="6"/>
     </row>
-    <row r="248" spans="2:12" ht="15.75" customHeight="1">
+    <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
       <c r="D248" s="6"/>
@@ -4860,54 +4758,13 @@
       <c r="K248" s="6"/>
       <c r="L248" s="6"/>
     </row>
-    <row r="249" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
-      <c r="D249" s="6"/>
-      <c r="E249" s="6"/>
-      <c r="F249" s="5"/>
-      <c r="G249" s="6"/>
-      <c r="I249" s="6"/>
-      <c r="J249" s="6"/>
-      <c r="K249" s="6"/>
-      <c r="L249" s="6"/>
-    </row>
-    <row r="250" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
-      <c r="D250" s="6"/>
-      <c r="E250" s="6"/>
-      <c r="F250" s="5"/>
-      <c r="G250" s="6"/>
-      <c r="I250" s="6"/>
-      <c r="J250" s="6"/>
-      <c r="K250" s="6"/>
-      <c r="L250" s="6"/>
-    </row>
-    <row r="251" spans="2:12" ht="15.75" customHeight="1">
-      <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
-      <c r="D251" s="6"/>
-      <c r="E251" s="6"/>
-      <c r="F251" s="5"/>
-      <c r="G251" s="6"/>
-      <c r="I251" s="6"/>
-      <c r="J251" s="6"/>
-      <c r="K251" s="6"/>
-      <c r="L251" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A76">
-    <sortCondition ref="A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I73">
+    <sortCondition ref="D34"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="H44" r:id="rId1" xr:uid="{E7509115-D8C2-47FC-A2AD-38E788BFC4D4}"/>
-    <hyperlink ref="H53" r:id="rId2" xr:uid="{FBE5A778-2CFF-4277-983D-C76C2BF310E6}"/>
-    <hyperlink ref="H54" r:id="rId3" xr:uid="{B70F2EB5-A4E6-4B02-A905-02D0EEC578D0}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC4359C4-3ABD-CD4C-ADE1-CD25D6644598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF1FD717-79C6-B347-ADEB-3AD0F1049F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="460" windowWidth="31580" windowHeight="18300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30720" yWindow="620" windowWidth="30860" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
   <si>
     <t>A</t>
   </si>
@@ -446,9 +446,6 @@
     <t>jonh25_25@hotmail.com</t>
   </si>
   <si>
-    <t>+525614141930@phonecall.com</t>
-  </si>
-  <si>
     <t>rebeca021104@gmail.com</t>
   </si>
   <si>
@@ -509,13 +506,7 @@
     <t>cascarabiasarturo@yahoo.com</t>
   </si>
   <si>
-    <t>BUSCA RENTAR 6 meses</t>
-  </si>
-  <si>
     <t>Marqué al numero pero sale buzon, envío whapp</t>
-  </si>
-  <si>
-    <t>ME COLGO EL TEL, LE MANDE INFO POR MAIL</t>
   </si>
   <si>
     <t>Nos contacta por whapp 
@@ -532,6 +523,18 @@
   </si>
   <si>
     <t>30 de Marzo - 05 de Abril del 2020</t>
+  </si>
+  <si>
+    <t>Busca rentar 6 meses</t>
+  </si>
+  <si>
+    <t>Colgó la llamada, envié mail con Información</t>
+  </si>
+  <si>
+    <t>525614141930@phonecall.com</t>
+  </si>
+  <si>
+    <t>*573017303895</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -607,6 +610,13 @@
       <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -697,10 +707,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -807,8 +818,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1227,7 +1240,7 @@
   <dimension ref="A4:L248"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="A34" sqref="A34:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1282,7 +1295,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1336,7 +1349,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
@@ -1349,7 +1362,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="34">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1502,7 +1515,7 @@
     </row>
     <row r="34" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="B34" s="43" t="s">
         <v>15</v>
@@ -1511,7 +1524,7 @@
         <v>75</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="43" t="s">
         <v>17</v>
@@ -1523,16 +1536,16 @@
         <v>5591972865</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B35" s="43" t="s">
         <v>15</v>
@@ -1553,7 +1566,7 @@
         <v>5522429829</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I35" s="43" t="s">
         <v>38</v>
@@ -1561,7 +1574,7 @@
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="B36" s="43" t="s">
         <v>15</v>
@@ -1582,7 +1595,7 @@
         <v>5512997321</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I36" s="43" t="s">
         <v>37</v>
@@ -1619,7 +1632,7 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B38" s="43" t="s">
         <v>16</v>
@@ -1648,7 +1661,7 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="B39" s="43" t="s">
         <v>16</v>
@@ -1669,7 +1682,7 @@
         <v>3481074983</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I39" s="43" t="s">
         <v>14</v>
@@ -1677,7 +1690,7 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B40" s="43" t="s">
         <v>16</v>
@@ -1698,7 +1711,7 @@
         <v>9999001429</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I40" s="43" t="s">
         <v>14</v>
@@ -1706,7 +1719,7 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B41" s="43" t="s">
         <v>15</v>
@@ -1764,7 +1777,7 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" s="43" t="s">
         <v>15</v>
@@ -1793,7 +1806,7 @@
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B44" s="43" t="s">
         <v>15</v>
@@ -1822,7 +1835,7 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B45" s="43" t="s">
         <v>15</v>
@@ -1843,7 +1856,7 @@
         <v>7293668855</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I45" s="43" t="s">
         <v>37</v>
@@ -1851,7 +1864,7 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B46" s="43" t="s">
         <v>15</v>
@@ -1872,7 +1885,7 @@
         <v>6421942872</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I46" s="43" t="s">
         <v>38</v>
@@ -1880,7 +1893,7 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B47" s="43" t="s">
         <v>16</v>
@@ -1907,7 +1920,7 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B48" s="43" t="s">
         <v>16</v>
@@ -1934,7 +1947,7 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B49" s="43" t="s">
         <v>16</v>
@@ -1964,7 +1977,7 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B50" s="43" t="s">
         <v>16</v>
@@ -1985,7 +1998,7 @@
         <v>3511221107</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I50" s="43" t="s">
         <v>14</v>
@@ -1993,7 +2006,7 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B51" s="43" t="s">
         <v>16</v>
@@ -2014,7 +2027,7 @@
         <v>6861235546</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I51" s="43" t="s">
         <v>14</v>
@@ -2022,7 +2035,7 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B52" s="43" t="s">
         <v>15</v>
@@ -2051,7 +2064,7 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B53" s="43" t="s">
         <v>15</v>
@@ -2069,7 +2082,7 @@
         <v>93</v>
       </c>
       <c r="G53" s="43">
-        <v>525585809931</v>
+        <v>5585809931</v>
       </c>
       <c r="H53" s="43" t="s">
         <v>133</v>
@@ -2080,7 +2093,7 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B54" s="43" t="s">
         <v>15</v>
@@ -2098,7 +2111,7 @@
         <v>95</v>
       </c>
       <c r="G54" s="43">
-        <v>525611909600</v>
+        <v>5611909600</v>
       </c>
       <c r="H54" s="43" t="s">
         <v>135</v>
@@ -2109,7 +2122,7 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B55" s="43" t="s">
         <v>15</v>
@@ -2127,10 +2140,10 @@
         <v>99</v>
       </c>
       <c r="G55" s="43">
-        <v>525548076782</v>
+        <v>5548076782</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I55" s="43" t="s">
         <v>37</v>
@@ -2138,7 +2151,7 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B56" s="43" t="s">
         <v>15</v>
@@ -2156,10 +2169,10 @@
         <v>100</v>
       </c>
       <c r="G56" s="43">
-        <v>525565587986</v>
+        <v>5565587986</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I56" s="43" t="s">
         <v>37</v>
@@ -2167,7 +2180,7 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B57" s="43" t="s">
         <v>15</v>
@@ -2185,10 +2198,10 @@
         <v>104</v>
       </c>
       <c r="G57" s="43">
-        <v>525523202683</v>
+        <v>5523202683</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I57" s="43" t="s">
         <v>37</v>
@@ -2196,7 +2209,7 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B58" s="43" t="s">
         <v>16</v>
@@ -2225,7 +2238,7 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B59" s="43" t="s">
         <v>16</v>
@@ -2254,7 +2267,7 @@
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B60" s="43" t="s">
         <v>16</v>
@@ -2272,7 +2285,7 @@
         <v>86</v>
       </c>
       <c r="G60" s="43">
-        <v>527331565123</v>
+        <v>7331565123</v>
       </c>
       <c r="H60" s="43" t="s">
         <v>126</v>
@@ -2283,7 +2296,7 @@
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B61" s="43" t="s">
         <v>16</v>
@@ -2312,7 +2325,7 @@
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B62" s="43" t="s">
         <v>16</v>
@@ -2333,7 +2346,7 @@
         <v>5514790136</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I62" s="43" t="s">
         <v>14</v>
@@ -2341,7 +2354,7 @@
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B63" s="43" t="s">
         <v>16</v>
@@ -2359,10 +2372,10 @@
         <v>103</v>
       </c>
       <c r="G63" s="43">
-        <v>52015550353486</v>
+        <v>15550353486</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I63" s="43" t="s">
         <v>14</v>
@@ -2370,7 +2383,7 @@
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B64" s="43" t="s">
         <v>16</v>
@@ -2388,10 +2401,10 @@
         <v>105</v>
       </c>
       <c r="G64" s="43">
-        <v>520445537972980</v>
+        <v>5537972980</v>
       </c>
       <c r="H64" s="43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I64" s="43" t="s">
         <v>14</v>
@@ -2399,7 +2412,7 @@
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>16</v>
@@ -2417,10 +2430,10 @@
         <v>113</v>
       </c>
       <c r="G65" s="43">
-        <v>525573118843</v>
+        <v>5573118843</v>
       </c>
       <c r="H65" s="43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I65" s="43" t="s">
         <v>14</v>
@@ -2428,7 +2441,7 @@
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B66" s="43" t="s">
         <v>15</v>
@@ -2449,15 +2462,15 @@
         <v>5611773553</v>
       </c>
       <c r="H66" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I66" s="43" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B67" s="43" t="s">
         <v>16</v>
@@ -2486,7 +2499,7 @@
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B68" s="43" t="s">
         <v>16</v>
@@ -2515,7 +2528,7 @@
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B69" s="43" t="s">
         <v>16</v>
@@ -2536,15 +2549,15 @@
         <v>5548704422</v>
       </c>
       <c r="H69" s="43" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I69" s="43" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B70" s="43" t="s">
         <v>15</v>
@@ -2561,19 +2574,19 @@
       <c r="F70" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="G70" s="43">
-        <v>573017303895</v>
+      <c r="G70" s="43" t="s">
+        <v>167</v>
       </c>
       <c r="H70" s="43" t="s">
         <v>134</v>
       </c>
       <c r="I70" s="43" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B71" s="43" t="s">
         <v>16</v>
@@ -2591,18 +2604,18 @@
         <v>101</v>
       </c>
       <c r="G71" s="43">
-        <v>520445511921350</v>
+        <v>5511921350</v>
       </c>
       <c r="H71" s="43" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I71" s="43" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B72" s="43" t="s">
         <v>15</v>
@@ -2620,18 +2633,18 @@
         <v>98</v>
       </c>
       <c r="G72" s="43">
-        <v>525614141930</v>
-      </c>
-      <c r="H72" s="43" t="s">
-        <v>138</v>
+        <v>5614141930</v>
+      </c>
+      <c r="H72" s="44" t="s">
+        <v>166</v>
       </c>
       <c r="I72" s="43" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B73" s="43" t="s">
         <v>15</v>
@@ -2652,10 +2665,10 @@
         <v>4428648323</v>
       </c>
       <c r="H73" s="43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I73" s="43" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4759,12 +4772,15 @@
       <c r="L248" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I73">
-    <sortCondition ref="D34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A73">
+    <sortCondition ref="A34"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="H72" r:id="rId1" xr:uid="{F0366A99-51AA-4C7D-B06E-3938EA671C79}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF1FD717-79C6-B347-ADEB-3AD0F1049F57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E1FC766-05FB-F74C-A53A-99A7B572D88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30720" yWindow="620" windowWidth="30860" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25420" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="142">
   <si>
     <t>A</t>
   </si>
@@ -149,392 +149,313 @@
     <t>Envie correo con info general</t>
   </si>
   <si>
-    <t>2020-04-05 15:00:45</t>
-  </si>
-  <si>
-    <t>2020-04-05 12:34:01</t>
-  </si>
-  <si>
-    <t>2020-04-05 09:06:46</t>
-  </si>
-  <si>
-    <t>2020-04-05 08:42:00</t>
-  </si>
-  <si>
-    <t>2020-04-04 23:55:41</t>
-  </si>
-  <si>
-    <t>2020-04-04 23:50:43</t>
-  </si>
-  <si>
-    <t>2020-04-04 23:49:31</t>
-  </si>
-  <si>
-    <t>2020-04-04 18:25:46</t>
-  </si>
-  <si>
-    <t>2020-04-04 16:48:12</t>
-  </si>
-  <si>
-    <t>2020-04-04 16:35:40</t>
-  </si>
-  <si>
-    <t>2020-04-04 11:28:35</t>
-  </si>
-  <si>
-    <t>2020-04-04 10:38:46</t>
-  </si>
-  <si>
-    <t>2020-04-04 00:00:56</t>
-  </si>
-  <si>
-    <t>2020-04-03 23:15:35</t>
-  </si>
-  <si>
-    <t>2020-04-03 21:43:50</t>
-  </si>
-  <si>
-    <t>2020-04-03 19:56:27</t>
-  </si>
-  <si>
-    <t>2020-04-03 19:03:48</t>
-  </si>
-  <si>
-    <t>2020-04-03 18:26:48</t>
-  </si>
-  <si>
-    <t>2020-04-03 18:00:46</t>
-  </si>
-  <si>
-    <t>2020-04-03 14:03:51</t>
-  </si>
-  <si>
-    <t>2020-04-03 00:59:55</t>
-  </si>
-  <si>
-    <t>2020-04-03 00:11:49</t>
-  </si>
-  <si>
-    <t>2020-04-02 19:07:05</t>
-  </si>
-  <si>
-    <t>2020-04-01 20:58:50</t>
-  </si>
-  <si>
-    <t>2020-03-31 18:24:19</t>
-  </si>
-  <si>
-    <t>2020-03-31 18:24:08</t>
-  </si>
-  <si>
-    <t>2020-03-31 18:23:54</t>
-  </si>
-  <si>
-    <t>2020-03-31 13:55:36</t>
-  </si>
-  <si>
-    <t>2020-03-31 10:54:08</t>
-  </si>
-  <si>
-    <t>2020-03-31 09:37:33</t>
-  </si>
-  <si>
-    <t>2020-03-31 02:29:51</t>
-  </si>
-  <si>
-    <t>2020-03-31 01:05:11</t>
-  </si>
-  <si>
-    <t>2020-03-30 22:46:06</t>
-  </si>
-  <si>
-    <t>2020-03-30 22:34:39</t>
-  </si>
-  <si>
-    <t>2020-03-30 21:43:55</t>
-  </si>
-  <si>
-    <t>2020-03-30 21:36:03</t>
-  </si>
-  <si>
-    <t>2020-03-30 18:06:10</t>
-  </si>
-  <si>
-    <t>2020-03-30 15:26:18</t>
-  </si>
-  <si>
-    <t>2020-03-30 12:50:14</t>
-  </si>
-  <si>
-    <t>2020-03-30 00:09:52</t>
-  </si>
-  <si>
-    <t>José Varón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delfina Bedoya </t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Viault </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angelina Araujo </t>
-  </si>
-  <si>
-    <t>Luis Castañeda</t>
-  </si>
-  <si>
-    <t>Miguel Vega</t>
-  </si>
-  <si>
-    <t>Yael Reymar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lewis L Ludwig </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Alberto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">juan Mendieta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Alvarez H. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Betzy Asucena Hernández Carpinteyro </t>
-  </si>
-  <si>
-    <t>Manuel Sánchez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomás Tamez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jhovanny Cortez Becerra </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elaine Bracho </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angel Fuentes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Ge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonathan Lopez Villalva </t>
-  </si>
-  <si>
-    <t>International n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebeca Cerrillo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viri Sanchez </t>
-  </si>
-  <si>
-    <t>Ingrid Lozano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marisol Rodríguez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Streiia Vizarraga Thomas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nur Oiuiooiu </t>
-  </si>
-  <si>
-    <t>Alejandro Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angélica Espinoza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">David </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ivan Manjarrez Meneses </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan de Dios Ramires Zuñiga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martha Lizeth Noriega </t>
-  </si>
-  <si>
-    <t>Daniela Velazco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberto Mendez Rios </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz Gutierrez Vasconez </t>
-  </si>
-  <si>
-    <t>Alvaro Huerta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biba De la Luz </t>
-  </si>
-  <si>
-    <t>Jimena Carranza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arturo canchola arias </t>
-  </si>
-  <si>
-    <t>jvaron28@yahoo.com</t>
-  </si>
-  <si>
-    <t>delfinabedoya@gmail.com</t>
-  </si>
-  <si>
-    <t>jbviault@yahoo.com</t>
-  </si>
-  <si>
-    <t>araujoangelina2@gmail.com</t>
-  </si>
-  <si>
-    <t>castanedaluis418@gmail.com</t>
-  </si>
-  <si>
-    <t>vega.ink.owl@gmail.com</t>
-  </si>
-  <si>
-    <t>jorge.yael.reymar@hotmail.com</t>
-  </si>
-  <si>
-    <t>sanchezluismario240@gmail.com</t>
-  </si>
-  <si>
-    <t>kh5393525@gmail.com</t>
-  </si>
-  <si>
-    <t>cucoh@gmail.com</t>
-  </si>
-  <si>
-    <t>eduardoah0@gmail.com</t>
-  </si>
-  <si>
-    <t>carpinteyrobetzy@icloud.com</t>
-  </si>
-  <si>
-    <t>chamsanchezvazquez@gmail.com</t>
-  </si>
-  <si>
-    <t>tomas.tamez77@gmail.com</t>
-  </si>
-  <si>
-    <t>zebraventas@hotmail.com</t>
-  </si>
-  <si>
-    <t>sifrina_britney@hotmail.es</t>
-  </si>
-  <si>
-    <t>am9183746@gmail.com</t>
-  </si>
-  <si>
-    <t>carlosgonzalesespinosa9@gmail.com</t>
-  </si>
-  <si>
-    <t>jonh25_25@hotmail.com</t>
-  </si>
-  <si>
-    <t>rebeca021104@gmail.com</t>
-  </si>
-  <si>
-    <t>caiman19@gmail.com</t>
-  </si>
-  <si>
-    <t>viris-14@hotmail.com</t>
-  </si>
-  <si>
-    <t>lozano.vib@gmail.com</t>
-  </si>
-  <si>
-    <t>marisol@challengeteambuilding.com</t>
-  </si>
-  <si>
-    <t>estrella_0076@hotmail.com</t>
-  </si>
-  <si>
-    <t>nurfs@hotmail.com</t>
-  </si>
-  <si>
-    <t>alexcolo0217@gmail.com</t>
-  </si>
-  <si>
-    <t>angelicaespinoza3105@gmail.com</t>
-  </si>
-  <si>
-    <t>oakland36thav@gmail.com</t>
-  </si>
-  <si>
-    <t>ivanrmanjarrez@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>jdrz@gmail.com</t>
-  </si>
-  <si>
-    <t>lizethnoriega@yahoo.com</t>
-  </si>
-  <si>
-    <t>laxmyvelasco@icloud.com</t>
-  </si>
-  <si>
-    <t>acabadosrmr@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>becoke-10@hotmail.com</t>
-  </si>
-  <si>
-    <t>5591972865@phonecall.com</t>
-  </si>
-  <si>
-    <t>lau@itmerida.edu.mx</t>
-  </si>
-  <si>
-    <t>5611773553@phonecall.com</t>
-  </si>
-  <si>
-    <t>cascarabiasarturo@yahoo.com</t>
-  </si>
-  <si>
-    <t>Marqué al numero pero sale buzon, envío whapp</t>
-  </si>
-  <si>
-    <t>Nos contacta por whapp 
-Busca Renta, enviaré info en cuanto salgan los de renta</t>
-  </si>
-  <si>
-    <t>Llego por Whats app le envíe correo de nápoles y Polanco lo va a revisar con su esposo</t>
-  </si>
-  <si>
-    <t>Envie opciones 404A y 502E</t>
-  </si>
-  <si>
-    <t>En espera de su correo para enviar info de ambos desarrollos</t>
-  </si>
-  <si>
-    <t>30 de Marzo - 05 de Abril del 2020</t>
-  </si>
-  <si>
-    <t>Busca rentar 6 meses</t>
-  </si>
-  <si>
-    <t>Colgó la llamada, envié mail con Información</t>
-  </si>
-  <si>
-    <t>525614141930@phonecall.com</t>
-  </si>
-  <si>
-    <t>*573017303895</t>
+    <t>2020-04-12 08:21:38</t>
+  </si>
+  <si>
+    <t>2020-04-11 22:36:11</t>
+  </si>
+  <si>
+    <t>2020-04-11 22:29:00</t>
+  </si>
+  <si>
+    <t>2020-04-11 01:18:20</t>
+  </si>
+  <si>
+    <t>2020-04-10 15:39:37</t>
+  </si>
+  <si>
+    <t>2020-04-09 23:00:25</t>
+  </si>
+  <si>
+    <t>2020-04-09 15:49:42</t>
+  </si>
+  <si>
+    <t>2020-04-09 14:43:33</t>
+  </si>
+  <si>
+    <t>2020-04-09 14:37:22</t>
+  </si>
+  <si>
+    <t>2020-04-09 14:32:22</t>
+  </si>
+  <si>
+    <t>2020-04-09 13:40:32</t>
+  </si>
+  <si>
+    <t>2020-04-09 10:06:54</t>
+  </si>
+  <si>
+    <t>2020-04-09 09:09:03</t>
+  </si>
+  <si>
+    <t>2020-04-08 22:46:15</t>
+  </si>
+  <si>
+    <t>2020-04-08 22:09:56</t>
+  </si>
+  <si>
+    <t>2020-04-08 20:24:32</t>
+  </si>
+  <si>
+    <t>2020-04-08 17:20:48</t>
+  </si>
+  <si>
+    <t>2020-04-08 13:27:01</t>
+  </si>
+  <si>
+    <t>2020-04-08 13:14:01</t>
+  </si>
+  <si>
+    <t>2020-04-08 13:13:08</t>
+  </si>
+  <si>
+    <t>2020-04-08 13:11:48</t>
+  </si>
+  <si>
+    <t>2020-04-08 13:07:29</t>
+  </si>
+  <si>
+    <t>2020-04-08 13:03:06</t>
+  </si>
+  <si>
+    <t>2020-04-08 12:52:32</t>
+  </si>
+  <si>
+    <t>2020-04-08 09:09:53</t>
+  </si>
+  <si>
+    <t>2020-04-07 21:05:27</t>
+  </si>
+  <si>
+    <t>2020-04-07 13:53:03</t>
+  </si>
+  <si>
+    <t>2020-04-07 12:40:32</t>
+  </si>
+  <si>
+    <t>2020-04-07 12:34:48</t>
+  </si>
+  <si>
+    <t>2020-04-07 12:28:53</t>
+  </si>
+  <si>
+    <t>2020-04-07 04:54:44</t>
+  </si>
+  <si>
+    <t>2020-04-06 00:42:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela velez Marín </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helen Salinas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hector Magallanes Pardo y eric fabian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tere Alarcon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">horacio de lar uiz prtada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matilde Hur Fayruz Salomón García </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romina Gómez </t>
+  </si>
+  <si>
+    <t>Amira Nazari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doria Bornheimer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CELENE / soy asesor </t>
+  </si>
+  <si>
+    <t>Valeria Torres Ramirez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CG Rodrigo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatima olivares </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christina Angeles </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Acevo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Canchola Lara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Guzmán </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliva </t>
+  </si>
+  <si>
+    <t>Monse Sampayo</t>
+  </si>
+  <si>
+    <t>Nayelly Perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coral Grunewald </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel De La Torre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arn FJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeria Torres Ramirez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Baruch Ugalde </t>
+  </si>
+  <si>
+    <t>Sonia Peña</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arturo Santana </t>
+  </si>
+  <si>
+    <t>Angel Cantu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arturo Aps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph Mendoza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercedes Inda </t>
+  </si>
+  <si>
+    <t>velezdaniela758@gmail.com</t>
+  </si>
+  <si>
+    <t>helen.fiesta.1@gmail.com</t>
+  </si>
+  <si>
+    <t>a.gzzart@gmail.com</t>
+  </si>
+  <si>
+    <t>magallanespardoh@gmail.com</t>
+  </si>
+  <si>
+    <t>mspisoz@gmsil.com</t>
+  </si>
+  <si>
+    <t>heckip97@hotmail.com</t>
+  </si>
+  <si>
+    <t>hurfayruz@hotmail.com</t>
+  </si>
+  <si>
+    <t>rominalamexicana@hotmail.com</t>
+  </si>
+  <si>
+    <t>doc.nazari1976@gmail.com</t>
+  </si>
+  <si>
+    <t>dorianblz.2@gmail.com</t>
+  </si>
+  <si>
+    <t>celfar09@gmail.com</t>
+  </si>
+  <si>
+    <t>valeria.torres.rmz@outlook.com</t>
+  </si>
+  <si>
+    <t>sonical_10_rodrigo@hotmail.com</t>
+  </si>
+  <si>
+    <t>fatima250177@gmail.com</t>
+  </si>
+  <si>
+    <t>cristiadecuellar@hotmail.com</t>
+  </si>
+  <si>
+    <t>jafr38@yahoo.com</t>
+  </si>
+  <si>
+    <t>alan_artie74@hotmail.com</t>
+  </si>
+  <si>
+    <t>os_guzman@hotmail.com</t>
+  </si>
+  <si>
+    <t>ciciolivass@gmail.com</t>
+  </si>
+  <si>
+    <t>felizkomolombriz@hotmail.com</t>
+  </si>
+  <si>
+    <t>laejss12@tutanota.com</t>
+  </si>
+  <si>
+    <t>cgrunewald_9@hotmail.com</t>
+  </si>
+  <si>
+    <t>medelatorre78@gmail.com</t>
+  </si>
+  <si>
+    <t>fjesusbarb@gmail.com</t>
+  </si>
+  <si>
+    <t>valeria.torres.rmz@outlook.es</t>
+  </si>
+  <si>
+    <t>ab@gmail.com</t>
+  </si>
+  <si>
+    <t>yuki_haji@hotmail.com</t>
+  </si>
+  <si>
+    <t>arturosaves@gmail.com</t>
+  </si>
+  <si>
+    <t>cantuchaps@hotmail.com</t>
+  </si>
+  <si>
+    <t>aio_electronics_ar@hotmail.com</t>
+  </si>
+  <si>
+    <t>joseph.91180@gmail.com</t>
+  </si>
+  <si>
+    <t>Mariaindapolanco@gmail.com</t>
+  </si>
+  <si>
+    <t>Envié correo con información general</t>
+  </si>
+  <si>
+    <t>Es asesora de ventas y tiene un cliente con presupuesto para rentar de 30 mil pesos</t>
+  </si>
+  <si>
+    <t>Envié cotización de PH3A y PH1C y rango de precios de deptos</t>
+  </si>
+  <si>
+    <t>Envié correo y se REGRESA contacto por telefono</t>
+  </si>
+  <si>
+    <t>No contesta la llamada envie correo con info general</t>
+  </si>
+  <si>
+    <t>06 - 12 de Abril del 2020</t>
+  </si>
+  <si>
+    <t>*963116739354</t>
   </si>
 </sst>
 </file>
@@ -544,7 +465,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -610,13 +531,6 @@
       <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -707,9 +621,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -818,10 +731,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -893,14 +807,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>12758</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>12757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1237,10 +1151,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L248"/>
+  <dimension ref="A4:L240"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A73"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1295,7 +1209,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1330,7 +1244,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="34">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>24</v>
@@ -1362,7 +1276,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="34">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1375,7 +1289,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1395,13 +1309,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
@@ -1412,13 +1326,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="34">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1431,7 +1345,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="34">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1444,7 +1358,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="34">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
@@ -1456,7 +1370,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
@@ -1521,7 +1435,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>3</v>
@@ -1530,16 +1444,16 @@
         <v>17</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="G34" s="43">
-        <v>5591972865</v>
+        <v>8117910498</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="J34" s="12"/>
     </row>
@@ -1551,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>3</v>
@@ -1560,16 +1474,16 @@
         <v>13</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G35" s="43">
-        <v>5522429829</v>
+        <v>9931902640</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1580,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>3</v>
@@ -1589,13 +1503,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="G36" s="43">
-        <v>5512997321</v>
+        <v>7771555919</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="I36" s="43" t="s">
         <v>37</v>
@@ -1606,10 +1520,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>3</v>
@@ -1618,16 +1532,16 @@
         <v>13</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="G37" s="43">
-        <v>5563010817</v>
+        <v>3323638205</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1638,7 +1552,7 @@
         <v>16</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>3</v>
@@ -1647,13 +1561,13 @@
         <v>13</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G38" s="43">
-        <v>7751294519</v>
+        <v>5580394800</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I38" s="43" t="s">
         <v>14</v>
@@ -1667,7 +1581,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>3</v>
@@ -1676,13 +1590,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="G39" s="43">
-        <v>3481074983</v>
+        <v>3322406039</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="I39" s="43" t="s">
         <v>14</v>
@@ -1696,7 +1610,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>3</v>
@@ -1705,13 +1619,13 @@
         <v>13</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="G40" s="43">
-        <v>9999001429</v>
+        <v>5549855567</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="I40" s="43" t="s">
         <v>14</v>
@@ -1722,28 +1636,28 @@
         <v>8</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G41" s="43">
-        <v>7863169569</v>
+        <v>5541431793</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1754,7 +1668,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>3</v>
@@ -1763,13 +1677,13 @@
         <v>34</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="G42" s="43">
-        <v>6311877256</v>
+        <v>5579760822</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I42" s="43" t="s">
         <v>37</v>
@@ -1783,7 +1697,7 @@
         <v>15</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>3</v>
@@ -1792,16 +1706,16 @@
         <v>34</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G43" s="43">
-        <v>5518007689</v>
+        <v>558245678</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1812,7 +1726,7 @@
         <v>15</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>3</v>
@@ -1821,16 +1735,16 @@
         <v>34</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="G44" s="43">
-        <v>5521286062</v>
+        <v>7441770857</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1841,7 +1755,7 @@
         <v>15</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>3</v>
@@ -1850,16 +1764,16 @@
         <v>34</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G45" s="43">
-        <v>7293668855</v>
+        <v>5532513770</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1870,7 +1784,7 @@
         <v>15</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>3</v>
@@ -1879,16 +1793,16 @@
         <v>34</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="G46" s="43">
-        <v>6421942872</v>
+        <v>5530488110</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1896,10 +1810,10 @@
         <v>14</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>3</v>
@@ -1908,14 +1822,16 @@
         <v>34</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" s="43"/>
+        <v>86</v>
+      </c>
+      <c r="G47" s="43">
+        <v>5513640766</v>
+      </c>
       <c r="H47" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,10 +1839,10 @@
         <v>15</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>3</v>
@@ -1937,12 +1853,14 @@
       <c r="F48" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="G48" s="43"/>
+      <c r="G48" s="43">
+        <v>5544757828</v>
+      </c>
       <c r="H48" s="43" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1950,10 +1868,10 @@
         <v>16</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>3</v>
@@ -1962,28 +1880,28 @@
         <v>34</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G49" s="43">
-        <v>3327991878</v>
+        <v>4421864410</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B50" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>3</v>
@@ -1992,13 +1910,13 @@
         <v>34</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="G50" s="43">
-        <v>3511221107</v>
+        <v>3136961332</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="I50" s="43" t="s">
         <v>14</v>
@@ -2006,13 +1924,13 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B51" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>3</v>
@@ -2021,13 +1939,13 @@
         <v>34</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="G51" s="43">
-        <v>6861235546</v>
+        <v>5539009694</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="I51" s="43" t="s">
         <v>14</v>
@@ -2035,129 +1953,127 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="G52" s="43">
-        <v>9511464901</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G52" s="43"/>
       <c r="H52" s="43" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I52" s="43" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G53" s="43">
-        <v>5585809931</v>
+        <v>2299037497</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="I53" s="43" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G54" s="43">
-        <v>5611909600</v>
+        <v>5541880728</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="I54" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G55" s="43">
-        <v>5548076782</v>
+        <v>8117910498</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="I55" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B56" s="43" t="s">
         <v>15</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>3</v>
@@ -2166,13 +2082,13 @@
         <v>35</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G56" s="43">
-        <v>5565587986</v>
+        <v>5578855972</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="I56" s="43" t="s">
         <v>37</v>
@@ -2180,13 +2096,13 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>3</v>
@@ -2195,27 +2111,27 @@
         <v>35</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="G57" s="43">
-        <v>5523202683</v>
+        <v>79</v>
+      </c>
+      <c r="G57" s="44" t="s">
+        <v>141</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="I57" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B58" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>3</v>
@@ -2224,10 +2140,10 @@
         <v>35</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G58" s="43">
-        <v>5519283617</v>
+        <v>6461515510</v>
       </c>
       <c r="H58" s="43" t="s">
         <v>123</v>
@@ -2238,13 +2154,13 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B59" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>3</v>
@@ -2253,13 +2169,13 @@
         <v>35</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="G59" s="43">
-        <v>5568883552</v>
+        <v>5566890744</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="I59" s="43" t="s">
         <v>14</v>
@@ -2267,13 +2183,13 @@
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B60" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>3</v>
@@ -2282,13 +2198,13 @@
         <v>35</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G60" s="43">
-        <v>7331565123</v>
+        <v>5510135558</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I60" s="43" t="s">
         <v>14</v>
@@ -2296,42 +2212,42 @@
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B61" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G61" s="43">
-        <v>15616160919</v>
+        <v>3112307283</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I61" s="43" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B62" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>3</v>
@@ -2340,13 +2256,13 @@
         <v>35</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="G62" s="43">
-        <v>5514790136</v>
+        <v>5568192810</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="I62" s="43" t="s">
         <v>14</v>
@@ -2354,497 +2270,364 @@
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D63" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G63" s="43">
-        <v>15550353486</v>
+        <v>5542732341</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
+        <v>18</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G64" s="43">
+        <v>5543404283</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>31</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="G64" s="43">
-        <v>5537972980</v>
-      </c>
-      <c r="H64" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>32</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C65" s="43" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D65" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G65" s="43">
+        <v>5585301383</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+    </row>
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="38"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="38"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+    </row>
+    <row r="74" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="19"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="21"/>
+    </row>
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="24"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E65" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="G65" s="43">
-        <v>5573118843</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="I65" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="C79" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="G66" s="43">
-        <v>5611773553</v>
-      </c>
-      <c r="H66" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="I66" s="43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>34</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E67" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G67" s="43">
-        <v>5552163309</v>
-      </c>
-      <c r="H67" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="I67" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>35</v>
-      </c>
-      <c r="B68" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D68" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E68" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F68" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G68" s="43">
-        <v>6863361045</v>
-      </c>
-      <c r="H68" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="I68" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>36</v>
-      </c>
-      <c r="B69" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69" s="43">
-        <v>5548704422</v>
-      </c>
-      <c r="H69" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="I69" s="43" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>37</v>
-      </c>
-      <c r="B70" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F70" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="G70" s="43" t="s">
-        <v>167</v>
-      </c>
-      <c r="H70" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="I70" s="43" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>38</v>
-      </c>
-      <c r="B71" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F71" s="43" t="s">
-        <v>101</v>
-      </c>
-      <c r="G71" s="43">
-        <v>5511921350</v>
-      </c>
-      <c r="H71" s="43" t="s">
-        <v>140</v>
-      </c>
-      <c r="I71" s="43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>39</v>
-      </c>
-      <c r="B72" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="D72" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E72" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="F72" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G72" s="43">
-        <v>5614141930</v>
-      </c>
-      <c r="H72" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="I72" s="43" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>40</v>
-      </c>
-      <c r="B73" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F73" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="G73" s="43">
-        <v>4428648323</v>
-      </c>
-      <c r="H73" s="43" t="s">
-        <v>145</v>
-      </c>
-      <c r="I73" s="43" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-    </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="42"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="42"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-    </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="42"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="42"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="42"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-    </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="42"/>
-      <c r="C78" s="42"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="42"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-    </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-    </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="42"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-    </row>
-    <row r="81" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-    </row>
-    <row r="82" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="21"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+    </row>
+    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+    </row>
+    <row r="82" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
     </row>
     <row r="83" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="18"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="12"/>
-      <c r="J83" s="21"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
     </row>
     <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="18"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="20"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="21"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
     </row>
     <row r="85" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D85" s="24"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="26"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="21"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
     </row>
     <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="24"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="26"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="21"/>
+      <c r="B86" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
     </row>
     <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D87" s="24"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="26"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="12"/>
-      <c r="J87" s="21"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
     </row>
     <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D88" s="24"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3"/>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
     </row>
@@ -2909,9 +2692,7 @@
       <c r="L93" s="6"/>
     </row>
     <row r="94" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B94" s="6"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -2935,15 +2716,14 @@
       <c r="L95" s="6"/>
     </row>
     <row r="96" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
     </row>
@@ -4675,112 +4455,13 @@
       <c r="K240" s="6"/>
       <c r="L240" s="6"/>
     </row>
-    <row r="241" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="6"/>
-      <c r="I241" s="6"/>
-      <c r="J241" s="6"/>
-      <c r="K241" s="6"/>
-      <c r="L241" s="6"/>
-    </row>
-    <row r="242" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="6"/>
-      <c r="I242" s="6"/>
-      <c r="J242" s="6"/>
-      <c r="K242" s="6"/>
-      <c r="L242" s="6"/>
-    </row>
-    <row r="243" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="6"/>
-      <c r="I243" s="6"/>
-      <c r="J243" s="6"/>
-      <c r="K243" s="6"/>
-      <c r="L243" s="6"/>
-    </row>
-    <row r="244" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
-      <c r="D244" s="6"/>
-      <c r="E244" s="6"/>
-      <c r="F244" s="5"/>
-      <c r="G244" s="6"/>
-      <c r="I244" s="6"/>
-      <c r="J244" s="6"/>
-      <c r="K244" s="6"/>
-      <c r="L244" s="6"/>
-    </row>
-    <row r="245" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="6"/>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="6"/>
-      <c r="I245" s="6"/>
-      <c r="J245" s="6"/>
-      <c r="K245" s="6"/>
-      <c r="L245" s="6"/>
-    </row>
-    <row r="246" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
-      <c r="D246" s="6"/>
-      <c r="E246" s="6"/>
-      <c r="F246" s="5"/>
-      <c r="G246" s="6"/>
-      <c r="I246" s="6"/>
-      <c r="J246" s="6"/>
-      <c r="K246" s="6"/>
-      <c r="L246" s="6"/>
-    </row>
-    <row r="247" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
-      <c r="D247" s="6"/>
-      <c r="E247" s="6"/>
-      <c r="F247" s="5"/>
-      <c r="G247" s="6"/>
-      <c r="I247" s="6"/>
-      <c r="J247" s="6"/>
-      <c r="K247" s="6"/>
-      <c r="L247" s="6"/>
-    </row>
-    <row r="248" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
-      <c r="D248" s="6"/>
-      <c r="E248" s="6"/>
-      <c r="F248" s="5"/>
-      <c r="G248" s="6"/>
-      <c r="I248" s="6"/>
-      <c r="J248" s="6"/>
-      <c r="K248" s="6"/>
-      <c r="L248" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A73">
-    <sortCondition ref="A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I65">
+    <sortCondition ref="D34"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="H72" r:id="rId1" xr:uid="{F0366A99-51AA-4C7D-B06E-3938EA671C79}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E1FC766-05FB-F74C-A53A-99A7B572D88C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CF3372-B1C6-2048-AD14-7D0B1EDC6B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25420" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30140" yWindow="520" windowWidth="31040" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="136">
   <si>
     <t>A</t>
   </si>
@@ -146,316 +146,298 @@
     <t>Envié correo con info general</t>
   </si>
   <si>
-    <t>Envie correo con info general</t>
-  </si>
-  <si>
-    <t>2020-04-12 08:21:38</t>
-  </si>
-  <si>
-    <t>2020-04-11 22:36:11</t>
-  </si>
-  <si>
-    <t>2020-04-11 22:29:00</t>
-  </si>
-  <si>
-    <t>2020-04-11 01:18:20</t>
-  </si>
-  <si>
-    <t>2020-04-10 15:39:37</t>
-  </si>
-  <si>
-    <t>2020-04-09 23:00:25</t>
-  </si>
-  <si>
-    <t>2020-04-09 15:49:42</t>
-  </si>
-  <si>
-    <t>2020-04-09 14:43:33</t>
-  </si>
-  <si>
-    <t>2020-04-09 14:37:22</t>
-  </si>
-  <si>
-    <t>2020-04-09 14:32:22</t>
-  </si>
-  <si>
-    <t>2020-04-09 13:40:32</t>
-  </si>
-  <si>
-    <t>2020-04-09 10:06:54</t>
-  </si>
-  <si>
-    <t>2020-04-09 09:09:03</t>
-  </si>
-  <si>
-    <t>2020-04-08 22:46:15</t>
-  </si>
-  <si>
-    <t>2020-04-08 22:09:56</t>
-  </si>
-  <si>
-    <t>2020-04-08 20:24:32</t>
-  </si>
-  <si>
-    <t>2020-04-08 17:20:48</t>
-  </si>
-  <si>
-    <t>2020-04-08 13:27:01</t>
-  </si>
-  <si>
-    <t>2020-04-08 13:14:01</t>
-  </si>
-  <si>
-    <t>2020-04-08 13:13:08</t>
-  </si>
-  <si>
-    <t>2020-04-08 13:11:48</t>
-  </si>
-  <si>
-    <t>2020-04-08 13:07:29</t>
-  </si>
-  <si>
-    <t>2020-04-08 13:03:06</t>
-  </si>
-  <si>
-    <t>2020-04-08 12:52:32</t>
-  </si>
-  <si>
-    <t>2020-04-08 09:09:53</t>
-  </si>
-  <si>
-    <t>2020-04-07 21:05:27</t>
-  </si>
-  <si>
-    <t>2020-04-07 13:53:03</t>
-  </si>
-  <si>
-    <t>2020-04-07 12:40:32</t>
-  </si>
-  <si>
-    <t>2020-04-07 12:34:48</t>
-  </si>
-  <si>
-    <t>2020-04-07 12:28:53</t>
-  </si>
-  <si>
-    <t>2020-04-07 04:54:44</t>
-  </si>
-  <si>
-    <t>2020-04-06 00:42:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniela velez Marín </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helen Salinas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hector Magallanes Pardo y eric fabian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tere Alarcon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">horacio de lar uiz prtada </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matilde Hur Fayruz Salomón García </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romina Gómez </t>
-  </si>
-  <si>
-    <t>Amira Nazari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doria Bornheimer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CELENE / soy asesor </t>
-  </si>
-  <si>
-    <t>Valeria Torres Ramirez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CG Rodrigo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatima olivares </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christina Angeles </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Acevo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Canchola Lara </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Guzmán </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oliva </t>
-  </si>
-  <si>
-    <t>Monse Sampayo</t>
-  </si>
-  <si>
-    <t>Nayelly Perez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coral Grunewald </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel De La Torre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arn FJ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valeria Torres Ramirez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Baruch Ugalde </t>
-  </si>
-  <si>
-    <t>Sonia Peña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arturo Santana </t>
-  </si>
-  <si>
-    <t>Angel Cantu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arturo Aps </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joseph Mendoza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercedes Inda </t>
-  </si>
-  <si>
-    <t>velezdaniela758@gmail.com</t>
-  </si>
-  <si>
-    <t>helen.fiesta.1@gmail.com</t>
-  </si>
-  <si>
-    <t>a.gzzart@gmail.com</t>
-  </si>
-  <si>
-    <t>magallanespardoh@gmail.com</t>
-  </si>
-  <si>
-    <t>mspisoz@gmsil.com</t>
-  </si>
-  <si>
-    <t>heckip97@hotmail.com</t>
-  </si>
-  <si>
-    <t>hurfayruz@hotmail.com</t>
-  </si>
-  <si>
-    <t>rominalamexicana@hotmail.com</t>
-  </si>
-  <si>
-    <t>doc.nazari1976@gmail.com</t>
-  </si>
-  <si>
-    <t>dorianblz.2@gmail.com</t>
-  </si>
-  <si>
-    <t>celfar09@gmail.com</t>
-  </si>
-  <si>
-    <t>valeria.torres.rmz@outlook.com</t>
-  </si>
-  <si>
-    <t>sonical_10_rodrigo@hotmail.com</t>
-  </si>
-  <si>
-    <t>fatima250177@gmail.com</t>
-  </si>
-  <si>
-    <t>cristiadecuellar@hotmail.com</t>
-  </si>
-  <si>
-    <t>jafr38@yahoo.com</t>
-  </si>
-  <si>
-    <t>alan_artie74@hotmail.com</t>
-  </si>
-  <si>
-    <t>os_guzman@hotmail.com</t>
-  </si>
-  <si>
-    <t>ciciolivass@gmail.com</t>
-  </si>
-  <si>
-    <t>felizkomolombriz@hotmail.com</t>
-  </si>
-  <si>
-    <t>laejss12@tutanota.com</t>
-  </si>
-  <si>
-    <t>cgrunewald_9@hotmail.com</t>
-  </si>
-  <si>
-    <t>medelatorre78@gmail.com</t>
-  </si>
-  <si>
-    <t>fjesusbarb@gmail.com</t>
-  </si>
-  <si>
-    <t>valeria.torres.rmz@outlook.es</t>
-  </si>
-  <si>
-    <t>ab@gmail.com</t>
-  </si>
-  <si>
-    <t>yuki_haji@hotmail.com</t>
-  </si>
-  <si>
-    <t>arturosaves@gmail.com</t>
-  </si>
-  <si>
-    <t>cantuchaps@hotmail.com</t>
-  </si>
-  <si>
-    <t>aio_electronics_ar@hotmail.com</t>
-  </si>
-  <si>
-    <t>joseph.91180@gmail.com</t>
-  </si>
-  <si>
-    <t>Mariaindapolanco@gmail.com</t>
-  </si>
-  <si>
     <t>Envié correo con información general</t>
   </si>
   <si>
-    <t>Es asesora de ventas y tiene un cliente con presupuesto para rentar de 30 mil pesos</t>
-  </si>
-  <si>
-    <t>Envié cotización de PH3A y PH1C y rango de precios de deptos</t>
-  </si>
-  <si>
-    <t>Envié correo y se REGRESA contacto por telefono</t>
-  </si>
-  <si>
-    <t>No contesta la llamada envie correo con info general</t>
-  </si>
-  <si>
-    <t>06 - 12 de Abril del 2020</t>
-  </si>
-  <si>
-    <t>*963116739354</t>
+    <t>2020-04-19 17:03:10</t>
+  </si>
+  <si>
+    <t>2020-04-19 08:23:22</t>
+  </si>
+  <si>
+    <t>2020-04-19 02:48:37</t>
+  </si>
+  <si>
+    <t>2020-04-18 10:17:47</t>
+  </si>
+  <si>
+    <t>2020-04-18 01:20:12</t>
+  </si>
+  <si>
+    <t>2020-04-17 16:36:31</t>
+  </si>
+  <si>
+    <t>2020-04-16 23:28:36</t>
+  </si>
+  <si>
+    <t>2020-04-15 16:26:52</t>
+  </si>
+  <si>
+    <t>2020-04-15 16:25:03</t>
+  </si>
+  <si>
+    <t>2020-04-15 09:15:12</t>
+  </si>
+  <si>
+    <t>2020-04-15 08:24:54</t>
+  </si>
+  <si>
+    <t>2020-04-14 22:13:30</t>
+  </si>
+  <si>
+    <t>2020-04-14 20:52:51</t>
+  </si>
+  <si>
+    <t>2020-04-14 20:16:28</t>
+  </si>
+  <si>
+    <t>2020-04-14 20:15:50</t>
+  </si>
+  <si>
+    <t>2020-04-14 20:15:05</t>
+  </si>
+  <si>
+    <t>2020-04-14 20:14:04</t>
+  </si>
+  <si>
+    <t>2020-04-14 20:13:15</t>
+  </si>
+  <si>
+    <t>2020-04-14 09:20:15</t>
+  </si>
+  <si>
+    <t>2020-04-14 07:27:13</t>
+  </si>
+  <si>
+    <t>2020-04-14 02:20:35</t>
+  </si>
+  <si>
+    <t>2020-04-13 23:44:39</t>
+  </si>
+  <si>
+    <t>2020-04-13 23:00:31</t>
+  </si>
+  <si>
+    <t>2020-04-13 22:45:14</t>
+  </si>
+  <si>
+    <t>2020-04-13 15:52:08</t>
+  </si>
+  <si>
+    <t>2020-04-13 15:20:55</t>
+  </si>
+  <si>
+    <t>2020-04-13 14:20:44</t>
+  </si>
+  <si>
+    <t>2020-04-13 14:19:25</t>
+  </si>
+  <si>
+    <t>2020-04-13 14:08:11</t>
+  </si>
+  <si>
+    <t>2020-04-13 12:23:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gianluca de colli </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Esteban Coello Ituarte </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valentina tabares </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Serrano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres betancurth </t>
+  </si>
+  <si>
+    <t>Elizabteh González</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayra Pasquel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evelyn Caballero </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goretti Colín </t>
+  </si>
+  <si>
+    <t>Samuel Alfille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana </t>
+  </si>
+  <si>
+    <t>Jorge Diaz</t>
+  </si>
+  <si>
+    <t>Qasim Hibah</t>
+  </si>
+  <si>
+    <t>Mauricio Gutiérrez Galleguillos</t>
+  </si>
+  <si>
+    <t>Daniel Peralta</t>
+  </si>
+  <si>
+    <t>Francisco Garcia Bonilla</t>
+  </si>
+  <si>
+    <t>María Eugenia Jastrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Martínez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardoarumbari </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Mayren </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misael alain González </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfonso Ramon Montaño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Skdndk </t>
+  </si>
+  <si>
+    <t>Carolina Bustamante</t>
+  </si>
+  <si>
+    <t>0999703127</t>
+  </si>
+  <si>
+    <t>gianly7722@gmail.com</t>
+  </si>
+  <si>
+    <t>coelloesteban@hotmail.com</t>
+  </si>
+  <si>
+    <t>valenpt29@gmail.com</t>
+  </si>
+  <si>
+    <t>jorgeserranotostado@ail.com</t>
+  </si>
+  <si>
+    <t>Andresbm7@hotmail.com</t>
+  </si>
+  <si>
+    <t>5534199158@phonecall.com</t>
+  </si>
+  <si>
+    <t>mayeli_27oct@hotmail.com</t>
+  </si>
+  <si>
+    <t>5591994910@phonecall.com</t>
+  </si>
+  <si>
+    <t>5522782253@phonecall.com</t>
+  </si>
+  <si>
+    <t>ecarzapalo@gmail.com</t>
+  </si>
+  <si>
+    <t>ingmgce@gmail.com</t>
+  </si>
+  <si>
+    <t>salfille35@gmail.com</t>
+  </si>
+  <si>
+    <t>princerrat340@gmail.com</t>
+  </si>
+  <si>
+    <t>jdiaz5614@gmail.com</t>
+  </si>
+  <si>
+    <t>qasimhibah22@gmail.com</t>
+  </si>
+  <si>
+    <t>gutieguillo@gmail.com</t>
+  </si>
+  <si>
+    <t>dany.dperalta@gmail.com</t>
+  </si>
+  <si>
+    <t>garbonfra2017@gmail.com</t>
+  </si>
+  <si>
+    <t>marusi_2@hotmail.com</t>
+  </si>
+  <si>
+    <t>smartinez@realestategroup.com.mx</t>
+  </si>
+  <si>
+    <t>Ricardoarumbari@gmail.com</t>
+  </si>
+  <si>
+    <t>Laura.mayren@hotmail.com</t>
+  </si>
+  <si>
+    <t>misaelginzalez8076@gmail.com</t>
+  </si>
+  <si>
+    <t>ponchoramon96@gmail.com</t>
+  </si>
+  <si>
+    <t>g.leeua@gmail.com</t>
+  </si>
+  <si>
+    <t>lemjesusantonioriv@gmail.com</t>
+  </si>
+  <si>
+    <t>csbustamante19@gmail.com</t>
+  </si>
+  <si>
+    <t>Nos contacta por whapp. le envié correo general en espera de sus especificaciones</t>
+  </si>
+  <si>
+    <t>Nos contacta por whapp solicito su correo para enviar info. En espera del mail</t>
+  </si>
+  <si>
+    <t>Llama para solicitar informes, quiere 3 recámaras, y presupuesto de no mas de 20 mill. Visitará el desarrollo hoy por la tarde</t>
+  </si>
+  <si>
+    <t>Quiere ver opciones tiene por el momento 8 millones pero puede crecer si vende una propiedad en San Luis Potosi</t>
+  </si>
+  <si>
+    <t>Nos contacta por WHAPP solicité nombre y correo para enviarle info</t>
+  </si>
+  <si>
+    <t>Nos contacta por WHAPP le pedí correo y nombre para enviar info</t>
+  </si>
+  <si>
+    <t>Nos contacta por whapp. Busca RENTA</t>
+  </si>
+  <si>
+    <t>13 - 19 de Abril del 2020</t>
+  </si>
+  <si>
+    <t>Jesus Rivera</t>
+  </si>
+  <si>
+    <t>Busca renta</t>
+  </si>
+  <si>
+    <t>5522779004@phonecall.com</t>
+  </si>
+  <si>
+    <t>5560095731@phonecall.com</t>
+  </si>
+  <si>
+    <t>Gabriela Torres</t>
+  </si>
+  <si>
+    <t>5536776961@phonecall.com</t>
+  </si>
+  <si>
+    <t>Mande varias cotizaciones, esta fuera de su presupuesto, tiene 6 millones y  o quiere napoles</t>
   </si>
 </sst>
 </file>
@@ -465,7 +447,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -531,6 +513,13 @@
       <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -621,8 +610,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -731,11 +721,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -807,13 +796,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>85</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>12757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1151,10 +1140,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L240"/>
+  <dimension ref="A4:L238"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1209,7 +1198,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1244,7 +1233,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="34">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>24</v>
@@ -1263,7 +1252,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
@@ -1276,7 +1265,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="34">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1289,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1309,13 +1298,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
@@ -1326,13 +1315,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="34">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1345,7 +1334,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="34">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1358,7 +1347,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
@@ -1435,25 +1424,25 @@
         <v>15</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E34" s="43" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G34" s="43">
-        <v>8117910498</v>
+        <v>5585309357</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="J34" s="12"/>
     </row>
@@ -1462,28 +1451,28 @@
         <v>2</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="G35" s="43">
-        <v>9931902640</v>
+        <v>4445500721</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1494,7 +1483,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>3</v>
@@ -1503,13 +1492,13 @@
         <v>13</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="G36" s="43">
-        <v>7771555919</v>
+        <v>5540183985</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="I36" s="43" t="s">
         <v>37</v>
@@ -1523,7 +1512,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>3</v>
@@ -1532,16 +1521,16 @@
         <v>13</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="G37" s="43">
-        <v>3323638205</v>
+        <v>9992427280</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1549,10 +1538,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>3</v>
@@ -1561,16 +1550,16 @@
         <v>13</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G38" s="43">
-        <v>5580394800</v>
+        <v>5524414152</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,7 +1570,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>3</v>
@@ -1590,13 +1579,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G39" s="43">
-        <v>3322406039</v>
+        <v>5554338420</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I39" s="43" t="s">
         <v>14</v>
@@ -1610,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>3</v>
@@ -1619,13 +1608,13 @@
         <v>13</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="G40" s="43">
-        <v>5549855567</v>
+        <v>9933119098</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="I40" s="43" t="s">
         <v>14</v>
@@ -1636,28 +1625,28 @@
         <v>8</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G41" s="43">
-        <v>5541431793</v>
+        <v>3338147379</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1668,7 +1657,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>3</v>
@@ -1677,10 +1666,10 @@
         <v>34</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G42" s="43">
-        <v>5579760822</v>
+        <v>18018657</v>
       </c>
       <c r="H42" s="43" t="s">
         <v>105</v>
@@ -1697,7 +1686,7 @@
         <v>15</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>3</v>
@@ -1706,16 +1695,16 @@
         <v>34</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G43" s="43">
-        <v>558245678</v>
+        <v>6311443067</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1726,7 +1715,7 @@
         <v>15</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>3</v>
@@ -1735,16 +1724,16 @@
         <v>34</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G44" s="43">
-        <v>7441770857</v>
+        <v>5551784567</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1752,10 +1741,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>3</v>
@@ -1764,16 +1753,16 @@
         <v>34</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="G45" s="43">
-        <v>5532513770</v>
+        <v>393287539661</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1781,10 +1770,10 @@
         <v>13</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>3</v>
@@ -1793,16 +1782,16 @@
         <v>34</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="G46" s="43">
-        <v>5530488110</v>
+        <v>9541687333</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1810,10 +1799,10 @@
         <v>14</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>3</v>
@@ -1822,16 +1811,14 @@
         <v>34</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G47" s="43">
-        <v>5513640766</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G47" s="43"/>
       <c r="H47" s="43" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1839,10 +1826,10 @@
         <v>15</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>3</v>
@@ -1851,16 +1838,16 @@
         <v>34</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="43">
-        <v>5544757828</v>
+        <v>75</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>93</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1868,10 +1855,10 @@
         <v>16</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>3</v>
@@ -1880,28 +1867,28 @@
         <v>34</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="G49" s="43">
-        <v>4421864410</v>
+        <v>5522998030</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>135</v>
+        <v>14</v>
       </c>
       <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B50" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>3</v>
@@ -1910,13 +1897,13 @@
         <v>34</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="G50" s="43">
-        <v>3136961332</v>
+        <v>937340611</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="I50" s="43" t="s">
         <v>14</v>
@@ -1924,13 +1911,13 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B51" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>3</v>
@@ -1939,13 +1926,13 @@
         <v>34</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G51" s="43">
-        <v>5539009694</v>
+        <v>9211782126</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="I51" s="43" t="s">
         <v>14</v>
@@ -1953,113 +1940,115 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B52" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G52" s="43"/>
+        <v>80</v>
+      </c>
+      <c r="G52" s="43">
+        <v>5547767338</v>
+      </c>
       <c r="H52" s="43" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="I52" s="43" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G53" s="43">
-        <v>2299037497</v>
+        <v>5544854547</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="I53" s="43" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G54" s="43">
-        <v>5541880728</v>
+        <v>5584754348</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="I54" s="43" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B55" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="G55" s="43">
-        <v>8117910498</v>
+        <v>36305885001</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="I55" s="43" t="s">
         <v>14</v>
@@ -2067,13 +2056,13 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>3</v>
@@ -2082,280 +2071,234 @@
         <v>35</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G56" s="43">
-        <v>5578855972</v>
+        <v>5544898789</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I56" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" s="44" t="s">
-        <v>141</v>
+        <v>74</v>
+      </c>
+      <c r="G57" s="43">
+        <v>5534199158</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="I57" s="43" t="s">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>91</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F58" s="43"/>
       <c r="G58" s="43">
-        <v>6461515510</v>
+        <v>5591994910</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="I58" s="43" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>97</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F59" s="43"/>
       <c r="G59" s="43">
-        <v>5566890744</v>
+        <v>5522782253</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="I59" s="43" t="s">
-        <v>14</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="43" t="s">
-        <v>99</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F60" s="43"/>
       <c r="G60" s="43">
-        <v>5510135558</v>
-      </c>
-      <c r="H60" s="43" t="s">
+        <v>5522779004</v>
+      </c>
+      <c r="H60" s="44" t="s">
         <v>131</v>
       </c>
       <c r="I60" s="43" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>102</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F61" s="43"/>
       <c r="G61" s="43">
-        <v>3112307283</v>
-      </c>
-      <c r="H61" s="43" t="s">
-        <v>134</v>
+        <v>5560095731</v>
+      </c>
+      <c r="H61" s="44" t="s">
+        <v>132</v>
       </c>
       <c r="I61" s="43" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G62" s="43">
-        <v>5568192810</v>
+        <v>5513715869</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I62" s="43" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D63" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="43" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="G63" s="43">
-        <v>5542732341</v>
-      </c>
-      <c r="H63" s="43" t="s">
-        <v>130</v>
+        <v>5536776961</v>
+      </c>
+      <c r="H63" s="44" t="s">
+        <v>134</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>18</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G64" s="43">
-        <v>5543404283</v>
-      </c>
-      <c r="H64" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>31</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G65" s="43">
-        <v>5585301383</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="I65" s="43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+    </row>
+    <row r="65" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+    </row>
+    <row r="66" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="42"/>
       <c r="C66" s="42"/>
       <c r="D66" s="39"/>
@@ -2365,7 +2308,7 @@
       <c r="H66" s="42"/>
       <c r="I66" s="42"/>
     </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="42"/>
       <c r="C67" s="42"/>
       <c r="D67" s="39"/>
@@ -2375,7 +2318,7 @@
       <c r="H67" s="42"/>
       <c r="I67" s="42"/>
     </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
       <c r="D68" s="39"/>
@@ -2385,7 +2328,7 @@
       <c r="H68" s="42"/>
       <c r="I68" s="42"/>
     </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
       <c r="D69" s="39"/>
@@ -2395,7 +2338,7 @@
       <c r="H69" s="42"/>
       <c r="I69" s="42"/>
     </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
       <c r="D70" s="39"/>
@@ -2405,40 +2348,42 @@
       <c r="H70" s="42"/>
       <c r="I70" s="42"/>
     </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="42"/>
-      <c r="C71" s="42"/>
+    <row r="71" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
       <c r="D71" s="39"/>
-      <c r="E71" s="42"/>
-      <c r="F71" s="42"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-    </row>
-    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="42"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="42"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-    </row>
-    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-    </row>
-    <row r="74" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="36" t="s">
+      <c r="E71" s="38"/>
+      <c r="F71" s="38"/>
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="38"/>
+    </row>
+    <row r="72" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="36" t="s">
         <v>20</v>
       </c>
+      <c r="C72" s="19"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="21"/>
+    </row>
+    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
@@ -2448,34 +2393,42 @@
       <c r="I74" s="12"/>
       <c r="J74" s="21"/>
     </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="18"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="20"/>
+    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="24"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="26"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="28"/>
       <c r="I75" s="12"/>
       <c r="J75" s="21"/>
     </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="18"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="20"/>
+    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" s="24"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="28"/>
       <c r="I76" s="12"/>
       <c r="J76" s="21"/>
     </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" s="24"/>
       <c r="E77" s="25"/>
@@ -2485,48 +2438,42 @@
       <c r="I77" s="12"/>
       <c r="J77" s="21"/>
     </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="22" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D78" s="24"/>
       <c r="E78" s="25"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="21"/>
-    </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="12"/>
-      <c r="J79" s="21"/>
-    </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="24"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="30"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+    </row>
+    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+    </row>
+    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
       <c r="I80" s="6"/>
       <c r="J80" s="6"/>
       <c r="K80" s="6"/>
@@ -2569,7 +2516,9 @@
       <c r="L83" s="6"/>
     </row>
     <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
+      <c r="B84" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -2593,16 +2542,15 @@
       <c r="L85" s="6"/>
     </row>
     <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
     </row>
@@ -2619,15 +2567,14 @@
       <c r="L87" s="6"/>
     </row>
     <row r="88" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
     </row>
@@ -4431,37 +4378,18 @@
       <c r="K238" s="6"/>
       <c r="L238" s="6"/>
     </row>
-    <row r="239" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
-      <c r="D239" s="6"/>
-      <c r="E239" s="6"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="6"/>
-      <c r="I239" s="6"/>
-      <c r="J239" s="6"/>
-      <c r="K239" s="6"/>
-      <c r="L239" s="6"/>
-    </row>
-    <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="6"/>
-      <c r="I240" s="6"/>
-      <c r="J240" s="6"/>
-      <c r="K240" s="6"/>
-      <c r="L240" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I65">
-    <sortCondition ref="D34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A63">
+    <sortCondition ref="A34"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="H60" r:id="rId1" xr:uid="{55DF515D-45A3-4C74-84B5-2AEAE967260C}"/>
+    <hyperlink ref="H61" r:id="rId2" xr:uid="{44291342-2D56-4E10-AD7D-9E60B0DCE263}"/>
+    <hyperlink ref="H63" r:id="rId3" xr:uid="{E3D5B905-A15D-4B81-A377-A9CE089610A5}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97CF3372-B1C6-2048-AD14-7D0B1EDC6B2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7710DB94-8F0E-814F-837C-CCEB9C9A99FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30140" yWindow="520" windowWidth="31040" windowHeight="18680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31200" yWindow="460" windowWidth="32000" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="154">
   <si>
     <t>A</t>
   </si>
@@ -140,304 +140,358 @@
     <t>Lamudi</t>
   </si>
   <si>
-    <t>Llamada</t>
-  </si>
-  <si>
     <t>Envié correo con info general</t>
   </si>
   <si>
     <t>Envié correo con información general</t>
   </si>
   <si>
-    <t>2020-04-19 17:03:10</t>
-  </si>
-  <si>
-    <t>2020-04-19 08:23:22</t>
-  </si>
-  <si>
-    <t>2020-04-19 02:48:37</t>
-  </si>
-  <si>
-    <t>2020-04-18 10:17:47</t>
-  </si>
-  <si>
-    <t>2020-04-18 01:20:12</t>
-  </si>
-  <si>
-    <t>2020-04-17 16:36:31</t>
-  </si>
-  <si>
-    <t>2020-04-16 23:28:36</t>
-  </si>
-  <si>
-    <t>2020-04-15 16:26:52</t>
-  </si>
-  <si>
-    <t>2020-04-15 16:25:03</t>
-  </si>
-  <si>
-    <t>2020-04-15 09:15:12</t>
-  </si>
-  <si>
-    <t>2020-04-15 08:24:54</t>
-  </si>
-  <si>
-    <t>2020-04-14 22:13:30</t>
-  </si>
-  <si>
-    <t>2020-04-14 20:52:51</t>
-  </si>
-  <si>
-    <t>2020-04-14 20:16:28</t>
-  </si>
-  <si>
-    <t>2020-04-14 20:15:50</t>
-  </si>
-  <si>
-    <t>2020-04-14 20:15:05</t>
-  </si>
-  <si>
-    <t>2020-04-14 20:14:04</t>
-  </si>
-  <si>
-    <t>2020-04-14 20:13:15</t>
-  </si>
-  <si>
-    <t>2020-04-14 09:20:15</t>
-  </si>
-  <si>
-    <t>2020-04-14 07:27:13</t>
-  </si>
-  <si>
-    <t>2020-04-14 02:20:35</t>
-  </si>
-  <si>
-    <t>2020-04-13 23:44:39</t>
-  </si>
-  <si>
-    <t>2020-04-13 23:00:31</t>
-  </si>
-  <si>
-    <t>2020-04-13 22:45:14</t>
-  </si>
-  <si>
-    <t>2020-04-13 15:52:08</t>
-  </si>
-  <si>
-    <t>2020-04-13 15:20:55</t>
-  </si>
-  <si>
-    <t>2020-04-13 14:20:44</t>
-  </si>
-  <si>
-    <t>2020-04-13 14:19:25</t>
-  </si>
-  <si>
-    <t>2020-04-13 14:08:11</t>
-  </si>
-  <si>
-    <t>2020-04-13 12:23:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gianluca de colli </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esteban Coello Ituarte </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valentina tabares </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Serrano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres betancurth </t>
-  </si>
-  <si>
-    <t>Elizabteh González</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayra Pasquel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evelyn Caballero </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goretti Colín </t>
-  </si>
-  <si>
-    <t>Samuel Alfille</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mariana </t>
-  </si>
-  <si>
-    <t>Jorge Diaz</t>
-  </si>
-  <si>
-    <t>Qasim Hibah</t>
-  </si>
-  <si>
-    <t>Mauricio Gutiérrez Galleguillos</t>
-  </si>
-  <si>
-    <t>Daniel Peralta</t>
-  </si>
-  <si>
-    <t>Francisco Garcia Bonilla</t>
-  </si>
-  <si>
-    <t>María Eugenia Jastrow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra Martínez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardoarumbari </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Mayren </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misael alain González </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfonso Ramon Montaño </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Skdndk </t>
-  </si>
-  <si>
-    <t>Carolina Bustamante</t>
-  </si>
-  <si>
-    <t>0999703127</t>
-  </si>
-  <si>
-    <t>gianly7722@gmail.com</t>
-  </si>
-  <si>
-    <t>coelloesteban@hotmail.com</t>
-  </si>
-  <si>
-    <t>valenpt29@gmail.com</t>
-  </si>
-  <si>
-    <t>jorgeserranotostado@ail.com</t>
-  </si>
-  <si>
-    <t>Andresbm7@hotmail.com</t>
-  </si>
-  <si>
-    <t>5534199158@phonecall.com</t>
-  </si>
-  <si>
-    <t>mayeli_27oct@hotmail.com</t>
-  </si>
-  <si>
-    <t>5591994910@phonecall.com</t>
-  </si>
-  <si>
-    <t>5522782253@phonecall.com</t>
-  </si>
-  <si>
-    <t>ecarzapalo@gmail.com</t>
-  </si>
-  <si>
-    <t>ingmgce@gmail.com</t>
-  </si>
-  <si>
-    <t>salfille35@gmail.com</t>
-  </si>
-  <si>
-    <t>princerrat340@gmail.com</t>
-  </si>
-  <si>
-    <t>jdiaz5614@gmail.com</t>
-  </si>
-  <si>
-    <t>qasimhibah22@gmail.com</t>
-  </si>
-  <si>
-    <t>gutieguillo@gmail.com</t>
-  </si>
-  <si>
-    <t>dany.dperalta@gmail.com</t>
-  </si>
-  <si>
-    <t>garbonfra2017@gmail.com</t>
-  </si>
-  <si>
-    <t>marusi_2@hotmail.com</t>
-  </si>
-  <si>
-    <t>smartinez@realestategroup.com.mx</t>
-  </si>
-  <si>
-    <t>Ricardoarumbari@gmail.com</t>
-  </si>
-  <si>
-    <t>Laura.mayren@hotmail.com</t>
-  </si>
-  <si>
-    <t>misaelginzalez8076@gmail.com</t>
-  </si>
-  <si>
-    <t>ponchoramon96@gmail.com</t>
-  </si>
-  <si>
-    <t>g.leeua@gmail.com</t>
-  </si>
-  <si>
-    <t>lemjesusantonioriv@gmail.com</t>
-  </si>
-  <si>
-    <t>csbustamante19@gmail.com</t>
-  </si>
-  <si>
-    <t>Nos contacta por whapp. le envié correo general en espera de sus especificaciones</t>
-  </si>
-  <si>
-    <t>Nos contacta por whapp solicito su correo para enviar info. En espera del mail</t>
-  </si>
-  <si>
-    <t>Llama para solicitar informes, quiere 3 recámaras, y presupuesto de no mas de 20 mill. Visitará el desarrollo hoy por la tarde</t>
-  </si>
-  <si>
-    <t>Quiere ver opciones tiene por el momento 8 millones pero puede crecer si vende una propiedad en San Luis Potosi</t>
-  </si>
-  <si>
-    <t>Nos contacta por WHAPP solicité nombre y correo para enviarle info</t>
-  </si>
-  <si>
-    <t>Nos contacta por WHAPP le pedí correo y nombre para enviar info</t>
-  </si>
-  <si>
-    <t>Nos contacta por whapp. Busca RENTA</t>
-  </si>
-  <si>
-    <t>13 - 19 de Abril del 2020</t>
-  </si>
-  <si>
-    <t>Jesus Rivera</t>
-  </si>
-  <si>
-    <t>Busca renta</t>
-  </si>
-  <si>
-    <t>5522779004@phonecall.com</t>
-  </si>
-  <si>
-    <t>5560095731@phonecall.com</t>
-  </si>
-  <si>
-    <t>Gabriela Torres</t>
-  </si>
-  <si>
-    <t>5536776961@phonecall.com</t>
-  </si>
-  <si>
-    <t>Mande varias cotizaciones, esta fuera de su presupuesto, tiene 6 millones y  o quiere napoles</t>
+    <t>2020-04-26 17:51:06</t>
+  </si>
+  <si>
+    <t>2020-04-26 03:46:31</t>
+  </si>
+  <si>
+    <t>2020-04-26 01:12:46</t>
+  </si>
+  <si>
+    <t>2020-04-25 21:01:46</t>
+  </si>
+  <si>
+    <t>2020-04-25 16:00:23</t>
+  </si>
+  <si>
+    <t>2020-04-25 15:47:40</t>
+  </si>
+  <si>
+    <t>2020-04-24 21:12:09</t>
+  </si>
+  <si>
+    <t>2020-04-24 21:09:50</t>
+  </si>
+  <si>
+    <t>2020-04-24 19:02:36</t>
+  </si>
+  <si>
+    <t>2020-04-24 11:14:49</t>
+  </si>
+  <si>
+    <t>2020-04-23 21:18:39</t>
+  </si>
+  <si>
+    <t>2020-04-23 17:56:43</t>
+  </si>
+  <si>
+    <t>2020-04-23 17:14:59</t>
+  </si>
+  <si>
+    <t>2020-04-23 17:12:54</t>
+  </si>
+  <si>
+    <t>2020-04-23 15:40:25</t>
+  </si>
+  <si>
+    <t>2020-04-22 21:35:33</t>
+  </si>
+  <si>
+    <t>2020-04-22 18:59:25</t>
+  </si>
+  <si>
+    <t>2020-04-22 18:58:33</t>
+  </si>
+  <si>
+    <t>2020-04-22 17:52:53</t>
+  </si>
+  <si>
+    <t>2020-04-22 11:21:15</t>
+  </si>
+  <si>
+    <t>2020-04-22 02:50:56</t>
+  </si>
+  <si>
+    <t>2020-04-21 22:56:38</t>
+  </si>
+  <si>
+    <t>2020-04-21 22:17:24</t>
+  </si>
+  <si>
+    <t>2020-04-21 19:23:16</t>
+  </si>
+  <si>
+    <t>2020-04-21 13:01:31</t>
+  </si>
+  <si>
+    <t>2020-04-21 03:49:13</t>
+  </si>
+  <si>
+    <t>2020-04-21 02:08:18</t>
+  </si>
+  <si>
+    <t>2020-04-20 22:57:20</t>
+  </si>
+  <si>
+    <t>2020-04-20 20:19:52</t>
+  </si>
+  <si>
+    <t>2020-04-20 20:01:49</t>
+  </si>
+  <si>
+    <t>2020-04-20 17:07:38</t>
+  </si>
+  <si>
+    <t>2020-04-20 15:49:37</t>
+  </si>
+  <si>
+    <t>2020-04-20 13:32:39</t>
+  </si>
+  <si>
+    <t>2020-04-20 13:03:00</t>
+  </si>
+  <si>
+    <t>Inmuebles24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camila Paez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edith Maria Nereyda Huerta Zúñiga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janitzio Badillo Lozano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tania garcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shadenn+Gonzalez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hector Isaac Elizalde Garcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Rojo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isaac Edid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lolita Davis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wivens Casseus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martín Arrauth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma Cruz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni Castellanos Schiavenato </t>
+  </si>
+  <si>
+    <t>Elver-Gon Zalez</t>
+  </si>
+  <si>
+    <t>Juana Martinez Nava</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddhfessfhjnj . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mo Ni Ca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julia Astrid Suarez Reyna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martinez Isabel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Genaro Hernández Zúñiga </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto Cano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Aguilera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar López Morales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier </t>
+  </si>
+  <si>
+    <t>Liliana De Jesús Marcelino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Miranda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar Medina </t>
+  </si>
+  <si>
+    <t>dicapama17@hotmail.com</t>
+  </si>
+  <si>
+    <t>edithuerta@live.com.mx</t>
+  </si>
+  <si>
+    <t>jbadillo@marathongroup.mx</t>
+  </si>
+  <si>
+    <t>garcia.tania01@gmail.com</t>
+  </si>
+  <si>
+    <t>newperspective121099@gmail.com</t>
+  </si>
+  <si>
+    <t>elizaldehector19@gmail.com</t>
+  </si>
+  <si>
+    <t>juroib@hotmail.com</t>
+  </si>
+  <si>
+    <t>isaac.eb@ediplast.com</t>
+  </si>
+  <si>
+    <t>sebastian.rmz.rmz@gmail.com</t>
+  </si>
+  <si>
+    <t>lolita@concepthaus.mx</t>
+  </si>
+  <si>
+    <t>dr.wivens@yahoo.fr</t>
+  </si>
+  <si>
+    <t>marosarrauth@hotmail.com</t>
+  </si>
+  <si>
+    <t>luisjrb@hotmail.com</t>
+  </si>
+  <si>
+    <t>dusantosneymar@gmail.com</t>
+  </si>
+  <si>
+    <t>cemmaolivia67@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>schiavenato.h@hotmail.com</t>
+  </si>
+  <si>
+    <t>elvergonzalezveteta@gmail.com</t>
+  </si>
+  <si>
+    <t>jujuma619@gmail.com</t>
+  </si>
+  <si>
+    <t>jdtjegdj@gmail.com</t>
+  </si>
+  <si>
+    <t>monielizabeth12@gmail.com</t>
+  </si>
+  <si>
+    <t>juliartemisa@hotmail.com</t>
+  </si>
+  <si>
+    <t>Isabel@c21fortalezs.com</t>
+  </si>
+  <si>
+    <t>oscar_her1@hotmail.com</t>
+  </si>
+  <si>
+    <t>anasife@gmail.com</t>
+  </si>
+  <si>
+    <t>Albertocano4@hotmail.com</t>
+  </si>
+  <si>
+    <t>dj_craj@hotmail.com</t>
+  </si>
+  <si>
+    <t>valeriamorenodiazz@gmail.com</t>
+  </si>
+  <si>
+    <t>lopezoscar1962@hotmail.com</t>
+  </si>
+  <si>
+    <t>javier_kool_@hotmail.com</t>
+  </si>
+  <si>
+    <t>lili.dejesus@hotmail.com</t>
+  </si>
+  <si>
+    <t>mayelitagarza@yahoo.com</t>
+  </si>
+  <si>
+    <t>robmir@amazon.com</t>
+  </si>
+  <si>
+    <t>medinac.edgar@gmail.com</t>
+  </si>
+  <si>
+    <t>aryduarte75@gmail.com</t>
+  </si>
+  <si>
+    <t>Envié info general</t>
+  </si>
+  <si>
+    <t>Envie un correo general</t>
+  </si>
+  <si>
+    <t>Envie correo con información general</t>
+  </si>
+  <si>
+    <t>Envie correo con info general</t>
+  </si>
+  <si>
+    <t>Es asesora de Century 21 en Tijuana y quiere enviar datos de un terreno en polanco que le dieron en exclusiva. Estoy en espera de los datos del terreno</t>
+  </si>
+  <si>
+    <t>Envie info general</t>
+  </si>
+  <si>
+    <t>Envié correo con informaicón general</t>
+  </si>
+  <si>
+    <t>Le mande x whats app info, tiene 7 millones y quiere 1 recamara, le envie info de nápoles</t>
+  </si>
+  <si>
+    <t>Inmuebles 24</t>
+  </si>
+  <si>
+    <t>20 - 26 de Abril del 2020</t>
+  </si>
+  <si>
+    <t>Ana Laura Sierra</t>
+  </si>
+  <si>
+    <t>Mayela Garza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antonella Diaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ary Duarte </t>
+  </si>
+  <si>
+    <t>Mandé información general, no deja teléfono</t>
+  </si>
+  <si>
+    <t>Prospecto anterior, le envié varias opciones de departamentos y la vista  3D de los departamentos muestra</t>
+  </si>
+  <si>
+    <t>No es un correo ni dejo nombre ni teléfono</t>
   </si>
 </sst>
 </file>
@@ -516,10 +570,9 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <name val="Avenir Book"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -610,11 +663,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,11 +772,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1142,8 +1192,8 @@
   </sheetPr>
   <dimension ref="A4:L238"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1248,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1233,7 +1283,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="34">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>24</v>
@@ -1265,7 +1315,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="34">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1278,7 +1328,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="34">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1298,13 +1348,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
@@ -1315,13 +1365,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1334,7 +1384,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="34">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1347,7 +1397,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
@@ -1356,10 +1406,10 @@
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="E29" s="33" t="s">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="F29" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
@@ -1421,10 +1471,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>2</v>
@@ -1433,16 +1483,14 @@
         <v>17</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G34" s="43">
-        <v>5585309357</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G34" s="43"/>
       <c r="H34" s="43" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="J34" s="12"/>
     </row>
@@ -1454,25 +1502,25 @@
         <v>16</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="G35" s="43">
-        <v>4445500721</v>
+        <v>5580443661</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1483,7 +1531,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>3</v>
@@ -1492,16 +1540,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="G36" s="43">
-        <v>5540183985</v>
+        <v>6644031020</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1512,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>3</v>
@@ -1521,16 +1569,16 @@
         <v>13</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="G37" s="43">
-        <v>9992427280</v>
+        <v>2871100029</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>37</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1538,10 +1586,10 @@
         <v>5</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>3</v>
@@ -1550,16 +1598,16 @@
         <v>13</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G38" s="43">
-        <v>5524414152</v>
+        <v>5577320549</v>
       </c>
       <c r="H38" s="43" t="s">
         <v>113</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1570,7 +1618,7 @@
         <v>16</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>3</v>
@@ -1579,13 +1627,13 @@
         <v>13</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G39" s="43">
-        <v>5554338420</v>
+        <v>5522954426</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="I39" s="43" t="s">
         <v>14</v>
@@ -1599,7 +1647,7 @@
         <v>16</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>3</v>
@@ -1608,13 +1656,13 @@
         <v>13</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G40" s="43">
-        <v>9933119098</v>
+        <v>9513301952</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="I40" s="43" t="s">
         <v>14</v>
@@ -1625,28 +1673,28 @@
         <v>8</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="G41" s="43">
-        <v>3338147379</v>
+        <v>8331111949</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1654,28 +1702,28 @@
         <v>9</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="G42" s="43">
-        <v>18018657</v>
+        <v>8112555331</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="I42" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1686,7 +1734,7 @@
         <v>15</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>3</v>
@@ -1695,16 +1743,16 @@
         <v>34</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="G43" s="43">
-        <v>6311443067</v>
+        <v>4443991936</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1715,7 +1763,7 @@
         <v>15</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>3</v>
@@ -1724,16 +1772,16 @@
         <v>34</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="G44" s="43">
-        <v>5551784567</v>
+        <v>5526536928</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,10 +1789,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>3</v>
@@ -1753,16 +1801,16 @@
         <v>34</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G45" s="43">
-        <v>393287539661</v>
+        <v>5543193111</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1770,10 +1818,10 @@
         <v>13</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>3</v>
@@ -1782,16 +1830,16 @@
         <v>34</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="G46" s="43">
-        <v>9541687333</v>
+        <v>3133260751</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1799,10 +1847,10 @@
         <v>14</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>3</v>
@@ -1811,14 +1859,16 @@
         <v>34</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="43"/>
+        <v>86</v>
+      </c>
+      <c r="G47" s="43">
+        <v>5548903487</v>
+      </c>
       <c r="H47" s="43" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1826,10 +1876,10 @@
         <v>15</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>3</v>
@@ -1838,16 +1888,14 @@
         <v>34</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="43" t="s">
-        <v>93</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="G48" s="43"/>
       <c r="H48" s="43" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1855,10 +1903,10 @@
         <v>16</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>3</v>
@@ -1867,16 +1915,14 @@
         <v>34</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49" s="43">
-        <v>5522998030</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="G49" s="43"/>
       <c r="H49" s="43" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="J49" s="12"/>
     </row>
@@ -1885,10 +1931,10 @@
         <v>17</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>3</v>
@@ -1897,16 +1943,16 @@
         <v>34</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G50" s="43">
-        <v>937340611</v>
+        <v>5510474287</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="I50" s="43" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1914,10 +1960,10 @@
         <v>18</v>
       </c>
       <c r="B51" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>3</v>
@@ -1926,16 +1972,16 @@
         <v>34</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="G51" s="43">
-        <v>9211782126</v>
+        <v>5560705110</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="I51" s="43" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1946,25 +1992,25 @@
         <v>15</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E52" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="G52" s="43">
-        <v>5547767338</v>
+        <v>5527116071</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="I52" s="43" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1972,28 +2018,28 @@
         <v>20</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E53" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G53" s="43">
-        <v>5544854547</v>
+        <v>5560779227</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I53" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2001,28 +2047,28 @@
         <v>21</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G54" s="43">
-        <v>5584754348</v>
+        <v>2223206478</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I54" s="43" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2033,19 +2079,19 @@
         <v>16</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G55" s="43">
-        <v>36305885001</v>
+        <v>5523500743</v>
       </c>
       <c r="H55" s="43" t="s">
         <v>108</v>
@@ -2062,19 +2108,19 @@
         <v>16</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G56" s="43">
-        <v>5544898789</v>
+        <v>5513337715</v>
       </c>
       <c r="H56" s="43" t="s">
         <v>110</v>
@@ -2088,28 +2134,28 @@
         <v>24</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G57" s="43">
-        <v>5534199158</v>
+        <v>5543900616</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="I57" s="43" t="s">
-        <v>121</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2117,26 +2163,28 @@
         <v>25</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D58" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F58" s="43"/>
+        <v>34</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>85</v>
+      </c>
       <c r="G58" s="43">
-        <v>5591994910</v>
+        <v>2225645710</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="I58" s="43" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2144,26 +2192,28 @@
         <v>26</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D59" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="43"/>
+        <v>34</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>149</v>
+      </c>
       <c r="G59" s="43">
-        <v>5522782253</v>
+        <v>5534520380</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>102</v>
+        <v>129</v>
       </c>
       <c r="I59" s="43" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2171,26 +2221,28 @@
         <v>27</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C60" s="43" t="s">
         <v>65</v>
       </c>
       <c r="D60" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="43"/>
+        <v>34</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>98</v>
+      </c>
       <c r="G60" s="43">
-        <v>5522779004</v>
-      </c>
-      <c r="H60" s="44" t="s">
-        <v>131</v>
+        <v>9721034411</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>130</v>
       </c>
       <c r="I60" s="43" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2198,26 +2250,28 @@
         <v>28</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" s="43"/>
+        <v>34</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>150</v>
+      </c>
       <c r="G61" s="43">
-        <v>5560095731</v>
-      </c>
-      <c r="H61" s="44" t="s">
-        <v>132</v>
+        <v>4432140939</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>136</v>
       </c>
       <c r="I61" s="43" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2228,25 +2282,25 @@
         <v>15</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="D62" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G62" s="43">
-        <v>5513715869</v>
+        <v>5561477674</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="I62" s="43" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2254,71 +2308,147 @@
         <v>30</v>
       </c>
       <c r="B63" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="43">
+        <v>5575664641</v>
+      </c>
+      <c r="H63" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>31</v>
+      </c>
+      <c r="B64" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C63" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D63" s="37" t="s">
+      <c r="C64" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="43">
+        <v>5519347302</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>32</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G65" s="43">
+        <v>5541948083</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>33</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" s="43">
-        <v>5536776961</v>
-      </c>
-      <c r="H63" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="I63" s="43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="42"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="42"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-    </row>
-    <row r="65" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="42"/>
-      <c r="C65" s="42"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-    </row>
-    <row r="66" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="42"/>
-      <c r="C66" s="42"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
-      <c r="H66" s="42"/>
-      <c r="I66" s="42"/>
-    </row>
-    <row r="67" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="42"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-    </row>
-    <row r="68" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E66" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="43">
+        <v>55555555</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I66" s="43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>34</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="43">
+        <v>4444444444</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="I67" s="43" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="42"/>
       <c r="C68" s="42"/>
       <c r="D68" s="39"/>
@@ -2328,7 +2458,7 @@
       <c r="H68" s="42"/>
       <c r="I68" s="42"/>
     </row>
-    <row r="69" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="42"/>
       <c r="C69" s="42"/>
       <c r="D69" s="39"/>
@@ -2338,7 +2468,7 @@
       <c r="H69" s="42"/>
       <c r="I69" s="42"/>
     </row>
-    <row r="70" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="42"/>
       <c r="C70" s="42"/>
       <c r="D70" s="39"/>
@@ -2348,7 +2478,7 @@
       <c r="H70" s="42"/>
       <c r="I70" s="42"/>
     </row>
-    <row r="71" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="38"/>
       <c r="C71" s="38"/>
       <c r="D71" s="39"/>
@@ -2358,7 +2488,7 @@
       <c r="H71" s="38"/>
       <c r="I71" s="38"/>
     </row>
-    <row r="72" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="36" t="s">
         <v>20</v>
       </c>
@@ -2371,7 +2501,7 @@
       <c r="I72" s="12"/>
       <c r="J72" s="21"/>
     </row>
-    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="18"/>
       <c r="C73" s="19"/>
       <c r="D73" s="18"/>
@@ -2382,7 +2512,7 @@
       <c r="I73" s="12"/>
       <c r="J73" s="21"/>
     </row>
-    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="18"/>
@@ -2393,7 +2523,7 @@
       <c r="I74" s="12"/>
       <c r="J74" s="21"/>
     </row>
-    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="22" t="s">
         <v>0</v>
       </c>
@@ -2408,7 +2538,7 @@
       <c r="I75" s="12"/>
       <c r="J75" s="21"/>
     </row>
-    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="22" t="s">
         <v>2</v>
       </c>
@@ -2423,7 +2553,7 @@
       <c r="I76" s="12"/>
       <c r="J76" s="21"/>
     </row>
-    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="22" t="s">
         <v>3</v>
       </c>
@@ -2438,7 +2568,7 @@
       <c r="I77" s="12"/>
       <c r="J77" s="21"/>
     </row>
-    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="22" t="s">
         <v>5</v>
       </c>
@@ -2455,7 +2585,7 @@
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2467,7 +2597,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -4379,17 +4509,12 @@
       <c r="L238" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A63">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A67">
     <sortCondition ref="A34"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="H60" r:id="rId1" xr:uid="{55DF515D-45A3-4C74-84B5-2AEAE967260C}"/>
-    <hyperlink ref="H61" r:id="rId2" xr:uid="{44291342-2D56-4E10-AD7D-9E60B0DCE263}"/>
-    <hyperlink ref="H63" r:id="rId3" xr:uid="{E3D5B905-A15D-4B81-A377-A9CE089610A5}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7710DB94-8F0E-814F-837C-CCEB9C9A99FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43DFA26-6934-B44E-A48E-5C2D628BFB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31200" yWindow="460" windowWidth="32000" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25880" yWindow="580" windowWidth="38120" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
   <si>
     <t>A</t>
   </si>
@@ -143,355 +143,190 @@
     <t>Envié correo con info general</t>
   </si>
   <si>
-    <t>Envié correo con información general</t>
+    <t>Envié info general</t>
+  </si>
+  <si>
+    <t>Inmuebles 24</t>
+  </si>
+  <si>
+    <t>27 de Abril - 03 de Mayol del 2020</t>
+  </si>
+  <si>
+    <t>2020-05-02 22:24:08</t>
+  </si>
+  <si>
+    <t>2020-05-02 00:46:40</t>
+  </si>
+  <si>
+    <t>2020-05-02 00:45:55</t>
+  </si>
+  <si>
+    <t>2020-05-01 23:03:51</t>
+  </si>
+  <si>
+    <t>2020-05-01 19:25:07</t>
+  </si>
+  <si>
+    <t>2020-05-01 19:24:35</t>
+  </si>
+  <si>
+    <t>2020-05-01 19:23:55</t>
+  </si>
+  <si>
+    <t>2020-04-30 14:02:24</t>
+  </si>
+  <si>
+    <t>2020-04-29 19:44:35</t>
+  </si>
+  <si>
+    <t>2020-04-29 17:06:25</t>
+  </si>
+  <si>
+    <t>2020-04-29 13:11:44</t>
+  </si>
+  <si>
+    <t>2020-04-28 17:22:17</t>
+  </si>
+  <si>
+    <t>2020-04-27 19:46:51</t>
+  </si>
+  <si>
+    <t>2020-04-27 15:54:16</t>
+  </si>
+  <si>
+    <t>2020-04-27 12:56:42</t>
+  </si>
+  <si>
+    <t>2020-04-27 12:49:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cesar Cen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consuelo Montiel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen Lemus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pamela Montiel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Valencia Puebla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roberto Mariles Garcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra H. McIntosh </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yelena Ramirez </t>
+  </si>
+  <si>
+    <t>Jesus Emiliano Hernandez Sandoval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monika EL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raúl monraz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosa Guadalupe Matos Leslie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Valadez </t>
+  </si>
+  <si>
+    <t>Elizabeth Balderas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva Margarita Arellano Galindo </t>
+  </si>
+  <si>
+    <t>ccendon@hotmail.com</t>
+  </si>
+  <si>
+    <t>consuemontiel@hotmail.com</t>
+  </si>
+  <si>
+    <t>consuemontiel@hormail.com</t>
+  </si>
+  <si>
+    <t>pelusa_88k@hotmail.com</t>
+  </si>
+  <si>
+    <t>pammontiel@hotmail.com</t>
+  </si>
+  <si>
+    <t>terapsicology@gmail.com</t>
+  </si>
+  <si>
+    <t>roberto_mariles2001@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>sandrahmcintosh@gmail.com</t>
+  </si>
+  <si>
+    <t>jelena.rado.10@gmail.com</t>
+  </si>
+  <si>
+    <t>hernandezsandovaljesusemiliano@gmail.com</t>
+  </si>
+  <si>
+    <t>Monicaespinozaluna@icloud.com</t>
+  </si>
+  <si>
+    <t>raulmonraz_koyama@hotmail.com</t>
+  </si>
+  <si>
+    <t>rosamatosleslie@gmail.com</t>
+  </si>
+  <si>
+    <t>valadez110799@gmail.com</t>
+  </si>
+  <si>
+    <t>elys12007@gmail.com</t>
+  </si>
+  <si>
+    <t>evamau10@gmail.com</t>
+  </si>
+  <si>
+    <t>Enviñe correo solicitando sus necesidades</t>
+  </si>
+  <si>
+    <t>Envie correo solicitando conocer sus necesidades</t>
+  </si>
+  <si>
+    <t>Envié correo solicitando me comparta sus necesidades</t>
+  </si>
+  <si>
+    <t>Envié correo solicitando su necesidades</t>
+  </si>
+  <si>
+    <t>Envié correo solicitando sus comentarios para enviar info</t>
+  </si>
+  <si>
+    <t>Envié correo solicitando conocer sus necesidades</t>
+  </si>
+  <si>
+    <t>Envie correo con info general y solicité me comparta lo que esta buscando</t>
+  </si>
+  <si>
+    <t>Envie correo solicitando sus necesidades para enviar mas info</t>
+  </si>
+  <si>
+    <t>Envio de 2 y 3 rec</t>
   </si>
   <si>
     <t>2020-04-26 17:51:06</t>
   </si>
   <si>
-    <t>2020-04-26 03:46:31</t>
-  </si>
-  <si>
-    <t>2020-04-26 01:12:46</t>
-  </si>
-  <si>
-    <t>2020-04-25 21:01:46</t>
-  </si>
-  <si>
-    <t>2020-04-25 16:00:23</t>
-  </si>
-  <si>
-    <t>2020-04-25 15:47:40</t>
-  </si>
-  <si>
-    <t>2020-04-24 21:12:09</t>
-  </si>
-  <si>
-    <t>2020-04-24 21:09:50</t>
-  </si>
-  <si>
-    <t>2020-04-24 19:02:36</t>
-  </si>
-  <si>
-    <t>2020-04-24 11:14:49</t>
-  </si>
-  <si>
-    <t>2020-04-23 21:18:39</t>
-  </si>
-  <si>
-    <t>2020-04-23 17:56:43</t>
-  </si>
-  <si>
-    <t>2020-04-23 17:14:59</t>
-  </si>
-  <si>
-    <t>2020-04-23 17:12:54</t>
-  </si>
-  <si>
-    <t>2020-04-23 15:40:25</t>
-  </si>
-  <si>
-    <t>2020-04-22 21:35:33</t>
-  </si>
-  <si>
-    <t>2020-04-22 18:59:25</t>
-  </si>
-  <si>
-    <t>2020-04-22 18:58:33</t>
-  </si>
-  <si>
-    <t>2020-04-22 17:52:53</t>
-  </si>
-  <si>
-    <t>2020-04-22 11:21:15</t>
-  </si>
-  <si>
-    <t>2020-04-22 02:50:56</t>
-  </si>
-  <si>
-    <t>2020-04-21 22:56:38</t>
-  </si>
-  <si>
-    <t>2020-04-21 22:17:24</t>
-  </si>
-  <si>
-    <t>2020-04-21 19:23:16</t>
-  </si>
-  <si>
-    <t>2020-04-21 13:01:31</t>
-  </si>
-  <si>
-    <t>2020-04-21 03:49:13</t>
-  </si>
-  <si>
-    <t>2020-04-21 02:08:18</t>
-  </si>
-  <si>
-    <t>2020-04-20 22:57:20</t>
-  </si>
-  <si>
-    <t>2020-04-20 20:19:52</t>
-  </si>
-  <si>
-    <t>2020-04-20 20:01:49</t>
-  </si>
-  <si>
-    <t>2020-04-20 17:07:38</t>
-  </si>
-  <si>
-    <t>2020-04-20 15:49:37</t>
-  </si>
-  <si>
-    <t>2020-04-20 13:32:39</t>
-  </si>
-  <si>
-    <t>2020-04-20 13:03:00</t>
-  </si>
-  <si>
-    <t>Inmuebles24</t>
-  </si>
-  <si>
     <t xml:space="preserve">Camila Paez </t>
   </si>
   <si>
-    <t xml:space="preserve">Edith Maria Nereyda Huerta Zúñiga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Janitzio Badillo Lozano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tania garcia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadenn+Gonzalez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hector Isaac Elizalde Garcia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Rojo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaac Edid </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lolita Davis </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wivens Casseus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martín Arrauth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis River </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angek </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emma Cruz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giovanni Castellanos Schiavenato </t>
-  </si>
-  <si>
-    <t>Elver-Gon Zalez</t>
-  </si>
-  <si>
-    <t>Juana Martinez Nava</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddhfessfhjnj . </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mo Ni Ca </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julia Astrid Suarez Reyna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martinez Isabel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Genaro Hernández Zúñiga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto Cano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Aguilera </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar López Morales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier </t>
-  </si>
-  <si>
-    <t>Liliana De Jesús Marcelino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberto Miranda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edgar Medina </t>
-  </si>
-  <si>
     <t>dicapama17@hotmail.com</t>
-  </si>
-  <si>
-    <t>edithuerta@live.com.mx</t>
-  </si>
-  <si>
-    <t>jbadillo@marathongroup.mx</t>
-  </si>
-  <si>
-    <t>garcia.tania01@gmail.com</t>
-  </si>
-  <si>
-    <t>newperspective121099@gmail.com</t>
-  </si>
-  <si>
-    <t>elizaldehector19@gmail.com</t>
-  </si>
-  <si>
-    <t>juroib@hotmail.com</t>
-  </si>
-  <si>
-    <t>isaac.eb@ediplast.com</t>
-  </si>
-  <si>
-    <t>sebastian.rmz.rmz@gmail.com</t>
-  </si>
-  <si>
-    <t>lolita@concepthaus.mx</t>
-  </si>
-  <si>
-    <t>dr.wivens@yahoo.fr</t>
-  </si>
-  <si>
-    <t>marosarrauth@hotmail.com</t>
-  </si>
-  <si>
-    <t>luisjrb@hotmail.com</t>
-  </si>
-  <si>
-    <t>dusantosneymar@gmail.com</t>
-  </si>
-  <si>
-    <t>cemmaolivia67@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>schiavenato.h@hotmail.com</t>
-  </si>
-  <si>
-    <t>elvergonzalezveteta@gmail.com</t>
-  </si>
-  <si>
-    <t>jujuma619@gmail.com</t>
-  </si>
-  <si>
-    <t>jdtjegdj@gmail.com</t>
-  </si>
-  <si>
-    <t>monielizabeth12@gmail.com</t>
-  </si>
-  <si>
-    <t>juliartemisa@hotmail.com</t>
-  </si>
-  <si>
-    <t>Isabel@c21fortalezs.com</t>
-  </si>
-  <si>
-    <t>oscar_her1@hotmail.com</t>
-  </si>
-  <si>
-    <t>anasife@gmail.com</t>
-  </si>
-  <si>
-    <t>Albertocano4@hotmail.com</t>
-  </si>
-  <si>
-    <t>dj_craj@hotmail.com</t>
-  </si>
-  <si>
-    <t>valeriamorenodiazz@gmail.com</t>
-  </si>
-  <si>
-    <t>lopezoscar1962@hotmail.com</t>
-  </si>
-  <si>
-    <t>javier_kool_@hotmail.com</t>
-  </si>
-  <si>
-    <t>lili.dejesus@hotmail.com</t>
-  </si>
-  <si>
-    <t>mayelitagarza@yahoo.com</t>
-  </si>
-  <si>
-    <t>robmir@amazon.com</t>
-  </si>
-  <si>
-    <t>medinac.edgar@gmail.com</t>
-  </si>
-  <si>
-    <t>aryduarte75@gmail.com</t>
-  </si>
-  <si>
-    <t>Envié info general</t>
-  </si>
-  <si>
-    <t>Envie un correo general</t>
-  </si>
-  <si>
-    <t>Envie correo con información general</t>
-  </si>
-  <si>
-    <t>Envie correo con info general</t>
-  </si>
-  <si>
-    <t>Es asesora de Century 21 en Tijuana y quiere enviar datos de un terreno en polanco que le dieron en exclusiva. Estoy en espera de los datos del terreno</t>
-  </si>
-  <si>
-    <t>Envie info general</t>
-  </si>
-  <si>
-    <t>Envié correo con informaicón general</t>
-  </si>
-  <si>
-    <t>Le mande x whats app info, tiene 7 millones y quiere 1 recamara, le envie info de nápoles</t>
-  </si>
-  <si>
-    <t>Inmuebles 24</t>
-  </si>
-  <si>
-    <t>20 - 26 de Abril del 2020</t>
-  </si>
-  <si>
-    <t>Ana Laura Sierra</t>
-  </si>
-  <si>
-    <t>Mayela Garza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antonella Diaz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ary Duarte </t>
-  </si>
-  <si>
-    <t>Mandé información general, no deja teléfono</t>
-  </si>
-  <si>
-    <t>Prospecto anterior, le envié varias opciones de departamentos y la vista  3D de los departamentos muestra</t>
-  </si>
-  <si>
-    <t>No es un correo ni dejo nombre ni teléfono</t>
   </si>
 </sst>
 </file>
@@ -501,7 +336,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -566,12 +401,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF404040"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Avenir Book"/>
       <family val="2"/>
     </font>
@@ -772,7 +601,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,13 +675,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>12757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1190,10 +1019,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L238"/>
+  <dimension ref="A4:L220"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1248,7 +1077,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>146</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1283,7 +1112,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="34">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>24</v>
@@ -1302,7 +1131,7 @@
         <v>25</v>
       </c>
       <c r="F21" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="31"/>
@@ -1315,7 +1144,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="34">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1328,7 +1157,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1348,13 +1177,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
@@ -1365,7 +1194,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>32</v>
@@ -1384,7 +1213,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="34">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1397,7 +1226,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
@@ -1406,10 +1235,10 @@
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="E29" s="33" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F29" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
@@ -1471,26 +1300,28 @@
         <v>1</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D34" s="37" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E34" s="43" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>147</v>
-      </c>
-      <c r="G34" s="43"/>
+        <v>62</v>
+      </c>
+      <c r="G34" s="43">
+        <v>16502081581</v>
+      </c>
       <c r="H34" s="43" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>152</v>
+        <v>91</v>
       </c>
       <c r="J34" s="12"/>
     </row>
@@ -1499,28 +1330,28 @@
         <v>2</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="G35" s="43">
-        <v>5580443661</v>
+        <v>6682363462</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1531,25 +1362,25 @@
         <v>15</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="G36" s="43">
-        <v>6644031020</v>
+        <v>5551015499</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>141</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1560,25 +1391,25 @@
         <v>15</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="G37" s="43">
-        <v>2871100029</v>
+        <v>5579167635</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1586,28 +1417,28 @@
         <v>5</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="G38" s="43">
-        <v>5577320549</v>
+        <v>6671510713</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1615,28 +1446,28 @@
         <v>6</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G39" s="43">
-        <v>5522954426</v>
+        <v>8126038505</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1644,28 +1475,28 @@
         <v>7</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="G40" s="43">
-        <v>9513301952</v>
+        <v>57001110</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1676,22 +1507,22 @@
         <v>16</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="G41" s="43">
-        <v>8331111949</v>
+        <v>5551015499</v>
       </c>
       <c r="H41" s="43" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="I41" s="43" t="s">
         <v>14</v>
@@ -1705,22 +1536,22 @@
         <v>16</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="G42" s="43">
-        <v>8112555331</v>
+        <v>14132043841</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="I42" s="43" t="s">
         <v>14</v>
@@ -1734,25 +1565,25 @@
         <v>15</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G43" s="43">
-        <v>4443991936</v>
+        <v>525544999880</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1769,19 +1600,19 @@
         <v>3</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="G44" s="43">
-        <v>5526536928</v>
+        <v>34676173518</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1798,19 +1629,19 @@
         <v>3</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="G45" s="43">
-        <v>5543193111</v>
+        <v>525527159235</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1818,28 +1649,28 @@
         <v>13</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G46" s="43">
-        <v>3133260751</v>
+        <v>525555555555</v>
       </c>
       <c r="H46" s="43" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1847,28 +1678,28 @@
         <v>14</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="G47" s="43">
-        <v>5548903487</v>
+        <v>525531424063</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1879,26 +1710,28 @@
         <v>15</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="G48" s="43"/>
+        <v>64</v>
+      </c>
+      <c r="G48" s="43">
+        <v>6692288647</v>
+      </c>
       <c r="H48" s="43" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
@@ -1906,35 +1739,37 @@
         <v>15</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="G49" s="43"/>
+        <v>69</v>
+      </c>
+      <c r="G49" s="43">
+        <v>5543237718</v>
+      </c>
       <c r="H49" s="43" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>17</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>3</v>
@@ -1943,649 +1778,365 @@
         <v>34</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G50" s="43">
-        <v>5510474287</v>
+        <v>5560779227</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="I50" s="43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>18</v>
-      </c>
-      <c r="B51" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C51" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D51" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+    </row>
+    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+    </row>
+    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+    </row>
+    <row r="54" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="19"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="21"/>
+    </row>
+    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="18"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="18"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="21"/>
+    </row>
+    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="21"/>
+    </row>
+    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" s="24"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="21"/>
+    </row>
+    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="G51" s="43">
-        <v>5560705110</v>
-      </c>
-      <c r="H51" s="43" t="s">
-        <v>133</v>
-      </c>
-      <c r="I51" s="43" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>19</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="G52" s="43">
-        <v>5527116071</v>
-      </c>
-      <c r="H52" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="I52" s="43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>20</v>
-      </c>
-      <c r="B53" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" s="43">
-        <v>5560779227</v>
-      </c>
-      <c r="H53" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="I53" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>21</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F54" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" s="43">
-        <v>2223206478</v>
-      </c>
-      <c r="H54" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="I54" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>22</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F55" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="43">
-        <v>5523500743</v>
-      </c>
-      <c r="H55" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="I55" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>23</v>
-      </c>
-      <c r="B56" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" s="43">
-        <v>5513337715</v>
-      </c>
-      <c r="H56" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="I56" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>24</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="D57" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F57" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="G57" s="43">
-        <v>5543900616</v>
-      </c>
-      <c r="H57" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="I57" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>25</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F58" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="G58" s="43">
-        <v>2225645710</v>
-      </c>
-      <c r="H58" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="I58" s="43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>26</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="D59" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="G59" s="43">
-        <v>5534520380</v>
-      </c>
-      <c r="H59" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="I59" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>27</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F60" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="G60" s="43">
-        <v>9721034411</v>
-      </c>
-      <c r="H60" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="I60" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>28</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="G61" s="43">
-        <v>4432140939</v>
-      </c>
-      <c r="H61" s="43" t="s">
-        <v>136</v>
-      </c>
-      <c r="I61" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>29</v>
-      </c>
-      <c r="B62" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="F62" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="G62" s="43">
-        <v>5561477674</v>
-      </c>
-      <c r="H62" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="I62" s="43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>30</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F63" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="G63" s="43">
-        <v>5575664641</v>
-      </c>
-      <c r="H63" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="I63" s="43" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="C59" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="21"/>
+    </row>
+    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+    </row>
+    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+    </row>
+    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+    </row>
+    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+    </row>
+    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+    </row>
+    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+    </row>
+    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D64" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E64" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="F64" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" s="43">
-        <v>5519347302</v>
-      </c>
-      <c r="H64" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="I64" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>32</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D65" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="E65" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F65" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65" s="43">
-        <v>5541948083</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="I65" s="43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>33</v>
-      </c>
-      <c r="B66" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="G66" s="43">
-        <v>55555555</v>
-      </c>
-      <c r="H66" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="I66" s="43" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>34</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D67" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E67" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G67" s="43">
-        <v>4444444444</v>
-      </c>
-      <c r="H67" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="I67" s="43" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-    </row>
-    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-    </row>
-    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-    </row>
-    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-    </row>
-    <row r="72" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="21"/>
-    </row>
-    <row r="73" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="18"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="21"/>
-    </row>
-    <row r="74" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="18"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="21"/>
-    </row>
-    <row r="75" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D75" s="24"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="26"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="21"/>
-    </row>
-    <row r="76" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D76" s="24"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="21"/>
-    </row>
-    <row r="77" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D77" s="24"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="26"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="21"/>
-    </row>
-    <row r="78" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="30"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+    </row>
+    <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+    </row>
+    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+    </row>
+    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+    </row>
+    <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+    </row>
+    <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+    </row>
+    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+    </row>
+    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+    </row>
+    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+    </row>
+    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+    </row>
+    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+    </row>
+    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+    </row>
+    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6"/>
       <c r="I78" s="6"/>
       <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
     </row>
-    <row r="79" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
@@ -2597,7 +2148,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
     </row>
-    <row r="80" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -2646,9 +2197,7 @@
       <c r="L83" s="6"/>
     </row>
     <row r="84" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="B84" s="6"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
@@ -2672,15 +2221,14 @@
       <c r="L85" s="6"/>
     </row>
     <row r="86" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="3"/>
-      <c r="J86" s="3"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
     </row>
@@ -4292,224 +3840,8 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
     </row>
-    <row r="221" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
-      <c r="D221" s="6"/>
-      <c r="E221" s="6"/>
-      <c r="F221" s="5"/>
-      <c r="G221" s="6"/>
-      <c r="I221" s="6"/>
-      <c r="J221" s="6"/>
-      <c r="K221" s="6"/>
-      <c r="L221" s="6"/>
-    </row>
-    <row r="222" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
-      <c r="D222" s="6"/>
-      <c r="E222" s="6"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="6"/>
-      <c r="I222" s="6"/>
-      <c r="J222" s="6"/>
-      <c r="K222" s="6"/>
-      <c r="L222" s="6"/>
-    </row>
-    <row r="223" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
-      <c r="E223" s="6"/>
-      <c r="F223" s="5"/>
-      <c r="G223" s="6"/>
-      <c r="I223" s="6"/>
-      <c r="J223" s="6"/>
-      <c r="K223" s="6"/>
-      <c r="L223" s="6"/>
-    </row>
-    <row r="224" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="6"/>
-      <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
-      <c r="E224" s="6"/>
-      <c r="F224" s="5"/>
-      <c r="G224" s="6"/>
-      <c r="I224" s="6"/>
-      <c r="J224" s="6"/>
-      <c r="K224" s="6"/>
-      <c r="L224" s="6"/>
-    </row>
-    <row r="225" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
-      <c r="D225" s="6"/>
-      <c r="E225" s="6"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="6"/>
-      <c r="I225" s="6"/>
-      <c r="J225" s="6"/>
-      <c r="K225" s="6"/>
-      <c r="L225" s="6"/>
-    </row>
-    <row r="226" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="6"/>
-      <c r="E226" s="6"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="6"/>
-      <c r="I226" s="6"/>
-      <c r="J226" s="6"/>
-      <c r="K226" s="6"/>
-      <c r="L226" s="6"/>
-    </row>
-    <row r="227" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="6"/>
-      <c r="C227" s="6"/>
-      <c r="D227" s="6"/>
-      <c r="E227" s="6"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="6"/>
-      <c r="I227" s="6"/>
-      <c r="J227" s="6"/>
-      <c r="K227" s="6"/>
-      <c r="L227" s="6"/>
-    </row>
-    <row r="228" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="6"/>
-      <c r="C228" s="6"/>
-      <c r="D228" s="6"/>
-      <c r="E228" s="6"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="6"/>
-      <c r="I228" s="6"/>
-      <c r="J228" s="6"/>
-      <c r="K228" s="6"/>
-      <c r="L228" s="6"/>
-    </row>
-    <row r="229" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="6"/>
-      <c r="C229" s="6"/>
-      <c r="D229" s="6"/>
-      <c r="E229" s="6"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="6"/>
-      <c r="I229" s="6"/>
-      <c r="J229" s="6"/>
-      <c r="K229" s="6"/>
-      <c r="L229" s="6"/>
-    </row>
-    <row r="230" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
-      <c r="D230" s="6"/>
-      <c r="E230" s="6"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="6"/>
-      <c r="I230" s="6"/>
-      <c r="J230" s="6"/>
-      <c r="K230" s="6"/>
-      <c r="L230" s="6"/>
-    </row>
-    <row r="231" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="6"/>
-      <c r="E231" s="6"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="6"/>
-      <c r="I231" s="6"/>
-      <c r="J231" s="6"/>
-      <c r="K231" s="6"/>
-      <c r="L231" s="6"/>
-    </row>
-    <row r="232" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
-      <c r="D232" s="6"/>
-      <c r="E232" s="6"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="6"/>
-      <c r="I232" s="6"/>
-      <c r="J232" s="6"/>
-      <c r="K232" s="6"/>
-      <c r="L232" s="6"/>
-    </row>
-    <row r="233" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
-      <c r="D233" s="6"/>
-      <c r="E233" s="6"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="6"/>
-      <c r="I233" s="6"/>
-      <c r="J233" s="6"/>
-      <c r="K233" s="6"/>
-      <c r="L233" s="6"/>
-    </row>
-    <row r="234" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
-      <c r="D234" s="6"/>
-      <c r="E234" s="6"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="6"/>
-      <c r="I234" s="6"/>
-      <c r="J234" s="6"/>
-      <c r="K234" s="6"/>
-      <c r="L234" s="6"/>
-    </row>
-    <row r="235" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
-      <c r="D235" s="6"/>
-      <c r="E235" s="6"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="6"/>
-      <c r="I235" s="6"/>
-      <c r="J235" s="6"/>
-      <c r="K235" s="6"/>
-      <c r="L235" s="6"/>
-    </row>
-    <row r="236" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
-      <c r="D236" s="6"/>
-      <c r="E236" s="6"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="6"/>
-      <c r="I236" s="6"/>
-      <c r="J236" s="6"/>
-      <c r="K236" s="6"/>
-      <c r="L236" s="6"/>
-    </row>
-    <row r="237" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
-      <c r="D237" s="6"/>
-      <c r="E237" s="6"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="6"/>
-      <c r="I237" s="6"/>
-      <c r="J237" s="6"/>
-      <c r="K237" s="6"/>
-      <c r="L237" s="6"/>
-    </row>
-    <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
-      <c r="D238" s="6"/>
-      <c r="E238" s="6"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="6"/>
-      <c r="I238" s="6"/>
-      <c r="J238" s="6"/>
-      <c r="K238" s="6"/>
-      <c r="L238" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A67">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A49">
     <sortCondition ref="A34"/>
   </sortState>
   <printOptions horizontalCentered="1"/>

--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43DFA26-6934-B44E-A48E-5C2D628BFB34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B8BFFA-B496-F44A-96CB-E0D87E34BB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25880" yWindow="580" windowWidth="38120" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="152">
   <si>
     <t>A</t>
   </si>
@@ -140,193 +140,352 @@
     <t>Lamudi</t>
   </si>
   <si>
-    <t>Envié correo con info general</t>
-  </si>
-  <si>
-    <t>Envié info general</t>
-  </si>
-  <si>
     <t>Inmuebles 24</t>
   </si>
   <si>
-    <t>27 de Abril - 03 de Mayol del 2020</t>
-  </si>
-  <si>
-    <t>2020-05-02 22:24:08</t>
-  </si>
-  <si>
-    <t>2020-05-02 00:46:40</t>
-  </si>
-  <si>
-    <t>2020-05-02 00:45:55</t>
-  </si>
-  <si>
-    <t>2020-05-01 23:03:51</t>
-  </si>
-  <si>
-    <t>2020-05-01 19:25:07</t>
-  </si>
-  <si>
-    <t>2020-05-01 19:24:35</t>
-  </si>
-  <si>
-    <t>2020-05-01 19:23:55</t>
-  </si>
-  <si>
-    <t>2020-04-30 14:02:24</t>
-  </si>
-  <si>
-    <t>2020-04-29 19:44:35</t>
-  </si>
-  <si>
-    <t>2020-04-29 17:06:25</t>
-  </si>
-  <si>
-    <t>2020-04-29 13:11:44</t>
-  </si>
-  <si>
-    <t>2020-04-28 17:22:17</t>
-  </si>
-  <si>
-    <t>2020-04-27 19:46:51</t>
-  </si>
-  <si>
-    <t>2020-04-27 15:54:16</t>
-  </si>
-  <si>
-    <t>2020-04-27 12:56:42</t>
-  </si>
-  <si>
-    <t>2020-04-27 12:49:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cesar Cen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consuelo Montiel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen Lemus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pamela Montiel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva Valencia Puebla </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberto Mariles Garcia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra H. McIntosh </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yelena Ramirez </t>
-  </si>
-  <si>
-    <t>Jesus Emiliano Hernandez Sandoval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monika EL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raúl monraz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rosa Guadalupe Matos Leslie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexander Valadez </t>
-  </si>
-  <si>
-    <t>Elizabeth Balderas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eva Margarita Arellano Galindo </t>
-  </si>
-  <si>
-    <t>ccendon@hotmail.com</t>
-  </si>
-  <si>
-    <t>consuemontiel@hotmail.com</t>
-  </si>
-  <si>
-    <t>consuemontiel@hormail.com</t>
-  </si>
-  <si>
-    <t>pelusa_88k@hotmail.com</t>
-  </si>
-  <si>
-    <t>pammontiel@hotmail.com</t>
-  </si>
-  <si>
-    <t>terapsicology@gmail.com</t>
-  </si>
-  <si>
-    <t>roberto_mariles2001@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>sandrahmcintosh@gmail.com</t>
-  </si>
-  <si>
-    <t>jelena.rado.10@gmail.com</t>
-  </si>
-  <si>
-    <t>hernandezsandovaljesusemiliano@gmail.com</t>
-  </si>
-  <si>
-    <t>Monicaespinozaluna@icloud.com</t>
-  </si>
-  <si>
-    <t>raulmonraz_koyama@hotmail.com</t>
-  </si>
-  <si>
-    <t>rosamatosleslie@gmail.com</t>
-  </si>
-  <si>
-    <t>valadez110799@gmail.com</t>
-  </si>
-  <si>
-    <t>elys12007@gmail.com</t>
-  </si>
-  <si>
-    <t>evamau10@gmail.com</t>
-  </si>
-  <si>
-    <t>Enviñe correo solicitando sus necesidades</t>
-  </si>
-  <si>
-    <t>Envie correo solicitando conocer sus necesidades</t>
-  </si>
-  <si>
-    <t>Envié correo solicitando me comparta sus necesidades</t>
-  </si>
-  <si>
-    <t>Envié correo solicitando su necesidades</t>
-  </si>
-  <si>
-    <t>Envié correo solicitando sus comentarios para enviar info</t>
-  </si>
-  <si>
     <t>Envié correo solicitando conocer sus necesidades</t>
   </si>
   <si>
-    <t>Envie correo con info general y solicité me comparta lo que esta buscando</t>
-  </si>
-  <si>
-    <t>Envie correo solicitando sus necesidades para enviar mas info</t>
-  </si>
-  <si>
-    <t>Envio de 2 y 3 rec</t>
-  </si>
-  <si>
-    <t>2020-04-26 17:51:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camila Paez </t>
-  </si>
-  <si>
-    <t>dicapama17@hotmail.com</t>
+    <t>2020-05-10 00:41:27</t>
+  </si>
+  <si>
+    <t>2020-05-09 20:30:46</t>
+  </si>
+  <si>
+    <t>2020-05-09 16:38:58</t>
+  </si>
+  <si>
+    <t>2020-05-09 11:30:10</t>
+  </si>
+  <si>
+    <t>2020-05-09 10:25:48</t>
+  </si>
+  <si>
+    <t>2020-05-09 06:44:42</t>
+  </si>
+  <si>
+    <t>2020-05-08 19:27:42</t>
+  </si>
+  <si>
+    <t>2020-05-08 19:20:20</t>
+  </si>
+  <si>
+    <t>2020-05-08 12:02:17</t>
+  </si>
+  <si>
+    <t>2020-05-08 11:38:31</t>
+  </si>
+  <si>
+    <t>2020-05-08 11:36:33</t>
+  </si>
+  <si>
+    <t>2020-05-07 23:25:21</t>
+  </si>
+  <si>
+    <t>2020-05-07 23:07:23</t>
+  </si>
+  <si>
+    <t>2020-05-07 12:19:43</t>
+  </si>
+  <si>
+    <t>2020-05-06 19:26:31</t>
+  </si>
+  <si>
+    <t>2020-05-06 19:06:34</t>
+  </si>
+  <si>
+    <t>2020-05-06 16:52:13</t>
+  </si>
+  <si>
+    <t>2020-05-06 16:32:03</t>
+  </si>
+  <si>
+    <t>2020-05-06 15:36:36</t>
+  </si>
+  <si>
+    <t>2020-05-06 14:59:17</t>
+  </si>
+  <si>
+    <t>2020-05-06 06:59:41</t>
+  </si>
+  <si>
+    <t>2020-05-06 00:17:54</t>
+  </si>
+  <si>
+    <t>2020-05-05 19:57:47</t>
+  </si>
+  <si>
+    <t>2020-05-05 19:27:25</t>
+  </si>
+  <si>
+    <t>2020-05-05 16:07:56</t>
+  </si>
+  <si>
+    <t>2020-05-05 11:46:08</t>
+  </si>
+  <si>
+    <t>2020-05-05 11:41:14</t>
+  </si>
+  <si>
+    <t>2020-05-05 10:11:31</t>
+  </si>
+  <si>
+    <t>2020-05-04 22:40:26</t>
+  </si>
+  <si>
+    <t>2020-05-04 19:25:38</t>
+  </si>
+  <si>
+    <t>2020-05-04 13:55:55</t>
+  </si>
+  <si>
+    <t>2020-05-04 13:05:58</t>
+  </si>
+  <si>
+    <t>2020-05-04 12:20:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus Roldan Flores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelly Guzmán </t>
+  </si>
+  <si>
+    <t>Mariano Vitale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Cortes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda Bustani </t>
+  </si>
+  <si>
+    <t>Beatriz Narvaez</t>
+  </si>
+  <si>
+    <t>María del Carmen Vargas Torres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paco Ortega </t>
+  </si>
+  <si>
+    <t>Juan Manuel Pérez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alan Luna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benjamín Hernández Chávez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Amatto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafael Jardon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheila Salazar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desy Corral Kassian </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulina Flores </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruben  zambrano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Esteban Montalvo Ruiz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odette Joaly Cabello Rosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Paola Muñoz A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Meza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafa Quique </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diankar Tamayo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kevin sebastian benavides garcia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guillermo Gutierrez A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier H. Orta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Leal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mónica Maldonado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karla Daniela Juárez Oviedo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beatriz E Ramirez </t>
+  </si>
+  <si>
+    <t>(89) 9417-2015</t>
+  </si>
+  <si>
+    <t>Cristopher.mx.com@gmail.com</t>
+  </si>
+  <si>
+    <t>jesus572@hotmail.com</t>
+  </si>
+  <si>
+    <t>kellygeguba0205@gmail.com</t>
+  </si>
+  <si>
+    <t>mariano.e.vitale@gmail.com</t>
+  </si>
+  <si>
+    <t>jorge.cortes@se.com</t>
+  </si>
+  <si>
+    <t>fer_bustani@hotmail.com</t>
+  </si>
+  <si>
+    <t>beatriznarvaez@hotmail.com</t>
+  </si>
+  <si>
+    <t>lova07@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>mpifran@hotmai.com</t>
+  </si>
+  <si>
+    <t>salmaluna1996@gmail.com</t>
+  </si>
+  <si>
+    <t>Alan_luna_22@hotmail.com</t>
+  </si>
+  <si>
+    <t>chaminchavs140219@gmail.com</t>
+  </si>
+  <si>
+    <t>pacoamatto72@gmail.com</t>
+  </si>
+  <si>
+    <t>robcs5@hotmail.com</t>
+  </si>
+  <si>
+    <t>sheilasalazar10468@gmail.com</t>
+  </si>
+  <si>
+    <t>Dcorral261183@gmail.com</t>
+  </si>
+  <si>
+    <t>paulinaflores2102@gmail.com</t>
+  </si>
+  <si>
+    <t>expresion.clasica@gmail.com</t>
+  </si>
+  <si>
+    <t>rodrigomontalvo45@gmail.com</t>
+  </si>
+  <si>
+    <t>jcabellorosa@gmail.com</t>
+  </si>
+  <si>
+    <t>anapaolamua@outlook.com</t>
+  </si>
+  <si>
+    <t>caam72@yahoo.com</t>
+  </si>
+  <si>
+    <t>re.rodriguez@cic-sa.com.mx</t>
+  </si>
+  <si>
+    <t>lic_gigio@hotmail.com</t>
+  </si>
+  <si>
+    <t>kevinbenavides18011@hotmail.com</t>
+  </si>
+  <si>
+    <t>guillermo.gutierrez.amante@gmail.com</t>
+  </si>
+  <si>
+    <t>saseja_s.a@hotmail.com</t>
+  </si>
+  <si>
+    <t>carolhr84@gmail.com</t>
+  </si>
+  <si>
+    <t>alealr77@gmail.com</t>
+  </si>
+  <si>
+    <t>monicamatapia@gmail.com</t>
+  </si>
+  <si>
+    <t>danielajuarez935@gmail.com</t>
+  </si>
+  <si>
+    <t>bearamirez24@gmail.com</t>
+  </si>
+  <si>
+    <t>Quiere rentar un departamento presupuesto 25- 30 mil pesos</t>
+  </si>
+  <si>
+    <t>Envié correo y pedí conocer lo que está buscando</t>
+  </si>
+  <si>
+    <t>Es Broker envié opciones para que conozca el desarrollo</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer lo que busca</t>
+  </si>
+  <si>
+    <t>Envie correo solicitando lo que busca</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer sus necesidades</t>
+  </si>
+  <si>
+    <t>Envie correo para conocer lo que necesita</t>
+  </si>
+  <si>
+    <t>envie correo para conocer lo que busca</t>
+  </si>
+  <si>
+    <t>Envié correo y pregunté cuales son sus neceisdades</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer sus neceisdades</t>
+  </si>
+  <si>
+    <t>Envie correo para conocer sus necesitdades</t>
+  </si>
+  <si>
+    <t>Envié correo y pregunté cual es su necesidad en tamaño</t>
+  </si>
+  <si>
+    <t>04 - 10 de Mayol del 2020</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que está buscando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José  Ignacio Aguilar Tapia </t>
+  </si>
+  <si>
+    <t>ignacio.aguilar@ymail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johan Crhistoopher Castillo Ruíz </t>
   </si>
 </sst>
 </file>
@@ -336,7 +495,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -402,6 +561,13 @@
       <sz val="11"/>
       <color rgb="FF404040"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -492,10 +658,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,9 +768,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -675,13 +844,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>12757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1019,10 +1188,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:L220"/>
+  <dimension ref="A4:L241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1033,7 +1202,7 @@
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="189" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="94.5" style="1" customWidth="1"/>
     <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
@@ -1077,7 +1246,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>147</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1112,7 +1281,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="34">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>24</v>
@@ -1144,7 +1313,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="34">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1157,7 +1326,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1177,13 +1346,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
@@ -1194,13 +1363,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1213,7 +1382,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="34">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1226,7 +1395,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="34">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
@@ -1235,7 +1404,7 @@
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="31"/>
       <c r="E29" s="33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" s="34">
         <v>0</v>
@@ -1303,7 +1472,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>3</v>
@@ -1312,16 +1481,16 @@
         <v>13</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G34" s="43">
-        <v>16502081581</v>
+        <v>7717109013</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="J34" s="12"/>
     </row>
@@ -1333,7 +1502,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>3</v>
@@ -1342,16 +1511,16 @@
         <v>13</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="G35" s="43">
-        <v>6682363462</v>
+        <v>4423366872</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1362,25 +1531,25 @@
         <v>15</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>57</v>
+        <v>96</v>
       </c>
       <c r="G36" s="43">
-        <v>5551015499</v>
+        <v>7979760965</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>88</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1388,28 +1557,28 @@
         <v>4</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="G37" s="43">
-        <v>5579167635</v>
+        <v>5554570826</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1417,28 +1586,28 @@
         <v>5</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C38" s="43" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D38" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="G38" s="43">
-        <v>6671510713</v>
+        <v>5549968665</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="I38" s="43" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1446,28 +1615,28 @@
         <v>6</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="G39" s="43">
-        <v>8126038505</v>
+        <v>5532794870</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>84</v>
+        <v>126</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1478,7 +1647,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>3</v>
@@ -1487,16 +1656,16 @@
         <v>34</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="G40" s="43">
-        <v>57001110</v>
-      </c>
-      <c r="H40" s="43" t="s">
-        <v>86</v>
+        <v>2223514270</v>
+      </c>
+      <c r="H40" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1504,10 +1673,10 @@
         <v>8</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>3</v>
@@ -1516,16 +1685,14 @@
         <v>34</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" s="43">
-        <v>5551015499</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="G41" s="43"/>
       <c r="H41" s="43" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>14</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1533,10 +1700,10 @@
         <v>9</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>3</v>
@@ -1545,16 +1712,16 @@
         <v>34</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="G42" s="43">
-        <v>14132043841</v>
+        <v>5547905109</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="I42" s="43" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,25 +1732,25 @@
         <v>15</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G43" s="43">
-        <v>525544999880</v>
+        <v>4623390341</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1594,25 +1761,25 @@
         <v>15</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="G44" s="43">
-        <v>34676173518</v>
+        <v>5549151959</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1623,25 +1790,25 @@
         <v>15</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="G45" s="43">
-        <v>525527159235</v>
+        <v>2311581851</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1649,28 +1816,26 @@
         <v>13</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="G46" s="43">
-        <v>525555555555</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G46" s="43"/>
       <c r="H46" s="43" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1678,28 +1843,28 @@
         <v>14</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E47" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="G47" s="43">
-        <v>525531424063</v>
+        <v>3053725876</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1710,58 +1875,58 @@
         <v>15</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="G48" s="43">
-        <v>6692288647</v>
+        <v>2225663287</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>16</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="G49" s="43">
-        <v>5543237718</v>
+        <v>5613627951</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="I49" s="43" t="s">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="J49" s="12"/>
     </row>
-    <row r="50" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>17</v>
       </c>
@@ -1769,7 +1934,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>3</v>
@@ -1778,395 +1943,650 @@
         <v>34</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="G50" s="43">
-        <v>5560779227</v>
+        <v>5554621954</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I50" s="43" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-    </row>
-    <row r="52" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="42"/>
-      <c r="C52" s="42"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-    </row>
-    <row r="53" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-    </row>
-    <row r="54" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="36" t="s">
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>18</v>
+      </c>
+      <c r="B51" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G51" s="43">
+        <v>5554374082</v>
+      </c>
+      <c r="H51" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="I51" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>19</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G52" s="43">
+        <v>5510801883</v>
+      </c>
+      <c r="H52" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
         <v>20</v>
       </c>
-      <c r="C54" s="19"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="21"/>
-    </row>
-    <row r="55" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="21"/>
-    </row>
-    <row r="56" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="21"/>
-    </row>
-    <row r="57" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="22" t="s">
+      <c r="B53" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E53" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="43">
+        <v>7751622295</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>21</v>
+      </c>
+      <c r="B54" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="43">
+        <v>4443900788</v>
+      </c>
+      <c r="H54" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="I54" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>22</v>
+      </c>
+      <c r="B55" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="G55" s="43">
+        <v>5579065277</v>
+      </c>
+      <c r="H55" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="I55" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>23</v>
+      </c>
+      <c r="B56" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="43"/>
+      <c r="H56" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="I56" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>24</v>
+      </c>
+      <c r="B57" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G57" s="43">
+        <v>6624708508</v>
+      </c>
+      <c r="H57" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="I57" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>25</v>
+      </c>
+      <c r="B58" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="G58" s="43">
+        <v>5620121672</v>
+      </c>
+      <c r="H58" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>26</v>
+      </c>
+      <c r="B59" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F59" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="G59" s="43">
+        <v>52568515151</v>
+      </c>
+      <c r="H59" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="I59" s="43" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>27</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="G60" s="43">
+        <v>5534662522</v>
+      </c>
+      <c r="H60" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" s="43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>28</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F61" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="G61" s="43">
+        <v>5581481963</v>
+      </c>
+      <c r="H61" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="I61" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>29</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F62" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" s="43">
+        <v>5522147627</v>
+      </c>
+      <c r="H62" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="I62" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>30</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D63" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G63" s="43">
+        <v>5518613729</v>
+      </c>
+      <c r="H63" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="I63" s="43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>31</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" s="43">
+        <v>4431313879</v>
+      </c>
+      <c r="H64" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="I64" s="43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>32</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E65" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F65" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="I65" s="43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>33</v>
+      </c>
+      <c r="B66" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="I66" s="43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
+      <c r="I67" s="43"/>
+    </row>
+    <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+    </row>
+    <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+    </row>
+    <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+    </row>
+    <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+    </row>
+    <row r="72" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+    </row>
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+    </row>
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="38"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="38"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="38"/>
+    </row>
+    <row r="75" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="21"/>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="20"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="21"/>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="21"/>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C78" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="24"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="21"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="22" t="s">
+      <c r="D78" s="24"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C79" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="25"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="21"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="22" t="s">
+      <c r="D79" s="24"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="21"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C80" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="24"/>
-      <c r="E59" s="25"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="21"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="22" t="s">
+      <c r="D80" s="24"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="21"/>
+    </row>
+    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C81" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="D60" s="24"/>
-      <c r="E60" s="25"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="30"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-    </row>
-    <row r="63" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-    </row>
-    <row r="64" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-    </row>
-    <row r="65" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-    </row>
-    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-    </row>
-    <row r="67" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-    </row>
-    <row r="68" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-    </row>
-    <row r="69" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-    </row>
-    <row r="70" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-    </row>
-    <row r="71" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-    </row>
-    <row r="72" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-    </row>
-    <row r="73" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-    </row>
-    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-    </row>
-    <row r="75" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-    </row>
-    <row r="76" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-    </row>
-    <row r="77" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-    </row>
-    <row r="78" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-    </row>
-    <row r="79" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-    </row>
-    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-    </row>
-    <row r="81" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="5"/>
-      <c r="G81" s="6"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="30"/>
       <c r="I81" s="6"/>
       <c r="J81" s="6"/>
       <c r="K81" s="6"/>
@@ -2233,7 +2653,9 @@
       <c r="L86" s="6"/>
     </row>
     <row r="87" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
+      <c r="B87" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -2257,14 +2679,15 @@
       <c r="L88" s="6"/>
     </row>
     <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
     </row>
@@ -3840,13 +4263,268 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
     </row>
+    <row r="221" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="6"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="6"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="5"/>
+      <c r="G221" s="6"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="6"/>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+    </row>
+    <row r="222" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="6"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="6"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="6"/>
+      <c r="K222" s="6"/>
+      <c r="L222" s="6"/>
+    </row>
+    <row r="223" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="6"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="5"/>
+      <c r="G223" s="6"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="6"/>
+      <c r="K223" s="6"/>
+      <c r="L223" s="6"/>
+    </row>
+    <row r="224" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="6"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="5"/>
+      <c r="G224" s="6"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="6"/>
+      <c r="K224" s="6"/>
+      <c r="L224" s="6"/>
+    </row>
+    <row r="225" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B225" s="6"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="5"/>
+      <c r="G225" s="6"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="6"/>
+      <c r="K225" s="6"/>
+      <c r="L225" s="6"/>
+    </row>
+    <row r="226" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="6"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="5"/>
+      <c r="G226" s="6"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+    </row>
+    <row r="227" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B227" s="6"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="6"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="6"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+    </row>
+    <row r="228" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="6"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="6"/>
+      <c r="E228" s="6"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="6"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="6"/>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+    </row>
+    <row r="229" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="6"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="6"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="6"/>
+      <c r="I229" s="6"/>
+      <c r="J229" s="6"/>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+    </row>
+    <row r="230" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="6"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="6"/>
+      <c r="E230" s="6"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="6"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
+      <c r="K230" s="6"/>
+      <c r="L230" s="6"/>
+    </row>
+    <row r="231" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="6"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="6"/>
+      <c r="E231" s="6"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="6"/>
+      <c r="I231" s="6"/>
+      <c r="J231" s="6"/>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+    </row>
+    <row r="232" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="6"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="6"/>
+      <c r="E232" s="6"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="6"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="6"/>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+    </row>
+    <row r="233" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="6"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="6"/>
+      <c r="E233" s="6"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="6"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="6"/>
+      <c r="K233" s="6"/>
+      <c r="L233" s="6"/>
+    </row>
+    <row r="234" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B234" s="6"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="6"/>
+      <c r="E234" s="6"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="6"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="6"/>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+    </row>
+    <row r="235" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="6"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="6"/>
+      <c r="E235" s="6"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="6"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="6"/>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+    </row>
+    <row r="236" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B236" s="6"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="6"/>
+      <c r="E236" s="6"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="6"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="6"/>
+      <c r="K236" s="6"/>
+      <c r="L236" s="6"/>
+    </row>
+    <row r="237" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="6"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="6"/>
+      <c r="E237" s="6"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="6"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="6"/>
+      <c r="K237" s="6"/>
+      <c r="L237" s="6"/>
+    </row>
+    <row r="238" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B238" s="6"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="6"/>
+      <c r="E238" s="6"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="6"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="6"/>
+      <c r="K238" s="6"/>
+      <c r="L238" s="6"/>
+    </row>
+    <row r="239" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="6"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="6"/>
+      <c r="E239" s="6"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="6"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="6"/>
+      <c r="K239" s="6"/>
+      <c r="L239" s="6"/>
+    </row>
+    <row r="240" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="6"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="6"/>
+      <c r="E240" s="6"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="6"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="6"/>
+      <c r="K240" s="6"/>
+      <c r="L240" s="6"/>
+    </row>
+    <row r="241" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="6"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="6"/>
+      <c r="E241" s="6"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="6"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="6"/>
+      <c r="K241" s="6"/>
+      <c r="L241" s="6"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A49">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A66">
     <sortCondition ref="A34"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="H40" r:id="rId1" xr:uid="{8CA5584A-BEE6-4C8C-9671-45FFEBEB6998}"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -1,28 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1B8BFFA-B496-F44A-96CB-E0D87E34BB0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE53E063-5F6C-1043-BE45-212FC9FEA816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="169">
   <si>
     <t>A</t>
   </si>
@@ -143,349 +141,400 @@
     <t>Inmuebles 24</t>
   </si>
   <si>
-    <t>Envié correo solicitando conocer sus necesidades</t>
-  </si>
-  <si>
-    <t>2020-05-10 00:41:27</t>
-  </si>
-  <si>
-    <t>2020-05-09 20:30:46</t>
-  </si>
-  <si>
-    <t>2020-05-09 16:38:58</t>
-  </si>
-  <si>
-    <t>2020-05-09 11:30:10</t>
-  </si>
-  <si>
-    <t>2020-05-09 10:25:48</t>
-  </si>
-  <si>
-    <t>2020-05-09 06:44:42</t>
-  </si>
-  <si>
-    <t>2020-05-08 19:27:42</t>
-  </si>
-  <si>
-    <t>2020-05-08 19:20:20</t>
-  </si>
-  <si>
-    <t>2020-05-08 12:02:17</t>
-  </si>
-  <si>
-    <t>2020-05-08 11:38:31</t>
-  </si>
-  <si>
-    <t>2020-05-08 11:36:33</t>
-  </si>
-  <si>
-    <t>2020-05-07 23:25:21</t>
-  </si>
-  <si>
-    <t>2020-05-07 23:07:23</t>
-  </si>
-  <si>
-    <t>2020-05-07 12:19:43</t>
-  </si>
-  <si>
-    <t>2020-05-06 19:26:31</t>
-  </si>
-  <si>
-    <t>2020-05-06 19:06:34</t>
-  </si>
-  <si>
-    <t>2020-05-06 16:52:13</t>
-  </si>
-  <si>
-    <t>2020-05-06 16:32:03</t>
-  </si>
-  <si>
-    <t>2020-05-06 15:36:36</t>
-  </si>
-  <si>
-    <t>2020-05-06 14:59:17</t>
-  </si>
-  <si>
-    <t>2020-05-06 06:59:41</t>
-  </si>
-  <si>
-    <t>2020-05-06 00:17:54</t>
-  </si>
-  <si>
-    <t>2020-05-05 19:57:47</t>
-  </si>
-  <si>
-    <t>2020-05-05 19:27:25</t>
-  </si>
-  <si>
-    <t>2020-05-05 16:07:56</t>
-  </si>
-  <si>
-    <t>2020-05-05 11:46:08</t>
-  </si>
-  <si>
-    <t>2020-05-05 11:41:14</t>
-  </si>
-  <si>
-    <t>2020-05-05 10:11:31</t>
-  </si>
-  <si>
-    <t>2020-05-04 22:40:26</t>
-  </si>
-  <si>
-    <t>2020-05-04 19:25:38</t>
-  </si>
-  <si>
-    <t>2020-05-04 13:55:55</t>
-  </si>
-  <si>
-    <t>2020-05-04 13:05:58</t>
-  </si>
-  <si>
-    <t>2020-05-04 12:20:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesus Roldan Flores </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kelly Guzmán </t>
-  </si>
-  <si>
-    <t>Mariano Vitale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Cortes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernanda Bustani </t>
-  </si>
-  <si>
-    <t>Beatriz Narvaez</t>
-  </si>
-  <si>
-    <t>María del Carmen Vargas Torres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paco Ortega </t>
-  </si>
-  <si>
-    <t>Juan Manuel Pérez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Luna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamín Hernández Chávez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Amatto </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafael Jardon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheila Salazar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desy Corral Kassian </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulina Flores </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruben  zambrano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Esteban Montalvo Ruiz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Odette Joaly Cabello Rosa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Paola Muñoz A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Meza </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafa Quique </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diankar Tamayo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">kevin sebastian benavides garcia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillermo Gutierrez A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier H. Orta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliana </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Leal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mónica Maldonado </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karla Daniela Juárez Oviedo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beatriz E Ramirez </t>
-  </si>
-  <si>
-    <t>(89) 9417-2015</t>
-  </si>
-  <si>
-    <t>Cristopher.mx.com@gmail.com</t>
-  </si>
-  <si>
-    <t>jesus572@hotmail.com</t>
-  </si>
-  <si>
-    <t>kellygeguba0205@gmail.com</t>
-  </si>
-  <si>
-    <t>mariano.e.vitale@gmail.com</t>
-  </si>
-  <si>
-    <t>jorge.cortes@se.com</t>
-  </si>
-  <si>
-    <t>fer_bustani@hotmail.com</t>
-  </si>
-  <si>
-    <t>beatriznarvaez@hotmail.com</t>
-  </si>
-  <si>
-    <t>lova07@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>mpifran@hotmai.com</t>
-  </si>
-  <si>
-    <t>salmaluna1996@gmail.com</t>
-  </si>
-  <si>
-    <t>Alan_luna_22@hotmail.com</t>
-  </si>
-  <si>
-    <t>chaminchavs140219@gmail.com</t>
-  </si>
-  <si>
-    <t>pacoamatto72@gmail.com</t>
-  </si>
-  <si>
-    <t>robcs5@hotmail.com</t>
-  </si>
-  <si>
-    <t>sheilasalazar10468@gmail.com</t>
-  </si>
-  <si>
-    <t>Dcorral261183@gmail.com</t>
-  </si>
-  <si>
-    <t>paulinaflores2102@gmail.com</t>
-  </si>
-  <si>
-    <t>expresion.clasica@gmail.com</t>
-  </si>
-  <si>
-    <t>rodrigomontalvo45@gmail.com</t>
-  </si>
-  <si>
-    <t>jcabellorosa@gmail.com</t>
-  </si>
-  <si>
-    <t>anapaolamua@outlook.com</t>
-  </si>
-  <si>
-    <t>caam72@yahoo.com</t>
-  </si>
-  <si>
-    <t>re.rodriguez@cic-sa.com.mx</t>
-  </si>
-  <si>
-    <t>lic_gigio@hotmail.com</t>
-  </si>
-  <si>
-    <t>kevinbenavides18011@hotmail.com</t>
-  </si>
-  <si>
-    <t>guillermo.gutierrez.amante@gmail.com</t>
-  </si>
-  <si>
-    <t>saseja_s.a@hotmail.com</t>
-  </si>
-  <si>
-    <t>carolhr84@gmail.com</t>
-  </si>
-  <si>
-    <t>alealr77@gmail.com</t>
-  </si>
-  <si>
-    <t>monicamatapia@gmail.com</t>
-  </si>
-  <si>
-    <t>danielajuarez935@gmail.com</t>
-  </si>
-  <si>
-    <t>bearamirez24@gmail.com</t>
-  </si>
-  <si>
-    <t>Quiere rentar un departamento presupuesto 25- 30 mil pesos</t>
-  </si>
-  <si>
-    <t>Envié correo y pedí conocer lo que está buscando</t>
-  </si>
-  <si>
-    <t>Es Broker envié opciones para que conozca el desarrollo</t>
-  </si>
-  <si>
     <t>Envié correo para conocer lo que busca</t>
   </si>
   <si>
-    <t>Envie correo solicitando lo que busca</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer sus necesidades</t>
-  </si>
-  <si>
-    <t>Envie correo para conocer lo que necesita</t>
-  </si>
-  <si>
-    <t>envie correo para conocer lo que busca</t>
-  </si>
-  <si>
-    <t>Envié correo y pregunté cuales son sus neceisdades</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer sus neceisdades</t>
-  </si>
-  <si>
-    <t>Envie correo para conocer sus necesitdades</t>
-  </si>
-  <si>
-    <t>Envié correo y pregunté cual es su necesidad en tamaño</t>
-  </si>
-  <si>
-    <t>04 - 10 de Mayol del 2020</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer que está buscando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José  Ignacio Aguilar Tapia </t>
-  </si>
-  <si>
-    <t>ignacio.aguilar@ymail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johan Crhistoopher Castillo Ruíz </t>
+    <t>2020-05-17 09:10:41</t>
+  </si>
+  <si>
+    <t>2020-05-17 01:34:19</t>
+  </si>
+  <si>
+    <t>2020-05-17 01:03:49</t>
+  </si>
+  <si>
+    <t>2020-05-16 18:31:50</t>
+  </si>
+  <si>
+    <t>2020-05-16 15:27:27</t>
+  </si>
+  <si>
+    <t>2020-05-16 14:49:33</t>
+  </si>
+  <si>
+    <t>2020-05-16 13:15:18</t>
+  </si>
+  <si>
+    <t>2020-05-16 13:05:52</t>
+  </si>
+  <si>
+    <t>2020-05-15 21:04:15</t>
+  </si>
+  <si>
+    <t>2020-05-15 20:57:23</t>
+  </si>
+  <si>
+    <t>2020-05-15 19:49:56</t>
+  </si>
+  <si>
+    <t>2020-05-15 18:38:09</t>
+  </si>
+  <si>
+    <t>2020-05-15 15:38:43</t>
+  </si>
+  <si>
+    <t>2020-05-15 15:37:47</t>
+  </si>
+  <si>
+    <t>2020-05-15 14:40:35</t>
+  </si>
+  <si>
+    <t>2020-05-14 21:44:29</t>
+  </si>
+  <si>
+    <t>2020-05-14 20:11:30</t>
+  </si>
+  <si>
+    <t>2020-05-14 11:13:56</t>
+  </si>
+  <si>
+    <t>2020-05-14 08:30:03</t>
+  </si>
+  <si>
+    <t>2020-05-14 03:21:47</t>
+  </si>
+  <si>
+    <t>2020-05-14 00:14:23</t>
+  </si>
+  <si>
+    <t>2020-05-14 00:11:07</t>
+  </si>
+  <si>
+    <t>2020-05-13 21:22:04</t>
+  </si>
+  <si>
+    <t>2020-05-13 19:39:38</t>
+  </si>
+  <si>
+    <t>2020-05-13 17:38:09</t>
+  </si>
+  <si>
+    <t>2020-05-13 16:34:16</t>
+  </si>
+  <si>
+    <t>2020-05-13 15:04:05</t>
+  </si>
+  <si>
+    <t>2020-05-13 14:09:46</t>
+  </si>
+  <si>
+    <t>2020-05-13 13:21:21</t>
+  </si>
+  <si>
+    <t>2020-05-13 12:18:57</t>
+  </si>
+  <si>
+    <t>2020-05-12 15:32:58</t>
+  </si>
+  <si>
+    <t>2020-05-12 14:35:00</t>
+  </si>
+  <si>
+    <t>2020-05-12 12:38:29</t>
+  </si>
+  <si>
+    <t>2020-05-12 11:11:06</t>
+  </si>
+  <si>
+    <t>2020-05-12 02:49:00</t>
+  </si>
+  <si>
+    <t>2020-05-11 22:38:40</t>
+  </si>
+  <si>
+    <t>2020-05-11 10:15:06</t>
+  </si>
+  <si>
+    <t>Inmuebles24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pablo Aguilera Casados </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorena Aguirre </t>
+  </si>
+  <si>
+    <t>Josue Roa</t>
+  </si>
+  <si>
+    <t>Jose Blas</t>
+  </si>
+  <si>
+    <t>Tatiana Montllonch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mireya Diaz </t>
+  </si>
+  <si>
+    <t>Santiago Gómez</t>
+  </si>
+  <si>
+    <t>Hugo Alexis Ortiz</t>
+  </si>
+  <si>
+    <t>Estrella Reyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luz Adriana Silva González </t>
+  </si>
+  <si>
+    <t>Ricardo Finkler</t>
+  </si>
+  <si>
+    <t>Hellen Plaschinski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gris Duran </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric Emmanuel Benitez Perez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maribel Sanchez </t>
+  </si>
+  <si>
+    <t>Daniel Galarza Hernández</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ray Glaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo Jair Pineda Díaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernanda Campos </t>
+  </si>
+  <si>
+    <t>America Cerrillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nereida González </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heidi Mar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabián Martínez Montoya </t>
+  </si>
+  <si>
+    <t>America Terrillo</t>
+  </si>
+  <si>
+    <t>Rodrigo Betancourt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cristina Hernández </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerado Luna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joshua Alexis Alday Ortiz </t>
+  </si>
+  <si>
+    <t>Hugo Preciado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katthy Carpio </t>
+  </si>
+  <si>
+    <t>Alan Haro</t>
+  </si>
+  <si>
+    <t>pablonivardo@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>liaguirre@yahoo.com</t>
+  </si>
+  <si>
+    <t>josue.aor9@gmail.com</t>
+  </si>
+  <si>
+    <t>jablasgo@gmail.com</t>
+  </si>
+  <si>
+    <t>tatianamayo@gmail.com</t>
+  </si>
+  <si>
+    <t>jablosgo@gmail.com</t>
+  </si>
+  <si>
+    <t>ramirezkoyoc@gmail.com</t>
+  </si>
+  <si>
+    <t>santiago.sbg@gmail.com</t>
+  </si>
+  <si>
+    <t>hugoalexisortiz284@gmail.com</t>
+  </si>
+  <si>
+    <t>estrellarabago298@gmail.com</t>
+  </si>
+  <si>
+    <t>adrisg1231@gmail.com</t>
+  </si>
+  <si>
+    <t>ricardo@fantasiasmiguel.com</t>
+  </si>
+  <si>
+    <t>hellenplas@gmail.com</t>
+  </si>
+  <si>
+    <t>gris_ds93@hotmail.com</t>
+  </si>
+  <si>
+    <t>ericemmanuel413@gmail.com</t>
+  </si>
+  <si>
+    <t>mtrejo@kionetworks.com</t>
+  </si>
+  <si>
+    <t>dadodedy031110@gmail.com</t>
+  </si>
+  <si>
+    <t>raymundoh81@gmail.com</t>
+  </si>
+  <si>
+    <t>huginalapinguina@gmail.com</t>
+  </si>
+  <si>
+    <t>feribu90@gmail.com</t>
+  </si>
+  <si>
+    <t>americacerrillo@gmail.com</t>
+  </si>
+  <si>
+    <t>sg683384@gmail.com</t>
+  </si>
+  <si>
+    <t>heidi.mar@adippsa.com</t>
+  </si>
+  <si>
+    <t>borreguitobee@me.com</t>
+  </si>
+  <si>
+    <t>fmartimo40@gmail.com</t>
+  </si>
+  <si>
+    <t>5530379540@phonecall.com</t>
+  </si>
+  <si>
+    <t>rodrigo_betancourt@hotmail.com</t>
+  </si>
+  <si>
+    <t>liliavv3@hotmail.com</t>
+  </si>
+  <si>
+    <t>wenby.nocok@gmail.com</t>
+  </si>
+  <si>
+    <t>aniuxbel04@gmail.com</t>
+  </si>
+  <si>
+    <t>gerardo-luna4@outlook.com</t>
+  </si>
+  <si>
+    <t>joshua_tiz@hotmail.com</t>
+  </si>
+  <si>
+    <t>hpreciado@memorialcorp.cpm</t>
+  </si>
+  <si>
+    <t>koleacarpio@gmail.com</t>
+  </si>
+  <si>
+    <t>despacho.alro@hotmail.com</t>
+  </si>
+  <si>
+    <t>Alan.haba@gmail.com</t>
+  </si>
+  <si>
+    <t>Envie correo para contactar y conocer que necesita</t>
+  </si>
+  <si>
+    <t>Envie correo para contactar y saber que es lo que busca</t>
+  </si>
+  <si>
+    <t>Le mando opciones pero quiere el dato exacto del mantenimiento</t>
+  </si>
+  <si>
+    <t>Busca renta no tiene presupuesto suficiente</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que es lo que busca</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que esta buscando</t>
+  </si>
+  <si>
+    <t>Mande info por Whats app, hablar mañana</t>
+  </si>
+  <si>
+    <t>Envie info general del desarrollo a su esposa</t>
+  </si>
+  <si>
+    <t>Envié correo y cotizaciones de los mas chicos 404A 402E 402 F y 301B</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que es lo que esta buscando</t>
+  </si>
+  <si>
+    <t>Busca renta no es su preupuesto</t>
+  </si>
+  <si>
+    <t>Envié correo para saber que es lo que busca</t>
+  </si>
+  <si>
+    <t>Envie correo para saber que necesita</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que necesita</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que es lo que necesita</t>
+  </si>
+  <si>
+    <t>Nos contacta por whapp, le envié correo para conocer que es lo que necesita</t>
+  </si>
+  <si>
+    <t>11 - 17 de Mayol del 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria del Pilar Covarrubias Montaño </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wendy  Eugenio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandra Rami </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valeria Alvarez </t>
+  </si>
+  <si>
+    <t>José Antonio Blas</t>
+  </si>
+  <si>
+    <t>Lilia Vergara</t>
+  </si>
+  <si>
+    <t>dmipueblo@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>Es clienta de Rodrigo betancurt corredor</t>
+  </si>
+  <si>
+    <t>No proporciona teléfono, se envió correo desde Kiper.</t>
   </si>
 </sst>
 </file>
@@ -568,7 +617,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1190,8 +1238,8 @@
   </sheetPr>
   <dimension ref="A4:L241"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1246,7 +1294,7 @@
     </row>
     <row r="16" spans="2:10" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1281,7 +1329,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="34">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E20" s="33" t="s">
         <v>24</v>
@@ -1313,7 +1361,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="34">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="31"/>
@@ -1326,7 +1374,7 @@
         <v>27</v>
       </c>
       <c r="F23" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1346,13 +1394,13 @@
         <v>28</v>
       </c>
       <c r="C25" s="34">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="34">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="41"/>
@@ -1363,13 +1411,13 @@
         <v>29</v>
       </c>
       <c r="C26" s="34">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26" s="33" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="34">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
@@ -1382,7 +1430,7 @@
         <v>34</v>
       </c>
       <c r="F27" s="34">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1395,7 +1443,7 @@
         <v>35</v>
       </c>
       <c r="F28" s="34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
@@ -1407,7 +1455,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
@@ -1472,7 +1520,7 @@
         <v>15</v>
       </c>
       <c r="C34" s="43" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D34" s="37" t="s">
         <v>3</v>
@@ -1481,16 +1529,16 @@
         <v>13</v>
       </c>
       <c r="F34" s="43" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G34" s="43">
-        <v>7717109013</v>
-      </c>
-      <c r="H34" s="43" t="s">
-        <v>104</v>
+        <v>6621560658</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>166</v>
       </c>
       <c r="I34" s="43" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J34" s="12"/>
     </row>
@@ -1502,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D35" s="37" t="s">
         <v>3</v>
@@ -1511,16 +1559,16 @@
         <v>13</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G35" s="43">
-        <v>4423366872</v>
+        <v>5516493641</v>
       </c>
       <c r="H35" s="43" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I35" s="43" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1531,7 +1579,7 @@
         <v>15</v>
       </c>
       <c r="C36" s="43" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D36" s="37" t="s">
         <v>3</v>
@@ -1540,16 +1588,16 @@
         <v>13</v>
       </c>
       <c r="F36" s="43" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="G36" s="43">
-        <v>7979760965</v>
+        <v>5560669665</v>
       </c>
       <c r="H36" s="43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I36" s="43" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.25">
@@ -1557,10 +1605,10 @@
         <v>4</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="43" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="D37" s="37" t="s">
         <v>3</v>
@@ -1569,16 +1617,16 @@
         <v>13</v>
       </c>
       <c r="F37" s="43" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="G37" s="43">
-        <v>5554570826</v>
+        <v>4777271512</v>
       </c>
       <c r="H37" s="43" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I37" s="43" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1598,13 +1646,13 @@
         <v>13</v>
       </c>
       <c r="F38" s="43" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G38" s="43">
-        <v>5549968665</v>
+        <v>5570092163</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="I38" s="43" t="s">
         <v>14</v>
@@ -1615,28 +1663,28 @@
         <v>6</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D39" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F39" s="43" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G39" s="43">
-        <v>5532794870</v>
+        <v>5527041317</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I39" s="43" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1647,7 +1695,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" s="37" t="s">
         <v>3</v>
@@ -1656,16 +1704,16 @@
         <v>34</v>
       </c>
       <c r="F40" s="43" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="G40" s="43">
-        <v>2223514270</v>
-      </c>
-      <c r="H40" s="44" t="s">
-        <v>150</v>
+        <v>5531493585</v>
+      </c>
+      <c r="H40" s="43" t="s">
+        <v>109</v>
       </c>
       <c r="I40" s="43" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1676,7 +1724,7 @@
         <v>15</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>3</v>
@@ -1685,14 +1733,16 @@
         <v>34</v>
       </c>
       <c r="F41" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="G41" s="43"/>
+        <v>88</v>
+      </c>
+      <c r="G41" s="43">
+        <v>2285939451</v>
+      </c>
       <c r="H41" s="43" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="I41" s="43" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1703,7 +1753,7 @@
         <v>15</v>
       </c>
       <c r="C42" s="43" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>3</v>
@@ -1712,16 +1762,16 @@
         <v>34</v>
       </c>
       <c r="F42" s="43" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G42" s="43">
-        <v>5547905109</v>
+        <v>5587633385</v>
       </c>
       <c r="H42" s="43" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="I42" s="43" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1732,7 +1782,7 @@
         <v>15</v>
       </c>
       <c r="C43" s="43" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>3</v>
@@ -1741,16 +1791,16 @@
         <v>34</v>
       </c>
       <c r="F43" s="43" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="G43" s="43">
-        <v>4623390341</v>
+        <v>2811029402</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="I43" s="43" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1758,10 +1808,10 @@
         <v>11</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C44" s="43" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D44" s="37" t="s">
         <v>3</v>
@@ -1770,16 +1820,14 @@
         <v>34</v>
       </c>
       <c r="F44" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="43">
-        <v>5549151959</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="G44" s="43"/>
       <c r="H44" s="43" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="I44" s="43" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1787,10 +1835,10 @@
         <v>12</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" s="43" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D45" s="37" t="s">
         <v>3</v>
@@ -1799,16 +1847,16 @@
         <v>34</v>
       </c>
       <c r="F45" s="43" t="s">
-        <v>88</v>
+        <v>162</v>
       </c>
       <c r="G45" s="43">
-        <v>2311581851</v>
+        <v>9831198020</v>
       </c>
       <c r="H45" s="43" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="I45" s="43" t="s">
-        <v>142</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1816,10 +1864,10 @@
         <v>13</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" s="43" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>3</v>
@@ -1828,14 +1876,16 @@
         <v>34</v>
       </c>
       <c r="F46" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46" s="43"/>
+        <v>85</v>
+      </c>
+      <c r="G46" s="43">
+        <v>5557001989</v>
+      </c>
       <c r="H46" s="43" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I46" s="43" t="s">
-        <v>139</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1843,10 +1893,10 @@
         <v>14</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" s="43" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>3</v>
@@ -1855,16 +1905,16 @@
         <v>34</v>
       </c>
       <c r="F47" s="43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G47" s="43">
-        <v>3053725876</v>
+        <v>7711279286</v>
       </c>
       <c r="H47" s="43" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="I47" s="43" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1872,10 +1922,10 @@
         <v>15</v>
       </c>
       <c r="B48" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" s="43" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>3</v>
@@ -1884,16 +1934,16 @@
         <v>34</v>
       </c>
       <c r="F48" s="43" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G48" s="43">
-        <v>2225663287</v>
+        <v>5526795369</v>
       </c>
       <c r="H48" s="43" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I48" s="43" t="s">
-        <v>146</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1904,7 +1954,7 @@
         <v>16</v>
       </c>
       <c r="C49" s="43" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D49" s="37" t="s">
         <v>3</v>
@@ -1913,13 +1963,13 @@
         <v>34</v>
       </c>
       <c r="F49" s="43" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="G49" s="43">
-        <v>5613627951</v>
+        <v>5547654948</v>
       </c>
       <c r="H49" s="43" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="I49" s="43" t="s">
         <v>14</v>
@@ -1934,7 +1984,7 @@
         <v>16</v>
       </c>
       <c r="C50" s="43" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D50" s="37" t="s">
         <v>3</v>
@@ -1943,13 +1993,13 @@
         <v>34</v>
       </c>
       <c r="F50" s="43" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="G50" s="43">
-        <v>5554621954</v>
+        <v>5579504349</v>
       </c>
       <c r="H50" s="43" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="I50" s="43" t="s">
         <v>14</v>
@@ -1963,7 +2013,7 @@
         <v>16</v>
       </c>
       <c r="C51" s="43" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D51" s="37" t="s">
         <v>3</v>
@@ -1972,13 +2022,13 @@
         <v>34</v>
       </c>
       <c r="F51" s="43" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="G51" s="43">
-        <v>5554374082</v>
+        <v>5547522448</v>
       </c>
       <c r="H51" s="43" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="I51" s="43" t="s">
         <v>14</v>
@@ -1992,7 +2042,7 @@
         <v>16</v>
       </c>
       <c r="C52" s="43" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="D52" s="37" t="s">
         <v>3</v>
@@ -2001,13 +2051,13 @@
         <v>34</v>
       </c>
       <c r="F52" s="43" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="G52" s="43">
-        <v>5510801883</v>
+        <v>5618560563</v>
       </c>
       <c r="H52" s="43" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
       <c r="I52" s="43" t="s">
         <v>14</v>
@@ -2021,7 +2071,7 @@
         <v>16</v>
       </c>
       <c r="C53" s="43" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D53" s="37" t="s">
         <v>3</v>
@@ -2030,13 +2080,13 @@
         <v>34</v>
       </c>
       <c r="F53" s="43" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="G53" s="43">
-        <v>7751622295</v>
+        <v>7473994438</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="I53" s="43" t="s">
         <v>14</v>
@@ -2050,7 +2100,7 @@
         <v>16</v>
       </c>
       <c r="C54" s="43" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D54" s="37" t="s">
         <v>3</v>
@@ -2059,13 +2109,13 @@
         <v>34</v>
       </c>
       <c r="F54" s="43" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="G54" s="43">
-        <v>4443900788</v>
+        <v>8711225105</v>
       </c>
       <c r="H54" s="43" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="I54" s="43" t="s">
         <v>14</v>
@@ -2076,28 +2126,28 @@
         <v>22</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D55" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="43" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="F55" s="43" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G55" s="43">
-        <v>5579065277</v>
+        <v>5523122538</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I55" s="43" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,26 +2155,28 @@
         <v>23</v>
       </c>
       <c r="B56" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D56" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E56" s="43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F56" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="G56" s="43"/>
+        <v>95</v>
+      </c>
+      <c r="G56" s="43">
+        <v>5552136365</v>
+      </c>
       <c r="H56" s="43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I56" s="43" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2132,28 +2184,28 @@
         <v>24</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="43" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="D57" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E57" s="43" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F57" s="43" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G57" s="43">
-        <v>6624708508</v>
+        <v>5537333950</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="I57" s="43" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2161,28 +2213,28 @@
         <v>25</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C58" s="43" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D58" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E58" s="43" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="F58" s="43" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="G58" s="43">
-        <v>5620121672</v>
+        <v>5512314481</v>
       </c>
       <c r="H58" s="43" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="I58" s="43" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2193,25 +2245,25 @@
         <v>15</v>
       </c>
       <c r="C59" s="43" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D59" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E59" s="43" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F59" s="43" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G59" s="43">
-        <v>52568515151</v>
+        <v>5591993186</v>
       </c>
       <c r="H59" s="43" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="I59" s="43" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2222,94 +2274,94 @@
         <v>15</v>
       </c>
       <c r="C60" s="43" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D60" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="43" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F60" s="43" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="G60" s="43">
-        <v>5534662522</v>
+        <v>5554094856</v>
       </c>
       <c r="H60" s="43" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="I60" s="43" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C61" s="43" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="D61" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="43" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F61" s="43" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G61" s="43">
-        <v>5581481963</v>
+        <v>5545526100</v>
       </c>
       <c r="H61" s="43" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="I61" s="43" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B62" s="43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C62" s="43" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D62" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="43" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F62" s="43" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="G62" s="43">
-        <v>5522147627</v>
+        <v>6241848663</v>
       </c>
       <c r="H62" s="43" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="I62" s="43" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B63" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C63" s="43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D63" s="37" t="s">
         <v>3</v>
@@ -2318,24 +2370,24 @@
         <v>17</v>
       </c>
       <c r="F63" s="43" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="G63" s="43">
-        <v>5518613729</v>
+        <v>5537333950</v>
       </c>
       <c r="H63" s="43" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I63" s="43" t="s">
-        <v>137</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B64" s="43" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C64" s="43" t="s">
         <v>46</v>
@@ -2347,21 +2399,21 @@
         <v>17</v>
       </c>
       <c r="F64" s="43" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G64" s="43">
-        <v>4431313879</v>
+        <v>5532248270</v>
       </c>
       <c r="H64" s="43" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I64" s="43" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B65" s="43" t="s">
         <v>16</v>
@@ -2376,84 +2428,162 @@
         <v>17</v>
       </c>
       <c r="F65" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="43" t="s">
-        <v>102</v>
+        <v>84</v>
+      </c>
+      <c r="G65" s="43">
+        <v>3314007120</v>
       </c>
       <c r="H65" s="43" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="I65" s="43" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B66" s="43" t="s">
         <v>16</v>
       </c>
       <c r="C66" s="43" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D66" s="37" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E66" s="43" t="s">
         <v>17</v>
       </c>
       <c r="F66" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="G66" s="43"/>
+        <v>99</v>
+      </c>
+      <c r="G66" s="43">
+        <v>5530379540</v>
+      </c>
       <c r="H66" s="43" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="I66" s="43" t="s">
-        <v>135</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="43"/>
-      <c r="C67" s="43"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="43"/>
+      <c r="A67" s="1">
+        <v>35</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D67" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E67" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="G67" s="43">
+        <v>5530379540</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="I67" s="43" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="68" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="42"/>
-      <c r="C68" s="42"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
+      <c r="A68" s="1">
+        <v>36</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="G68" s="43">
+        <v>5538948739</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I68" s="43" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="69" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
+      <c r="A69" s="1">
+        <v>28</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="G69" s="43">
+        <v>7821722096</v>
+      </c>
+      <c r="H69" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" s="43" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="70" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="42"/>
-      <c r="C70" s="42"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="42"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
+      <c r="A70" s="1">
+        <v>37</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="43">
+        <v>5580127114</v>
+      </c>
+      <c r="H70" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="I70" s="43" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="71" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="42"/>
@@ -4516,11 +4646,11 @@
       <c r="L241" s="6"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A66">
-    <sortCondition ref="A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I70">
+    <sortCondition ref="D34"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H40" r:id="rId1" xr:uid="{8CA5584A-BEE6-4C8C-9671-45FFEBEB6998}"/>
+    <hyperlink ref="H34" r:id="rId1" xr:uid="{9FF54E5D-0812-433F-8290-098F11B28A81}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE74DA7-9BA8-DB41-B01A-56FDC2094837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35656FC-D569-CB47-B3F0-697B744EB2AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$33:$I$58</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
   <si>
     <t>A</t>
   </si>
@@ -129,331 +132,296 @@
     <t>Google</t>
   </si>
   <si>
-    <t>Inmuebles 24</t>
-  </si>
-  <si>
-    <t>Inmuebles24</t>
-  </si>
-  <si>
     <t>Envié correo para conocer que necesita</t>
   </si>
   <si>
     <t>Envié correo para conocer que es lo que necesita</t>
   </si>
   <si>
-    <t>18 - 24 de Mayol del 2020</t>
-  </si>
-  <si>
-    <t>2020-05-23 17:01:09</t>
-  </si>
-  <si>
-    <t>2020-05-23 07:25:40</t>
-  </si>
-  <si>
-    <t>2020-05-22 23:05:42</t>
-  </si>
-  <si>
-    <t>2020-05-22 19:17:35</t>
-  </si>
-  <si>
-    <t>2020-05-22 13:02:33</t>
-  </si>
-  <si>
-    <t>2020-05-22 12:28:00</t>
-  </si>
-  <si>
-    <t>2020-05-22 10:28:46</t>
-  </si>
-  <si>
-    <t>2020-05-21 23:43:21</t>
-  </si>
-  <si>
-    <t>2020-05-21 22:23:21</t>
-  </si>
-  <si>
-    <t>2020-05-21 11:21:45</t>
-  </si>
-  <si>
-    <t>2020-05-20 11:13:01</t>
-  </si>
-  <si>
-    <t>2020-05-20 10:43:22</t>
-  </si>
-  <si>
-    <t>2020-05-20 09:51:19</t>
-  </si>
-  <si>
-    <t>2020-05-20 08:33:54</t>
-  </si>
-  <si>
-    <t>2020-05-19 17:13:53</t>
-  </si>
-  <si>
-    <t>2020-05-19 16:41:39</t>
-  </si>
-  <si>
-    <t>2020-05-19 14:05:25</t>
-  </si>
-  <si>
-    <t>2020-05-19 12:14:39</t>
-  </si>
-  <si>
-    <t>2020-05-19 09:25:02</t>
-  </si>
-  <si>
-    <t>2020-05-19 09:13:25</t>
-  </si>
-  <si>
-    <t>2020-05-19 08:26:00</t>
-  </si>
-  <si>
-    <t>2020-05-19 08:01:33</t>
-  </si>
-  <si>
-    <t>2020-05-19 00:44:22</t>
-  </si>
-  <si>
-    <t>2020-05-18 20:00:39</t>
-  </si>
-  <si>
-    <t>2020-05-18 19:04:35</t>
-  </si>
-  <si>
-    <t>2020-05-18 18:44:33</t>
-  </si>
-  <si>
-    <t>2020-05-18 18:04:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edith Osorio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zenyázhet Esperanza Herrera </t>
-  </si>
-  <si>
-    <t>Andrés Bogar Macotela Macin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moises Blanco </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andree Soto Campa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panques Caseros Álvaro Obregón </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vic Manuel Manuel Hernández Pérez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando Forthon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pierre Sandreschi </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Rodriguez </t>
-  </si>
-  <si>
-    <t>Fernanda Rubín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mireya Leyva </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edgar Osvaldo Aguilar murguia </t>
-  </si>
-  <si>
-    <t>Rosa Duarte</t>
-  </si>
-  <si>
-    <t>Martín Basaldúa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Rosales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marie Chelo Lozada Valderrabano </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Marcelino </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriela Diaz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabian Valdez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berny Branson </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sof Balderas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cecilia Parraga </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yanyxel Perez Molina </t>
-  </si>
-  <si>
-    <t>rnoyaespinosa@gmail.com</t>
-  </si>
-  <si>
-    <t>eosorio1234@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Zenyazhet@pintaliamexico.com</t>
-  </si>
-  <si>
-    <t>andy-23-02-98@gmail.com</t>
-  </si>
-  <si>
-    <t>M_o_y_93@hotmail.com</t>
-  </si>
-  <si>
-    <t>andreescg@hotmail.com</t>
-  </si>
-  <si>
-    <t>iniguez.rodrigo74@gmail.com</t>
-  </si>
-  <si>
-    <t>cimex.com01@gmail.com</t>
-  </si>
-  <si>
-    <t>arq.forthon@gmail.com</t>
-  </si>
-  <si>
-    <t>Pierre.sandreschi@gmail.com</t>
-  </si>
-  <si>
-    <t>luispachuca2323@gmail.com</t>
-  </si>
-  <si>
-    <t>creandoinmobiliaria@gmail.com</t>
-  </si>
-  <si>
-    <t>mireleyva@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>ea666773@gmail.com</t>
-  </si>
-  <si>
-    <t>rosaduartem@gmail.com</t>
-  </si>
-  <si>
-    <t>xiomy_islas@hotmail.com</t>
-  </si>
-  <si>
-    <t>mart.bass23@gmail.com</t>
-  </si>
-  <si>
-    <t>analilyrona@hotmail.com</t>
-  </si>
-  <si>
-    <t>mariechelolv@gmail.com</t>
-  </si>
-  <si>
-    <t>manuelavelezlondono@gmail.com</t>
-  </si>
-  <si>
-    <t>mazacoatl123@gmail.com</t>
-  </si>
-  <si>
-    <t>gabbie_3578@hotmail.com</t>
-  </si>
-  <si>
-    <t>arqfabianvaldez@gmail.com</t>
-  </si>
-  <si>
-    <t>Bsotobranson@hotmail.com</t>
-  </si>
-  <si>
-    <t>sofbalderas@gmail.com</t>
-  </si>
-  <si>
-    <t>cecilia.parraga@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>yanyxelperez4@gmail.com</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer que es lo que neceista</t>
-  </si>
-  <si>
-    <t>Busca renta  --  Busca renta</t>
-  </si>
-  <si>
-    <t>Envié coreo para conocer que es lo que necesita  --  Envié coreo para conocer que es lo que necesita</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer que es lo que necesita  --  Busca renta, depende del presupuesto</t>
-  </si>
-  <si>
-    <t>Envié correo para preguntar que es lo que necesita</t>
-  </si>
-  <si>
-    <t>Telefono manda directo al buzon, deje mensaje y mande mail general x correo  --  Se envió correo desde Kiper.  --  Hable con el y quiere rentar algo de una recamara de 13 a 15 mil pesos</t>
-  </si>
-  <si>
-    <t>BUZON, ENVIO CORREO GENERAL  --  Se envió correo desde Kiper.</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer que busca  --  Envié correo para conocer que busca</t>
-  </si>
-  <si>
-    <t>Se envió correo desde Kiper.  --  NO CONTESTA  --  Se envió correo desde Kiper.  --  NO CONTESTA</t>
-  </si>
-  <si>
-    <t>Envié correo para calificarlo  --  Envié correo para calificarlo</t>
-  </si>
-  <si>
-    <t>Se envió correo desde Kiper.  --  Se envió correo desde Kiper.</t>
-  </si>
-  <si>
-    <t>Envie correo para conocer que es lo que esta buscando</t>
-  </si>
-  <si>
-    <t>Envie  correo para conocer lo que esta b uscando</t>
-  </si>
-  <si>
-    <t>Envíe correo para conocer que necesita</t>
-  </si>
-  <si>
-    <t>Pag Avenue</t>
-  </si>
-  <si>
-    <t>Ramiro Noya</t>
-  </si>
-  <si>
-    <t>Mannuela Velez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xiomara Islas </t>
-  </si>
-  <si>
-    <t>Cliente Anterior</t>
-  </si>
-  <si>
-    <t>Paola Sánchez</t>
-  </si>
-  <si>
-    <t>adrypau8.2018@gmail.com</t>
-  </si>
-  <si>
-    <t>Visita el desarrollo el 22 de mayo, le interesa el PH1E</t>
+    <t>25 - 31 de Mayol del 2020</t>
+  </si>
+  <si>
+    <t>Claudia Castellanos</t>
+  </si>
+  <si>
+    <t>2020-05-31 05:19:09</t>
+  </si>
+  <si>
+    <t>2020-05-30 20:52:10</t>
+  </si>
+  <si>
+    <t>2020-05-30 20:32:40</t>
+  </si>
+  <si>
+    <t>2020-05-30 15:01:39</t>
+  </si>
+  <si>
+    <t>2020-05-30 13:38:03</t>
+  </si>
+  <si>
+    <t>2020-05-29 19:48:36</t>
+  </si>
+  <si>
+    <t>2020-05-29 00:28:01</t>
+  </si>
+  <si>
+    <t>2020-05-27 18:51:52</t>
+  </si>
+  <si>
+    <t>2020-05-27 15:17:45</t>
+  </si>
+  <si>
+    <t>2020-05-26 22:25:13</t>
+  </si>
+  <si>
+    <t>2020-05-26 19:23:52</t>
+  </si>
+  <si>
+    <t>2020-05-26 16:04:58</t>
+  </si>
+  <si>
+    <t>2020-05-26 12:47:40</t>
+  </si>
+  <si>
+    <t>2020-05-26 12:31:40</t>
+  </si>
+  <si>
+    <t>2020-05-26 08:55:08</t>
+  </si>
+  <si>
+    <t>2020-05-26 01:09:08</t>
+  </si>
+  <si>
+    <t>2020-05-25 22:44:24</t>
+  </si>
+  <si>
+    <t>2020-05-25 22:35:13</t>
+  </si>
+  <si>
+    <t>2020-05-25 22:23:46</t>
+  </si>
+  <si>
+    <t>2020-05-25 22:06:37</t>
+  </si>
+  <si>
+    <t>2020-05-25 19:34:17</t>
+  </si>
+  <si>
+    <t>2020-05-25 19:25:06</t>
+  </si>
+  <si>
+    <t>2020-05-25 18:32:27</t>
+  </si>
+  <si>
+    <t>2020-05-25 12:37:26</t>
+  </si>
+  <si>
+    <t>2020-05-25 09:31:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octaviano Buendia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexis Rivas Antonio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marlene Villarreal </t>
+  </si>
+  <si>
+    <t>Juan Pablo Trujillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paola </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesús Sánchez </t>
+  </si>
+  <si>
+    <t>Rodolfo Mijail Ruíz Vera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christian Arechiga Munguia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leonardo Montiel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nelly Estrada </t>
+  </si>
+  <si>
+    <t>Anahí Bejar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscar Hernandez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Carlos VaBu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfredo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Plauchu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruben </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvia Miranda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Day Anne Esquivel Javier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dayana Jatziri Pérez Policarpio </t>
+  </si>
+  <si>
+    <t>Issac Doroteo Hernández</t>
+  </si>
+  <si>
+    <t>octaviano46@hotmail.com</t>
+  </si>
+  <si>
+    <t>lucia.toriello@tmaq.mx</t>
+  </si>
+  <si>
+    <t>alexrivasa7@gmail.com</t>
+  </si>
+  <si>
+    <t>cmarlenevt@hotmail.com</t>
+  </si>
+  <si>
+    <t>jptm1@hotmail.com</t>
+  </si>
+  <si>
+    <t>paola@prueba.com</t>
+  </si>
+  <si>
+    <t>pablos_anbp@hotmail.com</t>
+  </si>
+  <si>
+    <t>info@houzefy.com</t>
+  </si>
+  <si>
+    <t>Ing.arechiga92@gmail.com</t>
+  </si>
+  <si>
+    <t>leonardvelazquez3@gmail.com</t>
+  </si>
+  <si>
+    <t>nellyeestrop@gmail.com</t>
+  </si>
+  <si>
+    <t>anahibejar@gmail.com</t>
+  </si>
+  <si>
+    <t>oscarfrstellis.italiano@gmail.com</t>
+  </si>
+  <si>
+    <t>chavapj@hotmail.com</t>
+  </si>
+  <si>
+    <t>valverdebuhl@gmail.com</t>
+  </si>
+  <si>
+    <t>alfredopmartinez684@gmail.com</t>
+  </si>
+  <si>
+    <t>salazarsalaa@hotmail.com</t>
+  </si>
+  <si>
+    <t>clauskirp@hotmail.com</t>
+  </si>
+  <si>
+    <t>ruben@investrix.mx</t>
+  </si>
+  <si>
+    <t>silvia-dinorah-miranda@hotmail.com</t>
+  </si>
+  <si>
+    <t>lee@the-leverage.com</t>
+  </si>
+  <si>
+    <t>dayanne65@hotmail.com</t>
+  </si>
+  <si>
+    <t>teresacabal@gmail.com</t>
+  </si>
+  <si>
+    <t>jatziri.perezpolicarpio@gmail.com</t>
+  </si>
+  <si>
+    <t>isaac.abidam.123@gmail.com</t>
+  </si>
+  <si>
+    <t>envié correo para conocer lo que busca</t>
+  </si>
+  <si>
+    <t>Envie correo para conocer que necesita</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que busca. No estoy segura que sea real, no pone telefono</t>
+  </si>
+  <si>
+    <t>Broker externo. Le envié info de la promo del 4% para ellos e información del desarrollo.</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que es lo que busca</t>
+  </si>
+  <si>
+    <t>Solicito informacion por whast app, le hable y me dijo que ya nos conocemos es la hija de Isaac Behar y que queria saber los costos de mantenimiento, la canalice con Juan Lopez
+NO es prospecto</t>
+  </si>
+  <si>
+    <t>Se envió correo desde Kiper.  --  telefono incorrecto, envie mail general</t>
+  </si>
+  <si>
+    <t>Envié correo para conoer lo que necesita</t>
+  </si>
+  <si>
+    <t>Whatssapp</t>
+  </si>
+  <si>
+    <t>Pag Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envié correo para conocer que necesita </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envie correo para conocer lo que esta buscando </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envie correo para conocer que necesita. Me pidió info de rentas pero su presupuesto es solo de 30,000  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se envió correo desde Kiper. </t>
   </si>
   <si>
     <t>Broker</t>
   </si>
   <si>
-    <t>América Cerrillos</t>
-  </si>
-  <si>
-    <t>rodrigo_betancourt@hotmail.com</t>
-  </si>
-  <si>
-    <t>Visita el desarrollo el 20 de mayo, le interesa el 201D</t>
+    <t>Envie cotizaciones 404A y 502E para revision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amado salazar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucia Toriello </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lee Ramirez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teresa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ya hizo visita a Napoles </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -463,7 +431,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -531,12 +499,6 @@
       <name val="Avenir Book"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -564,7 +526,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -625,30 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -658,11 +596,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -766,15 +703,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -782,8 +711,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -855,13 +783,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1054100</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>12757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1199,22 +1127,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:I243"/>
+  <dimension ref="A4:I239"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1"/>
+    <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
-    <col min="6" max="7" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="163.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="172.1640625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
@@ -1254,7 +1183,7 @@
     </row>
     <row r="16" spans="2:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1289,7 +1218,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="33">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>23</v>
@@ -1321,7 +1250,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="33">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="30"/>
@@ -1334,7 +1263,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="33">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1354,13 +1283,13 @@
         <v>27</v>
       </c>
       <c r="C25" s="33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="33">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="39"/>
       <c r="H25" s="40"/>
@@ -1371,10 +1300,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="33">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F26" s="33">
         <v>1</v>
@@ -1384,13 +1313,17 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
+      <c r="B27" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="33">
+        <v>1</v>
+      </c>
       <c r="E27" s="32" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1399,11 +1332,11 @@
     <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
-      <c r="E28" s="32" t="s">
-        <v>130</v>
+      <c r="E28" s="42" t="s">
+        <v>117</v>
       </c>
       <c r="F28" s="33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="9"/>
@@ -1411,8 +1344,8 @@
     </row>
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
-      <c r="E29" s="32" t="s">
-        <v>33</v>
+      <c r="E29" s="42" t="s">
+        <v>116</v>
       </c>
       <c r="F29" s="33">
         <v>1</v>
@@ -1423,12 +1356,8 @@
     </row>
     <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
-      <c r="E30" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="51">
-        <v>1</v>
-      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="12"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
@@ -1477,101 +1406,101 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="47">
+      <c r="A34" s="43">
         <v>1</v>
       </c>
-      <c r="B34" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="48">
-        <v>43975.803877314815</v>
+      <c r="B34" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>41</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>139</v>
+        <v>65</v>
       </c>
       <c r="G34" s="42">
-        <v>5530379540</v>
-      </c>
-      <c r="H34" s="49" t="s">
-        <v>140</v>
+        <v>5527432042</v>
+      </c>
+      <c r="H34" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="I34" s="42" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="47">
+      <c r="A35" s="43">
         <v>2</v>
       </c>
-      <c r="B35" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="48">
-        <v>43975.803877314815</v>
+      <c r="B35" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="G35" s="42">
-        <v>5516370456</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>136</v>
+        <v>5572310190</v>
+      </c>
+      <c r="H35" s="42" t="s">
+        <v>90</v>
       </c>
       <c r="I35" s="42" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="47">
+      <c r="A36" s="43">
         <v>3</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D36" s="36" t="s">
         <v>2</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G36" s="42">
-        <v>59898388484</v>
+        <v>7122310761</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I36" s="42" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="47">
+      <c r="A37" s="43">
         <v>4</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D37" s="36" t="s">
         <v>3</v>
@@ -1580,23 +1509,23 @@
         <v>13</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G37" s="42">
-        <v>4421136497</v>
+        <v>5544541447</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I37" s="42" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="47">
+      <c r="A38" s="43">
         <v>5</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="42" t="s">
@@ -1609,23 +1538,23 @@
         <v>13</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G38" s="42">
-        <v>5617435949</v>
+        <v>6462271257</v>
       </c>
       <c r="H38" s="42" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I38" s="42" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="47">
+      <c r="A39" s="43">
         <v>6</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C39" s="42" t="s">
@@ -1638,27 +1567,27 @@
         <v>13</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G39" s="42">
-        <v>596696453566</v>
+        <v>2224318361</v>
       </c>
       <c r="H39" s="42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I39" s="42" t="s">
-        <v>35</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="47">
+      <c r="A40" s="43">
         <v>7</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>3</v>
@@ -1667,27 +1596,27 @@
         <v>13</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G40" s="42">
-        <v>6677913336</v>
+        <v>4492251391</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I40" s="42" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47">
+      <c r="A41" s="43">
         <v>8</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>3</v>
@@ -1696,27 +1625,27 @@
         <v>13</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G41" s="42">
-        <v>1613537</v>
+        <v>9334065890</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="I41" s="42" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="47">
+      <c r="A42" s="43">
         <v>9</v>
       </c>
-      <c r="B42" s="45" t="s">
-        <v>15</v>
+      <c r="B42" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>3</v>
@@ -1725,27 +1654,27 @@
         <v>13</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="G42" s="42">
-        <v>527671215205</v>
+        <v>4424714794</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="I42" s="42" t="s">
-        <v>128</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47">
+      <c r="A43" s="43">
         <v>10</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>3</v>
@@ -1754,27 +1683,27 @@
         <v>13</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" s="42">
-        <v>5518281332</v>
+        <v>444411026</v>
       </c>
       <c r="H43" s="42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I43" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="47">
+      <c r="A44" s="43">
         <v>11</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>3</v>
@@ -1783,27 +1712,27 @@
         <v>13</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G44" s="42">
-        <v>5526645700</v>
+        <v>5518044656</v>
       </c>
       <c r="H44" s="42" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I44" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47">
+      <c r="A45" s="43">
         <v>12</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>3</v>
@@ -1812,10 +1741,10 @@
         <v>13</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G45" s="42">
-        <v>5527909831</v>
+        <v>3330326969</v>
       </c>
       <c r="H45" s="42" t="s">
         <v>95</v>
@@ -1825,14 +1754,14 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="47">
+      <c r="A46" s="43">
         <v>13</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>3</v>
@@ -1841,10 +1770,10 @@
         <v>13</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G46" s="42">
-        <v>8714629857</v>
+        <v>5510689895</v>
       </c>
       <c r="H46" s="42" t="s">
         <v>97</v>
@@ -1854,14 +1783,14 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47">
+      <c r="A47" s="43">
         <v>14</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D47" s="36" t="s">
         <v>3</v>
@@ -1870,85 +1799,85 @@
         <v>13</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="G47" s="42">
-        <v>9988742135</v>
+        <v>8341548906</v>
       </c>
       <c r="H47" s="42" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="I47" s="42" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="47">
+      <c r="A48" s="43">
         <v>15</v>
       </c>
-      <c r="B48" s="45" t="s">
-        <v>16</v>
+      <c r="B48" s="42" t="s">
+        <v>15</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D48" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G48" s="42">
-        <v>5555088195</v>
+        <v>5581738988</v>
       </c>
       <c r="H48" s="42" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I48" s="42" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="47">
+      <c r="A49" s="43">
         <v>16</v>
       </c>
-      <c r="B49" s="45" t="s">
-        <v>16</v>
+      <c r="B49" s="42" t="s">
+        <v>15</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G49" s="42">
-        <v>3121348564</v>
+        <v>4181056619</v>
       </c>
       <c r="H49" s="42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I49" s="42" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="47">
+      <c r="A50" s="43">
         <v>17</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>3</v>
@@ -1957,27 +1886,27 @@
         <v>32</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="G50" s="42">
-        <v>5525674862</v>
+        <v>5571903148</v>
       </c>
       <c r="H50" s="42" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="I50" s="42" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="47">
+      <c r="A51" s="43">
         <v>18</v>
       </c>
-      <c r="B51" s="45" t="s">
-        <v>15</v>
+      <c r="B51" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>3</v>
@@ -1986,27 +1915,27 @@
         <v>32</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="G51" s="42">
-        <v>5548120305</v>
+        <v>2721597134</v>
       </c>
       <c r="H51" s="42" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="I51" s="42" t="s">
-        <v>117</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="47">
+      <c r="A52" s="43">
         <v>19</v>
       </c>
-      <c r="B52" s="45" t="s">
-        <v>15</v>
+      <c r="B52" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>3</v>
@@ -2015,25 +1944,27 @@
         <v>32</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="42"/>
+        <v>126</v>
+      </c>
+      <c r="G52" s="42">
+        <v>7147245425</v>
+      </c>
       <c r="H52" s="42" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I52" s="42" t="s">
-        <v>118</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="47">
+      <c r="A53" s="43">
         <v>20</v>
       </c>
-      <c r="B53" s="45" t="s">
-        <v>15</v>
+      <c r="B53" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="C53" s="42" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>3</v>
@@ -2042,278 +1973,200 @@
         <v>32</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G53" s="42">
-        <v>8971025086</v>
+        <v>5520950985</v>
       </c>
       <c r="H53" s="42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I53" s="42" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="47">
+      <c r="A54" s="43">
         <v>21</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E54" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G54" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H54" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I54" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="43">
+        <v>22</v>
+      </c>
+      <c r="B55" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C54" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F54" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G54" s="42">
-        <v>5581871340</v>
-      </c>
-      <c r="H54" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="I54" s="42" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="47">
-        <v>22</v>
-      </c>
-      <c r="B55" s="45" t="s">
-        <v>15</v>
-      </c>
       <c r="C55" s="42" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D55" s="36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E55" s="42" t="s">
         <v>32</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55" s="42">
-        <v>5555555555</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="G55" s="42"/>
       <c r="H55" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I55" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="I55" s="42" t="s">
-        <v>125</v>
-      </c>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="47">
+      <c r="A56" s="43">
         <v>23</v>
       </c>
-      <c r="B56" s="45" t="s">
-        <v>16</v>
+      <c r="B56" s="42" t="s">
+        <v>15</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="D56" s="36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E56" s="42" t="s">
         <v>32</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="G56" s="42">
-        <v>5618161242</v>
+        <v>66</v>
+      </c>
+      <c r="G56" s="42" t="s">
+        <v>129</v>
       </c>
       <c r="H56" s="42" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="I56" s="42" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="47">
+      <c r="A57" s="43">
         <v>24</v>
       </c>
-      <c r="B57" s="45" t="s">
-        <v>16</v>
+      <c r="B57" s="42" t="s">
+        <v>15</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D57" s="36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E57" s="42" t="s">
         <v>32</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G57" s="42">
-        <v>6681688189</v>
+        <v>8110164717</v>
       </c>
       <c r="H57" s="42" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="I57" s="42" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="47">
+      <c r="A58" s="43">
         <v>25</v>
       </c>
-      <c r="B58" s="45" t="s">
-        <v>15</v>
+      <c r="B58" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D58" s="36" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G58" s="42">
-        <v>5513339578</v>
+        <v>5519635398</v>
       </c>
       <c r="H58" s="42" t="s">
         <v>94</v>
       </c>
       <c r="I58" s="42" t="s">
-        <v>36</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="47">
-        <v>26</v>
-      </c>
-      <c r="B59" s="46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D59" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="F59" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" s="43">
-        <v>5513017685</v>
-      </c>
-      <c r="H59" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="I59" s="43" t="s">
-        <v>14</v>
-      </c>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="47">
-        <v>27</v>
-      </c>
-      <c r="B60" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F60" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G60" s="42">
-        <v>5532335548</v>
-      </c>
-      <c r="H60" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I60" s="42" t="s">
-        <v>14</v>
-      </c>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="47">
-        <v>28</v>
-      </c>
-      <c r="B61" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="D61" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="G61" s="43">
-        <v>5543527946</v>
-      </c>
-      <c r="H61" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="I61" s="43" t="s">
-        <v>122</v>
-      </c>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="47">
-        <v>29</v>
-      </c>
-      <c r="B62" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F62" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="42">
-        <v>5534677668</v>
-      </c>
-      <c r="H62" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="I62" s="42" t="s">
-        <v>121</v>
-      </c>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
+      <c r="D62" s="38"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="37"/>
@@ -2376,36 +2229,36 @@
       <c r="I68" s="37"/>
     </row>
     <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
       <c r="D69" s="38"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
     </row>
     <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
       <c r="D70" s="38"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-    </row>
-    <row r="71" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+    </row>
+    <row r="71" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
       <c r="D71" s="38"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-    </row>
-    <row r="72" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+    </row>
+    <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
       <c r="D72" s="38"/>
@@ -2415,132 +2268,128 @@
       <c r="H72" s="37"/>
       <c r="I72" s="37"/>
     </row>
-    <row r="73" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="41"/>
-      <c r="C73" s="41"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="41"/>
-      <c r="F73" s="41"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-    </row>
-    <row r="74" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="41"/>
-      <c r="F74" s="41"/>
-      <c r="G74" s="41"/>
-      <c r="H74" s="41"/>
-      <c r="I74" s="41"/>
-    </row>
-    <row r="75" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="41"/>
-      <c r="C75" s="41"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="41"/>
-      <c r="I75" s="41"/>
+    <row r="73" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="19"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="20"/>
+      <c r="I73" s="12"/>
+    </row>
+    <row r="74" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="20"/>
+      <c r="I74" s="12"/>
+    </row>
+    <row r="75" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="20"/>
+      <c r="I75" s="12"/>
     </row>
     <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-    </row>
-    <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="20"/>
+      <c r="B76" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" s="23"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="12"/>
+    </row>
+    <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" s="23"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="27"/>
       <c r="I77" s="12"/>
     </row>
     <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="18"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="20"/>
+      <c r="B78" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="23"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="27"/>
       <c r="I78" s="12"/>
     </row>
     <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="18"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="12"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="12"/>
+      <c r="B79" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="28"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C80" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D80" s="23"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="26"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="12"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="12"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="6"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D82" s="23"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="12"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6"/>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="29"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="6"/>
       <c r="I83" s="6"/>
     </row>
     <row r="84" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2553,7 +2402,9 @@
       <c r="I84" s="6"/>
     </row>
     <row r="85" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
+      <c r="B85" s="6" t="s">
+        <v>30</v>
+      </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -2571,13 +2422,14 @@
       <c r="I86" s="6"/>
     </row>
     <row r="87" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="6"/>
-      <c r="I87" s="6"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="3"/>
     </row>
     <row r="88" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
@@ -2589,9 +2441,7 @@
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="6" t="s">
-        <v>30</v>
-      </c>
+      <c r="B89" s="6"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -2609,14 +2459,13 @@
       <c r="I90" s="6"/>
     </row>
     <row r="91" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="3"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="6"/>
+      <c r="I91" s="6"/>
     </row>
     <row r="92" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
@@ -3932,7 +3781,7 @@
       <c r="G237" s="6"/>
       <c r="I237" s="6"/>
     </row>
-    <row r="238" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
       <c r="D238" s="6"/>
@@ -3941,7 +3790,7 @@
       <c r="G238" s="6"/>
       <c r="I238" s="6"/>
     </row>
-    <row r="239" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
       <c r="D239" s="6"/>
@@ -3950,53 +3799,14 @@
       <c r="G239" s="6"/>
       <c r="I239" s="6"/>
     </row>
-    <row r="240" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
-      <c r="D240" s="6"/>
-      <c r="E240" s="6"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="6"/>
-      <c r="I240" s="6"/>
-    </row>
-    <row r="241" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
-      <c r="D241" s="6"/>
-      <c r="E241" s="6"/>
-      <c r="F241" s="5"/>
-      <c r="G241" s="6"/>
-      <c r="I241" s="6"/>
-    </row>
-    <row r="242" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
-      <c r="D242" s="6"/>
-      <c r="E242" s="6"/>
-      <c r="F242" s="5"/>
-      <c r="G242" s="6"/>
-      <c r="I242" s="6"/>
-    </row>
-    <row r="243" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
-      <c r="D243" s="6"/>
-      <c r="E243" s="6"/>
-      <c r="F243" s="5"/>
-      <c r="G243" s="6"/>
-      <c r="I243" s="6"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A62">
+  <autoFilter ref="B33:I58" xr:uid="{2CBE4FBB-9B35-4B48-942C-5D7C23119821}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A58">
     <sortCondition ref="A34"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="H35" r:id="rId1" xr:uid="{D070B910-25D2-4343-8DC9-F2D5C355DD7B}"/>
-    <hyperlink ref="H34" r:id="rId2" xr:uid="{4FE4168D-952C-48FD-9A0B-8FC4CDE76176}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" fitToWidth="3" fitToHeight="0" orientation="landscape"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35656FC-D569-CB47-B3F0-697B744EB2AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D68FA42A-AB2B-8449-B49D-3633AE3FD965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$B$33:$I$58</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="165">
   <si>
     <t>A</t>
   </si>
@@ -135,293 +137,398 @@
     <t>Envié correo para conocer que necesita</t>
   </si>
   <si>
-    <t>Envié correo para conocer que es lo que necesita</t>
-  </si>
-  <si>
-    <t>25 - 31 de Mayol del 2020</t>
-  </si>
-  <si>
-    <t>Claudia Castellanos</t>
-  </si>
-  <si>
-    <t>2020-05-31 05:19:09</t>
-  </si>
-  <si>
-    <t>2020-05-30 20:52:10</t>
-  </si>
-  <si>
-    <t>2020-05-30 20:32:40</t>
-  </si>
-  <si>
-    <t>2020-05-30 15:01:39</t>
-  </si>
-  <si>
-    <t>2020-05-30 13:38:03</t>
-  </si>
-  <si>
-    <t>2020-05-29 19:48:36</t>
-  </si>
-  <si>
-    <t>2020-05-29 00:28:01</t>
-  </si>
-  <si>
-    <t>2020-05-27 18:51:52</t>
-  </si>
-  <si>
-    <t>2020-05-27 15:17:45</t>
-  </si>
-  <si>
-    <t>2020-05-26 22:25:13</t>
-  </si>
-  <si>
-    <t>2020-05-26 19:23:52</t>
-  </si>
-  <si>
-    <t>2020-05-26 16:04:58</t>
-  </si>
-  <si>
-    <t>2020-05-26 12:47:40</t>
-  </si>
-  <si>
-    <t>2020-05-26 12:31:40</t>
-  </si>
-  <si>
-    <t>2020-05-26 08:55:08</t>
-  </si>
-  <si>
-    <t>2020-05-26 01:09:08</t>
-  </si>
-  <si>
-    <t>2020-05-25 22:44:24</t>
-  </si>
-  <si>
-    <t>2020-05-25 22:35:13</t>
-  </si>
-  <si>
-    <t>2020-05-25 22:23:46</t>
-  </si>
-  <si>
-    <t>2020-05-25 22:06:37</t>
-  </si>
-  <si>
-    <t>2020-05-25 19:34:17</t>
-  </si>
-  <si>
-    <t>2020-05-25 19:25:06</t>
-  </si>
-  <si>
-    <t>2020-05-25 18:32:27</t>
-  </si>
-  <si>
-    <t>2020-05-25 12:37:26</t>
-  </si>
-  <si>
-    <t>2020-05-25 09:31:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Octaviano Buendia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexis Rivas Antonio </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marlene Villarreal </t>
-  </si>
-  <si>
-    <t>Juan Pablo Trujillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paola </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesús Sánchez </t>
-  </si>
-  <si>
-    <t>Rodolfo Mijail Ruíz Vera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Arechiga Munguia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leonardo Montiel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nelly Estrada </t>
-  </si>
-  <si>
-    <t>Anahí Bejar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oscar Hernandez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salvador </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Carlos VaBu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfredo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Plauchu </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruben </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Silvia Miranda </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Day Anne Esquivel Javier </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dayana Jatziri Pérez Policarpio </t>
-  </si>
-  <si>
-    <t>Issac Doroteo Hernández</t>
-  </si>
-  <si>
-    <t>octaviano46@hotmail.com</t>
-  </si>
-  <si>
-    <t>lucia.toriello@tmaq.mx</t>
-  </si>
-  <si>
-    <t>alexrivasa7@gmail.com</t>
-  </si>
-  <si>
-    <t>cmarlenevt@hotmail.com</t>
-  </si>
-  <si>
-    <t>jptm1@hotmail.com</t>
-  </si>
-  <si>
-    <t>paola@prueba.com</t>
-  </si>
-  <si>
-    <t>pablos_anbp@hotmail.com</t>
-  </si>
-  <si>
-    <t>info@houzefy.com</t>
-  </si>
-  <si>
-    <t>Ing.arechiga92@gmail.com</t>
-  </si>
-  <si>
-    <t>leonardvelazquez3@gmail.com</t>
-  </si>
-  <si>
-    <t>nellyeestrop@gmail.com</t>
-  </si>
-  <si>
-    <t>anahibejar@gmail.com</t>
-  </si>
-  <si>
-    <t>oscarfrstellis.italiano@gmail.com</t>
-  </si>
-  <si>
-    <t>chavapj@hotmail.com</t>
-  </si>
-  <si>
-    <t>valverdebuhl@gmail.com</t>
-  </si>
-  <si>
-    <t>alfredopmartinez684@gmail.com</t>
-  </si>
-  <si>
-    <t>salazarsalaa@hotmail.com</t>
-  </si>
-  <si>
-    <t>clauskirp@hotmail.com</t>
-  </si>
-  <si>
-    <t>ruben@investrix.mx</t>
-  </si>
-  <si>
-    <t>silvia-dinorah-miranda@hotmail.com</t>
-  </si>
-  <si>
-    <t>lee@the-leverage.com</t>
-  </si>
-  <si>
-    <t>dayanne65@hotmail.com</t>
-  </si>
-  <si>
-    <t>teresacabal@gmail.com</t>
-  </si>
-  <si>
-    <t>jatziri.perezpolicarpio@gmail.com</t>
-  </si>
-  <si>
-    <t>isaac.abidam.123@gmail.com</t>
-  </si>
-  <si>
-    <t>envié correo para conocer lo que busca</t>
-  </si>
-  <si>
     <t>Envie correo para conocer que necesita</t>
   </si>
   <si>
-    <t>Envié correo para conocer que busca. No estoy segura que sea real, no pone telefono</t>
-  </si>
-  <si>
-    <t>Broker externo. Le envié info de la promo del 4% para ellos e información del desarrollo.</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer que es lo que busca</t>
-  </si>
-  <si>
-    <t>Solicito informacion por whast app, le hable y me dijo que ya nos conocemos es la hija de Isaac Behar y que queria saber los costos de mantenimiento, la canalice con Juan Lopez
-NO es prospecto</t>
-  </si>
-  <si>
-    <t>Se envió correo desde Kiper.  --  telefono incorrecto, envie mail general</t>
-  </si>
-  <si>
-    <t>Envié correo para conoer lo que necesita</t>
-  </si>
-  <si>
-    <t>Whatssapp</t>
-  </si>
-  <si>
-    <t>Pag Web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envié correo para conocer que necesita </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envie correo para conocer lo que esta buscando </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envie correo para conocer que necesita. Me pidió info de rentas pero su presupuesto es solo de 30,000  </t>
+    <t>2020-06-07 14:43:20</t>
+  </si>
+  <si>
+    <t>2020-06-07 09:50:59</t>
+  </si>
+  <si>
+    <t>2020-06-07 02:23:25</t>
+  </si>
+  <si>
+    <t>2020-06-06 20:56:43</t>
+  </si>
+  <si>
+    <t>2020-06-06 19:53:18</t>
+  </si>
+  <si>
+    <t>2020-06-06 16:20:58</t>
+  </si>
+  <si>
+    <t>2020-06-06 12:48:27</t>
+  </si>
+  <si>
+    <t>2020-06-06 12:23:14</t>
+  </si>
+  <si>
+    <t>2020-06-05 21:49:07</t>
+  </si>
+  <si>
+    <t>2020-06-05 20:42:10</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:52:04</t>
+  </si>
+  <si>
+    <t>2020-06-05 18:27:19</t>
+  </si>
+  <si>
+    <t>2020-06-05 14:03:24</t>
+  </si>
+  <si>
+    <t>2020-06-05 13:14:52</t>
+  </si>
+  <si>
+    <t>2020-06-05 13:03:40</t>
+  </si>
+  <si>
+    <t>2020-06-05 02:35:22</t>
+  </si>
+  <si>
+    <t>2020-06-04 22:10:45</t>
+  </si>
+  <si>
+    <t>2020-06-04 21:05:19</t>
+  </si>
+  <si>
+    <t>2020-06-04 18:31:40</t>
+  </si>
+  <si>
+    <t>2020-06-04 13:04:42</t>
+  </si>
+  <si>
+    <t>2020-06-04 11:59:38</t>
+  </si>
+  <si>
+    <t>2020-06-03 17:01:31</t>
+  </si>
+  <si>
+    <t>2020-06-03 17:00:48</t>
+  </si>
+  <si>
+    <t>2020-06-03 15:03:57</t>
+  </si>
+  <si>
+    <t>2020-06-03 14:55:09</t>
+  </si>
+  <si>
+    <t>2020-06-03 11:57:53</t>
+  </si>
+  <si>
+    <t>2020-06-03 02:45:58</t>
+  </si>
+  <si>
+    <t>2020-06-02 11:26:10</t>
+  </si>
+  <si>
+    <t>2020-06-02 09:33:59</t>
+  </si>
+  <si>
+    <t>2020-06-02 02:50:49</t>
+  </si>
+  <si>
+    <t>2020-06-01 23:33:49</t>
+  </si>
+  <si>
+    <t>2020-06-01 17:50:16</t>
+  </si>
+  <si>
+    <t>2020-06-01 10:07:19</t>
+  </si>
+  <si>
+    <t>2020-06-01 08:53:13</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Felix Cruz Nava </t>
+  </si>
+  <si>
+    <t>Beto Betech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fabs Vargas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andres Castillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dulce María Mota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stefano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernesto Loera </t>
+  </si>
+  <si>
+    <t>Adriana Casanova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amin Rincon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patricia  Valdés </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Bosch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manuel Arévalo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jonathan caballero Fonseca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma Bruno </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dawn Dusk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enrique solorzano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solvey Alviarez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Gamboa García </t>
+  </si>
+  <si>
+    <t>Manuel Lopez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Rivera </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen Garcia </t>
+  </si>
+  <si>
+    <t>Javier Alonso</t>
+  </si>
+  <si>
+    <t>Jakelen Cobolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier Esteban vidal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">berenice romero </t>
+  </si>
+  <si>
+    <t>Constantino Matouk</t>
+  </si>
+  <si>
+    <t>Eva Alzas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MariadelCarmen Cabrera Lazcano </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tito Saúl Melendez Camarillo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAFAELA KASSIAN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carlos esparza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eva alzas </t>
+  </si>
+  <si>
+    <t>felix-cruz_24@hotmail.com</t>
+  </si>
+  <si>
+    <t>betobetech@iphonecell.com</t>
+  </si>
+  <si>
+    <t>Fabsvs@outlook.com</t>
+  </si>
+  <si>
+    <t>andreesnassar@gmail.com</t>
+  </si>
+  <si>
+    <t>dulceme8@gmail.com</t>
+  </si>
+  <si>
+    <t>stefano.obregon@gmail.com</t>
+  </si>
+  <si>
+    <t>lomar8162@gmail.com</t>
+  </si>
+  <si>
+    <t>anairda19@gmial.com</t>
+  </si>
+  <si>
+    <t>terranovatuxtla@hotmail.com</t>
+  </si>
+  <si>
+    <t>valdescabello_64@hotmaul.com</t>
+  </si>
+  <si>
+    <t>jmboschvi@hotmail.com</t>
+  </si>
+  <si>
+    <t>jmballina007@gmail.com</t>
+  </si>
+  <si>
+    <t>jordanfonseca@live.com</t>
+  </si>
+  <si>
+    <t>emrbramos@gmail.com</t>
+  </si>
+  <si>
+    <t>pjfam99@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>mariland-pcf.hq@hotmail.com</t>
+  </si>
+  <si>
+    <t>esp_98@hotmail.com</t>
+  </si>
+  <si>
+    <t>lgimena781@gmail.com</t>
+  </si>
+  <si>
+    <t>Solveyharfoush@icloud.com</t>
+  </si>
+  <si>
+    <t>ricardo@enerkom.me</t>
+  </si>
+  <si>
+    <t>jmlopez8@gmail.com</t>
+  </si>
+  <si>
+    <t>rdr-09@hotmail.com</t>
+  </si>
+  <si>
+    <t>Karengarciahdz1d@gmail.com</t>
+  </si>
+  <si>
+    <t>dani.13gon@hotmail.com</t>
+  </si>
+  <si>
+    <t>araceli.echeveste@hotmail.com</t>
+  </si>
+  <si>
+    <t>Jaesvi71@hotmail.com</t>
+  </si>
+  <si>
+    <t>br686346@gmail.com</t>
+  </si>
+  <si>
+    <t>cmi@icls.mx</t>
+  </si>
+  <si>
+    <t>evaalzas@hotmail.com</t>
+  </si>
+  <si>
+    <t>mc.cablaz1@gmail.com</t>
+  </si>
+  <si>
+    <t>tito.ciudadanos2014@gmail.com</t>
+  </si>
+  <si>
+    <t>rafakassian@hotmail.com</t>
+  </si>
+  <si>
+    <t>caesparza@yahoo.com</t>
+  </si>
+  <si>
+    <t>eva.alzas@hotmail.com</t>
+  </si>
+  <si>
+    <t>EL ES CORREDOR QUE TIENE UN POSIBLE PROSPECTO PARA AV/P, ME LO REFIRIÓ PARA QUE LE DEN EL 1% DE REFERIDO.
+NO ME HA DADO EL NOMBRE DEL PROSPECTO AUN</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer lo que necesita</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que busca  --  Envié correo para conocer que busca</t>
+  </si>
+  <si>
+    <t>Envié correo para saber que es lo que busca</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que es lo que necesita  --  COTIZACION 301B y PH1A quiere terraza, y ver precios</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer lo que busca</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto  --  quiere rentar un departamento amueblado de 2mil o 3 mi pesos</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que esta buscando</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que esta buscando  --  RENTA busca rentar 2 rec lo mas bajo en precio posible</t>
+  </si>
+  <si>
+    <t>Se envió correo desde Kiper.  --  no contesta envie correo</t>
+  </si>
+  <si>
+    <t>1 - 7 de Junio del 2020</t>
+  </si>
+  <si>
+    <t>Referido</t>
+  </si>
+  <si>
+    <t>Gimena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se envió correo desde Kiper,  entra al buzon, envie mail y whats app  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envié correo para conocer lo que necesita    COTIZACION 301B y 801A envié cotizaciones  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envié correo para conocer que busca   RENTA busca 2 o 3 rec. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envié correo para conocer que necesita  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Corregí el correo y estoy en espera de que me comparta lo que esta buscando    Cotizaciones 504A 701D y GHC  --  Aun no ha podido revisar el correo pero en cuanto lo haga me comparte su opinon  </t>
+  </si>
+  <si>
+    <t>Envíe correo desde Kiper</t>
   </si>
   <si>
     <t xml:space="preserve">Se envió correo desde Kiper. </t>
   </si>
   <si>
-    <t>Broker</t>
-  </si>
-  <si>
-    <t>Envie cotizaciones 404A y 502E para revision</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amado salazar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucia Toriello </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lee Ramirez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teresa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ya hizo visita a Napoles </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">Presupuesto de 2 millones  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se envió correo desde Kiper.  </t>
+  </si>
+  <si>
+    <t>Lamudi</t>
+  </si>
+  <si>
+    <t>Campaña recorrido virtual</t>
+  </si>
+  <si>
+    <t>Pedro García</t>
+  </si>
+  <si>
+    <t>Vallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No deja telefono de contacto, envie un correo con información general , Se envió correo desde Kiper.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Me comenta que tiene presupuesto de 10 millones </t>
+  </si>
+  <si>
+    <t>COTIZACIÓN PH 1F  Hizo propuesta para Blass Pascal, el precio por m2 es mucho mas bajo y le hacen descuento.</t>
   </si>
 </sst>
 </file>
@@ -431,7 +538,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -487,20 +594,8 @@
       <name val="Avenir Book"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF404040"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF404040"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,14 +614,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -586,20 +675,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,21 +775,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1129,8 +1196,8 @@
   </sheetPr>
   <dimension ref="A4:I239"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1139,12 +1206,12 @@
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="172.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="14.5" style="1"/>
+    <col min="9" max="9" width="168.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1183,7 +1250,7 @@
     </row>
     <row r="16" spans="2:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>146</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
@@ -1218,14 +1285,12 @@
         <v>22</v>
       </c>
       <c r="C20" s="33">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E20" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="33">
-        <v>0</v>
-      </c>
+      <c r="F20" s="33"/>
       <c r="G20" s="12"/>
       <c r="H20" s="30"/>
       <c r="I20" s="31"/>
@@ -1237,7 +1302,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="30"/>
@@ -1250,7 +1315,7 @@
         <v>25</v>
       </c>
       <c r="F22" s="33">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="30"/>
@@ -1263,7 +1328,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="33">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="9"/>
@@ -1283,16 +1348,20 @@
         <v>27</v>
       </c>
       <c r="C25" s="33">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25" s="32" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="33">
-        <v>13</v>
-      </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="40"/>
+        <v>9</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="33">
+        <v>3</v>
+      </c>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="2:9" ht="17" x14ac:dyDescent="0.25">
@@ -1300,30 +1369,26 @@
         <v>28</v>
       </c>
       <c r="C26" s="33">
-        <v>11</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>122</v>
+        <v>18</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>69</v>
       </c>
       <c r="F26" s="33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="9"/>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="2:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="B27" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="33">
-        <v>1</v>
-      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="33"/>
       <c r="E27" s="32" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="33">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="9"/>
@@ -1332,8 +1397,8 @@
     <row r="28" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B28" s="30"/>
       <c r="C28" s="31"/>
-      <c r="E28" s="42" t="s">
-        <v>117</v>
+      <c r="E28" s="32" t="s">
+        <v>159</v>
       </c>
       <c r="F28" s="33">
         <v>1</v>
@@ -1344,11 +1409,11 @@
     </row>
     <row r="29" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B29" s="30"/>
-      <c r="E29" s="42" t="s">
-        <v>116</v>
+      <c r="E29" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="F29" s="33">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="9"/>
@@ -1356,8 +1421,12 @@
     </row>
     <row r="30" spans="2:9" ht="17" x14ac:dyDescent="0.25">
       <c r="B30" s="30"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
+      <c r="E30" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="F30" s="33">
+        <v>1</v>
+      </c>
       <c r="G30" s="12"/>
       <c r="H30" s="9"/>
       <c r="I30" s="10"/>
@@ -1366,8 +1435,12 @@
       <c r="B31" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
+      <c r="E31" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="33">
+        <v>2</v>
+      </c>
       <c r="G31" s="12"/>
       <c r="H31" s="9"/>
       <c r="I31" s="10"/>
@@ -1406,819 +1479,984 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="43">
+      <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>41</v>
+      <c r="B34" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>44</v>
       </c>
       <c r="D34" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="42">
-        <v>5527432042</v>
-      </c>
-      <c r="H34" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>128</v>
+      <c r="E34" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="40">
+        <v>8180104996</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="43">
+      <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="42" t="s">
-        <v>44</v>
+      <c r="C35" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="D35" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E35" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="42">
-        <v>5572310190</v>
-      </c>
-      <c r="H35" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="I35" s="42" t="s">
-        <v>111</v>
+      <c r="E35" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35" s="40">
+        <v>5537338716</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
+      <c r="A36" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>61</v>
+      <c r="C36" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D36" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="42" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36" s="42">
-        <v>7122310761</v>
-      </c>
-      <c r="H36" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="I36" s="42" t="s">
-        <v>123</v>
+      <c r="E36" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="G36" s="40">
+        <v>5551058779</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="43">
+      <c r="A37" s="1">
         <v>4</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="42" t="s">
-        <v>37</v>
+      <c r="C37" s="40" t="s">
+        <v>55</v>
       </c>
       <c r="D37" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G37" s="42">
-        <v>5544541447</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="I37" s="42" t="s">
-        <v>108</v>
+        <v>2</v>
+      </c>
+      <c r="E37" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="G37" s="40">
+        <v>5532427330</v>
+      </c>
+      <c r="H37" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="I37" s="40" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="43">
+      <c r="A38" s="1">
         <v>5</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F38" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="40">
+        <v>5551012065</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>6</v>
+      </c>
+      <c r="B39" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G38" s="42">
-        <v>6462271257</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="43">
-        <v>6</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>47</v>
+      <c r="C39" s="40" t="s">
+        <v>63</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E39" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G39" s="42">
-        <v>2224318361</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>112</v>
+      <c r="E39" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="F39" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="40">
+        <v>5566108874</v>
+      </c>
+      <c r="H39" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43">
+      <c r="A40" s="1">
         <v>7</v>
       </c>
-      <c r="B40" s="42" t="s">
+      <c r="B40" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="42" t="s">
-        <v>56</v>
+      <c r="C40" s="40" t="s">
+        <v>37</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E40" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="42">
-        <v>4492251391</v>
-      </c>
-      <c r="H40" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="I40" s="42" t="s">
-        <v>115</v>
+      <c r="F40" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="G40" s="40">
+        <v>6673366364</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="43">
+      <c r="A41" s="1">
         <v>8</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="42" t="s">
-        <v>58</v>
+      <c r="C41" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="42" t="s">
+      <c r="E41" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G41" s="42">
-        <v>9334065890</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="I41" s="42" t="s">
-        <v>34</v>
+      <c r="F41" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="40">
+        <v>3271152916</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="I41" s="40" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="43">
+      <c r="A42" s="1">
         <v>9</v>
       </c>
-      <c r="B42" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="42" t="s">
-        <v>38</v>
+      <c r="B42" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>50</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="42" t="s">
+      <c r="E42" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F42" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="42">
-        <v>4424714794</v>
-      </c>
-      <c r="H42" s="42" t="s">
+      <c r="F42" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="I42" s="42" t="s">
-        <v>14</v>
+      <c r="G42" s="40">
+        <v>3221642905</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="43">
+      <c r="A43" s="1">
         <v>10</v>
       </c>
-      <c r="B43" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="42" t="s">
-        <v>40</v>
+      <c r="B43" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="D43" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="42">
-        <v>444411026</v>
-      </c>
-      <c r="H43" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="I43" s="42" t="s">
-        <v>14</v>
+      <c r="F43" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="40">
+        <v>5515820000</v>
+      </c>
+      <c r="H43" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I43" s="40" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43">
+      <c r="A44" s="1">
         <v>11</v>
       </c>
-      <c r="B44" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>43</v>
+      <c r="B44" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>60</v>
       </c>
       <c r="D44" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="42">
-        <v>5518044656</v>
-      </c>
-      <c r="H44" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="I44" s="42" t="s">
-        <v>14</v>
+      <c r="F44" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G44" s="40">
+        <v>9932076656</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43">
+      <c r="A45" s="1">
         <v>12</v>
       </c>
-      <c r="B45" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>49</v>
+      <c r="B45" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="D45" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F45" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45" s="42">
-        <v>3330326969</v>
-      </c>
-      <c r="H45" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="I45" s="42" t="s">
-        <v>14</v>
+      <c r="F45" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="40">
+        <v>5610454168</v>
+      </c>
+      <c r="H45" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I45" s="40" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="43">
+      <c r="A46" s="1">
         <v>13</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="42" t="s">
-        <v>51</v>
+      <c r="C46" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="D46" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F46" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G46" s="42">
-        <v>5510689895</v>
-      </c>
-      <c r="H46" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="42" t="s">
+      <c r="F46" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="40">
+        <v>9613668049</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="43">
+      <c r="A47" s="1">
         <v>14</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="42" t="s">
-        <v>53</v>
+      <c r="C47" s="40" t="s">
+        <v>54</v>
       </c>
       <c r="D47" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="G47" s="42">
-        <v>8341548906</v>
-      </c>
-      <c r="H47" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="42" t="s">
+      <c r="F47" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G47" s="40">
+        <v>9999477181</v>
+      </c>
+      <c r="H47" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="I47" s="40" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="43">
+      <c r="A48" s="1">
         <v>15</v>
       </c>
-      <c r="B48" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>50</v>
+      <c r="B48" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>64</v>
       </c>
       <c r="D48" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="42">
-        <v>5581738988</v>
-      </c>
-      <c r="H48" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="I48" s="42" t="s">
-        <v>118</v>
+      <c r="E48" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="G48" s="40">
+        <v>5560507923</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="43">
+      <c r="A49" s="1">
         <v>16</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="42" t="s">
-        <v>52</v>
+      <c r="C49" s="40" t="s">
+        <v>39</v>
       </c>
       <c r="D49" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" s="42">
-        <v>4181056619</v>
-      </c>
-      <c r="H49" s="42" t="s">
-        <v>98</v>
-      </c>
-      <c r="I49" s="42" t="s">
-        <v>119</v>
+      <c r="F49" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="40">
+        <v>5551003528</v>
+      </c>
+      <c r="H49" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I49" s="40" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43">
+      <c r="A50" s="1">
         <v>17</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="42" t="s">
-        <v>60</v>
+      <c r="C50" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="D50" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E50" s="42" t="s">
+      <c r="E50" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F50" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" s="42">
-        <v>5571903148</v>
-      </c>
-      <c r="H50" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="I50" s="42" t="s">
-        <v>33</v>
+      <c r="F50" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="G50" s="40">
+        <v>5804147474414</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="I50" s="40" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="43">
+      <c r="A51" s="1">
         <v>18</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="42" t="s">
-        <v>46</v>
+      <c r="C51" s="40" t="s">
+        <v>35</v>
       </c>
       <c r="D51" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="42" t="s">
+      <c r="F51" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="G51" s="42">
-        <v>2721597134</v>
-      </c>
-      <c r="H51" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="I51" s="42" t="s">
-        <v>14</v>
+      <c r="G51" s="40">
+        <v>5586161815</v>
+      </c>
+      <c r="H51" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" s="40" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43">
+      <c r="A52" s="1">
         <v>19</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="42" t="s">
-        <v>57</v>
+      <c r="C52" s="40" t="s">
+        <v>38</v>
       </c>
       <c r="D52" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="42" t="s">
+      <c r="E52" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F52" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="G52" s="42">
-        <v>7147245425</v>
-      </c>
-      <c r="H52" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="I52" s="42" t="s">
-        <v>14</v>
+      <c r="F52" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="40">
+        <v>5585637610</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43">
+      <c r="A53" s="1">
         <v>20</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="42" t="s">
-        <v>59</v>
+      <c r="C53" s="40" t="s">
+        <v>40</v>
       </c>
       <c r="D53" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="G53" s="42">
-        <v>5520950985</v>
-      </c>
-      <c r="H53" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="I53" s="42" t="s">
-        <v>121</v>
+      <c r="F53" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="I53" s="40" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="43">
+      <c r="A54" s="1">
         <v>21</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="42" t="s">
-        <v>55</v>
+      <c r="C54" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="D54" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F54" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="40">
+        <v>9931959103</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>22</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="G55" s="40">
+        <v>5587957926</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I55" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>23</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="G56" s="40">
+        <v>9622436116</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>24</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="I57" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>25</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F58" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="G58" s="40">
+        <v>5534337309</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>26</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F59" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59" s="40">
+        <v>5566108874</v>
+      </c>
+      <c r="H59" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="I59" s="40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>27</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="40">
+        <v>9222149436</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>28</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="D61" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E54" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="G54" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="H54" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="I54" s="42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43">
-        <v>22</v>
-      </c>
-      <c r="B55" s="42" t="s">
+      <c r="E61" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G61" s="40">
+        <v>5536422481</v>
+      </c>
+      <c r="H61" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="I61" s="40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>29</v>
+      </c>
+      <c r="B62" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" s="36" t="s">
+      <c r="C62" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="42" t="s">
+      <c r="E62" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F55" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="G55" s="42"/>
-      <c r="H55" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="I55" s="42" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="43">
-        <v>23</v>
-      </c>
-      <c r="B56" s="42" t="s">
+      <c r="F62" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62" s="40">
+        <v>5564218276</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="I62" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>30</v>
+      </c>
+      <c r="B63" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="36" t="s">
+      <c r="C63" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="42" t="s">
+      <c r="E63" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F56" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="I56" s="42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="43">
-        <v>24</v>
-      </c>
-      <c r="B57" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D57" s="36" t="s">
+      <c r="F63" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="40">
+        <v>5527558278</v>
+      </c>
+      <c r="H63" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" s="40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>31</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E57" s="42" t="s">
+      <c r="E64" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="F57" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" s="42">
-        <v>8110164717</v>
-      </c>
-      <c r="H57" s="42" t="s">
-        <v>100</v>
-      </c>
-      <c r="I57" s="42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="43">
-        <v>25</v>
-      </c>
-      <c r="B58" s="42" t="s">
+      <c r="F64" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="I64" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>32</v>
+      </c>
+      <c r="B65" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="D58" s="36" t="s">
+      <c r="C65" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="D65" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="F58" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" s="42">
-        <v>5519635398</v>
-      </c>
-      <c r="H58" s="42" t="s">
+      <c r="E65" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="I58" s="42" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-    </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-    </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-    </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-    </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-    </row>
-    <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-    </row>
-    <row r="66" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-    </row>
-    <row r="67" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-    </row>
-    <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="40"/>
+      <c r="H65" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="I65" s="40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>33</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F66" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="G66" s="40">
+        <v>5572117126</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>34</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="F67" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" s="40">
+        <v>5519322480</v>
+      </c>
+      <c r="H67" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I67" s="40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="37"/>
       <c r="C68" s="37"/>
       <c r="D68" s="38"/>
@@ -2228,37 +2466,37 @@
       <c r="H68" s="37"/>
       <c r="I68" s="37"/>
     </row>
-    <row r="69" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="41"/>
-      <c r="C69" s="41"/>
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
       <c r="D69" s="38"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="41"/>
-    </row>
-    <row r="70" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="41"/>
-      <c r="C70" s="41"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
       <c r="D70" s="38"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-    </row>
-    <row r="71" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="41"/>
-      <c r="C71" s="41"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+    </row>
+    <row r="71" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
       <c r="D71" s="38"/>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="41"/>
-    </row>
-    <row r="72" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="37"/>
       <c r="C72" s="37"/>
       <c r="D72" s="38"/>
@@ -2268,7 +2506,7 @@
       <c r="H72" s="37"/>
       <c r="I72" s="37"/>
     </row>
-    <row r="73" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="35" t="s">
         <v>19</v>
       </c>
@@ -2280,7 +2518,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="18"/>
       <c r="C74" s="19"/>
       <c r="D74" s="18"/>
@@ -2290,7 +2528,7 @@
       <c r="H74" s="20"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="18"/>
       <c r="C75" s="19"/>
       <c r="D75" s="18"/>
@@ -2300,7 +2538,7 @@
       <c r="H75" s="20"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="21" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2552,7 @@
       <c r="H76" s="27"/>
       <c r="I76" s="12"/>
     </row>
-    <row r="77" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="21" t="s">
         <v>2</v>
       </c>
@@ -2328,7 +2566,7 @@
       <c r="H77" s="27"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="21" t="s">
         <v>3</v>
       </c>
@@ -2342,7 +2580,7 @@
       <c r="H78" s="27"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="21" t="s">
         <v>5</v>
       </c>
@@ -2356,7 +2594,7 @@
       <c r="H79" s="29"/>
       <c r="I79" s="6"/>
     </row>
-    <row r="80" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
@@ -3800,8 +4038,7 @@
       <c r="I239" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="B33:I58" xr:uid="{2CBE4FBB-9B35-4B48-942C-5D7C23119821}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A58">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A67">
     <sortCondition ref="A34"/>
   </sortState>
   <printOptions horizontalCentered="1"/>

--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -1,31 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA8AB9B8-344A-F54D-A9B5-44244ED58FED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAE98543-C464-D348-87A6-2463DFB89226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
   <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
-    <t>8-14 de Junio del 2020</t>
+    <t>15 - 21 de Junio del 2020</t>
   </si>
   <si>
     <t>Reporte Ejecutivo</t>
@@ -88,341 +96,233 @@
     <t>Alejandra Campos García</t>
   </si>
   <si>
-    <t>2020-06-13 22:18:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana molina </t>
-  </si>
-  <si>
-    <t>anashml@gmail.com</t>
+    <t>2020-06-20 15:41:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leticia Rodríguez Peña </t>
+  </si>
+  <si>
+    <t>rho.alrp@gmail.com</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que necesita.</t>
+  </si>
+  <si>
+    <t>2020-06-20 11:23:40</t>
+  </si>
+  <si>
+    <t>Meredith Monserrat Pineda Serrano</t>
+  </si>
+  <si>
+    <t>mere_pene_serrano@outlook.com</t>
   </si>
   <si>
     <t>Belora Abadi Husny</t>
   </si>
   <si>
-    <t>2020-06-13 19:54:28</t>
-  </si>
-  <si>
-    <t>Diana Enriquez Cisneros</t>
-  </si>
-  <si>
-    <t>de37353@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-13 15:59:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anel Diez Rodriguez </t>
-  </si>
-  <si>
-    <t>contacto@aneldiez.com</t>
-  </si>
-  <si>
-    <t>2020-06-13 15:53:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jhovanny Contreras Hernandez </t>
-  </si>
-  <si>
-    <t>jhova567@icloud.com</t>
-  </si>
-  <si>
-    <t>2020-06-13 13:34:36</t>
-  </si>
-  <si>
-    <t>Cynthia Echeverria</t>
-  </si>
-  <si>
-    <t>5548801304@phnoecall.com</t>
-  </si>
-  <si>
-    <t>Es Broker externa, estoy en espera de que diga que busca su cliente para enviar cotizaciones</t>
-  </si>
-  <si>
-    <t>2020-06-13 12:17:53</t>
-  </si>
-  <si>
-    <t>santi21pa@hotmail.es</t>
-  </si>
-  <si>
-    <t>2020-06-13 09:43:01</t>
-  </si>
-  <si>
-    <t>Zurisadai Ramírez Ballesteros</t>
-  </si>
-  <si>
-    <t>zuriramirez169@gmail.com</t>
-  </si>
-  <si>
-    <t>Envié correo para saber que busca</t>
-  </si>
-  <si>
-    <t>2020-06-13 08:28:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Sosa </t>
-  </si>
-  <si>
-    <t>luis.sosa.cb03@gmail.com</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer que busca</t>
-  </si>
-  <si>
-    <t>2020-06-12 21:47:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavio </t>
-  </si>
-  <si>
-    <t>barchettivalerf@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-12 20:53:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Alexis Grajales Becerril </t>
-  </si>
-  <si>
-    <t>dg311204@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-12 20:14:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Allan Nuñez </t>
-  </si>
-  <si>
-    <t>allan01paul@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-12 19:14:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italia Sanchez Naranjo </t>
-  </si>
-  <si>
-    <t>italynaranjo574@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-12 11:07:19</t>
-  </si>
-  <si>
-    <t>m_ortega@toyotacancun.com.mx</t>
-  </si>
-  <si>
-    <t>2020-06-12 08:21:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcela Karren </t>
-  </si>
-  <si>
-    <t>marcelakarrenv@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-12 07:30:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saul Figueroa </t>
-  </si>
-  <si>
-    <t>Nopidan@datos.com</t>
+    <t>2020-06-20 11:16:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varas Guillermo </t>
+  </si>
+  <si>
+    <t>fguillermovaras@hotmail.com</t>
   </si>
   <si>
     <t>Se envió correo desde Kiper.</t>
   </si>
   <si>
-    <t>2020-06-12 03:36:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Teresa Verduzco Vázquez </t>
-  </si>
-  <si>
-    <t>tverduzco@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-11 12:25:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego cervantes de avila </t>
-  </si>
-  <si>
-    <t>Diego_c@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-11 10:53:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Rodríguez </t>
-  </si>
-  <si>
-    <t>coli_gg@hotmail.com</t>
-  </si>
-  <si>
-    <t>Envié correo para preguntar que necesita</t>
-  </si>
-  <si>
-    <t>2020-06-11 08:39:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcela </t>
-  </si>
-  <si>
-    <t>anasooro@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-11 02:17:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Alberto Martín Velázquez </t>
-  </si>
-  <si>
-    <t>jorgemartinvelmx@gmail.com</t>
-  </si>
-  <si>
-    <t>Envié correo preguntando que es lo que necesita</t>
-  </si>
-  <si>
-    <t>2020-06-11 01:31:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Guadalupe </t>
-  </si>
-  <si>
-    <t>Andy20ordaz@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-11 00:13:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorena. Gonzalez </t>
-  </si>
-  <si>
-    <t>miriambienesraices@hotmaik.com</t>
-  </si>
-  <si>
-    <t>Envie correo y pregunté si es corredora para ofrecerle la promoción del 4%</t>
-  </si>
-  <si>
-    <t>2020-06-10 20:16:21</t>
-  </si>
-  <si>
-    <t>enicoletarazo@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-10 09:56:57</t>
-  </si>
-  <si>
-    <t>Luis Antonio Duarte</t>
-  </si>
-  <si>
-    <t>luis_duarte34@yahoo.com</t>
-  </si>
-  <si>
-    <t>2020-06-10 09:34:58</t>
-  </si>
-  <si>
-    <t>Diego Salazar</t>
-  </si>
-  <si>
-    <t>diego.sala@live.com.mx</t>
-  </si>
-  <si>
-    <t>Se envió correo desde Kiper.  --  Tiene presupuesto de 4 millones
-le voy a mandar informacion de Nápoles para ver si le interesa</t>
-  </si>
-  <si>
-    <t>2020-06-09 16:38:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nitzy </t>
-  </si>
-  <si>
-    <t>nitzysonora@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-09 13:10:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anahid </t>
-  </si>
-  <si>
-    <t>anahidrt@outlook.com</t>
-  </si>
-  <si>
-    <t>2020-06-09 02:42:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dylan Leonardo Bocanegra Aguilar </t>
-  </si>
-  <si>
-    <t>dyl_leon@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-09 00:11:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alfonso Núñez Cruz </t>
-  </si>
-  <si>
-    <t>parmalat27@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-08 23:46:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio LC </t>
-  </si>
-  <si>
-    <t>tec_slc@hotmail.com</t>
+    <t>2020-06-20 01:54:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanna Abigail </t>
+  </si>
+  <si>
+    <t>giovanna_1175@hotmail.com</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que necistan.</t>
+  </si>
+  <si>
+    <t>2020-06-19 14:41:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ankita Gandhi </t>
+  </si>
+  <si>
+    <t>ankita.g1983@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se envió correo desde Kiper. </t>
+  </si>
+  <si>
+    <t>2020-06-19 13:36:43</t>
+  </si>
+  <si>
+    <t>Francisco Pinilla</t>
+  </si>
+  <si>
+    <t>francisco_pinilla@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-19 11:09:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pamela García </t>
+  </si>
+  <si>
+    <t>pamela.garcia@hotmail.com</t>
   </si>
   <si>
     <t>Envié correo para conocer que necesita</t>
   </si>
   <si>
-    <t>2020-06-08 22:33:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valentina Rodríguez Rodríguez </t>
-  </si>
-  <si>
-    <t>valen.hs@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-08 19:48:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Donaldo Herrera </t>
-  </si>
-  <si>
-    <t>d.herreram13@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-08 15:30:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suing Privado Hernández </t>
-  </si>
-  <si>
-    <t>garciahernandezde60@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-08 11:24:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victoria Orvananos </t>
-  </si>
-  <si>
-    <t>victoriaorva@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-08 01:50:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Nava </t>
-  </si>
-  <si>
-    <t>dani.carrasconava@gmail.com</t>
+    <t>2020-06-19 08:13:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laura Arratia Ramirez </t>
+  </si>
+  <si>
+    <t>laar_1389@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-18 17:56:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Palomino Renteria </t>
+  </si>
+  <si>
+    <t>interobrabienesyservicios@gmail.com</t>
+  </si>
+  <si>
+    <t>Envié correo para conocer que busca.</t>
+  </si>
+  <si>
+    <t>2020-06-18 11:07:17</t>
+  </si>
+  <si>
+    <t>Roberto De los Santos</t>
+  </si>
+  <si>
+    <t>santos.o.roberto@gamil.com</t>
+  </si>
+  <si>
+    <t>VISITA, quiere arriba de 150 m2 solo que NO quiere VER ningún vecino por su ventana.</t>
+  </si>
+  <si>
+    <t>2020-06-18 08:27:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana Piedad </t>
+  </si>
+  <si>
+    <t>licliliana@prodigy.ner.mx</t>
+  </si>
+  <si>
+    <t>2020-06-17 17:57:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana </t>
+  </si>
+  <si>
+    <t>adrinp91@gmail.com</t>
+  </si>
+  <si>
+    <t>Envié correo para saber que busca.</t>
+  </si>
+  <si>
+    <t>2020-06-17 00:53:00</t>
+  </si>
+  <si>
+    <t>etsong0413@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-16 23:16:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eduardo Hernández </t>
+  </si>
+  <si>
+    <t>eduardoortigoza535@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-16 21:10:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nayely Fernandez </t>
+  </si>
+  <si>
+    <t>nayely_162@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-16 15:01:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ar Ortega </t>
+  </si>
+  <si>
+    <t>argenisortegamx@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-16 12:16:30</t>
+  </si>
+  <si>
+    <t>Jorge Alegre</t>
+  </si>
+  <si>
+    <t>jalegrecapdevielle@icloud.com</t>
+  </si>
+  <si>
+    <t>Esta buscando algo en renta, el día 16 de junio quedo de llegar a las 3 y no llego.
+me dijo que verá su agenda la semana q viene para agendar una cita</t>
+  </si>
+  <si>
+    <t>2020-06-16 11:13:13</t>
+  </si>
+  <si>
+    <t>2020-06-16 05:29:57</t>
+  </si>
+  <si>
+    <t>jaque_vazquez11@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-15 20:59:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karen Martínez Reyes </t>
+  </si>
+  <si>
+    <t>karenmatinesmartinesreyes62@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-15 13:13:26</t>
+  </si>
+  <si>
+    <t>benjalinarez@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Envié correo para conocer que necesitan. --  RENTA de una sola habitación y presupuesto bajo. </t>
+  </si>
+  <si>
+    <t>2020-06-15 10:25:55</t>
+  </si>
+  <si>
+    <t>Silvia Casco</t>
+  </si>
+  <si>
+    <t>silvia_casco@hotmail.com</t>
+  </si>
+  <si>
+    <t>BROKER externa, envié correo para ofrecer promoción 4% y ver que necesita su cliente.</t>
+  </si>
+  <si>
+    <t>2020-06-15 01:13:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sofia Liñero </t>
+  </si>
+  <si>
+    <t>sofia.linero@gmail.com</t>
   </si>
   <si>
     <t>Código de clasificación</t>
@@ -455,65 +355,38 @@
     <t xml:space="preserve">Report Powered by KIPER </t>
   </si>
   <si>
-    <t>Broker</t>
+    <t>Ferlu Davila</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaqueline </t>
+  </si>
+  <si>
+    <t>Página Web del Desarrollo</t>
+  </si>
+  <si>
+    <t>Quiere rentar un departamento  --  Se envió correo desde Kiper.</t>
   </si>
   <si>
     <t>Referido</t>
   </si>
   <si>
-    <t xml:space="preserve">Se envió correo desde Kiper.  </t>
-  </si>
-  <si>
-    <t>Se envio correo desde Kiper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isa Ov </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envie correo para conocer que necesita  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envié correo para saber que necesita  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envié correo para conocer que busca  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envié correo para preguntar que es lo que necesita  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envié correo para conocer que necesita </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envié correo para conocer lo que necesita </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envié correo para conocer que necesita  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se envió correo desde Kiper. </t>
-  </si>
-  <si>
-    <t>Tiene 5 millones de pesos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No contesta envie mail con informacion general  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago Perez Amaro </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enia Nicole Tarazon Delgado </t>
-  </si>
-  <si>
-    <t>Envié correo para conocer lo que busca</t>
+    <t>Vallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina Linarez </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marisa </t>
+  </si>
+  <si>
+    <t>ferludalo@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -559,6 +432,49 @@
       <color indexed="12"/>
       <name val="Avenir Book"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -580,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -729,9 +645,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -744,6 +681,27 @@
         <color indexed="8"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -751,14 +709,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -779,9 +733,16 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -790,9 +751,7 @@
       <right style="thin">
         <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -820,6 +779,17 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -854,10 +824,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -934,44 +905,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -996,13 +949,14 @@
     <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1013,22 +967,104 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1166,15 +1202,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>1066800</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>12757</xdr:rowOff>
+      <xdr:colOff>1549400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>57</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1191,13 +1227,14 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="15998825"/>
+          <a:off x="1346200" y="16386175"/>
           <a:ext cx="482600" cy="800158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2293,24 +2330,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV239"/>
+  <dimension ref="A1:IU239"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="14.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="27" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="168.83203125" style="1" customWidth="1"/>
-    <col min="10" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="255" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2534,7 +2570,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="24">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="23" t="s">
@@ -2553,7 +2589,9 @@
       <c r="E21" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="26">
+        <v>1</v>
+      </c>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
       <c r="I21" s="29"/>
@@ -2567,7 +2605,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="26">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
@@ -2582,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="14"/>
@@ -2601,1172 +2639,964 @@
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="24">
-        <v>17</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="23" t="s">
+      <c r="C25" s="81">
+        <v>12</v>
+      </c>
+      <c r="D25" s="82"/>
+      <c r="E25" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="24">
-        <v>12</v>
-      </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
+      <c r="F25" s="81">
+        <v>3</v>
+      </c>
+      <c r="G25" s="83"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="85"/>
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="24">
-        <v>18</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" s="24">
-        <v>1</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="15"/>
+      <c r="C26" s="81">
+        <v>11</v>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="81">
+        <v>15</v>
+      </c>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="88"/>
     </row>
     <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="24">
-        <v>21</v>
-      </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="96" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="90">
+        <v>1</v>
+      </c>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="88"/>
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="24">
+      <c r="B28" s="93"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="96" t="s">
+        <v>112</v>
+      </c>
+      <c r="F28" s="90">
         <v>1</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="88"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="90">
+        <v>3</v>
+      </c>
+      <c r="G29" s="100"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="88"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="88"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="102" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="99"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="88"/>
     </row>
     <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="88"/>
     </row>
     <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48" t="s">
+      <c r="A33" s="5"/>
+      <c r="B33" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="C33" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="D33" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="E33" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="109" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="48" t="s">
+      <c r="G33" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="48" t="s">
+      <c r="H33" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="I33" s="50" t="s">
+      <c r="I33" s="111" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40">
+      <c r="A34" s="41">
         <v>1</v>
       </c>
-      <c r="B34" s="51" t="s">
+      <c r="B34" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="51" t="s">
+      <c r="C34" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="112" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="101" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="101" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="113">
+        <v>5525587376</v>
+      </c>
+      <c r="H34" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="114" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41">
+        <v>2</v>
+      </c>
+      <c r="B35" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="101" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="113">
+        <v>9991851229</v>
+      </c>
+      <c r="H35" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="I35" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41">
+        <v>3</v>
+      </c>
+      <c r="B36" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="G36" s="113">
+        <v>8331047641</v>
+      </c>
+      <c r="H36" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41">
+        <v>4</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="101" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="101" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="101" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="113">
+        <v>3331199618</v>
+      </c>
+      <c r="H37" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37" s="114" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41">
+        <v>5</v>
+      </c>
+      <c r="B38" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="113">
+        <v>5520736850</v>
+      </c>
+      <c r="H38" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="114" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41">
+        <v>6</v>
+      </c>
+      <c r="B39" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="113">
+        <v>7226006011</v>
+      </c>
+      <c r="H39" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41">
+        <v>7</v>
+      </c>
+      <c r="B40" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="D34" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="51" t="s">
-        <v>144</v>
-      </c>
-      <c r="F34" s="51" t="s">
+      <c r="G40" s="113">
+        <v>7713198299</v>
+      </c>
+      <c r="H40" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="G34" s="40">
-        <v>5548801304</v>
-      </c>
-      <c r="H34" s="51" t="s">
+      <c r="I40" s="114" t="s">
         <v>37</v>
       </c>
-      <c r="I34" s="51" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="53">
-        <v>2</v>
-      </c>
-      <c r="B35" s="51" t="s">
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="41">
+        <v>8</v>
+      </c>
+      <c r="B41" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C41" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="D35" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="51" t="s">
+      <c r="D41" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="113">
+        <v>5520928132</v>
+      </c>
+      <c r="H41" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" s="114" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="41">
         <v>9</v>
       </c>
-      <c r="F35" s="51" t="s">
-        <v>46</v>
-      </c>
-      <c r="G35" s="40">
-        <v>5573378033</v>
-      </c>
-      <c r="H35" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" s="51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="54">
-        <v>3</v>
-      </c>
-      <c r="B36" s="51" t="s">
+      <c r="B42" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="101" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="101" t="s">
+        <v>50</v>
+      </c>
+      <c r="G42" s="113">
+        <v>2225296479</v>
+      </c>
+      <c r="H42" s="101" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="41">
+        <v>10</v>
+      </c>
+      <c r="B43" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="51" t="s">
+      <c r="C43" s="101" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" s="101" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="113">
+        <v>3141497974</v>
+      </c>
+      <c r="H43" s="101" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="114" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41">
+        <v>11</v>
+      </c>
+      <c r="B44" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="101" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="51" t="s">
+      <c r="D44" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="40">
-        <v>8180292291</v>
-      </c>
-      <c r="H36" s="51" t="s">
+      <c r="G44" s="113">
+        <v>5522993373</v>
+      </c>
+      <c r="H44" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="I36" s="51" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
-        <v>4</v>
-      </c>
-      <c r="B37" s="51" t="s">
+      <c r="I44" s="114" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41">
+        <v>12</v>
+      </c>
+      <c r="B45" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="113">
+        <v>55133378245</v>
+      </c>
+      <c r="H45" s="101" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="114" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41">
+        <v>13</v>
+      </c>
+      <c r="B46" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C37" s="51" t="s">
+      <c r="C46" s="101" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="51" t="s">
+      <c r="G46" s="113">
+        <v>5612586813</v>
+      </c>
+      <c r="H46" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="40">
-        <v>5540217314</v>
-      </c>
-      <c r="H37" s="51" t="s">
+      <c r="I46" s="114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="41">
+        <v>14</v>
+      </c>
+      <c r="B47" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="I37" s="51" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="53">
-        <v>5</v>
-      </c>
-      <c r="B38" s="51" t="s">
+      <c r="D47" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="101" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="113">
+        <v>4434406385</v>
+      </c>
+      <c r="H47" s="101" t="s">
+        <v>74</v>
+      </c>
+      <c r="I47" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41">
+        <v>15</v>
+      </c>
+      <c r="B48" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="101" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" s="113">
+        <v>8123242144</v>
+      </c>
+      <c r="H48" s="115" t="s">
+        <v>116</v>
+      </c>
+      <c r="I48" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="41">
+        <v>16</v>
+      </c>
+      <c r="B49" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="51" t="s">
+      <c r="C49" s="101" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="51" t="s">
+      <c r="D49" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="113">
+        <v>2292066866</v>
+      </c>
+      <c r="H49" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="40">
-        <v>9994867755</v>
-      </c>
-      <c r="H38" s="51" t="s">
+      <c r="I49" s="114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="41">
+        <v>17</v>
+      </c>
+      <c r="B50" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="I38" s="51" t="s">
+      <c r="D50" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="101" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="54">
-        <v>6</v>
-      </c>
-      <c r="B39" s="51" t="s">
+      <c r="G50" s="113">
+        <v>5617118889</v>
+      </c>
+      <c r="H50" s="101" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="41">
+        <v>18</v>
+      </c>
+      <c r="B51" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" s="101" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="113">
+        <v>5585800790</v>
+      </c>
+      <c r="H51" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="I51" s="114" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="41">
+        <v>19</v>
+      </c>
+      <c r="B52" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C52" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="101" t="s">
+        <v>27</v>
+      </c>
+      <c r="G52" s="113">
+        <v>5533582474</v>
+      </c>
+      <c r="H52" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="114" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41">
+        <v>20</v>
+      </c>
+      <c r="B53" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="D53" s="112" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="101" t="s">
+        <v>92</v>
+      </c>
+      <c r="G53" s="113">
+        <v>7772748682</v>
+      </c>
+      <c r="H53" s="101" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" s="114" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41">
+        <v>21</v>
+      </c>
+      <c r="B54" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" s="101" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="101" t="s">
+        <v>114</v>
+      </c>
+      <c r="G54" s="113">
+        <v>9842797524</v>
+      </c>
+      <c r="H54" s="101" t="s">
+        <v>89</v>
+      </c>
+      <c r="I54" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" s="51" t="s">
-        <v>91</v>
-      </c>
-      <c r="G39" s="40">
-        <v>7228848742</v>
-      </c>
-      <c r="H39" s="51" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" s="51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40">
-        <v>7</v>
-      </c>
-      <c r="B40" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="G40" s="40">
-        <v>6121544983</v>
-      </c>
-      <c r="H40" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="I40" s="51" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="53">
-        <v>8</v>
-      </c>
-      <c r="B41" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C41" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="40">
-        <v>4441112233</v>
-      </c>
-      <c r="H41" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54">
-        <v>9</v>
-      </c>
-      <c r="B42" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>73</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="40">
-        <v>3921110352</v>
-      </c>
-      <c r="H42" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="I42" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40">
-        <v>10</v>
-      </c>
-      <c r="B43" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="51" t="s">
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="41">
+        <v>22</v>
+      </c>
+      <c r="B55" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="101" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="113">
+        <v>5514868979</v>
+      </c>
+      <c r="H55" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="I55" s="116" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="42">
+        <v>23</v>
+      </c>
+      <c r="B56" s="101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" s="101" t="s">
+        <v>42</v>
+      </c>
+      <c r="D56" s="112" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="101" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="G43" s="40">
-        <v>7444215567</v>
-      </c>
-      <c r="H43" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="53">
-        <v>11</v>
-      </c>
-      <c r="B44" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" s="40">
-        <v>7713960739</v>
-      </c>
-      <c r="H44" s="51" t="s">
-        <v>133</v>
-      </c>
-      <c r="I44" s="51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="54">
-        <v>12</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E45" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="G45" s="40">
-        <v>3325923224</v>
-      </c>
-      <c r="H45" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="I45" s="51" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40">
-        <v>13</v>
-      </c>
-      <c r="B46" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E46" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="40">
-        <v>5528585800</v>
-      </c>
-      <c r="H46" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="53">
-        <v>14</v>
-      </c>
-      <c r="B47" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="G47" s="40">
-        <v>2226647393</v>
-      </c>
-      <c r="H47" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="54">
-        <v>15</v>
-      </c>
-      <c r="B48" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="G48" s="40">
-        <v>5611131335</v>
-      </c>
-      <c r="H48" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="51" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40">
-        <v>16</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" s="40">
-        <v>5524142623</v>
-      </c>
-      <c r="H49" s="51" t="s">
-        <v>60</v>
-      </c>
-      <c r="I49" s="51" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="53">
-        <v>17</v>
-      </c>
-      <c r="B50" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>103</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="51" t="s">
-        <v>104</v>
-      </c>
-      <c r="G50" s="40">
-        <v>7221009888</v>
-      </c>
-      <c r="H50" s="51" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50" s="51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="54">
-        <v>18</v>
-      </c>
-      <c r="B51" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="51" t="s">
-        <v>110</v>
-      </c>
-      <c r="G51" s="40">
-        <v>8332859407</v>
-      </c>
-      <c r="H51" s="51" t="s">
+      <c r="F56" s="101" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="113">
+        <v>5549505622</v>
+      </c>
+      <c r="H56" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="I56" s="114" t="s">
         <v>111</v>
       </c>
-      <c r="I51" s="51" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
-        <v>19</v>
-      </c>
-      <c r="B52" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E52" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="G52" s="40">
-        <v>5554070688</v>
-      </c>
-      <c r="H52" s="51" t="s">
-        <v>124</v>
-      </c>
-      <c r="I52" s="51" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="53">
-        <v>20</v>
-      </c>
-      <c r="B53" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E53" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="G53" s="40">
-        <v>5588050507</v>
-      </c>
-      <c r="H53" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" s="51" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="54">
-        <v>21</v>
-      </c>
-      <c r="B54" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E54" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="51" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" s="40">
-        <v>8311597993</v>
-      </c>
-      <c r="H54" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="I54" s="44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
-        <v>22</v>
-      </c>
-      <c r="B55" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="G55" s="40">
-        <v>1560360634</v>
-      </c>
-      <c r="H55" s="51" t="s">
-        <v>51</v>
-      </c>
-      <c r="I55" s="51" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="53">
-        <v>23</v>
-      </c>
-      <c r="B56" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>55</v>
-      </c>
-      <c r="D56" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="G56" s="40">
-        <v>9988201805</v>
-      </c>
-      <c r="H56" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="I56" s="51" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="54">
-        <v>24</v>
-      </c>
-      <c r="B57" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E57" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="G57" s="40">
-        <v>9981578793</v>
-      </c>
-      <c r="H57" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="I57" s="51" t="s">
-        <v>156</v>
-      </c>
+      <c r="A57" s="40"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40">
-        <v>25</v>
-      </c>
-      <c r="B58" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="51" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" s="40">
-        <v>3022416623</v>
-      </c>
-      <c r="H58" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="I58" s="51" t="s">
-        <v>146</v>
-      </c>
+      <c r="A58" s="40"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="53">
-        <v>26</v>
-      </c>
-      <c r="B59" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E59" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="G59" s="40">
-        <v>4421794890</v>
-      </c>
-      <c r="H59" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="I59" s="51" t="s">
-        <v>146</v>
-      </c>
+      <c r="A59" s="40"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54">
-        <v>27</v>
-      </c>
-      <c r="B60" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="51" t="s">
-        <v>94</v>
-      </c>
-      <c r="D60" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E60" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="51" t="s">
-        <v>160</v>
-      </c>
-      <c r="G60" s="40">
-        <v>6121373285</v>
-      </c>
-      <c r="H60" s="51" t="s">
-        <v>95</v>
-      </c>
-      <c r="I60" s="51" t="s">
-        <v>146</v>
-      </c>
+      <c r="A60" s="40"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40">
-        <v>28</v>
-      </c>
-      <c r="B61" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="51" t="s">
-        <v>107</v>
-      </c>
-      <c r="G61" s="40">
-        <v>5610531758</v>
-      </c>
-      <c r="H61" s="51" t="s">
-        <v>108</v>
-      </c>
-      <c r="I61" s="51" t="s">
-        <v>146</v>
-      </c>
+      <c r="A61" s="40"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="53">
-        <v>29</v>
-      </c>
-      <c r="B62" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E62" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="G62" s="40">
-        <v>5678901235</v>
-      </c>
-      <c r="H62" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="I62" s="51" t="s">
-        <v>146</v>
-      </c>
+      <c r="A62" s="40"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="54">
-        <v>30</v>
-      </c>
-      <c r="B63" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="D63" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="G63" s="40">
-        <v>5616164729</v>
-      </c>
-      <c r="H63" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="I63" s="51" t="s">
-        <v>44</v>
-      </c>
+      <c r="A63" s="40"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
-        <v>31</v>
-      </c>
-      <c r="B64" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>96</v>
-      </c>
-      <c r="D64" s="52" t="s">
-        <v>139</v>
-      </c>
-      <c r="E64" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="F64" s="51" t="s">
-        <v>97</v>
-      </c>
-      <c r="G64" s="40">
-        <v>5551279866</v>
-      </c>
-      <c r="H64" s="51" t="s">
-        <v>98</v>
-      </c>
-      <c r="I64" s="51" t="s">
-        <v>69</v>
-      </c>
+      <c r="A64" s="40"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="53">
-        <v>32</v>
-      </c>
-      <c r="B65" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>99</v>
-      </c>
-      <c r="D65" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E65" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="F65" s="51" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65" s="40">
-        <v>5563536081</v>
-      </c>
-      <c r="H65" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="I65" s="55" t="s">
-        <v>102</v>
-      </c>
+      <c r="A65" s="40"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="54">
-        <v>33</v>
-      </c>
-      <c r="B66" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E66" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F66" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="G66" s="44"/>
-      <c r="H66" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="I66" s="51" t="s">
-        <v>79</v>
-      </c>
+      <c r="A66" s="40"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
+      <c r="I66" s="40"/>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40">
-        <v>34</v>
-      </c>
-      <c r="B67" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D67" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F67" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="G67" s="44"/>
-      <c r="H67" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I67" s="44" t="s">
-        <v>147</v>
-      </c>
+      <c r="A67" s="40"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
+      <c r="I67" s="40"/>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="53">
-        <v>35</v>
-      </c>
-      <c r="B68" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E68" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" s="40">
-        <v>9212625458</v>
-      </c>
-      <c r="H68" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="I68" s="51" t="s">
-        <v>157</v>
-      </c>
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="47"/>
+      <c r="F68" s="47"/>
+      <c r="G68" s="47"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="49"/>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="45"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="45"/>
-      <c r="F69" s="45"/>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="57"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="7"/>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
-      <c r="D70" s="58"/>
+      <c r="D70" s="50"/>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
@@ -3777,7 +3607,7 @@
       <c r="A71" s="5"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="58"/>
+      <c r="D71" s="50"/>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
@@ -3786,119 +3616,119 @@
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="58"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="60"/>
+      <c r="B72" s="51"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51"/>
+      <c r="G72" s="51"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="52"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="5"/>
-      <c r="B73" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="C73" s="62"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
+      <c r="B73" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="54"/>
+      <c r="D73" s="55"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
       <c r="G73" s="17"/>
-      <c r="H73" s="64"/>
-      <c r="I73" s="65"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="57"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="63"/>
-      <c r="F74" s="63"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
       <c r="G74" s="17"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="65"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="57"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="68"/>
-      <c r="I75" s="65"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="60"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="57"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22"/>
-      <c r="B76" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="D76" s="71"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="74"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="76"/>
+      <c r="B76" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="C76" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="D76" s="64"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="68"/>
+      <c r="I76" s="69"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="22"/>
-      <c r="B77" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="70" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="71"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="73"/>
-      <c r="G77" s="74"/>
-      <c r="H77" s="75"/>
-      <c r="I77" s="76"/>
+      <c r="B77" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="64"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="68"/>
+      <c r="I77" s="69"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="22"/>
-      <c r="B78" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="70" t="s">
-        <v>140</v>
-      </c>
-      <c r="D78" s="71"/>
-      <c r="E78" s="72"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="74"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="76"/>
+      <c r="B78" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="67"/>
+      <c r="H78" s="68"/>
+      <c r="I78" s="69"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
-      <c r="B79" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="70" t="s">
-        <v>142</v>
-      </c>
-      <c r="D79" s="71"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="77"/>
-      <c r="H79" s="78"/>
-      <c r="I79" s="79"/>
+      <c r="B79" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>106</v>
+      </c>
+      <c r="D79" s="64"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="70"/>
+      <c r="H79" s="71"/>
+      <c r="I79" s="72"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="45"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="45"/>
-      <c r="F80" s="46"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="74"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
       <c r="I80" s="7"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3947,8 +3777,8 @@
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="80" t="s">
-        <v>143</v>
+      <c r="B85" s="75" t="s">
+        <v>107</v>
       </c>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
@@ -5642,25 +5472,28 @@
       <c r="I238" s="7"/>
     </row>
     <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="81"/>
-      <c r="B239" s="82"/>
-      <c r="C239" s="82"/>
-      <c r="D239" s="82"/>
-      <c r="E239" s="82"/>
-      <c r="F239" s="83"/>
-      <c r="G239" s="82"/>
-      <c r="H239" s="82"/>
-      <c r="I239" s="84"/>
+      <c r="A239" s="76"/>
+      <c r="B239" s="77"/>
+      <c r="C239" s="77"/>
+      <c r="D239" s="77"/>
+      <c r="E239" s="77"/>
+      <c r="F239" s="78"/>
+      <c r="G239" s="77"/>
+      <c r="H239" s="77"/>
+      <c r="I239" s="79"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A35:A68">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A56">
     <sortCondition ref="A34"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="H48" r:id="rId1" xr:uid="{3873D696-06F3-4C6A-8BE1-D177FEC5C112}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup scale="80" orientation="landscape"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAE98543-C464-D348-87A6-2463DFB89226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{399BC67C-B79F-434D-B742-5624C28D1DA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,12 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="199">
   <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
-    <t>15 - 21 de Junio del 2020</t>
+    <t>22 - 28 de Junio del 2020</t>
   </si>
   <si>
     <t>Reporte Ejecutivo</t>
@@ -60,7 +62,13 @@
     <t>Facebook</t>
   </si>
   <si>
-    <t xml:space="preserve">Balora A. </t>
+    <t xml:space="preserve">Belora A. </t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Jose L.</t>
   </si>
   <si>
     <t>Google</t>
@@ -96,297 +104,538 @@
     <t>Alejandra Campos García</t>
   </si>
   <si>
-    <t>2020-06-20 15:41:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leticia Rodríguez Peña </t>
-  </si>
-  <si>
-    <t>rho.alrp@gmail.com</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer que necesita.</t>
-  </si>
-  <si>
-    <t>2020-06-20 11:23:40</t>
-  </si>
-  <si>
-    <t>Meredith Monserrat Pineda Serrano</t>
-  </si>
-  <si>
-    <t>mere_pene_serrano@outlook.com</t>
+    <t>2020-06-28 00:21:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nisme Aragon </t>
+  </si>
+  <si>
+    <t>Nisme83@gmail.com</t>
+  </si>
+  <si>
+    <t>CORREO primero contacto enviado</t>
   </si>
   <si>
     <t>Belora Abadi Husny</t>
   </si>
   <si>
-    <t>2020-06-20 11:16:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varas Guillermo </t>
-  </si>
-  <si>
-    <t>fguillermovaras@hotmail.com</t>
+    <t>2020-06-27 20:43:16</t>
+  </si>
+  <si>
+    <t>María José Calderilla Ramírez</t>
+  </si>
+  <si>
+    <t>contacto.majoramm@gmail.com</t>
   </si>
   <si>
     <t>Se envió correo desde Kiper.</t>
   </si>
   <si>
-    <t>2020-06-20 01:54:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giovanna Abigail </t>
-  </si>
-  <si>
-    <t>giovanna_1175@hotmail.com</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer que necistan.</t>
-  </si>
-  <si>
-    <t>2020-06-19 14:41:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ankita Gandhi </t>
-  </si>
-  <si>
-    <t>ankita.g1983@gmail.com</t>
+    <t>2020-06-27 20:31:21</t>
+  </si>
+  <si>
+    <t>claudiabarranco@gbconsultores.mx</t>
+  </si>
+  <si>
+    <t>2020-06-27 20:15:14</t>
+  </si>
+  <si>
+    <t>jordylyon4@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-27 17:18:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yamile </t>
+  </si>
+  <si>
+    <t>camarenanorma13@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-27 15:29:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catalina bonnefoi </t>
+  </si>
+  <si>
+    <t>Catalina.bonnefoi@aktivacp.com</t>
+  </si>
+  <si>
+    <t>CORREO primer contacto enviado</t>
+  </si>
+  <si>
+    <t>2020-06-27 14:33:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flor  Duarte </t>
+  </si>
+  <si>
+    <t>honey_chgna0212@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-27 10:57:38</t>
+  </si>
+  <si>
+    <t>Gonzalo Martín</t>
+  </si>
+  <si>
+    <t>gmvh_2000@yahoo.com</t>
+  </si>
+  <si>
+    <t>2020-06-27 10:55:33</t>
+  </si>
+  <si>
+    <t>Fernando Martínez</t>
+  </si>
+  <si>
+    <t>alanborrebeat18@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-27 10:04:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolfo </t>
+  </si>
+  <si>
+    <t>rivasquiala@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-27 09:38:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Victoria Avila Arroyo </t>
+  </si>
+  <si>
+    <t>vickyavila643@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-27 02:07:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian daniel benitez aguilera </t>
+  </si>
+  <si>
+    <t>maximo.plur@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-27 01:11:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fátima Sofía Rodríguez Paz </t>
+  </si>
+  <si>
+    <t>fatimazofia24@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-26 23:58:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Aduna </t>
+  </si>
+  <si>
+    <t>Jorge_aduna@hotmail.com</t>
+  </si>
+  <si>
+    <t>CORREO primer contacto</t>
+  </si>
+  <si>
+    <t>2020-06-26 13:11:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosy B. de Levy </t>
+  </si>
+  <si>
+    <t>levyrosy@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-26 05:02:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Angel Ochoa Monterrubio </t>
+  </si>
+  <si>
+    <t>ja8amon@hotmail.com</t>
+  </si>
+  <si>
+    <t>CORREO de primero contacto</t>
+  </si>
+  <si>
+    <t>2020-06-26 04:51:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo rivera </t>
+  </si>
+  <si>
+    <t>riverahugo458@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-25 20:19:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lucia Castillo </t>
+  </si>
+  <si>
+    <t>inccesa94@hotmail.com</t>
+  </si>
+  <si>
+    <t>Envié correo de primer contacto</t>
+  </si>
+  <si>
+    <t>2020-06-25 16:53:03</t>
+  </si>
+  <si>
+    <t>Sara Asch</t>
+  </si>
+  <si>
+    <t>sara_asch@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-25 16:26:32</t>
+  </si>
+  <si>
+    <t>krol.tovar@gmail.com</t>
+  </si>
+  <si>
+    <t>COTIZACION del 201F de 201 m2, lo quiere para entrega inmediata y visita el proximo 1 de julio</t>
+  </si>
+  <si>
+    <t>2020-06-25 14:55:26</t>
+  </si>
+  <si>
+    <t>romilautoso@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-25 13:54:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don Victor  Rivero </t>
+  </si>
+  <si>
+    <t>victoriver@hotmail.com</t>
+  </si>
+  <si>
+    <t>CORREO se regresa, le llamé sale buzon</t>
+  </si>
+  <si>
+    <t>Jose Luis Vaca Ramos</t>
+  </si>
+  <si>
+    <t>2020-06-25 12:10:08</t>
+  </si>
+  <si>
+    <t>Daniel Gutierrez Torres</t>
+  </si>
+  <si>
+    <t>daniel1703.gt@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-25 11:40:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Francisco Ávila Ruvalcaba </t>
+  </si>
+  <si>
+    <t>paco.avila.ruvalcaba@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-25 10:36:33</t>
+  </si>
+  <si>
+    <t>Laura Cázares Rivera</t>
+  </si>
+  <si>
+    <t>l.cazaresr07@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-25 10:30:58</t>
+  </si>
+  <si>
+    <t>Noemí Elizabeth Aguilar</t>
+  </si>
+  <si>
+    <t>elizabertaguilar@gmail.com</t>
+  </si>
+  <si>
+    <t>CORREO de primer contacto</t>
+  </si>
+  <si>
+    <t>2020-06-24 18:41:18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauricio Saade </t>
+  </si>
+  <si>
+    <t>saade4@hotmail.com</t>
+  </si>
+  <si>
+    <t>CORREO para conocer que esta buscando  --  WHAPP de primer contacto</t>
+  </si>
+  <si>
+    <t>2020-06-24 13:03:15</t>
+  </si>
+  <si>
+    <t>Idalia Palafox</t>
+  </si>
+  <si>
+    <t>idaliapalafox@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-24 11:56:33</t>
+  </si>
+  <si>
+    <t>Alejandro Salazar Mendoza</t>
+  </si>
+  <si>
+    <t>ingealeunam@gmail.com</t>
+  </si>
+  <si>
+    <t>Corredor, busca opciones para un cliente.
+Le envíe el recorrido en 3D al departamento muestra, varias cotizaciones y el folleto electronico.
+Se lo muestra al cliente y me avisa si agendamos una cita</t>
+  </si>
+  <si>
+    <t>2020-06-24 11:50:00</t>
+  </si>
+  <si>
+    <t>Angelica Arias</t>
+  </si>
+  <si>
+    <t>5577750616@phonecall.mx</t>
+  </si>
+  <si>
+    <t>Quiere algo en renta, dos recamaras y dos el presupuesto que tiene es sobre 30 o 35 mil pesos</t>
+  </si>
+  <si>
+    <t>2020-06-23 23:14:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diana </t>
+  </si>
+  <si>
+    <t>diana.phatonhive@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-23 23:13:48</t>
+  </si>
+  <si>
+    <t>zentiotl@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-23 18:44:07</t>
+  </si>
+  <si>
+    <t>Adrian Eguize</t>
+  </si>
+  <si>
+    <t>adrianmartinezjuarez07@gmail.com</t>
+  </si>
+  <si>
+    <t>COTIZACIONES 301B 502E necesita 3 recámaras, posible visita el jueves 25</t>
+  </si>
+  <si>
+    <t>2020-06-23 17:05:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Araceli Gallardo </t>
+  </si>
+  <si>
+    <t>gallardo.araceli@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-23 13:55:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berenice Flores </t>
+  </si>
+  <si>
+    <t>berenicef1286@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-23 13:46:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniel Chavez </t>
+  </si>
+  <si>
+    <t>daniel.gurunda@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-23 13:02:12</t>
+  </si>
+  <si>
+    <t>Luis Fernando Pérez</t>
+  </si>
+  <si>
+    <t>luis80fernando@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-22 23:52:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German Arguelles </t>
+  </si>
+  <si>
+    <t>germanarguelles@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-22 17:23:53</t>
+  </si>
+  <si>
+    <t>Patricia Sesma</t>
+  </si>
+  <si>
+    <t>housesunlimitedmx@gamil.com</t>
+  </si>
+  <si>
+    <t>BROKER externo, busca a partir de 200 m2, envié COTIZACIONES de PHA3 201D y GHC</t>
+  </si>
+  <si>
+    <t>2020-06-22 16:58:37</t>
+  </si>
+  <si>
+    <t>María de los Angeles Alvarez Shuger</t>
+  </si>
+  <si>
+    <t>albam0175@gmail.com</t>
+  </si>
+  <si>
+    <t>vive en Guatemala, esta buscando algo de 10 millones para vivir en mexico en un año</t>
+  </si>
+  <si>
+    <t>2020-06-22 12:39:09</t>
+  </si>
+  <si>
+    <t>Clara Amor Rodriguez Peña</t>
+  </si>
+  <si>
+    <t>clara@iphonecell.com</t>
+  </si>
+  <si>
+    <t>Quiere ver opciones de departamentos,</t>
+  </si>
+  <si>
+    <t>2020-06-22 12:16:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ana Paola Mañon </t>
+  </si>
+  <si>
+    <t>anapaomm@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-06-22 12:10:18</t>
+  </si>
+  <si>
+    <t>leticia@iphonecall.com</t>
+  </si>
+  <si>
+    <t>Quiere toda la info por whats app, mande varias cotizaciones</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>POTENCIAL, INTERESADO Y CON PRESUPUESTO</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>QUIZÁ, LO ESTÁ PENSANDO</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>NO CONTESTA CEL, NO CONTESTA MAIL, NO LE INTERESA Y BAJO PRESUPUESTO</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DATOS FALSOS, NO LE INTERESA, BAJO PRESUPUESTO, NO APTOS PARA NUESTROS DESARROLLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Powered by KIPER </t>
+  </si>
+  <si>
+    <t>Vallas</t>
+  </si>
+  <si>
+    <t>VISITA y lleva COTIZACION DEL 301B y 502E quiere mas espacio para despensa pero va a revisarlo, no deja teléfono</t>
+  </si>
+  <si>
+    <t>Página del Desarrollo</t>
+  </si>
+  <si>
+    <t>Carolina Tovar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COTIZACIONES 404A y 502E quiere conocer los precios porque esta vendiendo su departamento y en cuanto lo haga podría comprar </t>
+  </si>
+  <si>
+    <t>COTIZACIONES 404A 502E para revisar precios, Queria de 150 m, no disponibles. CORREO duda sobre cuota de equipamiento, y es posible que necesite crédito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia Barranco Guevara </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José </t>
   </si>
   <si>
     <t xml:space="preserve">Se envió correo desde Kiper. </t>
   </si>
   <si>
-    <t>2020-06-19 13:36:43</t>
-  </si>
-  <si>
-    <t>Francisco Pinilla</t>
-  </si>
-  <si>
-    <t>francisco_pinilla@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-19 11:09:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pamela García </t>
-  </si>
-  <si>
-    <t>pamela.garcia@hotmail.com</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer que necesita</t>
-  </si>
-  <si>
-    <t>2020-06-19 08:13:54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura Arratia Ramirez </t>
-  </si>
-  <si>
-    <t>laar_1389@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-18 17:56:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Palomino Renteria </t>
-  </si>
-  <si>
-    <t>interobrabienesyservicios@gmail.com</t>
-  </si>
-  <si>
-    <t>Envié correo para conocer que busca.</t>
-  </si>
-  <si>
-    <t>2020-06-18 11:07:17</t>
-  </si>
-  <si>
-    <t>Roberto De los Santos</t>
-  </si>
-  <si>
-    <t>santos.o.roberto@gamil.com</t>
-  </si>
-  <si>
-    <t>VISITA, quiere arriba de 150 m2 solo que NO quiere VER ningún vecino por su ventana.</t>
-  </si>
-  <si>
-    <t>2020-06-18 08:27:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliana Piedad </t>
-  </si>
-  <si>
-    <t>licliliana@prodigy.ner.mx</t>
-  </si>
-  <si>
-    <t>2020-06-17 17:57:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adriana </t>
-  </si>
-  <si>
-    <t>adrinp91@gmail.com</t>
-  </si>
-  <si>
-    <t>Envié correo para saber que busca.</t>
-  </si>
-  <si>
-    <t>2020-06-17 00:53:00</t>
-  </si>
-  <si>
-    <t>etsong0413@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-16 23:16:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Hernández </t>
-  </si>
-  <si>
-    <t>eduardoortigoza535@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-16 21:10:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nayely Fernandez </t>
-  </si>
-  <si>
-    <t>nayely_162@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-16 15:01:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar Ortega </t>
-  </si>
-  <si>
-    <t>argenisortegamx@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-16 12:16:30</t>
-  </si>
-  <si>
-    <t>Jorge Alegre</t>
-  </si>
-  <si>
-    <t>jalegrecapdevielle@icloud.com</t>
-  </si>
-  <si>
-    <t>Esta buscando algo en renta, el día 16 de junio quedo de llegar a las 3 y no llego.
-me dijo que verá su agenda la semana q viene para agendar una cita</t>
-  </si>
-  <si>
-    <t>2020-06-16 11:13:13</t>
-  </si>
-  <si>
-    <t>2020-06-16 05:29:57</t>
-  </si>
-  <si>
-    <t>jaque_vazquez11@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-15 20:59:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen Martínez Reyes </t>
-  </si>
-  <si>
-    <t>karenmatinesmartinesreyes62@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-15 13:13:26</t>
-  </si>
-  <si>
-    <t>benjalinarez@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Envié correo para conocer que necesitan. --  RENTA de una sola habitación y presupuesto bajo. </t>
-  </si>
-  <si>
-    <t>2020-06-15 10:25:55</t>
-  </si>
-  <si>
-    <t>Silvia Casco</t>
-  </si>
-  <si>
-    <t>silvia_casco@hotmail.com</t>
-  </si>
-  <si>
-    <t>BROKER externa, envié correo para ofrecer promoción 4% y ver que necesita su cliente.</t>
-  </si>
-  <si>
-    <t>2020-06-15 01:13:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sofia Liñero </t>
-  </si>
-  <si>
-    <t>sofia.linero@gmail.com</t>
-  </si>
-  <si>
-    <t>Código de clasificación</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>POTENCIAL, INTERESADO Y CON PRESUPUESTO</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>QUIZÁ, LO ESTÁ PENSANDO</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>NO CONTESTA CEL, NO CONTESTA MAIL, NO LE INTERESA Y BAJO PRESUPUESTO</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>DATOS FALSOS, NO LE INTERESA, BAJO PRESUPUESTO, NO APTOS PARA NUESTROS DESARROLLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report Powered by KIPER </t>
-  </si>
-  <si>
-    <t>Ferlu Davila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaqueline </t>
-  </si>
-  <si>
-    <t>Página Web del Desarrollo</t>
-  </si>
-  <si>
-    <t>Quiere rentar un departamento  --  Se envió correo desde Kiper.</t>
+    <t xml:space="preserve">Se envió correo desde Kiper.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dice que se llama Fernando Marti, pero su whats dice que se llama German Galvan Guevara, tiene una empresa de redes sociales y anuncios de Facebook  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORREO primer contacto  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corredora, solicita información de los departamentos  </t>
+  </si>
+  <si>
+    <t>Prospecté a este Corredor para que nos traiga Clientes. Le envie información de Av. Nápoles y de Av. Polanco</t>
+  </si>
+  <si>
+    <t>Se envió correo desde Kiper. Corredora, con un cliente que busca algo en nuevo polanco pero le va a ofrecer a su cliente</t>
+  </si>
+  <si>
+    <t>Corredora, se le envio info de nápoles y polanco para un cliente con presupuesto de 12 millones</t>
+  </si>
+  <si>
+    <t>Leticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quiere algo en renta por 6 meses pero el presupuesto es maximo 30 mil pesos  </t>
+  </si>
+  <si>
+    <t>WHAPP Polanco sale de su presupuesto, ofrecí Av Napoles, en espera de su aprobación. Busca algo grande con poco presupuesto.</t>
+  </si>
+  <si>
+    <t>Se envió correo desde Kiper, entra directo al buzon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIN TELEFONO no he recibido respuesta del correo  </t>
+  </si>
+  <si>
+    <t>LLAMADA no contesta, envié whatsapp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romina </t>
   </si>
   <si>
     <t>Referido</t>
-  </si>
-  <si>
-    <t>Vallas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carolina Linarez </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marisa </t>
-  </si>
-  <si>
-    <t>ferludalo@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -423,57 +672,9 @@
       <name val="Avenir Heavy"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Avenir Book"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Avenir Book"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="12"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
+      <name val="Avenir Heavy"/>
     </font>
   </fonts>
   <fills count="4">
@@ -496,7 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -694,9 +895,13 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -710,49 +915,22 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -824,11 +1002,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -909,54 +1086,61 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -967,104 +1151,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1202,15 +1307,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1066800</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1549400</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>57</xdr:rowOff>
+      <xdr:colOff>1308100</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>357</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1227,15 +1332,14 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1346200" y="16386175"/>
-          <a:ext cx="482600" cy="800158"/>
+          <a:off x="1104900" y="16835419"/>
+          <a:ext cx="482601" cy="800159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2330,10 +2434,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IU239"/>
+  <dimension ref="A1:IQ239"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2342,11 +2446,12 @@
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="168.83203125" style="1" customWidth="1"/>
-    <col min="10" max="255" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="160.83203125" style="1" customWidth="1"/>
+    <col min="10" max="251" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2570,7 +2675,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="24">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="23" t="s">
@@ -2590,7 +2695,7 @@
         <v>5</v>
       </c>
       <c r="F21" s="26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="28"/>
@@ -2605,7 +2710,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="26">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
@@ -2620,7 +2725,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="14"/>
@@ -2639,1129 +2744,1473 @@
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="81">
-        <v>12</v>
-      </c>
-      <c r="D25" s="82"/>
-      <c r="E25" s="80" t="s">
+      <c r="C25" s="24">
+        <v>20</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="81">
-        <v>3</v>
-      </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="85"/>
+      <c r="F25" s="24">
+        <v>8</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="81">
+      <c r="C26" s="24">
+        <v>22</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="81">
-        <v>15</v>
-      </c>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="88"/>
+      <c r="F26" s="24">
+        <v>17</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="22"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="96" t="s">
-        <v>113</v>
-      </c>
-      <c r="F27" s="90">
+      <c r="B27" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="24">
         <v>1</v>
       </c>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="88"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="24">
+        <v>18</v>
+      </c>
+      <c r="G27" s="27"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="F28" s="90">
-        <v>1</v>
-      </c>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="88"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="F29" s="90">
-        <v>3</v>
-      </c>
-      <c r="G29" s="100"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="88"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="101"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="88"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="88"/>
+      <c r="B31" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
     </row>
     <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="88"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
     </row>
     <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="109" t="s">
+      <c r="B33" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="52">
+        <v>1</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="55"/>
+      <c r="H34" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="52">
+        <v>2</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F35" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="G35" s="54">
+        <v>5539792389</v>
+      </c>
+      <c r="H35" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="I35" s="45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="52">
+        <v>3</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="F36" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G36" s="54">
+        <v>5587027267</v>
+      </c>
+      <c r="H36" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="I36" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="52">
+        <v>4</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F37" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="54">
+        <v>5574550950</v>
+      </c>
+      <c r="H37" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="52">
+        <v>5</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="54">
+        <v>5521292667</v>
+      </c>
+      <c r="H38" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="I38" s="45" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="52">
+        <v>6</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="54">
+        <v>6562059422</v>
+      </c>
+      <c r="H39" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="52">
+        <v>7</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F40" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" s="54">
+        <v>5618370550</v>
+      </c>
+      <c r="H40" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="52">
+        <v>8</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="45" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" s="54">
+        <v>2281081406</v>
+      </c>
+      <c r="H41" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="52">
+        <v>9</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="G42" s="54">
+        <v>2464596123</v>
+      </c>
+      <c r="H42" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42" s="45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="52">
+        <v>10</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="54">
+        <v>5585451939</v>
+      </c>
+      <c r="H43" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I43" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="52">
+        <v>11</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="G44" s="54">
+        <v>525539776194</v>
+      </c>
+      <c r="H44" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="52">
+        <v>12</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="54">
+        <v>4432140939</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="52">
+        <v>13</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E46" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G46" s="54">
+        <v>5538405303</v>
+      </c>
+      <c r="H46" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" s="45" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="52">
         <v>14</v>
       </c>
-      <c r="D33" s="109" t="s">
+      <c r="B47" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="54">
+        <v>6564443194</v>
+      </c>
+      <c r="H47" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I47" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="52">
         <v>15</v>
       </c>
-      <c r="E33" s="110" t="s">
+      <c r="B48" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="54">
+        <v>5617257302</v>
+      </c>
+      <c r="H48" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="I48" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="52">
         <v>16</v>
       </c>
-      <c r="F33" s="109" t="s">
+      <c r="B49" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E49" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="G49" s="54">
+        <v>5528627644</v>
+      </c>
+      <c r="H49" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="I49" s="45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="52">
+        <v>18</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="54">
+        <v>5555073773</v>
+      </c>
+      <c r="H50" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="52">
+        <v>19</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="54">
+        <v>5551001633</v>
+      </c>
+      <c r="H51" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="52">
+        <v>20</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D52" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" s="54">
+        <v>8115839569</v>
+      </c>
+      <c r="H52" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52" s="45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="52">
+        <v>21</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="54">
+        <v>5560114393</v>
+      </c>
+      <c r="H53" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="52">
+        <v>22</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="D54" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="54">
+        <v>5527226965</v>
+      </c>
+      <c r="H54" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="I54" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="52">
+        <v>23</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F55" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="54">
+        <v>7445349303</v>
+      </c>
+      <c r="H55" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="I55" s="45" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="52">
+        <v>24</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="54">
+        <v>5531156587</v>
+      </c>
+      <c r="H56" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="45" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="52">
+        <v>25</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="G57" s="54">
+        <v>5562329745</v>
+      </c>
+      <c r="H57" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="I57" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="52">
+        <v>26</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G58" s="54">
+        <v>5617365117</v>
+      </c>
+      <c r="H58" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="I58" s="56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="52">
+        <v>27</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" s="54">
+        <v>3322487864</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="I59" s="45" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="52">
+        <v>28</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="G60" s="54">
+        <v>7717475047</v>
+      </c>
+      <c r="H60" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" s="45" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="52">
+        <v>29</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G61" s="54">
+        <v>5523072400</v>
+      </c>
+      <c r="H61" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="I61" s="45" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="52">
+        <v>30</v>
+      </c>
+      <c r="B62" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" s="54">
+        <v>5561825723</v>
+      </c>
+      <c r="H62" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="I62" s="56" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="52">
+        <v>31</v>
+      </c>
+      <c r="B63" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" s="54">
+        <v>5521798818</v>
+      </c>
+      <c r="H63" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="I63" s="45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="52">
+        <v>32</v>
+      </c>
+      <c r="B64" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="G64" s="54">
+        <v>5552171506</v>
+      </c>
+      <c r="H64" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="I64" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="52">
+        <v>33</v>
+      </c>
+      <c r="B65" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E65" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G65" s="54">
+        <v>3314105828</v>
+      </c>
+      <c r="H65" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I65" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="52">
+        <v>34</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="E66" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F66" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="G66" s="54">
+        <v>5546020331</v>
+      </c>
+      <c r="H66" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="I66" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="52">
+        <v>35</v>
+      </c>
+      <c r="B67" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E67" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="G67" s="54">
+        <v>50242996985</v>
+      </c>
+      <c r="H67" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="I67" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="52">
+        <v>36</v>
+      </c>
+      <c r="B68" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C68" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D68" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E68" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="F68" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="G68" s="55"/>
+      <c r="H68" s="45" t="s">
+        <v>158</v>
+      </c>
+      <c r="I68" s="45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="52">
+        <v>37</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="45" t="s">
+        <v>161</v>
+      </c>
+      <c r="G69" s="54">
+        <v>5546911756</v>
+      </c>
+      <c r="H69" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="I69" s="45" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="52">
+        <v>38</v>
+      </c>
+      <c r="B70" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="55" t="s">
+        <v>191</v>
+      </c>
+      <c r="G70" s="55"/>
+      <c r="H70" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="I70" s="45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="52">
         <v>17</v>
       </c>
-      <c r="G33" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="109" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="111" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="41">
-        <v>1</v>
-      </c>
-      <c r="B34" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C34" s="101" t="s">
-        <v>56</v>
-      </c>
-      <c r="D34" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="E34" s="101" t="s">
-        <v>113</v>
-      </c>
-      <c r="F34" s="101" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="113">
-        <v>5525587376</v>
-      </c>
-      <c r="H34" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="I34" s="114" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="41">
-        <v>2</v>
-      </c>
-      <c r="B35" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C35" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="113">
-        <v>9991851229</v>
-      </c>
-      <c r="H35" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="I35" s="114" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="41">
-        <v>3</v>
-      </c>
-      <c r="B36" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="101" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E36" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="113">
-        <v>8331047641</v>
-      </c>
-      <c r="H36" s="101" t="s">
+      <c r="B71" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="I36" s="114" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41">
-        <v>4</v>
-      </c>
-      <c r="B37" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" s="101" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E37" s="101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="101" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" s="113">
-        <v>3331199618</v>
-      </c>
-      <c r="H37" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="I37" s="114" t="s">
+      <c r="D71" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F71" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G71" s="55"/>
+      <c r="H71" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="I71" s="45" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="52">
+        <v>39</v>
+      </c>
+      <c r="B72" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F72" s="45" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="41">
-        <v>5</v>
-      </c>
-      <c r="B38" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="101" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="101" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38" s="113">
-        <v>5520736850</v>
-      </c>
-      <c r="H38" s="101" t="s">
+      <c r="G72" s="54">
+        <v>5580490196</v>
+      </c>
+      <c r="H72" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" s="45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="52">
         <v>40</v>
       </c>
-      <c r="I38" s="114" t="s">
+      <c r="B73" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E73" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="G73" s="54">
+        <v>5510519664</v>
+      </c>
+      <c r="H73" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="52">
         <v>41</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="41">
-        <v>6</v>
-      </c>
-      <c r="B39" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E39" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="101" t="s">
+      <c r="B74" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E74" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G74" s="54">
+        <v>5577750616</v>
+      </c>
+      <c r="H74" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="I74" s="45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="52">
+        <v>42</v>
+      </c>
+      <c r="B75" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="G39" s="113">
-        <v>7226006011</v>
-      </c>
-      <c r="H39" s="101" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="114" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41">
-        <v>7</v>
-      </c>
-      <c r="B40" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C40" s="101" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E40" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="101" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" s="113">
-        <v>7713198299</v>
-      </c>
-      <c r="H40" s="101" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="114" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="41">
-        <v>8</v>
-      </c>
-      <c r="B41" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="101" t="s">
-        <v>45</v>
-      </c>
-      <c r="D41" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="113">
-        <v>5520928132</v>
-      </c>
-      <c r="H41" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" s="114" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41">
-        <v>9</v>
-      </c>
-      <c r="B42" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="101" t="s">
-        <v>49</v>
-      </c>
-      <c r="D42" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="101" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" s="113">
-        <v>2225296479</v>
-      </c>
-      <c r="H42" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="I42" s="114" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="41">
-        <v>10</v>
-      </c>
-      <c r="B43" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="101" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E43" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="G43" s="113">
-        <v>3141497974</v>
-      </c>
-      <c r="H43" s="101" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="114" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="41">
-        <v>11</v>
-      </c>
-      <c r="B44" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C44" s="101" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F44" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="G44" s="113">
-        <v>5522993373</v>
-      </c>
-      <c r="H44" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="I44" s="114" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="41">
-        <v>12</v>
-      </c>
-      <c r="B45" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E45" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="101" t="s">
-        <v>115</v>
-      </c>
-      <c r="G45" s="113">
-        <v>55133378245</v>
-      </c>
-      <c r="H45" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="I45" s="114" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="41">
+      <c r="C75" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="D75" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E75" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46" s="101" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F46" s="101" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="113">
-        <v>5612586813</v>
-      </c>
-      <c r="H46" s="101" t="s">
-        <v>71</v>
-      </c>
-      <c r="I46" s="114" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="41">
-        <v>14</v>
-      </c>
-      <c r="B47" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="101" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="101" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="113">
-        <v>4434406385</v>
-      </c>
-      <c r="H47" s="101" t="s">
-        <v>74</v>
-      </c>
-      <c r="I47" s="114" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41">
-        <v>15</v>
-      </c>
-      <c r="B48" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="D48" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E48" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="101" t="s">
-        <v>108</v>
-      </c>
-      <c r="G48" s="113">
-        <v>8123242144</v>
-      </c>
-      <c r="H48" s="115" t="s">
-        <v>116</v>
-      </c>
-      <c r="I48" s="114" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="41">
-        <v>16</v>
-      </c>
-      <c r="B49" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" s="101" t="s">
-        <v>109</v>
-      </c>
-      <c r="G49" s="113">
-        <v>2292066866</v>
-      </c>
-      <c r="H49" s="101" t="s">
-        <v>84</v>
-      </c>
-      <c r="I49" s="114" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="41">
-        <v>17</v>
-      </c>
-      <c r="B50" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" s="101" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" s="101" t="s">
-        <v>86</v>
-      </c>
-      <c r="G50" s="113">
-        <v>5617118889</v>
-      </c>
-      <c r="H50" s="101" t="s">
-        <v>87</v>
-      </c>
-      <c r="I50" s="114" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41">
-        <v>18</v>
-      </c>
-      <c r="B51" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" s="101" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="G51" s="113">
-        <v>5585800790</v>
-      </c>
-      <c r="H51" s="101" t="s">
-        <v>97</v>
-      </c>
-      <c r="I51" s="114" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41">
-        <v>19</v>
-      </c>
-      <c r="B52" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C52" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E52" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="F52" s="101" t="s">
-        <v>27</v>
-      </c>
-      <c r="G52" s="113">
-        <v>5533582474</v>
-      </c>
-      <c r="H52" s="101" t="s">
-        <v>28</v>
-      </c>
-      <c r="I52" s="114" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="41">
-        <v>20</v>
-      </c>
-      <c r="B53" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="101" t="s">
-        <v>91</v>
-      </c>
-      <c r="D53" s="112" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="F53" s="101" t="s">
-        <v>92</v>
-      </c>
-      <c r="G53" s="113">
-        <v>7772748682</v>
-      </c>
-      <c r="H53" s="101" t="s">
-        <v>93</v>
-      </c>
-      <c r="I53" s="114" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41">
-        <v>21</v>
-      </c>
-      <c r="B54" s="101" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="F54" s="101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="113">
-        <v>9842797524</v>
-      </c>
-      <c r="H54" s="101" t="s">
-        <v>89</v>
-      </c>
-      <c r="I54" s="114" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="41">
-        <v>22</v>
-      </c>
-      <c r="B55" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="101" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="F55" s="101" t="s">
-        <v>79</v>
-      </c>
-      <c r="G55" s="113">
-        <v>5514868979</v>
-      </c>
-      <c r="H55" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="I55" s="116" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42">
+      <c r="F75" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" s="55"/>
+      <c r="H75" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="I75" s="45" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="52">
+        <v>43</v>
+      </c>
+      <c r="B76" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B56" s="101" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" s="101" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="112" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="101" t="s">
-        <v>112</v>
-      </c>
-      <c r="F56" s="101" t="s">
-        <v>43</v>
-      </c>
-      <c r="G56" s="113">
-        <v>5549505622</v>
-      </c>
-      <c r="H56" s="101" t="s">
-        <v>44</v>
-      </c>
-      <c r="I56" s="114" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="43"/>
-      <c r="C57" s="43"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-    </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-    </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="40"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-      <c r="I59" s="40"/>
-    </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-      <c r="I60" s="40"/>
-    </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-      <c r="I61" s="40"/>
-    </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-      <c r="I62" s="40"/>
-    </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-    </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-      <c r="I64" s="40"/>
-    </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-    </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-      <c r="I66" s="40"/>
-    </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-      <c r="I67" s="40"/>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="47"/>
-      <c r="H68" s="47"/>
-      <c r="I68" s="49"/>
-    </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="50"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="7"/>
-    </row>
-    <row r="71" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="50"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="7"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="50"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51"/>
-      <c r="G72" s="51"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="52"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="54"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="57"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="57"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="60"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="57"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="22"/>
-      <c r="B76" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="C76" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="64"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="69"/>
+      <c r="C76" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="E76" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76" s="45" t="s">
+        <v>137</v>
+      </c>
+      <c r="G76" s="54">
+        <v>2223443345</v>
+      </c>
+      <c r="H76" s="45" t="s">
+        <v>138</v>
+      </c>
+      <c r="I76" s="45" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
-      <c r="B77" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="C77" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" s="64"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="68"/>
-      <c r="I77" s="69"/>
+      <c r="A77" s="5"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="59"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
-      <c r="B78" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="C78" s="63" t="s">
-        <v>104</v>
-      </c>
-      <c r="D78" s="64"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="69"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="61"/>
+      <c r="F78" s="61"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="63"/>
+      <c r="I78" s="64"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="22"/>
-      <c r="B79" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C79" s="63" t="s">
-        <v>106</v>
-      </c>
-      <c r="D79" s="64"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
+      <c r="B79" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="66" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="67"/>
+      <c r="E79" s="68"/>
+      <c r="F79" s="69"/>
       <c r="G79" s="70"/>
       <c r="H79" s="71"/>
       <c r="I79" s="72"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="74"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="7"/>
+      <c r="A80" s="22"/>
+      <c r="B80" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="C80" s="66" t="s">
+        <v>169</v>
+      </c>
+      <c r="D80" s="67"/>
+      <c r="E80" s="68"/>
+      <c r="F80" s="69"/>
+      <c r="G80" s="70"/>
+      <c r="H80" s="74"/>
+      <c r="I80" s="72"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="7"/>
+      <c r="A81" s="22"/>
+      <c r="B81" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="C81" s="66" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" s="67"/>
+      <c r="E81" s="68"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="70"/>
+      <c r="H81" s="75"/>
+      <c r="I81" s="72"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="7"/>
+      <c r="A82" s="22"/>
+      <c r="B82" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="66" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="67"/>
+      <c r="E82" s="68"/>
+      <c r="F82" s="68"/>
+      <c r="G82" s="76"/>
+      <c r="H82" s="74"/>
+      <c r="I82" s="72"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
+      <c r="D83" s="47"/>
+      <c r="E83" s="47"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="47"/>
       <c r="I83" s="7"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3777,9 +4226,7 @@
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="75" t="s">
-        <v>107</v>
-      </c>
+      <c r="B85" s="6"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -3801,18 +4248,20 @@
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="10"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="7"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="6"/>
+      <c r="B88" s="77" t="s">
+        <v>174</v>
+      </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
@@ -3843,16 +4292,16 @@
       <c r="H90" s="6"/>
       <c r="I90" s="7"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
-      <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="7"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="10"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
@@ -5472,28 +5921,25 @@
       <c r="I238" s="7"/>
     </row>
     <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="76"/>
-      <c r="B239" s="77"/>
-      <c r="C239" s="77"/>
-      <c r="D239" s="77"/>
-      <c r="E239" s="77"/>
-      <c r="F239" s="78"/>
-      <c r="G239" s="77"/>
-      <c r="H239" s="77"/>
-      <c r="I239" s="79"/>
+      <c r="A239" s="78"/>
+      <c r="B239" s="79"/>
+      <c r="C239" s="79"/>
+      <c r="D239" s="79"/>
+      <c r="E239" s="79"/>
+      <c r="F239" s="80"/>
+      <c r="G239" s="79"/>
+      <c r="H239" s="79"/>
+      <c r="I239" s="81"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A56">
-    <sortCondition ref="A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I76">
+    <sortCondition ref="D34"/>
   </sortState>
-  <hyperlinks>
-    <hyperlink ref="H48" r:id="rId1" xr:uid="{3873D696-06F3-4C6A-8BE1-D177FEC5C112}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup scale="80" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F4FB792-5516-124E-8D78-920CBA5371A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D912F3D-227D-9243-8845-A9D2936CCD3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28100" yWindow="880" windowWidth="35900" windowHeight="19580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="203">
   <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
-    <t>29 de Junio - 5 de Julio</t>
+    <t>6- 12 de Julio del 2020</t>
   </si>
   <si>
     <t>Reporte Ejecutivo</t>
@@ -55,7 +65,7 @@
     <t xml:space="preserve">Belora A. </t>
   </si>
   <si>
-    <t>Manual</t>
+    <t>Lamudi</t>
   </si>
   <si>
     <t>Jose Luis Vaca Ramos</t>
@@ -64,10 +74,7 @@
     <t>Google</t>
   </si>
   <si>
-    <t>Inmuebles24</t>
-  </si>
-  <si>
-    <t>Lamudi</t>
+    <t>María Patricia Cotreras Rodríguez</t>
   </si>
   <si>
     <t>Detalle</t>
@@ -82,452 +89,559 @@
     <t>Clasificación</t>
   </si>
   <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Belora Abadi Husny</t>
+  </si>
+  <si>
+    <t>2020-07-12 01:28:36</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Jimenez </t>
+  </si>
+  <si>
+    <t>luischonps@hotmail.com</t>
+  </si>
+  <si>
+    <t>Alejandra Campos García</t>
+  </si>
+  <si>
+    <t>2020-07-11 18:37:57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Ramírez f </t>
+  </si>
+  <si>
+    <t>mrfapq@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-11 16:16:37</t>
+  </si>
+  <si>
+    <t>Héctor Angulo</t>
+  </si>
+  <si>
+    <t>hecangulo@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-11 14:22:13</t>
+  </si>
+  <si>
+    <t>Samara Gonzalez</t>
+  </si>
+  <si>
+    <t>samara.grandhome@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-11 13:56:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norma Anel Andazola </t>
+  </si>
+  <si>
+    <t>anelandazola@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>2020-07-11 13:03:42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naghieli castillo </t>
+  </si>
+  <si>
+    <t>cnaghieli@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>2020-07-11 12:09:13</t>
+  </si>
+  <si>
+    <t>Willam Diehl</t>
+  </si>
+  <si>
+    <t>mazatlanproperties@gmail.com</t>
+  </si>
+  <si>
+    <t>CORREO primer contacto enviado  --  Busca RENTA poco presupuesto</t>
+  </si>
+  <si>
+    <t>2020-07-11 11:36:35</t>
+  </si>
+  <si>
+    <t>Federico Valenzuela</t>
+  </si>
+  <si>
+    <t>5552867313@phonecall.mx</t>
+  </si>
+  <si>
+    <t>2020-07-10 17:42:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfonso White </t>
+  </si>
+  <si>
+    <t>princeso200487@gmail.com</t>
+  </si>
+  <si>
+    <t>Se envió correo desde Kiper.</t>
+  </si>
+  <si>
+    <t>2020-07-10 15:14:30</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mafalda Comales </t>
+  </si>
+  <si>
+    <t>beneden27@hotmail.com</t>
+  </si>
+  <si>
+    <t>COTIZACIONES envié cotizaciones de 3 recámaras, en espera de su revision</t>
+  </si>
+  <si>
+    <t>2020-07-10 14:20:51</t>
+  </si>
+  <si>
+    <t>Isidoro Espinoza</t>
+  </si>
+  <si>
+    <t>shieveram@gmail.com</t>
+  </si>
+  <si>
+    <t>LLAMADA y envié WHAPP para confirmar cita de mañana</t>
+  </si>
+  <si>
+    <t>2020-07-10 11:29:44</t>
+  </si>
+  <si>
+    <t>angeldaniel1012@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-10 11:21:16</t>
+  </si>
+  <si>
+    <t>Ramses Arana</t>
+  </si>
+  <si>
+    <t>ram_arana@hotmail.com</t>
+  </si>
+  <si>
+    <t>No contesta se le envía presentacion por whats</t>
+  </si>
+  <si>
+    <t>2020-07-10 11:15:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose CA </t>
+  </si>
+  <si>
+    <t>Jjcarrera@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-09 18:20:42</t>
+  </si>
+  <si>
+    <t>Germán Baltazar</t>
+  </si>
+  <si>
+    <t>germanebr@hotmail.com</t>
+  </si>
+  <si>
+    <t>CORREO primer contacto enviado no deja telefono</t>
+  </si>
+  <si>
+    <t>2020-07-09 17:04:00</t>
+  </si>
+  <si>
+    <t>Yazmin Fragoso Salmean</t>
+  </si>
+  <si>
+    <t>vazfragoso@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cliente anterior estoy tratando de coordinar cita</t>
+  </si>
+  <si>
+    <t>2020-07-09 16:47:28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J Jesus Rosas Ramírez </t>
+  </si>
+  <si>
+    <t>jesusrosasramirez6@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-09 15:58:22</t>
+  </si>
+  <si>
+    <t>Jhovanna Roman Mora</t>
+  </si>
+  <si>
+    <t>jhovanna.roman@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-09 14:37:47</t>
+  </si>
+  <si>
+    <t>Valentin Petre</t>
+  </si>
+  <si>
+    <t>valentin.petre@thinkskink.com</t>
+  </si>
+  <si>
+    <t>Le envie información por mail  --  Es cliente anterior que estoy tratando de rescatar</t>
+  </si>
+  <si>
+    <t>2020-07-09 14:19:43</t>
+  </si>
+  <si>
+    <t>Francisco Gonzalez Almaraz</t>
+  </si>
+  <si>
+    <t>fgonzalez@abccapital.com.mx</t>
+  </si>
+  <si>
+    <t>Le envie información por whats</t>
+  </si>
+  <si>
+    <t>2020-07-09 13:58:01</t>
+  </si>
+  <si>
+    <t>Benjamin Marrufo</t>
+  </si>
+  <si>
+    <t>bench_marry@hotmail.com</t>
+  </si>
+  <si>
+    <t>Le envie presentación por whats</t>
+  </si>
+  <si>
+    <t>2020-07-09 13:20:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arturo M </t>
+  </si>
+  <si>
+    <t>arturom89@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-09 11:18:29</t>
+  </si>
+  <si>
+    <t>Cesár Rivas</t>
+  </si>
+  <si>
+    <t>cesarrivas1@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-08 23:08:24</t>
+  </si>
+  <si>
+    <t>Marilu Fernandez</t>
+  </si>
+  <si>
+    <t>marilu_fer@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-08 02:14:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tadeo de Jesús cruz tenorio </t>
+  </si>
+  <si>
+    <t>dragonkgg41@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-07 21:51:22</t>
+  </si>
+  <si>
+    <t>drsandinoss@hotmail.com</t>
+  </si>
+  <si>
+    <t>CORREO primer contacto enviado</t>
+  </si>
+  <si>
+    <t>2020-07-07 21:07:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Veronica </t>
+  </si>
+  <si>
+    <t>vemegomx@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>2020-07-07 17:32:48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Ruben Rivera Tafoya </t>
+  </si>
+  <si>
+    <t>joserubenriveratafoya@gmail.com</t>
+  </si>
+  <si>
+    <t>CORREO primer cntacto enviado y WHAPP. 
+Necesita vender para poder comprar. Le envié nuestra página y brochure para que conozca nuestros desarrollos  --  Le interesa Nápoles tenemos cita el 8 de julio para enseñarle el desarrollo  --  VISITA a Napoles, se lleva cotizaicón de 208 y 308 C. Debe vender primero para comprar</t>
+  </si>
+  <si>
+    <t>2020-07-07 17:06:51</t>
+  </si>
+  <si>
+    <t>Patricia Farfan</t>
+  </si>
+  <si>
+    <t>farsa010@hotmail.com</t>
+  </si>
+  <si>
+    <t>BROKER envié por WHAPP video de GFA para que lo conozca su cliente, le envié el Brochure y su cliente se llama LISANDRO RAMIREZ</t>
+  </si>
+  <si>
+    <t>2020-07-07 16:51:13</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María del Pilar Jiménez </t>
+  </si>
+  <si>
+    <t>jimenezpily@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-07 15:15:24</t>
+  </si>
+  <si>
+    <t>carlosrc1984@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-07 11:51:28</t>
+  </si>
+  <si>
+    <t>jotoya22@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-07 10:46:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demian </t>
+  </si>
+  <si>
+    <t>demianelnumero10@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-07 10:08:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalupe Salazar </t>
+  </si>
+  <si>
+    <t>lupis.sal.ser@hotmaul.com</t>
+  </si>
+  <si>
+    <t>2020-07-07 08:58:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faby Dolphin </t>
+  </si>
+  <si>
+    <t>fabymexico@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-06 18:26:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pascual Beltran </t>
+  </si>
+  <si>
+    <t>interotay@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-06 18:21:56</t>
+  </si>
+  <si>
+    <t>romacmar@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-06 18:03:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vico Villard (solo por e-mail) </t>
+  </si>
+  <si>
+    <t>ivovico12@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-06 16:57:21</t>
+  </si>
+  <si>
+    <t>Elizabeth Loyola Sánchez</t>
+  </si>
+  <si>
+    <t>eels.950322@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-06 16:07:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gael </t>
+  </si>
+  <si>
+    <t>gael_zermeno@outlook.com</t>
+  </si>
+  <si>
+    <t>2020-07-06 15:10:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María Fernanda </t>
+  </si>
+  <si>
+    <t>fernanda_escamilla@yahoo.com</t>
+  </si>
+  <si>
+    <t>CORREO inicial enviado  --  CORREO inicial enviado</t>
+  </si>
+  <si>
+    <t>2020-07-06 12:16:42</t>
+  </si>
+  <si>
+    <t>Regina Escandón</t>
+  </si>
+  <si>
+    <t>regiescandon@hotmail.com</t>
+  </si>
+  <si>
+    <t>WHAPP para confirmar correo porque se regresa.</t>
+  </si>
+  <si>
+    <t>2020-07-06 11:19:50</t>
+  </si>
+  <si>
+    <t>Dra.dim.suarez@gmail.com</t>
+  </si>
+  <si>
+    <t>Se envió correo desde Kiper.  --  presupuesto de 6 millones de pesos quiere una preventa envie info de nápoles</t>
+  </si>
+  <si>
+    <t>Código de clasificación</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>POTENCIAL, INTERESADO Y CON PRESUPUESTO</t>
+  </si>
+  <si>
+    <t>QUIZÁ, LO ESTÁ PENSANDO</t>
+  </si>
+  <si>
+    <t>NO CONTESTA CEL, NO CONTESTA MAIL, NO LE INTERESA Y BAJO PRESUPUESTO</t>
+  </si>
+  <si>
+    <t>DATOS FALSOS, NO LE INTERESA, BAJO PRESUPUESTO, NO APTOS PARA NUESTROS DESARROLLOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Powered by KIPER </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Envié cotización 301-B y fotografías del proyecto, va a analizar propuesta para agendar cita.</t>
+  </si>
+  <si>
+    <t>CORREO con cotización 404A, solo son 2 personas y su mascota, se lo envío y estare en espera de su revisión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se envió correo desde Kiper. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COTIZACIÓN 502E, le interesa la promoción de descuento de Julio, es posible que nos pueda visitar a mediados de mes</t>
+  </si>
+  <si>
+    <t>COTIZACIÓN 404 A se encuentra en Querétaro durante la cuarentena y no ha regresado. A su regreso programaremos la visita. Le ofrecí el recorrido virtual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORREO primer contacto enviado. Busca rentar </t>
+  </si>
+  <si>
+    <t>Esta buscando algo de 2 recamaras, mande cotizaciones del 404A, 502F y 301B  --  Se envió correo desde Kiper.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busca rentar un departamento en 25 mil pesos, este se sale por completo de su presupuesto  </t>
+  </si>
+  <si>
+    <t>Angel Daniel</t>
+  </si>
+  <si>
+    <t>Página Web del desarrollo</t>
+  </si>
+  <si>
+    <t>Vallas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visitó el showrrom, les gustó mucho el 602C y 502F, presupuesto de 14 millones </t>
+  </si>
+  <si>
+    <t>Se envía correo desde Kiper</t>
+  </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORREO primer contacto enviado  </t>
+  </si>
+  <si>
+    <t>No quiso dejar correo, el se comunica si desea una segunda cita.
+Vimos el 201D, 402B, 902B, PH1A.
+Se lleva brochure de Nápoles y Polanco conoce a los desarrolladores.</t>
+  </si>
+  <si>
+    <t>Tiene unos clientes para rentar y vimos el 602A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORREO primer contacto enviado </t>
+  </si>
+  <si>
+    <t>Inmuebles 24</t>
+  </si>
+  <si>
+    <t>Cliente anterior</t>
+  </si>
+  <si>
+    <t>Referido</t>
+  </si>
+  <si>
+    <t>Gallardetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandino Suarez santiago </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Manuel Otoya Rojas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariela Matias </t>
+  </si>
+  <si>
+    <t>Dimelza Suarez</t>
+  </si>
+  <si>
     <t>Fuente</t>
   </si>
   <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Belora Abadi Husny</t>
-  </si>
-  <si>
-    <t>2020-07-05 07:57:16</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilfredo Aguilar </t>
-  </si>
-  <si>
-    <t>00584147691429</t>
-  </si>
-  <si>
-    <t>waguilar0809@gmail.com</t>
-  </si>
-  <si>
-    <t>Se envió correo desde Kiper.</t>
-  </si>
-  <si>
-    <t>Alejandra Campos García</t>
-  </si>
-  <si>
-    <t>2020-07-04 14:30:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Carlos </t>
-  </si>
-  <si>
-    <t>carlostijerino1006@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORREO primer contacto enviado </t>
-  </si>
-  <si>
-    <t>2020-07-04 00:09:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Antonio ruíz </t>
-  </si>
-  <si>
-    <t>josearpp@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-03 23:27:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria Caballero </t>
-  </si>
-  <si>
-    <t>mafcabs@gmail.com</t>
-  </si>
-  <si>
-    <t>CORREO primer contacto enviado</t>
-  </si>
-  <si>
-    <t>2020-07-03 23:12:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Jair Ojeda Gutiérrez </t>
-  </si>
-  <si>
-    <t>ojeda.jorgejair@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se envió correo desde Kiper. </t>
-  </si>
-  <si>
-    <t>2020-07-03 18:43:21</t>
-  </si>
-  <si>
-    <t>ameh4@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CORREO primer contacto enviado  --  RENTA solo para 2 meses </t>
-  </si>
-  <si>
-    <t>2020-07-03 15:58:49</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stefania Visone </t>
-  </si>
-  <si>
-    <t>stefyvisone@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corredora, busca un departamento para una clienta, le envie información del 502F, 301B y 404A </t>
-  </si>
-  <si>
-    <t>2020-07-03 13:23:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Macedo </t>
-  </si>
-  <si>
-    <t>macedodavid891@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-03 12:21:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriela </t>
-  </si>
-  <si>
-    <t>gabysaldaz@gmail.com</t>
-  </si>
-  <si>
-    <t>Hablé con ella y le envie via whats informacion de Avenue Polanco  --  Le intereso más Polanco, Le envié cotizaciones por whats del 502E, 602C 301B de Av Polanco,</t>
-  </si>
-  <si>
-    <t>2020-07-02 23:05:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jessica </t>
-  </si>
-  <si>
-    <t>jessicalaram7@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-02 21:53:24</t>
-  </si>
-  <si>
-    <t>johanmtata20@icloud.com</t>
-  </si>
-  <si>
-    <t>2020-07-02 17:51:00</t>
-  </si>
-  <si>
-    <t>Luis Manuel Martinez de Oca</t>
-  </si>
-  <si>
-    <t>nodejacorreo@gmail.com</t>
-  </si>
-  <si>
-    <t>Vive en Guadalajara y viene a Mexico en 2 semanas solicito informes de departamentos y PH</t>
-  </si>
-  <si>
-    <t>2020-07-02 15:18:41</t>
-  </si>
-  <si>
-    <t>Luis Miguel González</t>
-  </si>
-  <si>
-    <t>miguelcuandoquieras@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-30 18:52:40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Martin Gomez Aguilar </t>
-  </si>
-  <si>
-    <t>martin.gomez1970@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:36:25</t>
-  </si>
-  <si>
-    <t>Raul Tijerna</t>
-  </si>
-  <si>
-    <t>raul.tijerina.9@gmail.com</t>
-  </si>
-  <si>
-    <t>No deja telefono, mande correo con info general  --  Se envió correo desde Kiper.</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:35:59</t>
-  </si>
-  <si>
-    <t>Adriana Casanova</t>
-  </si>
-  <si>
-    <t>anairda19@gmail.com</t>
-  </si>
-  <si>
-    <t>CORREO primer contacto enviado. Cel invalido</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:34:46</t>
-  </si>
-  <si>
-    <t>Jorge Padilla</t>
-  </si>
-  <si>
-    <t>jorgpadilla@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:34:16</t>
-  </si>
-  <si>
-    <t>María Elena Marín Amaro</t>
-  </si>
-  <si>
-    <t>marinhelena16@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:31:59</t>
-  </si>
-  <si>
-    <t>irenehernandez.d@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:30:31</t>
-  </si>
-  <si>
-    <t>Linda Delgadillo</t>
-  </si>
-  <si>
-    <t>linda01f@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se envió correo desde Kiper.  --  me envía al buzon, mande whatsapp y correo con información general</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:29:56</t>
-  </si>
-  <si>
-    <t>Javier Morales</t>
-  </si>
-  <si>
-    <t>javierizoo@hotmail.com</t>
-  </si>
-  <si>
-    <t>CORREO primer contacto enviado  --  WHAPP de información para conocer el rango de precio. Ofrecí también NAPOLES</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:29:24</t>
-  </si>
-  <si>
-    <t>Michelle Rodríguez</t>
-  </si>
-  <si>
-    <t>se_mich@hotmail.com</t>
-  </si>
-  <si>
-    <t>El número ha cambiado, mande mail con información general</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:28:38</t>
-  </si>
-  <si>
-    <t>David Hernandez</t>
-  </si>
-  <si>
-    <t>davidcjisai@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:26:39</t>
-  </si>
-  <si>
-    <t>Carlos Tasayco</t>
-  </si>
-  <si>
-    <t>carlos.tasayco2@gmail.com</t>
-  </si>
-  <si>
-    <t>Se envió correo desde Kiper.  --  numero incorrecto intente quitando el 51/ el 5/ el 0/ y no.
-mande correo con información general</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:25:42</t>
-  </si>
-  <si>
-    <t>juan Antonio Campos</t>
-  </si>
-  <si>
-    <t>isc.jcampos@gmail.com</t>
-  </si>
-  <si>
-    <t>CORREO de primer contacto enviado</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:24:40</t>
-  </si>
-  <si>
-    <t>Marlenne Barrios</t>
-  </si>
-  <si>
-    <t>marlenneyba@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:23:50</t>
-  </si>
-  <si>
-    <t>Lilia Carbajal</t>
-  </si>
-  <si>
-    <t>liliacd1096@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:23:02</t>
-  </si>
-  <si>
-    <t>Zaire Garcia</t>
-  </si>
-  <si>
-    <t>zaire13@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:21:05</t>
-  </si>
-  <si>
-    <t>Ivette Pineda</t>
-  </si>
-  <si>
-    <t>dra.ivettepineda@gmail.com</t>
-  </si>
-  <si>
-    <t>CORREO primer contacto</t>
-  </si>
-  <si>
-    <t>2020-06-30 11:04:37</t>
-  </si>
-  <si>
-    <t>Belinda Vega</t>
-  </si>
-  <si>
-    <t>housesunlimitedmx@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-30 09:59:37</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>ttt tttttt</t>
-  </si>
-  <si>
-    <t>ttt@gmail.com</t>
-  </si>
-  <si>
-    <t>CORREO inválido y sin telefono</t>
-  </si>
-  <si>
-    <t>2020-06-29 19:54:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonatiuh Rodriguez </t>
-  </si>
-  <si>
-    <t>tonatiuhrogo@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-29 15:38:43</t>
-  </si>
-  <si>
-    <t>Tania Kassin</t>
-  </si>
-  <si>
-    <t>taniakassin@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-06-29 12:27:52</t>
-  </si>
-  <si>
-    <t>Isabel y Cristina Alessi</t>
-  </si>
-  <si>
-    <t>Icgp@prodigy.net.mx</t>
-  </si>
-  <si>
-    <t>2020-06-29 01:25:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandra Campos-Navarro </t>
-  </si>
-  <si>
-    <t>alejandra.camposnavarro@gmail.com</t>
-  </si>
-  <si>
-    <t>CORREO de primer contacto enviado.</t>
-  </si>
-  <si>
-    <t>Código de clasificación</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>POTENCIAL, INTERESADO Y CON PRESUPUESTO</t>
-  </si>
-  <si>
-    <t>QUIZÁ, LO ESTÁ PENSANDO</t>
-  </si>
-  <si>
-    <t>NO CONTESTA CEL, NO CONTESTA MAIL, NO LE INTERESA Y BAJO PRESUPUESTO</t>
-  </si>
-  <si>
-    <t>DATOS FALSOS, NO LE INTERESA, BAJO PRESUPUESTO, NO APTOS PARA NUESTROS DESARROLLOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Report Powered by KIPER </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicito cotizaciones de departamentos de 2 recamaras, le envíe el 404A 502F y 301B </t>
-  </si>
-  <si>
-    <t>Vallas</t>
-  </si>
-  <si>
-    <t>Whatsapp quiere un depto de 2 recámaras y conocer precio cotización del 404A</t>
-  </si>
-  <si>
-    <t>Anuncios en Internet</t>
-  </si>
-  <si>
-    <t>Visita el Shoow room, cotización del 301B, 602C y 801A, lo revisará con su esposo y conocer el desarrollo</t>
-  </si>
-  <si>
-    <t>Interesado en Nápoles porque quiere un financiamiento de un año, cita el 6 de Julio en Nápoles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Johan Mata </t>
-  </si>
-  <si>
-    <t xml:space="preserve">America Escalante </t>
-  </si>
-  <si>
-    <t>Hable con él me pidio varias cotizaciones, esta buscando algo en Masaryk y más arriba en polanquito pero le envié por whats app, brochure y cotizaciones del 201D, PH1C, GH3, 502F y 401F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irene </t>
-  </si>
-  <si>
-    <t>Correo primer contacto enviado, no deja télefono</t>
+    <t>Página web del desarrollo</t>
+  </si>
+  <si>
+    <t>Cliente Anterior</t>
   </si>
 </sst>
 </file>
@@ -544,41 +658,50 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Avenir Heavy"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="12"/>
-      <name val="Avenir Heavy"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -601,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -737,22 +860,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="8"/>
@@ -781,6 +888,87 @@
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -830,11 +1018,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -853,17 +1080,10 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -875,7 +1095,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -889,7 +1111,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -906,79 +1127,32 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,17 +1163,80 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,7 +1334,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1140,15 +1377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>683260</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>199967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1165860</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1115060</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1171,7 +1408,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="962660" y="16186092"/>
+          <a:off x="911860" y="17786292"/>
           <a:ext cx="482601" cy="800158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2269,18 +2506,19 @@
   </sheetPr>
   <dimension ref="A1:I239"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20:F23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="168.83203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
@@ -2446,1445 +2684,1583 @@
       <c r="B15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="8"/>
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
       <c r="F16" s="8"/>
       <c r="G16" s="10"/>
       <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
       <c r="F17" s="8"/>
-      <c r="G17" s="14"/>
+      <c r="G17" s="13"/>
       <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
       <c r="F18" s="8"/>
-      <c r="G18" s="14"/>
+      <c r="G18" s="13"/>
       <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="14"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="13"/>
       <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="21">
-        <v>35</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="20" t="s">
+      <c r="C20" s="18">
+        <v>43</v>
+      </c>
+      <c r="D20" s="63"/>
+      <c r="E20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="21">
-        <v>0</v>
-      </c>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="25"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="21">
-        <v>9</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="25"/>
+      <c r="F21" s="18">
+        <v>10</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="21">
-        <v>20</v>
-      </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
+      <c r="F22" s="18">
+        <v>26</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="20" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="21">
-        <v>6</v>
-      </c>
-      <c r="G23" s="23"/>
+      <c r="F23" s="18">
+        <v>7</v>
+      </c>
+      <c r="G23" s="20"/>
       <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="I23" s="10"/>
     </row>
     <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="12"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="21">
-        <v>16</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="20" t="s">
+      <c r="C25" s="18">
+        <v>19</v>
+      </c>
+      <c r="D25" s="63"/>
+      <c r="E25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="82">
+        <v>10</v>
+      </c>
+      <c r="G25" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="H25" s="85">
+        <v>1</v>
+      </c>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="18">
+        <v>18</v>
+      </c>
+      <c r="D26" s="63"/>
+      <c r="E26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="83">
         <v>3</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="21">
-        <v>17</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="21">
+      <c r="G26" s="78" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" s="77">
+        <v>2</v>
+      </c>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="18">
         <v>5</v>
       </c>
-      <c r="G26" s="38"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="40"/>
-    </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="21">
+      <c r="D27" s="63"/>
+      <c r="E27" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="84">
+        <v>14</v>
+      </c>
+      <c r="G27" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="H27" s="77">
+        <v>3</v>
+      </c>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="18">
         <v>1</v>
       </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="21">
-        <v>10</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="21">
-        <v>6</v>
-      </c>
-      <c r="G28" s="23"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="F28" s="81">
+        <v>8</v>
+      </c>
+      <c r="G28" s="31"/>
       <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
+      <c r="I28" s="10"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="21">
-        <v>11</v>
-      </c>
-      <c r="G29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="81">
+        <v>1</v>
+      </c>
+      <c r="G29" s="31"/>
       <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
+      <c r="I29" s="10"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="23"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="F30" s="81">
+        <v>1</v>
+      </c>
+      <c r="G30" s="31"/>
       <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
+      <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="23"/>
+      <c r="B31" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="14"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="13"/>
       <c r="H32" s="11"/>
-      <c r="I32" s="12"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="49" t="s">
+      <c r="D33" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="48" t="s">
+      <c r="E33" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="49" t="s">
+      <c r="G33" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="H33" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="G33" s="48" t="s">
+      <c r="I33" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="H33" s="48" t="s">
+    </row>
+    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>1</v>
+      </c>
+      <c r="B34" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="71">
+        <v>5554374643</v>
+      </c>
+      <c r="H34" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="66" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>2</v>
+      </c>
+      <c r="B35" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="48" t="s">
+      <c r="C35" s="66" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="71">
+        <v>5523682109</v>
+      </c>
+      <c r="H35" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" s="66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
+        <v>3</v>
+      </c>
+      <c r="B36" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="71">
+        <v>4421811178</v>
+      </c>
+      <c r="H36" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" s="66" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="34">
+        <v>4</v>
+      </c>
+      <c r="B37" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="71">
+        <v>2224703235</v>
+      </c>
+      <c r="H37" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37" s="66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
+        <v>5</v>
+      </c>
+      <c r="B38" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="66" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F38" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="71">
+        <v>5559673678</v>
+      </c>
+      <c r="H38" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" s="66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>6</v>
+      </c>
+      <c r="B39" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="72" t="s">
+        <v>182</v>
+      </c>
+      <c r="G39" s="71">
+        <v>9181076992</v>
+      </c>
+      <c r="H39" s="66" t="s">
+        <v>65</v>
+      </c>
+      <c r="I39" s="66" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
+        <v>7</v>
+      </c>
+      <c r="B40" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F40" s="72" t="s">
+        <v>187</v>
+      </c>
+      <c r="G40" s="71">
+        <v>5555051678</v>
+      </c>
+      <c r="H40" s="66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" s="66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="34">
+        <v>8</v>
+      </c>
+      <c r="B41" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F41" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="71">
+        <v>5512105403</v>
+      </c>
+      <c r="H41" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="72" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
+        <v>9</v>
+      </c>
+      <c r="B42" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F42" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="71">
+        <v>59892908</v>
+      </c>
+      <c r="H42" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="I42" s="66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>10</v>
+      </c>
+      <c r="B43" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="F43" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="71">
+        <v>5552867313</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="I43" s="73" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34">
+        <v>11</v>
+      </c>
+      <c r="B44" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="F44" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="71">
+        <v>5527265004</v>
+      </c>
+      <c r="H44" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="I44" s="66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="34">
+        <v>12</v>
+      </c>
+      <c r="B45" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G45" s="71">
+        <v>5578068471</v>
+      </c>
+      <c r="H45" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="I45" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <v>13</v>
+      </c>
+      <c r="B46" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="71">
+        <v>4623915646</v>
+      </c>
+      <c r="H46" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34">
+        <v>14</v>
+      </c>
+      <c r="B47" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="G47" s="71">
+        <v>4442210201</v>
+      </c>
+      <c r="H47" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="I47" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
+        <v>15</v>
+      </c>
+      <c r="B48" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="66" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="71">
+        <v>6391191349</v>
+      </c>
+      <c r="H48" s="66" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" s="66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="34">
+        <v>16</v>
+      </c>
+      <c r="B49" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="71">
+        <v>9983066514</v>
+      </c>
+      <c r="H49" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="I49" s="73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34">
+        <v>17</v>
+      </c>
+      <c r="B50" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E50" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="G50" s="71">
+        <v>2321549915</v>
+      </c>
+      <c r="H50" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="I50" s="66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34">
+        <v>18</v>
+      </c>
+      <c r="B51" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E51" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="G51" s="71">
+        <v>6647309892</v>
+      </c>
+      <c r="H51" s="66" t="s">
+        <v>144</v>
+      </c>
+      <c r="I51" s="66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="34">
+        <v>19</v>
+      </c>
+      <c r="B52" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D52" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="F52" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="72"/>
+      <c r="H52" s="66" t="s">
+        <v>149</v>
+      </c>
+      <c r="I52" s="66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="34">
+        <v>20</v>
+      </c>
+      <c r="B53" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="66" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="50">
-        <v>9</v>
-      </c>
-      <c r="B34" s="41" t="s">
+      <c r="D53" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E53" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="71">
+        <v>5554654787</v>
+      </c>
+      <c r="H53" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" s="72" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="34">
+        <v>21</v>
+      </c>
+      <c r="B54" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="D54" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G54" s="71">
+        <v>56992300566</v>
+      </c>
+      <c r="H54" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="I54" s="66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
+        <v>22</v>
+      </c>
+      <c r="B55" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="G55" s="71">
+        <v>6562689069</v>
+      </c>
+      <c r="H55" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="I55" s="66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
+        <v>23</v>
+      </c>
+      <c r="B56" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="G56" s="71">
+        <v>5537097137</v>
+      </c>
+      <c r="H56" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="34">
+        <v>24</v>
+      </c>
+      <c r="B57" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="71">
+        <v>5527375325</v>
+      </c>
+      <c r="H57" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="I57" s="66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="34">
+        <v>25</v>
+      </c>
+      <c r="B58" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="66" t="s">
+        <v>197</v>
+      </c>
+      <c r="G58" s="71">
+        <v>5580084203</v>
+      </c>
+      <c r="H58" s="66" t="s">
+        <v>132</v>
+      </c>
+      <c r="I58" s="66" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
+        <v>26</v>
+      </c>
+      <c r="B59" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E59" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="G59" s="71">
+        <v>4621039006</v>
+      </c>
+      <c r="H59" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="I59" s="66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="34">
+        <v>27</v>
+      </c>
+      <c r="B60" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="66" t="s">
+        <v>154</v>
+      </c>
+      <c r="G60" s="71">
+        <v>5616232490</v>
+      </c>
+      <c r="H60" s="66" t="s">
+        <v>155</v>
+      </c>
+      <c r="I60" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="34">
+        <v>28</v>
+      </c>
+      <c r="B61" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E61" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="G61" s="71">
+        <v>5522993832</v>
+      </c>
+      <c r="H61" s="66" t="s">
+        <v>158</v>
+      </c>
+      <c r="I61" s="66" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="34">
+        <v>29</v>
+      </c>
+      <c r="B62" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="72" t="s">
+        <v>199</v>
+      </c>
+      <c r="G62" s="71">
+        <v>5535225348</v>
+      </c>
+      <c r="H62" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="I62" s="66" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="34">
+        <v>30</v>
+      </c>
+      <c r="B63" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G34" s="54">
-        <v>5585621485</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" s="41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="50">
+      <c r="C63" s="66" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="66" t="s">
+        <v>192</v>
+      </c>
+      <c r="F63" s="66" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="71">
+        <v>5532003947</v>
+      </c>
+      <c r="H63" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I63" s="66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
+        <v>31</v>
+      </c>
+      <c r="B64" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="C64" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="E64" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F64" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" s="71">
+        <v>5533335676</v>
+      </c>
+      <c r="H64" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" s="66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="34">
+        <v>32</v>
+      </c>
+      <c r="B65" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E65" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F65" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="G65" s="71">
+        <v>5539558372</v>
+      </c>
+      <c r="H65" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="I65" s="66" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="34">
+        <v>33</v>
+      </c>
+      <c r="B66" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F66" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="71">
+        <v>5611742524</v>
+      </c>
+      <c r="H66" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="I66" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="34">
+        <v>34</v>
+      </c>
+      <c r="B67" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="D67" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F67" s="66" t="s">
+        <v>151</v>
+      </c>
+      <c r="G67" s="71">
+        <v>5515299305</v>
+      </c>
+      <c r="H67" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="I67" s="66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="34">
+        <v>35</v>
+      </c>
+      <c r="B68" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="66" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F68" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" s="71">
+        <v>5513047901</v>
+      </c>
+      <c r="H68" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="I68" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="34">
+        <v>36</v>
+      </c>
+      <c r="B69" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="66" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="G69" s="71">
+        <v>7771100523</v>
+      </c>
+      <c r="H69" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="I69" s="66" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="34">
+        <v>37</v>
+      </c>
+      <c r="B70" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="66" t="s">
+        <v>195</v>
+      </c>
+      <c r="F70" s="66" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="71">
+        <v>50764301388</v>
+      </c>
+      <c r="H70" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="41" t="s">
+      <c r="I70" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="G35" s="54">
-        <v>5576608289</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="I35" s="41" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="50">
+    </row>
+    <row r="71" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="34">
+        <v>38</v>
+      </c>
+      <c r="B71" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="D36" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="41" t="s">
+      <c r="F71" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="G71" s="72"/>
+      <c r="H71" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" s="66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="34">
+        <v>39</v>
+      </c>
+      <c r="B72" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="72"/>
+      <c r="H72" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="I72" s="66" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="34">
+        <v>40</v>
+      </c>
+      <c r="B73" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="66" t="s">
+        <v>198</v>
+      </c>
+      <c r="G73" s="72"/>
+      <c r="H73" s="66" t="s">
+        <v>146</v>
+      </c>
+      <c r="I73" s="66" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="34">
+        <v>41</v>
+      </c>
+      <c r="B74" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="66" t="s">
+        <v>125</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="G74" s="71">
+        <v>5565359823</v>
+      </c>
+      <c r="H74" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="I74" s="66" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="34">
+        <v>42</v>
+      </c>
+      <c r="B75" s="66" t="s">
+        <v>28</v>
+      </c>
+      <c r="C75" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="G36" s="54">
-        <v>7224401949</v>
-      </c>
-      <c r="H36" s="41" t="s">
+      <c r="D75" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="I36" s="41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50">
-        <v>17</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="G37" s="54">
-        <v>5539046959</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="I37" s="41" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="50">
-        <v>18</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="G38" s="54">
-        <v>5527429173</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" s="41" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="50">
-        <v>7</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G39" s="54">
-        <v>5559094503</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" s="41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="50">
-        <v>1</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D40" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="41" t="s">
+      <c r="G75" s="72"/>
+      <c r="H75" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="I75" s="66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="34">
+        <v>43</v>
+      </c>
+      <c r="B76" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" s="41" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="50">
-        <v>21</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="54">
-        <v>5531461729</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="I41" s="41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="50">
-        <v>34</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="54">
-        <v>5535554415</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="I42" s="41" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="50">
-        <v>2</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="53"/>
-      <c r="H43" s="41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I43" s="41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="50">
-        <v>3</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G44" s="54">
-        <v>5510691132</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I44" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="50">
-        <v>4</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D45" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="54">
-        <v>5555058768</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="I45" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="50">
-        <v>5</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="41" t="s">
+      <c r="C76" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="41" t="s">
+      <c r="D76" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="G46" s="54">
-        <v>5542283865</v>
-      </c>
-      <c r="H46" s="41" t="s">
+      <c r="G76" s="71">
+        <v>5618181924</v>
+      </c>
+      <c r="H76" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="I46" s="41" t="s">
+      <c r="I76" s="66" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="50">
-        <v>8</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G47" s="54">
-        <v>5548480374</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="I47" s="41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="50">
-        <v>11</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="G48" s="54">
-        <v>3332441710</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="50">
-        <v>14</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="G49" s="54">
-        <v>9933112225</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="I49" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50">
-        <v>19</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D50" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="G50" s="54">
-        <v>6681500936</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="I50" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="50">
-        <v>20</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G51" s="54">
-        <v>5543725112</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I51" s="41" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="50">
-        <v>22</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="G52" s="54">
-        <v>5534213466</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="I52" s="41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="50">
-        <v>23</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G53" s="54">
-        <v>5585638373</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="I53" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="50">
-        <v>25</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="D54" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="G54" s="54">
-        <v>5543158970</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="I54" s="41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="50">
-        <v>26</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G55" s="54">
-        <v>5519275880</v>
-      </c>
-      <c r="H55" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="I55" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="50">
-        <v>27</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D56" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="G56" s="54">
-        <v>5519275880</v>
-      </c>
-      <c r="H56" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="I56" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="50">
-        <v>28</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="D57" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="G57" s="54">
-        <v>4777530467</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="50">
-        <v>29</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="D58" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="G58" s="54">
-        <v>4441860746</v>
-      </c>
-      <c r="H58" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="I58" s="41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="50">
-        <v>30</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="D59" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="G59" s="54">
-        <v>5546020331</v>
-      </c>
-      <c r="H59" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="I59" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="50">
-        <v>32</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>139</v>
-      </c>
-      <c r="G60" s="54">
-        <v>2722066836</v>
-      </c>
-      <c r="H60" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="I60" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="50">
-        <v>33</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>159</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="G61" s="54">
-        <v>5566294799</v>
-      </c>
-      <c r="H61" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="I61" s="41" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="50">
-        <v>35</v>
-      </c>
-      <c r="B62" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="D62" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="41" t="s">
-        <v>148</v>
-      </c>
-      <c r="G62" s="54">
-        <v>5526758533</v>
-      </c>
-      <c r="H62" s="41" t="s">
-        <v>149</v>
-      </c>
-      <c r="I62" s="41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="50">
-        <v>6</v>
-      </c>
-      <c r="B63" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>165</v>
-      </c>
-      <c r="G63" s="54">
-        <v>5513961107</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="I63" s="41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50">
-        <v>10</v>
-      </c>
-      <c r="B64" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E64" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="G64" s="53"/>
-      <c r="H64" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I64" s="41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="50">
-        <v>15</v>
-      </c>
-      <c r="B65" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D65" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E65" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="54">
-        <v>5555555555</v>
-      </c>
-      <c r="H65" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="I65" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="50">
-        <v>16</v>
-      </c>
-      <c r="B66" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D66" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" s="54">
-        <v>5555555555</v>
-      </c>
-      <c r="H66" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I66" s="41" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="50">
-        <v>24</v>
-      </c>
-      <c r="B67" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D67" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E67" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="54">
-        <v>51936831750</v>
-      </c>
-      <c r="H67" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="I67" s="52" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="50">
-        <v>31</v>
-      </c>
-      <c r="B68" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="D68" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="E68" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="41" t="s">
-        <v>135</v>
-      </c>
-      <c r="G68" s="54">
-        <v>555555555</v>
-      </c>
-      <c r="H68" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="I68" s="41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4"/>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-    </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="4"/>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-    </row>
-    <row r="71" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="56"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="57"/>
-      <c r="F72" s="57"/>
-      <c r="G72" s="57"/>
-      <c r="H72" s="57"/>
-      <c r="I72" s="57"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="4"/>
-      <c r="B73" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="60"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="14"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="60"/>
-      <c r="F74" s="60"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="14"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="63"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="14"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="66" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="67" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" s="68"/>
-      <c r="E76" s="69"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="71"/>
-      <c r="H76" s="72"/>
-      <c r="I76" s="73"/>
-    </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C77" s="67" t="s">
-        <v>154</v>
-      </c>
-      <c r="D77" s="68"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="71"/>
-      <c r="H77" s="72"/>
-      <c r="I77" s="73"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="38"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C78" s="67" t="s">
-        <v>155</v>
-      </c>
-      <c r="D78" s="68"/>
-      <c r="E78" s="69"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="71"/>
-      <c r="H78" s="72"/>
-      <c r="I78" s="73"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="67" t="s">
-        <v>156</v>
-      </c>
-      <c r="D79" s="68"/>
-      <c r="E79" s="69"/>
-      <c r="F79" s="69"/>
-      <c r="G79" s="74"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="22"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="40"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="36"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="41"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="46"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="47"/>
-      <c r="G80" s="46"/>
-      <c r="H80" s="46"/>
+      <c r="B80" s="42"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="42"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="42"/>
+      <c r="H80" s="42"/>
       <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3909,72 +4285,88 @@
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
+      <c r="B83" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
       <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="C84" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="D84" s="47"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="49"/>
+      <c r="G84" s="50"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="52"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="4"/>
-      <c r="B85" s="76" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C85" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" s="47"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="49"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="52"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="4"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="6"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="46" t="s">
+        <v>171</v>
+      </c>
+      <c r="D86" s="47"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="50"/>
+      <c r="H86" s="51"/>
+      <c r="I86" s="52"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="16"/>
+      <c r="B87" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D87" s="47"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="53"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="52"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4012,7 +4404,9 @@
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
+      <c r="B92" s="56" t="s">
+        <v>173</v>
+      </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -4032,16 +4426,16 @@
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
@@ -5628,22 +6022,22 @@
       <c r="I238" s="5"/>
     </row>
     <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="77"/>
-      <c r="B239" s="78"/>
-      <c r="C239" s="78"/>
-      <c r="D239" s="78"/>
-      <c r="E239" s="78"/>
-      <c r="F239" s="79"/>
-      <c r="G239" s="78"/>
-      <c r="H239" s="78"/>
-      <c r="I239" s="78"/>
+      <c r="A239" s="57"/>
+      <c r="B239" s="58"/>
+      <c r="C239" s="58"/>
+      <c r="D239" s="58"/>
+      <c r="E239" s="58"/>
+      <c r="F239" s="59"/>
+      <c r="G239" s="58"/>
+      <c r="H239" s="58"/>
+      <c r="I239" s="58"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I68">
-    <sortCondition ref="D34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A76">
+    <sortCondition ref="A34"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup scale="80" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,34 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC68920C-7B69-AF44-BA18-2D8BA2F62267}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD32F1C-1615-224F-BDBA-2AD90DEBF3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="200">
   <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
-    <t>13 - 19 De Julio del 2020</t>
+    <t>20 - 26 de Julio del 2020</t>
   </si>
   <si>
     <t>Reporte Ejecutivo</t>
@@ -65,19 +55,25 @@
     <t xml:space="preserve">Belora A. </t>
   </si>
   <si>
-    <t>Manual</t>
+    <t>María Patricia Cotreras Rodríguez</t>
+  </si>
+  <si>
+    <t>Lamudi</t>
+  </si>
+  <si>
+    <t>Patricia Alvarado Camacho</t>
+  </si>
+  <si>
+    <t>Google</t>
   </si>
   <si>
     <t>Jose Luis Vaca Ramos</t>
   </si>
   <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>María Patricia Cotreras Rodríguez</t>
-  </si>
-  <si>
-    <t>Lamudi</t>
+    <t>Referido</t>
+  </si>
+  <si>
+    <t>Inmuebles24</t>
   </si>
   <si>
     <t>Detalle</t>
@@ -107,397 +103,481 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>2020-07-19 11:19:52</t>
+    <t>Alejandra Campos García</t>
+  </si>
+  <si>
+    <t>2020-07-26 09:38:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adolfo Hache </t>
+  </si>
+  <si>
+    <t>vijuver@live.com.mx</t>
+  </si>
+  <si>
+    <t>Belora Abadi Husny</t>
+  </si>
+  <si>
+    <t>2020-07-25 22:18:50</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Iván Moran </t>
-  </si>
-  <si>
-    <t>ivanmoran.manager@gmail.com</t>
+    <t xml:space="preserve">Rosy nakach Levy </t>
+  </si>
+  <si>
+    <t>rosynakach@hotmail.com</t>
+  </si>
+  <si>
+    <t>Envíe un correo con informacion general</t>
+  </si>
+  <si>
+    <t>2020-07-25 21:00:28</t>
+  </si>
+  <si>
+    <t>Wendy García</t>
+  </si>
+  <si>
+    <t>wenangegar@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-25 15:09:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">German Martínez Adams </t>
+  </si>
+  <si>
+    <t>cukyadams@me.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Se envió correo desde Kiper.</t>
+  </si>
+  <si>
+    <t>2020-07-25 13:50:07</t>
+  </si>
+  <si>
+    <t>Alejandra Castillo</t>
+  </si>
+  <si>
+    <t>5513417834@phonecall.com</t>
+  </si>
+  <si>
+    <t>2020-07-25 05:12:28</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>Alejandra Campos García</t>
-  </si>
-  <si>
-    <t>2020-07-19 01:34:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudia Navarrete Garza </t>
-  </si>
-  <si>
-    <t>claunavarrete23@hotmail.com</t>
+    <t xml:space="preserve">Eduardo Martinez Peres </t>
+  </si>
+  <si>
+    <t>lalopato1980@hotmai.com</t>
+  </si>
+  <si>
+    <t>CORREO y WHAPP de primer contacto enviado, dice que no tiene dinero</t>
+  </si>
+  <si>
+    <t>2020-07-25 04:37:23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Alberto Fuentes Marquez </t>
+  </si>
+  <si>
+    <t>luisydanielafuentes@gmail.com</t>
+  </si>
+  <si>
+    <t>Se envió correo desde Kiper.</t>
+  </si>
+  <si>
+    <t>2020-07-24 22:54:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebeca Levi </t>
+  </si>
+  <si>
+    <t>rebecalevi1@gmail.com</t>
+  </si>
+  <si>
+    <t>CORREO de primer contacto enviado. No me sale WHATSAPP</t>
+  </si>
+  <si>
+    <t>2020-07-24 20:48:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nathalie </t>
+  </si>
+  <si>
+    <t>nathalie.teatinwork@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-24 16:40:26</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Israel Roa</t>
+  </si>
+  <si>
+    <t>israelroa@outlook.com</t>
+  </si>
+  <si>
+    <t>Envié correo de nápoles y polanco con información de PH y departamentos para sus clientes</t>
+  </si>
+  <si>
+    <t>2020-07-23 23:32:31</t>
+  </si>
+  <si>
+    <t>Jose Yunez</t>
+  </si>
+  <si>
+    <t>jyunez@me.com</t>
   </si>
   <si>
     <t>CORREO y WHAPP de primer contacto enviado</t>
   </si>
   <si>
-    <t>Belora Abadi Husny</t>
-  </si>
-  <si>
-    <t>2020-07-19 00:17:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erik Granados alemán </t>
-  </si>
-  <si>
-    <t>erik.aleman.179@gmail.com</t>
-  </si>
-  <si>
-    <t>Se envió correo desde Kiper.</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>2020-07-18 13:48:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joaquin Benitez </t>
-  </si>
-  <si>
-    <t>joaquinb.lopez@gmail.com</t>
-  </si>
-  <si>
-    <t>CORREO y WHAPP primer contacto enviado</t>
-  </si>
-  <si>
-    <t>2020-07-17 17:05:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberto Bernal </t>
-  </si>
-  <si>
-    <t>ing.albertobernal@gmail.com</t>
-  </si>
-  <si>
-    <t>presupuesto de 10 millones, no quiere nápoles</t>
-  </si>
-  <si>
-    <t>2020-07-17 16:14:36</t>
-  </si>
-  <si>
-    <t>Ivan Osorio</t>
-  </si>
-  <si>
-    <t>heavyrockivan87@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-17 15:49:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erick Laydam </t>
-  </si>
-  <si>
-    <t>erickmichelrosales312@hotmail.com</t>
-  </si>
-  <si>
-    <t>CORREO Y WHAPP primer contacto enviado</t>
-  </si>
-  <si>
-    <t>2020-07-17 15:22:26</t>
-  </si>
-  <si>
-    <t>Shakta Siviane</t>
-  </si>
-  <si>
-    <t>shaktasiviane1@outlook.com</t>
-  </si>
-  <si>
-    <t>2020-07-17 14:40:48</t>
-  </si>
-  <si>
-    <t>Karla Rivera</t>
-  </si>
-  <si>
-    <t>karla.paola9@hotmail.com</t>
-  </si>
-  <si>
-    <t>WHAPP con los brochures, video y fotos de amenidades para que pueda enviar a cliente</t>
-  </si>
-  <si>
-    <t>2020-07-17 14:12:14</t>
-  </si>
-  <si>
-    <t>Néstor Del Río Galvan</t>
-  </si>
-  <si>
-    <t>nestor@delrio.com.mx</t>
-  </si>
-  <si>
-    <t>Se le envía información por mail y por whats</t>
-  </si>
-  <si>
-    <t>2020-07-17 13:49:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilberto Valenzuela </t>
-  </si>
-  <si>
-    <t>facturas@fertmar.com</t>
-  </si>
-  <si>
-    <t>Le pico por error vive en Merida y no esta buscando nada en la ciudad de mexico</t>
-  </si>
-  <si>
-    <t>2020-07-17 13:01:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kimberly Torrijos </t>
-  </si>
-  <si>
-    <t>arq.torrijos@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-17 12:28:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laura </t>
-  </si>
-  <si>
-    <t>00000</t>
-  </si>
-  <si>
-    <t>laura_lilia87@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-17 11:00:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Manuel Torres ledesma </t>
-  </si>
-  <si>
-    <t>josemanueltorres244@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-17 06:08:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Ascencio Madrigal </t>
-  </si>
-  <si>
-    <t>edu.mad80@hitmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-17 01:23:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berna flores </t>
-  </si>
-  <si>
-    <t>b.fmendoza@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-16 14:59:49</t>
-  </si>
-  <si>
-    <t>Jesús Alejandro Mondragon Ventura</t>
-  </si>
-  <si>
-    <t>mondragondembe11@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-16 14:39:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin nombre </t>
-  </si>
-  <si>
-    <t>22817816311@phonecall.com</t>
-  </si>
-  <si>
-    <t>no contesta, entra al buzon, no tiene opcion de whats app</t>
-  </si>
-  <si>
-    <t>2020-07-16 13:03:44</t>
-  </si>
-  <si>
-    <t>Graciela Lomeli</t>
-  </si>
-  <si>
-    <t>lomelibrokers.grabiela@gmail.com</t>
-  </si>
-  <si>
-    <t>BROKER externa, le envié promoción de 4% y brochure para sus clientes</t>
-  </si>
-  <si>
-    <t>2020-07-16 07:35:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dllara Aidé </t>
-  </si>
-  <si>
-    <t>Horganista01@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-16 06:09:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">María Guadalupe Chávez Romero </t>
-  </si>
-  <si>
-    <t>chavezromeromariaguadalupe4@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-15 18:40:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Mendoza Garza </t>
-  </si>
-  <si>
-    <t>daniel.mendoza@qp.com.mx</t>
-  </si>
-  <si>
-    <t>2020-07-14 20:35:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Nerio Robertt Bravo </t>
-  </si>
-  <si>
-    <t>sem.aguascalientes@hotmail.com</t>
-  </si>
-  <si>
-    <t>CORREO primer contacto enviado</t>
-  </si>
-  <si>
-    <t>2020-07-14 20:30:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maura Montenegro </t>
-  </si>
-  <si>
-    <t>mauramtn90@live.com</t>
-  </si>
-  <si>
-    <t>2020-07-14 18:28:33</t>
-  </si>
-  <si>
-    <t>Gilberto Chavez</t>
-  </si>
-  <si>
-    <t>chavezgil811@gmail.com</t>
-  </si>
-  <si>
-    <t>Coticé depto 502E</t>
-  </si>
-  <si>
-    <t>2020-07-14 18:09:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luckas </t>
-  </si>
-  <si>
-    <t>llucass877@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-14 17:43:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bernardo Guzmán </t>
-  </si>
-  <si>
-    <t>benousqui@yahoo.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación con cotizaciones de 2 rercamaras  --  Se le envía información de Nápoles y Polanco</t>
-  </si>
-  <si>
-    <t>2020-07-14 16:01:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judith López </t>
-  </si>
-  <si>
-    <t>judlopz900605@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-14 13:49:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rocio caso </t>
-  </si>
-  <si>
-    <t>rociocaso0618@icloud.com</t>
-  </si>
-  <si>
-    <t>CORREO Y WHAPP de primer contacto enviados</t>
-  </si>
-  <si>
-    <t>2020-07-14 13:09:29</t>
-  </si>
-  <si>
-    <t>Yuefen Chen</t>
-  </si>
-  <si>
-    <t>jenifen@foxmail.com</t>
-  </si>
-  <si>
-    <t>Pendiente confirmar cita para conocer Desarrollo.</t>
-  </si>
-  <si>
-    <t>2020-07-13 23:42:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Hernandez </t>
-  </si>
-  <si>
-    <t>diego2.alberto3.hv.99@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-13 22:32:26</t>
-  </si>
-  <si>
-    <t>Karen Juarez</t>
-  </si>
-  <si>
-    <t>nerak0912@hotmail.com</t>
-  </si>
-  <si>
-    <t>CORREO y WHAPP  de primer contacto enviados</t>
-  </si>
-  <si>
-    <t>2020-07-13 21:41:28</t>
-  </si>
-  <si>
-    <t>sauleduardo.gonzaleztorres@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-13 21:05:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karen Gamboa Salgado </t>
-  </si>
-  <si>
-    <t>kgamboa@its.jnj.com</t>
-  </si>
-  <si>
-    <t>CORREO y WHAPP de primer contacto</t>
-  </si>
-  <si>
-    <t>2020-07-13 19:11:03</t>
-  </si>
-  <si>
-    <t>Kristha Wallberg</t>
-  </si>
-  <si>
-    <t>feryann01@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-13 13:45:00</t>
-  </si>
-  <si>
-    <t>pedro alberto campos</t>
-  </si>
-  <si>
-    <t>pedro-alberto1607@outlook.com</t>
-  </si>
-  <si>
-    <t>CORREO enviado para revisar comentarios de las cotizaciones enviadas</t>
+    <t>2020-07-23 20:46:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Ronaldo Perez Sánchez </t>
+  </si>
+  <si>
+    <t>juanronaldoperezlopez66@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-23 19:55:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin Nombre </t>
+  </si>
+  <si>
+    <t>WHAPP con mensaje de primer contacto, no contesta la llamada</t>
+  </si>
+  <si>
+    <t>2020-07-23 16:17:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leslie Paola Gomez Alvarez </t>
+  </si>
+  <si>
+    <t>onedirection23701@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-23 15:00:04</t>
+  </si>
+  <si>
+    <t>Fernanda Galindo Ramírez</t>
+  </si>
+  <si>
+    <t>fernandagalindoramirez2@gmail.com</t>
+  </si>
+  <si>
+    <t>Está empezando a ver opciones envié fotografías y cotización 404-A</t>
+  </si>
+  <si>
+    <t>2020-07-23 11:42:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra Araniva </t>
+  </si>
+  <si>
+    <t>sandra.araniva@gmail.com</t>
+  </si>
+  <si>
+    <t>RENTA y presupuesto de $15,000</t>
+  </si>
+  <si>
+    <t>2020-07-23 09:02:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paula Johana Pérez Hernández </t>
+  </si>
+  <si>
+    <t>paulajohanaperez@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-23 00:14:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daniela </t>
+  </si>
+  <si>
+    <t>danislonimsky@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-23 00:04:30</t>
+  </si>
+  <si>
+    <t>Jahaziel Rodriguez</t>
+  </si>
+  <si>
+    <t>jhazer83mx@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-22 21:51:44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karla Morales </t>
+  </si>
+  <si>
+    <t>kmoralesc@yahoo.com</t>
+  </si>
+  <si>
+    <t>2020-07-22 20:54:53</t>
+  </si>
+  <si>
+    <t>Monica Lechuga</t>
+  </si>
+  <si>
+    <t>mtosqui130286@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-22 18:26:04</t>
+  </si>
+  <si>
+    <t>Olga Santibañes</t>
+  </si>
+  <si>
+    <t>olgasantibanes29@hotmail.com</t>
+  </si>
+  <si>
+    <t>CORREO enviado con la liga de la pagina y videos para que pueda ofrecer a sus clientes</t>
+  </si>
+  <si>
+    <t>2020-07-22 18:06:08</t>
+  </si>
+  <si>
+    <t>Patricia Olvera García</t>
+  </si>
+  <si>
+    <t>2020-07-22 17:12:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leopoldo </t>
+  </si>
+  <si>
+    <t>leopoldomex@yahoo.com</t>
+  </si>
+  <si>
+    <t>COTIZACION 259 m enviada por WHAPP</t>
+  </si>
+  <si>
+    <t>2020-07-22 14:58:43</t>
+  </si>
+  <si>
+    <t>Daniela Slonimsky</t>
+  </si>
+  <si>
+    <t>daniela.slonimsky@hotmail.com</t>
+  </si>
+  <si>
+    <t>Le envío presentación y cotizaciones por mail  y whats</t>
+  </si>
+  <si>
+    <t>2020-07-22 00:36:45</t>
+  </si>
+  <si>
+    <t>Luis Antonio Martínez</t>
+  </si>
+  <si>
+    <t>amartinezmeister@gmail.com</t>
+  </si>
+  <si>
+    <t>Vio el anuncio en dolares y pensó que eran pesos tiene un credito fovisste de 1millon y medio</t>
+  </si>
+  <si>
+    <t>2020-07-21 19:23:12</t>
+  </si>
+  <si>
+    <t>David Alcantara</t>
+  </si>
+  <si>
+    <t>5538884081@phonecall.com</t>
+  </si>
+  <si>
+    <t>Envié brochure de los desarrollos</t>
+  </si>
+  <si>
+    <t>2020-07-21 17:42:42</t>
+  </si>
+  <si>
+    <t>Barbara Valencia</t>
+  </si>
+  <si>
+    <t>barbara@hihab.com</t>
+  </si>
+  <si>
+    <t>La información es para su Jefe Hugo Medina, se le envían Cotizaciones de Av. Polanco</t>
+  </si>
+  <si>
+    <t>2020-07-21 14:28:17</t>
+  </si>
+  <si>
+    <t>Fernando Arancibia Foianini</t>
+  </si>
+  <si>
+    <t>(59) 1773-3028</t>
+  </si>
+  <si>
+    <t>arancibiaguillermo@hotmail.com</t>
+  </si>
+  <si>
+    <t>Vive en Bolivia donde hay un barrio muy lindo llamado Polanco, pensó que este desarrollo estaba en Bolivia.</t>
+  </si>
+  <si>
+    <t>2020-07-21 12:38:41</t>
+  </si>
+  <si>
+    <t>Julian Vasquez Toledo</t>
+  </si>
+  <si>
+    <t>esm_55@hotmail.com</t>
+  </si>
+  <si>
+    <t>Busca un desarrollo para pagar el enganche a largo plazo. Le interesan zonas como Reforma Centro o prolongación Reforma hasta Santa fe. Le enviaré info cuando tengamos abierto Roma</t>
+  </si>
+  <si>
+    <t>2020-07-21 11:27:23</t>
+  </si>
+  <si>
+    <t>Miguel Baez</t>
+  </si>
+  <si>
+    <t>mbaezf18@gmail.com</t>
+  </si>
+  <si>
+    <t>Le envío cotizaciones de Napoles de 2 recamaras y Cotizaciones de Polanco de 3 recámaras.</t>
+  </si>
+  <si>
+    <t>2020-07-21 11:24:34</t>
+  </si>
+  <si>
+    <t>Maximiliano Ecart</t>
+  </si>
+  <si>
+    <t>kstaufferdan@gmail.com</t>
+  </si>
+  <si>
+    <t>Se llevó cotizaciones del PH2B, 402B, 301F y PH1F llamarle la próxima semana</t>
+  </si>
+  <si>
+    <t>2020-07-20 20:33:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar Vallecillo </t>
+  </si>
+  <si>
+    <t>omar.vallecillo@vissatowers.com</t>
+  </si>
+  <si>
+    <t>2020-07-20 15:41:03</t>
+  </si>
+  <si>
+    <t>Anton Ismael López</t>
+  </si>
+  <si>
+    <t>ismaelydania571@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envían cotizaciones del 307A y 405B</t>
+  </si>
+  <si>
+    <t>2020-07-20 15:33:02</t>
+  </si>
+  <si>
+    <t>Ignacio Torres Perez</t>
+  </si>
+  <si>
+    <t>ignaciotoper@gmail.com</t>
+  </si>
+  <si>
+    <t>Es corredor traerá Clientes para Av Nápols y para Av. Polanco, le envío presentación de los proyectos</t>
+  </si>
+  <si>
+    <t>2020-07-20 14:45:58</t>
+  </si>
+  <si>
+    <t>Diego Razo</t>
+  </si>
+  <si>
+    <t>(55) 5102-2351</t>
+  </si>
+  <si>
+    <t>diego.razo.t@gmail.com</t>
+  </si>
+  <si>
+    <t>Coticé 404-A</t>
+  </si>
+  <si>
+    <t>2020-07-20 13:52:44</t>
+  </si>
+  <si>
+    <t>Cesar Castellanos</t>
+  </si>
+  <si>
+    <t>cesarc@correlliglass.com.mx</t>
+  </si>
+  <si>
+    <t>Se llevo cotizaciones del PH06A 306A y PH07A, le di también información de Av. Polanco</t>
+  </si>
+  <si>
+    <t>2020-07-20 13:34:07</t>
+  </si>
+  <si>
+    <t>Ariana Lara</t>
+  </si>
+  <si>
+    <t>ariana751lara@gmail.com</t>
+  </si>
+  <si>
+    <t>Es de guatemala y su esposo es polaco busca algo en polanco para venir aqui a vivir, le envie info del 404A, 301B, 502F</t>
+  </si>
+  <si>
+    <t>2020-07-20 13:24:37</t>
+  </si>
+  <si>
+    <t>David Arturo Molina</t>
+  </si>
+  <si>
+    <t>contacto@bufetemolna.com.mx</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por whats con informacion de Av Polanco y Av Nápoles</t>
+  </si>
+  <si>
+    <t>2020-07-20 12:51:01</t>
+  </si>
+  <si>
+    <t>Alicia Berber</t>
+  </si>
+  <si>
+    <t>alibeberj@gmail.com</t>
+  </si>
+  <si>
+    <t>WHAPP seguimiento. Polanco sale de su presupuesto pero tomará en cuenta Nápoles. Lo va a revisar y estaré en contacto</t>
+  </si>
+  <si>
+    <t>2020-07-20 10:38:27</t>
+  </si>
+  <si>
+    <t>Jessica Salgado</t>
+  </si>
+  <si>
+    <t>jessicasalgado2001@hotmail.com</t>
+  </si>
+  <si>
+    <t>Está buscando RENTA</t>
+  </si>
+  <si>
+    <t>2020-07-20 10:27:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrea Katerina </t>
+  </si>
+  <si>
+    <t>alfaomegan3@gmail.com</t>
   </si>
   <si>
     <t>Código de clasificación</t>
@@ -521,60 +601,32 @@
     <t xml:space="preserve">Report Powered by KIPER </t>
   </si>
   <si>
+    <t>Página web</t>
+  </si>
+  <si>
     <t>Broker</t>
   </si>
   <si>
+    <t>patriciaolveragarcia71@gmail.com</t>
+  </si>
+  <si>
     <t>Vallas</t>
   </si>
   <si>
-    <t>2020-07-19 13:33:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Gutiérrez Álvarez </t>
-  </si>
-  <si>
-    <t>dieguifo1357@gmail.com</t>
-  </si>
-  <si>
-    <t>Interesado en Garde House de Nápoles y Pent House de Polanco se le envía información por whats programaremos cita</t>
-  </si>
-  <si>
-    <t>Página web</t>
-  </si>
-  <si>
-    <t>Saúl González</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No contesta, envíe correo y whats app</t>
-  </si>
-  <si>
-    <t>quiere un departamento de 4 recamaras y 3 millones de pesos</t>
-  </si>
-  <si>
-    <t>Busca renta y tiene poco presupuesto</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CORREO y WHAPP primer contacto enviado</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ya consiguió en polanco</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> El correo se regresa, estoy en espera de la corrección.</t>
-  </si>
-  <si>
-    <t>quiere buscar algo de 80 a 100m y tiene de 3 a 5 mas al sur de la ciudad
-Pero que le envíe opciones de nápoles  --  Se envió correo desde Kiper.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visito el showroom, tiene presupuesto de 3 millones pero puede sacar un crédito le ofrecí nápoles y me pidio cotizaciones de 2 rec  </t>
+    <t>Se envió correo desde Kiper. No proporciona teléfono</t>
+  </si>
+  <si>
+    <t>5536565823@phonecall.com</t>
+  </si>
+  <si>
+    <t>Se le envía información general por whats ya que así lo solocita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -616,9 +668,48 @@
       <name val="Avenir Book"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Avenir Book"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Avenir Heavy"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Avenir Heavy"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -641,7 +732,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -777,35 +868,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -822,19 +888,6 @@
         <color indexed="8"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -878,11 +931,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -891,16 +973,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -913,116 +989,177 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1117,7 +1254,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>292100</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1160,15 +1297,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>713739</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>50842</xdr:rowOff>
+      <xdr:colOff>642620</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>199967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1135405</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>149895</xdr:rowOff>
+      <xdr:colOff>1125220</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1191,8 +1328,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="993139" y="28301357"/>
-          <a:ext cx="421667" cy="699129"/>
+          <a:off x="922019" y="18113317"/>
+          <a:ext cx="482601" cy="800158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1402,17 +1539,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1440,10 +1577,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1697,12 +1834,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1995,7 +2132,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2023,10 +2160,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2287,22 +2424,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="40.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="152.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="41.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="176.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
@@ -2434,7 +2572,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -2445,7 +2583,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="53"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -2456,1703 +2594,1782 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="21">
-        <v>37</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="20" t="s">
+      <c r="C20" s="18">
+        <v>42</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="21">
-        <v>4</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
+      <c r="F21" s="56">
+        <v>11</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="21">
-        <v>31</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
+      <c r="F22" s="56">
+        <v>25</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="72"/>
     </row>
     <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="20" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="21">
-        <v>2</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
+      <c r="F23" s="56">
+        <v>6</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="73"/>
     </row>
     <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="12"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="73"/>
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="21">
-        <v>18</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="20" t="s">
+      <c r="C25" s="18">
+        <v>17</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="21">
-        <v>13</v>
-      </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
+      <c r="F25" s="58">
+        <v>6</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="H25" s="67">
+        <v>3</v>
+      </c>
+      <c r="I25" s="74"/>
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="18">
         <v>14</v>
       </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="20" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="48" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="59">
+        <v>7</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" s="68">
+        <v>2</v>
+      </c>
+      <c r="I26" s="73"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="21">
-        <v>0</v>
-      </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="41" t="s">
+      <c r="C27" s="18">
+        <v>3</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="21">
-        <v>3</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="21">
-        <v>13</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
+      <c r="F27" s="56">
+        <v>7</v>
+      </c>
+      <c r="G27" s="49"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="73"/>
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="79">
+        <v>8</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="21">
+      <c r="F28" s="56">
+        <v>11</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="73"/>
+    </row>
+    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="56">
         <v>2</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="21">
-        <v>2</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="21">
-        <v>3</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="73"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="21">
+      <c r="B30" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="22"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="56">
         <v>4</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="73"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="21">
-        <v>2</v>
-      </c>
-      <c r="G31" s="24"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="12"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="22"/>
+      <c r="I31" s="73"/>
     </row>
     <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="12"/>
+      <c r="B32" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="60" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="60" t="s">
+      <c r="A33" s="4">
+        <v>1</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="G33" s="18">
+        <v>5550683430</v>
+      </c>
+      <c r="H33" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34">
+        <v>2</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="D34" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="18">
+        <v>5527024785</v>
+      </c>
+      <c r="H34" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" s="61" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34">
+        <v>3</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="G35" s="18">
+        <v>50242801579</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="I35" s="61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34">
+        <v>4</v>
+      </c>
+      <c r="B36" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="G36" s="18">
+        <v>2711062555</v>
+      </c>
+      <c r="H36" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="I36" s="61" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>5</v>
+      </c>
+      <c r="B37" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="61" t="s">
+      <c r="F37" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="G37" s="18">
+        <v>5526858575</v>
+      </c>
+      <c r="H37" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="34">
+        <v>6</v>
+      </c>
+      <c r="B38" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="G38" s="18">
+        <v>5536645516</v>
+      </c>
+      <c r="H38" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="I38" s="61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34">
+        <v>7</v>
+      </c>
+      <c r="B39" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>140</v>
+      </c>
+      <c r="G39" s="18">
+        <v>5527076871</v>
+      </c>
+      <c r="H39" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="I39" s="61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="34">
+        <v>8</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="G40" s="18">
+        <v>5567637388</v>
+      </c>
+      <c r="H40" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I40" s="61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>9</v>
+      </c>
+      <c r="B41" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="18">
+        <v>5555072531</v>
+      </c>
+      <c r="H41" s="61" t="s">
+        <v>165</v>
+      </c>
+      <c r="I41" s="61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="34">
+        <v>10</v>
+      </c>
+      <c r="B42" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F42" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="18">
+        <v>5560034888</v>
+      </c>
+      <c r="H42" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="I42" s="61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="34">
+        <v>11</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F43" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="H43" s="61" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43" s="61" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="34">
+        <v>12</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F44" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="18">
+        <v>9511621889</v>
+      </c>
+      <c r="H44" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="I44" s="61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>13</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="18">
+        <v>5538884081</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="I45" s="61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <v>14</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G46" s="18">
+        <v>5539625891</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="I46" s="61" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="34">
+        <v>15</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="18">
+        <v>5570740324</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="I47" s="61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
+        <v>16</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="18">
+        <v>5511558234</v>
+      </c>
+      <c r="H48" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="I48" s="61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>17</v>
+      </c>
+      <c r="B49" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="18">
+        <v>2281794626</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="I49" s="61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="34">
         <v>18</v>
       </c>
-      <c r="D33" s="60" t="s">
+      <c r="B50" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" s="18">
+        <v>5563192535</v>
+      </c>
+      <c r="H50" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="I50" s="61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="34">
         <v>19</v>
       </c>
-      <c r="E33" s="61" t="s">
+      <c r="B51" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="G51" s="18">
+        <v>5554241801</v>
+      </c>
+      <c r="H51" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="I51" s="61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="34">
         <v>20</v>
       </c>
-      <c r="F33" s="60" t="s">
+      <c r="B52" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="G52" s="18">
+        <v>5540903021</v>
+      </c>
+      <c r="H52" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" s="61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>21</v>
       </c>
-      <c r="G33" s="60" t="s">
+      <c r="B53" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" s="18">
+        <v>5566070429</v>
+      </c>
+      <c r="H53" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="I53" s="61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="34">
         <v>22</v>
       </c>
-      <c r="H33" s="60" t="s">
+      <c r="B54" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="18">
+        <v>5517848887</v>
+      </c>
+      <c r="H54" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="I54" s="61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="34">
         <v>23</v>
       </c>
-      <c r="I33" s="60" t="s">
+      <c r="B55" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="G55" s="18">
+        <v>5573897691</v>
+      </c>
+      <c r="H55" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="I55" s="61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="34">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59">
-        <v>1</v>
-      </c>
-      <c r="B34" s="62" t="s">
+      <c r="B56" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E56" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="F56" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="18">
+        <v>9361042975</v>
+      </c>
+      <c r="H56" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I56" s="55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
+        <v>25</v>
+      </c>
+      <c r="B57" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="18">
+        <v>5536565823</v>
+      </c>
+      <c r="H57" s="70" t="s">
+        <v>198</v>
+      </c>
+      <c r="I57" s="61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="34">
+        <v>26</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" s="18">
+        <v>7445353795</v>
+      </c>
+      <c r="H58" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="I58" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="34">
+        <v>27</v>
+      </c>
+      <c r="B59" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G59" s="18">
+        <v>5621171087</v>
+      </c>
+      <c r="H59" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" s="61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="34">
+        <v>28</v>
+      </c>
+      <c r="B60" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="G60" s="18">
+        <v>16022069312</v>
+      </c>
+      <c r="H60" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I60" s="61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
+        <v>29</v>
+      </c>
+      <c r="B61" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="G61" s="18">
+        <v>5539396359</v>
+      </c>
+      <c r="H61" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="I61" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="34">
+        <v>30</v>
+      </c>
+      <c r="B62" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C62" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="18">
+        <v>5621128594</v>
+      </c>
+      <c r="H62" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="34">
+        <v>31</v>
+      </c>
+      <c r="B63" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="G63" s="18">
+        <v>5529596700</v>
+      </c>
+      <c r="H63" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="34">
+        <v>32</v>
+      </c>
+      <c r="B64" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C64" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" s="18">
+        <v>5519824854</v>
+      </c>
+      <c r="H64" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>33</v>
+      </c>
+      <c r="B65" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="G65" s="18">
+        <v>5567911199</v>
+      </c>
+      <c r="H65" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="I65" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="34">
+        <v>34</v>
+      </c>
+      <c r="B66" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F66" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="G66" s="18">
+        <v>5571446600</v>
+      </c>
+      <c r="H66" s="70" t="s">
+        <v>195</v>
+      </c>
+      <c r="I66" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="34">
+        <v>35</v>
+      </c>
+      <c r="B67" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="E67" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="G67" s="18">
+        <v>5573897691</v>
+      </c>
+      <c r="H67" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="I67" s="61" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="34">
+        <v>36</v>
+      </c>
+      <c r="B68" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="18">
+        <v>5513417836</v>
+      </c>
+      <c r="H68" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" s="55" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
+        <v>37</v>
+      </c>
+      <c r="B69" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F69" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="H69" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="61" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="34">
+        <v>38</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70" s="18">
+        <v>7151021651</v>
+      </c>
+      <c r="H70" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" s="61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="34">
+        <v>39</v>
+      </c>
+      <c r="B71" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D71" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="G71" s="18">
+        <v>71188939</v>
+      </c>
+      <c r="H71" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="I71" s="61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="34">
+        <v>40</v>
+      </c>
+      <c r="B72" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H72" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="I72" s="61" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
+        <v>41</v>
+      </c>
+      <c r="B73" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="G73" s="18">
+        <v>5576369431</v>
+      </c>
+      <c r="H73" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="I73" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="G34" s="62">
-        <v>5510050136</v>
-      </c>
-      <c r="H34" s="62" t="s">
-        <v>123</v>
-      </c>
-      <c r="I34" s="62" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59">
-        <v>2</v>
-      </c>
-      <c r="B35" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="D35" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="62" t="s">
-        <v>153</v>
-      </c>
-      <c r="G35" s="62">
-        <v>5565434658</v>
-      </c>
-      <c r="H35" s="62" t="s">
-        <v>154</v>
-      </c>
-      <c r="I35" s="62" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59">
-        <v>3</v>
-      </c>
-      <c r="B36" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D36" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="F36" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="G36" s="62">
-        <v>5540234234</v>
-      </c>
-      <c r="H36" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59">
-        <v>4</v>
-      </c>
-      <c r="B37" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="62" t="s">
-        <v>164</v>
-      </c>
-      <c r="F37" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="G37" s="62">
-        <v>5580572407</v>
-      </c>
-      <c r="H37" s="62" t="s">
-        <v>116</v>
-      </c>
-      <c r="I37" s="62" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59">
-        <v>5</v>
-      </c>
-      <c r="B38" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="F38" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" s="62">
-        <v>5548987141</v>
-      </c>
-      <c r="H38" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="I38" s="62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="59">
-        <v>6</v>
-      </c>
-      <c r="B39" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="G39" s="62">
-        <v>5540676537</v>
-      </c>
-      <c r="H39" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="59">
-        <v>7</v>
-      </c>
-      <c r="B40" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="62">
-        <v>5516348716</v>
-      </c>
-      <c r="H40" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="I40" s="62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="59">
-        <v>8</v>
-      </c>
-      <c r="B41" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="62">
-        <v>5513602507</v>
-      </c>
-      <c r="H41" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" s="62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="59">
-        <v>9</v>
-      </c>
-      <c r="B42" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="D42" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E42" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="62">
-        <v>5532511775</v>
-      </c>
-      <c r="H42" s="62" t="s">
-        <v>100</v>
-      </c>
-      <c r="I42" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59">
-        <v>10</v>
-      </c>
-      <c r="B43" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C43" s="62" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="G43" s="62">
-        <v>4494252811</v>
-      </c>
-      <c r="H43" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="I43" s="62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59">
+    </row>
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="34">
+        <v>42</v>
+      </c>
+      <c r="B74" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="D44" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="G44" s="62">
-        <v>4448459014</v>
-      </c>
-      <c r="H44" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" s="62" t="s">
+      <c r="C74" s="30" t="s">
+        <v>179</v>
+      </c>
+      <c r="D74" s="36" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59">
-        <v>12</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="G45" s="62">
-        <v>3891083401</v>
-      </c>
-      <c r="H45" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="I45" s="62" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59">
-        <v>13</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C46" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="D46" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" s="62">
-        <v>9932345687</v>
-      </c>
-      <c r="H46" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="I46" s="62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="59">
-        <v>14</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C47" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47" s="62">
-        <v>3411458049</v>
-      </c>
-      <c r="H47" s="62" t="s">
-        <v>103</v>
-      </c>
-      <c r="I47" s="62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="59">
-        <v>15</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="D48" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E48" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" s="62">
-        <v>5566827751</v>
-      </c>
-      <c r="H48" s="62" t="s">
-        <v>127</v>
-      </c>
-      <c r="I48" s="67" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59">
-        <v>16</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G49" s="62">
-        <v>5548436012</v>
-      </c>
-      <c r="H49" s="62" t="s">
-        <v>28</v>
-      </c>
-      <c r="I49" s="62" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="59">
-        <v>17</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="62" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="62" t="s">
-        <v>166</v>
-      </c>
-      <c r="G50" s="62">
-        <v>5583411497</v>
-      </c>
-      <c r="H50" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="I50" s="62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="59">
-        <v>18</v>
-      </c>
-      <c r="B51" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C51" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E51" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="G51" s="62">
-        <v>5541357009</v>
-      </c>
-      <c r="H51" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="I51" s="62" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="59">
-        <v>19</v>
-      </c>
-      <c r="B52" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="62" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="62" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="62">
-        <v>4424156358</v>
-      </c>
-      <c r="H52" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="I52" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="59">
-        <v>20</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" s="62">
-        <v>4421977112</v>
-      </c>
-      <c r="H53" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="I53" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="59">
-        <v>21</v>
-      </c>
-      <c r="B54" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="62" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F54" s="62" t="s">
-        <v>105</v>
-      </c>
-      <c r="G54" s="62">
-        <v>8119439887</v>
-      </c>
-      <c r="H54" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="I54" s="62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="59">
-        <v>22</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="D55" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E55" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F55" s="62" t="s">
-        <v>119</v>
-      </c>
-      <c r="G55" s="62">
-        <v>11997260993</v>
-      </c>
-      <c r="H55" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="I55" s="62" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="59">
-        <v>23</v>
-      </c>
-      <c r="B56" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E56" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="62" t="s">
-        <v>129</v>
-      </c>
-      <c r="G56" s="62">
-        <v>5586114691</v>
-      </c>
-      <c r="H56" s="62" t="s">
-        <v>130</v>
-      </c>
-      <c r="I56" s="62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="59">
-        <v>24</v>
-      </c>
-      <c r="B57" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C57" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="D57" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E57" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F57" s="62" t="s">
-        <v>146</v>
-      </c>
-      <c r="G57" s="62">
-        <v>5533310696</v>
-      </c>
-      <c r="H57" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="I57" s="62" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="59">
-        <v>25</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C58" s="62" t="s">
-        <v>36</v>
-      </c>
-      <c r="D58" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E58" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="G58" s="62">
-        <v>5615987855</v>
-      </c>
-      <c r="H58" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="I58" s="62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="59">
-        <v>26</v>
-      </c>
-      <c r="B59" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C59" s="62" t="s">
-        <v>74</v>
-      </c>
-      <c r="D59" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E59" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F59" s="62" t="s">
-        <v>75</v>
-      </c>
-      <c r="G59" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="H59" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="I59" s="62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="59">
-        <v>27</v>
-      </c>
-      <c r="B60" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C60" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F60" s="62" t="s">
-        <v>112</v>
-      </c>
-      <c r="G60" s="62">
-        <v>5513693909</v>
-      </c>
-      <c r="H60" s="62" t="s">
-        <v>113</v>
-      </c>
-      <c r="I60" s="62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="59">
-        <v>28</v>
-      </c>
-      <c r="B61" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C61" s="62" t="s">
-        <v>136</v>
-      </c>
-      <c r="D61" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F61" s="62" t="s">
-        <v>137</v>
-      </c>
-      <c r="G61" s="62">
-        <v>5524926450</v>
-      </c>
-      <c r="H61" s="62" t="s">
-        <v>138</v>
-      </c>
-      <c r="I61" s="62" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="59">
-        <v>29</v>
-      </c>
-      <c r="B62" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C62" s="62" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E62" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="64" t="s">
-        <v>170</v>
-      </c>
-      <c r="G62" s="62">
-        <v>5586153498</v>
-      </c>
-      <c r="H62" s="62" t="s">
-        <v>144</v>
-      </c>
-      <c r="I62" s="62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="59">
-        <v>30</v>
-      </c>
-      <c r="B63" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="62" t="s">
-        <v>139</v>
-      </c>
-      <c r="D63" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E63" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="62" t="s">
-        <v>140</v>
-      </c>
-      <c r="G63" s="62">
-        <v>5585342889</v>
-      </c>
-      <c r="H63" s="62" t="s">
-        <v>141</v>
-      </c>
-      <c r="I63" s="62" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="59">
-        <v>31</v>
-      </c>
-      <c r="B64" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C64" s="62" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E64" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="62" t="s">
-        <v>150</v>
-      </c>
-      <c r="G64" s="62">
-        <v>5540552912</v>
-      </c>
-      <c r="H64" s="62" t="s">
-        <v>151</v>
-      </c>
-      <c r="I64" s="62" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="59">
-        <v>32</v>
-      </c>
-      <c r="B65" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="D65" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E65" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="F65" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" s="62">
-        <v>5527934404</v>
-      </c>
-      <c r="H65" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="I65" s="62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="59">
-        <v>33</v>
-      </c>
-      <c r="B66" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="D66" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="F66" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="G66" s="62">
-        <v>5611825587</v>
-      </c>
-      <c r="H66" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="I66" s="62" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="59">
-        <v>34</v>
-      </c>
-      <c r="B67" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="C67" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="D67" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E67" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="F67" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="G67" s="62">
-        <v>5554010626</v>
-      </c>
-      <c r="H67" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="I67" s="62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="59">
-        <v>35</v>
-      </c>
-      <c r="B68" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="62" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="E68" s="62" t="s">
-        <v>169</v>
-      </c>
-      <c r="F68" s="62" t="s">
-        <v>133</v>
-      </c>
-      <c r="G68" s="62">
-        <v>5586145888</v>
-      </c>
-      <c r="H68" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I68" s="62" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="59">
-        <v>36</v>
-      </c>
-      <c r="B69" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G69" s="62">
-        <v>8717823716</v>
-      </c>
-      <c r="H69" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="I69" s="62" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="59">
-        <v>37</v>
-      </c>
-      <c r="B70" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="C70" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="D70" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="62" t="s">
-        <v>15</v>
-      </c>
-      <c r="F70" s="62" t="s">
-        <v>91</v>
-      </c>
-      <c r="G70" s="62">
-        <v>22817816311</v>
-      </c>
-      <c r="H70" s="62" t="s">
-        <v>92</v>
-      </c>
-      <c r="I70" s="62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="4"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="65"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="4"/>
-      <c r="B74" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="5"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="C75" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="D75" s="47"/>
-      <c r="E75" s="48"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="50"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="52"/>
-    </row>
-    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="48"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="52"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C77" s="46" t="s">
-        <v>160</v>
-      </c>
-      <c r="D77" s="47"/>
-      <c r="E77" s="48"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="50"/>
-      <c r="H77" s="51"/>
-      <c r="I77" s="52"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="46" t="s">
-        <v>161</v>
-      </c>
-      <c r="D78" s="47"/>
-      <c r="E78" s="48"/>
-      <c r="F78" s="48"/>
-      <c r="G78" s="53"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="52"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E74" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="F74" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="G74" s="18">
+        <v>3322540915</v>
+      </c>
+      <c r="H74" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="I74" s="61" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="34"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
+    </row>
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+    </row>
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+    </row>
+    <row r="79" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="42"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="42"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
+      <c r="B80" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="42"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="40"/>
+      <c r="H80" s="40"/>
+      <c r="I80" s="40"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
+      <c r="B81" s="43"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="43"/>
+      <c r="E81" s="43"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="71"/>
+      <c r="I81" s="12"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="B82" s="83"/>
+      <c r="C82" s="84"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="80"/>
+      <c r="G82" s="80"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="12"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-    </row>
-    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="91" t="s">
+        <v>187</v>
+      </c>
+      <c r="C83" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="80"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="6"/>
+      <c r="B84" s="91" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="92"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="81"/>
     </row>
     <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
+      <c r="B85" s="91" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="81"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
+      <c r="B86" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" s="93"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="93"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="81"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="86"/>
+      <c r="C87" s="86"/>
+      <c r="D87" s="88"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="87"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="90"/>
+      <c r="I87" s="82"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
+      <c r="B88" s="86"/>
+      <c r="C88" s="86"/>
+      <c r="D88" s="86"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="86"/>
+      <c r="H88" s="86"/>
       <c r="I88" s="5"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="F89" s="53"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
+      <c r="F90" s="53"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
+      <c r="F91" s="53"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
+      <c r="B92" s="44" t="s">
+        <v>192</v>
+      </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
+      <c r="F92" s="53"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="F93" s="53"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
-      <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="F94" s="53"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="6"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
+      <c r="F96" s="53"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
+      <c r="F97" s="53"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="F98" s="53"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -4163,7 +4380,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="8"/>
+      <c r="F99" s="53"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -4174,7 +4391,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="8"/>
+      <c r="F100" s="53"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -4185,7 +4402,7 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="8"/>
+      <c r="F101" s="53"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -4196,7 +4413,7 @@
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="8"/>
+      <c r="F102" s="53"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -4207,7 +4424,7 @@
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="8"/>
+      <c r="F103" s="53"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -4218,7 +4435,7 @@
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="8"/>
+      <c r="F104" s="53"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -4229,7 +4446,7 @@
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
-      <c r="F105" s="8"/>
+      <c r="F105" s="53"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -4240,7 +4457,7 @@
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
-      <c r="F106" s="8"/>
+      <c r="F106" s="53"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
@@ -4251,7 +4468,7 @@
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
-      <c r="F107" s="8"/>
+      <c r="F107" s="53"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
@@ -4262,7 +4479,7 @@
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="8"/>
+      <c r="F108" s="53"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -4273,7 +4490,7 @@
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="8"/>
+      <c r="F109" s="53"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
@@ -4284,7 +4501,7 @@
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="8"/>
+      <c r="F110" s="53"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -4295,7 +4512,7 @@
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="8"/>
+      <c r="F111" s="53"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
@@ -4306,7 +4523,7 @@
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="8"/>
+      <c r="F112" s="53"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
@@ -4317,7 +4534,7 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="8"/>
+      <c r="F113" s="53"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -4328,7 +4545,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
-      <c r="F114" s="8"/>
+      <c r="F114" s="53"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
@@ -4339,7 +4556,7 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="53"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
@@ -4350,7 +4567,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="8"/>
+      <c r="F116" s="53"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
@@ -4361,7 +4578,7 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="8"/>
+      <c r="F117" s="53"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -4372,7 +4589,7 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="8"/>
+      <c r="F118" s="53"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -4383,7 +4600,7 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="8"/>
+      <c r="F119" s="53"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -4394,7 +4611,7 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="8"/>
+      <c r="F120" s="53"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
@@ -4405,7 +4622,7 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="8"/>
+      <c r="F121" s="53"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -4416,7 +4633,7 @@
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="8"/>
+      <c r="F122" s="53"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
@@ -4427,7 +4644,7 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="8"/>
+      <c r="F123" s="53"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -4438,7 +4655,7 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="8"/>
+      <c r="F124" s="53"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -4449,7 +4666,7 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="8"/>
+      <c r="F125" s="53"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -4460,7 +4677,7 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="8"/>
+      <c r="F126" s="53"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -4471,7 +4688,7 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="8"/>
+      <c r="F127" s="53"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -4482,7 +4699,7 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="8"/>
+      <c r="F128" s="53"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -4493,7 +4710,7 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="8"/>
+      <c r="F129" s="53"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -4504,7 +4721,7 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="8"/>
+      <c r="F130" s="53"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -4515,7 +4732,7 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="8"/>
+      <c r="F131" s="53"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -4526,7 +4743,7 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="8"/>
+      <c r="F132" s="53"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -4537,7 +4754,7 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="8"/>
+      <c r="F133" s="53"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -4548,7 +4765,7 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="8"/>
+      <c r="F134" s="53"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -4559,7 +4776,7 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="8"/>
+      <c r="F135" s="53"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
@@ -4570,7 +4787,7 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="8"/>
+      <c r="F136" s="53"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
@@ -4581,7 +4798,7 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="8"/>
+      <c r="F137" s="53"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
@@ -4592,7 +4809,7 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="8"/>
+      <c r="F138" s="53"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
@@ -4603,7 +4820,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="8"/>
+      <c r="F139" s="53"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
@@ -4614,7 +4831,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="8"/>
+      <c r="F140" s="53"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
@@ -4625,7 +4842,7 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="8"/>
+      <c r="F141" s="53"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -4636,7 +4853,7 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="8"/>
+      <c r="F142" s="53"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
@@ -4647,7 +4864,7 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="8"/>
+      <c r="F143" s="53"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
@@ -4658,7 +4875,7 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="8"/>
+      <c r="F144" s="53"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
@@ -4669,7 +4886,7 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="8"/>
+      <c r="F145" s="53"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
@@ -4680,7 +4897,7 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="8"/>
+      <c r="F146" s="53"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -4691,7 +4908,7 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="8"/>
+      <c r="F147" s="53"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
@@ -4702,7 +4919,7 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="8"/>
+      <c r="F148" s="53"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
@@ -4713,7 +4930,7 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="8"/>
+      <c r="F149" s="53"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
@@ -4724,7 +4941,7 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="8"/>
+      <c r="F150" s="53"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
@@ -4735,7 +4952,7 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="8"/>
+      <c r="F151" s="53"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
@@ -4746,7 +4963,7 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="8"/>
+      <c r="F152" s="53"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
@@ -4757,7 +4974,7 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-      <c r="F153" s="8"/>
+      <c r="F153" s="53"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
@@ -4768,7 +4985,7 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="F154" s="8"/>
+      <c r="F154" s="53"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
@@ -4779,7 +4996,7 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-      <c r="F155" s="8"/>
+      <c r="F155" s="53"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
@@ -4790,7 +5007,7 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
-      <c r="F156" s="8"/>
+      <c r="F156" s="53"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
@@ -4801,7 +5018,7 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
-      <c r="F157" s="8"/>
+      <c r="F157" s="53"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
@@ -4812,7 +5029,7 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="8"/>
+      <c r="F158" s="53"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
@@ -4823,7 +5040,7 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
-      <c r="F159" s="8"/>
+      <c r="F159" s="53"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
@@ -4834,7 +5051,7 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="8"/>
+      <c r="F160" s="53"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
@@ -4845,7 +5062,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="8"/>
+      <c r="F161" s="53"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
@@ -4856,7 +5073,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
-      <c r="F162" s="8"/>
+      <c r="F162" s="53"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
@@ -4867,7 +5084,7 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="8"/>
+      <c r="F163" s="53"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
@@ -4878,7 +5095,7 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
-      <c r="F164" s="8"/>
+      <c r="F164" s="53"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
@@ -4889,7 +5106,7 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
-      <c r="F165" s="8"/>
+      <c r="F165" s="53"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
@@ -4900,7 +5117,7 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
-      <c r="F166" s="8"/>
+      <c r="F166" s="53"/>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
@@ -4911,7 +5128,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
-      <c r="F167" s="8"/>
+      <c r="F167" s="53"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
@@ -4922,7 +5139,7 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-      <c r="F168" s="8"/>
+      <c r="F168" s="53"/>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
@@ -4933,7 +5150,7 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
-      <c r="F169" s="8"/>
+      <c r="F169" s="53"/>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
@@ -4944,7 +5161,7 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
-      <c r="F170" s="8"/>
+      <c r="F170" s="53"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
@@ -4955,7 +5172,7 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
-      <c r="F171" s="8"/>
+      <c r="F171" s="53"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
@@ -4966,7 +5183,7 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="8"/>
+      <c r="F172" s="53"/>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
@@ -4977,7 +5194,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
-      <c r="F173" s="8"/>
+      <c r="F173" s="53"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
@@ -4988,7 +5205,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
-      <c r="F174" s="8"/>
+      <c r="F174" s="53"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
@@ -4999,42 +5216,820 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
-      <c r="F175" s="8"/>
+      <c r="F175" s="53"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
     </row>
-    <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
-      <c r="F176" s="8"/>
+      <c r="F176" s="53"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
     </row>
-    <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="56"/>
-      <c r="B177" s="57"/>
-      <c r="C177" s="57"/>
-      <c r="D177" s="57"/>
-      <c r="E177" s="57"/>
-      <c r="F177" s="58"/>
-      <c r="G177" s="57"/>
-      <c r="H177" s="57"/>
-      <c r="I177" s="57"/>
+    <row r="177" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4"/>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="53"/>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+    </row>
+    <row r="178" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4"/>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="53"/>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="4"/>
+      <c r="B179" s="5"/>
+      <c r="C179" s="5"/>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="53"/>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="53"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+    </row>
+    <row r="181" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4"/>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="53"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+    </row>
+    <row r="182" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4"/>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="53"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+    </row>
+    <row r="183" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4"/>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="53"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+    </row>
+    <row r="184" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="4"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="53"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="4"/>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="53"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+    </row>
+    <row r="186" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="4"/>
+      <c r="B186" s="5"/>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="53"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+    </row>
+    <row r="187" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="4"/>
+      <c r="B187" s="5"/>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5"/>
+      <c r="E187" s="5"/>
+      <c r="F187" s="53"/>
+      <c r="G187" s="5"/>
+      <c r="H187" s="5"/>
+      <c r="I187" s="5"/>
+    </row>
+    <row r="188" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="4"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="53"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="5"/>
+      <c r="I188" s="5"/>
+    </row>
+    <row r="189" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4"/>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="53"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4"/>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="53"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4"/>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="53"/>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+    </row>
+    <row r="192" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4"/>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="5"/>
+      <c r="F192" s="53"/>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+    </row>
+    <row r="193" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="4"/>
+      <c r="B193" s="5"/>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="53"/>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+    </row>
+    <row r="194" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="53"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+    </row>
+    <row r="195" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4"/>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="53"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4"/>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="53"/>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+    </row>
+    <row r="197" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4"/>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="53"/>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+    </row>
+    <row r="198" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="4"/>
+      <c r="B198" s="5"/>
+      <c r="C198" s="5"/>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="53"/>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+    </row>
+    <row r="199" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="4"/>
+      <c r="B199" s="5"/>
+      <c r="C199" s="5"/>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="53"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+    </row>
+    <row r="200" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="4"/>
+      <c r="B200" s="5"/>
+      <c r="C200" s="5"/>
+      <c r="D200" s="5"/>
+      <c r="E200" s="5"/>
+      <c r="F200" s="53"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="4"/>
+      <c r="B201" s="5"/>
+      <c r="C201" s="5"/>
+      <c r="D201" s="5"/>
+      <c r="E201" s="5"/>
+      <c r="F201" s="53"/>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="4"/>
+      <c r="B202" s="5"/>
+      <c r="C202" s="5"/>
+      <c r="D202" s="5"/>
+      <c r="E202" s="5"/>
+      <c r="F202" s="53"/>
+      <c r="G202" s="5"/>
+      <c r="H202" s="5"/>
+      <c r="I202" s="5"/>
+    </row>
+    <row r="203" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="4"/>
+      <c r="B203" s="5"/>
+      <c r="C203" s="5"/>
+      <c r="D203" s="5"/>
+      <c r="E203" s="5"/>
+      <c r="F203" s="53"/>
+      <c r="G203" s="5"/>
+      <c r="H203" s="5"/>
+      <c r="I203" s="5"/>
+    </row>
+    <row r="204" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="4"/>
+      <c r="B204" s="5"/>
+      <c r="C204" s="5"/>
+      <c r="D204" s="5"/>
+      <c r="E204" s="5"/>
+      <c r="F204" s="53"/>
+      <c r="G204" s="5"/>
+      <c r="H204" s="5"/>
+      <c r="I204" s="5"/>
+    </row>
+    <row r="205" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="4"/>
+      <c r="B205" s="5"/>
+      <c r="C205" s="5"/>
+      <c r="D205" s="5"/>
+      <c r="E205" s="5"/>
+      <c r="F205" s="53"/>
+      <c r="G205" s="5"/>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+    </row>
+    <row r="206" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="4"/>
+      <c r="B206" s="5"/>
+      <c r="C206" s="5"/>
+      <c r="D206" s="5"/>
+      <c r="E206" s="5"/>
+      <c r="F206" s="53"/>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="4"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="53"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+    </row>
+    <row r="208" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4"/>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="53"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+    </row>
+    <row r="209" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="4"/>
+      <c r="B209" s="5"/>
+      <c r="C209" s="5"/>
+      <c r="D209" s="5"/>
+      <c r="E209" s="5"/>
+      <c r="F209" s="53"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+    </row>
+    <row r="210" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="4"/>
+      <c r="B210" s="5"/>
+      <c r="C210" s="5"/>
+      <c r="D210" s="5"/>
+      <c r="E210" s="5"/>
+      <c r="F210" s="53"/>
+      <c r="G210" s="5"/>
+      <c r="H210" s="5"/>
+      <c r="I210" s="5"/>
+    </row>
+    <row r="211" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="4"/>
+      <c r="B211" s="5"/>
+      <c r="C211" s="5"/>
+      <c r="D211" s="5"/>
+      <c r="E211" s="5"/>
+      <c r="F211" s="53"/>
+      <c r="G211" s="5"/>
+      <c r="H211" s="5"/>
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="4"/>
+      <c r="B212" s="5"/>
+      <c r="C212" s="5"/>
+      <c r="D212" s="5"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="53"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="5"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="5"/>
+      <c r="F213" s="53"/>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+    </row>
+    <row r="214" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="4"/>
+      <c r="B214" s="5"/>
+      <c r="C214" s="5"/>
+      <c r="D214" s="5"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="53"/>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+    </row>
+    <row r="215" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="5"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="5"/>
+      <c r="F215" s="53"/>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+    </row>
+    <row r="216" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="4"/>
+      <c r="B216" s="5"/>
+      <c r="C216" s="5"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="5"/>
+      <c r="F216" s="53"/>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+    </row>
+    <row r="217" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="53"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="5"/>
+      <c r="D218" s="5"/>
+      <c r="E218" s="5"/>
+      <c r="F218" s="53"/>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+    </row>
+    <row r="219" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="5"/>
+      <c r="F219" s="53"/>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+    </row>
+    <row r="220" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="5"/>
+      <c r="D220" s="5"/>
+      <c r="E220" s="5"/>
+      <c r="F220" s="53"/>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+    </row>
+    <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="5"/>
+      <c r="F221" s="53"/>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+    </row>
+    <row r="222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="4"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="5"/>
+      <c r="D222" s="5"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="53"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+    </row>
+    <row r="223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="5"/>
+      <c r="F223" s="53"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+    </row>
+    <row r="224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="4"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="5"/>
+      <c r="D224" s="5"/>
+      <c r="E224" s="5"/>
+      <c r="F224" s="53"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+    </row>
+    <row r="225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="5"/>
+      <c r="F225" s="53"/>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+    </row>
+    <row r="226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="4"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="5"/>
+      <c r="D226" s="5"/>
+      <c r="E226" s="5"/>
+      <c r="F226" s="53"/>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+    </row>
+    <row r="227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="53"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+    </row>
+    <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="4"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="5"/>
+      <c r="D228" s="5"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="53"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+    </row>
+    <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="53"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+    </row>
+    <row r="230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="4"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="5"/>
+      <c r="D230" s="5"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="53"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+    </row>
+    <row r="231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="4"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="5"/>
+      <c r="D231" s="5"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="53"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+    </row>
+    <row r="232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="4"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="53"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+    </row>
+    <row r="233" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="4"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="5"/>
+      <c r="D233" s="5"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="53"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+    </row>
+    <row r="234" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="4"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="5"/>
+      <c r="D234" s="5"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="53"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+    </row>
+    <row r="235" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="5"/>
+      <c r="D235" s="5"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="53"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+    </row>
+    <row r="236" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="4"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="5"/>
+      <c r="D236" s="5"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="53"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+    </row>
+    <row r="237" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="4"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="5"/>
+      <c r="D237" s="5"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="53"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+    </row>
+    <row r="238" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="4"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="5"/>
+      <c r="D238" s="5"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="53"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+    </row>
+    <row r="239" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="4"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="5"/>
+      <c r="D239" s="5"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="53"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+    </row>
+    <row r="240" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="5"/>
+      <c r="D240" s="5"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="53"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+    </row>
+    <row r="241" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="4"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="5"/>
+      <c r="D241" s="5"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="53"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+    </row>
+    <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="4"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="5"/>
+      <c r="D242" s="5"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="53"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+    </row>
+    <row r="243" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="4"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="5"/>
+      <c r="D243" s="5"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="53"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+    </row>
+    <row r="244" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="4"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="5"/>
+      <c r="D244" s="5"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="53"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+    </row>
+    <row r="245" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="4"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="53"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+    </row>
+    <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="4"/>
+      <c r="B246" s="46"/>
+      <c r="C246" s="46"/>
+      <c r="D246" s="5"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="53"/>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+    </row>
+    <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="45"/>
+      <c r="D247" s="46"/>
+      <c r="E247" s="46"/>
+      <c r="F247" s="62"/>
+      <c r="G247" s="46"/>
+      <c r="H247" s="46"/>
+      <c r="I247" s="46"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A70">
-    <sortCondition ref="A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:I74">
+    <sortCondition ref="D33"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C86:G86"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H66" r:id="rId1" xr:uid="{1B547C14-F585-434A-BCA2-557A07C37870}"/>
+    <hyperlink ref="H57" r:id="rId2" xr:uid="{1C3FAEC1-A38F-40CD-8BD0-DBB7C4DD7FCF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup scale="80" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDD32F1C-1615-224F-BDBA-2AD90DEBF3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A55C4ECD-4C73-D541-A211-150779FEC629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="158">
   <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
-    <t>20 - 26 de Julio del 2020</t>
+    <t>27 De Julio a 02 De Agosto</t>
   </si>
   <si>
     <t>Reporte Ejecutivo</t>
@@ -52,28 +52,28 @@
     <t>Facebook</t>
   </si>
   <si>
-    <t xml:space="preserve">Belora A. </t>
+    <t>Belora Abadi Husny</t>
+  </si>
+  <si>
+    <t>Referido</t>
+  </si>
+  <si>
+    <t>Jose Luis Vaca Ramos</t>
+  </si>
+  <si>
+    <t>Google</t>
   </si>
   <si>
     <t>María Patricia Cotreras Rodríguez</t>
   </si>
   <si>
+    <t>Pagina Web</t>
+  </si>
+  <si>
     <t>Lamudi</t>
   </si>
   <si>
-    <t>Patricia Alvarado Camacho</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>Jose Luis Vaca Ramos</t>
-  </si>
-  <si>
-    <t>Referido</t>
-  </si>
-  <si>
-    <t>Inmuebles24</t>
+    <t>Vallas</t>
   </si>
   <si>
     <t>Detalle</t>
@@ -106,478 +106,365 @@
     <t>Alejandra Campos García</t>
   </si>
   <si>
-    <t>2020-07-26 09:38:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adolfo Hache </t>
-  </si>
-  <si>
-    <t>vijuver@live.com.mx</t>
-  </si>
-  <si>
-    <t>Belora Abadi Husny</t>
-  </si>
-  <si>
-    <t>2020-07-25 22:18:50</t>
+    <t>2020-08-01 22:15:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin nombre </t>
+  </si>
+  <si>
+    <t>+525534777550@phonecall.com</t>
+  </si>
+  <si>
+    <t>2020-08-01 19:27:17</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Rosy nakach Levy </t>
-  </si>
-  <si>
-    <t>rosynakach@hotmail.com</t>
-  </si>
-  <si>
-    <t>Envíe un correo con informacion general</t>
-  </si>
-  <si>
-    <t>2020-07-25 21:00:28</t>
-  </si>
-  <si>
-    <t>Wendy García</t>
-  </si>
-  <si>
-    <t>wenangegar@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-25 15:09:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">German Martínez Adams </t>
-  </si>
-  <si>
-    <t>cukyadams@me.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Se envió correo desde Kiper.</t>
-  </si>
-  <si>
-    <t>2020-07-25 13:50:07</t>
-  </si>
-  <si>
-    <t>Alejandra Castillo</t>
-  </si>
-  <si>
-    <t>5513417834@phonecall.com</t>
-  </si>
-  <si>
-    <t>2020-07-25 05:12:28</t>
+    <t>Jose Mata</t>
+  </si>
+  <si>
+    <t>pepemagar311@gmail.com</t>
+  </si>
+  <si>
+    <t>Correo y WhatsApp de primer contacto enviado</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>2020-08-01 13:49:56</t>
+  </si>
+  <si>
+    <t>Oswaldo Pérez Ríos</t>
+  </si>
+  <si>
+    <t>droswaldoperezrios@outlook.com</t>
+  </si>
+  <si>
+    <t>Llamar hoy después de las 6pm</t>
+  </si>
+  <si>
+    <t>2020-07-31 19:37:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Martinez </t>
+  </si>
+  <si>
+    <t>alexquesnel_66@hotmail.com</t>
+  </si>
+  <si>
+    <t>Se envió correo desde Kiper.</t>
+  </si>
+  <si>
+    <t>2020-07-31 15:40:35</t>
+  </si>
+  <si>
+    <t>Gisell Martinez</t>
+  </si>
+  <si>
+    <t>giss.mr@hotmail.com</t>
+  </si>
+  <si>
+    <t>Correo y WhatsApp de primer contacto, quiere conocer el rango de precio</t>
+  </si>
+  <si>
+    <t>2020-07-31 15:20:48</t>
+  </si>
+  <si>
+    <t>Jorge Laverde</t>
+  </si>
+  <si>
+    <t>jelaverde10@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-31 14:23:11</t>
+  </si>
+  <si>
+    <t>Luis Gonzalez</t>
+  </si>
+  <si>
+    <t>lujo31@hotmail.com</t>
+  </si>
+  <si>
+    <t>Se llevó cotizaciones del 307A, 408A,408C, 502A, presupuesto 7 millones.
+Lo va a platicar con su novia para hacer un recorrido</t>
+  </si>
+  <si>
+    <t>2020-07-31 13:31:35</t>
+  </si>
+  <si>
+    <t>Salomon Kibrit</t>
+  </si>
+  <si>
+    <t>ceo18rs.skb@gmail.com</t>
+  </si>
+  <si>
+    <t>Broker externo, el 25 de jun le envíe info para unos clientes</t>
+  </si>
+  <si>
+    <t>2020-07-31 13:20:04</t>
+  </si>
+  <si>
+    <t>Gerardo Sandoval</t>
+  </si>
+  <si>
+    <t>gsanrib6@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-31 12:32:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gregorio Garcia Dominguez </t>
+  </si>
+  <si>
+    <t>sinemailz@hotmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-31 12:30:17</t>
+  </si>
+  <si>
+    <t>Liliana Zende</t>
+  </si>
+  <si>
+    <t>lilyzende@hotmail.com</t>
+  </si>
+  <si>
+    <t>Llamada quiere algo para invertir porque acaba de vender su casa. Le mande 502E y 404A</t>
+  </si>
+  <si>
+    <t>2020-07-31 12:16:00</t>
+  </si>
+  <si>
+    <t>Noira Speeler</t>
+  </si>
+  <si>
+    <t>speelern@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-31 12:10:50</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t xml:space="preserve">Eduardo Martinez Peres </t>
-  </si>
-  <si>
-    <t>lalopato1980@hotmai.com</t>
-  </si>
-  <si>
-    <t>CORREO y WHAPP de primer contacto enviado, dice que no tiene dinero</t>
-  </si>
-  <si>
-    <t>2020-07-25 04:37:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Alberto Fuentes Marquez </t>
-  </si>
-  <si>
-    <t>luisydanielafuentes@gmail.com</t>
-  </si>
-  <si>
-    <t>Se envió correo desde Kiper.</t>
-  </si>
-  <si>
-    <t>2020-07-24 22:54:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebeca Levi </t>
-  </si>
-  <si>
-    <t>rebecalevi1@gmail.com</t>
-  </si>
-  <si>
-    <t>CORREO de primer contacto enviado. No me sale WHATSAPP</t>
-  </si>
-  <si>
-    <t>2020-07-24 20:48:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nathalie </t>
-  </si>
-  <si>
-    <t>nathalie.teatinwork@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-24 16:40:26</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Israel Roa</t>
-  </si>
-  <si>
-    <t>israelroa@outlook.com</t>
-  </si>
-  <si>
-    <t>Envié correo de nápoles y polanco con información de PH y departamentos para sus clientes</t>
-  </si>
-  <si>
-    <t>2020-07-23 23:32:31</t>
-  </si>
-  <si>
-    <t>Jose Yunez</t>
-  </si>
-  <si>
-    <t>jyunez@me.com</t>
-  </si>
-  <si>
-    <t>CORREO y WHAPP de primer contacto enviado</t>
-  </si>
-  <si>
-    <t>2020-07-23 20:46:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Ronaldo Perez Sánchez </t>
-  </si>
-  <si>
-    <t>juanronaldoperezlopez66@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-23 19:55:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin Nombre </t>
-  </si>
-  <si>
-    <t>WHAPP con mensaje de primer contacto, no contesta la llamada</t>
-  </si>
-  <si>
-    <t>2020-07-23 16:17:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leslie Paola Gomez Alvarez </t>
-  </si>
-  <si>
-    <t>onedirection23701@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-23 15:00:04</t>
-  </si>
-  <si>
-    <t>Fernanda Galindo Ramírez</t>
-  </si>
-  <si>
-    <t>fernandagalindoramirez2@gmail.com</t>
-  </si>
-  <si>
-    <t>Está empezando a ver opciones envié fotografías y cotización 404-A</t>
-  </si>
-  <si>
-    <t>2020-07-23 11:42:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sandra Araniva </t>
-  </si>
-  <si>
-    <t>sandra.araniva@gmail.com</t>
-  </si>
-  <si>
-    <t>RENTA y presupuesto de $15,000</t>
-  </si>
-  <si>
-    <t>2020-07-23 09:02:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paula Johana Pérez Hernández </t>
-  </si>
-  <si>
-    <t>paulajohanaperez@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-23 00:14:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniela </t>
-  </si>
-  <si>
-    <t>danislonimsky@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-23 00:04:30</t>
-  </si>
-  <si>
-    <t>Jahaziel Rodriguez</t>
-  </si>
-  <si>
-    <t>jhazer83mx@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-22 21:51:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karla Morales </t>
-  </si>
-  <si>
-    <t>kmoralesc@yahoo.com</t>
-  </si>
-  <si>
-    <t>2020-07-22 20:54:53</t>
-  </si>
-  <si>
-    <t>Monica Lechuga</t>
-  </si>
-  <si>
-    <t>mtosqui130286@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-22 18:26:04</t>
-  </si>
-  <si>
-    <t>Olga Santibañes</t>
-  </si>
-  <si>
-    <t>olgasantibanes29@hotmail.com</t>
-  </si>
-  <si>
-    <t>CORREO enviado con la liga de la pagina y videos para que pueda ofrecer a sus clientes</t>
-  </si>
-  <si>
-    <t>2020-07-22 18:06:08</t>
-  </si>
-  <si>
-    <t>Patricia Olvera García</t>
-  </si>
-  <si>
-    <t>2020-07-22 17:12:53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leopoldo </t>
-  </si>
-  <si>
-    <t>leopoldomex@yahoo.com</t>
-  </si>
-  <si>
-    <t>COTIZACION 259 m enviada por WHAPP</t>
-  </si>
-  <si>
-    <t>2020-07-22 14:58:43</t>
-  </si>
-  <si>
-    <t>Daniela Slonimsky</t>
-  </si>
-  <si>
-    <t>daniela.slonimsky@hotmail.com</t>
-  </si>
-  <si>
-    <t>Le envío presentación y cotizaciones por mail  y whats</t>
-  </si>
-  <si>
-    <t>2020-07-22 00:36:45</t>
-  </si>
-  <si>
-    <t>Luis Antonio Martínez</t>
-  </si>
-  <si>
-    <t>amartinezmeister@gmail.com</t>
-  </si>
-  <si>
-    <t>Vio el anuncio en dolares y pensó que eran pesos tiene un credito fovisste de 1millon y medio</t>
-  </si>
-  <si>
-    <t>2020-07-21 19:23:12</t>
-  </si>
-  <si>
-    <t>David Alcantara</t>
-  </si>
-  <si>
-    <t>5538884081@phonecall.com</t>
-  </si>
-  <si>
-    <t>Envié brochure de los desarrollos</t>
-  </si>
-  <si>
-    <t>2020-07-21 17:42:42</t>
-  </si>
-  <si>
-    <t>Barbara Valencia</t>
-  </si>
-  <si>
-    <t>barbara@hihab.com</t>
-  </si>
-  <si>
-    <t>La información es para su Jefe Hugo Medina, se le envían Cotizaciones de Av. Polanco</t>
-  </si>
-  <si>
-    <t>2020-07-21 14:28:17</t>
-  </si>
-  <si>
-    <t>Fernando Arancibia Foianini</t>
-  </si>
-  <si>
-    <t>(59) 1773-3028</t>
-  </si>
-  <si>
-    <t>arancibiaguillermo@hotmail.com</t>
-  </si>
-  <si>
-    <t>Vive en Bolivia donde hay un barrio muy lindo llamado Polanco, pensó que este desarrollo estaba en Bolivia.</t>
-  </si>
-  <si>
-    <t>2020-07-21 12:38:41</t>
-  </si>
-  <si>
-    <t>Julian Vasquez Toledo</t>
-  </si>
-  <si>
-    <t>esm_55@hotmail.com</t>
-  </si>
-  <si>
-    <t>Busca un desarrollo para pagar el enganche a largo plazo. Le interesan zonas como Reforma Centro o prolongación Reforma hasta Santa fe. Le enviaré info cuando tengamos abierto Roma</t>
-  </si>
-  <si>
-    <t>2020-07-21 11:27:23</t>
-  </si>
-  <si>
-    <t>Miguel Baez</t>
-  </si>
-  <si>
-    <t>mbaezf18@gmail.com</t>
-  </si>
-  <si>
-    <t>Le envío cotizaciones de Napoles de 2 recamaras y Cotizaciones de Polanco de 3 recámaras.</t>
-  </si>
-  <si>
-    <t>2020-07-21 11:24:34</t>
-  </si>
-  <si>
-    <t>Maximiliano Ecart</t>
-  </si>
-  <si>
-    <t>kstaufferdan@gmail.com</t>
-  </si>
-  <si>
-    <t>Se llevó cotizaciones del PH2B, 402B, 301F y PH1F llamarle la próxima semana</t>
-  </si>
-  <si>
-    <t>2020-07-20 20:33:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Omar Vallecillo </t>
-  </si>
-  <si>
-    <t>omar.vallecillo@vissatowers.com</t>
-  </si>
-  <si>
-    <t>2020-07-20 15:41:03</t>
-  </si>
-  <si>
-    <t>Anton Ismael López</t>
-  </si>
-  <si>
-    <t>ismaelydania571@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le envían cotizaciones del 307A y 405B</t>
-  </si>
-  <si>
-    <t>2020-07-20 15:33:02</t>
-  </si>
-  <si>
-    <t>Ignacio Torres Perez</t>
-  </si>
-  <si>
-    <t>ignaciotoper@gmail.com</t>
-  </si>
-  <si>
-    <t>Es corredor traerá Clientes para Av Nápols y para Av. Polanco, le envío presentación de los proyectos</t>
-  </si>
-  <si>
-    <t>2020-07-20 14:45:58</t>
-  </si>
-  <si>
-    <t>Diego Razo</t>
-  </si>
-  <si>
-    <t>(55) 5102-2351</t>
-  </si>
-  <si>
-    <t>diego.razo.t@gmail.com</t>
-  </si>
-  <si>
-    <t>Coticé 404-A</t>
-  </si>
-  <si>
-    <t>2020-07-20 13:52:44</t>
-  </si>
-  <si>
-    <t>Cesar Castellanos</t>
-  </si>
-  <si>
-    <t>cesarc@correlliglass.com.mx</t>
-  </si>
-  <si>
-    <t>Se llevo cotizaciones del PH06A 306A y PH07A, le di también información de Av. Polanco</t>
-  </si>
-  <si>
-    <t>2020-07-20 13:34:07</t>
-  </si>
-  <si>
-    <t>Ariana Lara</t>
-  </si>
-  <si>
-    <t>ariana751lara@gmail.com</t>
-  </si>
-  <si>
-    <t>Es de guatemala y su esposo es polaco busca algo en polanco para venir aqui a vivir, le envie info del 404A, 301B, 502F</t>
-  </si>
-  <si>
-    <t>2020-07-20 13:24:37</t>
-  </si>
-  <si>
-    <t>David Arturo Molina</t>
-  </si>
-  <si>
-    <t>contacto@bufetemolna.com.mx</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por whats con informacion de Av Polanco y Av Nápoles</t>
-  </si>
-  <si>
-    <t>2020-07-20 12:51:01</t>
-  </si>
-  <si>
-    <t>Alicia Berber</t>
-  </si>
-  <si>
-    <t>alibeberj@gmail.com</t>
-  </si>
-  <si>
-    <t>WHAPP seguimiento. Polanco sale de su presupuesto pero tomará en cuenta Nápoles. Lo va a revisar y estaré en contacto</t>
-  </si>
-  <si>
-    <t>2020-07-20 10:38:27</t>
-  </si>
-  <si>
-    <t>Jessica Salgado</t>
-  </si>
-  <si>
-    <t>jessicasalgado2001@hotmail.com</t>
-  </si>
-  <si>
-    <t>Está buscando RENTA</t>
-  </si>
-  <si>
-    <t>2020-07-20 10:27:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Katerina </t>
-  </si>
-  <si>
-    <t>alfaomegan3@gmail.com</t>
+    <t>Sara Ruíz</t>
+  </si>
+  <si>
+    <t>unawera@gmail.com</t>
+  </si>
+  <si>
+    <t>Que no quiere información de todos modos le envia información por mail</t>
+  </si>
+  <si>
+    <t>2020-07-31 01:57:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ishaan Khurana </t>
+  </si>
+  <si>
+    <t>Proishaanikk@gmail.com</t>
+  </si>
+  <si>
+    <t>Correo y WhatsApp  de primer contacto enviado</t>
+  </si>
+  <si>
+    <t>2020-07-30 22:16:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carlos Torres </t>
+  </si>
+  <si>
+    <t>cahtorres09@hotmail.com</t>
+  </si>
+  <si>
+    <t>Quiere algo por tecamachalco pero me pidió opciones de cotizaciones</t>
+  </si>
+  <si>
+    <t>2020-07-30 18:28:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nallely Huerta Juárez </t>
+  </si>
+  <si>
+    <t>nalle_260893@hotmail.com</t>
+  </si>
+  <si>
+    <t>Por la pandemia se encuentra fuera de la ciudad, pero mandé el recorrido virtual y COTIZACIONES de 201D GHC y 201F, en espera de su revision</t>
+  </si>
+  <si>
+    <t>2020-07-29 23:23:01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabel baizabal </t>
+  </si>
+  <si>
+    <t>isabel.baizabal@cetys.mx</t>
+  </si>
+  <si>
+    <t>El telefono es incorrecto no es de Isabel</t>
+  </si>
+  <si>
+    <t>2020-07-29 21:15:12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenny </t>
+  </si>
+  <si>
+    <t>mucinojenny5@gmail.com</t>
+  </si>
+  <si>
+    <t>Correo primer contacto enviado</t>
+  </si>
+  <si>
+    <t>2020-07-29 19:01:32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ricardo Méndez Ramírez </t>
+  </si>
+  <si>
+    <t>rich.mndz2213@gmail.com</t>
+  </si>
+  <si>
+    <t>Envie correo de Polanco y Napoles</t>
+  </si>
+  <si>
+    <t>2020-07-29 17:38:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illian Marisol Morales Araiza </t>
+  </si>
+  <si>
+    <t>illian.araiza@outlook.com</t>
+  </si>
+  <si>
+    <t>Enviar rango de precio de Napoles porque su presup es mas bajo</t>
+  </si>
+  <si>
+    <t>2020-07-29 16:06:13</t>
+  </si>
+  <si>
+    <t>Gerardo De Valle González</t>
+  </si>
+  <si>
+    <t>gerardo.devalle@udem.edu</t>
+  </si>
+  <si>
+    <t>Busca en renta amueblado $15,000  pesos</t>
+  </si>
+  <si>
+    <t>2020-07-29 01:06:13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edson Haaz </t>
+  </si>
+  <si>
+    <t>ehaaz.94@hotmail.com</t>
+  </si>
+  <si>
+    <t>Busca un departamento de 20mil pesos en renta de 2 recamaras</t>
+  </si>
+  <si>
+    <t>2020-07-28 16:35:32</t>
+  </si>
+  <si>
+    <t>Uriel Gonzalez</t>
+  </si>
+  <si>
+    <t>gonzalezgarcesdante@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-28 16:32:33</t>
+  </si>
+  <si>
+    <t>Lara Patricia Armería Hernández</t>
+  </si>
+  <si>
+    <t>laraarmeria@hotmail.com</t>
+  </si>
+  <si>
+    <t>Correo y WhatsApp de primer contacto</t>
+  </si>
+  <si>
+    <t>2020-07-28 16:26:07</t>
+  </si>
+  <si>
+    <t>Paulina Grande</t>
+  </si>
+  <si>
+    <t>paug8@hotmail.com</t>
+  </si>
+  <si>
+    <t>Se cuelga la llamada envie correo con info general</t>
+  </si>
+  <si>
+    <t>2020-07-28 14:47:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">samantha torres </t>
+  </si>
+  <si>
+    <t>sftr18.4@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-07-28 00:12:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orion Nevarez </t>
+  </si>
+  <si>
+    <t>nevarezorion@gmail.com</t>
+  </si>
+  <si>
+    <t>Cita proxima domingo 2 agosto</t>
+  </si>
+  <si>
+    <t>2020-07-27 22:14:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pepe Pecas </t>
+  </si>
+  <si>
+    <t>pepe@gmail.com</t>
+  </si>
+  <si>
+    <t>No contesta, envie un whats app, el telefono esta equivocado y me pide el sr. que no lo molestemos</t>
+  </si>
+  <si>
+    <t>2020-07-27 17:35:19</t>
+  </si>
+  <si>
+    <t>Blanca Galvan</t>
+  </si>
+  <si>
+    <t>blancagalvangarza@hotmail.com</t>
+  </si>
+  <si>
+    <t>Visita el desarrollo se lleva cotización del depto muestra en diferentes niveles, necesita crédito</t>
+  </si>
+  <si>
+    <t>2020-07-27 16:58:49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jenniffer Villagran </t>
+  </si>
+  <si>
+    <t>jenniffer755@hotmail.com</t>
+  </si>
+  <si>
+    <t>Correo primer contacto enviado, su cel no esta disponible</t>
+  </si>
+  <si>
+    <t>2020-07-27 16:58:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose Alfredo </t>
+  </si>
+  <si>
+    <t>abarcaalfredo2019@gmail.com</t>
+  </si>
+  <si>
+    <t>Le envíe un correo con información general, le marque entra directo al buzón</t>
   </si>
   <si>
     <t>Código de clasificación</t>
@@ -601,32 +488,21 @@
     <t xml:space="preserve">Report Powered by KIPER </t>
   </si>
   <si>
-    <t>Página web</t>
-  </si>
-  <si>
-    <t>Broker</t>
-  </si>
-  <si>
-    <t>patriciaolveragarcia71@gmail.com</t>
-  </si>
-  <si>
-    <t>Vallas</t>
-  </si>
-  <si>
-    <t>Se envió correo desde Kiper. No proporciona teléfono</t>
-  </si>
-  <si>
-    <t>5536565823@phonecall.com</t>
-  </si>
-  <si>
-    <t>Se le envía información general por whats ya que así lo solocita</t>
+    <t>Corredora Dr. Luis Suárez Pérez enviaré las cotizaciones para que ella pueda dárselas a su clietne. Vive en Miami y estara en CDMX en dos semanas</t>
+  </si>
+  <si>
+    <t>Interesado, busca invertir en polanco, santa fe
+Envie cotizaciones por whats app</t>
+  </si>
+  <si>
+    <t>No viable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -663,53 +539,24 @@
       <name val="Avenir Heavy"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Avenir Book"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Avenir Book"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Avenir Book"/>
+      <name val="Avenir Heavy"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Avenir Heavy"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Avenir Heavy"/>
+      <name val="Avenir Book"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Avenir Book"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -732,7 +579,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -868,10 +715,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="8"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -884,10 +731,93 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -916,55 +846,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -973,10 +859,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -989,74 +881,114 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,101 +997,63 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1254,7 +1148,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1297,15 +1191,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>642620</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>199967</xdr:rowOff>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1125220</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>12757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1328,8 +1222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="922019" y="18113317"/>
-          <a:ext cx="482601" cy="800158"/>
+          <a:off x="1054100" y="15998825"/>
+          <a:ext cx="482600" cy="800158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1539,17 +1433,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1577,10 +1471,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1834,12 +1728,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="25400" cap="flat">
+        <a:ln w="12700" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:round/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2132,7 +2026,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2160,10 +2054,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:latin typeface="Calibri"/>
+            <a:ea typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+            <a:sym typeface="Calibri"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2424,23 +2318,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I237"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="41.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="176.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="27" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="152.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
@@ -2572,7 +2465,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="53"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -2583,7 +2476,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="53"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -2594,1674 +2487,1483 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="53"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="10"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="10"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="11"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="10"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="10"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="18">
-        <v>42</v>
-      </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="17" t="s">
+      <c r="C20" s="21">
+        <v>31</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="72"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="84"/>
     </row>
     <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="17" t="s">
+      <c r="B21" s="27"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="56">
-        <v>11</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="72"/>
+      <c r="F21" s="21">
+        <v>8</v>
+      </c>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="84"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="17" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="56">
-        <v>25</v>
-      </c>
-      <c r="G22" s="20"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="72"/>
+      <c r="F22" s="21">
+        <v>18</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="84"/>
     </row>
     <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="17" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="56">
-        <v>6</v>
-      </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="73"/>
+      <c r="F23" s="21">
+        <v>5</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="85"/>
     </row>
     <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="73"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="85"/>
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="17" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="18">
-        <v>17</v>
-      </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17" t="s">
+      <c r="C25" s="21">
+        <v>14</v>
+      </c>
+      <c r="D25" s="22"/>
+      <c r="E25" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="58">
-        <v>6</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>194</v>
-      </c>
-      <c r="H25" s="67">
-        <v>3</v>
-      </c>
-      <c r="I25" s="74"/>
+      <c r="F25" s="21">
+        <v>7</v>
+      </c>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="86"/>
     </row>
     <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="17" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="21">
         <v>14</v>
       </c>
-      <c r="D26" s="19"/>
-      <c r="E26" s="48" t="s">
-        <v>193</v>
-      </c>
-      <c r="F26" s="59">
-        <v>7</v>
-      </c>
-      <c r="G26" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="H26" s="68">
+      <c r="D26" s="22"/>
+      <c r="E26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="21">
+        <v>5</v>
+      </c>
+      <c r="G26" s="39"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="85"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19"/>
+      <c r="B27" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="21">
         <v>2</v>
       </c>
-      <c r="I26" s="73"/>
-    </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="18">
-        <v>3</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="56">
-        <v>7</v>
-      </c>
-      <c r="G27" s="49"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="73"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="21">
+        <v>8</v>
+      </c>
+      <c r="G27" s="24"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="85"/>
     </row>
     <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="78" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="21">
+        <v>1</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="79">
-        <v>8</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="56">
-        <v>11</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="73"/>
+      <c r="F28" s="21">
+        <v>5</v>
+      </c>
+      <c r="G28" s="24"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="85"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="17" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="56">
-        <v>2</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="73"/>
+      <c r="F29" s="21">
+        <v>4</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="85"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="17" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="56">
-        <v>4</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="65"/>
-      <c r="I30" s="73"/>
+      <c r="F30" s="21">
+        <v>2</v>
+      </c>
+      <c r="G30" s="24"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="85"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="22"/>
-      <c r="I31" s="73"/>
+      <c r="B31" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="85"/>
     </row>
     <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="25"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="85"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="33" t="s">
+      <c r="C33" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D33" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="33" t="s">
+      <c r="E33" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F32" s="60" t="s">
+      <c r="F33" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G33" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="H32" s="60" t="s">
+      <c r="H33" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="I32" s="60" t="s">
+      <c r="I33" s="87" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="49">
         <v>1</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B34" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="30" t="s">
+      <c r="C34" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="21">
+        <v>2721304688</v>
+      </c>
+      <c r="H34" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" s="88" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="49">
+        <v>2</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="G35" s="21">
+        <v>5566918544</v>
+      </c>
+      <c r="H35" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" s="88" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="49">
+        <v>4</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="21">
+        <v>5513332038</v>
+      </c>
+      <c r="H36" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I36" s="88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="49">
+        <v>6</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="21">
+        <v>5537335686</v>
+      </c>
+      <c r="H37" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="88" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="49">
+        <v>7</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G38" s="21">
+        <v>13053002449</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="I38" s="88" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="49">
+        <v>8</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="21">
+        <v>5554362266</v>
+      </c>
+      <c r="H39" s="41" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="88" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="49">
+        <v>9</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E40" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="21">
+        <v>5512959671</v>
+      </c>
+      <c r="H40" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="I40" s="89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="49">
+        <v>10</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="E41" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="G41" s="21">
+        <v>5616517860</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="I41" s="89" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="49">
+        <v>11</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="21">
+        <v>5525664279</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="I42" s="88" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="49">
+        <v>12</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="D43" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43" s="21">
+        <v>6278895497</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="88" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="49">
+        <v>13</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="G44" s="21">
+        <v>5554510750</v>
+      </c>
+      <c r="H44" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="88" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="49">
+        <v>14</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="21">
+        <v>5538882161</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="I45" s="88" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="49">
+        <v>15</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="21">
+        <v>5519181664</v>
+      </c>
+      <c r="H46" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="49">
+        <v>16</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="D47" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" s="21">
+        <v>5532371509</v>
+      </c>
+      <c r="H47" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" s="88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="49">
+        <v>17</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="21">
+        <v>4428679984</v>
+      </c>
+      <c r="H48" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="I48" s="88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="49">
+        <v>18</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="G49" s="21">
+        <v>5428800960</v>
+      </c>
+      <c r="H49" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="I49" s="88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="49">
+        <v>19</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="41" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="21">
+        <v>3204565208</v>
+      </c>
+      <c r="H50" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="I50" s="88" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="49">
+        <v>20</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="21">
+        <v>5535900560</v>
+      </c>
+      <c r="H51" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" s="88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="49">
+        <v>21</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D52" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" s="21">
+        <v>5534777550</v>
+      </c>
+      <c r="H52" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="90" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="49">
+        <v>22</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="21">
+        <v>7351794006</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" s="88" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="49">
+        <v>23</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="21">
+        <v>7227452827</v>
+      </c>
+      <c r="H54" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="I54" s="88" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="49">
+        <v>24</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="21">
+        <v>5573294571</v>
+      </c>
+      <c r="H55" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="I55" s="88" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="49">
+        <v>25</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="G56" s="21">
+        <v>5537704708</v>
+      </c>
+      <c r="H56" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I56" s="88" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="49">
+        <v>26</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="G57" s="21">
+        <v>2294759348</v>
+      </c>
+      <c r="H57" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="88" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="49">
+        <v>27</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="G58" s="21">
+        <v>5554000415</v>
+      </c>
+      <c r="H58" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="I58" s="88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="49">
+        <v>28</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="41" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="21">
+        <v>5540758182</v>
+      </c>
+      <c r="H59" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="I59" s="88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="49">
+        <v>29</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F60" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="G60" s="21">
+        <v>6643031544</v>
+      </c>
+      <c r="H60" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60" s="88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="49">
+        <v>30</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="21">
+        <v>5567894322</v>
+      </c>
+      <c r="H61" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" s="88" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="49">
+        <v>31</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="D33" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="61" t="s">
+      <c r="D62" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="G33" s="18">
-        <v>5550683430</v>
-      </c>
-      <c r="H33" s="61" t="s">
+      <c r="G62" s="21">
+        <v>2222129608</v>
+      </c>
+      <c r="H62" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="I33" s="61" t="s">
+      <c r="I62" s="88" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34">
-        <v>2</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="G34" s="18">
-        <v>5527024785</v>
-      </c>
-      <c r="H34" s="61" t="s">
-        <v>177</v>
-      </c>
-      <c r="I34" s="61" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="34">
-        <v>3</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="F35" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="G35" s="18">
-        <v>50242801579</v>
-      </c>
-      <c r="H35" s="61" t="s">
-        <v>169</v>
-      </c>
-      <c r="I35" s="61" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34">
-        <v>4</v>
-      </c>
-      <c r="B36" s="30" t="s">
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="49">
+        <v>32</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" s="61" t="s">
-        <v>172</v>
-      </c>
-      <c r="G36" s="18">
-        <v>2711062555</v>
-      </c>
-      <c r="H36" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="I36" s="61" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>5</v>
-      </c>
-      <c r="B37" s="30" t="s">
+      <c r="F63" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G63" s="21">
+        <v>5587953360</v>
+      </c>
+      <c r="H63" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63" s="88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="50">
+        <v>33</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="D64" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E64" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="G37" s="18">
-        <v>5526858575</v>
-      </c>
-      <c r="H37" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="I37" s="61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="34">
-        <v>6</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="30" t="s">
+      <c r="F64" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" s="21">
+        <v>8446098519</v>
+      </c>
+      <c r="H64" s="41" t="s">
+        <v>108</v>
+      </c>
+      <c r="I64" s="88" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="51"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="52"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="54"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="56"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="4"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+    </row>
+    <row r="69" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="4"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="58"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="58"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4"/>
+      <c r="B71" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="60"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="14"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="14"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="63"/>
+      <c r="E73" s="63"/>
+      <c r="F73" s="63"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="14"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="D38" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="61" t="s">
+      <c r="D74" s="69"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="72"/>
+      <c r="H74" s="73"/>
+      <c r="I74" s="74"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="68" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="18">
-        <v>5536645516</v>
-      </c>
-      <c r="H38" s="61" t="s">
+      <c r="D75" s="69"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="72"/>
+      <c r="H75" s="73"/>
+      <c r="I75" s="74"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="C76" s="68" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="61" t="s">
+      <c r="D76" s="69"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="72"/>
+      <c r="H76" s="73"/>
+      <c r="I76" s="74"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C77" s="68" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="34">
-        <v>7</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="30" t="s">
-        <v>139</v>
-      </c>
-      <c r="D39" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="F39" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="G39" s="18">
-        <v>5527076871</v>
-      </c>
-      <c r="H39" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="I39" s="61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
-        <v>8</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="D40" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E40" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="F40" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="G40" s="18">
-        <v>5567637388</v>
-      </c>
-      <c r="H40" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="I40" s="61" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>9</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="F41" s="61" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" s="18">
-        <v>5555072531</v>
-      </c>
-      <c r="H41" s="61" t="s">
-        <v>165</v>
-      </c>
-      <c r="I41" s="61" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34">
-        <v>10</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="F42" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G42" s="18">
-        <v>5560034888</v>
-      </c>
-      <c r="H42" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="I42" s="61" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="34">
-        <v>11</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C43" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="E43" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="F43" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="H43" s="61" t="s">
-        <v>161</v>
-      </c>
-      <c r="I43" s="61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="34">
-        <v>12</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F44" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" s="18">
-        <v>9511621889</v>
-      </c>
-      <c r="H44" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44" s="61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>13</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="F45" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="G45" s="18">
-        <v>5538884081</v>
-      </c>
-      <c r="H45" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="I45" s="61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34">
-        <v>14</v>
-      </c>
-      <c r="B46" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="F46" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="G46" s="18">
-        <v>5539625891</v>
-      </c>
-      <c r="H46" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="I46" s="61" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34">
-        <v>15</v>
-      </c>
-      <c r="B47" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="30" t="s">
-        <v>194</v>
-      </c>
-      <c r="F47" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="G47" s="18">
-        <v>5570740324</v>
-      </c>
-      <c r="H47" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="I47" s="61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34">
-        <v>16</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="G48" s="18">
-        <v>5511558234</v>
-      </c>
-      <c r="H48" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="I48" s="61" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>17</v>
-      </c>
-      <c r="B49" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="G49" s="18">
-        <v>2281794626</v>
-      </c>
-      <c r="H49" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I49" s="61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34">
-        <v>18</v>
-      </c>
-      <c r="B50" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D50" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="61" t="s">
-        <v>184</v>
-      </c>
-      <c r="G50" s="18">
-        <v>5563192535</v>
-      </c>
-      <c r="H50" s="61" t="s">
-        <v>185</v>
-      </c>
-      <c r="I50" s="61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34">
-        <v>19</v>
-      </c>
-      <c r="B51" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D51" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G51" s="18">
-        <v>5554241801</v>
-      </c>
-      <c r="H51" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="I51" s="61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34">
-        <v>20</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="D52" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="G52" s="18">
-        <v>5540903021</v>
-      </c>
-      <c r="H52" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="I52" s="61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
-        <v>21</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>147</v>
-      </c>
-      <c r="D53" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" s="18">
-        <v>5566070429</v>
-      </c>
-      <c r="H53" s="61" t="s">
-        <v>149</v>
-      </c>
-      <c r="I53" s="61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34">
-        <v>22</v>
-      </c>
-      <c r="B54" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="G54" s="18">
-        <v>5517848887</v>
-      </c>
-      <c r="H54" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="I54" s="61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="34">
-        <v>23</v>
-      </c>
-      <c r="B55" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D55" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F55" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="G55" s="18">
-        <v>5573897691</v>
-      </c>
-      <c r="H55" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="I55" s="61" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="34">
-        <v>24</v>
-      </c>
-      <c r="B56" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="G56" s="18">
-        <v>9361042975</v>
-      </c>
-      <c r="H56" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="I56" s="55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>25</v>
-      </c>
-      <c r="B57" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="18">
-        <v>5536565823</v>
-      </c>
-      <c r="H57" s="70" t="s">
-        <v>198</v>
-      </c>
-      <c r="I57" s="61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="34">
-        <v>26</v>
-      </c>
-      <c r="B58" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D58" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F58" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" s="18">
-        <v>7445353795</v>
-      </c>
-      <c r="H58" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="34">
-        <v>27</v>
-      </c>
-      <c r="B59" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C59" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="D59" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="G59" s="18">
-        <v>5621171087</v>
-      </c>
-      <c r="H59" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="I59" s="61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="34">
-        <v>28</v>
-      </c>
-      <c r="B60" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C60" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="61" t="s">
-        <v>41</v>
-      </c>
-      <c r="G60" s="18">
-        <v>16022069312</v>
-      </c>
-      <c r="H60" s="61" t="s">
-        <v>42</v>
-      </c>
-      <c r="I60" s="61" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>29</v>
-      </c>
-      <c r="B61" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C61" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="G61" s="18">
-        <v>5539396359</v>
-      </c>
-      <c r="H61" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="I61" s="61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="34">
-        <v>30</v>
-      </c>
-      <c r="B62" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="D62" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="18">
-        <v>5621128594</v>
-      </c>
-      <c r="H62" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="I62" s="61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34">
-        <v>31</v>
-      </c>
-      <c r="B63" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D63" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="G63" s="18">
-        <v>5529596700</v>
-      </c>
-      <c r="H63" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="I63" s="61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="34">
-        <v>32</v>
-      </c>
-      <c r="B64" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C64" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="G64" s="18">
-        <v>5519824854</v>
-      </c>
-      <c r="H64" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="I64" s="61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
-        <v>33</v>
-      </c>
-      <c r="B65" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="G65" s="18">
-        <v>5567911199</v>
-      </c>
-      <c r="H65" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="I65" s="61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="34">
-        <v>34</v>
-      </c>
-      <c r="B66" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="47" t="s">
-        <v>196</v>
-      </c>
-      <c r="F66" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="G66" s="18">
-        <v>5571446600</v>
-      </c>
-      <c r="H66" s="70" t="s">
-        <v>195</v>
-      </c>
-      <c r="I66" s="61" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="34">
-        <v>35</v>
-      </c>
-      <c r="B67" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="G67" s="18">
-        <v>5573897691</v>
-      </c>
-      <c r="H67" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" s="61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="34">
-        <v>36</v>
-      </c>
-      <c r="B68" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="D68" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="30" t="s">
-        <v>193</v>
-      </c>
-      <c r="F68" s="61" t="s">
-        <v>45</v>
-      </c>
-      <c r="G68" s="18">
-        <v>5513417836</v>
-      </c>
-      <c r="H68" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="I68" s="55" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
-        <v>37</v>
-      </c>
-      <c r="B69" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D69" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G69" s="18"/>
-      <c r="H69" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="I69" s="61" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="34">
-        <v>38</v>
-      </c>
-      <c r="B70" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="D70" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="F70" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G70" s="18">
-        <v>7151021651</v>
-      </c>
-      <c r="H70" s="61" t="s">
-        <v>50</v>
-      </c>
-      <c r="I70" s="61" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="34">
-        <v>39</v>
-      </c>
-      <c r="B71" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="D71" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E71" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F71" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="G71" s="18">
-        <v>71188939</v>
-      </c>
-      <c r="H71" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="I71" s="61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="34">
-        <v>40</v>
-      </c>
-      <c r="B72" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E72" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="G72" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="H72" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="I72" s="61" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
-        <v>41</v>
-      </c>
-      <c r="B73" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="F73" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="G73" s="18">
-        <v>5576369431</v>
-      </c>
-      <c r="H73" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="I73" s="61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="34">
-        <v>42</v>
-      </c>
-      <c r="B74" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>179</v>
-      </c>
-      <c r="D74" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="E74" s="47" t="s">
-        <v>193</v>
-      </c>
-      <c r="F74" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="G74" s="18">
-        <v>3322540915</v>
-      </c>
-      <c r="H74" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="I74" s="61" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-    </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="4"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-    </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="4"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-    </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="69"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="76"/>
+      <c r="I77" s="77"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
+      <c r="B78" s="78"/>
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="78"/>
+      <c r="H78" s="78"/>
       <c r="I78" s="5"/>
     </row>
-    <row r="79" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="40"/>
-      <c r="D79" s="39"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
+      <c r="F79" s="8"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="40"/>
-      <c r="F80" s="40"/>
-      <c r="G80" s="40"/>
-      <c r="H80" s="40"/>
-      <c r="I80" s="40"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="43"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="43"/>
-      <c r="E81" s="43"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="71"/>
-      <c r="I81" s="12"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="83"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="80"/>
-      <c r="G82" s="80"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="12"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="91" t="s">
-        <v>187</v>
-      </c>
-      <c r="C83" s="92" t="s">
-        <v>188</v>
-      </c>
-      <c r="D83" s="92"/>
-      <c r="E83" s="92"/>
-      <c r="F83" s="92"/>
-      <c r="G83" s="92"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="80"/>
+      <c r="B83" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="91" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="92" t="s">
-        <v>189</v>
-      </c>
-      <c r="D84" s="92"/>
-      <c r="E84" s="92"/>
-      <c r="F84" s="92"/>
-      <c r="G84" s="92"/>
-      <c r="H84" s="85"/>
-      <c r="I84" s="81"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4"/>
-      <c r="B85" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="D85" s="92"/>
-      <c r="E85" s="92"/>
-      <c r="F85" s="92"/>
-      <c r="G85" s="92"/>
-      <c r="H85" s="85"/>
-      <c r="I85" s="81"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="91" t="s">
-        <v>48</v>
-      </c>
-      <c r="C86" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="D86" s="93"/>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
-      <c r="G86" s="93"/>
-      <c r="H86" s="85"/>
-      <c r="I86" s="81"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="86"/>
-      <c r="C87" s="86"/>
-      <c r="D87" s="88"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="87"/>
-      <c r="G87" s="86"/>
-      <c r="H87" s="90"/>
-      <c r="I87" s="82"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
     </row>
     <row r="88" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="86"/>
-      <c r="C88" s="86"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="87"/>
-      <c r="G88" s="86"/>
-      <c r="H88" s="86"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
       <c r="I88" s="5"/>
     </row>
     <row r="89" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4270,7 +3972,7 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="53"/>
+      <c r="F89" s="8"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
@@ -4281,7 +3983,7 @@
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="53"/>
+      <c r="F90" s="8"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -4292,20 +3994,18 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="53"/>
+      <c r="F91" s="8"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
     <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="44" t="s">
-        <v>192</v>
-      </c>
+      <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
-      <c r="F92" s="53"/>
+      <c r="F92" s="8"/>
       <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
@@ -4316,30 +4016,32 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="53"/>
+      <c r="F93" s="8"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="53"/>
+      <c r="F94" s="8"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="6"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
@@ -4347,7 +4049,7 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="53"/>
+      <c r="F96" s="8"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -4358,7 +4060,7 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="53"/>
+      <c r="F97" s="8"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -4369,7 +4071,7 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="53"/>
+      <c r="F98" s="8"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -4380,7 +4082,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="53"/>
+      <c r="F99" s="8"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -4391,7 +4093,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="53"/>
+      <c r="F100" s="8"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -4402,7 +4104,7 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="53"/>
+      <c r="F101" s="8"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -4413,7 +4115,7 @@
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="53"/>
+      <c r="F102" s="8"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -4424,7 +4126,7 @@
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="53"/>
+      <c r="F103" s="8"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -4435,7 +4137,7 @@
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="53"/>
+      <c r="F104" s="8"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -4446,7 +4148,7 @@
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
-      <c r="F105" s="53"/>
+      <c r="F105" s="8"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -4457,7 +4159,7 @@
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
-      <c r="F106" s="53"/>
+      <c r="F106" s="8"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
@@ -4468,7 +4170,7 @@
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
-      <c r="F107" s="53"/>
+      <c r="F107" s="8"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
@@ -4479,7 +4181,7 @@
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="53"/>
+      <c r="F108" s="8"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -4490,7 +4192,7 @@
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="53"/>
+      <c r="F109" s="8"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
@@ -4501,7 +4203,7 @@
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="53"/>
+      <c r="F110" s="8"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -4512,7 +4214,7 @@
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="53"/>
+      <c r="F111" s="8"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
@@ -4523,7 +4225,7 @@
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="53"/>
+      <c r="F112" s="8"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
@@ -4534,7 +4236,7 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="53"/>
+      <c r="F113" s="8"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -4545,7 +4247,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
-      <c r="F114" s="53"/>
+      <c r="F114" s="8"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
@@ -4556,7 +4258,7 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="F115" s="53"/>
+      <c r="F115" s="8"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
@@ -4567,7 +4269,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="53"/>
+      <c r="F116" s="8"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
@@ -4578,7 +4280,7 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="53"/>
+      <c r="F117" s="8"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -4589,7 +4291,7 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="53"/>
+      <c r="F118" s="8"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -4600,7 +4302,7 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="53"/>
+      <c r="F119" s="8"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -4611,7 +4313,7 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="53"/>
+      <c r="F120" s="8"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
@@ -4622,7 +4324,7 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="53"/>
+      <c r="F121" s="8"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -4633,7 +4335,7 @@
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="53"/>
+      <c r="F122" s="8"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
@@ -4644,7 +4346,7 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="53"/>
+      <c r="F123" s="8"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -4655,7 +4357,7 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="53"/>
+      <c r="F124" s="8"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -4666,7 +4368,7 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="53"/>
+      <c r="F125" s="8"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -4677,7 +4379,7 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="53"/>
+      <c r="F126" s="8"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -4688,7 +4390,7 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="53"/>
+      <c r="F127" s="8"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -4699,7 +4401,7 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="53"/>
+      <c r="F128" s="8"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -4710,7 +4412,7 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="53"/>
+      <c r="F129" s="8"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -4721,7 +4423,7 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="53"/>
+      <c r="F130" s="8"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -4732,7 +4434,7 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="53"/>
+      <c r="F131" s="8"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -4743,7 +4445,7 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="53"/>
+      <c r="F132" s="8"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -4754,7 +4456,7 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="53"/>
+      <c r="F133" s="8"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -4765,7 +4467,7 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="53"/>
+      <c r="F134" s="8"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -4776,7 +4478,7 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="53"/>
+      <c r="F135" s="8"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
@@ -4787,7 +4489,7 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="53"/>
+      <c r="F136" s="8"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
@@ -4798,7 +4500,7 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="53"/>
+      <c r="F137" s="8"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
@@ -4809,7 +4511,7 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="53"/>
+      <c r="F138" s="8"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
@@ -4820,7 +4522,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="53"/>
+      <c r="F139" s="8"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
@@ -4831,7 +4533,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="53"/>
+      <c r="F140" s="8"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
@@ -4842,7 +4544,7 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="53"/>
+      <c r="F141" s="8"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -4853,7 +4555,7 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="53"/>
+      <c r="F142" s="8"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
@@ -4864,7 +4566,7 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="53"/>
+      <c r="F143" s="8"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
@@ -4875,7 +4577,7 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="53"/>
+      <c r="F144" s="8"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
@@ -4886,7 +4588,7 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="53"/>
+      <c r="F145" s="8"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
@@ -4897,7 +4599,7 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="53"/>
+      <c r="F146" s="8"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -4908,7 +4610,7 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="53"/>
+      <c r="F147" s="8"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
@@ -4919,7 +4621,7 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="53"/>
+      <c r="F148" s="8"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
@@ -4930,7 +4632,7 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="53"/>
+      <c r="F149" s="8"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
@@ -4941,7 +4643,7 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="53"/>
+      <c r="F150" s="8"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
@@ -4952,7 +4654,7 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="53"/>
+      <c r="F151" s="8"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
@@ -4963,7 +4665,7 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="53"/>
+      <c r="F152" s="8"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
@@ -4974,7 +4676,7 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-      <c r="F153" s="53"/>
+      <c r="F153" s="8"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
@@ -4985,7 +4687,7 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="F154" s="53"/>
+      <c r="F154" s="8"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
@@ -4996,7 +4698,7 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-      <c r="F155" s="53"/>
+      <c r="F155" s="8"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
@@ -5007,7 +4709,7 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
-      <c r="F156" s="53"/>
+      <c r="F156" s="8"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
@@ -5018,7 +4720,7 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
-      <c r="F157" s="53"/>
+      <c r="F157" s="8"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
@@ -5029,7 +4731,7 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="53"/>
+      <c r="F158" s="8"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
@@ -5040,7 +4742,7 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
-      <c r="F159" s="53"/>
+      <c r="F159" s="8"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
@@ -5051,7 +4753,7 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="53"/>
+      <c r="F160" s="8"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
@@ -5062,7 +4764,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="53"/>
+      <c r="F161" s="8"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
@@ -5073,7 +4775,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
-      <c r="F162" s="53"/>
+      <c r="F162" s="8"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
@@ -5084,7 +4786,7 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="53"/>
+      <c r="F163" s="8"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
@@ -5095,7 +4797,7 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
-      <c r="F164" s="53"/>
+      <c r="F164" s="8"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
@@ -5106,7 +4808,7 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
-      <c r="F165" s="53"/>
+      <c r="F165" s="8"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
@@ -5117,7 +4819,7 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
-      <c r="F166" s="53"/>
+      <c r="F166" s="8"/>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
@@ -5128,7 +4830,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
-      <c r="F167" s="53"/>
+      <c r="F167" s="8"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
@@ -5139,7 +4841,7 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-      <c r="F168" s="53"/>
+      <c r="F168" s="8"/>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
@@ -5150,7 +4852,7 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
-      <c r="F169" s="53"/>
+      <c r="F169" s="8"/>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
@@ -5161,7 +4863,7 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
-      <c r="F170" s="53"/>
+      <c r="F170" s="8"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
@@ -5172,7 +4874,7 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
-      <c r="F171" s="53"/>
+      <c r="F171" s="8"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
@@ -5183,7 +4885,7 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="53"/>
+      <c r="F172" s="8"/>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
@@ -5194,7 +4896,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
-      <c r="F173" s="53"/>
+      <c r="F173" s="8"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
@@ -5205,7 +4907,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
-      <c r="F174" s="53"/>
+      <c r="F174" s="8"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
@@ -5216,7 +4918,7 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
-      <c r="F175" s="53"/>
+      <c r="F175" s="8"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
@@ -5227,7 +4929,7 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
-      <c r="F176" s="53"/>
+      <c r="F176" s="8"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
@@ -5238,7 +4940,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
-      <c r="F177" s="53"/>
+      <c r="F177" s="8"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
@@ -5249,7 +4951,7 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
-      <c r="F178" s="53"/>
+      <c r="F178" s="8"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
@@ -5260,7 +4962,7 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
-      <c r="F179" s="53"/>
+      <c r="F179" s="8"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
@@ -5271,7 +4973,7 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
-      <c r="F180" s="53"/>
+      <c r="F180" s="8"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
@@ -5282,7 +4984,7 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
-      <c r="F181" s="53"/>
+      <c r="F181" s="8"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
@@ -5293,7 +4995,7 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
-      <c r="F182" s="53"/>
+      <c r="F182" s="8"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
@@ -5304,7 +5006,7 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
-      <c r="F183" s="53"/>
+      <c r="F183" s="8"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
@@ -5315,7 +5017,7 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="53"/>
+      <c r="F184" s="8"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
@@ -5326,7 +5028,7 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
-      <c r="F185" s="53"/>
+      <c r="F185" s="8"/>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
@@ -5337,7 +5039,7 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
-      <c r="F186" s="53"/>
+      <c r="F186" s="8"/>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
@@ -5348,7 +5050,7 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
-      <c r="F187" s="53"/>
+      <c r="F187" s="8"/>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
@@ -5359,7 +5061,7 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
-      <c r="F188" s="53"/>
+      <c r="F188" s="8"/>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
@@ -5370,7 +5072,7 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
-      <c r="F189" s="53"/>
+      <c r="F189" s="8"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
@@ -5381,7 +5083,7 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
-      <c r="F190" s="53"/>
+      <c r="F190" s="8"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
@@ -5392,7 +5094,7 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
-      <c r="F191" s="53"/>
+      <c r="F191" s="8"/>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
@@ -5403,7 +5105,7 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
-      <c r="F192" s="53"/>
+      <c r="F192" s="8"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
@@ -5414,7 +5116,7 @@
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
-      <c r="F193" s="53"/>
+      <c r="F193" s="8"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
@@ -5425,7 +5127,7 @@
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
-      <c r="F194" s="53"/>
+      <c r="F194" s="8"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
@@ -5436,7 +5138,7 @@
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
-      <c r="F195" s="53"/>
+      <c r="F195" s="8"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
@@ -5447,7 +5149,7 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
-      <c r="F196" s="53"/>
+      <c r="F196" s="8"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
@@ -5458,7 +5160,7 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
-      <c r="F197" s="53"/>
+      <c r="F197" s="8"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
@@ -5469,7 +5171,7 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
-      <c r="F198" s="53"/>
+      <c r="F198" s="8"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
@@ -5480,7 +5182,7 @@
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
-      <c r="F199" s="53"/>
+      <c r="F199" s="8"/>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
@@ -5491,7 +5193,7 @@
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
-      <c r="F200" s="53"/>
+      <c r="F200" s="8"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
@@ -5502,7 +5204,7 @@
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
-      <c r="F201" s="53"/>
+      <c r="F201" s="8"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
@@ -5513,7 +5215,7 @@
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
-      <c r="F202" s="53"/>
+      <c r="F202" s="8"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
@@ -5524,7 +5226,7 @@
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
-      <c r="F203" s="53"/>
+      <c r="F203" s="8"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
@@ -5535,7 +5237,7 @@
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
-      <c r="F204" s="53"/>
+      <c r="F204" s="8"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
@@ -5546,7 +5248,7 @@
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
-      <c r="F205" s="53"/>
+      <c r="F205" s="8"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
@@ -5557,7 +5259,7 @@
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
-      <c r="F206" s="53"/>
+      <c r="F206" s="8"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
@@ -5568,7 +5270,7 @@
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
-      <c r="F207" s="53"/>
+      <c r="F207" s="8"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
@@ -5579,7 +5281,7 @@
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
-      <c r="F208" s="53"/>
+      <c r="F208" s="8"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
@@ -5590,7 +5292,7 @@
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
-      <c r="F209" s="53"/>
+      <c r="F209" s="8"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
@@ -5601,7 +5303,7 @@
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
-      <c r="F210" s="53"/>
+      <c r="F210" s="8"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
@@ -5612,7 +5314,7 @@
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
-      <c r="F211" s="53"/>
+      <c r="F211" s="8"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
@@ -5623,7 +5325,7 @@
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
-      <c r="F212" s="53"/>
+      <c r="F212" s="8"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
@@ -5634,7 +5336,7 @@
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
-      <c r="F213" s="53"/>
+      <c r="F213" s="8"/>
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
@@ -5645,7 +5347,7 @@
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
-      <c r="F214" s="53"/>
+      <c r="F214" s="8"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
@@ -5656,7 +5358,7 @@
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
-      <c r="F215" s="53"/>
+      <c r="F215" s="8"/>
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
@@ -5667,7 +5369,7 @@
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
-      <c r="F216" s="53"/>
+      <c r="F216" s="8"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
@@ -5678,7 +5380,7 @@
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
-      <c r="F217" s="53"/>
+      <c r="F217" s="8"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
@@ -5689,7 +5391,7 @@
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
-      <c r="F218" s="53"/>
+      <c r="F218" s="8"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
@@ -5700,7 +5402,7 @@
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
-      <c r="F219" s="53"/>
+      <c r="F219" s="8"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
@@ -5711,7 +5413,7 @@
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
-      <c r="F220" s="53"/>
+      <c r="F220" s="8"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
@@ -5722,7 +5424,7 @@
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
-      <c r="F221" s="53"/>
+      <c r="F221" s="8"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
@@ -5733,7 +5435,7 @@
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
-      <c r="F222" s="53"/>
+      <c r="F222" s="8"/>
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
       <c r="I222" s="5"/>
@@ -5744,7 +5446,7 @@
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
-      <c r="F223" s="53"/>
+      <c r="F223" s="8"/>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
       <c r="I223" s="5"/>
@@ -5755,7 +5457,7 @@
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
-      <c r="F224" s="53"/>
+      <c r="F224" s="8"/>
       <c r="G224" s="5"/>
       <c r="H224" s="5"/>
       <c r="I224" s="5"/>
@@ -5766,7 +5468,7 @@
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
-      <c r="F225" s="53"/>
+      <c r="F225" s="8"/>
       <c r="G225" s="5"/>
       <c r="H225" s="5"/>
       <c r="I225" s="5"/>
@@ -5777,7 +5479,7 @@
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
-      <c r="F226" s="53"/>
+      <c r="F226" s="8"/>
       <c r="G226" s="5"/>
       <c r="H226" s="5"/>
       <c r="I226" s="5"/>
@@ -5788,7 +5490,7 @@
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
-      <c r="F227" s="53"/>
+      <c r="F227" s="8"/>
       <c r="G227" s="5"/>
       <c r="H227" s="5"/>
       <c r="I227" s="5"/>
@@ -5799,7 +5501,7 @@
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
-      <c r="F228" s="53"/>
+      <c r="F228" s="8"/>
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
       <c r="I228" s="5"/>
@@ -5810,7 +5512,7 @@
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
-      <c r="F229" s="53"/>
+      <c r="F229" s="8"/>
       <c r="G229" s="5"/>
       <c r="H229" s="5"/>
       <c r="I229" s="5"/>
@@ -5821,7 +5523,7 @@
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
-      <c r="F230" s="53"/>
+      <c r="F230" s="8"/>
       <c r="G230" s="5"/>
       <c r="H230" s="5"/>
       <c r="I230" s="5"/>
@@ -5832,7 +5534,7 @@
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
-      <c r="F231" s="53"/>
+      <c r="F231" s="8"/>
       <c r="G231" s="5"/>
       <c r="H231" s="5"/>
       <c r="I231" s="5"/>
@@ -5843,7 +5545,7 @@
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
-      <c r="F232" s="53"/>
+      <c r="F232" s="8"/>
       <c r="G232" s="5"/>
       <c r="H232" s="5"/>
       <c r="I232" s="5"/>
@@ -5854,7 +5556,7 @@
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
-      <c r="F233" s="53"/>
+      <c r="F233" s="8"/>
       <c r="G233" s="5"/>
       <c r="H233" s="5"/>
       <c r="I233" s="5"/>
@@ -5865,7 +5567,7 @@
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
-      <c r="F234" s="53"/>
+      <c r="F234" s="8"/>
       <c r="G234" s="5"/>
       <c r="H234" s="5"/>
       <c r="I234" s="5"/>
@@ -5876,160 +5578,42 @@
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
-      <c r="F235" s="53"/>
+      <c r="F235" s="8"/>
       <c r="G235" s="5"/>
       <c r="H235" s="5"/>
       <c r="I235" s="5"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
-      <c r="F236" s="53"/>
+      <c r="F236" s="8"/>
       <c r="G236" s="5"/>
       <c r="H236" s="5"/>
       <c r="I236" s="5"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="4"/>
-      <c r="B237" s="5"/>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="53"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-    </row>
-    <row r="238" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="4"/>
-      <c r="B238" s="5"/>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="53"/>
-      <c r="G238" s="5"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="5"/>
-    </row>
-    <row r="239" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="4"/>
-      <c r="B239" s="5"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="53"/>
-      <c r="G239" s="5"/>
-      <c r="H239" s="5"/>
-      <c r="I239" s="5"/>
-    </row>
-    <row r="240" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="4"/>
-      <c r="B240" s="5"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="53"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="5"/>
-    </row>
-    <row r="241" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="4"/>
-      <c r="B241" s="5"/>
-      <c r="C241" s="5"/>
-      <c r="D241" s="5"/>
-      <c r="E241" s="5"/>
-      <c r="F241" s="53"/>
-      <c r="G241" s="5"/>
-      <c r="H241" s="5"/>
-      <c r="I241" s="5"/>
-    </row>
-    <row r="242" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="4"/>
-      <c r="B242" s="5"/>
-      <c r="C242" s="5"/>
-      <c r="D242" s="5"/>
-      <c r="E242" s="5"/>
-      <c r="F242" s="53"/>
-      <c r="G242" s="5"/>
-      <c r="H242" s="5"/>
-      <c r="I242" s="5"/>
-    </row>
-    <row r="243" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="4"/>
-      <c r="B243" s="5"/>
-      <c r="C243" s="5"/>
-      <c r="D243" s="5"/>
-      <c r="E243" s="5"/>
-      <c r="F243" s="53"/>
-      <c r="G243" s="5"/>
-      <c r="H243" s="5"/>
-      <c r="I243" s="5"/>
-    </row>
-    <row r="244" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="4"/>
-      <c r="B244" s="5"/>
-      <c r="C244" s="5"/>
-      <c r="D244" s="5"/>
-      <c r="E244" s="5"/>
-      <c r="F244" s="53"/>
-      <c r="G244" s="5"/>
-      <c r="H244" s="5"/>
-      <c r="I244" s="5"/>
-    </row>
-    <row r="245" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="4"/>
-      <c r="B245" s="5"/>
-      <c r="C245" s="5"/>
-      <c r="D245" s="5"/>
-      <c r="E245" s="5"/>
-      <c r="F245" s="53"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
-    </row>
-    <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="4"/>
-      <c r="B246" s="46"/>
-      <c r="C246" s="46"/>
-      <c r="D246" s="5"/>
-      <c r="E246" s="5"/>
-      <c r="F246" s="53"/>
-      <c r="G246" s="5"/>
-      <c r="H246" s="5"/>
-      <c r="I246" s="5"/>
-    </row>
-    <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="45"/>
-      <c r="D247" s="46"/>
-      <c r="E247" s="46"/>
-      <c r="F247" s="62"/>
-      <c r="G247" s="46"/>
-      <c r="H247" s="46"/>
-      <c r="I247" s="46"/>
+    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="81"/>
+      <c r="B237" s="82"/>
+      <c r="C237" s="82"/>
+      <c r="D237" s="82"/>
+      <c r="E237" s="82"/>
+      <c r="F237" s="83"/>
+      <c r="G237" s="82"/>
+      <c r="H237" s="82"/>
+      <c r="I237" s="82"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:I74">
-    <sortCondition ref="D33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A64">
+    <sortCondition ref="A34"/>
   </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C84:G84"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C86:G86"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="H66" r:id="rId1" xr:uid="{1B547C14-F585-434A-BCA2-557A07C37870}"/>
-    <hyperlink ref="H57" r:id="rId2" xr:uid="{1C3FAEC1-A38F-40CD-8BD0-DBB7C4DD7FCF}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A55C4ECD-4C73-D541-A211-150779FEC629}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B852F96D-34D6-8A4A-8DA9-028B9663D807}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="175">
   <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
-    <t>27 De Julio a 02 De Agosto</t>
+    <t>3 al 9 de Agosto del 2020</t>
   </si>
   <si>
     <t>Reporte Ejecutivo</t>
@@ -52,419 +52,488 @@
     <t>Facebook</t>
   </si>
   <si>
+    <t xml:space="preserve">Belora A. </t>
+  </si>
+  <si>
+    <t>Referido</t>
+  </si>
+  <si>
+    <t>Jose Luis Vaca Ramos</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>María Patricia Cotreras Rodríguez</t>
+  </si>
+  <si>
+    <t>Lamudi</t>
+  </si>
+  <si>
+    <t>Pagina Web</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>Detalle</t>
+  </si>
+  <si>
+    <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>Asesor</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Alejandra Campos García</t>
+  </si>
+  <si>
+    <t>2020-08-09 09:31:34</t>
+  </si>
+  <si>
+    <t>Gabriela Garcia</t>
+  </si>
+  <si>
+    <t>ggarciafierro@gmail.com</t>
+  </si>
+  <si>
     <t>Belora Abadi Husny</t>
   </si>
   <si>
-    <t>Referido</t>
-  </si>
-  <si>
-    <t>Jose Luis Vaca Ramos</t>
-  </si>
-  <si>
-    <t>Google</t>
-  </si>
-  <si>
-    <t>María Patricia Cotreras Rodríguez</t>
-  </si>
-  <si>
-    <t>Pagina Web</t>
-  </si>
-  <si>
-    <t>Lamudi</t>
-  </si>
-  <si>
-    <t>Vallas</t>
-  </si>
-  <si>
-    <t>Detalle</t>
-  </si>
-  <si>
-    <t>Asesor</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Clasificación</t>
-  </si>
-  <si>
-    <t>Fuente</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Teléfono</t>
-  </si>
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Alejandra Campos García</t>
-  </si>
-  <si>
-    <t>2020-08-01 22:15:33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin nombre </t>
-  </si>
-  <si>
-    <t>+525534777550@phonecall.com</t>
-  </si>
-  <si>
-    <t>2020-08-01 19:27:17</t>
+    <t>2020-08-09 00:25:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana Sanchez Trujillo </t>
+  </si>
+  <si>
+    <t>m.sancheztrujillo@yajoo.com.mx</t>
+  </si>
+  <si>
+    <t>2020-08-08 20:11:59</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobías Fayad </t>
+  </si>
+  <si>
+    <t>tobbiasfayad9@gmail.com</t>
+  </si>
+  <si>
+    <t>Cotización 404 A para revisar opción de 2 rec</t>
+  </si>
+  <si>
+    <t>2020-08-08 19:01:10</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>Jose Mata</t>
-  </si>
-  <si>
-    <t>pepemagar311@gmail.com</t>
+    <t xml:space="preserve">Manuel Rodríguez </t>
+  </si>
+  <si>
+    <t>mrodriguezdc@hotmail.com</t>
+  </si>
+  <si>
+    <t>Envie correo con información</t>
+  </si>
+  <si>
+    <t>2020-08-08 14:15:18</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Avenir Book"/>
+        <family val="2"/>
+      </rPr>
+      <t>Alejandro Varela</t>
+    </r>
+  </si>
+  <si>
+    <t>juridicoasvl@outlook.com</t>
   </si>
   <si>
     <t>Correo y WhatsApp de primer contacto enviado</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>2020-08-01 13:49:56</t>
-  </si>
-  <si>
-    <t>Oswaldo Pérez Ríos</t>
-  </si>
-  <si>
-    <t>droswaldoperezrios@outlook.com</t>
-  </si>
-  <si>
-    <t>Llamar hoy después de las 6pm</t>
-  </si>
-  <si>
-    <t>2020-07-31 19:37:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Martinez </t>
-  </si>
-  <si>
-    <t>alexquesnel_66@hotmail.com</t>
+    <t>2020-08-08 13:45:25</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Avenir Book"/>
+        <family val="2"/>
+      </rPr>
+      <t>Liliana Hernández Ramírez</t>
+    </r>
+  </si>
+  <si>
+    <t>minframex@gmail.com</t>
+  </si>
+  <si>
+    <t>Llamar mañana.</t>
+  </si>
+  <si>
+    <t>2020-08-08 11:32:11</t>
+  </si>
+  <si>
+    <t>Pablo Rangel</t>
+  </si>
+  <si>
+    <t>equipark@ranver.com.mx</t>
+  </si>
+  <si>
+    <t>No le interesa por el momento polanco, pero para otros proyectos que lo tenga al tanto</t>
+  </si>
+  <si>
+    <t>2020-08-08 00:17:34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fernando Fuenmayor </t>
+  </si>
+  <si>
+    <t>fernandofuenmayorr@gmail.com</t>
+  </si>
+  <si>
+    <t>Correo y WhatsApp de primer contacto enviado. Teléfono solo con 9 números</t>
+  </si>
+  <si>
+    <t>2020-08-07 13:15:12</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Magdalena Ruíz Rosas</t>
+  </si>
+  <si>
+    <t>magruiz1p@gmail.com</t>
+  </si>
+  <si>
+    <t>Fuera de presupuesto</t>
+  </si>
+  <si>
+    <t>2020-08-07 12:46:04</t>
+  </si>
+  <si>
+    <t>Stephanie Hernandez Cruz</t>
+  </si>
+  <si>
+    <t>steph.hernandezcruz@gmail.com</t>
+  </si>
+  <si>
+    <t>Corredora traera Clientes para Polanco y Nápoles</t>
+  </si>
+  <si>
+    <t>2020-08-07 11:44:11</t>
+  </si>
+  <si>
+    <t>Jair Paredes</t>
+  </si>
+  <si>
+    <t>yairsp25@gmail.com</t>
+  </si>
+  <si>
+    <t>No contesta, le envie whats para coordinar una cita en el Desarrollo</t>
+  </si>
+  <si>
+    <t>2020-08-07 10:55:11</t>
+  </si>
+  <si>
+    <t>Selene Martinez</t>
+  </si>
+  <si>
+    <t>isc.marsi@gmail.com</t>
   </si>
   <si>
     <t>Se envió correo desde Kiper.</t>
   </si>
   <si>
-    <t>2020-07-31 15:40:35</t>
-  </si>
-  <si>
-    <t>Gisell Martinez</t>
-  </si>
-  <si>
-    <t>giss.mr@hotmail.com</t>
-  </si>
-  <si>
-    <t>Correo y WhatsApp de primer contacto, quiere conocer el rango de precio</t>
-  </si>
-  <si>
-    <t>2020-07-31 15:20:48</t>
-  </si>
-  <si>
-    <t>Jorge Laverde</t>
-  </si>
-  <si>
-    <t>jelaverde10@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-31 14:23:11</t>
-  </si>
-  <si>
-    <t>Luis Gonzalez</t>
-  </si>
-  <si>
-    <t>lujo31@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se llevó cotizaciones del 307A, 408A,408C, 502A, presupuesto 7 millones.
-Lo va a platicar con su novia para hacer un recorrido</t>
-  </si>
-  <si>
-    <t>2020-07-31 13:31:35</t>
-  </si>
-  <si>
-    <t>Salomon Kibrit</t>
-  </si>
-  <si>
-    <t>ceo18rs.skb@gmail.com</t>
-  </si>
-  <si>
-    <t>Broker externo, el 25 de jun le envíe info para unos clientes</t>
-  </si>
-  <si>
-    <t>2020-07-31 13:20:04</t>
-  </si>
-  <si>
-    <t>Gerardo Sandoval</t>
-  </si>
-  <si>
-    <t>gsanrib6@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-31 12:32:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gregorio Garcia Dominguez </t>
-  </si>
-  <si>
-    <t>sinemailz@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-31 12:30:17</t>
-  </si>
-  <si>
-    <t>Liliana Zende</t>
-  </si>
-  <si>
-    <t>lilyzende@hotmail.com</t>
-  </si>
-  <si>
-    <t>Llamada quiere algo para invertir porque acaba de vender su casa. Le mande 502E y 404A</t>
-  </si>
-  <si>
-    <t>2020-07-31 12:16:00</t>
-  </si>
-  <si>
-    <t>Noira Speeler</t>
-  </si>
-  <si>
-    <t>speelern@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-31 12:10:50</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Sara Ruíz</t>
-  </si>
-  <si>
-    <t>unawera@gmail.com</t>
-  </si>
-  <si>
-    <t>Que no quiere información de todos modos le envia información por mail</t>
-  </si>
-  <si>
-    <t>2020-07-31 01:57:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ishaan Khurana </t>
-  </si>
-  <si>
-    <t>Proishaanikk@gmail.com</t>
-  </si>
-  <si>
-    <t>Correo y WhatsApp  de primer contacto enviado</t>
-  </si>
-  <si>
-    <t>2020-07-30 22:16:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Torres </t>
-  </si>
-  <si>
-    <t>cahtorres09@hotmail.com</t>
-  </si>
-  <si>
-    <t>Quiere algo por tecamachalco pero me pidió opciones de cotizaciones</t>
-  </si>
-  <si>
-    <t>2020-07-30 18:28:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nallely Huerta Juárez </t>
-  </si>
-  <si>
-    <t>nalle_260893@hotmail.com</t>
-  </si>
-  <si>
-    <t>Por la pandemia se encuentra fuera de la ciudad, pero mandé el recorrido virtual y COTIZACIONES de 201D GHC y 201F, en espera de su revision</t>
-  </si>
-  <si>
-    <t>2020-07-29 23:23:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabel baizabal </t>
-  </si>
-  <si>
-    <t>isabel.baizabal@cetys.mx</t>
-  </si>
-  <si>
-    <t>El telefono es incorrecto no es de Isabel</t>
-  </si>
-  <si>
-    <t>2020-07-29 21:15:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenny </t>
-  </si>
-  <si>
-    <t>mucinojenny5@gmail.com</t>
+    <t>2020-08-06 22:45:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abraham Zamora T </t>
+  </si>
+  <si>
+    <t>abzamorat@gmail.com</t>
+  </si>
+  <si>
+    <t>Cotización 404A para revisar el precio y forma de pago</t>
+  </si>
+  <si>
+    <t>2020-08-06 19:01:38</t>
+  </si>
+  <si>
+    <t>Erik Gómez Morales</t>
+  </si>
+  <si>
+    <t>forcedcafe@gmail.com</t>
+  </si>
+  <si>
+    <t>No le interesa</t>
+  </si>
+  <si>
+    <t>2020-08-06 14:56:00</t>
+  </si>
+  <si>
+    <t>Lina Camargo</t>
+  </si>
+  <si>
+    <t>lmcalmca2@hotmail.com</t>
+  </si>
+  <si>
+    <t>Cliente de Corredora Maayan Vainer programaremos cita</t>
+  </si>
+  <si>
+    <t>2020-08-06 12:12:51</t>
+  </si>
+  <si>
+    <t>Julieta Lujambio</t>
+  </si>
+  <si>
+    <t>julietalujambio@hotmail.com</t>
+  </si>
+  <si>
+    <t>Me comenta que el depto es para su hija y que esta viendo otra opción mas económica. Le sugerí que pase su propuesta si nosotros somos mejor opción para ellos. Va a comentarlo y regresa conmigo.</t>
+  </si>
+  <si>
+    <t>2020-08-05 21:07:05</t>
+  </si>
+  <si>
+    <t>Donaldo Amaya</t>
+  </si>
+  <si>
+    <t>Donaldo_organic@hotmail.com</t>
+  </si>
+  <si>
+    <t>Esta buscando algo de 3millones en Polanco,</t>
+  </si>
+  <si>
+    <t>2020-08-05 19:10:42</t>
+  </si>
+  <si>
+    <t>Stefano Corsini</t>
+  </si>
+  <si>
+    <t>scorsinic@gmail.com</t>
+  </si>
+  <si>
+    <t>Vive fuera de CDMX y esta por volver, me pregunta que tenemos disponible, y quedo en espera de que me diga que necesita para enviar mas detalles</t>
+  </si>
+  <si>
+    <t>2020-08-05 18:06:54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin Nombre </t>
+  </si>
+  <si>
+    <t>(55) 2898-9717</t>
+  </si>
+  <si>
+    <t>+525528989717@phonecall.com</t>
+  </si>
+  <si>
+    <t>Hablo por que pensó que el precio era de 921 mil pesos, presupuesto de 1 millón</t>
+  </si>
+  <si>
+    <t>2020-08-05 17:48:45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivanise Shibayama </t>
+  </si>
+  <si>
+    <t>ivanise@pipromotoresinmobiliarios.mx</t>
   </si>
   <si>
     <t>Correo primer contacto enviado</t>
   </si>
   <si>
-    <t>2020-07-29 19:01:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Méndez Ramírez </t>
-  </si>
-  <si>
-    <t>rich.mndz2213@gmail.com</t>
-  </si>
-  <si>
-    <t>Envie correo de Polanco y Napoles</t>
-  </si>
-  <si>
-    <t>2020-07-29 17:38:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Illian Marisol Morales Araiza </t>
-  </si>
-  <si>
-    <t>illian.araiza@outlook.com</t>
-  </si>
-  <si>
-    <t>Enviar rango de precio de Napoles porque su presup es mas bajo</t>
-  </si>
-  <si>
-    <t>2020-07-29 16:06:13</t>
-  </si>
-  <si>
-    <t>Gerardo De Valle González</t>
-  </si>
-  <si>
-    <t>gerardo.devalle@udem.edu</t>
-  </si>
-  <si>
-    <t>Busca en renta amueblado $15,000  pesos</t>
-  </si>
-  <si>
-    <t>2020-07-29 01:06:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edson Haaz </t>
-  </si>
-  <si>
-    <t>ehaaz.94@hotmail.com</t>
-  </si>
-  <si>
-    <t>Busca un departamento de 20mil pesos en renta de 2 recamaras</t>
-  </si>
-  <si>
-    <t>2020-07-28 16:35:32</t>
-  </si>
-  <si>
-    <t>Uriel Gonzalez</t>
-  </si>
-  <si>
-    <t>gonzalezgarcesdante@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-28 16:32:33</t>
-  </si>
-  <si>
-    <t>Lara Patricia Armería Hernández</t>
-  </si>
-  <si>
-    <t>laraarmeria@hotmail.com</t>
-  </si>
-  <si>
-    <t>Correo y WhatsApp de primer contacto</t>
-  </si>
-  <si>
-    <t>2020-07-28 16:26:07</t>
-  </si>
-  <si>
-    <t>Paulina Grande</t>
-  </si>
-  <si>
-    <t>paug8@hotmail.com</t>
-  </si>
-  <si>
-    <t>Se cuelga la llamada envie correo con info general</t>
-  </si>
-  <si>
-    <t>2020-07-28 14:47:06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samantha torres </t>
-  </si>
-  <si>
-    <t>sftr18.4@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-07-28 00:12:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orion Nevarez </t>
-  </si>
-  <si>
-    <t>nevarezorion@gmail.com</t>
-  </si>
-  <si>
-    <t>Cita proxima domingo 2 agosto</t>
-  </si>
-  <si>
-    <t>2020-07-27 22:14:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pepe Pecas </t>
-  </si>
-  <si>
-    <t>pepe@gmail.com</t>
-  </si>
-  <si>
-    <t>No contesta, envie un whats app, el telefono esta equivocado y me pide el sr. que no lo molestemos</t>
-  </si>
-  <si>
-    <t>2020-07-27 17:35:19</t>
-  </si>
-  <si>
-    <t>Blanca Galvan</t>
-  </si>
-  <si>
-    <t>blancagalvangarza@hotmail.com</t>
-  </si>
-  <si>
-    <t>Visita el desarrollo se lleva cotización del depto muestra en diferentes niveles, necesita crédito</t>
-  </si>
-  <si>
-    <t>2020-07-27 16:58:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenniffer Villagran </t>
-  </si>
-  <si>
-    <t>jenniffer755@hotmail.com</t>
-  </si>
-  <si>
-    <t>Correo primer contacto enviado, su cel no esta disponible</t>
-  </si>
-  <si>
-    <t>2020-07-27 16:58:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jose Alfredo </t>
-  </si>
-  <si>
-    <t>abarcaalfredo2019@gmail.com</t>
-  </si>
-  <si>
-    <t>Le envíe un correo con información general, le marque entra directo al buzón</t>
+    <t>2020-08-05 12:08:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Sánchez Torres </t>
+  </si>
+  <si>
+    <t>alejandro.sant94@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-04 16:07:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leyla Pereira </t>
+  </si>
+  <si>
+    <t>lepete2005@gmail.com</t>
+  </si>
+  <si>
+    <t>Busca renta para diciembre</t>
+  </si>
+  <si>
+    <t>2020-08-04 15:20:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tania Torres </t>
+  </si>
+  <si>
+    <t>tania.ttorres0119@gmail.com</t>
+  </si>
+  <si>
+    <t>Quiere rentar en 30mil pesos</t>
+  </si>
+  <si>
+    <t>2020-08-04 15:01:57</t>
+  </si>
+  <si>
+    <t>Ricardo Morales Tellez</t>
+  </si>
+  <si>
+    <t>richie.mt@gmail.com</t>
+  </si>
+  <si>
+    <t>Cotizaciones de Napoles 307 A y 301B enviadas para su revisión,</t>
+  </si>
+  <si>
+    <t>2020-08-04 13:02:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ana lucy montano gonzalez </t>
+  </si>
+  <si>
+    <t>analumon94@hotmail.com</t>
+  </si>
+  <si>
+    <t>Correo y Whatsapp de primer contacto enviado</t>
+  </si>
+  <si>
+    <t>2020-08-03 21:59:02</t>
+  </si>
+  <si>
+    <t>+525529648490@phonecall.com</t>
+  </si>
+  <si>
+    <t>2020-08-03 21:58:33</t>
+  </si>
+  <si>
+    <t>+529841798868@phonecall.com</t>
+  </si>
+  <si>
+    <t>No deja datos, solo me comenta que sale de su presupuesto</t>
+  </si>
+  <si>
+    <t>2020-08-03 19:29:39</t>
+  </si>
+  <si>
+    <t>Nancy Cantú</t>
+  </si>
+  <si>
+    <t>nancycantu@hotmail.com</t>
+  </si>
+  <si>
+    <t>Quiere un departamento de 2 recamaras, presupuesto de 6/7 millones. Envíe info de Nápoles y cotizaciones del 205B, 307A</t>
+  </si>
+  <si>
+    <t>2020-08-03 18:17:35</t>
+  </si>
+  <si>
+    <t>Mario calcaneo</t>
+  </si>
+  <si>
+    <t>mario_calcaneo@hotmail.com</t>
+  </si>
+  <si>
+    <t>Esta buscando invertir, envie cotizaciones del 502E, 602C,301B y 404A</t>
+  </si>
+  <si>
+    <t>2020-08-03 15:18:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcelle Juan Chelala </t>
+  </si>
+  <si>
+    <t>marjuche@yahoo.com</t>
+  </si>
+  <si>
+    <t>Llamada sale su buzón, me comunico mas tarde</t>
+  </si>
+  <si>
+    <t>2020-08-03 15:05:04</t>
+  </si>
+  <si>
+    <t>Pablo Cordova</t>
+  </si>
+  <si>
+    <t>factorversa@yahoo.com.mx</t>
+  </si>
+  <si>
+    <t>2020-08-03 15:04:24</t>
+  </si>
+  <si>
+    <t>factorversa@yahoo.co.mx</t>
+  </si>
+  <si>
+    <t>Whatsapp quiere saber el rango de precio y alguna opción para enviarla por mail.</t>
+  </si>
+  <si>
+    <t>2020-08-03 15:03:45</t>
+  </si>
+  <si>
+    <t>Edmundo Reyes</t>
+  </si>
+  <si>
+    <t>jedmundorry@gmail.com</t>
+  </si>
+  <si>
+    <t>Es corredor, busca info para un cliente, le envíe cotizaciones y la info general</t>
+  </si>
+  <si>
+    <t>2020-08-03 13:43:42</t>
+  </si>
+  <si>
+    <t>Adrian Pérez Arredondo</t>
+  </si>
+  <si>
+    <t>adrian.perez94@outlook.com</t>
+  </si>
+  <si>
+    <t>Envie información de Polanco, esta fuera de presupuesto, mandear info de Nápoles</t>
+  </si>
+  <si>
+    <t>2020-08-03 10:00:10</t>
+  </si>
+  <si>
+    <t>Israel Rojano</t>
+  </si>
+  <si>
+    <t>azcalt_014@hotmail.com</t>
+  </si>
+  <si>
+    <t>WhatsApp vive en EU, esta planeando su regreso y quiere ver rango de precios. Envió cotizaciones</t>
   </si>
   <si>
     <t>Código de clasificación</t>
@@ -488,14 +557,10 @@
     <t xml:space="preserve">Report Powered by KIPER </t>
   </si>
   <si>
-    <t>Corredora Dr. Luis Suárez Pérez enviaré las cotizaciones para que ella pueda dárselas a su clietne. Vive en Miami y estara en CDMX en dos semanas</t>
-  </si>
-  <si>
-    <t>Interesado, busca invertir en polanco, santa fe
-Envie cotizaciones por whats app</t>
-  </si>
-  <si>
-    <t>No viable</t>
+    <t>CORREO primer contacto enviado y WHAPP</t>
+  </si>
+  <si>
+    <t>No contesta llamadas ni correos</t>
   </si>
 </sst>
 </file>
@@ -512,51 +577,61 @@
       <sz val="11"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Avenir Heavy"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Heavy"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Avenir Heavy"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="12"/>
       <name val="Avenir Book"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Avenir Book"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -579,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -756,51 +831,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -850,7 +880,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -859,16 +889,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -881,9 +905,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -915,37 +936,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,18 +957,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,22 +964,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,9 +974,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,38 +981,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1048,10 +1009,34 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,7 +1133,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1191,15 +1176,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>744220</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>74295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1257300</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>12757</xdr:rowOff>
+      <xdr:colOff>1226820</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>74352</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1222,8 +1207,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="15998825"/>
-          <a:ext cx="482600" cy="800158"/>
+          <a:off x="1023620" y="20584794"/>
+          <a:ext cx="482601" cy="800159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2318,22 +2303,22 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I237"/>
+  <dimension ref="A1:I222"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="6" width="27" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="152.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="197.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="1" customWidth="1"/>
     <col min="11" max="16384" width="14.5" style="1"/>
   </cols>
@@ -2465,7 +2450,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="8"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -2476,7 +2461,7 @@
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
@@ -2487,1451 +2472,1525 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="8"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="12"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="12"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="13"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="12"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="21">
-        <v>31</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="20" t="s">
+      <c r="C20" s="18">
+        <v>35</v>
+      </c>
+      <c r="D20" s="19"/>
+      <c r="E20" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="84"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="57"/>
     </row>
     <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="20" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="21">
-        <v>8</v>
-      </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="84"/>
+      <c r="F21" s="75">
+        <v>9</v>
+      </c>
+      <c r="G21" s="21"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="57"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="20" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="21">
-        <v>18</v>
-      </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="84"/>
+      <c r="F22" s="75">
+        <v>17</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="20" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="21">
-        <v>5</v>
-      </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="85"/>
+      <c r="F23" s="75">
+        <v>9</v>
+      </c>
+      <c r="G23" s="21"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="58"/>
     </row>
     <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="85"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="58"/>
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="21">
+      <c r="C25" s="18">
+        <v>15</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="75">
+        <v>3</v>
+      </c>
+      <c r="G25" s="30"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="59"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="18">
+        <v>15</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="75">
+        <v>3</v>
+      </c>
+      <c r="G26" s="31"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="58"/>
+    </row>
+    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="18">
+        <v>4</v>
+      </c>
+      <c r="D27" s="19"/>
+      <c r="E27" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="75">
+        <v>10</v>
+      </c>
+      <c r="G27" s="21"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="58"/>
+    </row>
+    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="21">
-        <v>7</v>
-      </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="86"/>
-    </row>
-    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20" t="s">
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="19"/>
+      <c r="E28" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="75">
         <v>10</v>
       </c>
-      <c r="C26" s="21">
-        <v>14</v>
-      </c>
-      <c r="D26" s="22"/>
-      <c r="E26" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="21">
-        <v>5</v>
-      </c>
-      <c r="G26" s="39"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="85"/>
-    </row>
-    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="21">
-        <v>2</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="21">
-        <v>8</v>
-      </c>
-      <c r="G27" s="24"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="85"/>
-    </row>
-    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="21">
-        <v>1</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="21">
-        <v>5</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="85"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="20" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="21">
-        <v>4</v>
-      </c>
-      <c r="G29" s="24"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="85"/>
+      <c r="F29" s="75">
+        <v>6</v>
+      </c>
+      <c r="G29" s="21"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="20" t="s">
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="75">
         <v>2</v>
       </c>
-      <c r="G30" s="24"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="85"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="58"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="26"/>
+      <c r="C31" s="23"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="85"/>
+      <c r="E31" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="75">
+        <v>1</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="58"/>
     </row>
     <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="46"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="85"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="58"/>
     </row>
     <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="60" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="36">
+        <v>1</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="G34" s="18">
+        <v>5527505241</v>
+      </c>
+      <c r="H34" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36">
+        <v>2</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="61" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" s="18">
+        <v>5548443484</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="I35" s="61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36">
+        <v>3</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="18">
+        <v>5554557519</v>
+      </c>
+      <c r="H36" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="I36" s="61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36">
+        <v>4</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" s="18">
+        <v>5526612612</v>
+      </c>
+      <c r="H37" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36">
+        <v>5</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="18">
+        <v>9933995288</v>
+      </c>
+      <c r="H38" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" s="61" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="36">
+        <v>6</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="18">
+        <v>5517300425</v>
+      </c>
+      <c r="H39" s="61" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" s="61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="36">
+        <v>7</v>
+      </c>
+      <c r="B40" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="G40" s="18">
+        <v>5568571934</v>
+      </c>
+      <c r="H40" s="61" t="s">
+        <v>156</v>
+      </c>
+      <c r="I40" s="61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="36">
+        <v>8</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="61" t="s">
+        <v>124</v>
+      </c>
+      <c r="G41" s="18">
+        <v>2223581736</v>
+      </c>
+      <c r="H41" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36">
+        <v>9</v>
+      </c>
+      <c r="B42" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="G42" s="18">
+        <v>5529286518</v>
+      </c>
+      <c r="H42" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="I42" s="61" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
+        <v>10</v>
+      </c>
+      <c r="B43" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="18">
+        <v>11993036359</v>
+      </c>
+      <c r="H43" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="I43" s="61" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36">
+        <v>11</v>
+      </c>
+      <c r="B44" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" s="61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="G44" s="18">
+        <v>5554374890</v>
+      </c>
+      <c r="H44" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" s="61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36">
+        <v>12</v>
+      </c>
+      <c r="B45" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E45" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G45" s="18">
+        <v>953363964</v>
+      </c>
+      <c r="H45" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="I45" s="61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36">
+        <v>13</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="18">
+        <v>6469455591</v>
+      </c>
+      <c r="H46" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36">
+        <v>14</v>
+      </c>
+      <c r="B47" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E47" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="18">
+        <v>9994428339</v>
+      </c>
+      <c r="H47" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="I47" s="61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36">
+        <v>15</v>
+      </c>
+      <c r="B48" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="G48" s="18">
+        <v>5513327869</v>
+      </c>
+      <c r="H48" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="61" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="36">
+        <v>16</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E49" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="G49" s="18">
+        <v>5537277702</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36">
+        <v>17</v>
+      </c>
+      <c r="B50" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="18">
+        <v>5537177393</v>
+      </c>
+      <c r="H50" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="I50" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36">
+        <v>18</v>
+      </c>
+      <c r="B51" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>151</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="G51" s="18">
+        <v>5529648490</v>
+      </c>
+      <c r="H51" s="61" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="61" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36">
         <v>19</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="B52" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" s="18">
+        <v>5587933797</v>
+      </c>
+      <c r="H52" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" s="62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="36">
         <v>20</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="B53" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="G53" s="18">
+        <v>5522142010</v>
+      </c>
+      <c r="H53" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="I53" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="36">
         <v>21</v>
       </c>
-      <c r="E33" s="48" t="s">
+      <c r="B54" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="18">
+        <v>5529648490</v>
+      </c>
+      <c r="H54" s="61" t="s">
+        <v>150</v>
+      </c>
+      <c r="I54" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36">
         <v>22</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="B55" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E55" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="18">
+        <v>4777923458</v>
+      </c>
+      <c r="H55" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="I55" s="61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="36">
         <v>23</v>
       </c>
-      <c r="G33" s="47" t="s">
+      <c r="B56" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="D56" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="G56" s="18">
+        <v>8131383392</v>
+      </c>
+      <c r="H56" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="I56" s="61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36">
         <v>24</v>
       </c>
-      <c r="H33" s="47" t="s">
+      <c r="B57" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="18">
+        <v>7226314665</v>
+      </c>
+      <c r="H57" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" s="61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36">
         <v>25</v>
       </c>
-      <c r="I33" s="87" t="s">
+      <c r="B58" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D58" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>92</v>
+      </c>
+      <c r="G58" s="18">
+        <v>5591640991</v>
+      </c>
+      <c r="H58" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="I58" s="61" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="36">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="49">
-        <v>1</v>
-      </c>
-      <c r="B34" s="41" t="s">
+      <c r="B59" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59" s="18">
+        <v>5530093311</v>
+      </c>
+      <c r="H59" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" s="61" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36">
         <v>27</v>
       </c>
-      <c r="C34" s="41" t="s">
+      <c r="B60" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="18">
+        <v>5713176645573</v>
+      </c>
+      <c r="H60" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="I60" s="61" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36">
+        <v>28</v>
+      </c>
+      <c r="B61" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="18">
+        <v>5561181043</v>
+      </c>
+      <c r="H61" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="I61" s="61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="36">
+        <v>29</v>
+      </c>
+      <c r="B62" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" s="18">
+        <v>9841798868</v>
+      </c>
+      <c r="H62" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" s="61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="36">
+        <v>30</v>
+      </c>
+      <c r="B63" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="G63" s="18">
+        <v>5529648490</v>
+      </c>
+      <c r="H63" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" s="63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36">
+        <v>31</v>
+      </c>
+      <c r="B64" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" s="18">
+        <v>5529319717</v>
+      </c>
+      <c r="H64" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="I64" s="61" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36">
+        <v>32</v>
+      </c>
+      <c r="B65" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C65" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="G65" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H65" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="I65" s="61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="36">
+        <v>33</v>
+      </c>
+      <c r="B66" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="18">
+        <v>5580462540</v>
+      </c>
+      <c r="H66" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="I66" s="61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="36">
+        <v>34</v>
+      </c>
+      <c r="B67" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" s="18">
+        <v>5541403273</v>
+      </c>
+      <c r="H67" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="I67" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="D34" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="21">
-        <v>2721304688</v>
-      </c>
-      <c r="H34" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="88" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="49">
-        <v>2</v>
-      </c>
-      <c r="B35" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="41" t="s">
-        <v>129</v>
-      </c>
-      <c r="G35" s="21">
-        <v>5566918544</v>
-      </c>
-      <c r="H35" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" s="88" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="49">
-        <v>4</v>
-      </c>
-      <c r="B36" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="G36" s="21">
-        <v>5513332038</v>
-      </c>
-      <c r="H36" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I36" s="88" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49">
-        <v>6</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F37" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="21">
-        <v>5537335686</v>
-      </c>
-      <c r="H37" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="I37" s="88" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="49">
-        <v>7</v>
-      </c>
-      <c r="B38" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C38" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="41" t="s">
+    </row>
+    <row r="68" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36">
+        <v>35</v>
+      </c>
+      <c r="B68" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="G38" s="21">
-        <v>13053002449</v>
-      </c>
-      <c r="H38" s="41" t="s">
+      <c r="D68" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="I38" s="88" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="49">
-        <v>8</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="G39" s="21">
-        <v>5554362266</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="I39" s="88" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="49">
-        <v>9</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" s="21">
-        <v>5512959671</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="I40" s="89" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="49">
-        <v>10</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="E41" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="G41" s="21">
-        <v>5616517860</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I41" s="89" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="49">
-        <v>11</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E42" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="G42" s="21">
-        <v>5525664279</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="88" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="49">
-        <v>12</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" s="21">
-        <v>6278895497</v>
-      </c>
-      <c r="H43" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="I43" s="88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="49">
-        <v>13</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G44" s="21">
-        <v>5554510750</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" s="88" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49">
-        <v>14</v>
-      </c>
-      <c r="B45" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G45" s="21">
-        <v>5538882161</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" s="88" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="49">
-        <v>15</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" s="21">
-        <v>5519181664</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="I46" s="88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="49">
-        <v>16</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D47" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="G47" s="21">
-        <v>5532371509</v>
-      </c>
-      <c r="H47" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="I47" s="88" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="49">
-        <v>17</v>
-      </c>
-      <c r="B48" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="41" t="s">
-        <v>64</v>
-      </c>
-      <c r="G48" s="21">
-        <v>4428679984</v>
-      </c>
-      <c r="H48" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="I48" s="88" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="49">
-        <v>18</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="D49" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49" s="41" t="s">
-        <v>126</v>
-      </c>
-      <c r="G49" s="21">
-        <v>5428800960</v>
-      </c>
-      <c r="H49" s="41" t="s">
-        <v>127</v>
-      </c>
-      <c r="I49" s="88" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="49">
-        <v>19</v>
-      </c>
-      <c r="B50" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="41" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="G50" s="21">
-        <v>3204565208</v>
-      </c>
-      <c r="H50" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="I50" s="88" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="49">
-        <v>20</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E51" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F51" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="G51" s="21">
-        <v>5535900560</v>
-      </c>
-      <c r="H51" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="I51" s="88" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="49">
-        <v>21</v>
-      </c>
-      <c r="B52" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="D52" s="23" t="s">
+      <c r="G68" s="18">
+        <v>5520658608</v>
+      </c>
+      <c r="H68" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I68" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="E52" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="G52" s="21">
-        <v>5534777550</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" s="90" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="49">
-        <v>22</v>
-      </c>
-      <c r="B53" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C53" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="G53" s="21">
-        <v>7351794006</v>
-      </c>
-      <c r="H53" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" s="88" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="49">
-        <v>23</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C54" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E54" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="G54" s="21">
-        <v>7227452827</v>
-      </c>
-      <c r="H54" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="I54" s="88" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="49">
-        <v>24</v>
-      </c>
-      <c r="B55" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="21">
-        <v>5573294571</v>
-      </c>
-      <c r="H55" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="I55" s="88" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="49">
-        <v>25</v>
-      </c>
-      <c r="B56" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" s="21">
-        <v>5537704708</v>
-      </c>
-      <c r="H56" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="I56" s="88" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="49">
-        <v>26</v>
-      </c>
-      <c r="B57" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="21">
-        <v>2294759348</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="I57" s="88" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="49">
-        <v>27</v>
-      </c>
-      <c r="B58" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E58" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="41" t="s">
-        <v>61</v>
-      </c>
-      <c r="G58" s="21">
-        <v>5554000415</v>
-      </c>
-      <c r="H58" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="I58" s="88" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="49">
-        <v>28</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="E59" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="G59" s="21">
-        <v>5540758182</v>
-      </c>
-      <c r="H59" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="I59" s="88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="49">
-        <v>29</v>
-      </c>
-      <c r="B60" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E60" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F60" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="G60" s="21">
-        <v>6643031544</v>
-      </c>
-      <c r="H60" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="I60" s="88" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="49">
-        <v>30</v>
-      </c>
-      <c r="B61" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="G61" s="21">
-        <v>5567894322</v>
-      </c>
-      <c r="H61" s="41" t="s">
-        <v>134</v>
-      </c>
-      <c r="I61" s="88" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="49">
-        <v>31</v>
-      </c>
-      <c r="B62" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D62" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="G62" s="21">
-        <v>2222129608</v>
-      </c>
-      <c r="H62" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="I62" s="88" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="49">
-        <v>32</v>
-      </c>
-      <c r="B63" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E63" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="G63" s="21">
-        <v>5587953360</v>
-      </c>
-      <c r="H63" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="I63" s="88" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="50">
-        <v>33</v>
-      </c>
-      <c r="B64" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D64" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E64" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="G64" s="21">
-        <v>8446098519</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="I64" s="88" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-    </row>
-    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="54"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-    </row>
-    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-    </row>
-    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="4"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-    </row>
-    <row r="69" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
-      <c r="I70" s="58"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="C71" s="60"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="14"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
     </row>
     <row r="72" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="14"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="73"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
     </row>
     <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="63"/>
-      <c r="E73" s="63"/>
-      <c r="F73" s="63"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="14"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="73"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="67" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" s="69"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="72"/>
-      <c r="H74" s="73"/>
-      <c r="I74" s="74"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" s="68" t="s">
-        <v>151</v>
-      </c>
-      <c r="D75" s="69"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="72"/>
-      <c r="H75" s="73"/>
-      <c r="I75" s="74"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="67" t="s">
-        <v>32</v>
-      </c>
-      <c r="C76" s="68" t="s">
-        <v>152</v>
-      </c>
-      <c r="D76" s="69"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="71"/>
-      <c r="G76" s="72"/>
-      <c r="H76" s="73"/>
-      <c r="I76" s="74"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="67" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="D77" s="69"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70"/>
-      <c r="G77" s="75"/>
-      <c r="H77" s="76"/>
-      <c r="I77" s="77"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="73"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="78"/>
-      <c r="H78" s="78"/>
-      <c r="I78" s="5"/>
+      <c r="B78" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="39"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="70"/>
+      <c r="I78" s="12"/>
     </row>
     <row r="79" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="B79" s="40"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="70"/>
+      <c r="I79" s="12"/>
     </row>
     <row r="80" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="43"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
+      <c r="H80" s="71"/>
+      <c r="I80" s="12"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="4"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="44" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="46"/>
+      <c r="E81" s="78"/>
+      <c r="F81" s="47"/>
+      <c r="G81" s="47"/>
+      <c r="H81" s="72"/>
+      <c r="I81" s="48"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="4"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C82" s="45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="46"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="47"/>
+      <c r="G82" s="47"/>
+      <c r="H82" s="72"/>
+      <c r="I82" s="48"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="4"/>
-      <c r="B83" s="80" t="s">
-        <v>154</v>
-      </c>
-      <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="46"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="47"/>
+      <c r="G83" s="47"/>
+      <c r="H83" s="72"/>
+      <c r="I83" s="48"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="4"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="16"/>
+      <c r="B84" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="C84" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="D84" s="46"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="49"/>
+      <c r="H84" s="50"/>
+      <c r="I84" s="51"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="6"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
@@ -3939,7 +3998,7 @@
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="8"/>
+      <c r="F86" s="73"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
@@ -3950,7 +4009,7 @@
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="8"/>
+      <c r="F87" s="73"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
@@ -3961,7 +4020,7 @@
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="8"/>
+      <c r="F88" s="73"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
       <c r="I88" s="5"/>
@@ -3972,18 +4031,20 @@
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="8"/>
+      <c r="F89" s="73"/>
       <c r="G89" s="5"/>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="5"/>
+      <c r="B90" s="52" t="s">
+        <v>172</v>
+      </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="8"/>
+      <c r="F90" s="73"/>
       <c r="G90" s="5"/>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
@@ -3994,21 +4055,21 @@
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="8"/>
+      <c r="F91" s="73"/>
       <c r="G91" s="5"/>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="5"/>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
@@ -4016,7 +4077,7 @@
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="8"/>
+      <c r="F93" s="73"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
@@ -4027,7 +4088,7 @@
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
-      <c r="F94" s="8"/>
+      <c r="F94" s="73"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
@@ -4038,7 +4099,7 @@
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="8"/>
+      <c r="F95" s="73"/>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
@@ -4049,7 +4110,7 @@
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="8"/>
+      <c r="F96" s="73"/>
       <c r="G96" s="5"/>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
@@ -4060,7 +4121,7 @@
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="8"/>
+      <c r="F97" s="73"/>
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
@@ -4071,7 +4132,7 @@
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="8"/>
+      <c r="F98" s="73"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
@@ -4082,7 +4143,7 @@
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="8"/>
+      <c r="F99" s="73"/>
       <c r="G99" s="5"/>
       <c r="H99" s="5"/>
       <c r="I99" s="5"/>
@@ -4093,7 +4154,7 @@
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="8"/>
+      <c r="F100" s="73"/>
       <c r="G100" s="5"/>
       <c r="H100" s="5"/>
       <c r="I100" s="5"/>
@@ -4104,7 +4165,7 @@
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="8"/>
+      <c r="F101" s="73"/>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
@@ -4115,7 +4176,7 @@
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="8"/>
+      <c r="F102" s="73"/>
       <c r="G102" s="5"/>
       <c r="H102" s="5"/>
       <c r="I102" s="5"/>
@@ -4126,7 +4187,7 @@
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="8"/>
+      <c r="F103" s="73"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
@@ -4137,7 +4198,7 @@
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="8"/>
+      <c r="F104" s="73"/>
       <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
@@ -4148,7 +4209,7 @@
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
-      <c r="F105" s="8"/>
+      <c r="F105" s="73"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
       <c r="I105" s="5"/>
@@ -4159,7 +4220,7 @@
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
-      <c r="F106" s="8"/>
+      <c r="F106" s="73"/>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
       <c r="I106" s="5"/>
@@ -4170,7 +4231,7 @@
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
-      <c r="F107" s="8"/>
+      <c r="F107" s="73"/>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
       <c r="I107" s="5"/>
@@ -4181,7 +4242,7 @@
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
-      <c r="F108" s="8"/>
+      <c r="F108" s="73"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
       <c r="I108" s="5"/>
@@ -4192,7 +4253,7 @@
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
-      <c r="F109" s="8"/>
+      <c r="F109" s="73"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
@@ -4203,7 +4264,7 @@
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
-      <c r="F110" s="8"/>
+      <c r="F110" s="73"/>
       <c r="G110" s="5"/>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
@@ -4214,7 +4275,7 @@
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
-      <c r="F111" s="8"/>
+      <c r="F111" s="73"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
@@ -4225,7 +4286,7 @@
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
-      <c r="F112" s="8"/>
+      <c r="F112" s="73"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
@@ -4236,7 +4297,7 @@
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
-      <c r="F113" s="8"/>
+      <c r="F113" s="73"/>
       <c r="G113" s="5"/>
       <c r="H113" s="5"/>
       <c r="I113" s="5"/>
@@ -4247,7 +4308,7 @@
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
-      <c r="F114" s="8"/>
+      <c r="F114" s="73"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
       <c r="I114" s="5"/>
@@ -4258,7 +4319,7 @@
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="73"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
@@ -4269,7 +4330,7 @@
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
-      <c r="F116" s="8"/>
+      <c r="F116" s="73"/>
       <c r="G116" s="5"/>
       <c r="H116" s="5"/>
       <c r="I116" s="5"/>
@@ -4280,7 +4341,7 @@
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
-      <c r="F117" s="8"/>
+      <c r="F117" s="73"/>
       <c r="G117" s="5"/>
       <c r="H117" s="5"/>
       <c r="I117" s="5"/>
@@ -4291,7 +4352,7 @@
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="8"/>
+      <c r="F118" s="73"/>
       <c r="G118" s="5"/>
       <c r="H118" s="5"/>
       <c r="I118" s="5"/>
@@ -4302,7 +4363,7 @@
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="8"/>
+      <c r="F119" s="73"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
       <c r="I119" s="5"/>
@@ -4313,7 +4374,7 @@
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="8"/>
+      <c r="F120" s="73"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
       <c r="I120" s="5"/>
@@ -4324,7 +4385,7 @@
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="8"/>
+      <c r="F121" s="73"/>
       <c r="G121" s="5"/>
       <c r="H121" s="5"/>
       <c r="I121" s="5"/>
@@ -4335,7 +4396,7 @@
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
-      <c r="F122" s="8"/>
+      <c r="F122" s="73"/>
       <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
@@ -4346,7 +4407,7 @@
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
-      <c r="F123" s="8"/>
+      <c r="F123" s="73"/>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
       <c r="I123" s="5"/>
@@ -4357,7 +4418,7 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="8"/>
+      <c r="F124" s="73"/>
       <c r="G124" s="5"/>
       <c r="H124" s="5"/>
       <c r="I124" s="5"/>
@@ -4368,7 +4429,7 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="8"/>
+      <c r="F125" s="73"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
       <c r="I125" s="5"/>
@@ -4379,7 +4440,7 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="8"/>
+      <c r="F126" s="73"/>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
@@ -4390,7 +4451,7 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="8"/>
+      <c r="F127" s="73"/>
       <c r="G127" s="5"/>
       <c r="H127" s="5"/>
       <c r="I127" s="5"/>
@@ -4401,7 +4462,7 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="8"/>
+      <c r="F128" s="73"/>
       <c r="G128" s="5"/>
       <c r="H128" s="5"/>
       <c r="I128" s="5"/>
@@ -4412,7 +4473,7 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="8"/>
+      <c r="F129" s="73"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
@@ -4423,7 +4484,7 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="8"/>
+      <c r="F130" s="73"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
@@ -4434,7 +4495,7 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="8"/>
+      <c r="F131" s="73"/>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
@@ -4445,7 +4506,7 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="8"/>
+      <c r="F132" s="73"/>
       <c r="G132" s="5"/>
       <c r="H132" s="5"/>
       <c r="I132" s="5"/>
@@ -4456,7 +4517,7 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="8"/>
+      <c r="F133" s="73"/>
       <c r="G133" s="5"/>
       <c r="H133" s="5"/>
       <c r="I133" s="5"/>
@@ -4467,7 +4528,7 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="8"/>
+      <c r="F134" s="73"/>
       <c r="G134" s="5"/>
       <c r="H134" s="5"/>
       <c r="I134" s="5"/>
@@ -4478,7 +4539,7 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="8"/>
+      <c r="F135" s="73"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
       <c r="I135" s="5"/>
@@ -4489,7 +4550,7 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="8"/>
+      <c r="F136" s="73"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
@@ -4500,7 +4561,7 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="8"/>
+      <c r="F137" s="73"/>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
@@ -4511,7 +4572,7 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="8"/>
+      <c r="F138" s="73"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
@@ -4522,7 +4583,7 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="8"/>
+      <c r="F139" s="73"/>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
@@ -4533,7 +4594,7 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="8"/>
+      <c r="F140" s="73"/>
       <c r="G140" s="5"/>
       <c r="H140" s="5"/>
       <c r="I140" s="5"/>
@@ -4544,7 +4605,7 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="8"/>
+      <c r="F141" s="73"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
       <c r="I141" s="5"/>
@@ -4555,7 +4616,7 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="8"/>
+      <c r="F142" s="73"/>
       <c r="G142" s="5"/>
       <c r="H142" s="5"/>
       <c r="I142" s="5"/>
@@ -4566,7 +4627,7 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="8"/>
+      <c r="F143" s="73"/>
       <c r="G143" s="5"/>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
@@ -4577,7 +4638,7 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="8"/>
+      <c r="F144" s="73"/>
       <c r="G144" s="5"/>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
@@ -4588,7 +4649,7 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="8"/>
+      <c r="F145" s="73"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
@@ -4599,7 +4660,7 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="8"/>
+      <c r="F146" s="73"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
       <c r="I146" s="5"/>
@@ -4610,7 +4671,7 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="8"/>
+      <c r="F147" s="73"/>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
@@ -4621,7 +4682,7 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="8"/>
+      <c r="F148" s="73"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
       <c r="I148" s="5"/>
@@ -4632,7 +4693,7 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="8"/>
+      <c r="F149" s="73"/>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
       <c r="I149" s="5"/>
@@ -4643,7 +4704,7 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="8"/>
+      <c r="F150" s="73"/>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
       <c r="I150" s="5"/>
@@ -4654,7 +4715,7 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="8"/>
+      <c r="F151" s="73"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
       <c r="I151" s="5"/>
@@ -4665,7 +4726,7 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="8"/>
+      <c r="F152" s="73"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
@@ -4676,7 +4737,7 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-      <c r="F153" s="8"/>
+      <c r="F153" s="73"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
@@ -4687,7 +4748,7 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="F154" s="8"/>
+      <c r="F154" s="73"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
@@ -4698,7 +4759,7 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-      <c r="F155" s="8"/>
+      <c r="F155" s="73"/>
       <c r="G155" s="5"/>
       <c r="H155" s="5"/>
       <c r="I155" s="5"/>
@@ -4709,7 +4770,7 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
-      <c r="F156" s="8"/>
+      <c r="F156" s="73"/>
       <c r="G156" s="5"/>
       <c r="H156" s="5"/>
       <c r="I156" s="5"/>
@@ -4720,7 +4781,7 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
-      <c r="F157" s="8"/>
+      <c r="F157" s="73"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
       <c r="I157" s="5"/>
@@ -4731,7 +4792,7 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="8"/>
+      <c r="F158" s="73"/>
       <c r="G158" s="5"/>
       <c r="H158" s="5"/>
       <c r="I158" s="5"/>
@@ -4742,7 +4803,7 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
-      <c r="F159" s="8"/>
+      <c r="F159" s="73"/>
       <c r="G159" s="5"/>
       <c r="H159" s="5"/>
       <c r="I159" s="5"/>
@@ -4753,7 +4814,7 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="8"/>
+      <c r="F160" s="73"/>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
@@ -4764,7 +4825,7 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="8"/>
+      <c r="F161" s="73"/>
       <c r="G161" s="5"/>
       <c r="H161" s="5"/>
       <c r="I161" s="5"/>
@@ -4775,7 +4836,7 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
-      <c r="F162" s="8"/>
+      <c r="F162" s="73"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
@@ -4786,7 +4847,7 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="8"/>
+      <c r="F163" s="73"/>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
@@ -4797,7 +4858,7 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
-      <c r="F164" s="8"/>
+      <c r="F164" s="73"/>
       <c r="G164" s="5"/>
       <c r="H164" s="5"/>
       <c r="I164" s="5"/>
@@ -4808,7 +4869,7 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
-      <c r="F165" s="8"/>
+      <c r="F165" s="73"/>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
@@ -4819,7 +4880,7 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
-      <c r="F166" s="8"/>
+      <c r="F166" s="73"/>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
@@ -4830,7 +4891,7 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
-      <c r="F167" s="8"/>
+      <c r="F167" s="73"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
@@ -4841,7 +4902,7 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-      <c r="F168" s="8"/>
+      <c r="F168" s="73"/>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
@@ -4852,7 +4913,7 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
-      <c r="F169" s="8"/>
+      <c r="F169" s="73"/>
       <c r="G169" s="5"/>
       <c r="H169" s="5"/>
       <c r="I169" s="5"/>
@@ -4863,7 +4924,7 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
-      <c r="F170" s="8"/>
+      <c r="F170" s="73"/>
       <c r="G170" s="5"/>
       <c r="H170" s="5"/>
       <c r="I170" s="5"/>
@@ -4874,7 +4935,7 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
-      <c r="F171" s="8"/>
+      <c r="F171" s="73"/>
       <c r="G171" s="5"/>
       <c r="H171" s="5"/>
       <c r="I171" s="5"/>
@@ -4885,7 +4946,7 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="8"/>
+      <c r="F172" s="73"/>
       <c r="G172" s="5"/>
       <c r="H172" s="5"/>
       <c r="I172" s="5"/>
@@ -4896,7 +4957,7 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
-      <c r="F173" s="8"/>
+      <c r="F173" s="73"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
@@ -4907,7 +4968,7 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
-      <c r="F174" s="8"/>
+      <c r="F174" s="73"/>
       <c r="G174" s="5"/>
       <c r="H174" s="5"/>
       <c r="I174" s="5"/>
@@ -4918,7 +4979,7 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
-      <c r="F175" s="8"/>
+      <c r="F175" s="73"/>
       <c r="G175" s="5"/>
       <c r="H175" s="5"/>
       <c r="I175" s="5"/>
@@ -4929,7 +4990,7 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
-      <c r="F176" s="8"/>
+      <c r="F176" s="73"/>
       <c r="G176" s="5"/>
       <c r="H176" s="5"/>
       <c r="I176" s="5"/>
@@ -4940,7 +5001,7 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
-      <c r="F177" s="8"/>
+      <c r="F177" s="73"/>
       <c r="G177" s="5"/>
       <c r="H177" s="5"/>
       <c r="I177" s="5"/>
@@ -4951,7 +5012,7 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
-      <c r="F178" s="8"/>
+      <c r="F178" s="73"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
       <c r="I178" s="5"/>
@@ -4962,7 +5023,7 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
-      <c r="F179" s="8"/>
+      <c r="F179" s="73"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
       <c r="I179" s="5"/>
@@ -4973,7 +5034,7 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
-      <c r="F180" s="8"/>
+      <c r="F180" s="73"/>
       <c r="G180" s="5"/>
       <c r="H180" s="5"/>
       <c r="I180" s="5"/>
@@ -4984,7 +5045,7 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
-      <c r="F181" s="8"/>
+      <c r="F181" s="73"/>
       <c r="G181" s="5"/>
       <c r="H181" s="5"/>
       <c r="I181" s="5"/>
@@ -4995,7 +5056,7 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
-      <c r="F182" s="8"/>
+      <c r="F182" s="73"/>
       <c r="G182" s="5"/>
       <c r="H182" s="5"/>
       <c r="I182" s="5"/>
@@ -5006,7 +5067,7 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
-      <c r="F183" s="8"/>
+      <c r="F183" s="73"/>
       <c r="G183" s="5"/>
       <c r="H183" s="5"/>
       <c r="I183" s="5"/>
@@ -5017,7 +5078,7 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="8"/>
+      <c r="F184" s="73"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
       <c r="I184" s="5"/>
@@ -5028,7 +5089,7 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
-      <c r="F185" s="8"/>
+      <c r="F185" s="73"/>
       <c r="G185" s="5"/>
       <c r="H185" s="5"/>
       <c r="I185" s="5"/>
@@ -5039,7 +5100,7 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
-      <c r="F186" s="8"/>
+      <c r="F186" s="73"/>
       <c r="G186" s="5"/>
       <c r="H186" s="5"/>
       <c r="I186" s="5"/>
@@ -5050,7 +5111,7 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
-      <c r="F187" s="8"/>
+      <c r="F187" s="73"/>
       <c r="G187" s="5"/>
       <c r="H187" s="5"/>
       <c r="I187" s="5"/>
@@ -5061,7 +5122,7 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
-      <c r="F188" s="8"/>
+      <c r="F188" s="73"/>
       <c r="G188" s="5"/>
       <c r="H188" s="5"/>
       <c r="I188" s="5"/>
@@ -5072,7 +5133,7 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
-      <c r="F189" s="8"/>
+      <c r="F189" s="73"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
       <c r="I189" s="5"/>
@@ -5083,7 +5144,7 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
-      <c r="F190" s="8"/>
+      <c r="F190" s="73"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
       <c r="I190" s="5"/>
@@ -5094,7 +5155,7 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
-      <c r="F191" s="8"/>
+      <c r="F191" s="73"/>
       <c r="G191" s="5"/>
       <c r="H191" s="5"/>
       <c r="I191" s="5"/>
@@ -5105,7 +5166,7 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
-      <c r="F192" s="8"/>
+      <c r="F192" s="73"/>
       <c r="G192" s="5"/>
       <c r="H192" s="5"/>
       <c r="I192" s="5"/>
@@ -5116,7 +5177,7 @@
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
-      <c r="F193" s="8"/>
+      <c r="F193" s="73"/>
       <c r="G193" s="5"/>
       <c r="H193" s="5"/>
       <c r="I193" s="5"/>
@@ -5127,7 +5188,7 @@
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
-      <c r="F194" s="8"/>
+      <c r="F194" s="73"/>
       <c r="G194" s="5"/>
       <c r="H194" s="5"/>
       <c r="I194" s="5"/>
@@ -5138,7 +5199,7 @@
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
-      <c r="F195" s="8"/>
+      <c r="F195" s="73"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
       <c r="I195" s="5"/>
@@ -5149,7 +5210,7 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
-      <c r="F196" s="8"/>
+      <c r="F196" s="73"/>
       <c r="G196" s="5"/>
       <c r="H196" s="5"/>
       <c r="I196" s="5"/>
@@ -5160,7 +5221,7 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
-      <c r="F197" s="8"/>
+      <c r="F197" s="73"/>
       <c r="G197" s="5"/>
       <c r="H197" s="5"/>
       <c r="I197" s="5"/>
@@ -5171,7 +5232,7 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
-      <c r="F198" s="8"/>
+      <c r="F198" s="73"/>
       <c r="G198" s="5"/>
       <c r="H198" s="5"/>
       <c r="I198" s="5"/>
@@ -5182,7 +5243,7 @@
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
-      <c r="F199" s="8"/>
+      <c r="F199" s="73"/>
       <c r="G199" s="5"/>
       <c r="H199" s="5"/>
       <c r="I199" s="5"/>
@@ -5193,7 +5254,7 @@
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
-      <c r="F200" s="8"/>
+      <c r="F200" s="73"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
       <c r="I200" s="5"/>
@@ -5204,7 +5265,7 @@
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
-      <c r="F201" s="8"/>
+      <c r="F201" s="73"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
       <c r="I201" s="5"/>
@@ -5215,7 +5276,7 @@
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
-      <c r="F202" s="8"/>
+      <c r="F202" s="73"/>
       <c r="G202" s="5"/>
       <c r="H202" s="5"/>
       <c r="I202" s="5"/>
@@ -5226,7 +5287,7 @@
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
-      <c r="F203" s="8"/>
+      <c r="F203" s="73"/>
       <c r="G203" s="5"/>
       <c r="H203" s="5"/>
       <c r="I203" s="5"/>
@@ -5237,7 +5298,7 @@
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
-      <c r="F204" s="8"/>
+      <c r="F204" s="73"/>
       <c r="G204" s="5"/>
       <c r="H204" s="5"/>
       <c r="I204" s="5"/>
@@ -5248,7 +5309,7 @@
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
-      <c r="F205" s="8"/>
+      <c r="F205" s="73"/>
       <c r="G205" s="5"/>
       <c r="H205" s="5"/>
       <c r="I205" s="5"/>
@@ -5259,7 +5320,7 @@
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
-      <c r="F206" s="8"/>
+      <c r="F206" s="73"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
       <c r="I206" s="5"/>
@@ -5270,7 +5331,7 @@
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
-      <c r="F207" s="8"/>
+      <c r="F207" s="73"/>
       <c r="G207" s="5"/>
       <c r="H207" s="5"/>
       <c r="I207" s="5"/>
@@ -5281,7 +5342,7 @@
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
-      <c r="F208" s="8"/>
+      <c r="F208" s="73"/>
       <c r="G208" s="5"/>
       <c r="H208" s="5"/>
       <c r="I208" s="5"/>
@@ -5292,7 +5353,7 @@
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
-      <c r="F209" s="8"/>
+      <c r="F209" s="73"/>
       <c r="G209" s="5"/>
       <c r="H209" s="5"/>
       <c r="I209" s="5"/>
@@ -5303,7 +5364,7 @@
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
-      <c r="F210" s="8"/>
+      <c r="F210" s="73"/>
       <c r="G210" s="5"/>
       <c r="H210" s="5"/>
       <c r="I210" s="5"/>
@@ -5314,7 +5375,7 @@
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
-      <c r="F211" s="8"/>
+      <c r="F211" s="73"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
       <c r="I211" s="5"/>
@@ -5325,7 +5386,7 @@
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
-      <c r="F212" s="8"/>
+      <c r="F212" s="73"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
       <c r="I212" s="5"/>
@@ -5336,7 +5397,7 @@
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
-      <c r="F213" s="8"/>
+      <c r="F213" s="73"/>
       <c r="G213" s="5"/>
       <c r="H213" s="5"/>
       <c r="I213" s="5"/>
@@ -5347,7 +5408,7 @@
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
-      <c r="F214" s="8"/>
+      <c r="F214" s="73"/>
       <c r="G214" s="5"/>
       <c r="H214" s="5"/>
       <c r="I214" s="5"/>
@@ -5358,7 +5419,7 @@
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
-      <c r="F215" s="8"/>
+      <c r="F215" s="73"/>
       <c r="G215" s="5"/>
       <c r="H215" s="5"/>
       <c r="I215" s="5"/>
@@ -5369,7 +5430,7 @@
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
-      <c r="F216" s="8"/>
+      <c r="F216" s="73"/>
       <c r="G216" s="5"/>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
@@ -5380,7 +5441,7 @@
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
-      <c r="F217" s="8"/>
+      <c r="F217" s="73"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
       <c r="I217" s="5"/>
@@ -5391,7 +5452,7 @@
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
-      <c r="F218" s="8"/>
+      <c r="F218" s="73"/>
       <c r="G218" s="5"/>
       <c r="H218" s="5"/>
       <c r="I218" s="5"/>
@@ -5402,7 +5463,7 @@
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
-      <c r="F219" s="8"/>
+      <c r="F219" s="73"/>
       <c r="G219" s="5"/>
       <c r="H219" s="5"/>
       <c r="I219" s="5"/>
@@ -5413,207 +5474,46 @@
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
-      <c r="F220" s="8"/>
+      <c r="F220" s="73"/>
       <c r="G220" s="5"/>
       <c r="H220" s="5"/>
       <c r="I220" s="5"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
-      <c r="F221" s="8"/>
+      <c r="F221" s="73"/>
       <c r="G221" s="5"/>
       <c r="H221" s="5"/>
       <c r="I221" s="5"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="4"/>
-      <c r="B222" s="5"/>
-      <c r="C222" s="5"/>
-      <c r="D222" s="5"/>
-      <c r="E222" s="5"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5"/>
-    </row>
-    <row r="223" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="4"/>
-      <c r="B223" s="5"/>
-      <c r="C223" s="5"/>
-      <c r="D223" s="5"/>
-      <c r="E223" s="5"/>
-      <c r="F223" s="8"/>
-      <c r="G223" s="5"/>
-      <c r="H223" s="5"/>
-      <c r="I223" s="5"/>
-    </row>
-    <row r="224" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="4"/>
-      <c r="B224" s="5"/>
-      <c r="C224" s="5"/>
-      <c r="D224" s="5"/>
-      <c r="E224" s="5"/>
-      <c r="F224" s="8"/>
-      <c r="G224" s="5"/>
-      <c r="H224" s="5"/>
-      <c r="I224" s="5"/>
-    </row>
-    <row r="225" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="4"/>
-      <c r="B225" s="5"/>
-      <c r="C225" s="5"/>
-      <c r="D225" s="5"/>
-      <c r="E225" s="5"/>
-      <c r="F225" s="8"/>
-      <c r="G225" s="5"/>
-      <c r="H225" s="5"/>
-      <c r="I225" s="5"/>
-    </row>
-    <row r="226" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="4"/>
-      <c r="B226" s="5"/>
-      <c r="C226" s="5"/>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="5"/>
-      <c r="H226" s="5"/>
-      <c r="I226" s="5"/>
-    </row>
-    <row r="227" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="4"/>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="8"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
-    </row>
-    <row r="228" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="4"/>
-      <c r="B228" s="5"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="5"/>
-      <c r="H228" s="5"/>
-      <c r="I228" s="5"/>
-    </row>
-    <row r="229" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="4"/>
-      <c r="B229" s="5"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="8"/>
-      <c r="G229" s="5"/>
-      <c r="H229" s="5"/>
-      <c r="I229" s="5"/>
-    </row>
-    <row r="230" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="4"/>
-      <c r="B230" s="5"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="5"/>
-      <c r="H230" s="5"/>
-      <c r="I230" s="5"/>
-    </row>
-    <row r="231" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="4"/>
-      <c r="B231" s="5"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="8"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-    </row>
-    <row r="232" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="4"/>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="5"/>
-      <c r="H232" s="5"/>
-      <c r="I232" s="5"/>
-    </row>
-    <row r="233" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="4"/>
-      <c r="B233" s="5"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="8"/>
-      <c r="G233" s="5"/>
-      <c r="H233" s="5"/>
-      <c r="I233" s="5"/>
-    </row>
-    <row r="234" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="4"/>
-      <c r="B234" s="5"/>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
-      <c r="F234" s="8"/>
-      <c r="G234" s="5"/>
-      <c r="H234" s="5"/>
-      <c r="I234" s="5"/>
-    </row>
-    <row r="235" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="4"/>
-      <c r="B235" s="5"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="8"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="5"/>
-    </row>
-    <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="4"/>
-      <c r="B236" s="5"/>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="8"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="5"/>
-    </row>
-    <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="81"/>
-      <c r="B237" s="82"/>
-      <c r="C237" s="82"/>
-      <c r="D237" s="82"/>
-      <c r="E237" s="82"/>
-      <c r="F237" s="83"/>
-      <c r="G237" s="82"/>
-      <c r="H237" s="82"/>
-      <c r="I237" s="82"/>
+    <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="53"/>
+      <c r="B222" s="54"/>
+      <c r="C222" s="54"/>
+      <c r="D222" s="54"/>
+      <c r="E222" s="54"/>
+      <c r="F222" s="80"/>
+      <c r="G222" s="54"/>
+      <c r="H222" s="54"/>
+      <c r="I222" s="54"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:A64">
-    <sortCondition ref="A34"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A34:I68">
+    <sortCondition ref="D34"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="F55" r:id="rId1" location="/perfil-prospecto/4ea124af-8d1c-47b6-b7b2-e6a9cbfa1e3a" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F57" r:id="rId2" location="/perfil-prospecto/5a93051d-a2ce-47c9-999e-7f1b11ba4944" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="80" orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/public/reports/Reporte_Avenue_Polanco.xlsx
+++ b/public/reports/Reporte_Avenue_Polanco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sergirams/Development/Kiper/backend/apikiper/public/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4BA59C-DA3C-5242-8BED-DA927C22471B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9A6EAC-43BB-BE41-9546-742B2432E475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="155">
   <si>
     <t>Reporte Oficina de Ventas</t>
   </si>
   <si>
-    <t>10 al 16 de Agosto</t>
+    <t>17 al 23 de Agosto</t>
   </si>
   <si>
     <t>Reporte Ejecutivo</t>
@@ -52,30 +52,42 @@
     <t>Facebook</t>
   </si>
   <si>
+    <t>Anuncios en Internet</t>
+  </si>
+  <si>
     <t>Belora Abadi Husny</t>
   </si>
   <si>
+    <t>Viva Anuncios</t>
+  </si>
+  <si>
+    <t>Jose Luis Vaca Ramos</t>
+  </si>
+  <si>
+    <t>Referido</t>
+  </si>
+  <si>
+    <t>Gerardo Campuzano Tirado</t>
+  </si>
+  <si>
+    <t>Pagina web</t>
+  </si>
+  <si>
+    <t>María Patricia Cotreras Rodríguez</t>
+  </si>
+  <si>
     <t>Google</t>
   </si>
   <si>
-    <t>Jose Luis Vaca Ramos</t>
-  </si>
-  <si>
-    <t>Referido</t>
-  </si>
-  <si>
-    <t>Gerardo Campuzano Tirado</t>
-  </si>
-  <si>
     <t>Lamudi</t>
   </si>
   <si>
-    <t>María Patricia Cotreras Rodríguez</t>
-  </si>
-  <si>
     <t>Detalle</t>
   </si>
   <si>
+    <t>Vallas</t>
+  </si>
+  <si>
     <t>Asesor</t>
   </si>
   <si>
@@ -100,158 +112,348 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>2020-08-16 14:20:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sin Nombre </t>
-  </si>
-  <si>
-    <t>+525535111163@phonecall.com</t>
-  </si>
-  <si>
-    <t>polanco</t>
-  </si>
-  <si>
-    <t>2020-08-16 13:45:10</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Judith Munguia Andres Isunza</t>
-  </si>
-  <si>
-    <t>jumunguia@yahoo.com.mx</t>
-  </si>
-  <si>
-    <t>Se llevan cotizaciones de 203A y GH02B</t>
-  </si>
-  <si>
-    <t>polanco  --  polanco</t>
-  </si>
-  <si>
-    <t>2020-08-16 10:42:15</t>
-  </si>
-  <si>
-    <t>José Luis Peruyero</t>
-  </si>
-  <si>
-    <t>5515938787@phonecall.com</t>
-  </si>
-  <si>
-    <t>Esposo de Lucía Matula, les envío Cotizaciones del 501C, 602C y 902C al whats de ella</t>
-  </si>
-  <si>
-    <t>avenue_polanco</t>
-  </si>
-  <si>
-    <t>2020-08-15 20:18:10</t>
+    <t>2020-08-23 08:27:29</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t xml:space="preserve">Brenda Herrera Escogido </t>
-  </si>
-  <si>
-    <t>brend3015@gmail.com</t>
-  </si>
-  <si>
-    <t>Entra buzón, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
+    <t>Joege Vazquez</t>
+  </si>
+  <si>
+    <t>jorgeomar13@hotmail.com</t>
+  </si>
+  <si>
+    <t>Le envío presentación por mail y por whats</t>
+  </si>
+  <si>
+    <t>avenue_polanco_2</t>
+  </si>
+  <si>
+    <t>2020-08-23 00:56:43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jhovanna P. </t>
+  </si>
+  <si>
+    <t>jhovannajimenez@icloud.com</t>
+  </si>
+  <si>
+    <t>Sin seguimiento.</t>
   </si>
   <si>
     <t>avenue_polanco  --  PR-PÁGINA WEB DEL DESARROLLO
 polanco_noviembre</t>
   </si>
   <si>
-    <t>2020-08-15 18:52:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gilberto Nava Hernández </t>
-  </si>
-  <si>
-    <t>gnavah93@hotmail.com</t>
+    <t>2020-08-22 17:32:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miguel Angel Camacho Castillejos </t>
+  </si>
+  <si>
+    <t>mike.camacho69@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-22 16:56:35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jorge Prezas </t>
+  </si>
+  <si>
+    <t>jorgeprezaspartners@gmail.com</t>
+  </si>
+  <si>
+    <t>Le envié presentación con cotizaciones por mail</t>
+  </si>
+  <si>
+    <t>2020-08-22 15:36:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Troncoso </t>
+  </si>
+  <si>
+    <t>juantroncoso@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail.</t>
+  </si>
+  <si>
+    <t>2020-08-22 13:28:35</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Deyanira Martinez</t>
+  </si>
+  <si>
+    <t>vive@bminmobiliaria.com</t>
+  </si>
+  <si>
+    <t>Esta vendiendo su casa y quiere ver si compra algo</t>
+  </si>
+  <si>
+    <t>PR-PÁGINA WEB DEL DESARROLLO
+polanco_noviembre</t>
+  </si>
+  <si>
+    <t>2020-08-21 15:59:35</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Enrique Alvarez Coronado</t>
+  </si>
+  <si>
+    <t>alvarex_k@hotmail.com</t>
+  </si>
+  <si>
+    <t>Busca algo en renta de 15 mil pesos, Quiere info de Nápoles para un amigo que puede comprar</t>
+  </si>
+  <si>
+    <t>Leads Polanco</t>
+  </si>
+  <si>
+    <t>2020-08-21 15:38:06</t>
+  </si>
+  <si>
+    <t>Arturo Hernandez</t>
+  </si>
+  <si>
+    <t>nodejomail@yahoo.com</t>
+  </si>
+  <si>
+    <t>Se le envía información por whats</t>
+  </si>
+  <si>
+    <t>polanco</t>
+  </si>
+  <si>
+    <t>2020-08-21 10:08:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silvestre Aguilar Sanchez </t>
+  </si>
+  <si>
+    <t>palmaderiveracubayende@outlook.com</t>
+  </si>
+  <si>
+    <t>El correo se regresa, le marco para dar seguimiento</t>
+  </si>
+  <si>
+    <t>2020-08-20 23:10:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Omar Ramírez Segura </t>
+  </si>
+  <si>
+    <t>omared0526@gmail.com</t>
+  </si>
+  <si>
+    <t>Correo de primer contacto enviado</t>
+  </si>
+  <si>
+    <t>2020-08-20 17:37:11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Guadalupe </t>
+  </si>
+  <si>
+    <t>lupitamazariego10@gmail.com</t>
+  </si>
+  <si>
+    <t>Entra buzón, se le envío mail de presentación y cotizaciones del 205B y 403C.</t>
+  </si>
+  <si>
+    <t>2020-08-20 17:01:29</t>
+  </si>
+  <si>
+    <t>Mariana Trejo</t>
+  </si>
+  <si>
+    <t>coordinacion@agravabr.com</t>
+  </si>
+  <si>
+    <t>Es corredora traerá Clientes para Polanco y Nápoles</t>
+  </si>
+  <si>
+    <t>2020-08-20 14:34:04</t>
+  </si>
+  <si>
+    <t>Consuelo Alvarez y Gustavo Vomend</t>
+  </si>
+  <si>
+    <t>gustavo.vomend@gmail.com</t>
+  </si>
+  <si>
+    <t>Son corredores se les envía presentación de Polanco y Nápoles, traerán clientes</t>
+  </si>
+  <si>
+    <t>2020-08-20 13:40:48</t>
+  </si>
+  <si>
+    <t>Jesus Valadez</t>
+  </si>
+  <si>
+    <t>5576632082@correo.com</t>
+  </si>
+  <si>
+    <t>Visita el desarrollo y le interesa tanto un GH o el PH 6A</t>
+  </si>
+  <si>
+    <t>2020-08-20 09:48:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adriana Simon Guevara </t>
+  </si>
+  <si>
+    <t>adriana.simon.guevara@gmail.com</t>
+  </si>
+  <si>
+    <t>2020-08-20 01:58:14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mariana More </t>
+  </si>
+  <si>
+    <t>mari_tridex@hotmail.com</t>
+  </si>
+  <si>
+    <t>Presupuesto bajo $3M</t>
+  </si>
+  <si>
+    <t>avenue_polanco</t>
+  </si>
+  <si>
+    <t>2020-08-19 23:34:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alejandro Guerrero </t>
+  </si>
+  <si>
+    <t>aguerrerocampos@gmail.com</t>
+  </si>
+  <si>
+    <t>Se le envía presentación por mail y por whats</t>
+  </si>
+  <si>
+    <t>2020-08-19 17:18:13</t>
+  </si>
+  <si>
+    <t>Mía Zhen</t>
+  </si>
+  <si>
+    <t>aimee_zhen@hotmail.com</t>
+  </si>
+  <si>
+    <t>Tiene presupuesto de 5 millones y quiere algo de 80m x el metro polanco</t>
+  </si>
+  <si>
+    <t>Leads Polanco  --  Leads Polanco  --  Leads Polanco</t>
+  </si>
+  <si>
+    <t>2020-08-19 11:57:10</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>greybeaumont95@gmail.com</t>
+  </si>
+  <si>
+    <t>Busca renta, estamos fuera de su presupuesto.</t>
+  </si>
+  <si>
+    <t>2020-08-19 11:52:35</t>
+  </si>
+  <si>
+    <t>Rafael Manzo</t>
+  </si>
+  <si>
+    <t>rafamanzo8@gmial.com</t>
+  </si>
+  <si>
+    <t>Busca en renta sin presupuesto para comprar</t>
+  </si>
+  <si>
+    <t>2020-08-18 15:55:41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin Nombre </t>
+  </si>
+  <si>
+    <t>+525555571491@phonecall.com</t>
+  </si>
+  <si>
+    <t>No solicitaron informacion</t>
+  </si>
+  <si>
+    <t>polanco  --  polanco</t>
+  </si>
+  <si>
+    <t>2020-08-18 15:52:19</t>
+  </si>
+  <si>
+    <t>Teresa Zamarripa</t>
+  </si>
+  <si>
+    <t>teresa@c21hh.com</t>
+  </si>
+  <si>
+    <t>Es corredora</t>
+  </si>
+  <si>
+    <t>2020-08-18 15:41:40</t>
+  </si>
+  <si>
+    <t>Jorge Manos</t>
+  </si>
+  <si>
+    <t>jorgemanos@hotmail.com</t>
   </si>
   <si>
     <t>Se envió correo desde Kiper.</t>
   </si>
   <si>
-    <t>2020-08-15 13:31:30</t>
-  </si>
-  <si>
-    <t>Iván Alejandro Almanza Islas</t>
-  </si>
-  <si>
-    <t>ivanza.islas@gmail.com</t>
-  </si>
-  <si>
-    <t>CORREO y WHAPP de primer contacto enviado</t>
-  </si>
-  <si>
-    <t>Leads Polanco</t>
-  </si>
-  <si>
-    <t>2020-08-15 13:29:04</t>
-  </si>
-  <si>
-    <t>Frida Valenzuela</t>
-  </si>
-  <si>
-    <t>fridavalenzuela@outlook.com</t>
-  </si>
-  <si>
-    <t>Agendó cita</t>
-  </si>
-  <si>
-    <t>2020-08-15 13:23:46</t>
-  </si>
-  <si>
-    <t>Roxana Romero Salinas</t>
-  </si>
-  <si>
-    <t>roxanneromerosalinas@gmail.com</t>
-  </si>
-  <si>
-    <t>No responde cel, envié informacion</t>
-  </si>
-  <si>
-    <t>2020-08-15 11:58:37</t>
-  </si>
-  <si>
-    <t>Sissy Belis</t>
-  </si>
-  <si>
-    <t>sissy.slbbienesraices@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-15 11:51:45</t>
-  </si>
-  <si>
-    <t>Sonia Martinez</t>
-  </si>
-  <si>
-    <t>sonia@propiedadesmx.com</t>
-  </si>
-  <si>
-    <t>Envie correo con información para sus prospectos</t>
-  </si>
-  <si>
-    <t>polanco  --  polanco  --  polanco  --  polanco</t>
-  </si>
-  <si>
-    <t>2020-08-15 10:49:25</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillermo De Alba </t>
-  </si>
-  <si>
-    <t>guillerdealba@gmail.com</t>
-  </si>
-  <si>
-    <t>Quiere RENTA pero baja</t>
+    <t>2020-08-18 15:37:05</t>
+  </si>
+  <si>
+    <t>Karol Vivanco</t>
+  </si>
+  <si>
+    <t>karolarvv222@gmail.com</t>
+  </si>
+  <si>
+    <t>Llamada de seguimiento</t>
+  </si>
+  <si>
+    <t>Leads Polanco  --  Leads Polanco</t>
+  </si>
+  <si>
+    <t>2020-08-17 19:08:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Rodríguez </t>
+  </si>
+  <si>
+    <t>davmexlau@hotmail.com</t>
+  </si>
+  <si>
+    <t>Envié correo con información general</t>
+  </si>
+  <si>
+    <t>2020-08-17 16:50:17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franyely González Gutiérrez </t>
+  </si>
+  <si>
+    <t>f.gonzalezgtz@outlook.com</t>
+  </si>
+  <si>
+    <t>Llamar hoy 3pm</t>
   </si>
   <si>
     <t>avenue_polanco  --  avenue_polanco  --  PR-PÁGINA WEB DEL DESARROLLO
@@ -259,405 +461,16 @@
 polanco_noviembre</t>
   </si>
   <si>
-    <t>2020-08-14 19:58:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucia Matula </t>
-  </si>
-  <si>
-    <t>lumatula@hotmail.com</t>
-  </si>
-  <si>
-    <t>Le envío cotizaciones del 501C, 602C y 902C</t>
-  </si>
-  <si>
-    <t>avenue_polanco  --  avenue_polanco</t>
-  </si>
-  <si>
-    <t>2020-08-14 16:08:44</t>
-  </si>
-  <si>
-    <t>Alendro Garza</t>
-  </si>
-  <si>
-    <t>ag.t73@hotmail.com</t>
-  </si>
-  <si>
-    <t>LLAMADA le interesa algo chico, pero no le alcanza. Le ofrecí Napoles pero no le gusta la zona</t>
-  </si>
-  <si>
-    <t>2020-08-14 15:53:19</t>
-  </si>
-  <si>
-    <t>Roberto Laneros</t>
-  </si>
-  <si>
-    <t>5586171710@phonecell.com</t>
-  </si>
-  <si>
-    <t>2020-08-14 14:16:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo Madrid </t>
-  </si>
-  <si>
-    <t>pablo.madridp@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-14 13:18:07</t>
-  </si>
-  <si>
-    <t>Claire Chevalier</t>
-  </si>
-  <si>
-    <t>claire2807@hotmail.com</t>
-  </si>
-  <si>
-    <t>VISITA quiere un PH pero algo arriba de 300 m, le parecieron muy reducidos en espacio habitable. El GH no lo quiere porque prefiere pisos altos donde no corra el riesgo de que alguien se meta. Le ofreci unir dos deptos, torre E y F en nivel 8</t>
-  </si>
-  <si>
-    <t>2020-08-14 12:49:47</t>
-  </si>
-  <si>
-    <t>Lucero Zazueta</t>
-  </si>
-  <si>
-    <t>lucero.zazueta@gmail.com</t>
-  </si>
-  <si>
-    <t>Se llevo cotizacion del 207B</t>
-  </si>
-  <si>
-    <t>2020-08-14 11:18:42</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>alex123delfin@gmail.com</t>
-  </si>
-  <si>
-    <t>Se le envía presentación por mail</t>
-  </si>
-  <si>
-    <t>2020-08-13 23:59:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saúl Sebastián Morales Ramos </t>
-  </si>
-  <si>
-    <t>saulmorales8011@gmail.com</t>
-  </si>
-  <si>
-    <t>COTIZACION 502E que va a revisar con su crédito para saber si es viable.</t>
-  </si>
-  <si>
-    <t>2020-08-13 23:25:47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osvaldo Marquez olvera </t>
-  </si>
-  <si>
-    <t>omarmago@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> COTIZACION 502E revisará su credito y me avisa la proxima semana</t>
-  </si>
-  <si>
-    <t>2020-08-13 22:34:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bertha molina </t>
-  </si>
-  <si>
-    <t>molinasrp_19938@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-13 21:40:56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regina </t>
-  </si>
-  <si>
-    <t>villalobosregina97@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-13 18:33:26</t>
-  </si>
-  <si>
-    <t>Mariana Borrego</t>
-  </si>
-  <si>
-    <t>marianaboagenty@gmail.com</t>
-  </si>
-  <si>
-    <t>Busca Renta</t>
-  </si>
-  <si>
-    <t>2020-08-13 12:53:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Angel Piñones </t>
-  </si>
-  <si>
-    <t>miguelpinones@618arquitectura.com</t>
-  </si>
-  <si>
-    <t>2020-08-13 11:57:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Barba </t>
-  </si>
-  <si>
-    <t>vmike6976@gmail.com</t>
-  </si>
-  <si>
-    <t>Quiere ofrecer sus servicios en portales para la comercialización. Envie los datos a Fran</t>
-  </si>
-  <si>
-    <t>avenue_polanco_2  --  avenue_polanco_2</t>
-  </si>
-  <si>
-    <t>2020-08-13 10:20:06</t>
-  </si>
-  <si>
-    <t>Patricia de Fatima Toledo Reyes</t>
-  </si>
-  <si>
-    <t>patricia.fatima.toledo@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-13 10:07:01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucia Garcia Leyto </t>
-  </si>
-  <si>
-    <t>lucygleyto@hotmal.com</t>
-  </si>
-  <si>
-    <t>2020-08-12 19:51:30</t>
-  </si>
-  <si>
-    <t>Nataly Ocampo</t>
-  </si>
-  <si>
-    <t>natalyocam@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-12 18:07:57</t>
-  </si>
-  <si>
-    <t>Consuelo Torres</t>
-  </si>
-  <si>
-    <t>consuelot92@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Se envió correo desde Kiper.</t>
-  </si>
-  <si>
-    <t>Leads Polanco  --  Leads Polanco</t>
-  </si>
-  <si>
-    <t>2020-08-12 17:14:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANDREA </t>
-  </si>
-  <si>
-    <t>tanalinda1974@gmail.com</t>
-  </si>
-  <si>
-    <t>Envié correo con información general.</t>
-  </si>
-  <si>
-    <t>2020-08-12 15:51:57</t>
-  </si>
-  <si>
-    <t>Fausto Daniel García</t>
-  </si>
-  <si>
-    <t>fdgn55@gmail.com</t>
-  </si>
-  <si>
-    <t>CORREO de seguimiento, no respondió que tipo de depto le interesa</t>
-  </si>
-  <si>
-    <t>Leads Polanco  --  Leads Polanco  --  Leads Polanco</t>
-  </si>
-  <si>
-    <t>2020-08-12 13:11:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Flores Preciado </t>
-  </si>
-  <si>
-    <t>jflores705@icloud.com</t>
-  </si>
-  <si>
-    <t>Dejó de contestar whatsapp después de saber el precio</t>
-  </si>
-  <si>
-    <t>2020-08-12 09:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zhayra yulithza alonso cardenas </t>
-  </si>
-  <si>
-    <t>zhayraalonso@gmail.com</t>
-  </si>
-  <si>
-    <t>Telefono incorrecto se le envía presentación por mail</t>
-  </si>
-  <si>
-    <t>2020-08-11 23:27:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alma Hernández </t>
-  </si>
-  <si>
-    <t>achmprom@gmail.com</t>
-  </si>
-  <si>
-    <t>WHAPP de seguimiento</t>
-  </si>
-  <si>
-    <t>2020-08-11 23:13:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zayne Jesús </t>
-  </si>
-  <si>
-    <t>zayndarkgrr@icloud.com</t>
-  </si>
-  <si>
-    <t>2020-08-11 20:48:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Rodríguez </t>
-  </si>
-  <si>
-    <t>seiya263@hotmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-11 16:31:19</t>
-  </si>
-  <si>
-    <t>Ruth Hemsani</t>
-  </si>
-  <si>
-    <t>ruth.hemsani@behaus.mx</t>
-  </si>
-  <si>
-    <t>Cita el jueves con Roberto Laneros, les gusto el 502E nueva cita el sabado</t>
-  </si>
-  <si>
-    <t>2020-08-11 15:41:48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marelvi Rangel </t>
-  </si>
-  <si>
-    <t>matelvir89@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-11 14:53:14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alma Lupita Barrera Ortiz </t>
-  </si>
-  <si>
-    <t>lupita.barrera1007@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-11 10:55:50</t>
-  </si>
-  <si>
-    <t>Daniel Carrillo</t>
-  </si>
-  <si>
-    <t>carrillodanielmx@gmail.com</t>
-  </si>
-  <si>
-    <t>Compartí por WHAPP el recorrido del depto muestra preguntandole si sigue interesado, espero su respuesta</t>
-  </si>
-  <si>
-    <t>2020-08-10 23:34:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario Pardo </t>
-  </si>
-  <si>
-    <t>mecatronicsk8@gmail.com</t>
-  </si>
-  <si>
-    <t>2020-08-10 18:18:46</t>
-  </si>
-  <si>
-    <t>Juan Pablo Zuñiga Azcarraga</t>
-  </si>
-  <si>
-    <t>jpablo4190@gmail.com</t>
-  </si>
-  <si>
-    <t>Vino a cita el 15 de agosto 2020 y presentó propuesta del Departamento 401F Av. Polanco a nombre de su Mamá Lorenza Azcarraga Romandía</t>
-  </si>
-  <si>
-    <t>2020-08-10 17:50:50</t>
-  </si>
-  <si>
-    <t>Frida Paulina Hernández Sánchez</t>
-  </si>
-  <si>
-    <t>fri_pau95@hotmail.com</t>
-  </si>
-  <si>
-    <t>Va a revisar información con su novio para agendar visita al Desarrollo.</t>
-  </si>
-  <si>
-    <t>2020-08-10 17:33:03</t>
-  </si>
-  <si>
-    <t>Nacim Fadl Fortoul</t>
-  </si>
-  <si>
-    <t>fadlfortoul@hotmail.com</t>
-  </si>
-  <si>
-    <t>Envie correo con cotizaciones del 301B, 602C y 801A</t>
-  </si>
-  <si>
-    <t>2020-08-10 17:30:16</t>
-  </si>
-  <si>
-    <t>Leon Welch</t>
-  </si>
-  <si>
-    <t>leonwelch999@yahoo.com</t>
-  </si>
-  <si>
-    <t>Envie cotizaciones del 301B y 602C 
-comenta que un departamento de 300m2 en vidalta esta en 11,500,000
-que estamos altos en precio</t>
-  </si>
-  <si>
-    <t>2020-08-10 10:31:51</t>
-  </si>
-  <si>
-    <t>Ana Rocio Hernandez</t>
-  </si>
-  <si>
-    <t>anarocio.hs@gmail.com</t>
-  </si>
-  <si>
-    <t>VISITA con cita y le gusta el 801A y el 301B</t>
-  </si>
-  <si>
-    <t>avenue_polanco  --  avenue_polanco  --  avenue_polanco</t>
-  </si>
-  <si>
-    <t>Código de clasificación</t>
+    <t>2020-08-17 08:35:37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfonso Figueroa </t>
+  </si>
+  <si>
+    <t>ausfigs@yahoo.com.au</t>
+  </si>
+  <si>
+    <t>Le envío información por mail y por whats</t>
   </si>
   <si>
     <t>A</t>
@@ -676,24 +489,6 @@
   </si>
   <si>
     <t xml:space="preserve">Report Powered by KIPER </t>
-  </si>
-  <si>
-    <t>Broker</t>
-  </si>
-  <si>
-    <t>Vallas</t>
-  </si>
-  <si>
-    <t>Página Web</t>
-  </si>
-  <si>
-    <t>Recorrido Virtual</t>
-  </si>
-  <si>
-    <t>Whatsapp</t>
-  </si>
-  <si>
-    <t>Sin seguimiento</t>
   </si>
 </sst>
 </file>
@@ -737,13 +532,13 @@
       <name val="Avenir Heavy"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color indexed="8"/>
       <name val="Avenir Book"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Avenir Book"/>
     </font>
   </fonts>
@@ -767,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -916,22 +711,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
@@ -943,32 +722,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="8"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -981,6 +741,17 @@
       <bottom style="thin">
         <color indexed="8"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1040,54 +811,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1127,85 +855,107 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1213,109 +963,37 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1411,8 +1089,8 @@
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2590800</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1456,14 +1134,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>825500</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>199967</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1308100</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>57</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1486,8 +1164,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1104899" y="24923750"/>
-          <a:ext cx="482601" cy="800158"/>
+          <a:off x="1104900" y="13754042"/>
+          <a:ext cx="482600" cy="800158"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1697,17 +1375,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1735,10 +1413,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1992,12 +1670,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2290,7 +1968,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2318,10 +1996,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2582,24 +2260,24 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J204"/>
+  <dimension ref="A1:J193"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="6" width="45" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="203" style="1" customWidth="1"/>
-    <col min="10" max="10" width="81.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="107.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="66.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
     <col min="12" max="16384" width="14.5" style="1"/>
   </cols>
@@ -2844,7 +2522,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="25">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D20" s="26"/>
       <c r="E20" s="24" t="s">
@@ -2852,47 +2530,47 @@
       </c>
       <c r="F20" s="27"/>
       <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
       <c r="E21" s="24" t="s">
         <v>5</v>
       </c>
       <c r="F21" s="25">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="32"/>
       <c r="E22" s="24" t="s">
         <v>6</v>
       </c>
       <c r="F22" s="25">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="32"/>
       <c r="E23" s="24" t="s">
         <v>7</v>
       </c>
@@ -2900,1809 +2578,1427 @@
         <v>6</v>
       </c>
       <c r="G23" s="28"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="6"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="37"/>
       <c r="F24" s="38"/>
       <c r="G24" s="39"/>
       <c r="H24" s="40"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="16"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="42">
-        <v>13</v>
+      <c r="C25" s="41">
+        <v>4</v>
       </c>
       <c r="D25" s="26"/>
       <c r="E25" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="103">
-        <v>2</v>
-      </c>
-      <c r="G25" s="101" t="s">
-        <v>218</v>
-      </c>
-      <c r="H25" s="104">
-        <v>7</v>
+      <c r="F25" s="25">
+        <v>5</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="25">
+        <v>1</v>
       </c>
       <c r="I25" s="43"/>
       <c r="J25" s="44"/>
     </row>
     <row r="26" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
-      <c r="B26" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="42">
-        <v>15</v>
+      <c r="B26" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="41">
+        <v>5</v>
       </c>
       <c r="D26" s="26"/>
       <c r="E26" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="103">
-        <v>20</v>
-      </c>
-      <c r="G26" s="101" t="s">
-        <v>221</v>
-      </c>
-      <c r="H26" s="105">
+        <v>12</v>
+      </c>
+      <c r="F26" s="25">
         <v>1</v>
       </c>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
-      <c r="B27" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="42">
-        <v>8</v>
+      <c r="B27" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="41">
+        <v>9</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" s="25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="28"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
-      <c r="B28" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="42">
+      <c r="B28" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="41">
         <v>3</v>
       </c>
       <c r="D28" s="26"/>
-      <c r="E28" s="99" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="100">
-        <v>2</v>
+      <c r="E28" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="25">
+        <v>4</v>
       </c>
       <c r="G28" s="28"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
-      <c r="B29" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="42">
-        <v>7</v>
-      </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="101" t="s">
-        <v>217</v>
-      </c>
-      <c r="F29" s="102">
-        <v>4</v>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
+      <c r="B29" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="25">
+        <v>6</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="25">
+        <v>10</v>
+      </c>
+      <c r="G29" s="28"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
     </row>
     <row r="30" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="101" t="s">
-        <v>219</v>
-      </c>
-      <c r="F30" s="102">
-        <v>7</v>
-      </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="25">
+        <v>2</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
     </row>
     <row r="31" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="101" t="s">
-        <v>220</v>
-      </c>
-      <c r="F31" s="102">
+      <c r="B31" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="25">
         <v>1</v>
       </c>
-      <c r="G31" s="47"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="35"/>
     </row>
     <row r="32" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="53"/>
+    </row>
+    <row r="34" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54">
+        <v>1</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="25">
+        <v>5562973491</v>
+      </c>
+      <c r="H34" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="I34" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54">
+        <v>2</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="25">
+        <v>5611771676</v>
+      </c>
+      <c r="H35" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="54">
+        <v>3</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36" s="25">
+        <v>5562045933</v>
+      </c>
+      <c r="H36" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54">
+        <v>4</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="25">
+        <v>525519096161</v>
+      </c>
+      <c r="H37" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="J37" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="54">
+        <v>5</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="25">
+        <v>5576632082</v>
+      </c>
+      <c r="H38" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="J38" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="54">
+        <v>6</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="G39" s="25">
+        <v>5542703925</v>
+      </c>
+      <c r="H39" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="I39" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="J39" s="57" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="54">
+        <v>7</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="G40" s="25">
+        <v>5580379057</v>
+      </c>
+      <c r="H40" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="J40" s="57" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="54">
+        <v>8</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="F33" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="H33" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="54"/>
-    </row>
-    <row r="34" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55">
-        <v>1</v>
-      </c>
-      <c r="B34" s="56" t="s">
+      <c r="F41" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="25">
+        <v>5511976470506</v>
+      </c>
+      <c r="H41" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="54">
+        <v>9</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="25">
+        <v>5529729847</v>
+      </c>
+      <c r="H42" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="J42" s="60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="54">
         <v>10</v>
       </c>
-      <c r="C34" s="56" t="s">
-        <v>172</v>
-      </c>
-      <c r="D34" s="56" t="s">
+      <c r="B43" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="F34" s="56" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="42">
-        <v>5586171710</v>
-      </c>
-      <c r="H34" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="I34" s="56" t="s">
-        <v>175</v>
-      </c>
-      <c r="J34" s="56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55">
-        <v>2</v>
-      </c>
-      <c r="B35" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="59" t="s">
+      <c r="E43" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="G43" s="56">
+        <v>5617739364</v>
+      </c>
+      <c r="H43" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" s="55" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="54">
+        <v>11</v>
+      </c>
+      <c r="B44" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="42">
-        <v>5531190611</v>
-      </c>
-      <c r="H35" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="I35" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="J35" s="60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55">
-        <v>3</v>
-      </c>
-      <c r="B36" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D36" s="59" t="s">
+      <c r="E44" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="56">
+        <v>8117614357</v>
+      </c>
+      <c r="H44" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="J44" s="58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="54">
+        <v>12</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="G36" s="42">
-        <v>5530862740</v>
-      </c>
-      <c r="H36" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="I36" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="J36" s="60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55">
-        <v>4</v>
-      </c>
-      <c r="B37" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>205</v>
-      </c>
-      <c r="D37" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37" s="56" t="s">
-        <v>206</v>
-      </c>
-      <c r="G37" s="42">
-        <v>5554352273</v>
-      </c>
-      <c r="H37" s="56" t="s">
-        <v>207</v>
-      </c>
-      <c r="I37" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="J37" s="56" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55">
-        <v>5</v>
-      </c>
-      <c r="B38" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="58" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" s="42">
-        <v>5531107566</v>
-      </c>
-      <c r="H38" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="I38" s="58"/>
-      <c r="J38" s="60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="55">
-        <v>6</v>
-      </c>
-      <c r="B39" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="42">
-        <v>5515938787</v>
-      </c>
-      <c r="H39" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="I39" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="J39" s="56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="55">
-        <v>7</v>
-      </c>
-      <c r="B40" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="56" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="F40" s="56" t="s">
-        <v>198</v>
-      </c>
-      <c r="G40" s="42">
-        <v>6641299996</v>
-      </c>
-      <c r="H40" s="56" t="s">
-        <v>199</v>
-      </c>
-      <c r="I40" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="J40" s="56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="55">
-        <v>8</v>
-      </c>
-      <c r="B41" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="F41" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="42">
-        <v>111111</v>
-      </c>
-      <c r="H41" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="I41" s="56" t="s">
+      <c r="E45" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="25">
+        <v>8118021212</v>
+      </c>
+      <c r="H45" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="J41" s="56" t="s">
+      <c r="J45" s="60" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="55">
-        <v>9</v>
-      </c>
-      <c r="B42" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>189</v>
-      </c>
-      <c r="D42" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="F42" s="56" t="s">
-        <v>190</v>
-      </c>
-      <c r="G42" s="42">
-        <v>5538659090</v>
-      </c>
-      <c r="H42" s="56" t="s">
-        <v>191</v>
-      </c>
-      <c r="I42" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="J42" s="56" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="55">
-        <v>10</v>
-      </c>
-      <c r="B43" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="D43" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="F43" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="G43" s="42">
-        <v>7221336034</v>
-      </c>
-      <c r="H43" s="56" t="s">
-        <v>195</v>
-      </c>
-      <c r="I43" s="56" t="s">
-        <v>196</v>
-      </c>
-      <c r="J43" s="56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="55">
-        <v>11</v>
-      </c>
-      <c r="B44" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="56" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="56" t="s">
-        <v>220</v>
-      </c>
-      <c r="F44" s="56" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" s="42">
-        <v>5544887881</v>
-      </c>
-      <c r="H44" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="I44" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="J44" s="56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="55">
-        <v>12</v>
-      </c>
-      <c r="B45" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="F45" s="56" t="s">
-        <v>202</v>
-      </c>
-      <c r="G45" s="42">
-        <v>5580969696</v>
-      </c>
-      <c r="H45" s="56" t="s">
-        <v>203</v>
-      </c>
-      <c r="I45" s="60" t="s">
-        <v>204</v>
-      </c>
-      <c r="J45" s="56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="55">
+    <row r="46" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="54">
         <v>13</v>
       </c>
-      <c r="B46" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="56" t="s">
-        <v>30</v>
+      <c r="B46" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>44</v>
       </c>
       <c r="D46" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="F46" s="56" t="s">
-        <v>32</v>
-      </c>
-      <c r="G46" s="42">
-        <v>5554336170</v>
-      </c>
-      <c r="H46" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="I46" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="J46" s="56" t="s">
+      <c r="E46" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="25">
+        <v>5573840795</v>
+      </c>
+      <c r="H46" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="J46" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="55">
+    <row r="47" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="54">
         <v>14</v>
       </c>
-      <c r="B47" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="56" t="s">
-        <v>97</v>
+      <c r="B47" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="57" t="s">
+        <v>48</v>
       </c>
       <c r="D47" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="F47" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="G47" s="42">
-        <v>6681840672</v>
-      </c>
-      <c r="H47" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="J47" s="56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="55">
+      <c r="E47" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="G47" s="25">
+        <v>5613551908</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="I47" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="J47" s="60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="54">
         <v>15</v>
       </c>
-      <c r="B48" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>41</v>
+      <c r="B48" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="57" t="s">
+        <v>69</v>
       </c>
       <c r="D48" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F48" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" s="42">
-        <v>5587702800</v>
-      </c>
-      <c r="H48" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="J48" s="60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="55">
+      <c r="E48" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="25">
+        <v>5941085553</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="I48" s="57" t="s">
+        <v>72</v>
+      </c>
+      <c r="J48" s="57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="54">
         <v>16</v>
       </c>
-      <c r="B49" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>113</v>
+      <c r="B49" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="57" t="s">
+        <v>73</v>
       </c>
       <c r="D49" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="56" t="s">
+      <c r="E49" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="25">
+        <v>5578797434</v>
+      </c>
+      <c r="H49" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I49" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="J49" s="60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="54">
+        <v>17</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G50" s="25">
+        <v>9361023250</v>
+      </c>
+      <c r="H50" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="I50" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J50" s="60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="54">
+        <v>18</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" s="25">
+        <v>9992974840</v>
+      </c>
+      <c r="H51" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J51" s="57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="54">
+        <v>19</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="G52" s="25">
+        <v>5543820362</v>
+      </c>
+      <c r="H52" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="J52" s="60" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="54">
+        <v>20</v>
+      </c>
+      <c r="B53" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="56" t="s">
+      <c r="C53" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="D53" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="G53" s="25">
+        <v>9811251454</v>
+      </c>
+      <c r="H53" s="57" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="J53" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="54">
+        <v>21</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="G54" s="25">
+        <v>5522707168</v>
+      </c>
+      <c r="H54" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="I54" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="J54" s="57" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="54">
+        <v>22</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E55" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" s="57" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="25">
+        <v>8181202930</v>
+      </c>
+      <c r="H55" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="I55" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="J55" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="54">
+        <v>23</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G56" s="25">
+        <v>5581046524</v>
+      </c>
+      <c r="H56" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="54">
+        <v>24</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="25">
+        <v>5611726383</v>
+      </c>
+      <c r="H57" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="I57" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="J57" s="57" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="54">
+        <v>25</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="25">
+        <v>5526634389</v>
+      </c>
+      <c r="H58" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="I58" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="J58" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="54">
+        <v>26</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="G49" s="42">
-        <v>7442185660</v>
-      </c>
-      <c r="H49" s="56" t="s">
+      <c r="D59" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E59" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="I49" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="J49" s="60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="55">
-        <v>17</v>
-      </c>
-      <c r="B50" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E50" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="F50" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G50" s="42">
-        <v>5529108028</v>
-      </c>
-      <c r="H50" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="I50" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="J50" s="56" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="55">
-        <v>18</v>
-      </c>
-      <c r="B51" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="D51" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" s="56" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="G51" s="42">
-        <v>5522498842</v>
-      </c>
-      <c r="H51" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="I51" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="J51" s="56" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="55">
+      <c r="G59" s="25">
+        <v>5511522479</v>
+      </c>
+      <c r="H59" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="I59" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="J59" s="57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="54">
+        <v>27</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="59" t="s">
+        <v>59</v>
+      </c>
+      <c r="E60" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="56" t="s">
-        <v>169</v>
-      </c>
-      <c r="D52" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E52" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="56" t="s">
-        <v>170</v>
-      </c>
-      <c r="G52" s="42">
-        <v>5581086805</v>
-      </c>
-      <c r="H52" s="56" t="s">
-        <v>171</v>
-      </c>
-      <c r="I52" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="J52" s="60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="55">
-        <v>20</v>
-      </c>
-      <c r="B53" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="56" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E53" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="56" t="s">
-        <v>180</v>
-      </c>
-      <c r="G53" s="42">
-        <v>9931384949</v>
-      </c>
-      <c r="H53" s="56" t="s">
-        <v>181</v>
-      </c>
-      <c r="I53" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="J53" s="60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="55">
-        <v>21</v>
-      </c>
-      <c r="B54" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>64</v>
-      </c>
-      <c r="D54" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E54" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="F54" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="G54" s="42">
-        <v>5560131789</v>
-      </c>
-      <c r="H54" s="56" t="s">
-        <v>66</v>
-      </c>
-      <c r="I54" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J54" s="56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="55">
-        <v>22</v>
-      </c>
-      <c r="B55" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="D55" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E55" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="F55" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="G55" s="42">
-        <v>525586171710</v>
-      </c>
-      <c r="H55" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="I55" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="J55" s="56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="55">
-        <v>23</v>
-      </c>
-      <c r="B56" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="D56" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F56" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="G56" s="42">
-        <v>5543621361</v>
-      </c>
-      <c r="H56" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="I56" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J56" s="60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="55">
-        <v>24</v>
-      </c>
-      <c r="B57" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E57" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F57" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="G57" s="42">
-        <v>9982463750</v>
-      </c>
-      <c r="H57" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="I57" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="J57" s="56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="55">
-        <v>25</v>
-      </c>
-      <c r="B58" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E58" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F58" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="G58" s="42">
-        <v>5564393947</v>
-      </c>
-      <c r="H58" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="I58" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J58" s="60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="19" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="55">
-        <v>26</v>
-      </c>
-      <c r="B59" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="D59" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E59" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F59" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="G59" s="42">
-        <v>5541411622</v>
-      </c>
-      <c r="H59" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="I59" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J59" s="56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="55">
-        <v>27</v>
-      </c>
-      <c r="B60" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E60" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F60" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="G60" s="42">
-        <v>5617503162</v>
-      </c>
-      <c r="H60" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="I60" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="J60" s="60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="55">
-        <v>28</v>
-      </c>
-      <c r="B61" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E61" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F61" s="56" t="s">
-        <v>177</v>
-      </c>
-      <c r="G61" s="42">
-        <v>5545297296</v>
-      </c>
-      <c r="H61" s="56" t="s">
-        <v>178</v>
-      </c>
-      <c r="I61" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="J61" s="60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="55">
-        <v>29</v>
-      </c>
-      <c r="B62" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="D62" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E62" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" s="56" t="s">
-        <v>187</v>
-      </c>
-      <c r="G62" s="42">
-        <v>6565328607</v>
-      </c>
-      <c r="H62" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="I62" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J62" s="60" t="s">
-        <v>77</v>
-      </c>
+      <c r="F60" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="25">
+        <v>525555571491</v>
+      </c>
+      <c r="H60" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="I60" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="J60" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="63"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="7"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="55">
-        <v>30</v>
-      </c>
-      <c r="B63" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C63" s="56" t="s">
-        <v>158</v>
-      </c>
-      <c r="D63" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E63" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F63" s="56" t="s">
-        <v>159</v>
-      </c>
-      <c r="G63" s="42">
-        <v>3202592555</v>
-      </c>
-      <c r="H63" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="I63" s="56" t="s">
-        <v>161</v>
-      </c>
-      <c r="J63" s="60" t="s">
-        <v>46</v>
-      </c>
+      <c r="A63" s="23"/>
+      <c r="B63" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="66"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="68"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="70"/>
+      <c r="J63" s="71"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="55">
+      <c r="A64" s="23"/>
+      <c r="B64" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="66"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="67"/>
+      <c r="G64" s="68"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="70"/>
+      <c r="J64" s="71"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="23"/>
+      <c r="B65" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B64" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="D64" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E64" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="56" t="s">
-        <v>146</v>
-      </c>
-      <c r="G64" s="42">
-        <v>5552290800</v>
-      </c>
-      <c r="H64" s="56" t="s">
-        <v>147</v>
-      </c>
-      <c r="I64" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="J64" s="56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="55">
-        <v>32</v>
-      </c>
-      <c r="B65" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D65" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="E65" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G65" s="42">
-        <v>525535111163</v>
-      </c>
-      <c r="H65" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="I65" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="J65" s="56" t="s">
-        <v>29</v>
-      </c>
+      <c r="C65" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="66"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="68"/>
+      <c r="H65" s="69"/>
+      <c r="I65" s="70"/>
+      <c r="J65" s="71"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="55">
-        <v>33</v>
-      </c>
-      <c r="B66" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="D66" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="G66" s="42">
-        <v>525580707085</v>
-      </c>
-      <c r="H66" s="56" t="s">
-        <v>139</v>
-      </c>
-      <c r="I66" s="58" t="s">
-        <v>222</v>
-      </c>
-      <c r="J66" s="56" t="s">
-        <v>29</v>
-      </c>
+      <c r="A66" s="23"/>
+      <c r="B66" s="64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="65" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="66"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="72"/>
+      <c r="H66" s="73"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="55">
-        <v>34</v>
-      </c>
-      <c r="B67" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="D67" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E67" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="F67" s="56" t="s">
-        <v>150</v>
-      </c>
-      <c r="G67" s="42">
-        <v>5554152044</v>
-      </c>
-      <c r="H67" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="I67" s="56" t="s">
-        <v>152</v>
-      </c>
-      <c r="J67" s="56" t="s">
-        <v>153</v>
-      </c>
+      <c r="A67" s="5"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="55">
-        <v>35</v>
-      </c>
-      <c r="B68" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E68" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="F68" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="G68" s="42">
-        <v>11995201428</v>
-      </c>
-      <c r="H68" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="I68" s="56" t="s">
-        <v>50</v>
-      </c>
-      <c r="J68" s="56" t="s">
-        <v>55</v>
-      </c>
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="55">
-        <v>36</v>
-      </c>
-      <c r="B69" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="56" t="s">
-        <v>60</v>
-      </c>
-      <c r="D69" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E69" s="56" t="s">
-        <v>219</v>
-      </c>
-      <c r="F69" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G69" s="42">
-        <v>2215844980</v>
-      </c>
-      <c r="H69" s="56" t="s">
-        <v>62</v>
-      </c>
-      <c r="I69" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="J69" s="56" t="s">
-        <v>55</v>
-      </c>
+      <c r="A69" s="5"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="55">
-        <v>37</v>
-      </c>
-      <c r="B70" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="56" t="s">
-        <v>51</v>
-      </c>
-      <c r="D70" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E70" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F70" s="56" t="s">
-        <v>52</v>
-      </c>
-      <c r="G70" s="42">
-        <v>5540854834</v>
-      </c>
-      <c r="H70" s="56" t="s">
-        <v>53</v>
-      </c>
-      <c r="I70" s="56" t="s">
-        <v>54</v>
-      </c>
-      <c r="J70" s="56" t="s">
-        <v>55</v>
-      </c>
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="55">
-        <v>38</v>
-      </c>
-      <c r="B71" s="56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>182</v>
-      </c>
-      <c r="D71" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E71" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="F71" s="56" t="s">
-        <v>183</v>
-      </c>
-      <c r="G71" s="42">
-        <v>9841818616</v>
-      </c>
-      <c r="H71" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="I71" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="J71" s="56" t="s">
-        <v>71</v>
-      </c>
+      <c r="A71" s="5"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="7"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="55">
-        <v>39</v>
-      </c>
-      <c r="B72" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="D72" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="E72" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="F72" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="G72" s="42">
-        <v>5513008387</v>
-      </c>
-      <c r="H72" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="I72" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="J72" s="56" t="s">
-        <v>144</v>
-      </c>
+      <c r="A72" s="5"/>
+      <c r="B72" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="7"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="